--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +385,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -438,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,6 +586,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -886,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO104"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R83" sqref="R83"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -4984,7 +5003,7 @@
       <c r="J41" s="7">
         <v>6</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="25">
         <v>6</v>
       </c>
       <c r="L41" s="7">
@@ -5085,7 +5104,7 @@
       <c r="J42" s="7">
         <v>9</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="25">
         <v>0</v>
       </c>
       <c r="L42" s="7">
@@ -5186,7 +5205,7 @@
       <c r="J43" s="7">
         <v>0</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="25">
         <v>4</v>
       </c>
       <c r="L43" s="7">
@@ -5287,7 +5306,7 @@
       <c r="J44" s="7">
         <v>40</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="25">
         <v>0</v>
       </c>
       <c r="L44" s="7">
@@ -5388,7 +5407,7 @@
       <c r="J45" s="7">
         <v>3</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="25">
         <v>0</v>
       </c>
       <c r="L45" s="7">
@@ -5549,7 +5568,7 @@
       <c r="AD46" s="7">
         <v>13</v>
       </c>
-      <c r="AE46" s="7">
+      <c r="AE46" s="25">
         <v>3</v>
       </c>
       <c r="AF46" s="7">
@@ -5650,7 +5669,7 @@
       <c r="AD47" s="7">
         <v>9</v>
       </c>
-      <c r="AE47" s="7">
+      <c r="AE47" s="25">
         <v>7</v>
       </c>
       <c r="AF47" s="7">
@@ -5706,7 +5725,9 @@
       <c r="O48" s="7">
         <v>20</v>
       </c>
-      <c r="P48" s="7"/>
+      <c r="P48" s="7">
+        <v>0</v>
+      </c>
       <c r="Q48" s="7">
         <v>2</v>
       </c>
@@ -5749,7 +5770,7 @@
       <c r="AD48" s="7">
         <v>17</v>
       </c>
-      <c r="AE48" s="7">
+      <c r="AE48" s="25">
         <v>5</v>
       </c>
       <c r="AF48" s="7">
@@ -5848,7 +5869,7 @@
       <c r="AD49" s="7">
         <v>16</v>
       </c>
-      <c r="AE49" s="7">
+      <c r="AE49" s="25">
         <v>1</v>
       </c>
       <c r="AF49" s="7">
@@ -6454,7 +6475,7 @@
     </row>
     <row r="56" spans="1:33" s="25" customFormat="1">
       <c r="A56" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" s="7">
         <v>0</v>
@@ -6474,15 +6495,17 @@
       <c r="G56" s="7">
         <v>5</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="25">
         <v>7</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
       </c>
-      <c r="J56" s="7"/>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
       <c r="K56" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L56" s="7">
         <v>6</v>
@@ -6569,7 +6592,7 @@
       <c r="G57" s="7">
         <v>4</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="25">
         <v>1</v>
       </c>
       <c r="I57" s="7">
@@ -6607,7 +6630,9 @@
       <c r="V57" s="7">
         <v>0</v>
       </c>
-      <c r="W57" s="7"/>
+      <c r="W57" s="7">
+        <v>0</v>
+      </c>
       <c r="X57" s="7">
         <v>3</v>
       </c>
@@ -6630,7 +6655,7 @@
         <v>5</v>
       </c>
       <c r="AE57" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF57" s="7">
         <v>2</v>
@@ -6659,7 +6684,7 @@
       <c r="G58" s="7">
         <v>5</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="25">
         <v>0</v>
       </c>
       <c r="I58" s="7">
@@ -6684,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S58" s="7">
         <v>3</v>
@@ -6717,7 +6742,9 @@
       <c r="AC58" s="7">
         <v>0</v>
       </c>
-      <c r="AD58" s="26"/>
+      <c r="AD58" s="40">
+        <v>0</v>
+      </c>
       <c r="AE58" s="7"/>
       <c r="AF58" s="7">
         <v>6</v>
@@ -6731,7 +6758,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" s="7">
         <v>6</v>
@@ -6742,10 +6769,10 @@
       <c r="F59" s="7">
         <v>8</v>
       </c>
-      <c r="G59" s="25">
-        <v>4</v>
-      </c>
-      <c r="H59" s="7">
+      <c r="G59" s="7">
+        <v>4</v>
+      </c>
+      <c r="H59" s="25">
         <v>1</v>
       </c>
       <c r="I59" s="7">
@@ -6818,7 +6845,7 @@
       <c r="F60" s="7">
         <v>2</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="7">
         <v>9</v>
       </c>
       <c r="H60" s="7">
@@ -6839,7 +6866,7 @@
       <c r="O60" s="7">
         <v>8</v>
       </c>
-      <c r="Q60" s="7">
+      <c r="Q60" s="25">
         <v>4</v>
       </c>
       <c r="S60" s="7">
@@ -6876,7 +6903,7 @@
         <v>3</v>
       </c>
       <c r="AG60" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
@@ -6894,7 +6921,7 @@
       <c r="F61" s="7">
         <v>3</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="7">
         <v>5</v>
       </c>
       <c r="H61" s="7">
@@ -6918,14 +6945,16 @@
         <v>2</v>
       </c>
       <c r="P61" s="25"/>
-      <c r="Q61" s="7">
+      <c r="Q61" s="25">
         <v>4</v>
       </c>
       <c r="R61" s="7"/>
       <c r="S61" s="14">
         <v>4</v>
       </c>
-      <c r="T61" s="7"/>
+      <c r="T61" s="7">
+        <v>0</v>
+      </c>
       <c r="U61" s="7">
         <v>0</v>
       </c>
@@ -6943,7 +6972,7 @@
         <v>8</v>
       </c>
       <c r="AA61" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB61" s="7">
         <v>12</v>
@@ -6975,26 +7004,28 @@
       <c r="G62" s="7">
         <v>3</v>
       </c>
-      <c r="H62" s="7"/>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
       <c r="I62" s="7">
         <v>5</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
       </c>
       <c r="N62" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O62" s="7">
         <v>4</v>
       </c>
       <c r="P62" s="25"/>
-      <c r="Q62" s="7">
+      <c r="Q62" s="25">
         <v>2</v>
       </c>
       <c r="R62" s="25"/>
@@ -7023,7 +7054,7 @@
         <v>12</v>
       </c>
       <c r="AC62" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD62" s="7"/>
       <c r="AE62" s="3"/>
@@ -7065,7 +7096,7 @@
         <v>3</v>
       </c>
       <c r="P63" s="4"/>
-      <c r="Q63" s="4">
+      <c r="Q63" s="12">
         <v>2</v>
       </c>
       <c r="R63" s="7"/>
@@ -7084,7 +7115,7 @@
         <v>3</v>
       </c>
       <c r="Y63" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z63" s="4">
         <v>12</v>
@@ -7096,7 +7127,7 @@
       <c r="AD63" s="7"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG63" s="5"/>
     </row>
@@ -7118,7 +7149,7 @@
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="4"/>
@@ -7130,7 +7161,7 @@
         <v>7</v>
       </c>
       <c r="P64" s="4"/>
-      <c r="Q64" s="4">
+      <c r="Q64" s="12">
         <v>2</v>
       </c>
       <c r="R64" s="4"/>
@@ -7139,7 +7170,7 @@
       </c>
       <c r="T64" s="7"/>
       <c r="U64" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" s="4">
         <v>4</v>
@@ -7162,7 +7193,7 @@
     </row>
     <row r="65" spans="1:33">
       <c r="B65" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="7">
@@ -7172,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="2">
         <v>4</v>
@@ -7244,7 +7275,7 @@
       </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
@@ -7260,7 +7291,7 @@
         <v>4</v>
       </c>
       <c r="AB66" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7276,7 +7307,7 @@
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -7287,7 +7318,7 @@
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
@@ -7302,10 +7333,10 @@
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB67" s="12"/>
       <c r="AD67" s="4"/>
@@ -7374,7 +7405,7 @@
       <c r="T69" s="3"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
@@ -7391,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" s="7"/>
       <c r="H70" s="4"/>
@@ -7496,13 +7527,13 @@
       <c r="I73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
@@ -7551,7 +7582,7 @@
       <c r="A75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="4"/>
       <c r="H75" s="4"/>
@@ -8044,8 +8075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT961"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA173" sqref="AA173"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -21111,7 +21142,7 @@
         <v>1</v>
       </c>
       <c r="V160" s="20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W160" s="20"/>
       <c r="X160" s="19">
@@ -21130,7 +21161,7 @@
         <v>9</v>
       </c>
       <c r="AC160" s="20"/>
-      <c r="AD160" s="20"/>
+      <c r="AD160" s="64"/>
       <c r="AF160" s="39"/>
       <c r="AH160" s="21">
         <v>0</v>
@@ -21205,7 +21236,7 @@
         <v>3</v>
       </c>
       <c r="S161" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T161" s="19">
         <v>0</v>
@@ -21214,7 +21245,7 @@
         <v>10</v>
       </c>
       <c r="V161" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W161" s="20"/>
       <c r="X161" s="19">
@@ -21231,7 +21262,7 @@
       </c>
       <c r="AB161" s="20"/>
       <c r="AC161" s="20"/>
-      <c r="AD161" s="20"/>
+      <c r="AD161" s="64"/>
       <c r="AF161" s="39"/>
       <c r="AH161" s="21">
         <v>1</v>
@@ -21302,7 +21333,7 @@
       <c r="R162" s="19">
         <v>2</v>
       </c>
-      <c r="S162" s="20">
+      <c r="S162" s="19">
         <v>15</v>
       </c>
       <c r="T162" s="19">
@@ -21330,8 +21361,10 @@
       <c r="AB162" s="22">
         <v>6</v>
       </c>
-      <c r="AC162" s="20"/>
-      <c r="AD162" s="20"/>
+      <c r="AC162" s="19">
+        <v>15</v>
+      </c>
+      <c r="AD162" s="64"/>
       <c r="AF162" s="23"/>
       <c r="AH162" s="21">
         <v>0</v>
@@ -21511,7 +21544,7 @@
         <v>8</v>
       </c>
       <c r="U164" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V164" s="19">
         <v>4</v>
@@ -21533,9 +21566,7 @@
         <v>8</v>
       </c>
       <c r="AC164" s="20"/>
-      <c r="AD164" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD164" s="64"/>
       <c r="AF164" s="39"/>
       <c r="AH164" s="21">
         <v>0</v>
@@ -21700,7 +21731,7 @@
       </c>
       <c r="P166" s="22"/>
       <c r="Q166" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R166" s="19">
         <v>8</v>
@@ -21734,9 +21765,7 @@
         <v>8</v>
       </c>
       <c r="AC166" s="20"/>
-      <c r="AD166" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD166" s="64"/>
       <c r="AF166" s="39"/>
       <c r="AH166" s="21">
         <v>0</v>
@@ -21802,7 +21831,7 @@
       </c>
       <c r="P167" s="22"/>
       <c r="Q167" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R167" s="22">
         <v>0</v>
@@ -21836,9 +21865,7 @@
         <v>5</v>
       </c>
       <c r="AC167" s="23"/>
-      <c r="AD167" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD167" s="64"/>
       <c r="AF167" s="39"/>
       <c r="AH167" s="21">
         <v>0</v>
@@ -22012,7 +22039,7 @@
         <v>0</v>
       </c>
       <c r="R169" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S169" s="22">
         <v>3</v>
@@ -22021,7 +22048,7 @@
         <v>2</v>
       </c>
       <c r="U169" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V169" s="22">
         <v>2</v>
@@ -22041,9 +22068,7 @@
       </c>
       <c r="AB169" s="23"/>
       <c r="AC169" s="23"/>
-      <c r="AD169" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD169" s="64"/>
       <c r="AF169" s="39"/>
       <c r="AH169" s="21">
         <v>0</v>
@@ -22115,7 +22140,7 @@
         <v>2</v>
       </c>
       <c r="R170" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S170" s="22">
         <v>0</v>
@@ -22146,9 +22171,7 @@
         <v>3</v>
       </c>
       <c r="AC170" s="23"/>
-      <c r="AD170" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD170" s="64"/>
       <c r="AF170" s="39"/>
       <c r="AH170" s="21">
         <v>0</v>
@@ -22322,16 +22345,16 @@
         <v>1</v>
       </c>
       <c r="S172" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T172" s="22">
         <v>0</v>
       </c>
-      <c r="U172" s="23">
+      <c r="U172" s="22">
         <v>5</v>
       </c>
       <c r="V172" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W172" s="23"/>
       <c r="X172" s="22">
@@ -22343,10 +22366,12 @@
       <c r="Z172" s="19">
         <v>4</v>
       </c>
-      <c r="AA172" s="23"/>
+      <c r="AA172" s="19">
+        <v>5</v>
+      </c>
       <c r="AB172" s="23"/>
       <c r="AC172" s="23"/>
-      <c r="AD172" s="23"/>
+      <c r="AD172" s="64"/>
       <c r="AF172" s="39"/>
       <c r="AH172" s="21">
         <v>1</v>
@@ -22409,7 +22434,7 @@
       </c>
       <c r="P173" s="22"/>
       <c r="Q173" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R173" s="22">
         <v>1</v>
@@ -22418,9 +22443,9 @@
         <v>1</v>
       </c>
       <c r="T173" s="23">
-        <v>4</v>
-      </c>
-      <c r="U173" s="23">
+        <v>5</v>
+      </c>
+      <c r="U173" s="22">
         <v>4</v>
       </c>
       <c r="V173" s="22">
@@ -22436,10 +22461,12 @@
       <c r="Z173" s="19">
         <v>2</v>
       </c>
-      <c r="AA173" s="23"/>
+      <c r="AA173" s="19">
+        <v>4</v>
+      </c>
       <c r="AB173" s="23"/>
       <c r="AC173" s="23"/>
-      <c r="AD173" s="23"/>
+      <c r="AD173" s="64"/>
       <c r="AF173" s="39"/>
       <c r="AH173" s="21">
         <v>0</v>
@@ -22511,19 +22538,19 @@
         <v>2</v>
       </c>
       <c r="R174" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S174" s="22">
         <v>0</v>
       </c>
-      <c r="T174" s="23">
+      <c r="T174" s="22">
         <v>3</v>
       </c>
       <c r="U174" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V174" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W174" s="23"/>
       <c r="X174" s="21">
@@ -22532,11 +22559,13 @@
       <c r="Y174" s="16">
         <v>2</v>
       </c>
-      <c r="Z174" s="23"/>
+      <c r="Z174" s="19">
+        <v>3</v>
+      </c>
       <c r="AA174" s="23"/>
       <c r="AB174" s="23"/>
       <c r="AC174" s="23"/>
-      <c r="AD174" s="23"/>
+      <c r="AD174" s="64"/>
       <c r="AF174" s="39"/>
       <c r="AH174" s="21">
         <v>1</v>
@@ -22601,14 +22630,14 @@
         <v>8</v>
       </c>
       <c r="P175" s="22"/>
-      <c r="Q175" s="20">
+      <c r="Q175" s="19">
         <v>2</v>
       </c>
       <c r="R175" s="19">
         <v>0</v>
       </c>
       <c r="S175" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T175" s="19">
         <v>1</v>
@@ -22617,7 +22646,7 @@
         <v>1</v>
       </c>
       <c r="V175" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W175" s="20"/>
       <c r="X175" s="16">
@@ -22629,10 +22658,14 @@
       <c r="Z175" s="19">
         <v>1</v>
       </c>
-      <c r="AA175" s="20"/>
+      <c r="AA175" s="19">
+        <v>2</v>
+      </c>
       <c r="AB175" s="20"/>
       <c r="AC175" s="20"/>
-      <c r="AD175" s="20"/>
+      <c r="AD175" s="64" t="s">
+        <v>24</v>
+      </c>
       <c r="AF175" s="39"/>
       <c r="AH175" s="21">
         <v>0</v>
@@ -22695,22 +22728,22 @@
       </c>
       <c r="P176" s="22"/>
       <c r="Q176" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R176" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S176" s="19">
         <v>0</v>
       </c>
-      <c r="T176" s="20">
+      <c r="T176" s="19">
         <v>1</v>
       </c>
       <c r="U176" s="19">
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -22719,7 +22752,9 @@
       <c r="Y176" s="19">
         <v>0</v>
       </c>
-      <c r="Z176" s="20"/>
+      <c r="Z176" s="19">
+        <v>1</v>
+      </c>
       <c r="AA176" s="20"/>
       <c r="AB176" s="20"/>
       <c r="AC176" s="20"/>
@@ -22744,7 +22779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:32" s="21" customFormat="1">
+    <row r="177" spans="1:43" s="21" customFormat="1">
       <c r="A177" s="21">
         <v>0</v>
       </c>
@@ -22783,22 +22818,22 @@
       </c>
       <c r="P177" s="22"/>
       <c r="Q177" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R177" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S177" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T177" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U177" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V177" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W177" s="23"/>
       <c r="X177" s="23"/>
@@ -22809,44 +22844,140 @@
       <c r="AC177" s="23"/>
       <c r="AD177" s="23"/>
       <c r="AF177" s="39"/>
-    </row>
-    <row r="178" spans="1:32" s="21" customFormat="1">
+      <c r="AH177" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI177" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ177" s="21">
+        <v>2</v>
+      </c>
+      <c r="AK177" s="21">
+        <v>4</v>
+      </c>
+      <c r="AO177" s="21">
+        <v>3</v>
+      </c>
+      <c r="AP177" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ177" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:43" s="21" customFormat="1">
+      <c r="A178" s="21">
+        <v>2</v>
+      </c>
+      <c r="B178" s="21">
+        <v>1</v>
+      </c>
+      <c r="C178" s="21">
+        <v>15</v>
+      </c>
+      <c r="D178" s="21">
+        <v>4</v>
+      </c>
+      <c r="E178" s="21">
+        <v>3</v>
+      </c>
+      <c r="F178" s="21">
+        <v>5</v>
+      </c>
+      <c r="I178" s="21">
+        <v>1</v>
+      </c>
+      <c r="J178" s="21">
+        <v>2</v>
+      </c>
+      <c r="K178" s="21">
+        <v>3</v>
+      </c>
+      <c r="L178" s="21">
+        <v>4</v>
+      </c>
+      <c r="M178" s="21">
+        <v>5</v>
+      </c>
+      <c r="N178" s="21">
+        <v>15</v>
+      </c>
       <c r="P178" s="22"/>
-      <c r="Q178" s="23"/>
-      <c r="R178" s="23"/>
-      <c r="S178" s="23"/>
-      <c r="T178" s="23"/>
-      <c r="U178" s="23"/>
-      <c r="V178" s="23"/>
+      <c r="Q178" s="23">
+        <v>0</v>
+      </c>
+      <c r="R178" s="23">
+        <v>0</v>
+      </c>
+      <c r="S178" s="23">
+        <v>0</v>
+      </c>
+      <c r="T178" s="23">
+        <v>0</v>
+      </c>
+      <c r="U178" s="23">
+        <v>0</v>
+      </c>
+      <c r="V178" s="23">
+        <v>0</v>
+      </c>
       <c r="W178" s="23"/>
-      <c r="X178" s="23"/>
-      <c r="Y178" s="23"/>
-      <c r="Z178" s="23"/>
-      <c r="AA178" s="23"/>
-      <c r="AB178" s="23"/>
-      <c r="AC178" s="23"/>
+      <c r="X178" s="39"/>
+      <c r="Y178" s="39"/>
+      <c r="Z178" s="39"/>
+      <c r="AA178" s="39"/>
+      <c r="AB178" s="39"/>
+      <c r="AC178" s="39"/>
       <c r="AD178" s="23"/>
       <c r="AF178" s="39"/>
-    </row>
-    <row r="179" spans="1:32" s="21" customFormat="1">
+      <c r="AH178" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI178" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ178" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK178" s="21">
+        <v>4</v>
+      </c>
+      <c r="AL178" s="21">
+        <v>5</v>
+      </c>
+      <c r="AM178" s="21">
+        <v>15</v>
+      </c>
+      <c r="AO178" s="21">
+        <v>3</v>
+      </c>
+      <c r="AP178" s="21">
+        <v>2</v>
+      </c>
+      <c r="AQ178" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:43" s="21" customFormat="1">
       <c r="P179" s="22"/>
-      <c r="Q179" s="20"/>
-      <c r="R179" s="20"/>
-      <c r="S179" s="20"/>
-      <c r="T179" s="20"/>
-      <c r="U179" s="20"/>
-      <c r="V179" s="20"/>
-      <c r="W179" s="15"/>
-      <c r="X179" s="15"/>
-      <c r="Y179" s="15"/>
-      <c r="Z179" s="15"/>
-      <c r="AA179" s="15"/>
-      <c r="AB179" s="15"/>
-      <c r="AC179" s="15"/>
-      <c r="AD179" s="20"/>
+      <c r="Q179" s="23"/>
+      <c r="R179" s="23"/>
+      <c r="S179" s="23"/>
+      <c r="T179" s="23"/>
+      <c r="U179" s="23"/>
+      <c r="V179" s="23"/>
+      <c r="W179" s="23"/>
+      <c r="X179" s="39"/>
+      <c r="Y179" s="39"/>
+      <c r="Z179" s="23"/>
+      <c r="AA179" s="23"/>
+      <c r="AB179" s="23"/>
+      <c r="AC179" s="23"/>
+      <c r="AD179" s="23"/>
       <c r="AF179" s="39"/>
     </row>
-    <row r="180" spans="1:32" s="21" customFormat="1">
+    <row r="180" spans="1:43" s="21" customFormat="1">
       <c r="P180" s="22"/>
       <c r="Q180" s="23"/>
       <c r="R180" s="23"/>
@@ -22854,7 +22985,7 @@
       <c r="T180" s="23"/>
       <c r="U180" s="23"/>
       <c r="V180" s="23"/>
-      <c r="W180" s="23"/>
+      <c r="W180" s="39"/>
       <c r="X180" s="39"/>
       <c r="Y180" s="39"/>
       <c r="Z180" s="39"/>
@@ -22864,7 +22995,7 @@
       <c r="AD180" s="23"/>
       <c r="AF180" s="39"/>
     </row>
-    <row r="181" spans="1:32" s="21" customFormat="1">
+    <row r="181" spans="1:43" s="21" customFormat="1">
       <c r="P181" s="22"/>
       <c r="Q181" s="23"/>
       <c r="R181" s="23"/>
@@ -22872,17 +23003,17 @@
       <c r="T181" s="23"/>
       <c r="U181" s="23"/>
       <c r="V181" s="23"/>
-      <c r="W181" s="23"/>
+      <c r="W181" s="39"/>
       <c r="X181" s="39"/>
       <c r="Y181" s="39"/>
-      <c r="Z181" s="23"/>
-      <c r="AA181" s="23"/>
-      <c r="AB181" s="23"/>
-      <c r="AC181" s="23"/>
+      <c r="Z181" s="39"/>
+      <c r="AA181" s="39"/>
+      <c r="AB181" s="39"/>
+      <c r="AC181" s="39"/>
       <c r="AD181" s="23"/>
       <c r="AF181" s="39"/>
     </row>
-    <row r="182" spans="1:32" s="21" customFormat="1">
+    <row r="182" spans="1:43" s="21" customFormat="1">
       <c r="P182" s="22"/>
       <c r="Q182" s="23"/>
       <c r="R182" s="23"/>
@@ -22900,7 +23031,7 @@
       <c r="AD182" s="23"/>
       <c r="AF182" s="39"/>
     </row>
-    <row r="183" spans="1:32" s="21" customFormat="1">
+    <row r="183" spans="1:43" s="21" customFormat="1">
       <c r="Q183" s="23"/>
       <c r="R183" s="23"/>
       <c r="S183" s="23"/>
@@ -22917,60 +23048,60 @@
       <c r="AD183" s="23"/>
       <c r="AF183" s="39"/>
     </row>
-    <row r="184" spans="1:32" s="21" customFormat="1">
+    <row r="184" spans="1:43" s="21" customFormat="1">
       <c r="P184" s="22"/>
-      <c r="Q184" s="23"/>
-      <c r="R184" s="23"/>
-      <c r="S184" s="23"/>
-      <c r="T184" s="23"/>
-      <c r="U184" s="23"/>
-      <c r="V184" s="23"/>
-      <c r="W184" s="39"/>
-      <c r="X184" s="39"/>
-      <c r="Y184" s="39"/>
-      <c r="Z184" s="39"/>
-      <c r="AA184" s="39"/>
-      <c r="AB184" s="39"/>
-      <c r="AC184" s="39"/>
-      <c r="AD184" s="23"/>
+      <c r="Q184" s="20"/>
+      <c r="R184" s="20"/>
+      <c r="S184" s="20"/>
+      <c r="T184" s="20"/>
+      <c r="U184" s="20"/>
+      <c r="V184" s="20"/>
+      <c r="W184" s="20"/>
+      <c r="X184" s="20"/>
+      <c r="Y184" s="20"/>
+      <c r="Z184" s="20"/>
+      <c r="AA184" s="20"/>
+      <c r="AB184" s="20"/>
+      <c r="AC184" s="20"/>
+      <c r="AD184" s="20"/>
       <c r="AF184" s="39"/>
     </row>
-    <row r="185" spans="1:32" s="21" customFormat="1">
+    <row r="185" spans="1:43" s="21" customFormat="1">
       <c r="Q185" s="23"/>
       <c r="R185" s="23"/>
       <c r="S185" s="23"/>
       <c r="T185" s="23"/>
       <c r="U185" s="23"/>
       <c r="V185" s="23"/>
-      <c r="W185" s="39"/>
+      <c r="W185" s="23"/>
       <c r="X185" s="39"/>
       <c r="Y185" s="39"/>
-      <c r="Z185" s="39"/>
-      <c r="AA185" s="39"/>
-      <c r="AB185" s="39"/>
-      <c r="AC185" s="39"/>
+      <c r="Z185" s="23"/>
+      <c r="AA185" s="23"/>
+      <c r="AB185" s="23"/>
+      <c r="AC185" s="23"/>
       <c r="AD185" s="23"/>
       <c r="AF185" s="39"/>
     </row>
-    <row r="186" spans="1:32" s="21" customFormat="1">
+    <row r="186" spans="1:43" s="21" customFormat="1">
       <c r="P186" s="22"/>
-      <c r="Q186" s="20"/>
-      <c r="R186" s="20"/>
-      <c r="S186" s="20"/>
-      <c r="T186" s="20"/>
-      <c r="U186" s="20"/>
-      <c r="V186" s="20"/>
-      <c r="W186" s="20"/>
-      <c r="X186" s="20"/>
-      <c r="Y186" s="20"/>
-      <c r="Z186" s="20"/>
-      <c r="AA186" s="20"/>
-      <c r="AB186" s="20"/>
-      <c r="AC186" s="20"/>
-      <c r="AD186" s="20"/>
+      <c r="Q186" s="23"/>
+      <c r="R186" s="23"/>
+      <c r="S186" s="23"/>
+      <c r="T186" s="23"/>
+      <c r="U186" s="23"/>
+      <c r="V186" s="23"/>
+      <c r="W186" s="39"/>
+      <c r="X186" s="39"/>
+      <c r="Y186" s="39"/>
+      <c r="Z186" s="39"/>
+      <c r="AA186" s="39"/>
+      <c r="AB186" s="39"/>
+      <c r="AC186" s="39"/>
+      <c r="AD186" s="23"/>
       <c r="AF186" s="39"/>
     </row>
-    <row r="187" spans="1:32" s="21" customFormat="1">
+    <row r="187" spans="1:43" s="21" customFormat="1">
       <c r="Q187" s="23"/>
       <c r="R187" s="23"/>
       <c r="S187" s="23"/>
@@ -22987,7 +23118,7 @@
       <c r="AD187" s="23"/>
       <c r="AF187" s="39"/>
     </row>
-    <row r="188" spans="1:32" s="21" customFormat="1">
+    <row r="188" spans="1:43" s="21" customFormat="1">
       <c r="P188" s="22"/>
       <c r="Q188" s="23"/>
       <c r="R188" s="23"/>
@@ -22995,90 +23126,91 @@
       <c r="T188" s="23"/>
       <c r="U188" s="23"/>
       <c r="V188" s="23"/>
-      <c r="W188" s="39"/>
-      <c r="X188" s="39"/>
-      <c r="Y188" s="39"/>
-      <c r="Z188" s="39"/>
-      <c r="AA188" s="39"/>
-      <c r="AB188" s="39"/>
-      <c r="AC188" s="39"/>
+      <c r="W188" s="23"/>
+      <c r="X188" s="23"/>
+      <c r="Y188" s="23"/>
+      <c r="Z188" s="23"/>
+      <c r="AA188" s="23"/>
+      <c r="AB188" s="23"/>
+      <c r="AC188" s="23"/>
       <c r="AD188" s="23"/>
       <c r="AF188" s="39"/>
     </row>
-    <row r="189" spans="1:32" s="21" customFormat="1">
-      <c r="Q189" s="23"/>
-      <c r="R189" s="23"/>
-      <c r="S189" s="23"/>
-      <c r="T189" s="23"/>
-      <c r="U189" s="23"/>
-      <c r="V189" s="23"/>
-      <c r="W189" s="23"/>
-      <c r="X189" s="39"/>
-      <c r="Y189" s="39"/>
-      <c r="Z189" s="23"/>
-      <c r="AA189" s="23"/>
-      <c r="AB189" s="23"/>
-      <c r="AC189" s="23"/>
-      <c r="AD189" s="23"/>
+    <row r="189" spans="1:43" s="21" customFormat="1">
+      <c r="P189" s="22"/>
+      <c r="Q189" s="20"/>
+      <c r="R189" s="20"/>
+      <c r="S189" s="20"/>
+      <c r="T189" s="20"/>
+      <c r="U189" s="20"/>
+      <c r="V189" s="20"/>
+      <c r="W189" s="20"/>
+      <c r="X189" s="20"/>
+      <c r="Y189" s="20"/>
+      <c r="Z189" s="20"/>
+      <c r="AA189" s="20"/>
+      <c r="AB189" s="20"/>
+      <c r="AC189" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD189" s="20"/>
       <c r="AF189" s="39"/>
     </row>
-    <row r="190" spans="1:32" s="21" customFormat="1">
+    <row r="190" spans="1:43" s="21" customFormat="1">
       <c r="P190" s="22"/>
-      <c r="Q190" s="23"/>
-      <c r="R190" s="23"/>
-      <c r="S190" s="23"/>
-      <c r="T190" s="23"/>
-      <c r="U190" s="23"/>
-      <c r="V190" s="23"/>
-      <c r="W190" s="23"/>
-      <c r="X190" s="23"/>
-      <c r="Y190" s="23"/>
-      <c r="Z190" s="23"/>
-      <c r="AA190" s="23"/>
-      <c r="AB190" s="23"/>
-      <c r="AC190" s="23"/>
-      <c r="AD190" s="23"/>
+      <c r="Q190" s="20"/>
+      <c r="R190" s="20"/>
+      <c r="S190" s="20"/>
+      <c r="T190" s="20"/>
+      <c r="U190" s="20"/>
+      <c r="V190" s="20"/>
+      <c r="W190" s="20"/>
+      <c r="X190" s="20"/>
+      <c r="Y190" s="20"/>
+      <c r="Z190" s="20"/>
+      <c r="AA190" s="20"/>
+      <c r="AB190" s="20"/>
+      <c r="AC190" s="20"/>
+      <c r="AD190" s="20"/>
       <c r="AF190" s="39"/>
     </row>
-    <row r="191" spans="1:32" s="21" customFormat="1">
+    <row r="191" spans="1:43" s="21" customFormat="1">
       <c r="P191" s="22"/>
-      <c r="Q191" s="20"/>
-      <c r="R191" s="20"/>
-      <c r="S191" s="20"/>
-      <c r="T191" s="20"/>
-      <c r="U191" s="20"/>
-      <c r="V191" s="20"/>
-      <c r="W191" s="20"/>
-      <c r="X191" s="20"/>
-      <c r="Y191" s="20"/>
-      <c r="Z191" s="20"/>
-      <c r="AA191" s="20"/>
-      <c r="AB191" s="20"/>
-      <c r="AC191" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD191" s="20"/>
+      <c r="Q191" s="23"/>
+      <c r="R191" s="23"/>
+      <c r="S191" s="23"/>
+      <c r="T191" s="23"/>
+      <c r="U191" s="23"/>
+      <c r="V191" s="23"/>
+      <c r="W191" s="23"/>
+      <c r="X191" s="23"/>
+      <c r="Y191" s="23"/>
+      <c r="Z191" s="23"/>
+      <c r="AA191" s="23"/>
+      <c r="AB191" s="23"/>
+      <c r="AC191" s="23"/>
+      <c r="AD191" s="23"/>
       <c r="AF191" s="39"/>
     </row>
-    <row r="192" spans="1:32" s="21" customFormat="1">
+    <row r="192" spans="1:43" s="21" customFormat="1">
       <c r="P192" s="22"/>
-      <c r="Q192" s="20"/>
-      <c r="R192" s="20"/>
-      <c r="S192" s="20"/>
-      <c r="T192" s="20"/>
-      <c r="U192" s="20"/>
-      <c r="V192" s="20"/>
-      <c r="W192" s="20"/>
-      <c r="X192" s="20"/>
-      <c r="Y192" s="20"/>
-      <c r="Z192" s="20"/>
-      <c r="AA192" s="20"/>
-      <c r="AB192" s="20"/>
-      <c r="AC192" s="20"/>
-      <c r="AD192" s="20"/>
+      <c r="Q192" s="23"/>
+      <c r="R192" s="23"/>
+      <c r="S192" s="23"/>
+      <c r="T192" s="23"/>
+      <c r="U192" s="23"/>
+      <c r="V192" s="23"/>
+      <c r="W192" s="23"/>
+      <c r="X192" s="23"/>
+      <c r="Y192" s="23"/>
+      <c r="Z192" s="23"/>
+      <c r="AA192" s="23"/>
+      <c r="AB192" s="23"/>
+      <c r="AC192" s="23"/>
+      <c r="AD192" s="23"/>
       <c r="AF192" s="39"/>
     </row>
-    <row r="193" spans="16:32" s="21" customFormat="1">
+    <row r="193" spans="9:32" s="21" customFormat="1">
       <c r="P193" s="22"/>
       <c r="Q193" s="23"/>
       <c r="R193" s="23"/>
@@ -23087,16 +23219,16 @@
       <c r="U193" s="23"/>
       <c r="V193" s="23"/>
       <c r="W193" s="23"/>
-      <c r="X193" s="23"/>
-      <c r="Y193" s="23"/>
-      <c r="Z193" s="23"/>
-      <c r="AA193" s="23"/>
-      <c r="AB193" s="23"/>
-      <c r="AC193" s="23"/>
+      <c r="X193" s="39"/>
+      <c r="Y193" s="39"/>
+      <c r="Z193" s="39"/>
+      <c r="AA193" s="39"/>
+      <c r="AB193" s="39"/>
+      <c r="AC193" s="39"/>
       <c r="AD193" s="23"/>
       <c r="AF193" s="39"/>
     </row>
-    <row r="194" spans="16:32" s="21" customFormat="1">
+    <row r="194" spans="9:32" s="21" customFormat="1">
       <c r="P194" s="22"/>
       <c r="Q194" s="23"/>
       <c r="R194" s="23"/>
@@ -23114,7 +23246,7 @@
       <c r="AD194" s="23"/>
       <c r="AF194" s="39"/>
     </row>
-    <row r="195" spans="16:32" s="21" customFormat="1">
+    <row r="195" spans="9:32" s="21" customFormat="1">
       <c r="P195" s="22"/>
       <c r="Q195" s="23"/>
       <c r="R195" s="23"/>
@@ -23123,16 +23255,16 @@
       <c r="U195" s="23"/>
       <c r="V195" s="23"/>
       <c r="W195" s="23"/>
-      <c r="X195" s="39"/>
-      <c r="Y195" s="39"/>
-      <c r="Z195" s="39"/>
-      <c r="AA195" s="39"/>
-      <c r="AB195" s="39"/>
-      <c r="AC195" s="39"/>
+      <c r="X195" s="23"/>
+      <c r="Y195" s="23"/>
+      <c r="Z195" s="23"/>
+      <c r="AA195" s="23"/>
+      <c r="AB195" s="23"/>
+      <c r="AC195" s="23"/>
       <c r="AD195" s="23"/>
       <c r="AF195" s="39"/>
     </row>
-    <row r="196" spans="16:32" s="21" customFormat="1">
+    <row r="196" spans="9:32" s="21" customFormat="1">
       <c r="P196" s="22"/>
       <c r="Q196" s="23"/>
       <c r="R196" s="23"/>
@@ -23140,17 +23272,17 @@
       <c r="T196" s="23"/>
       <c r="U196" s="23"/>
       <c r="V196" s="23"/>
-      <c r="W196" s="23"/>
-      <c r="X196" s="23"/>
-      <c r="Y196" s="23"/>
-      <c r="Z196" s="23"/>
-      <c r="AA196" s="23"/>
-      <c r="AB196" s="23"/>
-      <c r="AC196" s="23"/>
+      <c r="W196" s="39"/>
+      <c r="X196" s="39"/>
+      <c r="Y196" s="39"/>
+      <c r="Z196" s="39"/>
+      <c r="AA196" s="39"/>
+      <c r="AB196" s="39"/>
+      <c r="AC196" s="39"/>
       <c r="AD196" s="23"/>
       <c r="AF196" s="39"/>
     </row>
-    <row r="197" spans="16:32" s="21" customFormat="1">
+    <row r="197" spans="9:32" s="21" customFormat="1">
       <c r="P197" s="22"/>
       <c r="Q197" s="23"/>
       <c r="R197" s="23"/>
@@ -23158,18 +23290,17 @@
       <c r="T197" s="23"/>
       <c r="U197" s="23"/>
       <c r="V197" s="23"/>
-      <c r="W197" s="23"/>
-      <c r="X197" s="23"/>
-      <c r="Y197" s="23"/>
-      <c r="Z197" s="23"/>
-      <c r="AA197" s="23"/>
-      <c r="AB197" s="23"/>
-      <c r="AC197" s="23"/>
+      <c r="W197" s="39"/>
+      <c r="X197" s="39"/>
+      <c r="Y197" s="39"/>
+      <c r="Z197" s="39"/>
+      <c r="AA197" s="39"/>
+      <c r="AB197" s="39"/>
+      <c r="AC197" s="39"/>
       <c r="AD197" s="23"/>
       <c r="AF197" s="39"/>
     </row>
-    <row r="198" spans="16:32" s="21" customFormat="1">
-      <c r="P198" s="22"/>
+    <row r="198" spans="9:32" s="21" customFormat="1">
       <c r="Q198" s="23"/>
       <c r="R198" s="23"/>
       <c r="S198" s="23"/>
@@ -23186,42 +23317,79 @@
       <c r="AD198" s="23"/>
       <c r="AF198" s="39"/>
     </row>
-    <row r="199" spans="16:32" s="21" customFormat="1">
-      <c r="P199" s="22"/>
+    <row r="199" spans="9:32" s="21" customFormat="1">
       <c r="Q199" s="23"/>
       <c r="R199" s="23"/>
       <c r="S199" s="23"/>
       <c r="T199" s="23"/>
       <c r="U199" s="23"/>
       <c r="V199" s="23"/>
-      <c r="W199" s="39"/>
+      <c r="W199" s="23"/>
       <c r="X199" s="39"/>
       <c r="Y199" s="39"/>
-      <c r="Z199" s="39"/>
-      <c r="AA199" s="39"/>
-      <c r="AB199" s="39"/>
-      <c r="AC199" s="39"/>
+      <c r="Z199" s="23"/>
+      <c r="AA199" s="23"/>
+      <c r="AB199" s="23"/>
+      <c r="AC199" s="23"/>
       <c r="AD199" s="23"/>
       <c r="AF199" s="39"/>
     </row>
-    <row r="200" spans="16:32" s="21" customFormat="1">
-      <c r="Q200" s="23"/>
-      <c r="R200" s="23"/>
-      <c r="S200" s="23"/>
-      <c r="T200" s="23"/>
-      <c r="U200" s="23"/>
-      <c r="V200" s="23"/>
-      <c r="W200" s="39"/>
-      <c r="X200" s="39"/>
-      <c r="Y200" s="39"/>
-      <c r="Z200" s="39"/>
-      <c r="AA200" s="39"/>
-      <c r="AB200" s="39"/>
-      <c r="AC200" s="39"/>
-      <c r="AD200" s="23"/>
+    <row r="200" spans="9:32" s="21" customFormat="1">
+      <c r="I200" s="21">
+        <v>0</v>
+      </c>
+      <c r="J200" s="21">
+        <v>1</v>
+      </c>
+      <c r="K200" s="21">
+        <v>3</v>
+      </c>
+      <c r="L200" s="21">
+        <v>3</v>
+      </c>
+      <c r="M200" s="21">
+        <v>15</v>
+      </c>
+      <c r="N200" s="21">
+        <v>17</v>
+      </c>
+      <c r="P200" s="22"/>
+      <c r="Q200" s="20"/>
+      <c r="R200" s="20"/>
+      <c r="S200" s="20"/>
+      <c r="T200" s="20"/>
+      <c r="U200" s="20"/>
+      <c r="V200" s="20"/>
+      <c r="W200" s="15"/>
+      <c r="X200" s="15"/>
+      <c r="Y200" s="15"/>
+      <c r="Z200" s="15"/>
+      <c r="AA200" s="15"/>
+      <c r="AB200" s="15"/>
+      <c r="AC200" s="15"/>
+      <c r="AD200" s="20"/>
       <c r="AF200" s="39"/>
     </row>
-    <row r="201" spans="16:32" s="21" customFormat="1">
+    <row r="201" spans="9:32" s="21" customFormat="1">
+      <c r="I201" s="21">
+        <v>0</v>
+      </c>
+      <c r="J201" s="21">
+        <v>2</v>
+      </c>
+      <c r="K201" s="21">
+        <v>5</v>
+      </c>
+      <c r="L201" s="21">
+        <v>11</v>
+      </c>
+      <c r="M201" s="21">
+        <v>13</v>
+      </c>
+      <c r="N201" s="21">
+        <v>16</v>
+      </c>
+      <c r="P201" s="22"/>
       <c r="Q201" s="23"/>
       <c r="R201" s="23"/>
       <c r="S201" s="23"/>
@@ -23229,8 +23397,8 @@
       <c r="U201" s="23"/>
       <c r="V201" s="23"/>
       <c r="W201" s="23"/>
-      <c r="X201" s="39"/>
-      <c r="Y201" s="39"/>
+      <c r="X201" s="23"/>
+      <c r="Y201" s="23"/>
       <c r="Z201" s="23"/>
       <c r="AA201" s="23"/>
       <c r="AB201" s="23"/>
@@ -23238,7 +23406,7 @@
       <c r="AD201" s="23"/>
       <c r="AF201" s="39"/>
     </row>
-    <row r="202" spans="16:32">
+    <row r="202" spans="9:32">
       <c r="Q202" s="39"/>
       <c r="R202" s="39"/>
       <c r="S202" s="39"/>
@@ -23255,7 +23423,7 @@
       <c r="AD202" s="23"/>
       <c r="AF202" s="39"/>
     </row>
-    <row r="203" spans="16:32" s="21" customFormat="1">
+    <row r="203" spans="9:32" s="21" customFormat="1">
       <c r="P203" s="22"/>
       <c r="Q203" s="23"/>
       <c r="R203" s="23"/>
@@ -23273,7 +23441,7 @@
       <c r="AD203" s="23"/>
       <c r="AF203" s="39"/>
     </row>
-    <row r="204" spans="16:32" s="21" customFormat="1">
+    <row r="204" spans="9:32" s="21" customFormat="1">
       <c r="Q204" s="23"/>
       <c r="R204" s="23"/>
       <c r="S204" s="23"/>
@@ -23290,7 +23458,7 @@
       <c r="AD204" s="23"/>
       <c r="AF204" s="39"/>
     </row>
-    <row r="205" spans="16:32" s="21" customFormat="1">
+    <row r="205" spans="9:32" s="21" customFormat="1">
       <c r="Q205" s="23"/>
       <c r="R205" s="23"/>
       <c r="S205" s="23"/>
@@ -23307,7 +23475,7 @@
       <c r="AD205" s="23"/>
       <c r="AF205" s="39"/>
     </row>
-    <row r="206" spans="16:32" s="21" customFormat="1">
+    <row r="206" spans="9:32" s="21" customFormat="1">
       <c r="Q206" s="23"/>
       <c r="R206" s="23"/>
       <c r="S206" s="23"/>
@@ -23324,7 +23492,7 @@
       <c r="AD206" s="23"/>
       <c r="AF206" s="39"/>
     </row>
-    <row r="207" spans="16:32" s="21" customFormat="1">
+    <row r="207" spans="9:32" s="21" customFormat="1">
       <c r="Q207" s="23"/>
       <c r="R207" s="23"/>
       <c r="S207" s="23"/>
@@ -23341,7 +23509,7 @@
       <c r="AD207" s="23"/>
       <c r="AF207" s="39"/>
     </row>
-    <row r="208" spans="16:32" s="21" customFormat="1">
+    <row r="208" spans="9:32" s="21" customFormat="1">
       <c r="P208" s="22"/>
       <c r="Q208" s="23"/>
       <c r="R208" s="23"/>
@@ -35194,8 +35362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E185" sqref="E185"/>
+    <sheetView topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P178" sqref="P178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -38903,7 +39071,7 @@
       <c r="O176" s="18"/>
       <c r="P176" s="10"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:16">
       <c r="A177" s="11">
         <v>2</v>
       </c>
@@ -38919,15 +39087,28 @@
       </c>
       <c r="F177" s="10"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:16">
       <c r="A178" s="10"/>
-      <c r="B178" s="10"/>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="B178" s="9">
+        <v>1</v>
+      </c>
+      <c r="C178" s="9">
+        <v>1</v>
+      </c>
+      <c r="D178" s="9">
+        <v>1</v>
+      </c>
+      <c r="E178" s="9">
+        <v>1</v>
+      </c>
+      <c r="F178" s="9">
+        <v>1</v>
+      </c>
+      <c r="P178" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -38935,7 +39116,7 @@
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:16">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -38943,15 +39124,18 @@
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:16">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="K181" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -38959,7 +39143,7 @@
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:16">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -38967,7 +39151,7 @@
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:16">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -38975,7 +39159,7 @@
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:16">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -38983,7 +39167,7 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:16">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -38991,7 +39175,7 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:16">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -38999,7 +39183,7 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:16">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -39007,7 +39191,7 @@
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:16">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -39015,7 +39199,7 @@
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:16">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -39023,7 +39207,7 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:16">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -39031,7 +39215,7 @@
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:16">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -39100,7 +39284,6 @@
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
       <c r="F200" s="10"/>
     </row>
     <row r="201" spans="1:6">
@@ -39258,7 +39441,6 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="10"/>
-      <c r="B224" s="10"/>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
     </row>
@@ -39313,8 +39495,8 @@
       <c r="D234" s="10"/>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="10"/>
       <c r="C235" s="10"/>
+      <c r="D235" s="10"/>
     </row>
     <row r="236" spans="1:4">
       <c r="C236" s="10"/>
@@ -39352,7 +39534,7 @@
   <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="I188" sqref="I188"/>
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44004,6 +44186,53 @@
         <v>6</v>
       </c>
     </row>
+    <row r="178" spans="1:19">
+      <c r="A178" s="1">
+        <v>0</v>
+      </c>
+      <c r="B178" s="1">
+        <v>5</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178" s="1">
+        <v>1</v>
+      </c>
+      <c r="G178" s="1">
+        <v>0</v>
+      </c>
+      <c r="H178" s="1">
+        <v>1</v>
+      </c>
+      <c r="I178" s="1">
+        <v>2</v>
+      </c>
+      <c r="J178" s="1">
+        <v>2</v>
+      </c>
+      <c r="K178" s="1">
+        <v>0</v>
+      </c>
+      <c r="N178" s="1">
+        <v>0</v>
+      </c>
+      <c r="O178" s="1">
+        <v>2</v>
+      </c>
+      <c r="P178" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q178" s="1">
+        <v>8</v>
+      </c>
+      <c r="R178" s="1">
+        <v>9</v>
+      </c>
+      <c r="S178" s="1">
+        <v>14</v>
+      </c>
+    </row>
     <row r="182" spans="1:19" customFormat="1">
       <c r="N182" s="18"/>
       <c r="O182" s="18"/>
@@ -44037,10 +44266,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN177"/>
+  <dimension ref="A100:AN178"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="I184" sqref="I184"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -46881,7 +47110,7 @@
       <c r="P160" s="16">
         <v>7</v>
       </c>
-      <c r="Q160" s="15">
+      <c r="Q160" s="16">
         <v>7</v>
       </c>
       <c r="S160" s="16">
@@ -46920,7 +47149,7 @@
       <c r="P161" s="16">
         <v>8</v>
       </c>
-      <c r="Q161" s="15">
+      <c r="Q161" s="16">
         <v>8</v>
       </c>
       <c r="S161" s="16">
@@ -46963,7 +47192,7 @@
       <c r="P162" s="16">
         <v>6</v>
       </c>
-      <c r="Q162" s="15">
+      <c r="Q162" s="16">
         <v>9</v>
       </c>
       <c r="S162" s="16">
@@ -47001,7 +47230,7 @@
       <c r="P163" s="16">
         <v>9</v>
       </c>
-      <c r="Q163" s="15">
+      <c r="Q163" s="16">
         <v>9</v>
       </c>
       <c r="S163" s="16">
@@ -47547,6 +47776,41 @@
       </c>
       <c r="S177" s="16">
         <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19">
+      <c r="C178" s="9">
+        <v>1</v>
+      </c>
+      <c r="F178" s="9">
+        <v>1</v>
+      </c>
+      <c r="H178" s="9">
+        <v>1</v>
+      </c>
+      <c r="J178" s="11">
+        <v>3</v>
+      </c>
+      <c r="L178" s="16">
+        <v>0</v>
+      </c>
+      <c r="M178" s="16">
+        <v>0</v>
+      </c>
+      <c r="N178" s="16">
+        <v>0</v>
+      </c>
+      <c r="O178" s="16">
+        <v>3</v>
+      </c>
+      <c r="P178" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q178" s="16">
+        <v>8</v>
+      </c>
+      <c r="S178" s="16">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -47558,10 +47822,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -47570,8 +47834,10 @@
     <col min="3" max="3" width="6.625" style="19" customWidth="1"/>
     <col min="4" max="5" width="6.625" style="18" customWidth="1"/>
     <col min="6" max="6" width="6.625" style="19" customWidth="1"/>
-    <col min="7" max="16" width="6.625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="9" style="30"/>
+    <col min="7" max="8" width="6.625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="65" customWidth="1"/>
+    <col min="10" max="16" width="6.625" style="18" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -47599,7 +47865,7 @@
       <c r="H1" s="18">
         <v>10</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="65">
         <v>3</v>
       </c>
       <c r="J1" s="18">
@@ -47649,7 +47915,7 @@
       <c r="H2" s="18">
         <v>64</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="65">
         <v>6</v>
       </c>
       <c r="J2" s="18">
@@ -47699,7 +47965,7 @@
       <c r="H3" s="18">
         <v>18</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="65">
         <v>9</v>
       </c>
       <c r="J3" s="18">
@@ -47749,7 +48015,7 @@
       <c r="H4" s="18">
         <v>5</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="65">
         <v>24</v>
       </c>
       <c r="J4" s="18">
@@ -47785,7 +48051,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -47799,7 +48065,7 @@
       <c r="H5" s="18">
         <v>12</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="65">
         <v>11</v>
       </c>
       <c r="J5" s="18">
@@ -47846,7 +48112,7 @@
       <c r="H6" s="18">
         <v>1</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="65">
         <v>0</v>
       </c>
       <c r="J6" s="18">
@@ -47893,7 +48159,7 @@
       <c r="H7" s="18">
         <v>8</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="65">
         <v>10</v>
       </c>
       <c r="J7" s="18">
@@ -47920,10 +48186,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -47940,7 +48206,7 @@
       <c r="H8" s="18">
         <v>7</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="65">
         <v>21</v>
       </c>
       <c r="J8" s="18">
@@ -47981,7 +48247,7 @@
       <c r="H9" s="18">
         <v>18</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="65">
         <v>7</v>
       </c>
       <c r="J9" s="18">
@@ -48022,7 +48288,7 @@
       <c r="H10" s="18">
         <v>3</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="65">
         <v>5</v>
       </c>
       <c r="J10" s="18">
@@ -48035,7 +48301,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -48052,7 +48318,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
@@ -48061,13 +48327,13 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>7</v>
-      </c>
-      <c r="I11" s="18">
+        <v>8</v>
+      </c>
+      <c r="I11" s="65">
         <v>11</v>
       </c>
       <c r="J11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="18">
         <v>20</v>
@@ -48079,23 +48345,23 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="G12" s="18">
-        <v>4</v>
-      </c>
-      <c r="I12" s="18">
+        <v>5</v>
+      </c>
+      <c r="I12" s="65">
         <v>19</v>
       </c>
       <c r="K12" s="18">
@@ -48112,14 +48378,14 @@
       <c r="F13" s="19">
         <v>13</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="65">
         <v>17</v>
       </c>
       <c r="K13" s="18">
         <v>14</v>
       </c>
       <c r="L13" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" s="18">
         <v>0</v>
@@ -48129,19 +48395,22 @@
       <c r="F14" s="19">
         <v>29</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="65">
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N14" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="I15" s="65">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,10 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO104"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X73" sqref="X73"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH80" sqref="AH80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5827,7 +5823,7 @@
         <v>3</v>
       </c>
       <c r="P49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="7">
         <v>3</v>
@@ -5987,7 +5983,7 @@
       <c r="B51" s="7">
         <v>2</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="25">
         <v>5</v>
       </c>
       <c r="D51" s="7">
@@ -6086,7 +6082,7 @@
       <c r="B52" s="7">
         <v>0</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="25">
         <v>2</v>
       </c>
       <c r="D52" s="7">
@@ -6185,7 +6181,7 @@
       <c r="B53" s="7">
         <v>1</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="25">
         <v>2</v>
       </c>
       <c r="D53" s="7">
@@ -6603,9 +6599,11 @@
         <v>3</v>
       </c>
       <c r="J57" s="7">
-        <v>0</v>
-      </c>
-      <c r="K57" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0</v>
+      </c>
       <c r="L57" s="7">
         <v>1</v>
       </c>
@@ -6662,7 +6660,7 @@
         <v>5</v>
       </c>
       <c r="AE57" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF57" s="7">
         <v>2</v>
@@ -6672,7 +6670,9 @@
       </c>
     </row>
     <row r="58" spans="1:33" s="3" customFormat="1">
-      <c r="A58" s="7"/>
+      <c r="A58" s="7">
+        <v>0</v>
+      </c>
       <c r="B58" s="7">
         <v>6</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S58" s="7">
         <v>3</v>
@@ -6730,7 +6730,9 @@
       <c r="V58" s="7">
         <v>7</v>
       </c>
-      <c r="W58" s="7"/>
+      <c r="W58" s="7">
+        <v>0</v>
+      </c>
       <c r="X58" s="7">
         <v>17</v>
       </c>
@@ -6765,7 +6767,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" s="7">
         <v>6</v>
@@ -6832,7 +6834,7 @@
         <v>6</v>
       </c>
       <c r="AD59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF59" s="7">
         <v>2</v>
@@ -6912,7 +6914,7 @@
         <v>3</v>
       </c>
       <c r="AG60" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
@@ -6962,7 +6964,7 @@
         <v>4</v>
       </c>
       <c r="T61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U61" s="7">
         <v>0</v>
@@ -6981,7 +6983,7 @@
         <v>8</v>
       </c>
       <c r="AA61" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB61" s="7">
         <v>12</v>
@@ -7014,7 +7016,7 @@
         <v>3</v>
       </c>
       <c r="H62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" s="7">
         <v>5</v>
@@ -7022,7 +7024,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -7063,7 +7065,7 @@
         <v>12</v>
       </c>
       <c r="AC62" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD62" s="7"/>
       <c r="AE62" s="3"/>
@@ -7101,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" s="4">
         <v>3</v>
@@ -7126,7 +7128,7 @@
         <v>3</v>
       </c>
       <c r="Y63" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z63" s="4">
         <v>12</v>
@@ -7138,7 +7140,7 @@
       <c r="AD63" s="7"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG63" s="5"/>
     </row>
@@ -7160,7 +7162,7 @@
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="4"/>
@@ -7181,7 +7183,7 @@
       </c>
       <c r="T64" s="7"/>
       <c r="U64" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V64" s="4">
         <v>4</v>
@@ -7260,13 +7262,18 @@
       <c r="AG65" s="5"/>
     </row>
     <row r="66" spans="1:33">
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
       <c r="D66" s="7">
         <v>0</v>
       </c>
       <c r="E66" s="4">
         <v>2</v>
       </c>
-      <c r="F66" s="4"/>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
       <c r="G66" s="2">
         <v>0</v>
       </c>
@@ -7286,7 +7293,7 @@
       </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
@@ -7302,7 +7309,7 @@
         <v>4</v>
       </c>
       <c r="AB66" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7318,7 +7325,7 @@
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -7329,7 +7336,7 @@
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
@@ -7344,10 +7351,10 @@
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z67" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB67" s="12"/>
       <c r="AD67" s="4"/>
@@ -7416,7 +7423,7 @@
       <c r="T69" s="3"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
@@ -7503,7 +7510,9 @@
       <c r="D72" s="3">
         <v>7</v>
       </c>
-      <c r="E72" s="4"/>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
       <c r="F72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="3"/>
@@ -7540,13 +7549,13 @@
       <c r="I73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
@@ -7595,7 +7604,7 @@
       <c r="A75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75" s="4"/>
       <c r="H75" s="4"/>
@@ -7637,11 +7646,7 @@
       <c r="AF76" s="3"/>
       <c r="AG76" s="5"/>
     </row>
-    <row r="77" spans="1:33" s="43" customFormat="1">
-      <c r="AG77" s="43" t="s">
-        <v>24</v>
-      </c>
-    </row>
+    <row r="77" spans="1:33" s="43" customFormat="1"/>
     <row r="78" spans="1:33" s="41" customFormat="1"/>
     <row r="79" spans="1:33" s="45" customFormat="1"/>
     <row r="80" spans="1:33">
@@ -8090,10 +8095,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT959"/>
+  <dimension ref="A1:AT957"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB186" sqref="AB186"/>
+    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X185" sqref="X185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -21160,7 +21165,7 @@
         <v>1</v>
       </c>
       <c r="V160" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W160" s="20"/>
       <c r="X160" s="19">
@@ -21254,7 +21259,7 @@
         <v>3</v>
       </c>
       <c r="S161" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T161" s="19">
         <v>0</v>
@@ -21263,7 +21268,7 @@
         <v>10</v>
       </c>
       <c r="V161" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W161" s="20"/>
       <c r="X161" s="19">
@@ -21562,7 +21567,7 @@
         <v>8</v>
       </c>
       <c r="U164" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V164" s="19">
         <v>4</v>
@@ -21584,9 +21589,7 @@
         <v>8</v>
       </c>
       <c r="AC164" s="20"/>
-      <c r="AD164" s="64" t="s">
-        <v>24</v>
-      </c>
+      <c r="AD164" s="64"/>
       <c r="AF164" s="39"/>
       <c r="AH164" s="21">
         <v>0</v>
@@ -22062,7 +22065,7 @@
       <c r="Q169" s="22">
         <v>0</v>
       </c>
-      <c r="R169" s="23">
+      <c r="R169" s="22">
         <v>10</v>
       </c>
       <c r="S169" s="22">
@@ -22072,7 +22075,7 @@
         <v>2</v>
       </c>
       <c r="U169" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V169" s="22">
         <v>2</v>
@@ -22090,11 +22093,11 @@
       <c r="AA169" s="22">
         <v>3</v>
       </c>
-      <c r="AB169" s="23"/>
+      <c r="AB169" s="22">
+        <v>10</v>
+      </c>
       <c r="AC169" s="23"/>
-      <c r="AD169" s="64" t="s">
-        <v>24</v>
-      </c>
+      <c r="AD169" s="64"/>
       <c r="AF169" s="39"/>
       <c r="AH169" s="21">
         <v>0</v>
@@ -22166,7 +22169,7 @@
         <v>2</v>
       </c>
       <c r="R170" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S170" s="22">
         <v>0</v>
@@ -22371,7 +22374,7 @@
         <v>1</v>
       </c>
       <c r="S172" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T172" s="22">
         <v>0</v>
@@ -22380,7 +22383,7 @@
         <v>5</v>
       </c>
       <c r="V172" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W172" s="23"/>
       <c r="X172" s="22">
@@ -22459,7 +22462,7 @@
         <v>8</v>
       </c>
       <c r="P173" s="22"/>
-      <c r="Q173" s="23">
+      <c r="Q173" s="22">
         <v>6</v>
       </c>
       <c r="R173" s="22">
@@ -22469,7 +22472,7 @@
         <v>1</v>
       </c>
       <c r="T173" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U173" s="22">
         <v>4</v>
@@ -22490,7 +22493,9 @@
       <c r="AA173" s="19">
         <v>4</v>
       </c>
-      <c r="AB173" s="23"/>
+      <c r="AB173" s="22">
+        <v>6</v>
+      </c>
       <c r="AC173" s="23"/>
       <c r="AD173" s="64"/>
       <c r="AF173" s="39"/>
@@ -22573,10 +22578,10 @@
         <v>3</v>
       </c>
       <c r="U174" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V174" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W174" s="23"/>
       <c r="X174" s="21">
@@ -22665,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="S175" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T175" s="19">
         <v>1</v>
@@ -22674,7 +22679,7 @@
         <v>1</v>
       </c>
       <c r="V175" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W175" s="20"/>
       <c r="X175" s="16">
@@ -22754,9 +22759,9 @@
       </c>
       <c r="P176" s="22"/>
       <c r="Q176" s="20">
-        <v>3</v>
-      </c>
-      <c r="R176" s="20">
+        <v>4</v>
+      </c>
+      <c r="R176" s="19">
         <v>3</v>
       </c>
       <c r="S176" s="19">
@@ -22769,7 +22774,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -22781,7 +22786,9 @@
       <c r="Z176" s="19">
         <v>1</v>
       </c>
-      <c r="AA176" s="20"/>
+      <c r="AA176" s="22">
+        <v>3</v>
+      </c>
       <c r="AB176" s="20"/>
       <c r="AC176" s="20"/>
       <c r="AD176" s="64"/>
@@ -22844,22 +22851,22 @@
       </c>
       <c r="P177" s="22"/>
       <c r="Q177" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R177" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S177" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T177" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U177" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V177" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W177" s="23"/>
       <c r="X177" s="23"/>
@@ -22931,7 +22938,7 @@
       </c>
       <c r="P178" s="22"/>
       <c r="Q178" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R178" s="22">
         <v>0</v>
@@ -22940,9 +22947,9 @@
         <v>0</v>
       </c>
       <c r="T178" s="23">
-        <v>1</v>
-      </c>
-      <c r="U178" s="23">
+        <v>2</v>
+      </c>
+      <c r="U178" s="22">
         <v>1</v>
       </c>
       <c r="V178" s="22">
@@ -22958,7 +22965,9 @@
       <c r="Z178" s="21">
         <v>0</v>
       </c>
-      <c r="AA178" s="39"/>
+      <c r="AA178" s="21">
+        <v>1</v>
+      </c>
       <c r="AB178" s="39"/>
       <c r="AC178" s="39"/>
       <c r="AD178" s="64"/>
@@ -23029,27 +23038,31 @@
         <v>12</v>
       </c>
       <c r="P179" s="22"/>
-      <c r="Q179" s="23">
-        <v>0</v>
-      </c>
-      <c r="R179" s="23">
+      <c r="Q179" s="22">
+        <v>0</v>
+      </c>
+      <c r="R179" s="22">
         <v>0</v>
       </c>
       <c r="S179" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T179" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U179" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V179" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W179" s="23"/>
-      <c r="X179" s="39"/>
-      <c r="Y179" s="39"/>
+      <c r="X179" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y179" s="21">
+        <v>0</v>
+      </c>
       <c r="Z179" s="39"/>
       <c r="AA179" s="39"/>
       <c r="AB179" s="39"/>
@@ -23058,20 +23071,68 @@
       <c r="AF179" s="39"/>
     </row>
     <row r="180" spans="1:43" s="21" customFormat="1">
+      <c r="A180" s="21">
+        <v>0</v>
+      </c>
+      <c r="B180" s="21">
+        <v>6</v>
+      </c>
+      <c r="C180" s="21">
+        <v>0</v>
+      </c>
+      <c r="D180" s="21">
+        <v>3</v>
+      </c>
+      <c r="E180" s="21">
+        <v>10</v>
+      </c>
+      <c r="F180" s="21">
+        <v>1</v>
+      </c>
+      <c r="I180" s="21">
+        <v>0</v>
+      </c>
+      <c r="J180" s="21">
+        <v>0</v>
+      </c>
+      <c r="K180" s="21">
+        <v>1</v>
+      </c>
+      <c r="L180" s="21">
+        <v>3</v>
+      </c>
+      <c r="M180" s="21">
+        <v>6</v>
+      </c>
+      <c r="N180" s="21">
+        <v>10</v>
+      </c>
       <c r="P180" s="22"/>
-      <c r="Q180" s="20"/>
-      <c r="R180" s="20"/>
-      <c r="S180" s="20"/>
-      <c r="T180" s="20"/>
-      <c r="U180" s="20"/>
-      <c r="V180" s="20"/>
-      <c r="W180" s="20"/>
-      <c r="X180" s="20"/>
-      <c r="Y180" s="20"/>
-      <c r="Z180" s="20"/>
-      <c r="AA180" s="20"/>
-      <c r="AB180" s="20"/>
-      <c r="AC180" s="20"/>
+      <c r="Q180" s="23">
+        <v>0</v>
+      </c>
+      <c r="R180" s="23">
+        <v>0</v>
+      </c>
+      <c r="S180" s="23">
+        <v>0</v>
+      </c>
+      <c r="T180" s="23">
+        <v>0</v>
+      </c>
+      <c r="U180" s="23">
+        <v>0</v>
+      </c>
+      <c r="V180" s="23">
+        <v>0</v>
+      </c>
+      <c r="W180" s="23"/>
+      <c r="X180" s="39"/>
+      <c r="Y180" s="39"/>
+      <c r="Z180" s="39"/>
+      <c r="AA180" s="39"/>
+      <c r="AB180" s="39"/>
+      <c r="AC180" s="39"/>
       <c r="AD180" s="64"/>
       <c r="AF180" s="39"/>
     </row>
@@ -23102,86 +23163,86 @@
       <c r="U182" s="23"/>
       <c r="V182" s="23"/>
       <c r="W182" s="23"/>
-      <c r="X182" s="39"/>
-      <c r="Y182" s="39"/>
-      <c r="Z182" s="39"/>
-      <c r="AA182" s="39"/>
-      <c r="AB182" s="39"/>
-      <c r="AC182" s="39"/>
+      <c r="X182" s="23"/>
+      <c r="Y182" s="23"/>
+      <c r="Z182" s="23"/>
+      <c r="AA182" s="23"/>
+      <c r="AB182" s="23"/>
+      <c r="AC182" s="23"/>
       <c r="AD182" s="64"/>
       <c r="AF182" s="39"/>
     </row>
     <row r="183" spans="1:43" s="21" customFormat="1">
       <c r="P183" s="22"/>
-      <c r="Q183" s="23"/>
-      <c r="R183" s="23"/>
-      <c r="S183" s="23"/>
-      <c r="T183" s="23"/>
-      <c r="U183" s="23"/>
-      <c r="V183" s="23"/>
-      <c r="W183" s="23"/>
-      <c r="X183" s="39"/>
-      <c r="Y183" s="39"/>
-      <c r="Z183" s="23"/>
-      <c r="AA183" s="23"/>
-      <c r="AB183" s="23"/>
-      <c r="AC183" s="23"/>
+      <c r="Q183" s="20"/>
+      <c r="R183" s="20"/>
+      <c r="S183" s="20"/>
+      <c r="T183" s="20"/>
+      <c r="U183" s="20"/>
+      <c r="V183" s="20"/>
+      <c r="W183" s="20"/>
+      <c r="X183" s="20"/>
+      <c r="Y183" s="20"/>
+      <c r="Z183" s="20"/>
+      <c r="AA183" s="20"/>
+      <c r="AB183" s="20"/>
+      <c r="AC183" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="AD183" s="64"/>
       <c r="AF183" s="39"/>
     </row>
     <row r="184" spans="1:43" s="21" customFormat="1">
       <c r="P184" s="22"/>
-      <c r="Q184" s="23"/>
-      <c r="R184" s="23"/>
-      <c r="S184" s="23"/>
-      <c r="T184" s="23"/>
-      <c r="U184" s="23"/>
-      <c r="V184" s="23"/>
-      <c r="W184" s="23"/>
-      <c r="X184" s="23"/>
-      <c r="Y184" s="23"/>
-      <c r="Z184" s="23"/>
-      <c r="AA184" s="23"/>
-      <c r="AB184" s="23"/>
-      <c r="AC184" s="23"/>
+      <c r="Q184" s="20"/>
+      <c r="R184" s="20"/>
+      <c r="S184" s="20"/>
+      <c r="T184" s="20"/>
+      <c r="U184" s="20"/>
+      <c r="V184" s="20"/>
+      <c r="W184" s="20"/>
+      <c r="X184" s="20"/>
+      <c r="Y184" s="20"/>
+      <c r="Z184" s="20"/>
+      <c r="AA184" s="20"/>
+      <c r="AB184" s="20"/>
+      <c r="AC184" s="20"/>
       <c r="AD184" s="64"/>
       <c r="AF184" s="39"/>
     </row>
     <row r="185" spans="1:43" s="21" customFormat="1">
       <c r="P185" s="22"/>
-      <c r="Q185" s="20"/>
-      <c r="R185" s="20"/>
-      <c r="S185" s="20"/>
-      <c r="T185" s="20"/>
-      <c r="U185" s="20"/>
-      <c r="V185" s="20"/>
-      <c r="W185" s="20"/>
-      <c r="X185" s="20"/>
-      <c r="Y185" s="20"/>
-      <c r="Z185" s="20"/>
-      <c r="AA185" s="20"/>
-      <c r="AB185" s="20"/>
-      <c r="AC185" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q185" s="23"/>
+      <c r="R185" s="23"/>
+      <c r="S185" s="23"/>
+      <c r="T185" s="23"/>
+      <c r="U185" s="23"/>
+      <c r="V185" s="23"/>
+      <c r="W185" s="23"/>
+      <c r="X185" s="23"/>
+      <c r="Y185" s="23"/>
+      <c r="Z185" s="23"/>
+      <c r="AA185" s="23"/>
+      <c r="AB185" s="23"/>
+      <c r="AC185" s="23"/>
       <c r="AD185" s="64"/>
       <c r="AF185" s="39"/>
     </row>
     <row r="186" spans="1:43" s="21" customFormat="1">
       <c r="P186" s="22"/>
-      <c r="Q186" s="20"/>
-      <c r="R186" s="20"/>
-      <c r="S186" s="20"/>
-      <c r="T186" s="20"/>
-      <c r="U186" s="20"/>
-      <c r="V186" s="20"/>
-      <c r="W186" s="20"/>
-      <c r="X186" s="20"/>
-      <c r="Y186" s="20"/>
-      <c r="Z186" s="20"/>
-      <c r="AA186" s="20"/>
-      <c r="AB186" s="20"/>
-      <c r="AC186" s="20"/>
+      <c r="Q186" s="23"/>
+      <c r="R186" s="23"/>
+      <c r="S186" s="23"/>
+      <c r="T186" s="23"/>
+      <c r="U186" s="23"/>
+      <c r="V186" s="23"/>
+      <c r="W186" s="23"/>
+      <c r="X186" s="23"/>
+      <c r="Y186" s="23"/>
+      <c r="Z186" s="23"/>
+      <c r="AA186" s="23"/>
+      <c r="AB186" s="23"/>
+      <c r="AC186" s="23"/>
       <c r="AD186" s="64"/>
       <c r="AF186" s="39"/>
     </row>
@@ -23194,12 +23255,12 @@
       <c r="U187" s="23"/>
       <c r="V187" s="23"/>
       <c r="W187" s="23"/>
-      <c r="X187" s="23"/>
-      <c r="Y187" s="23"/>
-      <c r="Z187" s="23"/>
-      <c r="AA187" s="23"/>
-      <c r="AB187" s="23"/>
-      <c r="AC187" s="23"/>
+      <c r="X187" s="39"/>
+      <c r="Y187" s="39"/>
+      <c r="Z187" s="39"/>
+      <c r="AA187" s="39"/>
+      <c r="AB187" s="39"/>
+      <c r="AC187" s="39"/>
       <c r="AD187" s="64"/>
       <c r="AF187" s="39"/>
     </row>
@@ -23230,12 +23291,12 @@
       <c r="U189" s="23"/>
       <c r="V189" s="23"/>
       <c r="W189" s="23"/>
-      <c r="X189" s="39"/>
-      <c r="Y189" s="39"/>
-      <c r="Z189" s="39"/>
-      <c r="AA189" s="39"/>
-      <c r="AB189" s="39"/>
-      <c r="AC189" s="39"/>
+      <c r="X189" s="23"/>
+      <c r="Y189" s="23"/>
+      <c r="Z189" s="23"/>
+      <c r="AA189" s="23"/>
+      <c r="AB189" s="23"/>
+      <c r="AC189" s="23"/>
       <c r="AD189" s="64"/>
       <c r="AF189" s="39"/>
     </row>
@@ -23247,13 +23308,13 @@
       <c r="T190" s="23"/>
       <c r="U190" s="23"/>
       <c r="V190" s="23"/>
-      <c r="W190" s="23"/>
-      <c r="X190" s="23"/>
-      <c r="Y190" s="23"/>
-      <c r="Z190" s="23"/>
-      <c r="AA190" s="23"/>
-      <c r="AB190" s="23"/>
-      <c r="AC190" s="23"/>
+      <c r="W190" s="39"/>
+      <c r="X190" s="39"/>
+      <c r="Y190" s="39"/>
+      <c r="Z190" s="39"/>
+      <c r="AA190" s="39"/>
+      <c r="AB190" s="39"/>
+      <c r="AC190" s="39"/>
       <c r="AD190" s="64"/>
       <c r="AF190" s="39"/>
     </row>
@@ -23265,13 +23326,13 @@
       <c r="T191" s="23"/>
       <c r="U191" s="23"/>
       <c r="V191" s="23"/>
-      <c r="W191" s="23"/>
-      <c r="X191" s="23"/>
-      <c r="Y191" s="23"/>
-      <c r="Z191" s="23"/>
-      <c r="AA191" s="23"/>
-      <c r="AB191" s="23"/>
-      <c r="AC191" s="23"/>
+      <c r="W191" s="39"/>
+      <c r="X191" s="39"/>
+      <c r="Y191" s="39"/>
+      <c r="Z191" s="39"/>
+      <c r="AA191" s="39"/>
+      <c r="AB191" s="39"/>
+      <c r="AC191" s="39"/>
       <c r="AD191" s="64"/>
       <c r="AF191" s="39"/>
     </row>
@@ -23312,7 +23373,6 @@
       <c r="AF193" s="39"/>
     </row>
     <row r="194" spans="16:32" s="21" customFormat="1">
-      <c r="P194" s="22"/>
       <c r="Q194" s="23"/>
       <c r="R194" s="23"/>
       <c r="S194" s="23"/>
@@ -23330,41 +23390,42 @@
       <c r="AF194" s="39"/>
     </row>
     <row r="195" spans="16:32" s="21" customFormat="1">
-      <c r="P195" s="22"/>
       <c r="Q195" s="23"/>
       <c r="R195" s="23"/>
       <c r="S195" s="23"/>
       <c r="T195" s="23"/>
       <c r="U195" s="23"/>
       <c r="V195" s="23"/>
-      <c r="W195" s="39"/>
+      <c r="W195" s="23"/>
       <c r="X195" s="39"/>
       <c r="Y195" s="39"/>
-      <c r="Z195" s="39"/>
-      <c r="AA195" s="39"/>
-      <c r="AB195" s="39"/>
-      <c r="AC195" s="39"/>
+      <c r="Z195" s="23"/>
+      <c r="AA195" s="23"/>
+      <c r="AB195" s="23"/>
+      <c r="AC195" s="23"/>
       <c r="AD195" s="64"/>
       <c r="AF195" s="39"/>
     </row>
     <row r="196" spans="16:32" s="21" customFormat="1">
-      <c r="Q196" s="23"/>
-      <c r="R196" s="23"/>
-      <c r="S196" s="23"/>
-      <c r="T196" s="23"/>
-      <c r="U196" s="23"/>
-      <c r="V196" s="23"/>
-      <c r="W196" s="39"/>
-      <c r="X196" s="39"/>
-      <c r="Y196" s="39"/>
-      <c r="Z196" s="39"/>
-      <c r="AA196" s="39"/>
-      <c r="AB196" s="39"/>
-      <c r="AC196" s="39"/>
+      <c r="P196" s="22"/>
+      <c r="Q196" s="20"/>
+      <c r="R196" s="20"/>
+      <c r="S196" s="20"/>
+      <c r="T196" s="20"/>
+      <c r="U196" s="20"/>
+      <c r="V196" s="20"/>
+      <c r="W196" s="15"/>
+      <c r="X196" s="15"/>
+      <c r="Y196" s="15"/>
+      <c r="Z196" s="15"/>
+      <c r="AA196" s="15"/>
+      <c r="AB196" s="15"/>
+      <c r="AC196" s="15"/>
       <c r="AD196" s="64"/>
       <c r="AF196" s="39"/>
     </row>
     <row r="197" spans="16:32" s="21" customFormat="1">
+      <c r="P197" s="22"/>
       <c r="Q197" s="23"/>
       <c r="R197" s="23"/>
       <c r="S197" s="23"/>
@@ -23372,8 +23433,8 @@
       <c r="U197" s="23"/>
       <c r="V197" s="23"/>
       <c r="W197" s="23"/>
-      <c r="X197" s="39"/>
-      <c r="Y197" s="39"/>
+      <c r="X197" s="23"/>
+      <c r="Y197" s="23"/>
       <c r="Z197" s="23"/>
       <c r="AA197" s="23"/>
       <c r="AB197" s="23"/>
@@ -23381,21 +23442,20 @@
       <c r="AD197" s="64"/>
       <c r="AF197" s="39"/>
     </row>
-    <row r="198" spans="16:32" s="21" customFormat="1">
-      <c r="P198" s="22"/>
-      <c r="Q198" s="20"/>
-      <c r="R198" s="20"/>
-      <c r="S198" s="20"/>
-      <c r="T198" s="20"/>
-      <c r="U198" s="20"/>
-      <c r="V198" s="20"/>
-      <c r="W198" s="15"/>
-      <c r="X198" s="15"/>
-      <c r="Y198" s="15"/>
-      <c r="Z198" s="15"/>
-      <c r="AA198" s="15"/>
-      <c r="AB198" s="15"/>
-      <c r="AC198" s="15"/>
+    <row r="198" spans="16:32">
+      <c r="Q198" s="39"/>
+      <c r="R198" s="39"/>
+      <c r="S198" s="39"/>
+      <c r="T198" s="39"/>
+      <c r="U198" s="39"/>
+      <c r="V198" s="39"/>
+      <c r="W198" s="39"/>
+      <c r="X198" s="39"/>
+      <c r="Y198" s="39"/>
+      <c r="Z198" s="39"/>
+      <c r="AA198" s="39"/>
+      <c r="AB198" s="39"/>
+      <c r="AC198" s="39"/>
       <c r="AD198" s="64"/>
       <c r="AF198" s="39"/>
     </row>
@@ -23407,42 +23467,41 @@
       <c r="T199" s="23"/>
       <c r="U199" s="23"/>
       <c r="V199" s="23"/>
-      <c r="W199" s="23"/>
-      <c r="X199" s="23"/>
-      <c r="Y199" s="23"/>
-      <c r="Z199" s="23"/>
-      <c r="AA199" s="23"/>
-      <c r="AB199" s="23"/>
-      <c r="AC199" s="23"/>
+      <c r="W199" s="39"/>
+      <c r="X199" s="39"/>
+      <c r="Y199" s="39"/>
+      <c r="Z199" s="39"/>
+      <c r="AA199" s="39"/>
+      <c r="AB199" s="39"/>
+      <c r="AC199" s="39"/>
       <c r="AD199" s="64"/>
       <c r="AF199" s="39"/>
     </row>
-    <row r="200" spans="16:32">
-      <c r="Q200" s="39"/>
-      <c r="R200" s="39"/>
-      <c r="S200" s="39"/>
-      <c r="T200" s="39"/>
-      <c r="U200" s="39"/>
-      <c r="V200" s="39"/>
-      <c r="W200" s="39"/>
+    <row r="200" spans="16:32" s="21" customFormat="1">
+      <c r="Q200" s="23"/>
+      <c r="R200" s="23"/>
+      <c r="S200" s="23"/>
+      <c r="T200" s="23"/>
+      <c r="U200" s="23"/>
+      <c r="V200" s="23"/>
+      <c r="W200" s="23"/>
       <c r="X200" s="39"/>
       <c r="Y200" s="39"/>
-      <c r="Z200" s="39"/>
-      <c r="AA200" s="39"/>
-      <c r="AB200" s="39"/>
-      <c r="AC200" s="39"/>
+      <c r="Z200" s="23"/>
+      <c r="AA200" s="23"/>
+      <c r="AB200" s="23"/>
+      <c r="AC200" s="23"/>
       <c r="AD200" s="64"/>
       <c r="AF200" s="39"/>
     </row>
     <row r="201" spans="16:32" s="21" customFormat="1">
-      <c r="P201" s="22"/>
       <c r="Q201" s="23"/>
       <c r="R201" s="23"/>
       <c r="S201" s="23"/>
       <c r="T201" s="23"/>
       <c r="U201" s="23"/>
       <c r="V201" s="23"/>
-      <c r="W201" s="39"/>
+      <c r="W201" s="23"/>
       <c r="X201" s="39"/>
       <c r="Y201" s="39"/>
       <c r="Z201" s="39"/>
@@ -23459,13 +23518,13 @@
       <c r="T202" s="23"/>
       <c r="U202" s="23"/>
       <c r="V202" s="23"/>
-      <c r="W202" s="23"/>
+      <c r="W202" s="39"/>
       <c r="X202" s="39"/>
       <c r="Y202" s="39"/>
-      <c r="Z202" s="23"/>
-      <c r="AA202" s="23"/>
-      <c r="AB202" s="23"/>
-      <c r="AC202" s="23"/>
+      <c r="Z202" s="39"/>
+      <c r="AA202" s="39"/>
+      <c r="AB202" s="39"/>
+      <c r="AC202" s="39"/>
       <c r="AD202" s="64"/>
       <c r="AF202" s="39"/>
     </row>
@@ -23479,21 +23538,22 @@
       <c r="W203" s="23"/>
       <c r="X203" s="39"/>
       <c r="Y203" s="39"/>
-      <c r="Z203" s="39"/>
-      <c r="AA203" s="39"/>
-      <c r="AB203" s="39"/>
-      <c r="AC203" s="39"/>
+      <c r="Z203" s="23"/>
+      <c r="AA203" s="23"/>
+      <c r="AB203" s="23"/>
+      <c r="AC203" s="23"/>
       <c r="AD203" s="64"/>
       <c r="AF203" s="39"/>
     </row>
     <row r="204" spans="16:32" s="21" customFormat="1">
+      <c r="P204" s="22"/>
       <c r="Q204" s="23"/>
       <c r="R204" s="23"/>
       <c r="S204" s="23"/>
       <c r="T204" s="23"/>
       <c r="U204" s="23"/>
       <c r="V204" s="23"/>
-      <c r="W204" s="39"/>
+      <c r="W204" s="23"/>
       <c r="X204" s="39"/>
       <c r="Y204" s="39"/>
       <c r="Z204" s="39"/>
@@ -23510,18 +23570,17 @@
       <c r="T205" s="23"/>
       <c r="U205" s="23"/>
       <c r="V205" s="23"/>
-      <c r="W205" s="23"/>
+      <c r="W205" s="39"/>
       <c r="X205" s="39"/>
       <c r="Y205" s="39"/>
-      <c r="Z205" s="23"/>
-      <c r="AA205" s="23"/>
-      <c r="AB205" s="23"/>
-      <c r="AC205" s="23"/>
+      <c r="Z205" s="39"/>
+      <c r="AA205" s="39"/>
+      <c r="AB205" s="39"/>
+      <c r="AC205" s="39"/>
       <c r="AD205" s="64"/>
       <c r="AF205" s="39"/>
     </row>
     <row r="206" spans="16:32" s="21" customFormat="1">
-      <c r="P206" s="22"/>
       <c r="Q206" s="23"/>
       <c r="R206" s="23"/>
       <c r="S206" s="23"/>
@@ -23545,17 +23604,18 @@
       <c r="T207" s="23"/>
       <c r="U207" s="23"/>
       <c r="V207" s="23"/>
-      <c r="W207" s="39"/>
+      <c r="W207" s="23"/>
       <c r="X207" s="39"/>
       <c r="Y207" s="39"/>
-      <c r="Z207" s="39"/>
-      <c r="AA207" s="39"/>
-      <c r="AB207" s="39"/>
-      <c r="AC207" s="39"/>
+      <c r="Z207" s="23"/>
+      <c r="AA207" s="23"/>
+      <c r="AB207" s="23"/>
+      <c r="AC207" s="23"/>
       <c r="AD207" s="64"/>
       <c r="AF207" s="39"/>
     </row>
     <row r="208" spans="16:32" s="21" customFormat="1">
+      <c r="P208" s="22"/>
       <c r="Q208" s="23"/>
       <c r="R208" s="23"/>
       <c r="S208" s="23"/>
@@ -23573,6 +23633,7 @@
       <c r="AF208" s="39"/>
     </row>
     <row r="209" spans="16:32" s="21" customFormat="1">
+      <c r="P209" s="22"/>
       <c r="Q209" s="23"/>
       <c r="R209" s="23"/>
       <c r="S209" s="23"/>
@@ -23633,7 +23694,7 @@
       <c r="T212" s="23"/>
       <c r="U212" s="23"/>
       <c r="V212" s="23"/>
-      <c r="W212" s="23"/>
+      <c r="W212" s="39"/>
       <c r="X212" s="39"/>
       <c r="Y212" s="39"/>
       <c r="Z212" s="39"/>
@@ -23644,42 +23705,41 @@
       <c r="AF212" s="39"/>
     </row>
     <row r="213" spans="16:32" s="21" customFormat="1">
-      <c r="P213" s="22"/>
       <c r="Q213" s="23"/>
       <c r="R213" s="23"/>
       <c r="S213" s="23"/>
       <c r="T213" s="23"/>
       <c r="U213" s="23"/>
       <c r="V213" s="23"/>
-      <c r="W213" s="23"/>
+      <c r="W213" s="39"/>
       <c r="X213" s="39"/>
       <c r="Y213" s="39"/>
-      <c r="Z213" s="23"/>
-      <c r="AA213" s="23"/>
-      <c r="AB213" s="23"/>
-      <c r="AC213" s="23"/>
+      <c r="Z213" s="39"/>
+      <c r="AA213" s="39"/>
+      <c r="AB213" s="39"/>
+      <c r="AC213" s="39"/>
       <c r="AD213" s="64"/>
       <c r="AF213" s="39"/>
     </row>
     <row r="214" spans="16:32" s="21" customFormat="1">
-      <c r="P214" s="22"/>
       <c r="Q214" s="23"/>
       <c r="R214" s="23"/>
       <c r="S214" s="23"/>
       <c r="T214" s="23"/>
       <c r="U214" s="23"/>
       <c r="V214" s="23"/>
-      <c r="W214" s="39"/>
+      <c r="W214" s="23"/>
       <c r="X214" s="39"/>
       <c r="Y214" s="39"/>
-      <c r="Z214" s="39"/>
-      <c r="AA214" s="39"/>
-      <c r="AB214" s="39"/>
-      <c r="AC214" s="39"/>
+      <c r="Z214" s="23"/>
+      <c r="AA214" s="23"/>
+      <c r="AB214" s="23"/>
+      <c r="AC214" s="23"/>
       <c r="AD214" s="64"/>
       <c r="AF214" s="39"/>
     </row>
     <row r="215" spans="16:32" s="21" customFormat="1">
+      <c r="P215" s="22"/>
       <c r="Q215" s="23"/>
       <c r="R215" s="23"/>
       <c r="S215" s="23"/>
@@ -23697,24 +23757,24 @@
       <c r="AF215" s="39"/>
     </row>
     <row r="216" spans="16:32" s="21" customFormat="1">
+      <c r="P216" s="22"/>
       <c r="Q216" s="23"/>
       <c r="R216" s="23"/>
       <c r="S216" s="23"/>
       <c r="T216" s="23"/>
       <c r="U216" s="23"/>
       <c r="V216" s="23"/>
-      <c r="W216" s="23"/>
+      <c r="W216" s="39"/>
       <c r="X216" s="39"/>
       <c r="Y216" s="39"/>
-      <c r="Z216" s="23"/>
-      <c r="AA216" s="23"/>
-      <c r="AB216" s="23"/>
-      <c r="AC216" s="23"/>
+      <c r="Z216" s="39"/>
+      <c r="AA216" s="39"/>
+      <c r="AB216" s="39"/>
+      <c r="AC216" s="39"/>
       <c r="AD216" s="64"/>
       <c r="AF216" s="39"/>
     </row>
     <row r="217" spans="16:32" s="21" customFormat="1">
-      <c r="P217" s="22"/>
       <c r="Q217" s="23"/>
       <c r="R217" s="23"/>
       <c r="S217" s="23"/>
@@ -23732,24 +23792,24 @@
       <c r="AF217" s="39"/>
     </row>
     <row r="218" spans="16:32" s="21" customFormat="1">
-      <c r="P218" s="22"/>
       <c r="Q218" s="23"/>
       <c r="R218" s="23"/>
       <c r="S218" s="23"/>
       <c r="T218" s="23"/>
       <c r="U218" s="23"/>
       <c r="V218" s="23"/>
-      <c r="W218" s="39"/>
+      <c r="W218" s="23"/>
       <c r="X218" s="39"/>
       <c r="Y218" s="39"/>
-      <c r="Z218" s="39"/>
-      <c r="AA218" s="39"/>
-      <c r="AB218" s="39"/>
-      <c r="AC218" s="39"/>
+      <c r="Z218" s="23"/>
+      <c r="AA218" s="23"/>
+      <c r="AB218" s="23"/>
+      <c r="AC218" s="23"/>
       <c r="AD218" s="64"/>
       <c r="AF218" s="39"/>
     </row>
     <row r="219" spans="16:32" s="21" customFormat="1">
+      <c r="P219" s="22"/>
       <c r="Q219" s="23"/>
       <c r="R219" s="23"/>
       <c r="S219" s="23"/>
@@ -23784,14 +23844,13 @@
       <c r="AF220" s="39"/>
     </row>
     <row r="221" spans="16:32" s="21" customFormat="1">
-      <c r="P221" s="22"/>
       <c r="Q221" s="23"/>
       <c r="R221" s="23"/>
       <c r="S221" s="23"/>
       <c r="T221" s="23"/>
       <c r="U221" s="23"/>
       <c r="V221" s="23"/>
-      <c r="W221" s="39"/>
+      <c r="W221" s="23"/>
       <c r="X221" s="39"/>
       <c r="Y221" s="39"/>
       <c r="Z221" s="39"/>
@@ -23808,13 +23867,13 @@
       <c r="T222" s="23"/>
       <c r="U222" s="23"/>
       <c r="V222" s="23"/>
-      <c r="W222" s="23"/>
+      <c r="W222" s="39"/>
       <c r="X222" s="39"/>
       <c r="Y222" s="39"/>
-      <c r="Z222" s="23"/>
-      <c r="AA222" s="23"/>
-      <c r="AB222" s="23"/>
-      <c r="AC222" s="23"/>
+      <c r="Z222" s="39"/>
+      <c r="AA222" s="39"/>
+      <c r="AB222" s="39"/>
+      <c r="AC222" s="39"/>
       <c r="AD222" s="64"/>
       <c r="AF222" s="39"/>
     </row>
@@ -23828,14 +23887,15 @@
       <c r="W223" s="23"/>
       <c r="X223" s="39"/>
       <c r="Y223" s="39"/>
-      <c r="Z223" s="39"/>
-      <c r="AA223" s="39"/>
-      <c r="AB223" s="39"/>
-      <c r="AC223" s="39"/>
+      <c r="Z223" s="23"/>
+      <c r="AA223" s="23"/>
+      <c r="AB223" s="23"/>
+      <c r="AC223" s="23"/>
       <c r="AD223" s="64"/>
       <c r="AF223" s="39"/>
     </row>
     <row r="224" spans="16:32" s="21" customFormat="1">
+      <c r="P224" s="22"/>
       <c r="Q224" s="23"/>
       <c r="R224" s="23"/>
       <c r="S224" s="23"/>
@@ -23859,25 +23919,24 @@
       <c r="T225" s="23"/>
       <c r="U225" s="23"/>
       <c r="V225" s="23"/>
-      <c r="W225" s="23"/>
+      <c r="W225" s="39"/>
       <c r="X225" s="39"/>
       <c r="Y225" s="39"/>
-      <c r="Z225" s="23"/>
-      <c r="AA225" s="23"/>
-      <c r="AB225" s="23"/>
-      <c r="AC225" s="23"/>
+      <c r="Z225" s="39"/>
+      <c r="AA225" s="39"/>
+      <c r="AB225" s="39"/>
+      <c r="AC225" s="39"/>
       <c r="AD225" s="64"/>
       <c r="AF225" s="39"/>
     </row>
     <row r="226" spans="16:32" s="21" customFormat="1">
-      <c r="P226" s="22"/>
       <c r="Q226" s="23"/>
       <c r="R226" s="23"/>
       <c r="S226" s="23"/>
       <c r="T226" s="23"/>
       <c r="U226" s="23"/>
       <c r="V226" s="23"/>
-      <c r="W226" s="39"/>
+      <c r="W226" s="23"/>
       <c r="X226" s="39"/>
       <c r="Y226" s="39"/>
       <c r="Z226" s="39"/>
@@ -23894,13 +23953,13 @@
       <c r="T227" s="23"/>
       <c r="U227" s="23"/>
       <c r="V227" s="23"/>
-      <c r="W227" s="39"/>
+      <c r="W227" s="23"/>
       <c r="X227" s="39"/>
       <c r="Y227" s="39"/>
-      <c r="Z227" s="39"/>
-      <c r="AA227" s="39"/>
-      <c r="AB227" s="39"/>
-      <c r="AC227" s="39"/>
+      <c r="Z227" s="23"/>
+      <c r="AA227" s="23"/>
+      <c r="AB227" s="23"/>
+      <c r="AC227" s="23"/>
       <c r="AD227" s="64"/>
       <c r="AF227" s="39"/>
     </row>
@@ -23931,10 +23990,10 @@
       <c r="W229" s="23"/>
       <c r="X229" s="39"/>
       <c r="Y229" s="39"/>
-      <c r="Z229" s="23"/>
-      <c r="AA229" s="23"/>
-      <c r="AB229" s="23"/>
-      <c r="AC229" s="23"/>
+      <c r="Z229" s="39"/>
+      <c r="AA229" s="39"/>
+      <c r="AB229" s="39"/>
+      <c r="AC229" s="39"/>
       <c r="AD229" s="64"/>
       <c r="AF229" s="39"/>
     </row>
@@ -23945,7 +24004,7 @@
       <c r="T230" s="23"/>
       <c r="U230" s="23"/>
       <c r="V230" s="23"/>
-      <c r="W230" s="23"/>
+      <c r="W230" s="39"/>
       <c r="X230" s="39"/>
       <c r="Y230" s="39"/>
       <c r="Z230" s="39"/>
@@ -23999,10 +24058,10 @@
       <c r="W233" s="23"/>
       <c r="X233" s="39"/>
       <c r="Y233" s="39"/>
-      <c r="Z233" s="39"/>
-      <c r="AA233" s="39"/>
-      <c r="AB233" s="39"/>
-      <c r="AC233" s="39"/>
+      <c r="Z233" s="23"/>
+      <c r="AA233" s="23"/>
+      <c r="AB233" s="23"/>
+      <c r="AC233" s="23"/>
       <c r="AD233" s="64"/>
       <c r="AF233" s="39"/>
     </row>
@@ -24013,30 +24072,31 @@
       <c r="T234" s="23"/>
       <c r="U234" s="23"/>
       <c r="V234" s="23"/>
-      <c r="W234" s="39"/>
+      <c r="W234" s="23"/>
       <c r="X234" s="39"/>
       <c r="Y234" s="39"/>
-      <c r="Z234" s="39"/>
-      <c r="AA234" s="39"/>
-      <c r="AB234" s="39"/>
-      <c r="AC234" s="39"/>
+      <c r="Z234" s="23"/>
+      <c r="AA234" s="23"/>
+      <c r="AB234" s="23"/>
+      <c r="AC234" s="23"/>
       <c r="AD234" s="64"/>
       <c r="AF234" s="39"/>
     </row>
     <row r="235" spans="16:32" s="21" customFormat="1">
+      <c r="P235" s="22"/>
       <c r="Q235" s="23"/>
       <c r="R235" s="23"/>
       <c r="S235" s="23"/>
       <c r="T235" s="23"/>
       <c r="U235" s="23"/>
       <c r="V235" s="23"/>
-      <c r="W235" s="23"/>
+      <c r="W235" s="39"/>
       <c r="X235" s="39"/>
       <c r="Y235" s="39"/>
-      <c r="Z235" s="23"/>
-      <c r="AA235" s="23"/>
-      <c r="AB235" s="23"/>
-      <c r="AC235" s="23"/>
+      <c r="Z235" s="39"/>
+      <c r="AA235" s="39"/>
+      <c r="AB235" s="39"/>
+      <c r="AC235" s="39"/>
       <c r="AD235" s="64"/>
       <c r="AF235" s="39"/>
     </row>
@@ -24047,35 +24107,35 @@
       <c r="T236" s="23"/>
       <c r="U236" s="23"/>
       <c r="V236" s="23"/>
-      <c r="W236" s="23"/>
+      <c r="W236" s="39"/>
       <c r="X236" s="39"/>
       <c r="Y236" s="39"/>
-      <c r="Z236" s="23"/>
-      <c r="AA236" s="23"/>
-      <c r="AB236" s="23"/>
-      <c r="AC236" s="23"/>
+      <c r="Z236" s="39"/>
+      <c r="AA236" s="39"/>
+      <c r="AB236" s="39"/>
+      <c r="AC236" s="39"/>
       <c r="AD236" s="64"/>
       <c r="AF236" s="39"/>
     </row>
     <row r="237" spans="16:32" s="21" customFormat="1">
-      <c r="P237" s="22"/>
       <c r="Q237" s="23"/>
       <c r="R237" s="23"/>
       <c r="S237" s="23"/>
       <c r="T237" s="23"/>
       <c r="U237" s="23"/>
       <c r="V237" s="23"/>
-      <c r="W237" s="39"/>
+      <c r="W237" s="23"/>
       <c r="X237" s="39"/>
       <c r="Y237" s="39"/>
-      <c r="Z237" s="39"/>
-      <c r="AA237" s="39"/>
-      <c r="AB237" s="39"/>
-      <c r="AC237" s="39"/>
+      <c r="Z237" s="23"/>
+      <c r="AA237" s="23"/>
+      <c r="AB237" s="23"/>
+      <c r="AC237" s="23"/>
       <c r="AD237" s="64"/>
       <c r="AF237" s="39"/>
     </row>
     <row r="238" spans="16:32" s="21" customFormat="1">
+      <c r="P238" s="22"/>
       <c r="Q238" s="23"/>
       <c r="R238" s="23"/>
       <c r="S238" s="23"/>
@@ -24099,35 +24159,35 @@
       <c r="T239" s="23"/>
       <c r="U239" s="23"/>
       <c r="V239" s="23"/>
-      <c r="W239" s="23"/>
+      <c r="W239" s="39"/>
       <c r="X239" s="39"/>
       <c r="Y239" s="39"/>
-      <c r="Z239" s="23"/>
-      <c r="AA239" s="23"/>
-      <c r="AB239" s="23"/>
-      <c r="AC239" s="23"/>
+      <c r="Z239" s="39"/>
+      <c r="AA239" s="39"/>
+      <c r="AB239" s="39"/>
+      <c r="AC239" s="39"/>
       <c r="AD239" s="64"/>
       <c r="AF239" s="39"/>
     </row>
     <row r="240" spans="16:32" s="21" customFormat="1">
-      <c r="P240" s="22"/>
       <c r="Q240" s="23"/>
       <c r="R240" s="23"/>
       <c r="S240" s="23"/>
       <c r="T240" s="23"/>
       <c r="U240" s="23"/>
       <c r="V240" s="23"/>
-      <c r="W240" s="39"/>
+      <c r="W240" s="23"/>
       <c r="X240" s="39"/>
       <c r="Y240" s="39"/>
-      <c r="Z240" s="39"/>
-      <c r="AA240" s="39"/>
-      <c r="AB240" s="39"/>
-      <c r="AC240" s="39"/>
+      <c r="Z240" s="23"/>
+      <c r="AA240" s="23"/>
+      <c r="AB240" s="23"/>
+      <c r="AC240" s="23"/>
       <c r="AD240" s="64"/>
       <c r="AF240" s="39"/>
     </row>
     <row r="241" spans="16:32" s="21" customFormat="1">
+      <c r="P241" s="22"/>
       <c r="Q241" s="23"/>
       <c r="R241" s="23"/>
       <c r="S241" s="23"/>
@@ -24145,24 +24205,24 @@
       <c r="AF241" s="39"/>
     </row>
     <row r="242" spans="16:32" s="21" customFormat="1">
+      <c r="P242" s="22"/>
       <c r="Q242" s="23"/>
       <c r="R242" s="23"/>
       <c r="S242" s="23"/>
       <c r="T242" s="23"/>
       <c r="U242" s="23"/>
       <c r="V242" s="23"/>
-      <c r="W242" s="23"/>
+      <c r="W242" s="39"/>
       <c r="X242" s="39"/>
       <c r="Y242" s="39"/>
-      <c r="Z242" s="23"/>
-      <c r="AA242" s="23"/>
-      <c r="AB242" s="23"/>
-      <c r="AC242" s="23"/>
+      <c r="Z242" s="39"/>
+      <c r="AA242" s="39"/>
+      <c r="AB242" s="39"/>
+      <c r="AC242" s="39"/>
       <c r="AD242" s="64"/>
       <c r="AF242" s="39"/>
     </row>
     <row r="243" spans="16:32" s="21" customFormat="1">
-      <c r="P243" s="22"/>
       <c r="Q243" s="23"/>
       <c r="R243" s="23"/>
       <c r="S243" s="23"/>
@@ -24180,24 +24240,24 @@
       <c r="AF243" s="39"/>
     </row>
     <row r="244" spans="16:32" s="21" customFormat="1">
-      <c r="P244" s="22"/>
       <c r="Q244" s="23"/>
       <c r="R244" s="23"/>
       <c r="S244" s="23"/>
       <c r="T244" s="23"/>
       <c r="U244" s="23"/>
       <c r="V244" s="23"/>
-      <c r="W244" s="39"/>
+      <c r="W244" s="23"/>
       <c r="X244" s="39"/>
       <c r="Y244" s="39"/>
-      <c r="Z244" s="39"/>
-      <c r="AA244" s="39"/>
-      <c r="AB244" s="39"/>
-      <c r="AC244" s="39"/>
+      <c r="Z244" s="23"/>
+      <c r="AA244" s="23"/>
+      <c r="AB244" s="23"/>
+      <c r="AC244" s="23"/>
       <c r="AD244" s="64"/>
       <c r="AF244" s="39"/>
     </row>
     <row r="245" spans="16:32" s="21" customFormat="1">
+      <c r="P245" s="22"/>
       <c r="Q245" s="23"/>
       <c r="R245" s="23"/>
       <c r="S245" s="23"/>
@@ -24232,14 +24292,13 @@
       <c r="AF246" s="39"/>
     </row>
     <row r="247" spans="16:32" s="21" customFormat="1">
-      <c r="P247" s="22"/>
       <c r="Q247" s="23"/>
       <c r="R247" s="23"/>
       <c r="S247" s="23"/>
       <c r="T247" s="23"/>
       <c r="U247" s="23"/>
       <c r="V247" s="23"/>
-      <c r="W247" s="39"/>
+      <c r="W247" s="23"/>
       <c r="X247" s="39"/>
       <c r="Y247" s="39"/>
       <c r="Z247" s="39"/>
@@ -24259,10 +24318,10 @@
       <c r="W248" s="23"/>
       <c r="X248" s="39"/>
       <c r="Y248" s="39"/>
-      <c r="Z248" s="23"/>
-      <c r="AA248" s="23"/>
-      <c r="AB248" s="23"/>
-      <c r="AC248" s="23"/>
+      <c r="Z248" s="39"/>
+      <c r="AA248" s="39"/>
+      <c r="AB248" s="39"/>
+      <c r="AC248" s="39"/>
       <c r="AD248" s="64"/>
       <c r="AF248" s="39"/>
     </row>
@@ -24307,7 +24366,7 @@
       <c r="T251" s="23"/>
       <c r="U251" s="23"/>
       <c r="V251" s="23"/>
-      <c r="W251" s="23"/>
+      <c r="W251" s="39"/>
       <c r="X251" s="39"/>
       <c r="Y251" s="39"/>
       <c r="Z251" s="39"/>
@@ -24361,10 +24420,10 @@
       <c r="W254" s="23"/>
       <c r="X254" s="39"/>
       <c r="Y254" s="39"/>
-      <c r="Z254" s="39"/>
-      <c r="AA254" s="39"/>
-      <c r="AB254" s="39"/>
-      <c r="AC254" s="39"/>
+      <c r="Z254" s="23"/>
+      <c r="AA254" s="23"/>
+      <c r="AB254" s="23"/>
+      <c r="AC254" s="23"/>
       <c r="AD254" s="64"/>
       <c r="AF254" s="39"/>
     </row>
@@ -24375,7 +24434,7 @@
       <c r="T255" s="23"/>
       <c r="U255" s="23"/>
       <c r="V255" s="23"/>
-      <c r="W255" s="39"/>
+      <c r="W255" s="23"/>
       <c r="X255" s="39"/>
       <c r="Y255" s="39"/>
       <c r="Z255" s="39"/>
@@ -24395,10 +24454,10 @@
       <c r="W256" s="23"/>
       <c r="X256" s="39"/>
       <c r="Y256" s="39"/>
-      <c r="Z256" s="23"/>
-      <c r="AA256" s="23"/>
-      <c r="AB256" s="23"/>
-      <c r="AC256" s="23"/>
+      <c r="Z256" s="39"/>
+      <c r="AA256" s="39"/>
+      <c r="AB256" s="39"/>
+      <c r="AC256" s="39"/>
       <c r="AD256" s="64"/>
       <c r="AF256" s="39"/>
     </row>
@@ -24446,21 +24505,22 @@
       <c r="W259" s="23"/>
       <c r="X259" s="39"/>
       <c r="Y259" s="39"/>
-      <c r="Z259" s="39"/>
-      <c r="AA259" s="39"/>
-      <c r="AB259" s="39"/>
-      <c r="AC259" s="39"/>
+      <c r="Z259" s="23"/>
+      <c r="AA259" s="23"/>
+      <c r="AB259" s="23"/>
+      <c r="AC259" s="23"/>
       <c r="AD259" s="64"/>
       <c r="AF259" s="39"/>
     </row>
     <row r="260" spans="16:32" s="21" customFormat="1">
+      <c r="P260" s="22"/>
       <c r="Q260" s="23"/>
       <c r="R260" s="23"/>
       <c r="S260" s="23"/>
       <c r="T260" s="23"/>
       <c r="U260" s="23"/>
       <c r="V260" s="23"/>
-      <c r="W260" s="23"/>
+      <c r="W260" s="39"/>
       <c r="X260" s="39"/>
       <c r="Y260" s="39"/>
       <c r="Z260" s="39"/>
@@ -24480,22 +24540,21 @@
       <c r="W261" s="23"/>
       <c r="X261" s="39"/>
       <c r="Y261" s="39"/>
-      <c r="Z261" s="23"/>
-      <c r="AA261" s="23"/>
-      <c r="AB261" s="23"/>
-      <c r="AC261" s="23"/>
+      <c r="Z261" s="39"/>
+      <c r="AA261" s="39"/>
+      <c r="AB261" s="39"/>
+      <c r="AC261" s="39"/>
       <c r="AD261" s="64"/>
       <c r="AF261" s="39"/>
     </row>
     <row r="262" spans="16:32" s="21" customFormat="1">
-      <c r="P262" s="22"/>
       <c r="Q262" s="23"/>
       <c r="R262" s="23"/>
       <c r="S262" s="23"/>
       <c r="T262" s="23"/>
       <c r="U262" s="23"/>
       <c r="V262" s="23"/>
-      <c r="W262" s="39"/>
+      <c r="W262" s="23"/>
       <c r="X262" s="39"/>
       <c r="Y262" s="39"/>
       <c r="Z262" s="39"/>
@@ -24515,21 +24574,22 @@
       <c r="W263" s="23"/>
       <c r="X263" s="39"/>
       <c r="Y263" s="39"/>
-      <c r="Z263" s="39"/>
-      <c r="AA263" s="39"/>
-      <c r="AB263" s="39"/>
-      <c r="AC263" s="39"/>
+      <c r="Z263" s="23"/>
+      <c r="AA263" s="23"/>
+      <c r="AB263" s="23"/>
+      <c r="AC263" s="23"/>
       <c r="AD263" s="64"/>
       <c r="AF263" s="39"/>
     </row>
     <row r="264" spans="16:32" s="21" customFormat="1">
+      <c r="P264" s="22"/>
       <c r="Q264" s="23"/>
       <c r="R264" s="23"/>
       <c r="S264" s="23"/>
       <c r="T264" s="23"/>
       <c r="U264" s="23"/>
       <c r="V264" s="23"/>
-      <c r="W264" s="23"/>
+      <c r="W264" s="39"/>
       <c r="X264" s="39"/>
       <c r="Y264" s="39"/>
       <c r="Z264" s="39"/>
@@ -24546,24 +24606,23 @@
       <c r="T265" s="23"/>
       <c r="U265" s="23"/>
       <c r="V265" s="23"/>
-      <c r="W265" s="23"/>
+      <c r="W265" s="39"/>
       <c r="X265" s="39"/>
       <c r="Y265" s="39"/>
-      <c r="Z265" s="23"/>
-      <c r="AA265" s="23"/>
-      <c r="AB265" s="23"/>
-      <c r="AC265" s="23"/>
+      <c r="Z265" s="39"/>
+      <c r="AA265" s="39"/>
+      <c r="AB265" s="39"/>
+      <c r="AC265" s="39"/>
       <c r="AD265" s="64"/>
       <c r="AF265" s="39"/>
     </row>
-    <row r="266" spans="16:32" s="21" customFormat="1">
-      <c r="P266" s="22"/>
-      <c r="Q266" s="23"/>
-      <c r="R266" s="23"/>
-      <c r="S266" s="23"/>
-      <c r="T266" s="23"/>
-      <c r="U266" s="23"/>
-      <c r="V266" s="23"/>
+    <row r="266" spans="16:32">
+      <c r="Q266" s="39"/>
+      <c r="R266" s="39"/>
+      <c r="S266" s="39"/>
+      <c r="T266" s="39"/>
+      <c r="U266" s="39"/>
+      <c r="V266" s="39"/>
       <c r="W266" s="39"/>
       <c r="X266" s="39"/>
       <c r="Y266" s="39"/>
@@ -24591,20 +24650,20 @@
       <c r="AD267" s="64"/>
       <c r="AF267" s="39"/>
     </row>
-    <row r="268" spans="16:32">
-      <c r="Q268" s="39"/>
-      <c r="R268" s="39"/>
-      <c r="S268" s="39"/>
-      <c r="T268" s="39"/>
-      <c r="U268" s="39"/>
-      <c r="V268" s="39"/>
-      <c r="W268" s="39"/>
+    <row r="268" spans="16:32" s="21" customFormat="1">
+      <c r="Q268" s="23"/>
+      <c r="R268" s="23"/>
+      <c r="S268" s="23"/>
+      <c r="T268" s="23"/>
+      <c r="U268" s="23"/>
+      <c r="V268" s="23"/>
+      <c r="W268" s="23"/>
       <c r="X268" s="39"/>
       <c r="Y268" s="39"/>
-      <c r="Z268" s="39"/>
-      <c r="AA268" s="39"/>
-      <c r="AB268" s="39"/>
-      <c r="AC268" s="39"/>
+      <c r="Z268" s="23"/>
+      <c r="AA268" s="23"/>
+      <c r="AB268" s="23"/>
+      <c r="AC268" s="23"/>
       <c r="AD268" s="64"/>
       <c r="AF268" s="39"/>
     </row>
@@ -24615,7 +24674,7 @@
       <c r="T269" s="23"/>
       <c r="U269" s="23"/>
       <c r="V269" s="23"/>
-      <c r="W269" s="39"/>
+      <c r="W269" s="23"/>
       <c r="X269" s="39"/>
       <c r="Y269" s="39"/>
       <c r="Z269" s="39"/>
@@ -24626,19 +24685,20 @@
       <c r="AF269" s="39"/>
     </row>
     <row r="270" spans="16:32" s="21" customFormat="1">
+      <c r="P270" s="22"/>
       <c r="Q270" s="23"/>
       <c r="R270" s="23"/>
       <c r="S270" s="23"/>
       <c r="T270" s="23"/>
       <c r="U270" s="23"/>
       <c r="V270" s="23"/>
-      <c r="W270" s="23"/>
+      <c r="W270" s="39"/>
       <c r="X270" s="39"/>
       <c r="Y270" s="39"/>
-      <c r="Z270" s="23"/>
-      <c r="AA270" s="23"/>
-      <c r="AB270" s="23"/>
-      <c r="AC270" s="23"/>
+      <c r="Z270" s="39"/>
+      <c r="AA270" s="39"/>
+      <c r="AB270" s="39"/>
+      <c r="AC270" s="39"/>
       <c r="AD270" s="64"/>
       <c r="AF270" s="39"/>
     </row>
@@ -24652,45 +24712,45 @@
       <c r="W271" s="23"/>
       <c r="X271" s="39"/>
       <c r="Y271" s="39"/>
-      <c r="Z271" s="39"/>
-      <c r="AA271" s="39"/>
-      <c r="AB271" s="39"/>
-      <c r="AC271" s="39"/>
+      <c r="Z271" s="23"/>
+      <c r="AA271" s="23"/>
+      <c r="AB271" s="23"/>
+      <c r="AC271" s="23"/>
       <c r="AD271" s="64"/>
       <c r="AF271" s="39"/>
     </row>
     <row r="272" spans="16:32" s="21" customFormat="1">
-      <c r="P272" s="22"/>
       <c r="Q272" s="23"/>
       <c r="R272" s="23"/>
       <c r="S272" s="23"/>
       <c r="T272" s="23"/>
       <c r="U272" s="23"/>
       <c r="V272" s="23"/>
-      <c r="W272" s="39"/>
+      <c r="W272" s="23"/>
       <c r="X272" s="39"/>
       <c r="Y272" s="39"/>
-      <c r="Z272" s="39"/>
-      <c r="AA272" s="39"/>
-      <c r="AB272" s="39"/>
-      <c r="AC272" s="39"/>
+      <c r="Z272" s="23"/>
+      <c r="AA272" s="23"/>
+      <c r="AB272" s="23"/>
+      <c r="AC272" s="23"/>
       <c r="AD272" s="64"/>
       <c r="AF272" s="39"/>
     </row>
     <row r="273" spans="16:32" s="21" customFormat="1">
+      <c r="P273" s="22"/>
       <c r="Q273" s="23"/>
       <c r="R273" s="23"/>
       <c r="S273" s="23"/>
       <c r="T273" s="23"/>
       <c r="U273" s="23"/>
       <c r="V273" s="23"/>
-      <c r="W273" s="23"/>
+      <c r="W273" s="39"/>
       <c r="X273" s="39"/>
       <c r="Y273" s="39"/>
-      <c r="Z273" s="23"/>
-      <c r="AA273" s="23"/>
-      <c r="AB273" s="23"/>
-      <c r="AC273" s="23"/>
+      <c r="Z273" s="39"/>
+      <c r="AA273" s="39"/>
+      <c r="AB273" s="39"/>
+      <c r="AC273" s="39"/>
       <c r="AD273" s="64"/>
       <c r="AF273" s="39"/>
     </row>
@@ -24701,18 +24761,17 @@
       <c r="T274" s="23"/>
       <c r="U274" s="23"/>
       <c r="V274" s="23"/>
-      <c r="W274" s="23"/>
+      <c r="W274" s="39"/>
       <c r="X274" s="39"/>
       <c r="Y274" s="39"/>
-      <c r="Z274" s="23"/>
-      <c r="AA274" s="23"/>
-      <c r="AB274" s="23"/>
-      <c r="AC274" s="23"/>
+      <c r="Z274" s="39"/>
+      <c r="AA274" s="39"/>
+      <c r="AB274" s="39"/>
+      <c r="AC274" s="39"/>
       <c r="AD274" s="64"/>
       <c r="AF274" s="39"/>
     </row>
     <row r="275" spans="16:32" s="21" customFormat="1">
-      <c r="P275" s="22"/>
       <c r="Q275" s="23"/>
       <c r="R275" s="23"/>
       <c r="S275" s="23"/>
@@ -24736,7 +24795,7 @@
       <c r="T276" s="23"/>
       <c r="U276" s="23"/>
       <c r="V276" s="23"/>
-      <c r="W276" s="39"/>
+      <c r="W276" s="23"/>
       <c r="X276" s="39"/>
       <c r="Y276" s="39"/>
       <c r="Z276" s="39"/>
@@ -24753,7 +24812,7 @@
       <c r="T277" s="23"/>
       <c r="U277" s="23"/>
       <c r="V277" s="23"/>
-      <c r="W277" s="39"/>
+      <c r="W277" s="23"/>
       <c r="X277" s="39"/>
       <c r="Y277" s="39"/>
       <c r="Z277" s="39"/>
@@ -24770,7 +24829,7 @@
       <c r="T278" s="23"/>
       <c r="U278" s="23"/>
       <c r="V278" s="23"/>
-      <c r="W278" s="23"/>
+      <c r="W278" s="39"/>
       <c r="X278" s="39"/>
       <c r="Y278" s="39"/>
       <c r="Z278" s="39"/>
@@ -24824,14 +24883,15 @@
       <c r="W281" s="23"/>
       <c r="X281" s="39"/>
       <c r="Y281" s="39"/>
-      <c r="Z281" s="39"/>
-      <c r="AA281" s="39"/>
-      <c r="AB281" s="39"/>
-      <c r="AC281" s="39"/>
+      <c r="Z281" s="23"/>
+      <c r="AA281" s="23"/>
+      <c r="AB281" s="23"/>
+      <c r="AC281" s="23"/>
       <c r="AD281" s="64"/>
       <c r="AF281" s="39"/>
     </row>
     <row r="282" spans="16:32" s="21" customFormat="1">
+      <c r="P282" s="22"/>
       <c r="Q282" s="23"/>
       <c r="R282" s="23"/>
       <c r="S282" s="23"/>
@@ -24855,31 +24915,30 @@
       <c r="T283" s="23"/>
       <c r="U283" s="23"/>
       <c r="V283" s="23"/>
-      <c r="W283" s="23"/>
+      <c r="W283" s="39"/>
       <c r="X283" s="39"/>
       <c r="Y283" s="39"/>
-      <c r="Z283" s="23"/>
-      <c r="AA283" s="23"/>
-      <c r="AB283" s="23"/>
-      <c r="AC283" s="23"/>
+      <c r="Z283" s="39"/>
+      <c r="AA283" s="39"/>
+      <c r="AB283" s="39"/>
+      <c r="AC283" s="39"/>
       <c r="AD283" s="64"/>
       <c r="AF283" s="39"/>
     </row>
     <row r="284" spans="16:32" s="21" customFormat="1">
-      <c r="P284" s="22"/>
       <c r="Q284" s="23"/>
       <c r="R284" s="23"/>
       <c r="S284" s="23"/>
       <c r="T284" s="23"/>
       <c r="U284" s="23"/>
       <c r="V284" s="23"/>
-      <c r="W284" s="39"/>
+      <c r="W284" s="23"/>
       <c r="X284" s="39"/>
       <c r="Y284" s="39"/>
-      <c r="Z284" s="39"/>
-      <c r="AA284" s="39"/>
-      <c r="AB284" s="39"/>
-      <c r="AC284" s="39"/>
+      <c r="Z284" s="23"/>
+      <c r="AA284" s="23"/>
+      <c r="AB284" s="23"/>
+      <c r="AC284" s="23"/>
       <c r="AD284" s="64"/>
       <c r="AF284" s="39"/>
     </row>
@@ -24890,7 +24949,7 @@
       <c r="T285" s="23"/>
       <c r="U285" s="23"/>
       <c r="V285" s="23"/>
-      <c r="W285" s="39"/>
+      <c r="W285" s="23"/>
       <c r="X285" s="39"/>
       <c r="Y285" s="39"/>
       <c r="Z285" s="39"/>
@@ -24907,13 +24966,13 @@
       <c r="T286" s="23"/>
       <c r="U286" s="23"/>
       <c r="V286" s="23"/>
-      <c r="W286" s="23"/>
+      <c r="W286" s="39"/>
       <c r="X286" s="39"/>
       <c r="Y286" s="39"/>
-      <c r="Z286" s="23"/>
-      <c r="AA286" s="23"/>
-      <c r="AB286" s="23"/>
-      <c r="AC286" s="23"/>
+      <c r="Z286" s="39"/>
+      <c r="AA286" s="39"/>
+      <c r="AB286" s="39"/>
+      <c r="AC286" s="39"/>
       <c r="AD286" s="64"/>
       <c r="AF286" s="39"/>
     </row>
@@ -24941,17 +25000,16 @@
       <c r="T288" s="23"/>
       <c r="U288" s="23"/>
       <c r="V288" s="23"/>
-      <c r="W288" s="39"/>
+      <c r="W288" s="23"/>
       <c r="X288" s="39"/>
       <c r="Y288" s="39"/>
       <c r="Z288" s="39"/>
       <c r="AA288" s="39"/>
       <c r="AB288" s="39"/>
       <c r="AC288" s="39"/>
-      <c r="AD288" s="64"/>
-      <c r="AF288" s="39"/>
-    </row>
-    <row r="289" spans="16:32" s="21" customFormat="1">
+      <c r="AD288" s="65"/>
+    </row>
+    <row r="289" spans="16:30" s="21" customFormat="1">
       <c r="Q289" s="23"/>
       <c r="R289" s="23"/>
       <c r="S289" s="23"/>
@@ -24965,17 +25023,16 @@
       <c r="AA289" s="39"/>
       <c r="AB289" s="39"/>
       <c r="AC289" s="39"/>
-      <c r="AD289" s="64"/>
-      <c r="AF289" s="39"/>
-    </row>
-    <row r="290" spans="16:32" s="21" customFormat="1">
+      <c r="AD289" s="65"/>
+    </row>
+    <row r="290" spans="16:30" s="21" customFormat="1">
       <c r="Q290" s="23"/>
       <c r="R290" s="23"/>
       <c r="S290" s="23"/>
       <c r="T290" s="23"/>
       <c r="U290" s="23"/>
       <c r="V290" s="23"/>
-      <c r="W290" s="23"/>
+      <c r="W290" s="39"/>
       <c r="X290" s="39"/>
       <c r="Y290" s="39"/>
       <c r="Z290" s="39"/>
@@ -24984,7 +25041,7 @@
       <c r="AC290" s="39"/>
       <c r="AD290" s="65"/>
     </row>
-    <row r="291" spans="16:32" s="21" customFormat="1">
+    <row r="291" spans="16:30" s="21" customFormat="1">
       <c r="Q291" s="23"/>
       <c r="R291" s="23"/>
       <c r="S291" s="23"/>
@@ -25000,7 +25057,8 @@
       <c r="AC291" s="39"/>
       <c r="AD291" s="65"/>
     </row>
-    <row r="292" spans="16:32" s="21" customFormat="1">
+    <row r="292" spans="16:30" s="21" customFormat="1">
+      <c r="P292" s="22"/>
       <c r="Q292" s="23"/>
       <c r="R292" s="23"/>
       <c r="S292" s="23"/>
@@ -25016,7 +25074,7 @@
       <c r="AC292" s="39"/>
       <c r="AD292" s="65"/>
     </row>
-    <row r="293" spans="16:32" s="21" customFormat="1">
+    <row r="293" spans="16:30" s="21" customFormat="1">
       <c r="Q293" s="23"/>
       <c r="R293" s="23"/>
       <c r="S293" s="23"/>
@@ -25026,21 +25084,20 @@
       <c r="W293" s="23"/>
       <c r="X293" s="39"/>
       <c r="Y293" s="39"/>
-      <c r="Z293" s="39"/>
-      <c r="AA293" s="39"/>
-      <c r="AB293" s="39"/>
-      <c r="AC293" s="39"/>
+      <c r="Z293" s="23"/>
+      <c r="AA293" s="23"/>
+      <c r="AB293" s="23"/>
+      <c r="AC293" s="23"/>
       <c r="AD293" s="65"/>
     </row>
-    <row r="294" spans="16:32" s="21" customFormat="1">
-      <c r="P294" s="22"/>
+    <row r="294" spans="16:30" s="21" customFormat="1">
       <c r="Q294" s="23"/>
       <c r="R294" s="23"/>
       <c r="S294" s="23"/>
       <c r="T294" s="23"/>
       <c r="U294" s="23"/>
       <c r="V294" s="23"/>
-      <c r="W294" s="39"/>
+      <c r="W294" s="23"/>
       <c r="X294" s="39"/>
       <c r="Y294" s="39"/>
       <c r="Z294" s="39"/>
@@ -25049,7 +25106,7 @@
       <c r="AC294" s="39"/>
       <c r="AD294" s="65"/>
     </row>
-    <row r="295" spans="16:32" s="21" customFormat="1">
+    <row r="295" spans="16:30" s="21" customFormat="1">
       <c r="Q295" s="23"/>
       <c r="R295" s="23"/>
       <c r="S295" s="23"/>
@@ -25059,13 +25116,13 @@
       <c r="W295" s="23"/>
       <c r="X295" s="39"/>
       <c r="Y295" s="39"/>
-      <c r="Z295" s="23"/>
-      <c r="AA295" s="23"/>
-      <c r="AB295" s="23"/>
-      <c r="AC295" s="23"/>
+      <c r="Z295" s="39"/>
+      <c r="AA295" s="39"/>
+      <c r="AB295" s="39"/>
+      <c r="AC295" s="39"/>
       <c r="AD295" s="65"/>
     </row>
-    <row r="296" spans="16:32" s="21" customFormat="1">
+    <row r="296" spans="16:30" s="21" customFormat="1">
       <c r="Q296" s="23"/>
       <c r="R296" s="23"/>
       <c r="S296" s="23"/>
@@ -25081,7 +25138,7 @@
       <c r="AC296" s="39"/>
       <c r="AD296" s="65"/>
     </row>
-    <row r="297" spans="16:32" s="21" customFormat="1">
+    <row r="297" spans="16:30" s="21" customFormat="1">
       <c r="Q297" s="23"/>
       <c r="R297" s="23"/>
       <c r="S297" s="23"/>
@@ -25097,14 +25154,14 @@
       <c r="AC297" s="39"/>
       <c r="AD297" s="65"/>
     </row>
-    <row r="298" spans="16:32" s="21" customFormat="1">
+    <row r="298" spans="16:30" s="21" customFormat="1">
       <c r="Q298" s="23"/>
       <c r="R298" s="23"/>
       <c r="S298" s="23"/>
       <c r="T298" s="23"/>
       <c r="U298" s="23"/>
       <c r="V298" s="23"/>
-      <c r="W298" s="23"/>
+      <c r="W298" s="39"/>
       <c r="X298" s="39"/>
       <c r="Y298" s="39"/>
       <c r="Z298" s="39"/>
@@ -25113,7 +25170,7 @@
       <c r="AC298" s="39"/>
       <c r="AD298" s="65"/>
     </row>
-    <row r="299" spans="16:32" s="21" customFormat="1">
+    <row r="299" spans="16:30" s="21" customFormat="1">
       <c r="Q299" s="23"/>
       <c r="R299" s="23"/>
       <c r="S299" s="23"/>
@@ -25129,7 +25186,7 @@
       <c r="AC299" s="39"/>
       <c r="AD299" s="65"/>
     </row>
-    <row r="300" spans="16:32" s="21" customFormat="1">
+    <row r="300" spans="16:30" s="21" customFormat="1">
       <c r="Q300" s="23"/>
       <c r="R300" s="23"/>
       <c r="S300" s="23"/>
@@ -25145,7 +25202,7 @@
       <c r="AC300" s="39"/>
       <c r="AD300" s="65"/>
     </row>
-    <row r="301" spans="16:32" s="21" customFormat="1">
+    <row r="301" spans="16:30" s="21" customFormat="1">
       <c r="Q301" s="23"/>
       <c r="R301" s="23"/>
       <c r="S301" s="23"/>
@@ -25155,13 +25212,14 @@
       <c r="W301" s="23"/>
       <c r="X301" s="39"/>
       <c r="Y301" s="39"/>
-      <c r="Z301" s="39"/>
-      <c r="AA301" s="39"/>
-      <c r="AB301" s="39"/>
-      <c r="AC301" s="39"/>
+      <c r="Z301" s="23"/>
+      <c r="AA301" s="23"/>
+      <c r="AB301" s="23"/>
+      <c r="AC301" s="23"/>
       <c r="AD301" s="65"/>
     </row>
-    <row r="302" spans="16:32" s="21" customFormat="1">
+    <row r="302" spans="16:30" s="21" customFormat="1">
+      <c r="P302" s="22"/>
       <c r="Q302" s="23"/>
       <c r="R302" s="23"/>
       <c r="S302" s="23"/>
@@ -25177,37 +25235,36 @@
       <c r="AC302" s="39"/>
       <c r="AD302" s="65"/>
     </row>
-    <row r="303" spans="16:32" s="21" customFormat="1">
+    <row r="303" spans="16:30" s="21" customFormat="1">
       <c r="Q303" s="23"/>
       <c r="R303" s="23"/>
       <c r="S303" s="23"/>
       <c r="T303" s="23"/>
       <c r="U303" s="23"/>
       <c r="V303" s="23"/>
-      <c r="W303" s="23"/>
+      <c r="W303" s="39"/>
       <c r="X303" s="39"/>
       <c r="Y303" s="39"/>
-      <c r="Z303" s="23"/>
-      <c r="AA303" s="23"/>
-      <c r="AB303" s="23"/>
-      <c r="AC303" s="23"/>
+      <c r="Z303" s="39"/>
+      <c r="AA303" s="39"/>
+      <c r="AB303" s="39"/>
+      <c r="AC303" s="39"/>
       <c r="AD303" s="65"/>
     </row>
-    <row r="304" spans="16:32" s="21" customFormat="1">
-      <c r="P304" s="22"/>
+    <row r="304" spans="16:30" s="21" customFormat="1">
       <c r="Q304" s="23"/>
       <c r="R304" s="23"/>
       <c r="S304" s="23"/>
       <c r="T304" s="23"/>
       <c r="U304" s="23"/>
       <c r="V304" s="23"/>
-      <c r="W304" s="39"/>
+      <c r="W304" s="23"/>
       <c r="X304" s="39"/>
       <c r="Y304" s="39"/>
-      <c r="Z304" s="39"/>
-      <c r="AA304" s="39"/>
-      <c r="AB304" s="39"/>
-      <c r="AC304" s="39"/>
+      <c r="Z304" s="23"/>
+      <c r="AA304" s="23"/>
+      <c r="AB304" s="23"/>
+      <c r="AC304" s="23"/>
       <c r="AD304" s="65"/>
     </row>
     <row r="305" spans="16:30" s="21" customFormat="1">
@@ -25217,7 +25274,7 @@
       <c r="T305" s="23"/>
       <c r="U305" s="23"/>
       <c r="V305" s="23"/>
-      <c r="W305" s="39"/>
+      <c r="W305" s="23"/>
       <c r="X305" s="39"/>
       <c r="Y305" s="39"/>
       <c r="Z305" s="39"/>
@@ -25233,13 +25290,13 @@
       <c r="T306" s="23"/>
       <c r="U306" s="23"/>
       <c r="V306" s="23"/>
-      <c r="W306" s="23"/>
+      <c r="W306" s="39"/>
       <c r="X306" s="39"/>
       <c r="Y306" s="39"/>
-      <c r="Z306" s="23"/>
-      <c r="AA306" s="23"/>
-      <c r="AB306" s="23"/>
-      <c r="AC306" s="23"/>
+      <c r="Z306" s="39"/>
+      <c r="AA306" s="39"/>
+      <c r="AB306" s="39"/>
+      <c r="AC306" s="39"/>
       <c r="AD306" s="65"/>
     </row>
     <row r="307" spans="16:30" s="21" customFormat="1">
@@ -25275,13 +25332,14 @@
       <c r="AD308" s="65"/>
     </row>
     <row r="309" spans="16:30" s="21" customFormat="1">
+      <c r="P309" s="22"/>
       <c r="Q309" s="23"/>
       <c r="R309" s="23"/>
       <c r="S309" s="23"/>
       <c r="T309" s="23"/>
       <c r="U309" s="23"/>
       <c r="V309" s="23"/>
-      <c r="W309" s="23"/>
+      <c r="W309" s="39"/>
       <c r="X309" s="39"/>
       <c r="Y309" s="39"/>
       <c r="Z309" s="39"/>
@@ -25307,7 +25365,6 @@
       <c r="AD310" s="65"/>
     </row>
     <row r="311" spans="16:30" s="21" customFormat="1">
-      <c r="P311" s="22"/>
       <c r="Q311" s="23"/>
       <c r="R311" s="23"/>
       <c r="S311" s="23"/>
@@ -25330,7 +25387,7 @@
       <c r="T312" s="23"/>
       <c r="U312" s="23"/>
       <c r="V312" s="23"/>
-      <c r="W312" s="39"/>
+      <c r="W312" s="23"/>
       <c r="X312" s="39"/>
       <c r="Y312" s="39"/>
       <c r="Z312" s="39"/>
@@ -25346,7 +25403,7 @@
       <c r="T313" s="23"/>
       <c r="U313" s="23"/>
       <c r="V313" s="23"/>
-      <c r="W313" s="39"/>
+      <c r="W313" s="23"/>
       <c r="X313" s="39"/>
       <c r="Y313" s="39"/>
       <c r="Z313" s="39"/>
@@ -25388,13 +25445,13 @@
       <c r="AD315" s="65"/>
     </row>
     <row r="316" spans="16:30" s="21" customFormat="1">
-      <c r="Q316" s="23"/>
-      <c r="R316" s="23"/>
-      <c r="S316" s="23"/>
-      <c r="T316" s="23"/>
-      <c r="U316" s="23"/>
-      <c r="V316" s="23"/>
-      <c r="W316" s="23"/>
+      <c r="Q316" s="39"/>
+      <c r="R316" s="39"/>
+      <c r="S316" s="39"/>
+      <c r="T316" s="39"/>
+      <c r="U316" s="39"/>
+      <c r="V316" s="39"/>
+      <c r="W316" s="39"/>
       <c r="X316" s="39"/>
       <c r="Y316" s="39"/>
       <c r="Z316" s="39"/>
@@ -25442,7 +25499,7 @@
       <c r="T319" s="23"/>
       <c r="U319" s="23"/>
       <c r="V319" s="23"/>
-      <c r="W319" s="23"/>
+      <c r="W319" s="39"/>
       <c r="X319" s="39"/>
       <c r="Y319" s="39"/>
       <c r="Z319" s="39"/>
@@ -25452,19 +25509,19 @@
       <c r="AD319" s="65"/>
     </row>
     <row r="320" spans="16:30" s="21" customFormat="1">
-      <c r="Q320" s="39"/>
-      <c r="R320" s="39"/>
-      <c r="S320" s="39"/>
-      <c r="T320" s="39"/>
-      <c r="U320" s="39"/>
-      <c r="V320" s="39"/>
-      <c r="W320" s="39"/>
+      <c r="Q320" s="23"/>
+      <c r="R320" s="23"/>
+      <c r="S320" s="23"/>
+      <c r="T320" s="23"/>
+      <c r="U320" s="23"/>
+      <c r="V320" s="23"/>
+      <c r="W320" s="23"/>
       <c r="X320" s="39"/>
       <c r="Y320" s="39"/>
-      <c r="Z320" s="39"/>
-      <c r="AA320" s="39"/>
-      <c r="AB320" s="39"/>
-      <c r="AC320" s="39"/>
+      <c r="Z320" s="23"/>
+      <c r="AA320" s="23"/>
+      <c r="AB320" s="23"/>
+      <c r="AC320" s="23"/>
       <c r="AD320" s="65"/>
     </row>
     <row r="321" spans="16:30" s="21" customFormat="1">
@@ -25474,7 +25531,7 @@
       <c r="T321" s="23"/>
       <c r="U321" s="23"/>
       <c r="V321" s="23"/>
-      <c r="W321" s="39"/>
+      <c r="W321" s="23"/>
       <c r="X321" s="39"/>
       <c r="Y321" s="39"/>
       <c r="Z321" s="39"/>
@@ -25490,16 +25547,17 @@
       <c r="T322" s="23"/>
       <c r="U322" s="23"/>
       <c r="V322" s="23"/>
-      <c r="W322" s="23"/>
+      <c r="W322" s="39"/>
       <c r="X322" s="39"/>
       <c r="Y322" s="39"/>
-      <c r="Z322" s="23"/>
-      <c r="AA322" s="23"/>
-      <c r="AB322" s="23"/>
-      <c r="AC322" s="23"/>
+      <c r="Z322" s="39"/>
+      <c r="AA322" s="39"/>
+      <c r="AB322" s="39"/>
+      <c r="AC322" s="39"/>
       <c r="AD322" s="65"/>
     </row>
     <row r="323" spans="16:30" s="21" customFormat="1">
+      <c r="P323" s="22"/>
       <c r="Q323" s="23"/>
       <c r="R323" s="23"/>
       <c r="S323" s="23"/>
@@ -25516,6 +25574,7 @@
       <c r="AD323" s="65"/>
     </row>
     <row r="324" spans="16:30" s="21" customFormat="1">
+      <c r="P324" s="22"/>
       <c r="Q324" s="23"/>
       <c r="R324" s="23"/>
       <c r="S324" s="23"/>
@@ -25539,7 +25598,7 @@
       <c r="T325" s="23"/>
       <c r="U325" s="23"/>
       <c r="V325" s="23"/>
-      <c r="W325" s="23"/>
+      <c r="W325" s="39"/>
       <c r="X325" s="39"/>
       <c r="Y325" s="39"/>
       <c r="Z325" s="39"/>
@@ -25549,31 +25608,29 @@
       <c r="AD325" s="65"/>
     </row>
     <row r="326" spans="16:30" s="21" customFormat="1">
-      <c r="P326" s="22"/>
       <c r="Q326" s="23"/>
       <c r="R326" s="23"/>
       <c r="S326" s="23"/>
       <c r="T326" s="23"/>
       <c r="U326" s="23"/>
       <c r="V326" s="23"/>
-      <c r="W326" s="39"/>
+      <c r="W326" s="23"/>
       <c r="X326" s="39"/>
       <c r="Y326" s="39"/>
-      <c r="Z326" s="39"/>
-      <c r="AA326" s="39"/>
-      <c r="AB326" s="39"/>
-      <c r="AC326" s="39"/>
+      <c r="Z326" s="23"/>
+      <c r="AA326" s="23"/>
+      <c r="AB326" s="23"/>
+      <c r="AC326" s="23"/>
       <c r="AD326" s="65"/>
     </row>
     <row r="327" spans="16:30" s="21" customFormat="1">
-      <c r="P327" s="22"/>
       <c r="Q327" s="23"/>
       <c r="R327" s="23"/>
       <c r="S327" s="23"/>
       <c r="T327" s="23"/>
       <c r="U327" s="23"/>
       <c r="V327" s="23"/>
-      <c r="W327" s="39"/>
+      <c r="W327" s="23"/>
       <c r="X327" s="39"/>
       <c r="Y327" s="39"/>
       <c r="Z327" s="39"/>
@@ -25592,10 +25649,10 @@
       <c r="W328" s="23"/>
       <c r="X328" s="39"/>
       <c r="Y328" s="39"/>
-      <c r="Z328" s="23"/>
-      <c r="AA328" s="23"/>
-      <c r="AB328" s="23"/>
-      <c r="AC328" s="23"/>
+      <c r="Z328" s="39"/>
+      <c r="AA328" s="39"/>
+      <c r="AB328" s="39"/>
+      <c r="AC328" s="39"/>
       <c r="AD328" s="65"/>
     </row>
     <row r="329" spans="16:30" s="21" customFormat="1">
@@ -25621,7 +25678,7 @@
       <c r="T330" s="23"/>
       <c r="U330" s="23"/>
       <c r="V330" s="23"/>
-      <c r="W330" s="23"/>
+      <c r="W330" s="39"/>
       <c r="X330" s="39"/>
       <c r="Y330" s="39"/>
       <c r="Z330" s="39"/>
@@ -25669,7 +25726,7 @@
       <c r="T333" s="23"/>
       <c r="U333" s="23"/>
       <c r="V333" s="23"/>
-      <c r="W333" s="23"/>
+      <c r="W333" s="39"/>
       <c r="X333" s="39"/>
       <c r="Y333" s="39"/>
       <c r="Z333" s="39"/>
@@ -25701,7 +25758,7 @@
       <c r="T335" s="23"/>
       <c r="U335" s="23"/>
       <c r="V335" s="23"/>
-      <c r="W335" s="39"/>
+      <c r="W335" s="23"/>
       <c r="X335" s="39"/>
       <c r="Y335" s="39"/>
       <c r="Z335" s="39"/>
@@ -25717,7 +25774,7 @@
       <c r="T336" s="23"/>
       <c r="U336" s="23"/>
       <c r="V336" s="23"/>
-      <c r="W336" s="39"/>
+      <c r="W336" s="23"/>
       <c r="X336" s="39"/>
       <c r="Y336" s="39"/>
       <c r="Z336" s="39"/>
@@ -25727,13 +25784,13 @@
       <c r="AD336" s="65"/>
     </row>
     <row r="337" spans="17:30" s="21" customFormat="1">
-      <c r="Q337" s="23"/>
-      <c r="R337" s="23"/>
-      <c r="S337" s="23"/>
-      <c r="T337" s="23"/>
-      <c r="U337" s="23"/>
-      <c r="V337" s="23"/>
-      <c r="W337" s="23"/>
+      <c r="Q337" s="39"/>
+      <c r="R337" s="39"/>
+      <c r="S337" s="39"/>
+      <c r="T337" s="39"/>
+      <c r="U337" s="39"/>
+      <c r="V337" s="39"/>
+      <c r="W337" s="39"/>
       <c r="X337" s="39"/>
       <c r="Y337" s="39"/>
       <c r="Z337" s="39"/>
@@ -25781,7 +25838,7 @@
       <c r="T340" s="23"/>
       <c r="U340" s="23"/>
       <c r="V340" s="23"/>
-      <c r="W340" s="23"/>
+      <c r="W340" s="39"/>
       <c r="X340" s="39"/>
       <c r="Y340" s="39"/>
       <c r="Z340" s="39"/>
@@ -25791,19 +25848,19 @@
       <c r="AD340" s="65"/>
     </row>
     <row r="341" spans="17:30" s="21" customFormat="1">
-      <c r="Q341" s="39"/>
-      <c r="R341" s="39"/>
-      <c r="S341" s="39"/>
-      <c r="T341" s="39"/>
-      <c r="U341" s="39"/>
-      <c r="V341" s="39"/>
-      <c r="W341" s="39"/>
+      <c r="Q341" s="23"/>
+      <c r="R341" s="23"/>
+      <c r="S341" s="23"/>
+      <c r="T341" s="23"/>
+      <c r="U341" s="23"/>
+      <c r="V341" s="23"/>
+      <c r="W341" s="23"/>
       <c r="X341" s="39"/>
       <c r="Y341" s="39"/>
-      <c r="Z341" s="39"/>
-      <c r="AA341" s="39"/>
-      <c r="AB341" s="39"/>
-      <c r="AC341" s="39"/>
+      <c r="Z341" s="23"/>
+      <c r="AA341" s="23"/>
+      <c r="AB341" s="23"/>
+      <c r="AC341" s="23"/>
       <c r="AD341" s="65"/>
     </row>
     <row r="342" spans="17:30" s="21" customFormat="1">
@@ -25832,10 +25889,10 @@
       <c r="W343" s="23"/>
       <c r="X343" s="39"/>
       <c r="Y343" s="39"/>
-      <c r="Z343" s="23"/>
-      <c r="AA343" s="23"/>
-      <c r="AB343" s="23"/>
-      <c r="AC343" s="23"/>
+      <c r="Z343" s="39"/>
+      <c r="AA343" s="39"/>
+      <c r="AB343" s="39"/>
+      <c r="AC343" s="39"/>
       <c r="AD343" s="65"/>
     </row>
     <row r="344" spans="17:30" s="21" customFormat="1">
@@ -25845,13 +25902,13 @@
       <c r="T344" s="23"/>
       <c r="U344" s="23"/>
       <c r="V344" s="23"/>
-      <c r="W344" s="39"/>
+      <c r="W344" s="23"/>
       <c r="X344" s="39"/>
       <c r="Y344" s="39"/>
-      <c r="Z344" s="39"/>
-      <c r="AA344" s="39"/>
-      <c r="AB344" s="39"/>
-      <c r="AC344" s="39"/>
+      <c r="Z344" s="23"/>
+      <c r="AA344" s="23"/>
+      <c r="AB344" s="23"/>
+      <c r="AC344" s="23"/>
       <c r="AD344" s="65"/>
     </row>
     <row r="345" spans="17:30" s="21" customFormat="1">
@@ -25861,7 +25918,7 @@
       <c r="T345" s="23"/>
       <c r="U345" s="23"/>
       <c r="V345" s="23"/>
-      <c r="W345" s="23"/>
+      <c r="W345" s="39"/>
       <c r="X345" s="39"/>
       <c r="Y345" s="39"/>
       <c r="Z345" s="39"/>
@@ -25877,13 +25934,13 @@
       <c r="T346" s="23"/>
       <c r="U346" s="23"/>
       <c r="V346" s="23"/>
-      <c r="W346" s="23"/>
+      <c r="W346" s="39"/>
       <c r="X346" s="39"/>
       <c r="Y346" s="39"/>
-      <c r="Z346" s="23"/>
-      <c r="AA346" s="23"/>
-      <c r="AB346" s="23"/>
-      <c r="AC346" s="23"/>
+      <c r="Z346" s="39"/>
+      <c r="AA346" s="39"/>
+      <c r="AB346" s="39"/>
+      <c r="AC346" s="39"/>
       <c r="AD346" s="65"/>
     </row>
     <row r="347" spans="17:30" s="21" customFormat="1">
@@ -25909,7 +25966,7 @@
       <c r="T348" s="23"/>
       <c r="U348" s="23"/>
       <c r="V348" s="23"/>
-      <c r="W348" s="39"/>
+      <c r="W348" s="23"/>
       <c r="X348" s="39"/>
       <c r="Y348" s="39"/>
       <c r="Z348" s="39"/>
@@ -25935,13 +25992,13 @@
       <c r="AD349" s="65"/>
     </row>
     <row r="350" spans="17:30" s="21" customFormat="1">
-      <c r="Q350" s="23"/>
-      <c r="R350" s="23"/>
-      <c r="S350" s="23"/>
-      <c r="T350" s="23"/>
-      <c r="U350" s="23"/>
-      <c r="V350" s="23"/>
-      <c r="W350" s="23"/>
+      <c r="Q350" s="39"/>
+      <c r="R350" s="39"/>
+      <c r="S350" s="39"/>
+      <c r="T350" s="39"/>
+      <c r="U350" s="39"/>
+      <c r="V350" s="39"/>
+      <c r="W350" s="39"/>
       <c r="X350" s="39"/>
       <c r="Y350" s="39"/>
       <c r="Z350" s="39"/>
@@ -25967,12 +26024,12 @@
       <c r="AD351" s="65"/>
     </row>
     <row r="352" spans="17:30" s="21" customFormat="1">
-      <c r="Q352" s="39"/>
-      <c r="R352" s="39"/>
-      <c r="S352" s="39"/>
-      <c r="T352" s="39"/>
-      <c r="U352" s="39"/>
-      <c r="V352" s="39"/>
+      <c r="Q352" s="23"/>
+      <c r="R352" s="23"/>
+      <c r="S352" s="23"/>
+      <c r="T352" s="23"/>
+      <c r="U352" s="23"/>
+      <c r="V352" s="23"/>
       <c r="W352" s="39"/>
       <c r="X352" s="39"/>
       <c r="Y352" s="39"/>
@@ -25989,13 +26046,13 @@
       <c r="T353" s="23"/>
       <c r="U353" s="23"/>
       <c r="V353" s="23"/>
-      <c r="W353" s="39"/>
+      <c r="W353" s="23"/>
       <c r="X353" s="39"/>
       <c r="Y353" s="39"/>
-      <c r="Z353" s="39"/>
-      <c r="AA353" s="39"/>
-      <c r="AB353" s="39"/>
-      <c r="AC353" s="39"/>
+      <c r="Z353" s="23"/>
+      <c r="AA353" s="23"/>
+      <c r="AB353" s="23"/>
+      <c r="AC353" s="23"/>
       <c r="AD353" s="65"/>
     </row>
     <row r="354" spans="17:30" s="21" customFormat="1">
@@ -26024,10 +26081,10 @@
       <c r="W355" s="23"/>
       <c r="X355" s="39"/>
       <c r="Y355" s="39"/>
-      <c r="Z355" s="23"/>
-      <c r="AA355" s="23"/>
-      <c r="AB355" s="23"/>
-      <c r="AC355" s="23"/>
+      <c r="Z355" s="39"/>
+      <c r="AA355" s="39"/>
+      <c r="AB355" s="39"/>
+      <c r="AC355" s="39"/>
       <c r="AD355" s="65"/>
     </row>
     <row r="356" spans="17:30" s="21" customFormat="1">
@@ -26037,7 +26094,7 @@
       <c r="T356" s="23"/>
       <c r="U356" s="23"/>
       <c r="V356" s="23"/>
-      <c r="W356" s="39"/>
+      <c r="W356" s="23"/>
       <c r="X356" s="39"/>
       <c r="Y356" s="39"/>
       <c r="Z356" s="39"/>
@@ -26101,7 +26158,7 @@
       <c r="T360" s="23"/>
       <c r="U360" s="23"/>
       <c r="V360" s="23"/>
-      <c r="W360" s="23"/>
+      <c r="W360" s="39"/>
       <c r="X360" s="39"/>
       <c r="Y360" s="39"/>
       <c r="Z360" s="39"/>
@@ -26111,13 +26168,13 @@
       <c r="AD360" s="65"/>
     </row>
     <row r="361" spans="17:30" s="21" customFormat="1">
-      <c r="Q361" s="23"/>
-      <c r="R361" s="23"/>
-      <c r="S361" s="23"/>
-      <c r="T361" s="23"/>
-      <c r="U361" s="23"/>
-      <c r="V361" s="23"/>
-      <c r="W361" s="23"/>
+      <c r="Q361" s="39"/>
+      <c r="R361" s="39"/>
+      <c r="S361" s="39"/>
+      <c r="T361" s="39"/>
+      <c r="U361" s="39"/>
+      <c r="V361" s="39"/>
+      <c r="W361" s="39"/>
       <c r="X361" s="39"/>
       <c r="Y361" s="39"/>
       <c r="Z361" s="39"/>
@@ -26133,7 +26190,7 @@
       <c r="T362" s="23"/>
       <c r="U362" s="23"/>
       <c r="V362" s="23"/>
-      <c r="W362" s="39"/>
+      <c r="W362" s="23"/>
       <c r="X362" s="39"/>
       <c r="Y362" s="39"/>
       <c r="Z362" s="39"/>
@@ -26143,13 +26200,13 @@
       <c r="AD362" s="65"/>
     </row>
     <row r="363" spans="17:30" s="21" customFormat="1">
-      <c r="Q363" s="39"/>
-      <c r="R363" s="39"/>
-      <c r="S363" s="39"/>
-      <c r="T363" s="39"/>
-      <c r="U363" s="39"/>
-      <c r="V363" s="39"/>
-      <c r="W363" s="39"/>
+      <c r="Q363" s="23"/>
+      <c r="R363" s="23"/>
+      <c r="S363" s="23"/>
+      <c r="T363" s="23"/>
+      <c r="U363" s="23"/>
+      <c r="V363" s="23"/>
+      <c r="W363" s="23"/>
       <c r="X363" s="39"/>
       <c r="Y363" s="39"/>
       <c r="Z363" s="39"/>
@@ -26181,7 +26238,7 @@
       <c r="T365" s="23"/>
       <c r="U365" s="23"/>
       <c r="V365" s="23"/>
-      <c r="W365" s="23"/>
+      <c r="W365" s="39"/>
       <c r="X365" s="39"/>
       <c r="Y365" s="39"/>
       <c r="Z365" s="39"/>
@@ -26197,7 +26254,7 @@
       <c r="T366" s="23"/>
       <c r="U366" s="23"/>
       <c r="V366" s="23"/>
-      <c r="W366" s="23"/>
+      <c r="W366" s="39"/>
       <c r="X366" s="39"/>
       <c r="Y366" s="39"/>
       <c r="Z366" s="39"/>
@@ -26213,7 +26270,7 @@
       <c r="T367" s="23"/>
       <c r="U367" s="23"/>
       <c r="V367" s="23"/>
-      <c r="W367" s="39"/>
+      <c r="W367" s="23"/>
       <c r="X367" s="39"/>
       <c r="Y367" s="39"/>
       <c r="Z367" s="39"/>
@@ -26245,7 +26302,7 @@
       <c r="T369" s="23"/>
       <c r="U369" s="23"/>
       <c r="V369" s="23"/>
-      <c r="W369" s="23"/>
+      <c r="W369" s="39"/>
       <c r="X369" s="39"/>
       <c r="Y369" s="39"/>
       <c r="Z369" s="39"/>
@@ -26293,7 +26350,7 @@
       <c r="T372" s="23"/>
       <c r="U372" s="23"/>
       <c r="V372" s="23"/>
-      <c r="W372" s="39"/>
+      <c r="W372" s="23"/>
       <c r="X372" s="39"/>
       <c r="Y372" s="39"/>
       <c r="Z372" s="39"/>
@@ -26325,7 +26382,7 @@
       <c r="T374" s="23"/>
       <c r="U374" s="23"/>
       <c r="V374" s="23"/>
-      <c r="W374" s="23"/>
+      <c r="W374" s="39"/>
       <c r="X374" s="39"/>
       <c r="Y374" s="39"/>
       <c r="Z374" s="39"/>
@@ -26357,7 +26414,7 @@
       <c r="T376" s="23"/>
       <c r="U376" s="23"/>
       <c r="V376" s="23"/>
-      <c r="W376" s="39"/>
+      <c r="W376" s="23"/>
       <c r="X376" s="39"/>
       <c r="Y376" s="39"/>
       <c r="Z376" s="39"/>
@@ -26373,7 +26430,7 @@
       <c r="T377" s="23"/>
       <c r="U377" s="23"/>
       <c r="V377" s="23"/>
-      <c r="W377" s="39"/>
+      <c r="W377" s="23"/>
       <c r="X377" s="39"/>
       <c r="Y377" s="39"/>
       <c r="Z377" s="39"/>
@@ -26383,13 +26440,13 @@
       <c r="AD377" s="65"/>
     </row>
     <row r="378" spans="17:30" s="21" customFormat="1">
-      <c r="Q378" s="23"/>
-      <c r="R378" s="23"/>
-      <c r="S378" s="23"/>
-      <c r="T378" s="23"/>
-      <c r="U378" s="23"/>
-      <c r="V378" s="23"/>
-      <c r="W378" s="23"/>
+      <c r="Q378" s="39"/>
+      <c r="R378" s="39"/>
+      <c r="S378" s="39"/>
+      <c r="T378" s="39"/>
+      <c r="U378" s="39"/>
+      <c r="V378" s="39"/>
+      <c r="W378" s="39"/>
       <c r="X378" s="39"/>
       <c r="Y378" s="39"/>
       <c r="Z378" s="39"/>
@@ -26405,7 +26462,7 @@
       <c r="T379" s="23"/>
       <c r="U379" s="23"/>
       <c r="V379" s="23"/>
-      <c r="W379" s="23"/>
+      <c r="W379" s="39"/>
       <c r="X379" s="39"/>
       <c r="Y379" s="39"/>
       <c r="Z379" s="39"/>
@@ -26415,19 +26472,19 @@
       <c r="AD379" s="65"/>
     </row>
     <row r="380" spans="17:30" s="21" customFormat="1">
-      <c r="Q380" s="39"/>
-      <c r="R380" s="39"/>
-      <c r="S380" s="39"/>
-      <c r="T380" s="39"/>
-      <c r="U380" s="39"/>
-      <c r="V380" s="39"/>
-      <c r="W380" s="39"/>
+      <c r="Q380" s="23"/>
+      <c r="R380" s="23"/>
+      <c r="S380" s="23"/>
+      <c r="T380" s="23"/>
+      <c r="U380" s="23"/>
+      <c r="V380" s="23"/>
+      <c r="W380" s="23"/>
       <c r="X380" s="39"/>
       <c r="Y380" s="39"/>
-      <c r="Z380" s="39"/>
-      <c r="AA380" s="39"/>
-      <c r="AB380" s="39"/>
-      <c r="AC380" s="39"/>
+      <c r="Z380" s="23"/>
+      <c r="AA380" s="23"/>
+      <c r="AB380" s="23"/>
+      <c r="AC380" s="23"/>
       <c r="AD380" s="65"/>
     </row>
     <row r="381" spans="17:30" s="21" customFormat="1">
@@ -26437,13 +26494,13 @@
       <c r="T381" s="23"/>
       <c r="U381" s="23"/>
       <c r="V381" s="23"/>
-      <c r="W381" s="39"/>
+      <c r="W381" s="23"/>
       <c r="X381" s="39"/>
       <c r="Y381" s="39"/>
-      <c r="Z381" s="39"/>
-      <c r="AA381" s="39"/>
-      <c r="AB381" s="39"/>
-      <c r="AC381" s="39"/>
+      <c r="Z381" s="23"/>
+      <c r="AA381" s="23"/>
+      <c r="AB381" s="23"/>
+      <c r="AC381" s="23"/>
       <c r="AD381" s="65"/>
     </row>
     <row r="382" spans="17:30" s="21" customFormat="1">
@@ -26453,13 +26510,13 @@
       <c r="T382" s="23"/>
       <c r="U382" s="23"/>
       <c r="V382" s="23"/>
-      <c r="W382" s="23"/>
+      <c r="W382" s="39"/>
       <c r="X382" s="39"/>
       <c r="Y382" s="39"/>
-      <c r="Z382" s="23"/>
-      <c r="AA382" s="23"/>
-      <c r="AB382" s="23"/>
-      <c r="AC382" s="23"/>
+      <c r="Z382" s="39"/>
+      <c r="AA382" s="39"/>
+      <c r="AB382" s="39"/>
+      <c r="AC382" s="39"/>
       <c r="AD382" s="65"/>
     </row>
     <row r="383" spans="17:30" s="21" customFormat="1">
@@ -26472,10 +26529,10 @@
       <c r="W383" s="23"/>
       <c r="X383" s="39"/>
       <c r="Y383" s="39"/>
-      <c r="Z383" s="23"/>
-      <c r="AA383" s="23"/>
-      <c r="AB383" s="23"/>
-      <c r="AC383" s="23"/>
+      <c r="Z383" s="39"/>
+      <c r="AA383" s="39"/>
+      <c r="AB383" s="39"/>
+      <c r="AC383" s="39"/>
       <c r="AD383" s="65"/>
     </row>
     <row r="384" spans="17:30" s="21" customFormat="1">
@@ -26485,7 +26542,7 @@
       <c r="T384" s="23"/>
       <c r="U384" s="23"/>
       <c r="V384" s="23"/>
-      <c r="W384" s="39"/>
+      <c r="W384" s="23"/>
       <c r="X384" s="39"/>
       <c r="Y384" s="39"/>
       <c r="Z384" s="39"/>
@@ -26517,7 +26574,7 @@
       <c r="T386" s="23"/>
       <c r="U386" s="23"/>
       <c r="V386" s="23"/>
-      <c r="W386" s="23"/>
+      <c r="W386" s="39"/>
       <c r="X386" s="39"/>
       <c r="Y386" s="39"/>
       <c r="Z386" s="39"/>
@@ -26549,7 +26606,7 @@
       <c r="T388" s="23"/>
       <c r="U388" s="23"/>
       <c r="V388" s="23"/>
-      <c r="W388" s="39"/>
+      <c r="W388" s="23"/>
       <c r="X388" s="39"/>
       <c r="Y388" s="39"/>
       <c r="Z388" s="39"/>
@@ -26565,7 +26622,7 @@
       <c r="T389" s="23"/>
       <c r="U389" s="23"/>
       <c r="V389" s="23"/>
-      <c r="W389" s="23"/>
+      <c r="W389" s="39"/>
       <c r="X389" s="39"/>
       <c r="Y389" s="39"/>
       <c r="Z389" s="39"/>
@@ -26581,7 +26638,7 @@
       <c r="T390" s="23"/>
       <c r="U390" s="23"/>
       <c r="V390" s="23"/>
-      <c r="W390" s="23"/>
+      <c r="W390" s="39"/>
       <c r="X390" s="39"/>
       <c r="Y390" s="39"/>
       <c r="Z390" s="39"/>
@@ -26613,7 +26670,7 @@
       <c r="T392" s="23"/>
       <c r="U392" s="23"/>
       <c r="V392" s="23"/>
-      <c r="W392" s="39"/>
+      <c r="W392" s="23"/>
       <c r="X392" s="39"/>
       <c r="Y392" s="39"/>
       <c r="Z392" s="39"/>
@@ -26629,7 +26686,7 @@
       <c r="T393" s="23"/>
       <c r="U393" s="23"/>
       <c r="V393" s="23"/>
-      <c r="W393" s="39"/>
+      <c r="W393" s="23"/>
       <c r="X393" s="39"/>
       <c r="Y393" s="39"/>
       <c r="Z393" s="39"/>
@@ -26639,13 +26696,13 @@
       <c r="AD393" s="65"/>
     </row>
     <row r="394" spans="17:30" s="21" customFormat="1">
-      <c r="Q394" s="23"/>
-      <c r="R394" s="23"/>
-      <c r="S394" s="23"/>
-      <c r="T394" s="23"/>
-      <c r="U394" s="23"/>
-      <c r="V394" s="23"/>
-      <c r="W394" s="23"/>
+      <c r="Q394" s="39"/>
+      <c r="R394" s="39"/>
+      <c r="S394" s="39"/>
+      <c r="T394" s="39"/>
+      <c r="U394" s="39"/>
+      <c r="V394" s="39"/>
+      <c r="W394" s="39"/>
       <c r="X394" s="39"/>
       <c r="Y394" s="39"/>
       <c r="Z394" s="39"/>
@@ -26661,7 +26718,7 @@
       <c r="T395" s="23"/>
       <c r="U395" s="23"/>
       <c r="V395" s="23"/>
-      <c r="W395" s="23"/>
+      <c r="W395" s="39"/>
       <c r="X395" s="39"/>
       <c r="Y395" s="39"/>
       <c r="Z395" s="39"/>
@@ -26671,19 +26728,19 @@
       <c r="AD395" s="65"/>
     </row>
     <row r="396" spans="17:30" s="21" customFormat="1">
-      <c r="Q396" s="39"/>
-      <c r="R396" s="39"/>
-      <c r="S396" s="39"/>
-      <c r="T396" s="39"/>
-      <c r="U396" s="39"/>
-      <c r="V396" s="39"/>
-      <c r="W396" s="39"/>
+      <c r="Q396" s="23"/>
+      <c r="R396" s="23"/>
+      <c r="S396" s="23"/>
+      <c r="T396" s="23"/>
+      <c r="U396" s="23"/>
+      <c r="V396" s="23"/>
+      <c r="W396" s="23"/>
       <c r="X396" s="39"/>
       <c r="Y396" s="39"/>
-      <c r="Z396" s="39"/>
-      <c r="AA396" s="39"/>
-      <c r="AB396" s="39"/>
-      <c r="AC396" s="39"/>
+      <c r="Z396" s="23"/>
+      <c r="AA396" s="23"/>
+      <c r="AB396" s="23"/>
+      <c r="AC396" s="23"/>
       <c r="AD396" s="65"/>
     </row>
     <row r="397" spans="17:30" s="21" customFormat="1">
@@ -26693,7 +26750,7 @@
       <c r="T397" s="23"/>
       <c r="U397" s="23"/>
       <c r="V397" s="23"/>
-      <c r="W397" s="39"/>
+      <c r="W397" s="23"/>
       <c r="X397" s="39"/>
       <c r="Y397" s="39"/>
       <c r="Z397" s="39"/>
@@ -26712,10 +26769,10 @@
       <c r="W398" s="23"/>
       <c r="X398" s="39"/>
       <c r="Y398" s="39"/>
-      <c r="Z398" s="23"/>
-      <c r="AA398" s="23"/>
-      <c r="AB398" s="23"/>
-      <c r="AC398" s="23"/>
+      <c r="Z398" s="39"/>
+      <c r="AA398" s="39"/>
+      <c r="AB398" s="39"/>
+      <c r="AC398" s="39"/>
       <c r="AD398" s="65"/>
     </row>
     <row r="399" spans="17:30" s="21" customFormat="1">
@@ -26741,7 +26798,7 @@
       <c r="T400" s="23"/>
       <c r="U400" s="23"/>
       <c r="V400" s="23"/>
-      <c r="W400" s="23"/>
+      <c r="W400" s="39"/>
       <c r="X400" s="39"/>
       <c r="Y400" s="39"/>
       <c r="Z400" s="39"/>
@@ -26757,7 +26814,7 @@
       <c r="T401" s="23"/>
       <c r="U401" s="23"/>
       <c r="V401" s="23"/>
-      <c r="W401" s="23"/>
+      <c r="W401" s="39"/>
       <c r="X401" s="39"/>
       <c r="Y401" s="39"/>
       <c r="Z401" s="39"/>
@@ -26773,13 +26830,13 @@
       <c r="T402" s="23"/>
       <c r="U402" s="23"/>
       <c r="V402" s="23"/>
-      <c r="W402" s="39"/>
+      <c r="W402" s="23"/>
       <c r="X402" s="39"/>
       <c r="Y402" s="39"/>
-      <c r="Z402" s="39"/>
-      <c r="AA402" s="39"/>
-      <c r="AB402" s="39"/>
-      <c r="AC402" s="39"/>
+      <c r="Z402" s="23"/>
+      <c r="AA402" s="23"/>
+      <c r="AB402" s="23"/>
+      <c r="AC402" s="23"/>
       <c r="AD402" s="65"/>
     </row>
     <row r="403" spans="17:30" s="21" customFormat="1">
@@ -26808,10 +26865,10 @@
       <c r="W404" s="23"/>
       <c r="X404" s="39"/>
       <c r="Y404" s="39"/>
-      <c r="Z404" s="23"/>
-      <c r="AA404" s="23"/>
-      <c r="AB404" s="23"/>
-      <c r="AC404" s="23"/>
+      <c r="Z404" s="39"/>
+      <c r="AA404" s="39"/>
+      <c r="AB404" s="39"/>
+      <c r="AC404" s="39"/>
       <c r="AD404" s="65"/>
     </row>
     <row r="405" spans="17:30" s="21" customFormat="1">
@@ -26837,7 +26894,7 @@
       <c r="T406" s="23"/>
       <c r="U406" s="23"/>
       <c r="V406" s="23"/>
-      <c r="W406" s="23"/>
+      <c r="W406" s="39"/>
       <c r="X406" s="39"/>
       <c r="Y406" s="39"/>
       <c r="Z406" s="39"/>
@@ -26869,7 +26926,7 @@
       <c r="T408" s="23"/>
       <c r="U408" s="23"/>
       <c r="V408" s="23"/>
-      <c r="W408" s="39"/>
+      <c r="W408" s="23"/>
       <c r="X408" s="39"/>
       <c r="Y408" s="39"/>
       <c r="Z408" s="39"/>
@@ -26885,7 +26942,7 @@
       <c r="T409" s="23"/>
       <c r="U409" s="23"/>
       <c r="V409" s="23"/>
-      <c r="W409" s="39"/>
+      <c r="W409" s="23"/>
       <c r="X409" s="39"/>
       <c r="Y409" s="39"/>
       <c r="Z409" s="39"/>
@@ -26901,7 +26958,7 @@
       <c r="T410" s="23"/>
       <c r="U410" s="23"/>
       <c r="V410" s="23"/>
-      <c r="W410" s="23"/>
+      <c r="W410" s="39"/>
       <c r="X410" s="39"/>
       <c r="Y410" s="39"/>
       <c r="Z410" s="39"/>
@@ -26917,7 +26974,7 @@
       <c r="T411" s="23"/>
       <c r="U411" s="23"/>
       <c r="V411" s="23"/>
-      <c r="W411" s="23"/>
+      <c r="W411" s="39"/>
       <c r="X411" s="39"/>
       <c r="Y411" s="39"/>
       <c r="Z411" s="39"/>
@@ -26949,7 +27006,7 @@
       <c r="T413" s="23"/>
       <c r="U413" s="23"/>
       <c r="V413" s="23"/>
-      <c r="W413" s="39"/>
+      <c r="W413" s="23"/>
       <c r="X413" s="39"/>
       <c r="Y413" s="39"/>
       <c r="Z413" s="39"/>
@@ -26965,7 +27022,7 @@
       <c r="T414" s="23"/>
       <c r="U414" s="23"/>
       <c r="V414" s="23"/>
-      <c r="W414" s="39"/>
+      <c r="W414" s="23"/>
       <c r="X414" s="39"/>
       <c r="Y414" s="39"/>
       <c r="Z414" s="39"/>
@@ -26975,13 +27032,13 @@
       <c r="AD414" s="65"/>
     </row>
     <row r="415" spans="17:30" s="21" customFormat="1">
-      <c r="Q415" s="23"/>
-      <c r="R415" s="23"/>
-      <c r="S415" s="23"/>
-      <c r="T415" s="23"/>
-      <c r="U415" s="23"/>
-      <c r="V415" s="23"/>
-      <c r="W415" s="23"/>
+      <c r="Q415" s="39"/>
+      <c r="R415" s="39"/>
+      <c r="S415" s="39"/>
+      <c r="T415" s="39"/>
+      <c r="U415" s="39"/>
+      <c r="V415" s="39"/>
+      <c r="W415" s="39"/>
       <c r="X415" s="39"/>
       <c r="Y415" s="39"/>
       <c r="Z415" s="39"/>
@@ -26997,7 +27054,7 @@
       <c r="T416" s="23"/>
       <c r="U416" s="23"/>
       <c r="V416" s="23"/>
-      <c r="W416" s="23"/>
+      <c r="W416" s="39"/>
       <c r="X416" s="39"/>
       <c r="Y416" s="39"/>
       <c r="Z416" s="39"/>
@@ -27007,19 +27064,19 @@
       <c r="AD416" s="65"/>
     </row>
     <row r="417" spans="17:30" s="21" customFormat="1">
-      <c r="Q417" s="39"/>
-      <c r="R417" s="39"/>
-      <c r="S417" s="39"/>
-      <c r="T417" s="39"/>
-      <c r="U417" s="39"/>
-      <c r="V417" s="39"/>
-      <c r="W417" s="39"/>
+      <c r="Q417" s="23"/>
+      <c r="R417" s="23"/>
+      <c r="S417" s="23"/>
+      <c r="T417" s="23"/>
+      <c r="U417" s="23"/>
+      <c r="V417" s="23"/>
+      <c r="W417" s="23"/>
       <c r="X417" s="39"/>
       <c r="Y417" s="39"/>
-      <c r="Z417" s="39"/>
-      <c r="AA417" s="39"/>
-      <c r="AB417" s="39"/>
-      <c r="AC417" s="39"/>
+      <c r="Z417" s="23"/>
+      <c r="AA417" s="23"/>
+      <c r="AB417" s="23"/>
+      <c r="AC417" s="23"/>
       <c r="AD417" s="65"/>
     </row>
     <row r="418" spans="17:30" s="21" customFormat="1">
@@ -27045,13 +27102,13 @@
       <c r="T419" s="23"/>
       <c r="U419" s="23"/>
       <c r="V419" s="23"/>
-      <c r="W419" s="23"/>
+      <c r="W419" s="39"/>
       <c r="X419" s="39"/>
       <c r="Y419" s="39"/>
-      <c r="Z419" s="23"/>
-      <c r="AA419" s="23"/>
-      <c r="AB419" s="23"/>
-      <c r="AC419" s="23"/>
+      <c r="Z419" s="39"/>
+      <c r="AA419" s="39"/>
+      <c r="AB419" s="39"/>
+      <c r="AC419" s="39"/>
       <c r="AD419" s="65"/>
     </row>
     <row r="420" spans="17:30" s="21" customFormat="1">
@@ -27071,12 +27128,12 @@
       <c r="AD420" s="65"/>
     </row>
     <row r="421" spans="17:30" s="21" customFormat="1">
-      <c r="Q421" s="23"/>
-      <c r="R421" s="23"/>
-      <c r="S421" s="23"/>
-      <c r="T421" s="23"/>
-      <c r="U421" s="23"/>
-      <c r="V421" s="23"/>
+      <c r="Q421" s="39"/>
+      <c r="R421" s="39"/>
+      <c r="S421" s="39"/>
+      <c r="T421" s="39"/>
+      <c r="U421" s="39"/>
+      <c r="V421" s="39"/>
       <c r="W421" s="39"/>
       <c r="X421" s="39"/>
       <c r="Y421" s="39"/>
@@ -27093,7 +27150,7 @@
       <c r="T422" s="23"/>
       <c r="U422" s="23"/>
       <c r="V422" s="23"/>
-      <c r="W422" s="39"/>
+      <c r="W422" s="23"/>
       <c r="X422" s="39"/>
       <c r="Y422" s="39"/>
       <c r="Z422" s="39"/>
@@ -27157,7 +27214,7 @@
       <c r="T426" s="23"/>
       <c r="U426" s="23"/>
       <c r="V426" s="23"/>
-      <c r="W426" s="23"/>
+      <c r="W426" s="39"/>
       <c r="X426" s="39"/>
       <c r="Y426" s="39"/>
       <c r="Z426" s="39"/>
@@ -27167,19 +27224,19 @@
       <c r="AD426" s="65"/>
     </row>
     <row r="427" spans="17:30" s="21" customFormat="1">
-      <c r="Q427" s="39"/>
-      <c r="R427" s="39"/>
-      <c r="S427" s="39"/>
-      <c r="T427" s="39"/>
-      <c r="U427" s="39"/>
-      <c r="V427" s="39"/>
-      <c r="W427" s="39"/>
+      <c r="Q427" s="23"/>
+      <c r="R427" s="23"/>
+      <c r="S427" s="23"/>
+      <c r="T427" s="23"/>
+      <c r="U427" s="23"/>
+      <c r="V427" s="23"/>
+      <c r="W427" s="23"/>
       <c r="X427" s="39"/>
       <c r="Y427" s="39"/>
-      <c r="Z427" s="39"/>
-      <c r="AA427" s="39"/>
-      <c r="AB427" s="39"/>
-      <c r="AC427" s="39"/>
+      <c r="Z427" s="23"/>
+      <c r="AA427" s="23"/>
+      <c r="AB427" s="23"/>
+      <c r="AC427" s="23"/>
       <c r="AD427" s="65"/>
     </row>
     <row r="428" spans="17:30" s="21" customFormat="1">
@@ -27205,13 +27262,13 @@
       <c r="T429" s="23"/>
       <c r="U429" s="23"/>
       <c r="V429" s="23"/>
-      <c r="W429" s="23"/>
+      <c r="W429" s="39"/>
       <c r="X429" s="39"/>
       <c r="Y429" s="39"/>
-      <c r="Z429" s="23"/>
-      <c r="AA429" s="23"/>
-      <c r="AB429" s="23"/>
-      <c r="AC429" s="23"/>
+      <c r="Z429" s="39"/>
+      <c r="AA429" s="39"/>
+      <c r="AB429" s="39"/>
+      <c r="AC429" s="39"/>
       <c r="AD429" s="65"/>
     </row>
     <row r="430" spans="17:30" s="21" customFormat="1">
@@ -27237,7 +27294,7 @@
       <c r="T431" s="23"/>
       <c r="U431" s="23"/>
       <c r="V431" s="23"/>
-      <c r="W431" s="39"/>
+      <c r="W431" s="23"/>
       <c r="X431" s="39"/>
       <c r="Y431" s="39"/>
       <c r="Z431" s="39"/>
@@ -27247,12 +27304,12 @@
       <c r="AD431" s="65"/>
     </row>
     <row r="432" spans="17:30" s="21" customFormat="1">
-      <c r="Q432" s="23"/>
-      <c r="R432" s="23"/>
-      <c r="S432" s="23"/>
-      <c r="T432" s="23"/>
-      <c r="U432" s="23"/>
-      <c r="V432" s="23"/>
+      <c r="Q432" s="39"/>
+      <c r="R432" s="39"/>
+      <c r="S432" s="39"/>
+      <c r="T432" s="39"/>
+      <c r="U432" s="39"/>
+      <c r="V432" s="39"/>
       <c r="W432" s="39"/>
       <c r="X432" s="39"/>
       <c r="Y432" s="39"/>
@@ -27272,19 +27329,19 @@
       <c r="W433" s="23"/>
       <c r="X433" s="39"/>
       <c r="Y433" s="39"/>
-      <c r="Z433" s="39"/>
-      <c r="AA433" s="39"/>
-      <c r="AB433" s="39"/>
-      <c r="AC433" s="39"/>
+      <c r="Z433" s="23"/>
+      <c r="AA433" s="23"/>
+      <c r="AB433" s="23"/>
+      <c r="AC433" s="23"/>
       <c r="AD433" s="65"/>
     </row>
     <row r="434" spans="17:30" s="21" customFormat="1">
-      <c r="Q434" s="39"/>
-      <c r="R434" s="39"/>
-      <c r="S434" s="39"/>
-      <c r="T434" s="39"/>
-      <c r="U434" s="39"/>
-      <c r="V434" s="39"/>
+      <c r="Q434" s="23"/>
+      <c r="R434" s="23"/>
+      <c r="S434" s="23"/>
+      <c r="T434" s="23"/>
+      <c r="U434" s="23"/>
+      <c r="V434" s="23"/>
       <c r="W434" s="39"/>
       <c r="X434" s="39"/>
       <c r="Y434" s="39"/>
@@ -27301,13 +27358,13 @@
       <c r="T435" s="23"/>
       <c r="U435" s="23"/>
       <c r="V435" s="23"/>
-      <c r="W435" s="23"/>
+      <c r="W435" s="39"/>
       <c r="X435" s="39"/>
       <c r="Y435" s="39"/>
-      <c r="Z435" s="23"/>
-      <c r="AA435" s="23"/>
-      <c r="AB435" s="23"/>
-      <c r="AC435" s="23"/>
+      <c r="Z435" s="39"/>
+      <c r="AA435" s="39"/>
+      <c r="AB435" s="39"/>
+      <c r="AC435" s="39"/>
       <c r="AD435" s="65"/>
     </row>
     <row r="436" spans="17:30" s="21" customFormat="1">
@@ -27317,13 +27374,13 @@
       <c r="T436" s="23"/>
       <c r="U436" s="23"/>
       <c r="V436" s="23"/>
-      <c r="W436" s="39"/>
+      <c r="W436" s="23"/>
       <c r="X436" s="39"/>
       <c r="Y436" s="39"/>
-      <c r="Z436" s="39"/>
-      <c r="AA436" s="39"/>
-      <c r="AB436" s="39"/>
-      <c r="AC436" s="39"/>
+      <c r="Z436" s="23"/>
+      <c r="AA436" s="23"/>
+      <c r="AB436" s="23"/>
+      <c r="AC436" s="23"/>
       <c r="AD436" s="65"/>
     </row>
     <row r="437" spans="17:30" s="21" customFormat="1">
@@ -27352,10 +27409,10 @@
       <c r="W438" s="23"/>
       <c r="X438" s="39"/>
       <c r="Y438" s="39"/>
-      <c r="Z438" s="23"/>
-      <c r="AA438" s="23"/>
-      <c r="AB438" s="23"/>
-      <c r="AC438" s="23"/>
+      <c r="Z438" s="39"/>
+      <c r="AA438" s="39"/>
+      <c r="AB438" s="39"/>
+      <c r="AC438" s="39"/>
       <c r="AD438" s="65"/>
     </row>
     <row r="439" spans="17:30" s="21" customFormat="1">
@@ -27413,7 +27470,7 @@
       <c r="T442" s="23"/>
       <c r="U442" s="23"/>
       <c r="V442" s="23"/>
-      <c r="W442" s="23"/>
+      <c r="W442" s="39"/>
       <c r="X442" s="39"/>
       <c r="Y442" s="39"/>
       <c r="Z442" s="39"/>
@@ -27445,7 +27502,7 @@
       <c r="T444" s="23"/>
       <c r="U444" s="23"/>
       <c r="V444" s="23"/>
-      <c r="W444" s="39"/>
+      <c r="W444" s="23"/>
       <c r="X444" s="39"/>
       <c r="Y444" s="39"/>
       <c r="Z444" s="39"/>
@@ -27455,12 +27512,12 @@
       <c r="AD444" s="65"/>
     </row>
     <row r="445" spans="17:30" s="21" customFormat="1">
-      <c r="Q445" s="23"/>
-      <c r="R445" s="23"/>
-      <c r="S445" s="23"/>
-      <c r="T445" s="23"/>
-      <c r="U445" s="23"/>
-      <c r="V445" s="23"/>
+      <c r="Q445" s="39"/>
+      <c r="R445" s="39"/>
+      <c r="S445" s="39"/>
+      <c r="T445" s="39"/>
+      <c r="U445" s="39"/>
+      <c r="V445" s="39"/>
       <c r="W445" s="39"/>
       <c r="X445" s="39"/>
       <c r="Y445" s="39"/>
@@ -27477,7 +27534,7 @@
       <c r="T446" s="23"/>
       <c r="U446" s="23"/>
       <c r="V446" s="23"/>
-      <c r="W446" s="23"/>
+      <c r="W446" s="39"/>
       <c r="X446" s="39"/>
       <c r="Y446" s="39"/>
       <c r="Z446" s="39"/>
@@ -27487,19 +27544,19 @@
       <c r="AD446" s="65"/>
     </row>
     <row r="447" spans="17:30" s="21" customFormat="1">
-      <c r="Q447" s="39"/>
-      <c r="R447" s="39"/>
-      <c r="S447" s="39"/>
-      <c r="T447" s="39"/>
-      <c r="U447" s="39"/>
-      <c r="V447" s="39"/>
-      <c r="W447" s="39"/>
+      <c r="Q447" s="23"/>
+      <c r="R447" s="23"/>
+      <c r="S447" s="23"/>
+      <c r="T447" s="23"/>
+      <c r="U447" s="23"/>
+      <c r="V447" s="23"/>
+      <c r="W447" s="23"/>
       <c r="X447" s="39"/>
       <c r="Y447" s="39"/>
-      <c r="Z447" s="39"/>
-      <c r="AA447" s="39"/>
-      <c r="AB447" s="39"/>
-      <c r="AC447" s="39"/>
+      <c r="Z447" s="23"/>
+      <c r="AA447" s="23"/>
+      <c r="AB447" s="23"/>
+      <c r="AC447" s="23"/>
       <c r="AD447" s="65"/>
     </row>
     <row r="448" spans="17:30" s="21" customFormat="1">
@@ -27560,10 +27617,10 @@
       <c r="W451" s="23"/>
       <c r="X451" s="39"/>
       <c r="Y451" s="39"/>
-      <c r="Z451" s="23"/>
-      <c r="AA451" s="23"/>
-      <c r="AB451" s="23"/>
-      <c r="AC451" s="23"/>
+      <c r="Z451" s="39"/>
+      <c r="AA451" s="39"/>
+      <c r="AB451" s="39"/>
+      <c r="AC451" s="39"/>
       <c r="AD451" s="65"/>
     </row>
     <row r="452" spans="17:30" s="21" customFormat="1">
@@ -27599,12 +27656,12 @@
       <c r="AD453" s="65"/>
     </row>
     <row r="454" spans="17:30" s="21" customFormat="1">
-      <c r="Q454" s="23"/>
-      <c r="R454" s="23"/>
-      <c r="S454" s="23"/>
-      <c r="T454" s="23"/>
-      <c r="U454" s="23"/>
-      <c r="V454" s="23"/>
+      <c r="Q454" s="39"/>
+      <c r="R454" s="39"/>
+      <c r="S454" s="39"/>
+      <c r="T454" s="39"/>
+      <c r="U454" s="39"/>
+      <c r="V454" s="39"/>
       <c r="W454" s="39"/>
       <c r="X454" s="39"/>
       <c r="Y454" s="39"/>
@@ -27631,12 +27688,12 @@
       <c r="AD455" s="65"/>
     </row>
     <row r="456" spans="17:30" s="21" customFormat="1">
-      <c r="Q456" s="39"/>
-      <c r="R456" s="39"/>
-      <c r="S456" s="39"/>
-      <c r="T456" s="39"/>
-      <c r="U456" s="39"/>
-      <c r="V456" s="39"/>
+      <c r="Q456" s="23"/>
+      <c r="R456" s="23"/>
+      <c r="S456" s="23"/>
+      <c r="T456" s="23"/>
+      <c r="U456" s="23"/>
+      <c r="V456" s="23"/>
       <c r="W456" s="39"/>
       <c r="X456" s="39"/>
       <c r="Y456" s="39"/>
@@ -27653,7 +27710,7 @@
       <c r="T457" s="23"/>
       <c r="U457" s="23"/>
       <c r="V457" s="23"/>
-      <c r="W457" s="23"/>
+      <c r="W457" s="39"/>
       <c r="X457" s="39"/>
       <c r="Y457" s="39"/>
       <c r="Z457" s="39"/>
@@ -27701,7 +27758,7 @@
       <c r="T460" s="23"/>
       <c r="U460" s="23"/>
       <c r="V460" s="23"/>
-      <c r="W460" s="39"/>
+      <c r="W460" s="23"/>
       <c r="X460" s="39"/>
       <c r="Y460" s="39"/>
       <c r="Z460" s="39"/>
@@ -27711,12 +27768,12 @@
       <c r="AD460" s="65"/>
     </row>
     <row r="461" spans="17:30" s="21" customFormat="1">
-      <c r="Q461" s="23"/>
-      <c r="R461" s="23"/>
-      <c r="S461" s="23"/>
-      <c r="T461" s="23"/>
-      <c r="U461" s="23"/>
-      <c r="V461" s="23"/>
+      <c r="Q461" s="39"/>
+      <c r="R461" s="39"/>
+      <c r="S461" s="39"/>
+      <c r="T461" s="39"/>
+      <c r="U461" s="39"/>
+      <c r="V461" s="39"/>
       <c r="W461" s="39"/>
       <c r="X461" s="39"/>
       <c r="Y461" s="39"/>
@@ -27733,7 +27790,7 @@
       <c r="T462" s="23"/>
       <c r="U462" s="23"/>
       <c r="V462" s="23"/>
-      <c r="W462" s="23"/>
+      <c r="W462" s="39"/>
       <c r="X462" s="39"/>
       <c r="Y462" s="39"/>
       <c r="Z462" s="39"/>
@@ -27743,19 +27800,19 @@
       <c r="AD462" s="65"/>
     </row>
     <row r="463" spans="17:30" s="21" customFormat="1">
-      <c r="Q463" s="39"/>
-      <c r="R463" s="39"/>
-      <c r="S463" s="39"/>
-      <c r="T463" s="39"/>
-      <c r="U463" s="39"/>
-      <c r="V463" s="39"/>
-      <c r="W463" s="39"/>
+      <c r="Q463" s="23"/>
+      <c r="R463" s="23"/>
+      <c r="S463" s="23"/>
+      <c r="T463" s="23"/>
+      <c r="U463" s="23"/>
+      <c r="V463" s="23"/>
+      <c r="W463" s="23"/>
       <c r="X463" s="39"/>
       <c r="Y463" s="39"/>
-      <c r="Z463" s="39"/>
-      <c r="AA463" s="39"/>
-      <c r="AB463" s="39"/>
-      <c r="AC463" s="39"/>
+      <c r="Z463" s="23"/>
+      <c r="AA463" s="23"/>
+      <c r="AB463" s="23"/>
+      <c r="AC463" s="23"/>
       <c r="AD463" s="65"/>
     </row>
     <row r="464" spans="17:30" s="21" customFormat="1">
@@ -27816,10 +27873,10 @@
       <c r="W467" s="23"/>
       <c r="X467" s="39"/>
       <c r="Y467" s="39"/>
-      <c r="Z467" s="23"/>
-      <c r="AA467" s="23"/>
-      <c r="AB467" s="23"/>
-      <c r="AC467" s="23"/>
+      <c r="Z467" s="39"/>
+      <c r="AA467" s="39"/>
+      <c r="AB467" s="39"/>
+      <c r="AC467" s="39"/>
       <c r="AD467" s="65"/>
     </row>
     <row r="468" spans="17:32" s="21" customFormat="1">
@@ -27848,10 +27905,10 @@
       <c r="W469" s="23"/>
       <c r="X469" s="39"/>
       <c r="Y469" s="39"/>
-      <c r="Z469" s="39"/>
-      <c r="AA469" s="39"/>
-      <c r="AB469" s="39"/>
-      <c r="AC469" s="39"/>
+      <c r="Z469" s="23"/>
+      <c r="AA469" s="23"/>
+      <c r="AB469" s="23"/>
+      <c r="AC469" s="23"/>
       <c r="AD469" s="65"/>
     </row>
     <row r="470" spans="17:32" s="21" customFormat="1">
@@ -27909,13 +27966,13 @@
       <c r="T473" s="23"/>
       <c r="U473" s="23"/>
       <c r="V473" s="23"/>
-      <c r="W473" s="23"/>
+      <c r="W473" s="39"/>
       <c r="X473" s="39"/>
       <c r="Y473" s="39"/>
-      <c r="Z473" s="23"/>
-      <c r="AA473" s="23"/>
-      <c r="AB473" s="23"/>
-      <c r="AC473" s="23"/>
+      <c r="Z473" s="39"/>
+      <c r="AA473" s="39"/>
+      <c r="AB473" s="39"/>
+      <c r="AC473" s="39"/>
       <c r="AD473" s="65"/>
     </row>
     <row r="474" spans="17:32" s="21" customFormat="1">
@@ -27925,7 +27982,7 @@
       <c r="T474" s="23"/>
       <c r="U474" s="23"/>
       <c r="V474" s="23"/>
-      <c r="W474" s="39"/>
+      <c r="W474" s="23"/>
       <c r="X474" s="39"/>
       <c r="Y474" s="39"/>
       <c r="Z474" s="39"/>
@@ -27957,7 +28014,7 @@
       <c r="T476" s="23"/>
       <c r="U476" s="23"/>
       <c r="V476" s="23"/>
-      <c r="W476" s="23"/>
+      <c r="W476" s="39"/>
       <c r="X476" s="39"/>
       <c r="Y476" s="39"/>
       <c r="Z476" s="39"/>
@@ -27973,13 +28030,13 @@
       <c r="T477" s="23"/>
       <c r="U477" s="23"/>
       <c r="V477" s="23"/>
-      <c r="W477" s="39"/>
+      <c r="W477" s="23"/>
       <c r="X477" s="39"/>
       <c r="Y477" s="39"/>
-      <c r="Z477" s="39"/>
-      <c r="AA477" s="39"/>
-      <c r="AB477" s="39"/>
-      <c r="AC477" s="39"/>
+      <c r="Z477" s="23"/>
+      <c r="AA477" s="23"/>
+      <c r="AB477" s="23"/>
+      <c r="AC477" s="23"/>
       <c r="AD477" s="65"/>
     </row>
     <row r="478" spans="17:32" s="21" customFormat="1">
@@ -27989,29 +28046,30 @@
       <c r="T478" s="23"/>
       <c r="U478" s="23"/>
       <c r="V478" s="23"/>
-      <c r="W478" s="39"/>
+      <c r="W478" s="23"/>
       <c r="X478" s="39"/>
-      <c r="Y478" s="39"/>
-      <c r="Z478" s="39"/>
-      <c r="AA478" s="39"/>
-      <c r="AB478" s="39"/>
-      <c r="AC478" s="39"/>
+      <c r="Y478" s="23"/>
+      <c r="Z478" s="23"/>
+      <c r="AA478" s="23"/>
+      <c r="AB478" s="23"/>
+      <c r="AC478" s="23"/>
       <c r="AD478" s="65"/>
+      <c r="AF478" s="22"/>
     </row>
     <row r="479" spans="17:32" s="21" customFormat="1">
-      <c r="Q479" s="23"/>
-      <c r="R479" s="23"/>
-      <c r="S479" s="23"/>
-      <c r="T479" s="23"/>
-      <c r="U479" s="23"/>
-      <c r="V479" s="23"/>
-      <c r="W479" s="23"/>
+      <c r="Q479" s="39"/>
+      <c r="R479" s="39"/>
+      <c r="S479" s="39"/>
+      <c r="T479" s="39"/>
+      <c r="U479" s="39"/>
+      <c r="V479" s="39"/>
+      <c r="W479" s="39"/>
       <c r="X479" s="39"/>
       <c r="Y479" s="39"/>
-      <c r="Z479" s="23"/>
-      <c r="AA479" s="23"/>
-      <c r="AB479" s="23"/>
-      <c r="AC479" s="23"/>
+      <c r="Z479" s="39"/>
+      <c r="AA479" s="39"/>
+      <c r="AB479" s="39"/>
+      <c r="AC479" s="39"/>
       <c r="AD479" s="65"/>
     </row>
     <row r="480" spans="17:32" s="21" customFormat="1">
@@ -28032,20 +28090,21 @@
       <c r="AF480" s="22"/>
     </row>
     <row r="481" spans="17:32" s="21" customFormat="1">
-      <c r="Q481" s="39"/>
-      <c r="R481" s="39"/>
-      <c r="S481" s="39"/>
-      <c r="T481" s="39"/>
-      <c r="U481" s="39"/>
-      <c r="V481" s="39"/>
-      <c r="W481" s="39"/>
+      <c r="Q481" s="23"/>
+      <c r="R481" s="23"/>
+      <c r="S481" s="23"/>
+      <c r="T481" s="23"/>
+      <c r="U481" s="23"/>
+      <c r="V481" s="23"/>
+      <c r="W481" s="23"/>
       <c r="X481" s="39"/>
-      <c r="Y481" s="39"/>
-      <c r="Z481" s="39"/>
-      <c r="AA481" s="39"/>
-      <c r="AB481" s="39"/>
-      <c r="AC481" s="39"/>
+      <c r="Y481" s="23"/>
+      <c r="Z481" s="23"/>
+      <c r="AA481" s="23"/>
+      <c r="AB481" s="23"/>
+      <c r="AC481" s="23"/>
       <c r="AD481" s="65"/>
+      <c r="AF481" s="22"/>
     </row>
     <row r="482" spans="17:32" s="21" customFormat="1">
       <c r="Q482" s="23"/>
@@ -28054,15 +28113,14 @@
       <c r="T482" s="23"/>
       <c r="U482" s="23"/>
       <c r="V482" s="23"/>
-      <c r="W482" s="23"/>
+      <c r="W482" s="39"/>
       <c r="X482" s="39"/>
-      <c r="Y482" s="23"/>
-      <c r="Z482" s="23"/>
-      <c r="AA482" s="23"/>
-      <c r="AB482" s="23"/>
-      <c r="AC482" s="23"/>
+      <c r="Y482" s="39"/>
+      <c r="Z482" s="39"/>
+      <c r="AA482" s="39"/>
+      <c r="AB482" s="39"/>
+      <c r="AC482" s="39"/>
       <c r="AD482" s="65"/>
-      <c r="AF482" s="22"/>
     </row>
     <row r="483" spans="17:32" s="21" customFormat="1">
       <c r="Q483" s="23"/>
@@ -28073,21 +28131,20 @@
       <c r="V483" s="23"/>
       <c r="W483" s="23"/>
       <c r="X483" s="39"/>
-      <c r="Y483" s="23"/>
-      <c r="Z483" s="23"/>
-      <c r="AA483" s="23"/>
-      <c r="AB483" s="23"/>
-      <c r="AC483" s="23"/>
+      <c r="Y483" s="39"/>
+      <c r="Z483" s="39"/>
+      <c r="AA483" s="39"/>
+      <c r="AB483" s="39"/>
+      <c r="AC483" s="39"/>
       <c r="AD483" s="65"/>
-      <c r="AF483" s="22"/>
     </row>
     <row r="484" spans="17:32" s="21" customFormat="1">
-      <c r="Q484" s="23"/>
-      <c r="R484" s="23"/>
-      <c r="S484" s="23"/>
-      <c r="T484" s="23"/>
-      <c r="U484" s="23"/>
-      <c r="V484" s="23"/>
+      <c r="Q484" s="39"/>
+      <c r="R484" s="39"/>
+      <c r="S484" s="39"/>
+      <c r="T484" s="39"/>
+      <c r="U484" s="39"/>
+      <c r="V484" s="39"/>
       <c r="W484" s="39"/>
       <c r="X484" s="39"/>
       <c r="Y484" s="39"/>
@@ -28104,7 +28161,7 @@
       <c r="T485" s="23"/>
       <c r="U485" s="23"/>
       <c r="V485" s="23"/>
-      <c r="W485" s="23"/>
+      <c r="W485" s="39"/>
       <c r="X485" s="39"/>
       <c r="Y485" s="39"/>
       <c r="Z485" s="39"/>
@@ -28114,28 +28171,29 @@
       <c r="AD485" s="65"/>
     </row>
     <row r="486" spans="17:32" s="21" customFormat="1">
-      <c r="Q486" s="39"/>
-      <c r="R486" s="39"/>
-      <c r="S486" s="39"/>
-      <c r="T486" s="39"/>
-      <c r="U486" s="39"/>
-      <c r="V486" s="39"/>
-      <c r="W486" s="39"/>
+      <c r="Q486" s="23"/>
+      <c r="R486" s="23"/>
+      <c r="S486" s="23"/>
+      <c r="T486" s="23"/>
+      <c r="U486" s="23"/>
+      <c r="V486" s="23"/>
+      <c r="W486" s="23"/>
       <c r="X486" s="39"/>
-      <c r="Y486" s="39"/>
-      <c r="Z486" s="39"/>
-      <c r="AA486" s="39"/>
-      <c r="AB486" s="39"/>
-      <c r="AC486" s="39"/>
+      <c r="Y486" s="23"/>
+      <c r="Z486" s="23"/>
+      <c r="AA486" s="23"/>
+      <c r="AB486" s="23"/>
+      <c r="AC486" s="23"/>
       <c r="AD486" s="65"/>
+      <c r="AF486" s="22"/>
     </row>
     <row r="487" spans="17:32" s="21" customFormat="1">
-      <c r="Q487" s="23"/>
-      <c r="R487" s="23"/>
-      <c r="S487" s="23"/>
-      <c r="T487" s="23"/>
-      <c r="U487" s="23"/>
-      <c r="V487" s="23"/>
+      <c r="Q487" s="39"/>
+      <c r="R487" s="39"/>
+      <c r="S487" s="39"/>
+      <c r="T487" s="39"/>
+      <c r="U487" s="39"/>
+      <c r="V487" s="39"/>
       <c r="W487" s="39"/>
       <c r="X487" s="39"/>
       <c r="Y487" s="39"/>
@@ -28154,29 +28212,29 @@
       <c r="V488" s="23"/>
       <c r="W488" s="23"/>
       <c r="X488" s="39"/>
-      <c r="Y488" s="23"/>
+      <c r="Y488" s="39"/>
       <c r="Z488" s="23"/>
       <c r="AA488" s="23"/>
       <c r="AB488" s="23"/>
       <c r="AC488" s="23"/>
       <c r="AD488" s="65"/>
-      <c r="AF488" s="22"/>
     </row>
     <row r="489" spans="17:32" s="21" customFormat="1">
-      <c r="Q489" s="39"/>
-      <c r="R489" s="39"/>
-      <c r="S489" s="39"/>
-      <c r="T489" s="39"/>
-      <c r="U489" s="39"/>
-      <c r="V489" s="39"/>
-      <c r="W489" s="39"/>
+      <c r="Q489" s="23"/>
+      <c r="R489" s="23"/>
+      <c r="S489" s="23"/>
+      <c r="T489" s="23"/>
+      <c r="U489" s="23"/>
+      <c r="V489" s="23"/>
+      <c r="W489" s="23"/>
       <c r="X489" s="39"/>
-      <c r="Y489" s="39"/>
-      <c r="Z489" s="39"/>
-      <c r="AA489" s="39"/>
-      <c r="AB489" s="39"/>
-      <c r="AC489" s="39"/>
+      <c r="Y489" s="23"/>
+      <c r="Z489" s="23"/>
+      <c r="AA489" s="23"/>
+      <c r="AB489" s="23"/>
+      <c r="AC489" s="23"/>
       <c r="AD489" s="65"/>
+      <c r="AF489" s="22"/>
     </row>
     <row r="490" spans="17:32" s="21" customFormat="1">
       <c r="Q490" s="23"/>
@@ -28185,39 +28243,38 @@
       <c r="T490" s="23"/>
       <c r="U490" s="23"/>
       <c r="V490" s="23"/>
-      <c r="W490" s="23"/>
+      <c r="W490" s="39"/>
       <c r="X490" s="39"/>
       <c r="Y490" s="39"/>
-      <c r="Z490" s="23"/>
-      <c r="AA490" s="23"/>
-      <c r="AB490" s="23"/>
-      <c r="AC490" s="23"/>
+      <c r="Z490" s="39"/>
+      <c r="AA490" s="39"/>
+      <c r="AB490" s="39"/>
+      <c r="AC490" s="39"/>
       <c r="AD490" s="65"/>
     </row>
     <row r="491" spans="17:32" s="21" customFormat="1">
-      <c r="Q491" s="23"/>
-      <c r="R491" s="23"/>
-      <c r="S491" s="23"/>
-      <c r="T491" s="23"/>
-      <c r="U491" s="23"/>
-      <c r="V491" s="23"/>
-      <c r="W491" s="23"/>
+      <c r="Q491" s="39"/>
+      <c r="R491" s="39"/>
+      <c r="S491" s="39"/>
+      <c r="T491" s="39"/>
+      <c r="U491" s="39"/>
+      <c r="V491" s="39"/>
+      <c r="W491" s="39"/>
       <c r="X491" s="39"/>
-      <c r="Y491" s="23"/>
-      <c r="Z491" s="23"/>
-      <c r="AA491" s="23"/>
-      <c r="AB491" s="23"/>
-      <c r="AC491" s="23"/>
+      <c r="Y491" s="39"/>
+      <c r="Z491" s="39"/>
+      <c r="AA491" s="39"/>
+      <c r="AB491" s="39"/>
+      <c r="AC491" s="39"/>
       <c r="AD491" s="65"/>
-      <c r="AF491" s="22"/>
     </row>
     <row r="492" spans="17:32" s="21" customFormat="1">
-      <c r="Q492" s="23"/>
-      <c r="R492" s="23"/>
-      <c r="S492" s="23"/>
-      <c r="T492" s="23"/>
-      <c r="U492" s="23"/>
-      <c r="V492" s="23"/>
+      <c r="Q492" s="39"/>
+      <c r="R492" s="39"/>
+      <c r="S492" s="39"/>
+      <c r="T492" s="39"/>
+      <c r="U492" s="39"/>
+      <c r="V492" s="39"/>
       <c r="W492" s="39"/>
       <c r="X492" s="39"/>
       <c r="Y492" s="39"/>
@@ -28228,12 +28285,12 @@
       <c r="AD492" s="65"/>
     </row>
     <row r="493" spans="17:32" s="21" customFormat="1">
-      <c r="Q493" s="39"/>
-      <c r="R493" s="39"/>
-      <c r="S493" s="39"/>
-      <c r="T493" s="39"/>
-      <c r="U493" s="39"/>
-      <c r="V493" s="39"/>
+      <c r="Q493" s="23"/>
+      <c r="R493" s="23"/>
+      <c r="S493" s="23"/>
+      <c r="T493" s="23"/>
+      <c r="U493" s="23"/>
+      <c r="V493" s="23"/>
       <c r="W493" s="39"/>
       <c r="X493" s="39"/>
       <c r="Y493" s="39"/>
@@ -28244,12 +28301,12 @@
       <c r="AD493" s="65"/>
     </row>
     <row r="494" spans="17:32" s="21" customFormat="1">
-      <c r="Q494" s="39"/>
-      <c r="R494" s="39"/>
-      <c r="S494" s="39"/>
-      <c r="T494" s="39"/>
-      <c r="U494" s="39"/>
-      <c r="V494" s="39"/>
+      <c r="Q494" s="23"/>
+      <c r="R494" s="23"/>
+      <c r="S494" s="23"/>
+      <c r="T494" s="23"/>
+      <c r="U494" s="23"/>
+      <c r="V494" s="23"/>
       <c r="W494" s="39"/>
       <c r="X494" s="39"/>
       <c r="Y494" s="39"/>
@@ -28266,13 +28323,13 @@
       <c r="T495" s="23"/>
       <c r="U495" s="23"/>
       <c r="V495" s="23"/>
-      <c r="W495" s="39"/>
+      <c r="W495" s="23"/>
       <c r="X495" s="39"/>
       <c r="Y495" s="39"/>
-      <c r="Z495" s="39"/>
-      <c r="AA495" s="39"/>
-      <c r="AB495" s="39"/>
-      <c r="AC495" s="39"/>
+      <c r="Z495" s="23"/>
+      <c r="AA495" s="23"/>
+      <c r="AB495" s="23"/>
+      <c r="AC495" s="23"/>
       <c r="AD495" s="65"/>
     </row>
     <row r="496" spans="17:32" s="21" customFormat="1">
@@ -28282,29 +28339,30 @@
       <c r="T496" s="23"/>
       <c r="U496" s="23"/>
       <c r="V496" s="23"/>
-      <c r="W496" s="39"/>
+      <c r="W496" s="23"/>
       <c r="X496" s="39"/>
-      <c r="Y496" s="39"/>
-      <c r="Z496" s="39"/>
-      <c r="AA496" s="39"/>
-      <c r="AB496" s="39"/>
-      <c r="AC496" s="39"/>
+      <c r="Y496" s="23"/>
+      <c r="Z496" s="23"/>
+      <c r="AA496" s="23"/>
+      <c r="AB496" s="23"/>
+      <c r="AC496" s="23"/>
       <c r="AD496" s="65"/>
+      <c r="AF496" s="22"/>
     </row>
     <row r="497" spans="17:32" s="21" customFormat="1">
-      <c r="Q497" s="23"/>
-      <c r="R497" s="23"/>
-      <c r="S497" s="23"/>
-      <c r="T497" s="23"/>
-      <c r="U497" s="23"/>
-      <c r="V497" s="23"/>
-      <c r="W497" s="23"/>
+      <c r="Q497" s="39"/>
+      <c r="R497" s="39"/>
+      <c r="S497" s="39"/>
+      <c r="T497" s="39"/>
+      <c r="U497" s="39"/>
+      <c r="V497" s="39"/>
+      <c r="W497" s="39"/>
       <c r="X497" s="39"/>
       <c r="Y497" s="39"/>
-      <c r="Z497" s="23"/>
-      <c r="AA497" s="23"/>
-      <c r="AB497" s="23"/>
-      <c r="AC497" s="23"/>
+      <c r="Z497" s="39"/>
+      <c r="AA497" s="39"/>
+      <c r="AB497" s="39"/>
+      <c r="AC497" s="39"/>
       <c r="AD497" s="65"/>
     </row>
     <row r="498" spans="17:32" s="21" customFormat="1">
@@ -28314,23 +28372,22 @@
       <c r="T498" s="23"/>
       <c r="U498" s="23"/>
       <c r="V498" s="23"/>
-      <c r="W498" s="23"/>
+      <c r="W498" s="39"/>
       <c r="X498" s="39"/>
-      <c r="Y498" s="23"/>
-      <c r="Z498" s="23"/>
-      <c r="AA498" s="23"/>
-      <c r="AB498" s="23"/>
-      <c r="AC498" s="23"/>
+      <c r="Y498" s="39"/>
+      <c r="Z498" s="39"/>
+      <c r="AA498" s="39"/>
+      <c r="AB498" s="39"/>
+      <c r="AC498" s="39"/>
       <c r="AD498" s="65"/>
-      <c r="AF498" s="22"/>
     </row>
     <row r="499" spans="17:32" s="21" customFormat="1">
-      <c r="Q499" s="39"/>
-      <c r="R499" s="39"/>
-      <c r="S499" s="39"/>
-      <c r="T499" s="39"/>
-      <c r="U499" s="39"/>
-      <c r="V499" s="39"/>
+      <c r="Q499" s="23"/>
+      <c r="R499" s="23"/>
+      <c r="S499" s="23"/>
+      <c r="T499" s="23"/>
+      <c r="U499" s="23"/>
+      <c r="V499" s="23"/>
       <c r="W499" s="39"/>
       <c r="X499" s="39"/>
       <c r="Y499" s="39"/>
@@ -28363,7 +28420,7 @@
       <c r="T501" s="23"/>
       <c r="U501" s="23"/>
       <c r="V501" s="23"/>
-      <c r="W501" s="39"/>
+      <c r="W501" s="23"/>
       <c r="X501" s="39"/>
       <c r="Y501" s="39"/>
       <c r="Z501" s="39"/>
@@ -28379,13 +28436,13 @@
       <c r="T502" s="23"/>
       <c r="U502" s="23"/>
       <c r="V502" s="23"/>
-      <c r="W502" s="39"/>
+      <c r="W502" s="23"/>
       <c r="X502" s="39"/>
       <c r="Y502" s="39"/>
-      <c r="Z502" s="39"/>
-      <c r="AA502" s="39"/>
-      <c r="AB502" s="39"/>
-      <c r="AC502" s="39"/>
+      <c r="Z502" s="23"/>
+      <c r="AA502" s="23"/>
+      <c r="AB502" s="23"/>
+      <c r="AC502" s="23"/>
       <c r="AD502" s="65"/>
     </row>
     <row r="503" spans="17:32" s="21" customFormat="1">
@@ -28397,12 +28454,13 @@
       <c r="V503" s="23"/>
       <c r="W503" s="23"/>
       <c r="X503" s="39"/>
-      <c r="Y503" s="39"/>
-      <c r="Z503" s="39"/>
-      <c r="AA503" s="39"/>
-      <c r="AB503" s="39"/>
-      <c r="AC503" s="39"/>
+      <c r="Y503" s="23"/>
+      <c r="Z503" s="23"/>
+      <c r="AA503" s="23"/>
+      <c r="AB503" s="23"/>
+      <c r="AC503" s="23"/>
       <c r="AD503" s="65"/>
+      <c r="AF503" s="22"/>
     </row>
     <row r="504" spans="17:32" s="21" customFormat="1">
       <c r="Q504" s="23"/>
@@ -28414,28 +28472,27 @@
       <c r="W504" s="23"/>
       <c r="X504" s="39"/>
       <c r="Y504" s="39"/>
-      <c r="Z504" s="23"/>
-      <c r="AA504" s="23"/>
-      <c r="AB504" s="23"/>
-      <c r="AC504" s="23"/>
+      <c r="Z504" s="39"/>
+      <c r="AA504" s="39"/>
+      <c r="AB504" s="39"/>
+      <c r="AC504" s="39"/>
       <c r="AD504" s="65"/>
     </row>
     <row r="505" spans="17:32" s="21" customFormat="1">
-      <c r="Q505" s="23"/>
-      <c r="R505" s="23"/>
-      <c r="S505" s="23"/>
-      <c r="T505" s="23"/>
-      <c r="U505" s="23"/>
-      <c r="V505" s="23"/>
-      <c r="W505" s="23"/>
+      <c r="Q505" s="39"/>
+      <c r="R505" s="39"/>
+      <c r="S505" s="39"/>
+      <c r="T505" s="39"/>
+      <c r="U505" s="39"/>
+      <c r="V505" s="39"/>
+      <c r="W505" s="39"/>
       <c r="X505" s="39"/>
-      <c r="Y505" s="23"/>
-      <c r="Z505" s="23"/>
-      <c r="AA505" s="23"/>
-      <c r="AB505" s="23"/>
-      <c r="AC505" s="23"/>
+      <c r="Y505" s="39"/>
+      <c r="Z505" s="39"/>
+      <c r="AA505" s="39"/>
+      <c r="AB505" s="39"/>
+      <c r="AC505" s="39"/>
       <c r="AD505" s="65"/>
-      <c r="AF505" s="22"/>
     </row>
     <row r="506" spans="17:32" s="21" customFormat="1">
       <c r="Q506" s="23"/>
@@ -28446,12 +28503,13 @@
       <c r="V506" s="23"/>
       <c r="W506" s="23"/>
       <c r="X506" s="39"/>
-      <c r="Y506" s="39"/>
-      <c r="Z506" s="39"/>
-      <c r="AA506" s="39"/>
-      <c r="AB506" s="39"/>
-      <c r="AC506" s="39"/>
+      <c r="Y506" s="23"/>
+      <c r="Z506" s="23"/>
+      <c r="AA506" s="23"/>
+      <c r="AB506" s="23"/>
+      <c r="AC506" s="23"/>
       <c r="AD506" s="65"/>
+      <c r="AF506" s="22"/>
     </row>
     <row r="507" spans="17:32" s="21" customFormat="1">
       <c r="Q507" s="39"/>
@@ -28476,23 +28534,22 @@
       <c r="T508" s="23"/>
       <c r="U508" s="23"/>
       <c r="V508" s="23"/>
-      <c r="W508" s="23"/>
+      <c r="W508" s="39"/>
       <c r="X508" s="39"/>
-      <c r="Y508" s="23"/>
-      <c r="Z508" s="23"/>
-      <c r="AA508" s="23"/>
-      <c r="AB508" s="23"/>
-      <c r="AC508" s="23"/>
+      <c r="Y508" s="39"/>
+      <c r="Z508" s="39"/>
+      <c r="AA508" s="39"/>
+      <c r="AB508" s="39"/>
+      <c r="AC508" s="39"/>
       <c r="AD508" s="65"/>
-      <c r="AF508" s="22"/>
     </row>
     <row r="509" spans="17:32" s="21" customFormat="1">
-      <c r="Q509" s="39"/>
-      <c r="R509" s="39"/>
-      <c r="S509" s="39"/>
-      <c r="T509" s="39"/>
-      <c r="U509" s="39"/>
-      <c r="V509" s="39"/>
+      <c r="Q509" s="23"/>
+      <c r="R509" s="23"/>
+      <c r="S509" s="23"/>
+      <c r="T509" s="23"/>
+      <c r="U509" s="23"/>
+      <c r="V509" s="23"/>
       <c r="W509" s="39"/>
       <c r="X509" s="39"/>
       <c r="Y509" s="39"/>
@@ -28509,13 +28566,13 @@
       <c r="T510" s="23"/>
       <c r="U510" s="23"/>
       <c r="V510" s="23"/>
-      <c r="W510" s="39"/>
+      <c r="W510" s="23"/>
       <c r="X510" s="39"/>
       <c r="Y510" s="39"/>
-      <c r="Z510" s="39"/>
-      <c r="AA510" s="39"/>
-      <c r="AB510" s="39"/>
-      <c r="AC510" s="39"/>
+      <c r="Z510" s="23"/>
+      <c r="AA510" s="23"/>
+      <c r="AB510" s="23"/>
+      <c r="AC510" s="23"/>
       <c r="AD510" s="65"/>
     </row>
     <row r="511" spans="17:32" s="21" customFormat="1">
@@ -28525,29 +28582,30 @@
       <c r="T511" s="23"/>
       <c r="U511" s="23"/>
       <c r="V511" s="23"/>
-      <c r="W511" s="39"/>
+      <c r="W511" s="23"/>
       <c r="X511" s="39"/>
-      <c r="Y511" s="39"/>
-      <c r="Z511" s="39"/>
-      <c r="AA511" s="39"/>
-      <c r="AB511" s="39"/>
-      <c r="AC511" s="39"/>
+      <c r="Y511" s="23"/>
+      <c r="Z511" s="23"/>
+      <c r="AA511" s="23"/>
+      <c r="AB511" s="23"/>
+      <c r="AC511" s="23"/>
       <c r="AD511" s="65"/>
+      <c r="AF511" s="22"/>
     </row>
     <row r="512" spans="17:32" s="21" customFormat="1">
-      <c r="Q512" s="23"/>
-      <c r="R512" s="23"/>
-      <c r="S512" s="23"/>
-      <c r="T512" s="23"/>
-      <c r="U512" s="23"/>
-      <c r="V512" s="23"/>
-      <c r="W512" s="23"/>
+      <c r="Q512" s="39"/>
+      <c r="R512" s="39"/>
+      <c r="S512" s="39"/>
+      <c r="T512" s="39"/>
+      <c r="U512" s="39"/>
+      <c r="V512" s="39"/>
+      <c r="W512" s="39"/>
       <c r="X512" s="39"/>
       <c r="Y512" s="39"/>
-      <c r="Z512" s="23"/>
-      <c r="AA512" s="23"/>
-      <c r="AB512" s="23"/>
-      <c r="AC512" s="23"/>
+      <c r="Z512" s="39"/>
+      <c r="AA512" s="39"/>
+      <c r="AB512" s="39"/>
+      <c r="AC512" s="39"/>
       <c r="AD512" s="65"/>
     </row>
     <row r="513" spans="17:32" s="21" customFormat="1">
@@ -28557,23 +28615,22 @@
       <c r="T513" s="23"/>
       <c r="U513" s="23"/>
       <c r="V513" s="23"/>
-      <c r="W513" s="23"/>
+      <c r="W513" s="39"/>
       <c r="X513" s="39"/>
-      <c r="Y513" s="23"/>
-      <c r="Z513" s="23"/>
-      <c r="AA513" s="23"/>
-      <c r="AB513" s="23"/>
-      <c r="AC513" s="23"/>
+      <c r="Y513" s="39"/>
+      <c r="Z513" s="39"/>
+      <c r="AA513" s="39"/>
+      <c r="AB513" s="39"/>
+      <c r="AC513" s="39"/>
       <c r="AD513" s="65"/>
-      <c r="AF513" s="22"/>
     </row>
     <row r="514" spans="17:32" s="21" customFormat="1">
-      <c r="Q514" s="39"/>
-      <c r="R514" s="39"/>
-      <c r="S514" s="39"/>
-      <c r="T514" s="39"/>
-      <c r="U514" s="39"/>
-      <c r="V514" s="39"/>
+      <c r="Q514" s="23"/>
+      <c r="R514" s="23"/>
+      <c r="S514" s="23"/>
+      <c r="T514" s="23"/>
+      <c r="U514" s="23"/>
+      <c r="V514" s="23"/>
       <c r="W514" s="39"/>
       <c r="X514" s="39"/>
       <c r="Y514" s="39"/>
@@ -28606,7 +28663,7 @@
       <c r="T516" s="23"/>
       <c r="U516" s="23"/>
       <c r="V516" s="23"/>
-      <c r="W516" s="39"/>
+      <c r="W516" s="23"/>
       <c r="X516" s="39"/>
       <c r="Y516" s="39"/>
       <c r="Z516" s="39"/>
@@ -28622,13 +28679,13 @@
       <c r="T517" s="23"/>
       <c r="U517" s="23"/>
       <c r="V517" s="23"/>
-      <c r="W517" s="39"/>
+      <c r="W517" s="23"/>
       <c r="X517" s="39"/>
       <c r="Y517" s="39"/>
-      <c r="Z517" s="39"/>
-      <c r="AA517" s="39"/>
-      <c r="AB517" s="39"/>
-      <c r="AC517" s="39"/>
+      <c r="Z517" s="23"/>
+      <c r="AA517" s="23"/>
+      <c r="AB517" s="23"/>
+      <c r="AC517" s="23"/>
       <c r="AD517" s="65"/>
     </row>
     <row r="518" spans="17:32" s="21" customFormat="1">
@@ -28640,12 +28697,13 @@
       <c r="V518" s="23"/>
       <c r="W518" s="23"/>
       <c r="X518" s="39"/>
-      <c r="Y518" s="39"/>
-      <c r="Z518" s="39"/>
-      <c r="AA518" s="39"/>
-      <c r="AB518" s="39"/>
-      <c r="AC518" s="39"/>
+      <c r="Y518" s="23"/>
+      <c r="Z518" s="23"/>
+      <c r="AA518" s="23"/>
+      <c r="AB518" s="23"/>
+      <c r="AC518" s="23"/>
       <c r="AD518" s="65"/>
+      <c r="AF518" s="22"/>
     </row>
     <row r="519" spans="17:32" s="21" customFormat="1">
       <c r="Q519" s="23"/>
@@ -28657,28 +28715,27 @@
       <c r="W519" s="23"/>
       <c r="X519" s="39"/>
       <c r="Y519" s="39"/>
-      <c r="Z519" s="23"/>
-      <c r="AA519" s="23"/>
-      <c r="AB519" s="23"/>
-      <c r="AC519" s="23"/>
+      <c r="Z519" s="39"/>
+      <c r="AA519" s="39"/>
+      <c r="AB519" s="39"/>
+      <c r="AC519" s="39"/>
       <c r="AD519" s="65"/>
     </row>
     <row r="520" spans="17:32" s="21" customFormat="1">
-      <c r="Q520" s="23"/>
-      <c r="R520" s="23"/>
-      <c r="S520" s="23"/>
-      <c r="T520" s="23"/>
-      <c r="U520" s="23"/>
-      <c r="V520" s="23"/>
-      <c r="W520" s="23"/>
+      <c r="Q520" s="39"/>
+      <c r="R520" s="39"/>
+      <c r="S520" s="39"/>
+      <c r="T520" s="39"/>
+      <c r="U520" s="39"/>
+      <c r="V520" s="39"/>
+      <c r="W520" s="39"/>
       <c r="X520" s="39"/>
-      <c r="Y520" s="23"/>
-      <c r="Z520" s="23"/>
-      <c r="AA520" s="23"/>
-      <c r="AB520" s="23"/>
-      <c r="AC520" s="23"/>
+      <c r="Y520" s="39"/>
+      <c r="Z520" s="39"/>
+      <c r="AA520" s="39"/>
+      <c r="AB520" s="39"/>
+      <c r="AC520" s="39"/>
       <c r="AD520" s="65"/>
-      <c r="AF520" s="22"/>
     </row>
     <row r="521" spans="17:32" s="21" customFormat="1">
       <c r="Q521" s="23"/>
@@ -28687,14 +28744,15 @@
       <c r="T521" s="23"/>
       <c r="U521" s="23"/>
       <c r="V521" s="23"/>
-      <c r="W521" s="23"/>
-      <c r="X521" s="39"/>
-      <c r="Y521" s="39"/>
-      <c r="Z521" s="39"/>
-      <c r="AA521" s="39"/>
-      <c r="AB521" s="39"/>
-      <c r="AC521" s="39"/>
+      <c r="W521" s="39"/>
+      <c r="X521" s="23"/>
+      <c r="Y521" s="23"/>
+      <c r="Z521" s="23"/>
+      <c r="AA521" s="23"/>
+      <c r="AB521" s="23"/>
+      <c r="AC521" s="23"/>
       <c r="AD521" s="65"/>
+      <c r="AF521" s="22"/>
     </row>
     <row r="522" spans="17:32" s="21" customFormat="1">
       <c r="Q522" s="39"/>
@@ -28719,24 +28777,23 @@
       <c r="T523" s="23"/>
       <c r="U523" s="23"/>
       <c r="V523" s="23"/>
-      <c r="W523" s="39"/>
-      <c r="X523" s="23"/>
-      <c r="Y523" s="23"/>
-      <c r="Z523" s="23"/>
-      <c r="AA523" s="23"/>
-      <c r="AB523" s="23"/>
-      <c r="AC523" s="23"/>
+      <c r="W523" s="23"/>
+      <c r="X523" s="39"/>
+      <c r="Y523" s="39"/>
+      <c r="Z523" s="39"/>
+      <c r="AA523" s="39"/>
+      <c r="AB523" s="39"/>
+      <c r="AC523" s="39"/>
       <c r="AD523" s="65"/>
-      <c r="AF523" s="22"/>
     </row>
     <row r="524" spans="17:32" s="21" customFormat="1">
-      <c r="Q524" s="39"/>
-      <c r="R524" s="39"/>
-      <c r="S524" s="39"/>
-      <c r="T524" s="39"/>
-      <c r="U524" s="39"/>
-      <c r="V524" s="39"/>
-      <c r="W524" s="39"/>
+      <c r="Q524" s="23"/>
+      <c r="R524" s="23"/>
+      <c r="S524" s="23"/>
+      <c r="T524" s="23"/>
+      <c r="U524" s="23"/>
+      <c r="V524" s="23"/>
+      <c r="W524" s="23"/>
       <c r="X524" s="39"/>
       <c r="Y524" s="39"/>
       <c r="Z524" s="39"/>
@@ -28762,20 +28819,21 @@
       <c r="AD525" s="65"/>
     </row>
     <row r="526" spans="17:32" s="21" customFormat="1">
-      <c r="Q526" s="23"/>
-      <c r="R526" s="23"/>
-      <c r="S526" s="23"/>
-      <c r="T526" s="23"/>
-      <c r="U526" s="23"/>
-      <c r="V526" s="23"/>
-      <c r="W526" s="23"/>
-      <c r="X526" s="39"/>
-      <c r="Y526" s="39"/>
-      <c r="Z526" s="39"/>
-      <c r="AA526" s="39"/>
-      <c r="AB526" s="39"/>
-      <c r="AC526" s="39"/>
+      <c r="Q526" s="39"/>
+      <c r="R526" s="39"/>
+      <c r="S526" s="39"/>
+      <c r="T526" s="39"/>
+      <c r="U526" s="39"/>
+      <c r="V526" s="39"/>
+      <c r="W526" s="39"/>
+      <c r="X526" s="23"/>
+      <c r="Y526" s="23"/>
+      <c r="Z526" s="23"/>
+      <c r="AA526" s="23"/>
+      <c r="AB526" s="23"/>
+      <c r="AC526" s="23"/>
       <c r="AD526" s="65"/>
+      <c r="AF526" s="22"/>
     </row>
     <row r="527" spans="17:32" s="21" customFormat="1">
       <c r="Q527" s="23"/>
@@ -28784,31 +28842,31 @@
       <c r="T527" s="23"/>
       <c r="U527" s="23"/>
       <c r="V527" s="23"/>
-      <c r="W527" s="23"/>
-      <c r="X527" s="39"/>
-      <c r="Y527" s="39"/>
-      <c r="Z527" s="39"/>
-      <c r="AA527" s="39"/>
-      <c r="AB527" s="39"/>
-      <c r="AC527" s="39"/>
+      <c r="W527" s="39"/>
+      <c r="X527" s="23"/>
+      <c r="Y527" s="23"/>
+      <c r="Z527" s="23"/>
+      <c r="AA527" s="23"/>
+      <c r="AB527" s="23"/>
+      <c r="AC527" s="23"/>
       <c r="AD527" s="65"/>
+      <c r="AF527" s="22"/>
     </row>
     <row r="528" spans="17:32" s="21" customFormat="1">
-      <c r="Q528" s="39"/>
-      <c r="R528" s="39"/>
-      <c r="S528" s="39"/>
-      <c r="T528" s="39"/>
-      <c r="U528" s="39"/>
-      <c r="V528" s="39"/>
-      <c r="W528" s="39"/>
-      <c r="X528" s="23"/>
-      <c r="Y528" s="23"/>
+      <c r="Q528" s="23"/>
+      <c r="R528" s="23"/>
+      <c r="S528" s="23"/>
+      <c r="T528" s="23"/>
+      <c r="U528" s="23"/>
+      <c r="V528" s="23"/>
+      <c r="W528" s="23"/>
+      <c r="X528" s="39"/>
+      <c r="Y528" s="39"/>
       <c r="Z528" s="23"/>
       <c r="AA528" s="23"/>
       <c r="AB528" s="23"/>
       <c r="AC528" s="23"/>
       <c r="AD528" s="65"/>
-      <c r="AF528" s="22"/>
     </row>
     <row r="529" spans="9:32" s="21" customFormat="1">
       <c r="Q529" s="23"/>
@@ -28817,15 +28875,14 @@
       <c r="T529" s="23"/>
       <c r="U529" s="23"/>
       <c r="V529" s="23"/>
-      <c r="W529" s="39"/>
-      <c r="X529" s="23"/>
-      <c r="Y529" s="23"/>
+      <c r="W529" s="23"/>
+      <c r="X529" s="39"/>
+      <c r="Y529" s="39"/>
       <c r="Z529" s="23"/>
       <c r="AA529" s="23"/>
       <c r="AB529" s="23"/>
       <c r="AC529" s="23"/>
       <c r="AD529" s="65"/>
-      <c r="AF529" s="22"/>
     </row>
     <row r="530" spans="9:32" s="21" customFormat="1">
       <c r="Q530" s="23"/>
@@ -28850,13 +28907,13 @@
       <c r="T531" s="23"/>
       <c r="U531" s="23"/>
       <c r="V531" s="23"/>
-      <c r="W531" s="23"/>
+      <c r="W531" s="39"/>
       <c r="X531" s="39"/>
       <c r="Y531" s="39"/>
-      <c r="Z531" s="23"/>
-      <c r="AA531" s="23"/>
-      <c r="AB531" s="23"/>
-      <c r="AC531" s="23"/>
+      <c r="Z531" s="39"/>
+      <c r="AA531" s="39"/>
+      <c r="AB531" s="39"/>
+      <c r="AC531" s="39"/>
       <c r="AD531" s="65"/>
     </row>
     <row r="532" spans="9:32" s="21" customFormat="1">
@@ -28866,13 +28923,13 @@
       <c r="T532" s="23"/>
       <c r="U532" s="23"/>
       <c r="V532" s="23"/>
-      <c r="W532" s="23"/>
+      <c r="W532" s="39"/>
       <c r="X532" s="39"/>
       <c r="Y532" s="39"/>
-      <c r="Z532" s="23"/>
-      <c r="AA532" s="23"/>
-      <c r="AB532" s="23"/>
-      <c r="AC532" s="23"/>
+      <c r="Z532" s="39"/>
+      <c r="AA532" s="39"/>
+      <c r="AB532" s="39"/>
+      <c r="AC532" s="39"/>
       <c r="AD532" s="65"/>
     </row>
     <row r="533" spans="9:32" s="21" customFormat="1">
@@ -28882,22 +28939,25 @@
       <c r="T533" s="23"/>
       <c r="U533" s="23"/>
       <c r="V533" s="23"/>
-      <c r="W533" s="39"/>
+      <c r="W533" s="23"/>
       <c r="X533" s="39"/>
-      <c r="Y533" s="39"/>
-      <c r="Z533" s="39"/>
-      <c r="AA533" s="39"/>
-      <c r="AB533" s="39"/>
-      <c r="AC533" s="39"/>
+      <c r="Y533" s="23"/>
+      <c r="Z533" s="23"/>
+      <c r="AA533" s="23"/>
+      <c r="AB533" s="23"/>
+      <c r="AC533" s="23"/>
       <c r="AD533" s="65"/>
+      <c r="AF533" s="22"/>
     </row>
     <row r="534" spans="9:32" s="21" customFormat="1">
-      <c r="Q534" s="23"/>
-      <c r="R534" s="23"/>
-      <c r="S534" s="23"/>
-      <c r="T534" s="23"/>
-      <c r="U534" s="23"/>
-      <c r="V534" s="23"/>
+      <c r="J534" s="35"/>
+      <c r="K534" s="35"/>
+      <c r="Q534" s="39"/>
+      <c r="R534" s="39"/>
+      <c r="S534" s="39"/>
+      <c r="T534" s="39"/>
+      <c r="U534" s="39"/>
+      <c r="V534" s="39"/>
       <c r="W534" s="39"/>
       <c r="X534" s="39"/>
       <c r="Y534" s="39"/>
@@ -28908,25 +28968,25 @@
       <c r="AD534" s="65"/>
     </row>
     <row r="535" spans="9:32" s="21" customFormat="1">
+      <c r="I535" s="35"/>
+      <c r="L535" s="35"/>
+      <c r="M535" s="35"/>
       <c r="Q535" s="23"/>
       <c r="R535" s="23"/>
       <c r="S535" s="23"/>
       <c r="T535" s="23"/>
       <c r="U535" s="23"/>
       <c r="V535" s="23"/>
-      <c r="W535" s="23"/>
+      <c r="W535" s="39"/>
       <c r="X535" s="39"/>
-      <c r="Y535" s="23"/>
-      <c r="Z535" s="23"/>
-      <c r="AA535" s="23"/>
-      <c r="AB535" s="23"/>
-      <c r="AC535" s="23"/>
+      <c r="Y535" s="39"/>
+      <c r="Z535" s="39"/>
+      <c r="AA535" s="39"/>
+      <c r="AB535" s="39"/>
+      <c r="AC535" s="39"/>
       <c r="AD535" s="65"/>
-      <c r="AF535" s="22"/>
     </row>
     <row r="536" spans="9:32" s="21" customFormat="1">
-      <c r="J536" s="35"/>
-      <c r="K536" s="35"/>
       <c r="Q536" s="39"/>
       <c r="R536" s="39"/>
       <c r="S536" s="39"/>
@@ -28943,54 +29003,52 @@
       <c r="AD536" s="65"/>
     </row>
     <row r="537" spans="9:32" s="21" customFormat="1">
-      <c r="I537" s="35"/>
-      <c r="L537" s="35"/>
-      <c r="M537" s="35"/>
       <c r="Q537" s="23"/>
       <c r="R537" s="23"/>
       <c r="S537" s="23"/>
       <c r="T537" s="23"/>
       <c r="U537" s="23"/>
       <c r="V537" s="23"/>
-      <c r="W537" s="39"/>
+      <c r="W537" s="23"/>
       <c r="X537" s="39"/>
       <c r="Y537" s="39"/>
-      <c r="Z537" s="39"/>
-      <c r="AA537" s="39"/>
-      <c r="AB537" s="39"/>
-      <c r="AC537" s="39"/>
+      <c r="Z537" s="23"/>
+      <c r="AA537" s="23"/>
+      <c r="AB537" s="23"/>
+      <c r="AC537" s="23"/>
       <c r="AD537" s="65"/>
     </row>
     <row r="538" spans="9:32" s="21" customFormat="1">
-      <c r="Q538" s="39"/>
-      <c r="R538" s="39"/>
-      <c r="S538" s="39"/>
-      <c r="T538" s="39"/>
-      <c r="U538" s="39"/>
-      <c r="V538" s="39"/>
-      <c r="W538" s="39"/>
+      <c r="Q538" s="23"/>
+      <c r="R538" s="23"/>
+      <c r="S538" s="23"/>
+      <c r="T538" s="23"/>
+      <c r="U538" s="23"/>
+      <c r="V538" s="23"/>
+      <c r="W538" s="23"/>
       <c r="X538" s="39"/>
-      <c r="Y538" s="39"/>
-      <c r="Z538" s="39"/>
-      <c r="AA538" s="39"/>
-      <c r="AB538" s="39"/>
-      <c r="AC538" s="39"/>
+      <c r="Y538" s="23"/>
+      <c r="Z538" s="23"/>
+      <c r="AA538" s="23"/>
+      <c r="AB538" s="23"/>
+      <c r="AC538" s="23"/>
       <c r="AD538" s="65"/>
+      <c r="AF538" s="22"/>
     </row>
     <row r="539" spans="9:32" s="21" customFormat="1">
-      <c r="Q539" s="23"/>
-      <c r="R539" s="23"/>
-      <c r="S539" s="23"/>
-      <c r="T539" s="23"/>
-      <c r="U539" s="23"/>
-      <c r="V539" s="23"/>
-      <c r="W539" s="23"/>
+      <c r="Q539" s="39"/>
+      <c r="R539" s="39"/>
+      <c r="S539" s="39"/>
+      <c r="T539" s="39"/>
+      <c r="U539" s="39"/>
+      <c r="V539" s="39"/>
+      <c r="W539" s="39"/>
       <c r="X539" s="39"/>
       <c r="Y539" s="39"/>
-      <c r="Z539" s="23"/>
-      <c r="AA539" s="23"/>
-      <c r="AB539" s="23"/>
-      <c r="AC539" s="23"/>
+      <c r="Z539" s="39"/>
+      <c r="AA539" s="39"/>
+      <c r="AB539" s="39"/>
+      <c r="AC539" s="39"/>
       <c r="AD539" s="65"/>
     </row>
     <row r="540" spans="9:32" s="21" customFormat="1">
@@ -29000,23 +29058,22 @@
       <c r="T540" s="23"/>
       <c r="U540" s="23"/>
       <c r="V540" s="23"/>
-      <c r="W540" s="23"/>
+      <c r="W540" s="39"/>
       <c r="X540" s="39"/>
-      <c r="Y540" s="23"/>
-      <c r="Z540" s="23"/>
-      <c r="AA540" s="23"/>
-      <c r="AB540" s="23"/>
-      <c r="AC540" s="23"/>
+      <c r="Y540" s="39"/>
+      <c r="Z540" s="39"/>
+      <c r="AA540" s="39"/>
+      <c r="AB540" s="39"/>
+      <c r="AC540" s="39"/>
       <c r="AD540" s="65"/>
-      <c r="AF540" s="22"/>
     </row>
     <row r="541" spans="9:32" s="21" customFormat="1">
-      <c r="Q541" s="39"/>
-      <c r="R541" s="39"/>
-      <c r="S541" s="39"/>
-      <c r="T541" s="39"/>
-      <c r="U541" s="39"/>
-      <c r="V541" s="39"/>
+      <c r="Q541" s="23"/>
+      <c r="R541" s="23"/>
+      <c r="S541" s="23"/>
+      <c r="T541" s="23"/>
+      <c r="U541" s="23"/>
+      <c r="V541" s="23"/>
       <c r="W541" s="39"/>
       <c r="X541" s="39"/>
       <c r="Y541" s="39"/>
@@ -29033,7 +29090,7 @@
       <c r="T542" s="23"/>
       <c r="U542" s="23"/>
       <c r="V542" s="23"/>
-      <c r="W542" s="39"/>
+      <c r="W542" s="23"/>
       <c r="X542" s="39"/>
       <c r="Y542" s="39"/>
       <c r="Z542" s="39"/>
@@ -29049,7 +29106,7 @@
       <c r="T543" s="23"/>
       <c r="U543" s="23"/>
       <c r="V543" s="23"/>
-      <c r="W543" s="39"/>
+      <c r="W543" s="23"/>
       <c r="X543" s="39"/>
       <c r="Y543" s="39"/>
       <c r="Z543" s="39"/>
@@ -29059,13 +29116,13 @@
       <c r="AD543" s="65"/>
     </row>
     <row r="544" spans="9:32" s="21" customFormat="1">
-      <c r="Q544" s="23"/>
-      <c r="R544" s="23"/>
-      <c r="S544" s="23"/>
-      <c r="T544" s="23"/>
-      <c r="U544" s="23"/>
-      <c r="V544" s="23"/>
-      <c r="W544" s="23"/>
+      <c r="Q544" s="39"/>
+      <c r="R544" s="39"/>
+      <c r="S544" s="39"/>
+      <c r="T544" s="39"/>
+      <c r="U544" s="39"/>
+      <c r="V544" s="39"/>
+      <c r="W544" s="39"/>
       <c r="X544" s="39"/>
       <c r="Y544" s="39"/>
       <c r="Z544" s="39"/>
@@ -29081,23 +29138,24 @@
       <c r="T545" s="23"/>
       <c r="U545" s="23"/>
       <c r="V545" s="23"/>
-      <c r="W545" s="23"/>
-      <c r="X545" s="39"/>
-      <c r="Y545" s="39"/>
-      <c r="Z545" s="39"/>
-      <c r="AA545" s="39"/>
-      <c r="AB545" s="39"/>
-      <c r="AC545" s="39"/>
+      <c r="W545" s="39"/>
+      <c r="X545" s="23"/>
+      <c r="Y545" s="23"/>
+      <c r="Z545" s="23"/>
+      <c r="AA545" s="23"/>
+      <c r="AB545" s="23"/>
+      <c r="AC545" s="23"/>
       <c r="AD545" s="65"/>
+      <c r="AF545" s="22"/>
     </row>
     <row r="546" spans="16:32" s="21" customFormat="1">
-      <c r="Q546" s="39"/>
-      <c r="R546" s="39"/>
-      <c r="S546" s="39"/>
-      <c r="T546" s="39"/>
-      <c r="U546" s="39"/>
-      <c r="V546" s="39"/>
-      <c r="W546" s="39"/>
+      <c r="Q546" s="23"/>
+      <c r="R546" s="23"/>
+      <c r="S546" s="23"/>
+      <c r="T546" s="23"/>
+      <c r="U546" s="23"/>
+      <c r="V546" s="23"/>
+      <c r="W546" s="23"/>
       <c r="X546" s="39"/>
       <c r="Y546" s="39"/>
       <c r="Z546" s="39"/>
@@ -29113,15 +29171,14 @@
       <c r="T547" s="23"/>
       <c r="U547" s="23"/>
       <c r="V547" s="23"/>
-      <c r="W547" s="39"/>
-      <c r="X547" s="23"/>
-      <c r="Y547" s="23"/>
-      <c r="Z547" s="23"/>
-      <c r="AA547" s="23"/>
-      <c r="AB547" s="23"/>
-      <c r="AC547" s="23"/>
+      <c r="W547" s="23"/>
+      <c r="X547" s="39"/>
+      <c r="Y547" s="39"/>
+      <c r="Z547" s="39"/>
+      <c r="AA547" s="39"/>
+      <c r="AB547" s="39"/>
+      <c r="AC547" s="39"/>
       <c r="AD547" s="65"/>
-      <c r="AF547" s="22"/>
     </row>
     <row r="548" spans="16:32" s="21" customFormat="1">
       <c r="Q548" s="23"/>
@@ -29140,19 +29197,19 @@
       <c r="AD548" s="65"/>
     </row>
     <row r="549" spans="16:32" s="21" customFormat="1">
+      <c r="P549" s="22"/>
       <c r="Q549" s="23"/>
       <c r="R549" s="23"/>
       <c r="S549" s="23"/>
       <c r="T549" s="23"/>
       <c r="U549" s="23"/>
       <c r="V549" s="23"/>
-      <c r="W549" s="23"/>
+      <c r="W549" s="39"/>
       <c r="X549" s="39"/>
       <c r="Y549" s="39"/>
       <c r="Z549" s="39"/>
       <c r="AA549" s="39"/>
       <c r="AB549" s="39"/>
-      <c r="AC549" s="39"/>
       <c r="AD549" s="65"/>
     </row>
     <row r="550" spans="16:32" s="21" customFormat="1">
@@ -29172,7 +29229,6 @@
       <c r="AD550" s="65"/>
     </row>
     <row r="551" spans="16:32" s="21" customFormat="1">
-      <c r="P551" s="22"/>
       <c r="Q551" s="23"/>
       <c r="R551" s="23"/>
       <c r="S551" s="23"/>
@@ -29185,6 +29241,7 @@
       <c r="Z551" s="39"/>
       <c r="AA551" s="39"/>
       <c r="AB551" s="39"/>
+      <c r="AC551" s="39"/>
       <c r="AD551" s="65"/>
     </row>
     <row r="552" spans="16:32" s="21" customFormat="1">
@@ -29194,7 +29251,7 @@
       <c r="T552" s="23"/>
       <c r="U552" s="23"/>
       <c r="V552" s="23"/>
-      <c r="W552" s="23"/>
+      <c r="W552" s="39"/>
       <c r="X552" s="39"/>
       <c r="Y552" s="39"/>
       <c r="Z552" s="39"/>
@@ -29210,13 +29267,13 @@
       <c r="T553" s="23"/>
       <c r="U553" s="23"/>
       <c r="V553" s="23"/>
-      <c r="W553" s="39"/>
+      <c r="W553" s="23"/>
       <c r="X553" s="39"/>
       <c r="Y553" s="39"/>
-      <c r="Z553" s="39"/>
-      <c r="AA553" s="39"/>
-      <c r="AB553" s="39"/>
-      <c r="AC553" s="39"/>
+      <c r="Z553" s="23"/>
+      <c r="AA553" s="23"/>
+      <c r="AB553" s="23"/>
+      <c r="AC553" s="23"/>
       <c r="AD553" s="65"/>
     </row>
     <row r="554" spans="16:32" s="21" customFormat="1">
@@ -29226,13 +29283,13 @@
       <c r="T554" s="23"/>
       <c r="U554" s="23"/>
       <c r="V554" s="23"/>
-      <c r="W554" s="39"/>
+      <c r="W554" s="23"/>
       <c r="X554" s="39"/>
       <c r="Y554" s="39"/>
-      <c r="Z554" s="39"/>
-      <c r="AA554" s="39"/>
-      <c r="AB554" s="39"/>
-      <c r="AC554" s="39"/>
+      <c r="Z554" s="23"/>
+      <c r="AA554" s="23"/>
+      <c r="AB554" s="23"/>
+      <c r="AC554" s="23"/>
       <c r="AD554" s="65"/>
     </row>
     <row r="555" spans="16:32" s="21" customFormat="1">
@@ -29244,27 +29301,28 @@
       <c r="V555" s="23"/>
       <c r="W555" s="23"/>
       <c r="X555" s="39"/>
-      <c r="Y555" s="39"/>
+      <c r="Y555" s="23"/>
       <c r="Z555" s="23"/>
       <c r="AA555" s="23"/>
       <c r="AB555" s="23"/>
       <c r="AC555" s="23"/>
       <c r="AD555" s="65"/>
+      <c r="AF555" s="22"/>
     </row>
     <row r="556" spans="16:32" s="21" customFormat="1">
-      <c r="Q556" s="23"/>
-      <c r="R556" s="23"/>
-      <c r="S556" s="23"/>
-      <c r="T556" s="23"/>
-      <c r="U556" s="23"/>
-      <c r="V556" s="23"/>
-      <c r="W556" s="23"/>
+      <c r="Q556" s="39"/>
+      <c r="R556" s="39"/>
+      <c r="S556" s="39"/>
+      <c r="T556" s="39"/>
+      <c r="U556" s="39"/>
+      <c r="V556" s="39"/>
+      <c r="W556" s="39"/>
       <c r="X556" s="39"/>
       <c r="Y556" s="39"/>
-      <c r="Z556" s="23"/>
-      <c r="AA556" s="23"/>
-      <c r="AB556" s="23"/>
-      <c r="AC556" s="23"/>
+      <c r="Z556" s="39"/>
+      <c r="AA556" s="39"/>
+      <c r="AB556" s="39"/>
+      <c r="AC556" s="39"/>
       <c r="AD556" s="65"/>
     </row>
     <row r="557" spans="16:32" s="21" customFormat="1">
@@ -29274,23 +29332,22 @@
       <c r="T557" s="23"/>
       <c r="U557" s="23"/>
       <c r="V557" s="23"/>
-      <c r="W557" s="23"/>
+      <c r="W557" s="39"/>
       <c r="X557" s="39"/>
-      <c r="Y557" s="23"/>
-      <c r="Z557" s="23"/>
-      <c r="AA557" s="23"/>
-      <c r="AB557" s="23"/>
-      <c r="AC557" s="23"/>
+      <c r="Y557" s="39"/>
+      <c r="Z557" s="39"/>
+      <c r="AA557" s="39"/>
+      <c r="AB557" s="39"/>
+      <c r="AC557" s="39"/>
       <c r="AD557" s="65"/>
-      <c r="AF557" s="22"/>
     </row>
     <row r="558" spans="16:32" s="21" customFormat="1">
-      <c r="Q558" s="39"/>
-      <c r="R558" s="39"/>
-      <c r="S558" s="39"/>
-      <c r="T558" s="39"/>
-      <c r="U558" s="39"/>
-      <c r="V558" s="39"/>
+      <c r="Q558" s="23"/>
+      <c r="R558" s="23"/>
+      <c r="S558" s="23"/>
+      <c r="T558" s="23"/>
+      <c r="U558" s="23"/>
+      <c r="V558" s="23"/>
       <c r="W558" s="39"/>
       <c r="X558" s="39"/>
       <c r="Y558" s="39"/>
@@ -29307,7 +29364,7 @@
       <c r="T559" s="23"/>
       <c r="U559" s="23"/>
       <c r="V559" s="23"/>
-      <c r="W559" s="39"/>
+      <c r="W559" s="23"/>
       <c r="X559" s="39"/>
       <c r="Y559" s="39"/>
       <c r="Z559" s="39"/>
@@ -29323,7 +29380,7 @@
       <c r="T560" s="23"/>
       <c r="U560" s="23"/>
       <c r="V560" s="23"/>
-      <c r="W560" s="39"/>
+      <c r="W560" s="23"/>
       <c r="X560" s="39"/>
       <c r="Y560" s="39"/>
       <c r="Z560" s="39"/>
@@ -29333,13 +29390,13 @@
       <c r="AD560" s="65"/>
     </row>
     <row r="561" spans="9:30" s="21" customFormat="1">
-      <c r="Q561" s="23"/>
-      <c r="R561" s="23"/>
-      <c r="S561" s="23"/>
-      <c r="T561" s="23"/>
-      <c r="U561" s="23"/>
-      <c r="V561" s="23"/>
-      <c r="W561" s="23"/>
+      <c r="Q561" s="39"/>
+      <c r="R561" s="39"/>
+      <c r="S561" s="39"/>
+      <c r="T561" s="39"/>
+      <c r="U561" s="39"/>
+      <c r="V561" s="39"/>
+      <c r="W561" s="39"/>
       <c r="X561" s="39"/>
       <c r="Y561" s="39"/>
       <c r="Z561" s="39"/>
@@ -29355,7 +29412,7 @@
       <c r="T562" s="23"/>
       <c r="U562" s="23"/>
       <c r="V562" s="23"/>
-      <c r="W562" s="23"/>
+      <c r="W562" s="39"/>
       <c r="X562" s="39"/>
       <c r="Y562" s="39"/>
       <c r="Z562" s="39"/>
@@ -29365,12 +29422,12 @@
       <c r="AD562" s="65"/>
     </row>
     <row r="563" spans="9:30" s="21" customFormat="1">
-      <c r="Q563" s="39"/>
-      <c r="R563" s="39"/>
-      <c r="S563" s="39"/>
-      <c r="T563" s="39"/>
-      <c r="U563" s="39"/>
-      <c r="V563" s="39"/>
+      <c r="Q563" s="23"/>
+      <c r="R563" s="23"/>
+      <c r="S563" s="23"/>
+      <c r="T563" s="23"/>
+      <c r="U563" s="23"/>
+      <c r="V563" s="23"/>
       <c r="W563" s="39"/>
       <c r="X563" s="39"/>
       <c r="Y563" s="39"/>
@@ -29381,6 +29438,8 @@
       <c r="AD563" s="65"/>
     </row>
     <row r="564" spans="9:30" s="21" customFormat="1">
+      <c r="J564" s="1"/>
+      <c r="K564" s="1"/>
       <c r="Q564" s="23"/>
       <c r="R564" s="23"/>
       <c r="S564" s="23"/>
@@ -29396,39 +29455,39 @@
       <c r="AC564" s="39"/>
       <c r="AD564" s="65"/>
     </row>
-    <row r="565" spans="9:30" s="21" customFormat="1">
-      <c r="Q565" s="23"/>
-      <c r="R565" s="23"/>
-      <c r="S565" s="23"/>
-      <c r="T565" s="23"/>
-      <c r="U565" s="23"/>
-      <c r="V565" s="23"/>
-      <c r="W565" s="39"/>
-      <c r="X565" s="39"/>
-      <c r="Y565" s="39"/>
-      <c r="Z565" s="39"/>
-      <c r="AA565" s="39"/>
-      <c r="AB565" s="39"/>
-      <c r="AC565" s="39"/>
-      <c r="AD565" s="65"/>
-    </row>
-    <row r="566" spans="9:30" s="21" customFormat="1">
-      <c r="J566" s="1"/>
-      <c r="K566" s="1"/>
-      <c r="Q566" s="23"/>
-      <c r="R566" s="23"/>
-      <c r="S566" s="23"/>
-      <c r="T566" s="23"/>
-      <c r="U566" s="23"/>
-      <c r="V566" s="23"/>
-      <c r="W566" s="39"/>
-      <c r="X566" s="39"/>
-      <c r="Y566" s="39"/>
-      <c r="Z566" s="39"/>
-      <c r="AA566" s="39"/>
-      <c r="AB566" s="39"/>
-      <c r="AC566" s="39"/>
-      <c r="AD566" s="65"/>
+    <row r="565" spans="9:30">
+      <c r="J565" s="35"/>
+      <c r="K565" s="35"/>
+      <c r="Q565" s="20"/>
+      <c r="R565" s="20"/>
+      <c r="S565" s="20"/>
+      <c r="T565" s="20"/>
+      <c r="U565" s="20"/>
+      <c r="V565" s="20"/>
+      <c r="W565" s="20"/>
+      <c r="X565" s="15"/>
+      <c r="Y565" s="15"/>
+      <c r="Z565" s="15"/>
+      <c r="AA565" s="15"/>
+      <c r="AB565" s="15"/>
+      <c r="AC565" s="15"/>
+    </row>
+    <row r="566" spans="9:30">
+      <c r="I566" s="35"/>
+      <c r="L566" s="35"/>
+      <c r="Q566" s="20"/>
+      <c r="R566" s="20"/>
+      <c r="S566" s="20"/>
+      <c r="T566" s="20"/>
+      <c r="U566" s="20"/>
+      <c r="V566" s="20"/>
+      <c r="W566" s="20"/>
+      <c r="X566" s="15"/>
+      <c r="Y566" s="15"/>
+      <c r="Z566" s="15"/>
+      <c r="AA566" s="15"/>
+      <c r="AB566" s="15"/>
+      <c r="AC566" s="15"/>
     </row>
     <row r="567" spans="9:30">
       <c r="J567" s="35"/>
@@ -29465,15 +29524,13 @@
       <c r="AC568" s="15"/>
     </row>
     <row r="569" spans="9:30">
-      <c r="J569" s="35"/>
-      <c r="K569" s="35"/>
       <c r="Q569" s="20"/>
       <c r="R569" s="20"/>
       <c r="S569" s="20"/>
       <c r="T569" s="20"/>
       <c r="U569" s="20"/>
       <c r="V569" s="20"/>
-      <c r="W569" s="20"/>
+      <c r="W569" s="15"/>
       <c r="X569" s="15"/>
       <c r="Y569" s="15"/>
       <c r="Z569" s="15"/>
@@ -29482,8 +29539,6 @@
       <c r="AC569" s="15"/>
     </row>
     <row r="570" spans="9:30">
-      <c r="I570" s="35"/>
-      <c r="L570" s="35"/>
       <c r="Q570" s="20"/>
       <c r="R570" s="20"/>
       <c r="S570" s="20"/>
@@ -29514,13 +29569,14 @@
       <c r="AC571" s="15"/>
     </row>
     <row r="572" spans="9:30">
+      <c r="L572" s="18"/>
       <c r="Q572" s="20"/>
       <c r="R572" s="20"/>
       <c r="S572" s="20"/>
       <c r="T572" s="20"/>
       <c r="U572" s="20"/>
       <c r="V572" s="20"/>
-      <c r="W572" s="20"/>
+      <c r="W572" s="15"/>
       <c r="X572" s="15"/>
       <c r="Y572" s="15"/>
       <c r="Z572" s="15"/>
@@ -29544,14 +29600,13 @@
       <c r="AC573" s="15"/>
     </row>
     <row r="574" spans="9:30">
-      <c r="L574" s="18"/>
       <c r="Q574" s="20"/>
       <c r="R574" s="20"/>
       <c r="S574" s="20"/>
       <c r="T574" s="20"/>
       <c r="U574" s="20"/>
       <c r="V574" s="20"/>
-      <c r="W574" s="15"/>
+      <c r="W574" s="20"/>
       <c r="X574" s="15"/>
       <c r="Y574" s="15"/>
       <c r="Z574" s="15"/>
@@ -29568,7 +29623,7 @@
       <c r="V575" s="20"/>
       <c r="W575" s="15"/>
       <c r="X575" s="15"/>
-      <c r="Y575" s="15"/>
+      <c r="Y575" s="20"/>
       <c r="Z575" s="15"/>
       <c r="AA575" s="15"/>
       <c r="AB575" s="15"/>
@@ -29581,7 +29636,7 @@
       <c r="T576" s="20"/>
       <c r="U576" s="20"/>
       <c r="V576" s="20"/>
-      <c r="W576" s="20"/>
+      <c r="W576" s="15"/>
       <c r="X576" s="15"/>
       <c r="Y576" s="15"/>
       <c r="Z576" s="15"/>
@@ -29596,9 +29651,9 @@
       <c r="T577" s="20"/>
       <c r="U577" s="20"/>
       <c r="V577" s="20"/>
-      <c r="W577" s="15"/>
+      <c r="W577" s="20"/>
       <c r="X577" s="15"/>
-      <c r="Y577" s="20"/>
+      <c r="Y577" s="15"/>
       <c r="Z577" s="15"/>
       <c r="AA577" s="15"/>
       <c r="AB577" s="15"/>
@@ -29620,13 +29675,14 @@
       <c r="AC578" s="15"/>
     </row>
     <row r="579" spans="9:29">
+      <c r="L579" s="18"/>
       <c r="Q579" s="20"/>
       <c r="R579" s="20"/>
       <c r="S579" s="20"/>
       <c r="T579" s="20"/>
       <c r="U579" s="20"/>
       <c r="V579" s="20"/>
-      <c r="W579" s="20"/>
+      <c r="W579" s="15"/>
       <c r="X579" s="15"/>
       <c r="Y579" s="15"/>
       <c r="Z579" s="15"/>
@@ -29641,7 +29697,7 @@
       <c r="T580" s="20"/>
       <c r="U580" s="20"/>
       <c r="V580" s="20"/>
-      <c r="W580" s="15"/>
+      <c r="W580" s="20"/>
       <c r="X580" s="15"/>
       <c r="Y580" s="15"/>
       <c r="Z580" s="15"/>
@@ -29650,14 +29706,13 @@
       <c r="AC580" s="15"/>
     </row>
     <row r="581" spans="9:29">
-      <c r="L581" s="18"/>
       <c r="Q581" s="20"/>
       <c r="R581" s="20"/>
       <c r="S581" s="20"/>
       <c r="T581" s="20"/>
       <c r="U581" s="20"/>
       <c r="V581" s="20"/>
-      <c r="W581" s="15"/>
+      <c r="W581" s="20"/>
       <c r="X581" s="15"/>
       <c r="Y581" s="15"/>
       <c r="Z581" s="15"/>
@@ -29672,9 +29727,9 @@
       <c r="T582" s="20"/>
       <c r="U582" s="20"/>
       <c r="V582" s="20"/>
-      <c r="W582" s="20"/>
+      <c r="W582" s="15"/>
       <c r="X582" s="15"/>
-      <c r="Y582" s="15"/>
+      <c r="Y582" s="20"/>
       <c r="Z582" s="15"/>
       <c r="AA582" s="15"/>
       <c r="AB582" s="15"/>
@@ -29687,7 +29742,7 @@
       <c r="T583" s="20"/>
       <c r="U583" s="20"/>
       <c r="V583" s="20"/>
-      <c r="W583" s="20"/>
+      <c r="W583" s="15"/>
       <c r="X583" s="15"/>
       <c r="Y583" s="15"/>
       <c r="Z583" s="15"/>
@@ -29696,6 +29751,7 @@
       <c r="AC583" s="15"/>
     </row>
     <row r="584" spans="9:29">
+      <c r="L584" s="18"/>
       <c r="Q584" s="20"/>
       <c r="R584" s="20"/>
       <c r="S584" s="20"/>
@@ -29704,7 +29760,7 @@
       <c r="V584" s="20"/>
       <c r="W584" s="15"/>
       <c r="X584" s="15"/>
-      <c r="Y584" s="20"/>
+      <c r="Y584" s="15"/>
       <c r="Z584" s="15"/>
       <c r="AA584" s="15"/>
       <c r="AB584" s="15"/>
@@ -29726,14 +29782,13 @@
       <c r="AC585" s="15"/>
     </row>
     <row r="586" spans="9:29">
-      <c r="L586" s="18"/>
       <c r="Q586" s="20"/>
       <c r="R586" s="20"/>
       <c r="S586" s="20"/>
       <c r="T586" s="20"/>
       <c r="U586" s="20"/>
       <c r="V586" s="20"/>
-      <c r="W586" s="15"/>
+      <c r="W586" s="20"/>
       <c r="X586" s="15"/>
       <c r="Y586" s="15"/>
       <c r="Z586" s="15"/>
@@ -29742,13 +29797,15 @@
       <c r="AC586" s="15"/>
     </row>
     <row r="587" spans="9:29">
+      <c r="J587" s="35"/>
+      <c r="K587" s="35"/>
       <c r="Q587" s="20"/>
       <c r="R587" s="20"/>
       <c r="S587" s="20"/>
       <c r="T587" s="20"/>
       <c r="U587" s="20"/>
       <c r="V587" s="20"/>
-      <c r="W587" s="15"/>
+      <c r="W587" s="20"/>
       <c r="X587" s="15"/>
       <c r="Y587" s="15"/>
       <c r="Z587" s="15"/>
@@ -29757,6 +29814,8 @@
       <c r="AC587" s="15"/>
     </row>
     <row r="588" spans="9:29">
+      <c r="I588" s="35"/>
+      <c r="L588" s="35"/>
       <c r="Q588" s="20"/>
       <c r="R588" s="20"/>
       <c r="S588" s="20"/>
@@ -29772,15 +29831,13 @@
       <c r="AC588" s="15"/>
     </row>
     <row r="589" spans="9:29">
-      <c r="J589" s="35"/>
-      <c r="K589" s="35"/>
       <c r="Q589" s="20"/>
       <c r="R589" s="20"/>
       <c r="S589" s="20"/>
       <c r="T589" s="20"/>
       <c r="U589" s="20"/>
       <c r="V589" s="20"/>
-      <c r="W589" s="20"/>
+      <c r="W589" s="15"/>
       <c r="X589" s="15"/>
       <c r="Y589" s="15"/>
       <c r="Z589" s="15"/>
@@ -29789,8 +29846,6 @@
       <c r="AC589" s="15"/>
     </row>
     <row r="590" spans="9:29">
-      <c r="I590" s="35"/>
-      <c r="L590" s="35"/>
       <c r="Q590" s="20"/>
       <c r="R590" s="20"/>
       <c r="S590" s="20"/>
@@ -29806,12 +29861,12 @@
       <c r="AC590" s="15"/>
     </row>
     <row r="591" spans="9:29">
-      <c r="Q591" s="20"/>
-      <c r="R591" s="20"/>
-      <c r="S591" s="20"/>
-      <c r="T591" s="20"/>
-      <c r="U591" s="20"/>
-      <c r="V591" s="20"/>
+      <c r="Q591" s="15"/>
+      <c r="R591" s="15"/>
+      <c r="S591" s="15"/>
+      <c r="T591" s="15"/>
+      <c r="U591" s="15"/>
+      <c r="V591" s="15"/>
       <c r="W591" s="15"/>
       <c r="X591" s="15"/>
       <c r="Y591" s="15"/>
@@ -29827,7 +29882,7 @@
       <c r="T592" s="20"/>
       <c r="U592" s="20"/>
       <c r="V592" s="20"/>
-      <c r="W592" s="20"/>
+      <c r="W592" s="15"/>
       <c r="X592" s="15"/>
       <c r="Y592" s="15"/>
       <c r="Z592" s="15"/>
@@ -29836,12 +29891,12 @@
       <c r="AC592" s="15"/>
     </row>
     <row r="593" spans="9:29">
-      <c r="Q593" s="15"/>
-      <c r="R593" s="15"/>
-      <c r="S593" s="15"/>
-      <c r="T593" s="15"/>
-      <c r="U593" s="15"/>
-      <c r="V593" s="15"/>
+      <c r="Q593" s="20"/>
+      <c r="R593" s="20"/>
+      <c r="S593" s="20"/>
+      <c r="T593" s="20"/>
+      <c r="U593" s="20"/>
+      <c r="V593" s="20"/>
       <c r="W593" s="15"/>
       <c r="X593" s="15"/>
       <c r="Y593" s="15"/>
@@ -29872,7 +29927,7 @@
       <c r="T595" s="20"/>
       <c r="U595" s="20"/>
       <c r="V595" s="20"/>
-      <c r="W595" s="15"/>
+      <c r="W595" s="20"/>
       <c r="X595" s="15"/>
       <c r="Y595" s="15"/>
       <c r="Z595" s="15"/>
@@ -29881,13 +29936,15 @@
       <c r="AC595" s="15"/>
     </row>
     <row r="596" spans="9:29">
+      <c r="J596" s="35"/>
+      <c r="K596" s="35"/>
       <c r="Q596" s="20"/>
       <c r="R596" s="20"/>
       <c r="S596" s="20"/>
       <c r="T596" s="20"/>
       <c r="U596" s="20"/>
       <c r="V596" s="20"/>
-      <c r="W596" s="15"/>
+      <c r="W596" s="20"/>
       <c r="X596" s="15"/>
       <c r="Y596" s="15"/>
       <c r="Z596" s="15"/>
@@ -29896,6 +29953,8 @@
       <c r="AC596" s="15"/>
     </row>
     <row r="597" spans="9:29">
+      <c r="I597" s="35"/>
+      <c r="L597" s="35"/>
       <c r="Q597" s="20"/>
       <c r="R597" s="20"/>
       <c r="S597" s="20"/>
@@ -29911,15 +29970,13 @@
       <c r="AC597" s="15"/>
     </row>
     <row r="598" spans="9:29">
-      <c r="J598" s="35"/>
-      <c r="K598" s="35"/>
       <c r="Q598" s="20"/>
       <c r="R598" s="20"/>
       <c r="S598" s="20"/>
       <c r="T598" s="20"/>
       <c r="U598" s="20"/>
       <c r="V598" s="20"/>
-      <c r="W598" s="20"/>
+      <c r="W598" s="15"/>
       <c r="X598" s="15"/>
       <c r="Y598" s="15"/>
       <c r="Z598" s="15"/>
@@ -29928,8 +29985,6 @@
       <c r="AC598" s="15"/>
     </row>
     <row r="599" spans="9:29">
-      <c r="I599" s="35"/>
-      <c r="L599" s="35"/>
       <c r="Q599" s="20"/>
       <c r="R599" s="20"/>
       <c r="S599" s="20"/>
@@ -29945,12 +30000,12 @@
       <c r="AC599" s="15"/>
     </row>
     <row r="600" spans="9:29">
-      <c r="Q600" s="20"/>
-      <c r="R600" s="20"/>
-      <c r="S600" s="20"/>
-      <c r="T600" s="20"/>
-      <c r="U600" s="20"/>
-      <c r="V600" s="20"/>
+      <c r="Q600" s="15"/>
+      <c r="R600" s="15"/>
+      <c r="S600" s="15"/>
+      <c r="T600" s="15"/>
+      <c r="U600" s="15"/>
+      <c r="V600" s="15"/>
       <c r="W600" s="15"/>
       <c r="X600" s="15"/>
       <c r="Y600" s="15"/>
@@ -29975,13 +30030,15 @@
       <c r="AC601" s="15"/>
     </row>
     <row r="602" spans="9:29">
-      <c r="Q602" s="15"/>
-      <c r="R602" s="15"/>
-      <c r="S602" s="15"/>
-      <c r="T602" s="15"/>
-      <c r="U602" s="15"/>
-      <c r="V602" s="15"/>
-      <c r="W602" s="15"/>
+      <c r="J602" s="35"/>
+      <c r="K602" s="35"/>
+      <c r="Q602" s="20"/>
+      <c r="R602" s="20"/>
+      <c r="S602" s="20"/>
+      <c r="T602" s="20"/>
+      <c r="U602" s="20"/>
+      <c r="V602" s="20"/>
+      <c r="W602" s="20"/>
       <c r="X602" s="15"/>
       <c r="Y602" s="15"/>
       <c r="Z602" s="15"/>
@@ -29990,6 +30047,8 @@
       <c r="AC602" s="15"/>
     </row>
     <row r="603" spans="9:29">
+      <c r="I603" s="35"/>
+      <c r="L603" s="35"/>
       <c r="Q603" s="20"/>
       <c r="R603" s="20"/>
       <c r="S603" s="20"/>
@@ -30005,8 +30064,6 @@
       <c r="AC603" s="15"/>
     </row>
     <row r="604" spans="9:29">
-      <c r="J604" s="35"/>
-      <c r="K604" s="35"/>
       <c r="Q604" s="20"/>
       <c r="R604" s="20"/>
       <c r="S604" s="20"/>
@@ -30022,15 +30079,13 @@
       <c r="AC604" s="15"/>
     </row>
     <row r="605" spans="9:29">
-      <c r="I605" s="35"/>
-      <c r="L605" s="35"/>
       <c r="Q605" s="20"/>
       <c r="R605" s="20"/>
       <c r="S605" s="20"/>
       <c r="T605" s="20"/>
       <c r="U605" s="20"/>
       <c r="V605" s="20"/>
-      <c r="W605" s="20"/>
+      <c r="W605" s="15"/>
       <c r="X605" s="15"/>
       <c r="Y605" s="15"/>
       <c r="Z605" s="15"/>
@@ -30039,13 +30094,13 @@
       <c r="AC605" s="15"/>
     </row>
     <row r="606" spans="9:29">
-      <c r="Q606" s="20"/>
-      <c r="R606" s="20"/>
-      <c r="S606" s="20"/>
-      <c r="T606" s="20"/>
-      <c r="U606" s="20"/>
-      <c r="V606" s="20"/>
-      <c r="W606" s="20"/>
+      <c r="Q606" s="15"/>
+      <c r="R606" s="15"/>
+      <c r="S606" s="15"/>
+      <c r="T606" s="15"/>
+      <c r="U606" s="15"/>
+      <c r="V606" s="15"/>
+      <c r="W606" s="15"/>
       <c r="X606" s="15"/>
       <c r="Y606" s="15"/>
       <c r="Z606" s="15"/>
@@ -30060,7 +30115,7 @@
       <c r="T607" s="20"/>
       <c r="U607" s="20"/>
       <c r="V607" s="20"/>
-      <c r="W607" s="15"/>
+      <c r="W607" s="20"/>
       <c r="X607" s="15"/>
       <c r="Y607" s="15"/>
       <c r="Z607" s="15"/>
@@ -30069,13 +30124,13 @@
       <c r="AC607" s="15"/>
     </row>
     <row r="608" spans="9:29">
-      <c r="Q608" s="15"/>
-      <c r="R608" s="15"/>
-      <c r="S608" s="15"/>
-      <c r="T608" s="15"/>
-      <c r="U608" s="15"/>
-      <c r="V608" s="15"/>
-      <c r="W608" s="15"/>
+      <c r="Q608" s="20"/>
+      <c r="R608" s="20"/>
+      <c r="S608" s="20"/>
+      <c r="T608" s="20"/>
+      <c r="U608" s="20"/>
+      <c r="V608" s="20"/>
+      <c r="W608" s="20"/>
       <c r="X608" s="15"/>
       <c r="Y608" s="15"/>
       <c r="Z608" s="15"/>
@@ -30084,13 +30139,13 @@
       <c r="AC608" s="15"/>
     </row>
     <row r="609" spans="9:29">
-      <c r="Q609" s="20"/>
-      <c r="R609" s="20"/>
-      <c r="S609" s="20"/>
-      <c r="T609" s="20"/>
-      <c r="U609" s="20"/>
-      <c r="V609" s="20"/>
-      <c r="W609" s="20"/>
+      <c r="Q609" s="15"/>
+      <c r="R609" s="15"/>
+      <c r="S609" s="15"/>
+      <c r="T609" s="15"/>
+      <c r="U609" s="15"/>
+      <c r="V609" s="15"/>
+      <c r="W609" s="15"/>
       <c r="X609" s="15"/>
       <c r="Y609" s="15"/>
       <c r="Z609" s="15"/>
@@ -30105,7 +30160,7 @@
       <c r="T610" s="20"/>
       <c r="U610" s="20"/>
       <c r="V610" s="20"/>
-      <c r="W610" s="20"/>
+      <c r="W610" s="15"/>
       <c r="X610" s="15"/>
       <c r="Y610" s="15"/>
       <c r="Z610" s="15"/>
@@ -30114,13 +30169,13 @@
       <c r="AC610" s="15"/>
     </row>
     <row r="611" spans="9:29">
-      <c r="Q611" s="15"/>
-      <c r="R611" s="15"/>
-      <c r="S611" s="15"/>
-      <c r="T611" s="15"/>
-      <c r="U611" s="15"/>
-      <c r="V611" s="15"/>
-      <c r="W611" s="15"/>
+      <c r="Q611" s="20"/>
+      <c r="R611" s="20"/>
+      <c r="S611" s="20"/>
+      <c r="T611" s="20"/>
+      <c r="U611" s="20"/>
+      <c r="V611" s="20"/>
+      <c r="W611" s="20"/>
       <c r="X611" s="15"/>
       <c r="Y611" s="15"/>
       <c r="Z611" s="15"/>
@@ -30135,7 +30190,7 @@
       <c r="T612" s="20"/>
       <c r="U612" s="20"/>
       <c r="V612" s="20"/>
-      <c r="W612" s="15"/>
+      <c r="W612" s="20"/>
       <c r="X612" s="15"/>
       <c r="Y612" s="15"/>
       <c r="Z612" s="15"/>
@@ -30180,7 +30235,7 @@
       <c r="T615" s="20"/>
       <c r="U615" s="20"/>
       <c r="V615" s="20"/>
-      <c r="W615" s="20"/>
+      <c r="W615" s="15"/>
       <c r="X615" s="15"/>
       <c r="Y615" s="15"/>
       <c r="Z615" s="15"/>
@@ -30189,6 +30244,8 @@
       <c r="AC615" s="15"/>
     </row>
     <row r="616" spans="9:29">
+      <c r="J616" s="35"/>
+      <c r="K616" s="35"/>
       <c r="Q616" s="20"/>
       <c r="R616" s="20"/>
       <c r="S616" s="20"/>
@@ -30204,13 +30261,15 @@
       <c r="AC616" s="15"/>
     </row>
     <row r="617" spans="9:29">
+      <c r="I617" s="35"/>
+      <c r="L617" s="35"/>
       <c r="Q617" s="20"/>
       <c r="R617" s="20"/>
       <c r="S617" s="20"/>
       <c r="T617" s="20"/>
       <c r="U617" s="20"/>
       <c r="V617" s="20"/>
-      <c r="W617" s="15"/>
+      <c r="W617" s="20"/>
       <c r="X617" s="15"/>
       <c r="Y617" s="15"/>
       <c r="Z617" s="15"/>
@@ -30253,15 +30312,13 @@
       <c r="AC619" s="15"/>
     </row>
     <row r="620" spans="9:29">
-      <c r="J620" s="35"/>
-      <c r="K620" s="35"/>
       <c r="Q620" s="20"/>
       <c r="R620" s="20"/>
       <c r="S620" s="20"/>
       <c r="T620" s="20"/>
       <c r="U620" s="20"/>
       <c r="V620" s="20"/>
-      <c r="W620" s="20"/>
+      <c r="W620" s="15"/>
       <c r="X620" s="15"/>
       <c r="Y620" s="15"/>
       <c r="Z620" s="15"/>
@@ -30270,15 +30327,13 @@
       <c r="AC620" s="15"/>
     </row>
     <row r="621" spans="9:29">
-      <c r="I621" s="35"/>
-      <c r="L621" s="35"/>
       <c r="Q621" s="20"/>
       <c r="R621" s="20"/>
       <c r="S621" s="20"/>
       <c r="T621" s="20"/>
       <c r="U621" s="20"/>
       <c r="V621" s="20"/>
-      <c r="W621" s="20"/>
+      <c r="W621" s="15"/>
       <c r="X621" s="15"/>
       <c r="Y621" s="15"/>
       <c r="Z621" s="15"/>
@@ -30308,7 +30363,7 @@
       <c r="T623" s="20"/>
       <c r="U623" s="20"/>
       <c r="V623" s="20"/>
-      <c r="W623" s="15"/>
+      <c r="W623" s="20"/>
       <c r="X623" s="15"/>
       <c r="Y623" s="15"/>
       <c r="Z623" s="15"/>
@@ -30323,7 +30378,7 @@
       <c r="T624" s="20"/>
       <c r="U624" s="20"/>
       <c r="V624" s="20"/>
-      <c r="W624" s="15"/>
+      <c r="W624" s="20"/>
       <c r="X624" s="15"/>
       <c r="Y624" s="15"/>
       <c r="Z624" s="15"/>
@@ -30332,13 +30387,13 @@
       <c r="AC624" s="15"/>
     </row>
     <row r="625" spans="9:29">
-      <c r="Q625" s="20"/>
-      <c r="R625" s="20"/>
-      <c r="S625" s="20"/>
-      <c r="T625" s="20"/>
-      <c r="U625" s="20"/>
-      <c r="V625" s="20"/>
-      <c r="W625" s="20"/>
+      <c r="Q625" s="15"/>
+      <c r="R625" s="15"/>
+      <c r="S625" s="15"/>
+      <c r="T625" s="15"/>
+      <c r="U625" s="15"/>
+      <c r="V625" s="15"/>
+      <c r="W625" s="15"/>
       <c r="X625" s="15"/>
       <c r="Y625" s="15"/>
       <c r="Z625" s="15"/>
@@ -30347,13 +30402,13 @@
       <c r="AC625" s="15"/>
     </row>
     <row r="626" spans="9:29">
-      <c r="Q626" s="20"/>
-      <c r="R626" s="20"/>
-      <c r="S626" s="20"/>
-      <c r="T626" s="20"/>
-      <c r="U626" s="20"/>
-      <c r="V626" s="20"/>
-      <c r="W626" s="20"/>
+      <c r="Q626" s="15"/>
+      <c r="R626" s="15"/>
+      <c r="S626" s="15"/>
+      <c r="T626" s="15"/>
+      <c r="U626" s="15"/>
+      <c r="V626" s="15"/>
+      <c r="W626" s="15"/>
       <c r="X626" s="15"/>
       <c r="Y626" s="15"/>
       <c r="Z626" s="15"/>
@@ -30362,14 +30417,15 @@
       <c r="AC626" s="15"/>
     </row>
     <row r="627" spans="9:29">
-      <c r="Q627" s="15"/>
-      <c r="R627" s="15"/>
-      <c r="S627" s="15"/>
-      <c r="T627" s="15"/>
-      <c r="U627" s="15"/>
-      <c r="V627" s="15"/>
-      <c r="W627" s="15"/>
-      <c r="X627" s="15"/>
+      <c r="P627" s="18"/>
+      <c r="Q627" s="20"/>
+      <c r="R627" s="20"/>
+      <c r="S627" s="20"/>
+      <c r="T627" s="20"/>
+      <c r="U627" s="20"/>
+      <c r="V627" s="20"/>
+      <c r="W627" s="20"/>
+      <c r="X627" s="20"/>
       <c r="Y627" s="15"/>
       <c r="Z627" s="15"/>
       <c r="AA627" s="15"/>
@@ -30377,12 +30433,12 @@
       <c r="AC627" s="15"/>
     </row>
     <row r="628" spans="9:29">
-      <c r="Q628" s="15"/>
-      <c r="R628" s="15"/>
-      <c r="S628" s="15"/>
-      <c r="T628" s="15"/>
-      <c r="U628" s="15"/>
-      <c r="V628" s="15"/>
+      <c r="Q628" s="20"/>
+      <c r="R628" s="20"/>
+      <c r="S628" s="20"/>
+      <c r="T628" s="20"/>
+      <c r="U628" s="20"/>
+      <c r="V628" s="20"/>
       <c r="W628" s="15"/>
       <c r="X628" s="15"/>
       <c r="Y628" s="15"/>
@@ -30392,15 +30448,14 @@
       <c r="AC628" s="15"/>
     </row>
     <row r="629" spans="9:29">
-      <c r="P629" s="18"/>
       <c r="Q629" s="20"/>
       <c r="R629" s="20"/>
       <c r="S629" s="20"/>
       <c r="T629" s="20"/>
       <c r="U629" s="20"/>
       <c r="V629" s="20"/>
-      <c r="W629" s="20"/>
-      <c r="X629" s="20"/>
+      <c r="W629" s="15"/>
+      <c r="X629" s="15"/>
       <c r="Y629" s="15"/>
       <c r="Z629" s="15"/>
       <c r="AA629" s="15"/>
@@ -30414,7 +30469,7 @@
       <c r="T630" s="20"/>
       <c r="U630" s="20"/>
       <c r="V630" s="20"/>
-      <c r="W630" s="15"/>
+      <c r="W630" s="20"/>
       <c r="X630" s="15"/>
       <c r="Y630" s="15"/>
       <c r="Z630" s="15"/>
@@ -30423,13 +30478,15 @@
       <c r="AC630" s="15"/>
     </row>
     <row r="631" spans="9:29">
+      <c r="J631" s="35"/>
+      <c r="K631" s="35"/>
       <c r="Q631" s="20"/>
       <c r="R631" s="20"/>
       <c r="S631" s="20"/>
       <c r="T631" s="20"/>
       <c r="U631" s="20"/>
       <c r="V631" s="20"/>
-      <c r="W631" s="15"/>
+      <c r="W631" s="20"/>
       <c r="X631" s="15"/>
       <c r="Y631" s="15"/>
       <c r="Z631" s="15"/>
@@ -30438,6 +30495,8 @@
       <c r="AC631" s="15"/>
     </row>
     <row r="632" spans="9:29">
+      <c r="I632" s="35"/>
+      <c r="L632" s="35"/>
       <c r="Q632" s="20"/>
       <c r="R632" s="20"/>
       <c r="S632" s="20"/>
@@ -30453,15 +30512,13 @@
       <c r="AC632" s="15"/>
     </row>
     <row r="633" spans="9:29">
-      <c r="J633" s="35"/>
-      <c r="K633" s="35"/>
       <c r="Q633" s="20"/>
       <c r="R633" s="20"/>
       <c r="S633" s="20"/>
       <c r="T633" s="20"/>
       <c r="U633" s="20"/>
       <c r="V633" s="20"/>
-      <c r="W633" s="20"/>
+      <c r="W633" s="15"/>
       <c r="X633" s="15"/>
       <c r="Y633" s="15"/>
       <c r="Z633" s="15"/>
@@ -30470,8 +30527,6 @@
       <c r="AC633" s="15"/>
     </row>
     <row r="634" spans="9:29">
-      <c r="I634" s="35"/>
-      <c r="L634" s="35"/>
       <c r="Q634" s="20"/>
       <c r="R634" s="20"/>
       <c r="S634" s="20"/>
@@ -30487,12 +30542,12 @@
       <c r="AC634" s="15"/>
     </row>
     <row r="635" spans="9:29">
-      <c r="Q635" s="20"/>
-      <c r="R635" s="20"/>
-      <c r="S635" s="20"/>
-      <c r="T635" s="20"/>
-      <c r="U635" s="20"/>
-      <c r="V635" s="20"/>
+      <c r="Q635" s="15"/>
+      <c r="R635" s="15"/>
+      <c r="S635" s="15"/>
+      <c r="T635" s="15"/>
+      <c r="U635" s="15"/>
+      <c r="V635" s="15"/>
       <c r="W635" s="15"/>
       <c r="X635" s="15"/>
       <c r="Y635" s="15"/>
@@ -30502,6 +30557,7 @@
       <c r="AC635" s="15"/>
     </row>
     <row r="636" spans="9:29">
+      <c r="P636" s="18"/>
       <c r="Q636" s="20"/>
       <c r="R636" s="20"/>
       <c r="S636" s="20"/>
@@ -30509,7 +30565,7 @@
       <c r="U636" s="20"/>
       <c r="V636" s="20"/>
       <c r="W636" s="20"/>
-      <c r="X636" s="15"/>
+      <c r="X636" s="20"/>
       <c r="Y636" s="15"/>
       <c r="Z636" s="15"/>
       <c r="AA636" s="15"/>
@@ -30517,12 +30573,12 @@
       <c r="AC636" s="15"/>
     </row>
     <row r="637" spans="9:29">
-      <c r="Q637" s="15"/>
-      <c r="R637" s="15"/>
-      <c r="S637" s="15"/>
-      <c r="T637" s="15"/>
-      <c r="U637" s="15"/>
-      <c r="V637" s="15"/>
+      <c r="Q637" s="20"/>
+      <c r="R637" s="20"/>
+      <c r="S637" s="20"/>
+      <c r="T637" s="20"/>
+      <c r="U637" s="20"/>
+      <c r="V637" s="20"/>
       <c r="W637" s="15"/>
       <c r="X637" s="15"/>
       <c r="Y637" s="15"/>
@@ -30532,15 +30588,14 @@
       <c r="AC637" s="15"/>
     </row>
     <row r="638" spans="9:29">
-      <c r="P638" s="18"/>
       <c r="Q638" s="20"/>
       <c r="R638" s="20"/>
       <c r="S638" s="20"/>
       <c r="T638" s="20"/>
       <c r="U638" s="20"/>
       <c r="V638" s="20"/>
-      <c r="W638" s="20"/>
-      <c r="X638" s="20"/>
+      <c r="W638" s="15"/>
+      <c r="X638" s="15"/>
       <c r="Y638" s="15"/>
       <c r="Z638" s="15"/>
       <c r="AA638" s="15"/>
@@ -30554,7 +30609,7 @@
       <c r="T639" s="20"/>
       <c r="U639" s="20"/>
       <c r="V639" s="20"/>
-      <c r="W639" s="15"/>
+      <c r="W639" s="20"/>
       <c r="X639" s="15"/>
       <c r="Y639" s="15"/>
       <c r="Z639" s="15"/>
@@ -30569,7 +30624,7 @@
       <c r="T640" s="20"/>
       <c r="U640" s="20"/>
       <c r="V640" s="20"/>
-      <c r="W640" s="15"/>
+      <c r="W640" s="20"/>
       <c r="X640" s="15"/>
       <c r="Y640" s="15"/>
       <c r="Z640" s="15"/>
@@ -30584,7 +30639,7 @@
       <c r="T641" s="20"/>
       <c r="U641" s="20"/>
       <c r="V641" s="20"/>
-      <c r="W641" s="20"/>
+      <c r="W641" s="15"/>
       <c r="X641" s="15"/>
       <c r="Y641" s="15"/>
       <c r="Z641" s="15"/>
@@ -30608,12 +30663,12 @@
       <c r="AC642" s="15"/>
     </row>
     <row r="643" spans="16:29">
-      <c r="Q643" s="20"/>
-      <c r="R643" s="20"/>
-      <c r="S643" s="20"/>
-      <c r="T643" s="20"/>
-      <c r="U643" s="20"/>
-      <c r="V643" s="20"/>
+      <c r="Q643" s="15"/>
+      <c r="R643" s="15"/>
+      <c r="S643" s="15"/>
+      <c r="T643" s="15"/>
+      <c r="U643" s="15"/>
+      <c r="V643" s="15"/>
       <c r="W643" s="15"/>
       <c r="X643" s="15"/>
       <c r="Y643" s="15"/>
@@ -30623,6 +30678,7 @@
       <c r="AC643" s="15"/>
     </row>
     <row r="644" spans="16:29">
+      <c r="P644" s="18"/>
       <c r="Q644" s="20"/>
       <c r="R644" s="20"/>
       <c r="S644" s="20"/>
@@ -30630,7 +30686,7 @@
       <c r="U644" s="20"/>
       <c r="V644" s="20"/>
       <c r="W644" s="20"/>
-      <c r="X644" s="15"/>
+      <c r="X644" s="20"/>
       <c r="Y644" s="15"/>
       <c r="Z644" s="15"/>
       <c r="AA644" s="15"/>
@@ -30638,12 +30694,12 @@
       <c r="AC644" s="15"/>
     </row>
     <row r="645" spans="16:29">
-      <c r="Q645" s="15"/>
-      <c r="R645" s="15"/>
-      <c r="S645" s="15"/>
-      <c r="T645" s="15"/>
-      <c r="U645" s="15"/>
-      <c r="V645" s="15"/>
+      <c r="Q645" s="20"/>
+      <c r="R645" s="20"/>
+      <c r="S645" s="20"/>
+      <c r="T645" s="20"/>
+      <c r="U645" s="20"/>
+      <c r="V645" s="20"/>
       <c r="W645" s="15"/>
       <c r="X645" s="15"/>
       <c r="Y645" s="15"/>
@@ -30653,7 +30709,6 @@
       <c r="AC645" s="15"/>
     </row>
     <row r="646" spans="16:29">
-      <c r="P646" s="18"/>
       <c r="Q646" s="20"/>
       <c r="R646" s="20"/>
       <c r="S646" s="20"/>
@@ -30661,7 +30716,7 @@
       <c r="U646" s="20"/>
       <c r="V646" s="20"/>
       <c r="W646" s="20"/>
-      <c r="X646" s="20"/>
+      <c r="X646" s="15"/>
       <c r="Y646" s="15"/>
       <c r="Z646" s="15"/>
       <c r="AA646" s="15"/>
@@ -30675,7 +30730,7 @@
       <c r="T647" s="20"/>
       <c r="U647" s="20"/>
       <c r="V647" s="20"/>
-      <c r="W647" s="15"/>
+      <c r="W647" s="20"/>
       <c r="X647" s="15"/>
       <c r="Y647" s="15"/>
       <c r="Z647" s="15"/>
@@ -30690,7 +30745,7 @@
       <c r="T648" s="20"/>
       <c r="U648" s="20"/>
       <c r="V648" s="20"/>
-      <c r="W648" s="20"/>
+      <c r="W648" s="15"/>
       <c r="X648" s="15"/>
       <c r="Y648" s="15"/>
       <c r="Z648" s="15"/>
@@ -30705,7 +30760,7 @@
       <c r="T649" s="20"/>
       <c r="U649" s="20"/>
       <c r="V649" s="20"/>
-      <c r="W649" s="20"/>
+      <c r="W649" s="15"/>
       <c r="X649" s="15"/>
       <c r="Y649" s="15"/>
       <c r="Z649" s="15"/>
@@ -30729,12 +30784,12 @@
       <c r="AC650" s="15"/>
     </row>
     <row r="651" spans="16:29">
-      <c r="Q651" s="20"/>
-      <c r="R651" s="20"/>
-      <c r="S651" s="20"/>
-      <c r="T651" s="20"/>
-      <c r="U651" s="20"/>
-      <c r="V651" s="20"/>
+      <c r="Q651" s="15"/>
+      <c r="R651" s="15"/>
+      <c r="S651" s="15"/>
+      <c r="T651" s="15"/>
+      <c r="U651" s="15"/>
+      <c r="V651" s="15"/>
       <c r="W651" s="15"/>
       <c r="X651" s="15"/>
       <c r="Y651" s="15"/>
@@ -30759,12 +30814,12 @@
       <c r="AC652" s="15"/>
     </row>
     <row r="653" spans="16:29">
-      <c r="Q653" s="15"/>
-      <c r="R653" s="15"/>
-      <c r="S653" s="15"/>
-      <c r="T653" s="15"/>
-      <c r="U653" s="15"/>
-      <c r="V653" s="15"/>
+      <c r="Q653" s="20"/>
+      <c r="R653" s="20"/>
+      <c r="S653" s="20"/>
+      <c r="T653" s="20"/>
+      <c r="U653" s="20"/>
+      <c r="V653" s="20"/>
       <c r="W653" s="15"/>
       <c r="X653" s="15"/>
       <c r="Y653" s="15"/>
@@ -30774,14 +30829,15 @@
       <c r="AC653" s="15"/>
     </row>
     <row r="654" spans="16:29">
+      <c r="P654" s="18"/>
       <c r="Q654" s="20"/>
       <c r="R654" s="20"/>
       <c r="S654" s="20"/>
       <c r="T654" s="20"/>
       <c r="U654" s="20"/>
       <c r="V654" s="20"/>
-      <c r="W654" s="15"/>
-      <c r="X654" s="15"/>
+      <c r="W654" s="20"/>
+      <c r="X654" s="20"/>
       <c r="Y654" s="15"/>
       <c r="Z654" s="15"/>
       <c r="AA654" s="15"/>
@@ -30804,7 +30860,6 @@
       <c r="AC655" s="15"/>
     </row>
     <row r="656" spans="16:29">
-      <c r="P656" s="18"/>
       <c r="Q656" s="20"/>
       <c r="R656" s="20"/>
       <c r="S656" s="20"/>
@@ -30812,7 +30867,7 @@
       <c r="U656" s="20"/>
       <c r="V656" s="20"/>
       <c r="W656" s="20"/>
-      <c r="X656" s="20"/>
+      <c r="X656" s="15"/>
       <c r="Y656" s="15"/>
       <c r="Z656" s="15"/>
       <c r="AA656" s="15"/>
@@ -30841,7 +30896,7 @@
       <c r="T658" s="20"/>
       <c r="U658" s="20"/>
       <c r="V658" s="20"/>
-      <c r="W658" s="20"/>
+      <c r="W658" s="15"/>
       <c r="X658" s="15"/>
       <c r="Y658" s="15"/>
       <c r="Z658" s="15"/>
@@ -30856,7 +30911,7 @@
       <c r="T659" s="20"/>
       <c r="U659" s="20"/>
       <c r="V659" s="20"/>
-      <c r="W659" s="15"/>
+      <c r="W659" s="20"/>
       <c r="X659" s="15"/>
       <c r="Y659" s="15"/>
       <c r="Z659" s="15"/>
@@ -30880,6 +30935,7 @@
       <c r="AC660" s="15"/>
     </row>
     <row r="661" spans="16:29">
+      <c r="P661" s="18"/>
       <c r="Q661" s="20"/>
       <c r="R661" s="20"/>
       <c r="S661" s="20"/>
@@ -30887,7 +30943,7 @@
       <c r="U661" s="20"/>
       <c r="V661" s="20"/>
       <c r="W661" s="20"/>
-      <c r="X661" s="15"/>
+      <c r="X661" s="20"/>
       <c r="Y661" s="15"/>
       <c r="Z661" s="15"/>
       <c r="AA661" s="15"/>
@@ -30910,7 +30966,6 @@
       <c r="AC662" s="15"/>
     </row>
     <row r="663" spans="16:29">
-      <c r="P663" s="18"/>
       <c r="Q663" s="20"/>
       <c r="R663" s="20"/>
       <c r="S663" s="20"/>
@@ -30918,7 +30973,7 @@
       <c r="U663" s="20"/>
       <c r="V663" s="20"/>
       <c r="W663" s="20"/>
-      <c r="X663" s="20"/>
+      <c r="X663" s="15"/>
       <c r="Y663" s="15"/>
       <c r="Z663" s="15"/>
       <c r="AA663" s="15"/>
@@ -31007,7 +31062,7 @@
       <c r="T669" s="20"/>
       <c r="U669" s="20"/>
       <c r="V669" s="20"/>
-      <c r="W669" s="20"/>
+      <c r="W669" s="15"/>
       <c r="X669" s="15"/>
       <c r="Y669" s="15"/>
       <c r="Z669" s="15"/>
@@ -31016,12 +31071,12 @@
       <c r="AC669" s="15"/>
     </row>
     <row r="670" spans="16:29">
-      <c r="Q670" s="20"/>
-      <c r="R670" s="20"/>
-      <c r="S670" s="20"/>
-      <c r="T670" s="20"/>
-      <c r="U670" s="20"/>
-      <c r="V670" s="20"/>
+      <c r="Q670" s="15"/>
+      <c r="R670" s="15"/>
+      <c r="S670" s="15"/>
+      <c r="T670" s="15"/>
+      <c r="U670" s="15"/>
+      <c r="V670" s="15"/>
       <c r="W670" s="15"/>
       <c r="X670" s="15"/>
       <c r="Y670" s="15"/>
@@ -31031,14 +31086,15 @@
       <c r="AC670" s="15"/>
     </row>
     <row r="671" spans="16:29">
+      <c r="P671" s="18"/>
       <c r="Q671" s="20"/>
       <c r="R671" s="20"/>
       <c r="S671" s="20"/>
       <c r="T671" s="20"/>
       <c r="U671" s="20"/>
       <c r="V671" s="20"/>
-      <c r="W671" s="15"/>
-      <c r="X671" s="15"/>
+      <c r="W671" s="20"/>
+      <c r="X671" s="20"/>
       <c r="Y671" s="15"/>
       <c r="Z671" s="15"/>
       <c r="AA671" s="15"/>
@@ -31046,12 +31102,12 @@
       <c r="AC671" s="15"/>
     </row>
     <row r="672" spans="16:29">
-      <c r="Q672" s="15"/>
-      <c r="R672" s="15"/>
-      <c r="S672" s="15"/>
-      <c r="T672" s="15"/>
-      <c r="U672" s="15"/>
-      <c r="V672" s="15"/>
+      <c r="Q672" s="20"/>
+      <c r="R672" s="20"/>
+      <c r="S672" s="20"/>
+      <c r="T672" s="20"/>
+      <c r="U672" s="20"/>
+      <c r="V672" s="20"/>
       <c r="W672" s="15"/>
       <c r="X672" s="15"/>
       <c r="Y672" s="15"/>
@@ -31077,14 +31133,15 @@
       <c r="AC673" s="15"/>
     </row>
     <row r="674" spans="16:29">
+      <c r="P674" s="18"/>
       <c r="Q674" s="20"/>
       <c r="R674" s="20"/>
       <c r="S674" s="20"/>
       <c r="T674" s="20"/>
       <c r="U674" s="20"/>
       <c r="V674" s="20"/>
-      <c r="W674" s="15"/>
-      <c r="X674" s="15"/>
+      <c r="W674" s="20"/>
+      <c r="X674" s="20"/>
       <c r="Y674" s="15"/>
       <c r="Z674" s="15"/>
       <c r="AA674" s="15"/>
@@ -31092,15 +31149,14 @@
       <c r="AC674" s="15"/>
     </row>
     <row r="675" spans="16:29">
-      <c r="P675" s="18"/>
       <c r="Q675" s="20"/>
       <c r="R675" s="20"/>
       <c r="S675" s="20"/>
       <c r="T675" s="20"/>
       <c r="U675" s="20"/>
       <c r="V675" s="20"/>
-      <c r="W675" s="20"/>
-      <c r="X675" s="20"/>
+      <c r="W675" s="15"/>
+      <c r="X675" s="15"/>
       <c r="Y675" s="15"/>
       <c r="Z675" s="15"/>
       <c r="AA675" s="15"/>
@@ -31108,15 +31164,14 @@
       <c r="AC675" s="15"/>
     </row>
     <row r="676" spans="16:29">
-      <c r="P676" s="18"/>
       <c r="Q676" s="20"/>
       <c r="R676" s="20"/>
       <c r="S676" s="20"/>
       <c r="T676" s="20"/>
       <c r="U676" s="20"/>
       <c r="V676" s="20"/>
-      <c r="W676" s="20"/>
-      <c r="X676" s="20"/>
+      <c r="W676" s="15"/>
+      <c r="X676" s="15"/>
       <c r="Y676" s="15"/>
       <c r="Z676" s="15"/>
       <c r="AA676" s="15"/>
@@ -31130,7 +31185,7 @@
       <c r="T677" s="20"/>
       <c r="U677" s="20"/>
       <c r="V677" s="20"/>
-      <c r="W677" s="15"/>
+      <c r="W677" s="20"/>
       <c r="X677" s="15"/>
       <c r="Y677" s="15"/>
       <c r="Z677" s="15"/>
@@ -31139,14 +31194,15 @@
       <c r="AC677" s="15"/>
     </row>
     <row r="678" spans="16:29">
+      <c r="P678" s="18"/>
       <c r="Q678" s="20"/>
       <c r="R678" s="20"/>
       <c r="S678" s="20"/>
       <c r="T678" s="20"/>
       <c r="U678" s="20"/>
       <c r="V678" s="20"/>
-      <c r="W678" s="15"/>
-      <c r="X678" s="15"/>
+      <c r="W678" s="20"/>
+      <c r="X678" s="20"/>
       <c r="Y678" s="15"/>
       <c r="Z678" s="15"/>
       <c r="AA678" s="15"/>
@@ -31154,6 +31210,7 @@
       <c r="AC678" s="15"/>
     </row>
     <row r="679" spans="16:29">
+      <c r="P679" s="18"/>
       <c r="Q679" s="20"/>
       <c r="R679" s="20"/>
       <c r="S679" s="20"/>
@@ -31161,7 +31218,7 @@
       <c r="U679" s="20"/>
       <c r="V679" s="20"/>
       <c r="W679" s="20"/>
-      <c r="X679" s="15"/>
+      <c r="X679" s="20"/>
       <c r="Y679" s="15"/>
       <c r="Z679" s="15"/>
       <c r="AA679" s="15"/>
@@ -31169,7 +31226,6 @@
       <c r="AC679" s="15"/>
     </row>
     <row r="680" spans="16:29">
-      <c r="P680" s="18"/>
       <c r="Q680" s="20"/>
       <c r="R680" s="20"/>
       <c r="S680" s="20"/>
@@ -31177,7 +31233,7 @@
       <c r="U680" s="20"/>
       <c r="V680" s="20"/>
       <c r="W680" s="20"/>
-      <c r="X680" s="20"/>
+      <c r="X680" s="15"/>
       <c r="Y680" s="15"/>
       <c r="Z680" s="15"/>
       <c r="AA680" s="15"/>
@@ -31201,6 +31257,7 @@
       <c r="AC681" s="15"/>
     </row>
     <row r="682" spans="16:29">
+      <c r="P682" s="18"/>
       <c r="Q682" s="20"/>
       <c r="R682" s="20"/>
       <c r="S682" s="20"/>
@@ -31208,7 +31265,7 @@
       <c r="U682" s="20"/>
       <c r="V682" s="20"/>
       <c r="W682" s="20"/>
-      <c r="X682" s="15"/>
+      <c r="X682" s="20"/>
       <c r="Y682" s="15"/>
       <c r="Z682" s="15"/>
       <c r="AA682" s="15"/>
@@ -31248,15 +31305,14 @@
       <c r="AC684" s="15"/>
     </row>
     <row r="685" spans="16:29">
-      <c r="P685" s="18"/>
       <c r="Q685" s="20"/>
       <c r="R685" s="20"/>
       <c r="S685" s="20"/>
       <c r="T685" s="20"/>
       <c r="U685" s="20"/>
       <c r="V685" s="20"/>
-      <c r="W685" s="20"/>
-      <c r="X685" s="20"/>
+      <c r="W685" s="15"/>
+      <c r="X685" s="15"/>
       <c r="Y685" s="15"/>
       <c r="Z685" s="15"/>
       <c r="AA685" s="15"/>
@@ -31264,7 +31320,6 @@
       <c r="AC685" s="15"/>
     </row>
     <row r="686" spans="16:29">
-      <c r="P686" s="18"/>
       <c r="Q686" s="20"/>
       <c r="R686" s="20"/>
       <c r="S686" s="20"/>
@@ -31272,7 +31327,7 @@
       <c r="U686" s="20"/>
       <c r="V686" s="20"/>
       <c r="W686" s="20"/>
-      <c r="X686" s="20"/>
+      <c r="X686" s="15"/>
       <c r="Y686" s="15"/>
       <c r="Z686" s="15"/>
       <c r="AA686" s="15"/>
@@ -31325,13 +31380,13 @@
       <c r="AC689" s="15"/>
     </row>
     <row r="690" spans="17:29">
-      <c r="Q690" s="20"/>
-      <c r="R690" s="20"/>
-      <c r="S690" s="20"/>
-      <c r="T690" s="20"/>
-      <c r="U690" s="20"/>
-      <c r="V690" s="20"/>
-      <c r="W690" s="20"/>
+      <c r="Q690" s="15"/>
+      <c r="R690" s="15"/>
+      <c r="S690" s="15"/>
+      <c r="T690" s="15"/>
+      <c r="U690" s="15"/>
+      <c r="V690" s="15"/>
+      <c r="W690" s="15"/>
       <c r="X690" s="15"/>
       <c r="Y690" s="15"/>
       <c r="Z690" s="15"/>
@@ -31355,12 +31410,12 @@
       <c r="AC691" s="15"/>
     </row>
     <row r="692" spans="17:29">
-      <c r="Q692" s="15"/>
-      <c r="R692" s="15"/>
-      <c r="S692" s="15"/>
-      <c r="T692" s="15"/>
-      <c r="U692" s="15"/>
-      <c r="V692" s="15"/>
+      <c r="Q692" s="20"/>
+      <c r="R692" s="20"/>
+      <c r="S692" s="20"/>
+      <c r="T692" s="20"/>
+      <c r="U692" s="20"/>
+      <c r="V692" s="20"/>
       <c r="W692" s="15"/>
       <c r="X692" s="15"/>
       <c r="Y692" s="15"/>
@@ -31376,7 +31431,7 @@
       <c r="T693" s="20"/>
       <c r="U693" s="20"/>
       <c r="V693" s="20"/>
-      <c r="W693" s="15"/>
+      <c r="W693" s="20"/>
       <c r="X693" s="15"/>
       <c r="Y693" s="15"/>
       <c r="Z693" s="15"/>
@@ -31391,7 +31446,7 @@
       <c r="T694" s="20"/>
       <c r="U694" s="20"/>
       <c r="V694" s="20"/>
-      <c r="W694" s="15"/>
+      <c r="W694" s="20"/>
       <c r="X694" s="15"/>
       <c r="Y694" s="15"/>
       <c r="Z694" s="15"/>
@@ -31406,7 +31461,7 @@
       <c r="T695" s="20"/>
       <c r="U695" s="20"/>
       <c r="V695" s="20"/>
-      <c r="W695" s="20"/>
+      <c r="W695" s="15"/>
       <c r="X695" s="15"/>
       <c r="Y695" s="15"/>
       <c r="Z695" s="15"/>
@@ -31466,7 +31521,7 @@
       <c r="T699" s="20"/>
       <c r="U699" s="20"/>
       <c r="V699" s="20"/>
-      <c r="W699" s="15"/>
+      <c r="W699" s="20"/>
       <c r="X699" s="15"/>
       <c r="Y699" s="15"/>
       <c r="Z699" s="15"/>
@@ -31481,7 +31536,7 @@
       <c r="T700" s="20"/>
       <c r="U700" s="20"/>
       <c r="V700" s="20"/>
-      <c r="W700" s="20"/>
+      <c r="W700" s="15"/>
       <c r="X700" s="15"/>
       <c r="Y700" s="15"/>
       <c r="Z700" s="15"/>
@@ -31496,7 +31551,7 @@
       <c r="T701" s="20"/>
       <c r="U701" s="20"/>
       <c r="V701" s="20"/>
-      <c r="W701" s="20"/>
+      <c r="W701" s="15"/>
       <c r="X701" s="15"/>
       <c r="Y701" s="15"/>
       <c r="Z701" s="15"/>
@@ -31505,12 +31560,12 @@
       <c r="AC701" s="15"/>
     </row>
     <row r="702" spans="17:29">
-      <c r="Q702" s="20"/>
-      <c r="R702" s="20"/>
-      <c r="S702" s="20"/>
-      <c r="T702" s="20"/>
-      <c r="U702" s="20"/>
-      <c r="V702" s="20"/>
+      <c r="Q702" s="15"/>
+      <c r="R702" s="15"/>
+      <c r="S702" s="15"/>
+      <c r="T702" s="15"/>
+      <c r="U702" s="15"/>
+      <c r="V702" s="15"/>
       <c r="W702" s="15"/>
       <c r="X702" s="15"/>
       <c r="Y702" s="15"/>
@@ -31535,12 +31590,12 @@
       <c r="AC703" s="15"/>
     </row>
     <row r="704" spans="17:29">
-      <c r="Q704" s="15"/>
-      <c r="R704" s="15"/>
-      <c r="S704" s="15"/>
-      <c r="T704" s="15"/>
-      <c r="U704" s="15"/>
-      <c r="V704" s="15"/>
+      <c r="Q704" s="20"/>
+      <c r="R704" s="20"/>
+      <c r="S704" s="20"/>
+      <c r="T704" s="20"/>
+      <c r="U704" s="20"/>
+      <c r="V704" s="20"/>
       <c r="W704" s="15"/>
       <c r="X704" s="15"/>
       <c r="Y704" s="15"/>
@@ -31556,7 +31611,7 @@
       <c r="T705" s="20"/>
       <c r="U705" s="20"/>
       <c r="V705" s="20"/>
-      <c r="W705" s="15"/>
+      <c r="W705" s="20"/>
       <c r="X705" s="15"/>
       <c r="Y705" s="15"/>
       <c r="Z705" s="15"/>
@@ -31571,7 +31626,7 @@
       <c r="T706" s="20"/>
       <c r="U706" s="20"/>
       <c r="V706" s="20"/>
-      <c r="W706" s="15"/>
+      <c r="W706" s="20"/>
       <c r="X706" s="15"/>
       <c r="Y706" s="15"/>
       <c r="Z706" s="15"/>
@@ -31586,7 +31641,7 @@
       <c r="T707" s="20"/>
       <c r="U707" s="20"/>
       <c r="V707" s="20"/>
-      <c r="W707" s="20"/>
+      <c r="W707" s="15"/>
       <c r="X707" s="15"/>
       <c r="Y707" s="15"/>
       <c r="Z707" s="15"/>
@@ -31646,7 +31701,7 @@
       <c r="T711" s="20"/>
       <c r="U711" s="20"/>
       <c r="V711" s="20"/>
-      <c r="W711" s="15"/>
+      <c r="W711" s="20"/>
       <c r="X711" s="15"/>
       <c r="Y711" s="15"/>
       <c r="Z711" s="15"/>
@@ -31691,7 +31746,7 @@
       <c r="T714" s="20"/>
       <c r="U714" s="20"/>
       <c r="V714" s="20"/>
-      <c r="W714" s="20"/>
+      <c r="W714" s="15"/>
       <c r="X714" s="15"/>
       <c r="Y714" s="15"/>
       <c r="Z714" s="15"/>
@@ -31736,7 +31791,7 @@
       <c r="T717" s="20"/>
       <c r="U717" s="20"/>
       <c r="V717" s="20"/>
-      <c r="W717" s="20"/>
+      <c r="W717" s="15"/>
       <c r="X717" s="15"/>
       <c r="Y717" s="15"/>
       <c r="Z717" s="15"/>
@@ -31745,12 +31800,12 @@
       <c r="AC717" s="15"/>
     </row>
     <row r="718" spans="17:29">
-      <c r="Q718" s="20"/>
-      <c r="R718" s="20"/>
-      <c r="S718" s="20"/>
-      <c r="T718" s="20"/>
-      <c r="U718" s="20"/>
-      <c r="V718" s="20"/>
+      <c r="Q718" s="15"/>
+      <c r="R718" s="15"/>
+      <c r="S718" s="15"/>
+      <c r="T718" s="15"/>
+      <c r="U718" s="15"/>
+      <c r="V718" s="15"/>
       <c r="W718" s="15"/>
       <c r="X718" s="15"/>
       <c r="Y718" s="15"/>
@@ -31775,12 +31830,12 @@
       <c r="AC719" s="15"/>
     </row>
     <row r="720" spans="17:29">
-      <c r="Q720" s="15"/>
-      <c r="R720" s="15"/>
-      <c r="S720" s="15"/>
-      <c r="T720" s="15"/>
-      <c r="U720" s="15"/>
-      <c r="V720" s="15"/>
+      <c r="Q720" s="20"/>
+      <c r="R720" s="20"/>
+      <c r="S720" s="20"/>
+      <c r="T720" s="20"/>
+      <c r="U720" s="20"/>
+      <c r="V720" s="20"/>
       <c r="W720" s="15"/>
       <c r="X720" s="15"/>
       <c r="Y720" s="15"/>
@@ -31976,7 +32031,7 @@
       <c r="T733" s="20"/>
       <c r="U733" s="20"/>
       <c r="V733" s="20"/>
-      <c r="W733" s="15"/>
+      <c r="W733" s="20"/>
       <c r="X733" s="15"/>
       <c r="Y733" s="15"/>
       <c r="Z733" s="15"/>
@@ -32000,13 +32055,13 @@
       <c r="AC734" s="15"/>
     </row>
     <row r="735" spans="17:29">
-      <c r="Q735" s="20"/>
-      <c r="R735" s="20"/>
-      <c r="S735" s="20"/>
-      <c r="T735" s="20"/>
-      <c r="U735" s="20"/>
-      <c r="V735" s="20"/>
-      <c r="W735" s="20"/>
+      <c r="Q735" s="15"/>
+      <c r="R735" s="15"/>
+      <c r="S735" s="15"/>
+      <c r="T735" s="15"/>
+      <c r="U735" s="15"/>
+      <c r="V735" s="15"/>
+      <c r="W735" s="15"/>
       <c r="X735" s="15"/>
       <c r="Y735" s="15"/>
       <c r="Z735" s="15"/>
@@ -32030,12 +32085,12 @@
       <c r="AC736" s="15"/>
     </row>
     <row r="737" spans="17:29">
-      <c r="Q737" s="15"/>
-      <c r="R737" s="15"/>
-      <c r="S737" s="15"/>
-      <c r="T737" s="15"/>
-      <c r="U737" s="15"/>
-      <c r="V737" s="15"/>
+      <c r="Q737" s="20"/>
+      <c r="R737" s="20"/>
+      <c r="S737" s="20"/>
+      <c r="T737" s="20"/>
+      <c r="U737" s="20"/>
+      <c r="V737" s="20"/>
       <c r="W737" s="15"/>
       <c r="X737" s="15"/>
       <c r="Y737" s="15"/>
@@ -32051,7 +32106,7 @@
       <c r="T738" s="20"/>
       <c r="U738" s="20"/>
       <c r="V738" s="20"/>
-      <c r="W738" s="15"/>
+      <c r="W738" s="20"/>
       <c r="X738" s="15"/>
       <c r="Y738" s="15"/>
       <c r="Z738" s="15"/>
@@ -32066,7 +32121,7 @@
       <c r="T739" s="20"/>
       <c r="U739" s="20"/>
       <c r="V739" s="20"/>
-      <c r="W739" s="15"/>
+      <c r="W739" s="20"/>
       <c r="X739" s="15"/>
       <c r="Y739" s="15"/>
       <c r="Z739" s="15"/>
@@ -32096,7 +32151,7 @@
       <c r="T741" s="20"/>
       <c r="U741" s="20"/>
       <c r="V741" s="20"/>
-      <c r="W741" s="20"/>
+      <c r="W741" s="15"/>
       <c r="X741" s="15"/>
       <c r="Y741" s="15"/>
       <c r="Z741" s="15"/>
@@ -32105,13 +32160,13 @@
       <c r="AC741" s="15"/>
     </row>
     <row r="742" spans="17:29">
-      <c r="Q742" s="20"/>
-      <c r="R742" s="20"/>
-      <c r="S742" s="20"/>
-      <c r="T742" s="20"/>
-      <c r="U742" s="20"/>
-      <c r="V742" s="20"/>
-      <c r="W742" s="20"/>
+      <c r="Q742" s="15"/>
+      <c r="R742" s="15"/>
+      <c r="S742" s="15"/>
+      <c r="T742" s="15"/>
+      <c r="U742" s="15"/>
+      <c r="V742" s="15"/>
+      <c r="W742" s="15"/>
       <c r="X742" s="15"/>
       <c r="Y742" s="15"/>
       <c r="Z742" s="15"/>
@@ -32135,12 +32190,12 @@
       <c r="AC743" s="15"/>
     </row>
     <row r="744" spans="17:29">
-      <c r="Q744" s="15"/>
-      <c r="R744" s="15"/>
-      <c r="S744" s="15"/>
-      <c r="T744" s="15"/>
-      <c r="U744" s="15"/>
-      <c r="V744" s="15"/>
+      <c r="Q744" s="20"/>
+      <c r="R744" s="20"/>
+      <c r="S744" s="20"/>
+      <c r="T744" s="20"/>
+      <c r="U744" s="20"/>
+      <c r="V744" s="20"/>
       <c r="W744" s="15"/>
       <c r="X744" s="15"/>
       <c r="Y744" s="15"/>
@@ -32165,12 +32220,12 @@
       <c r="AC745" s="15"/>
     </row>
     <row r="746" spans="17:29">
-      <c r="Q746" s="20"/>
-      <c r="R746" s="20"/>
-      <c r="S746" s="20"/>
-      <c r="T746" s="20"/>
-      <c r="U746" s="20"/>
-      <c r="V746" s="20"/>
+      <c r="Q746" s="15"/>
+      <c r="R746" s="15"/>
+      <c r="S746" s="15"/>
+      <c r="T746" s="15"/>
+      <c r="U746" s="15"/>
+      <c r="V746" s="15"/>
       <c r="W746" s="15"/>
       <c r="X746" s="15"/>
       <c r="Y746" s="15"/>
@@ -32186,7 +32241,7 @@
       <c r="T747" s="20"/>
       <c r="U747" s="20"/>
       <c r="V747" s="20"/>
-      <c r="W747" s="15"/>
+      <c r="W747" s="20"/>
       <c r="X747" s="15"/>
       <c r="Y747" s="15"/>
       <c r="Z747" s="15"/>
@@ -32195,12 +32250,12 @@
       <c r="AC747" s="15"/>
     </row>
     <row r="748" spans="17:29">
-      <c r="Q748" s="15"/>
-      <c r="R748" s="15"/>
-      <c r="S748" s="15"/>
-      <c r="T748" s="15"/>
-      <c r="U748" s="15"/>
-      <c r="V748" s="15"/>
+      <c r="Q748" s="20"/>
+      <c r="R748" s="20"/>
+      <c r="S748" s="20"/>
+      <c r="T748" s="20"/>
+      <c r="U748" s="20"/>
+      <c r="V748" s="20"/>
       <c r="W748" s="15"/>
       <c r="X748" s="15"/>
       <c r="Y748" s="15"/>
@@ -32210,13 +32265,13 @@
       <c r="AC748" s="15"/>
     </row>
     <row r="749" spans="17:29">
-      <c r="Q749" s="20"/>
-      <c r="R749" s="20"/>
-      <c r="S749" s="20"/>
-      <c r="T749" s="20"/>
-      <c r="U749" s="20"/>
-      <c r="V749" s="20"/>
-      <c r="W749" s="20"/>
+      <c r="Q749" s="15"/>
+      <c r="R749" s="15"/>
+      <c r="S749" s="15"/>
+      <c r="T749" s="15"/>
+      <c r="U749" s="15"/>
+      <c r="V749" s="15"/>
+      <c r="W749" s="15"/>
       <c r="X749" s="15"/>
       <c r="Y749" s="15"/>
       <c r="Z749" s="15"/>
@@ -32240,13 +32295,13 @@
       <c r="AC750" s="15"/>
     </row>
     <row r="751" spans="17:29">
-      <c r="Q751" s="15"/>
-      <c r="R751" s="15"/>
-      <c r="S751" s="15"/>
-      <c r="T751" s="15"/>
-      <c r="U751" s="15"/>
-      <c r="V751" s="15"/>
-      <c r="W751" s="15"/>
+      <c r="Q751" s="20"/>
+      <c r="R751" s="20"/>
+      <c r="S751" s="20"/>
+      <c r="T751" s="20"/>
+      <c r="U751" s="20"/>
+      <c r="V751" s="20"/>
+      <c r="W751" s="20"/>
       <c r="X751" s="15"/>
       <c r="Y751" s="15"/>
       <c r="Z751" s="15"/>
@@ -32306,7 +32361,7 @@
       <c r="T755" s="20"/>
       <c r="U755" s="20"/>
       <c r="V755" s="20"/>
-      <c r="W755" s="20"/>
+      <c r="W755" s="15"/>
       <c r="X755" s="15"/>
       <c r="Y755" s="15"/>
       <c r="Z755" s="15"/>
@@ -32321,7 +32376,7 @@
       <c r="T756" s="20"/>
       <c r="U756" s="20"/>
       <c r="V756" s="20"/>
-      <c r="W756" s="15"/>
+      <c r="W756" s="20"/>
       <c r="X756" s="15"/>
       <c r="Y756" s="15"/>
       <c r="Z756" s="15"/>
@@ -32330,12 +32385,12 @@
       <c r="AC756" s="15"/>
     </row>
     <row r="757" spans="17:29">
-      <c r="Q757" s="20"/>
-      <c r="R757" s="20"/>
-      <c r="S757" s="20"/>
-      <c r="T757" s="20"/>
-      <c r="U757" s="20"/>
-      <c r="V757" s="20"/>
+      <c r="Q757" s="15"/>
+      <c r="R757" s="15"/>
+      <c r="S757" s="15"/>
+      <c r="T757" s="15"/>
+      <c r="U757" s="15"/>
+      <c r="V757" s="15"/>
       <c r="W757" s="15"/>
       <c r="X757" s="15"/>
       <c r="Y757" s="15"/>
@@ -32351,7 +32406,7 @@
       <c r="T758" s="20"/>
       <c r="U758" s="20"/>
       <c r="V758" s="20"/>
-      <c r="W758" s="20"/>
+      <c r="W758" s="15"/>
       <c r="X758" s="15"/>
       <c r="Y758" s="15"/>
       <c r="Z758" s="15"/>
@@ -32390,12 +32445,12 @@
       <c r="AC760" s="15"/>
     </row>
     <row r="761" spans="17:29">
-      <c r="Q761" s="15"/>
-      <c r="R761" s="15"/>
-      <c r="S761" s="15"/>
-      <c r="T761" s="15"/>
-      <c r="U761" s="15"/>
-      <c r="V761" s="15"/>
+      <c r="Q761" s="20"/>
+      <c r="R761" s="20"/>
+      <c r="S761" s="20"/>
+      <c r="T761" s="20"/>
+      <c r="U761" s="20"/>
+      <c r="V761" s="20"/>
       <c r="W761" s="15"/>
       <c r="X761" s="15"/>
       <c r="Y761" s="15"/>
@@ -32420,12 +32475,12 @@
       <c r="AC762" s="15"/>
     </row>
     <row r="763" spans="17:29">
-      <c r="Q763" s="20"/>
-      <c r="R763" s="20"/>
-      <c r="S763" s="20"/>
-      <c r="T763" s="20"/>
-      <c r="U763" s="20"/>
-      <c r="V763" s="20"/>
+      <c r="Q763" s="15"/>
+      <c r="R763" s="15"/>
+      <c r="S763" s="15"/>
+      <c r="T763" s="15"/>
+      <c r="U763" s="15"/>
+      <c r="V763" s="15"/>
       <c r="W763" s="15"/>
       <c r="X763" s="15"/>
       <c r="Y763" s="15"/>
@@ -32450,12 +32505,12 @@
       <c r="AC764" s="15"/>
     </row>
     <row r="765" spans="17:29">
-      <c r="Q765" s="15"/>
-      <c r="R765" s="15"/>
-      <c r="S765" s="15"/>
-      <c r="T765" s="15"/>
-      <c r="U765" s="15"/>
-      <c r="V765" s="15"/>
+      <c r="Q765" s="20"/>
+      <c r="R765" s="20"/>
+      <c r="S765" s="20"/>
+      <c r="T765" s="20"/>
+      <c r="U765" s="20"/>
+      <c r="V765" s="20"/>
       <c r="W765" s="15"/>
       <c r="X765" s="15"/>
       <c r="Y765" s="15"/>
@@ -32480,12 +32535,12 @@
       <c r="AC766" s="15"/>
     </row>
     <row r="767" spans="17:29">
-      <c r="Q767" s="20"/>
-      <c r="R767" s="20"/>
-      <c r="S767" s="20"/>
-      <c r="T767" s="20"/>
-      <c r="U767" s="20"/>
-      <c r="V767" s="20"/>
+      <c r="Q767" s="15"/>
+      <c r="R767" s="15"/>
+      <c r="S767" s="15"/>
+      <c r="T767" s="15"/>
+      <c r="U767" s="15"/>
+      <c r="V767" s="15"/>
       <c r="W767" s="15"/>
       <c r="X767" s="15"/>
       <c r="Y767" s="15"/>
@@ -32495,12 +32550,12 @@
       <c r="AC767" s="15"/>
     </row>
     <row r="768" spans="17:29">
-      <c r="Q768" s="20"/>
-      <c r="R768" s="20"/>
-      <c r="S768" s="20"/>
-      <c r="T768" s="20"/>
-      <c r="U768" s="20"/>
-      <c r="V768" s="20"/>
+      <c r="Q768" s="15"/>
+      <c r="R768" s="15"/>
+      <c r="S768" s="15"/>
+      <c r="T768" s="15"/>
+      <c r="U768" s="15"/>
+      <c r="V768" s="15"/>
       <c r="W768" s="15"/>
       <c r="X768" s="15"/>
       <c r="Y768" s="15"/>
@@ -32510,12 +32565,12 @@
       <c r="AC768" s="15"/>
     </row>
     <row r="769" spans="17:29">
-      <c r="Q769" s="15"/>
-      <c r="R769" s="15"/>
-      <c r="S769" s="15"/>
-      <c r="T769" s="15"/>
-      <c r="U769" s="15"/>
-      <c r="V769" s="15"/>
+      <c r="Q769" s="20"/>
+      <c r="R769" s="20"/>
+      <c r="S769" s="20"/>
+      <c r="T769" s="20"/>
+      <c r="U769" s="20"/>
+      <c r="V769" s="20"/>
       <c r="W769" s="15"/>
       <c r="X769" s="15"/>
       <c r="Y769" s="15"/>
@@ -32525,12 +32580,12 @@
       <c r="AC769" s="15"/>
     </row>
     <row r="770" spans="17:29">
-      <c r="Q770" s="15"/>
-      <c r="R770" s="15"/>
-      <c r="S770" s="15"/>
-      <c r="T770" s="15"/>
-      <c r="U770" s="15"/>
-      <c r="V770" s="15"/>
+      <c r="Q770" s="20"/>
+      <c r="R770" s="20"/>
+      <c r="S770" s="20"/>
+      <c r="T770" s="20"/>
+      <c r="U770" s="20"/>
+      <c r="V770" s="20"/>
       <c r="W770" s="15"/>
       <c r="X770" s="15"/>
       <c r="Y770" s="15"/>
@@ -32555,12 +32610,12 @@
       <c r="AC771" s="15"/>
     </row>
     <row r="772" spans="17:29">
-      <c r="Q772" s="20"/>
-      <c r="R772" s="20"/>
-      <c r="S772" s="20"/>
-      <c r="T772" s="20"/>
-      <c r="U772" s="20"/>
-      <c r="V772" s="20"/>
+      <c r="Q772" s="15"/>
+      <c r="R772" s="15"/>
+      <c r="S772" s="15"/>
+      <c r="T772" s="15"/>
+      <c r="U772" s="15"/>
+      <c r="V772" s="15"/>
       <c r="W772" s="15"/>
       <c r="X772" s="15"/>
       <c r="Y772" s="15"/>
@@ -32585,12 +32640,12 @@
       <c r="AC773" s="15"/>
     </row>
     <row r="774" spans="17:29">
-      <c r="Q774" s="15"/>
-      <c r="R774" s="15"/>
-      <c r="S774" s="15"/>
-      <c r="T774" s="15"/>
-      <c r="U774" s="15"/>
-      <c r="V774" s="15"/>
+      <c r="Q774" s="20"/>
+      <c r="R774" s="20"/>
+      <c r="S774" s="20"/>
+      <c r="T774" s="20"/>
+      <c r="U774" s="20"/>
+      <c r="V774" s="20"/>
       <c r="W774" s="15"/>
       <c r="X774" s="15"/>
       <c r="Y774" s="15"/>
@@ -32606,7 +32661,7 @@
       <c r="T775" s="20"/>
       <c r="U775" s="20"/>
       <c r="V775" s="20"/>
-      <c r="W775" s="15"/>
+      <c r="W775" s="20"/>
       <c r="X775" s="15"/>
       <c r="Y775" s="15"/>
       <c r="Z775" s="15"/>
@@ -32621,7 +32676,7 @@
       <c r="T776" s="20"/>
       <c r="U776" s="20"/>
       <c r="V776" s="20"/>
-      <c r="W776" s="15"/>
+      <c r="W776" s="20"/>
       <c r="X776" s="15"/>
       <c r="Y776" s="15"/>
       <c r="Z776" s="15"/>
@@ -32651,7 +32706,7 @@
       <c r="T778" s="20"/>
       <c r="U778" s="20"/>
       <c r="V778" s="20"/>
-      <c r="W778" s="20"/>
+      <c r="W778" s="15"/>
       <c r="X778" s="15"/>
       <c r="Y778" s="15"/>
       <c r="Z778" s="15"/>
@@ -32675,12 +32730,12 @@
       <c r="AC779" s="15"/>
     </row>
     <row r="780" spans="17:29">
-      <c r="Q780" s="20"/>
-      <c r="R780" s="20"/>
-      <c r="S780" s="20"/>
-      <c r="T780" s="20"/>
-      <c r="U780" s="20"/>
-      <c r="V780" s="20"/>
+      <c r="Q780" s="15"/>
+      <c r="R780" s="15"/>
+      <c r="S780" s="15"/>
+      <c r="T780" s="15"/>
+      <c r="U780" s="15"/>
+      <c r="V780" s="15"/>
       <c r="W780" s="15"/>
       <c r="X780" s="15"/>
       <c r="Y780" s="15"/>
@@ -32690,13 +32745,13 @@
       <c r="AC780" s="15"/>
     </row>
     <row r="781" spans="17:29">
-      <c r="Q781" s="20"/>
-      <c r="R781" s="20"/>
-      <c r="S781" s="20"/>
-      <c r="T781" s="20"/>
-      <c r="U781" s="20"/>
-      <c r="V781" s="20"/>
-      <c r="W781" s="20"/>
+      <c r="Q781" s="15"/>
+      <c r="R781" s="15"/>
+      <c r="S781" s="15"/>
+      <c r="T781" s="15"/>
+      <c r="U781" s="15"/>
+      <c r="V781" s="15"/>
+      <c r="W781" s="15"/>
       <c r="X781" s="15"/>
       <c r="Y781" s="15"/>
       <c r="Z781" s="15"/>
@@ -32720,12 +32775,12 @@
       <c r="AC782" s="15"/>
     </row>
     <row r="783" spans="17:29">
-      <c r="Q783" s="15"/>
-      <c r="R783" s="15"/>
-      <c r="S783" s="15"/>
-      <c r="T783" s="15"/>
-      <c r="U783" s="15"/>
-      <c r="V783" s="15"/>
+      <c r="Q783" s="20"/>
+      <c r="R783" s="20"/>
+      <c r="S783" s="20"/>
+      <c r="T783" s="20"/>
+      <c r="U783" s="20"/>
+      <c r="V783" s="20"/>
       <c r="W783" s="15"/>
       <c r="X783" s="15"/>
       <c r="Y783" s="15"/>
@@ -32735,12 +32790,12 @@
       <c r="AC783" s="15"/>
     </row>
     <row r="784" spans="17:29">
-      <c r="Q784" s="15"/>
-      <c r="R784" s="15"/>
-      <c r="S784" s="15"/>
-      <c r="T784" s="15"/>
-      <c r="U784" s="15"/>
-      <c r="V784" s="15"/>
+      <c r="Q784" s="20"/>
+      <c r="R784" s="20"/>
+      <c r="S784" s="20"/>
+      <c r="T784" s="20"/>
+      <c r="U784" s="20"/>
+      <c r="V784" s="20"/>
       <c r="W784" s="15"/>
       <c r="X784" s="15"/>
       <c r="Y784" s="15"/>
@@ -32750,12 +32805,12 @@
       <c r="AC784" s="15"/>
     </row>
     <row r="785" spans="17:29">
-      <c r="Q785" s="20"/>
-      <c r="R785" s="20"/>
-      <c r="S785" s="20"/>
-      <c r="T785" s="20"/>
-      <c r="U785" s="20"/>
-      <c r="V785" s="20"/>
+      <c r="Q785" s="15"/>
+      <c r="R785" s="15"/>
+      <c r="S785" s="15"/>
+      <c r="T785" s="15"/>
+      <c r="U785" s="15"/>
+      <c r="V785" s="15"/>
       <c r="W785" s="15"/>
       <c r="X785" s="15"/>
       <c r="Y785" s="15"/>
@@ -32780,12 +32835,12 @@
       <c r="AC786" s="15"/>
     </row>
     <row r="787" spans="17:29">
-      <c r="Q787" s="15"/>
-      <c r="R787" s="15"/>
-      <c r="S787" s="15"/>
-      <c r="T787" s="15"/>
-      <c r="U787" s="15"/>
-      <c r="V787" s="15"/>
+      <c r="Q787" s="20"/>
+      <c r="R787" s="20"/>
+      <c r="S787" s="20"/>
+      <c r="T787" s="20"/>
+      <c r="U787" s="20"/>
+      <c r="V787" s="20"/>
       <c r="W787" s="15"/>
       <c r="X787" s="15"/>
       <c r="Y787" s="15"/>
@@ -32810,12 +32865,12 @@
       <c r="AC788" s="15"/>
     </row>
     <row r="789" spans="17:29">
-      <c r="Q789" s="20"/>
-      <c r="R789" s="20"/>
-      <c r="S789" s="20"/>
-      <c r="T789" s="20"/>
-      <c r="U789" s="20"/>
-      <c r="V789" s="20"/>
+      <c r="Q789" s="15"/>
+      <c r="R789" s="15"/>
+      <c r="S789" s="15"/>
+      <c r="T789" s="15"/>
+      <c r="U789" s="15"/>
+      <c r="V789" s="15"/>
       <c r="W789" s="15"/>
       <c r="X789" s="15"/>
       <c r="Y789" s="15"/>
@@ -32840,12 +32895,12 @@
       <c r="AC790" s="15"/>
     </row>
     <row r="791" spans="17:29">
-      <c r="Q791" s="15"/>
-      <c r="R791" s="15"/>
-      <c r="S791" s="15"/>
-      <c r="T791" s="15"/>
-      <c r="U791" s="15"/>
-      <c r="V791" s="15"/>
+      <c r="Q791" s="20"/>
+      <c r="R791" s="20"/>
+      <c r="S791" s="20"/>
+      <c r="T791" s="20"/>
+      <c r="U791" s="20"/>
+      <c r="V791" s="20"/>
       <c r="W791" s="15"/>
       <c r="X791" s="15"/>
       <c r="Y791" s="15"/>
@@ -32870,12 +32925,12 @@
       <c r="AC792" s="15"/>
     </row>
     <row r="793" spans="17:29">
-      <c r="Q793" s="20"/>
-      <c r="R793" s="20"/>
-      <c r="S793" s="20"/>
-      <c r="T793" s="20"/>
-      <c r="U793" s="20"/>
-      <c r="V793" s="20"/>
+      <c r="Q793" s="15"/>
+      <c r="R793" s="15"/>
+      <c r="S793" s="15"/>
+      <c r="T793" s="15"/>
+      <c r="U793" s="15"/>
+      <c r="V793" s="15"/>
       <c r="W793" s="15"/>
       <c r="X793" s="15"/>
       <c r="Y793" s="15"/>
@@ -32885,12 +32940,12 @@
       <c r="AC793" s="15"/>
     </row>
     <row r="794" spans="17:29">
-      <c r="Q794" s="20"/>
-      <c r="R794" s="20"/>
-      <c r="S794" s="20"/>
-      <c r="T794" s="20"/>
-      <c r="U794" s="20"/>
-      <c r="V794" s="20"/>
+      <c r="Q794" s="15"/>
+      <c r="R794" s="15"/>
+      <c r="S794" s="15"/>
+      <c r="T794" s="15"/>
+      <c r="U794" s="15"/>
+      <c r="V794" s="15"/>
       <c r="W794" s="15"/>
       <c r="X794" s="15"/>
       <c r="Y794" s="15"/>
@@ -32960,12 +33015,12 @@
       <c r="AC798" s="15"/>
     </row>
     <row r="799" spans="17:29">
-      <c r="Q799" s="15"/>
-      <c r="R799" s="15"/>
-      <c r="S799" s="15"/>
-      <c r="T799" s="15"/>
-      <c r="U799" s="15"/>
-      <c r="V799" s="15"/>
+      <c r="Q799" s="20"/>
+      <c r="R799" s="20"/>
+      <c r="S799" s="20"/>
+      <c r="T799" s="20"/>
+      <c r="U799" s="20"/>
+      <c r="V799" s="20"/>
       <c r="W799" s="15"/>
       <c r="X799" s="15"/>
       <c r="Y799" s="15"/>
@@ -32975,12 +33030,12 @@
       <c r="AC799" s="15"/>
     </row>
     <row r="800" spans="17:29">
-      <c r="Q800" s="15"/>
-      <c r="R800" s="15"/>
-      <c r="S800" s="15"/>
-      <c r="T800" s="15"/>
-      <c r="U800" s="15"/>
-      <c r="V800" s="15"/>
+      <c r="Q800" s="20"/>
+      <c r="R800" s="20"/>
+      <c r="S800" s="20"/>
+      <c r="T800" s="20"/>
+      <c r="U800" s="20"/>
+      <c r="V800" s="20"/>
       <c r="W800" s="15"/>
       <c r="X800" s="15"/>
       <c r="Y800" s="15"/>
@@ -33005,12 +33060,12 @@
       <c r="AC801" s="15"/>
     </row>
     <row r="802" spans="17:29">
-      <c r="Q802" s="20"/>
-      <c r="R802" s="20"/>
-      <c r="S802" s="20"/>
-      <c r="T802" s="20"/>
-      <c r="U802" s="20"/>
-      <c r="V802" s="20"/>
+      <c r="Q802" s="15"/>
+      <c r="R802" s="15"/>
+      <c r="S802" s="15"/>
+      <c r="T802" s="15"/>
+      <c r="U802" s="15"/>
+      <c r="V802" s="15"/>
       <c r="W802" s="15"/>
       <c r="X802" s="15"/>
       <c r="Y802" s="15"/>
@@ -33020,12 +33075,12 @@
       <c r="AC802" s="15"/>
     </row>
     <row r="803" spans="17:29">
-      <c r="Q803" s="20"/>
-      <c r="R803" s="20"/>
-      <c r="S803" s="20"/>
-      <c r="T803" s="20"/>
-      <c r="U803" s="20"/>
-      <c r="V803" s="20"/>
+      <c r="Q803" s="15"/>
+      <c r="R803" s="15"/>
+      <c r="S803" s="15"/>
+      <c r="T803" s="15"/>
+      <c r="U803" s="15"/>
+      <c r="V803" s="15"/>
       <c r="W803" s="15"/>
       <c r="X803" s="15"/>
       <c r="Y803" s="15"/>
@@ -33035,12 +33090,12 @@
       <c r="AC803" s="15"/>
     </row>
     <row r="804" spans="17:29">
-      <c r="Q804" s="15"/>
-      <c r="R804" s="15"/>
-      <c r="S804" s="15"/>
-      <c r="T804" s="15"/>
-      <c r="U804" s="15"/>
-      <c r="V804" s="15"/>
+      <c r="Q804" s="20"/>
+      <c r="R804" s="20"/>
+      <c r="S804" s="20"/>
+      <c r="T804" s="20"/>
+      <c r="U804" s="20"/>
+      <c r="V804" s="20"/>
       <c r="W804" s="15"/>
       <c r="X804" s="15"/>
       <c r="Y804" s="15"/>
@@ -33050,12 +33105,12 @@
       <c r="AC804" s="15"/>
     </row>
     <row r="805" spans="17:29">
-      <c r="Q805" s="15"/>
-      <c r="R805" s="15"/>
-      <c r="S805" s="15"/>
-      <c r="T805" s="15"/>
-      <c r="U805" s="15"/>
-      <c r="V805" s="15"/>
+      <c r="Q805" s="20"/>
+      <c r="R805" s="20"/>
+      <c r="S805" s="20"/>
+      <c r="T805" s="20"/>
+      <c r="U805" s="20"/>
+      <c r="V805" s="20"/>
       <c r="W805" s="15"/>
       <c r="X805" s="15"/>
       <c r="Y805" s="15"/>
@@ -33065,12 +33120,12 @@
       <c r="AC805" s="15"/>
     </row>
     <row r="806" spans="17:29">
-      <c r="Q806" s="20"/>
-      <c r="R806" s="20"/>
-      <c r="S806" s="20"/>
-      <c r="T806" s="20"/>
-      <c r="U806" s="20"/>
-      <c r="V806" s="20"/>
+      <c r="Q806" s="15"/>
+      <c r="R806" s="15"/>
+      <c r="S806" s="15"/>
+      <c r="T806" s="15"/>
+      <c r="U806" s="15"/>
+      <c r="V806" s="15"/>
       <c r="W806" s="15"/>
       <c r="X806" s="15"/>
       <c r="Y806" s="15"/>
@@ -33110,12 +33165,12 @@
       <c r="AC808" s="15"/>
     </row>
     <row r="809" spans="17:29">
-      <c r="Q809" s="20"/>
-      <c r="R809" s="20"/>
-      <c r="S809" s="20"/>
-      <c r="T809" s="20"/>
-      <c r="U809" s="20"/>
-      <c r="V809" s="20"/>
+      <c r="Q809" s="15"/>
+      <c r="R809" s="15"/>
+      <c r="S809" s="15"/>
+      <c r="T809" s="15"/>
+      <c r="U809" s="15"/>
+      <c r="V809" s="15"/>
       <c r="W809" s="15"/>
       <c r="X809" s="15"/>
       <c r="Y809" s="15"/>
@@ -33125,12 +33180,12 @@
       <c r="AC809" s="15"/>
     </row>
     <row r="810" spans="17:29">
-      <c r="Q810" s="15"/>
-      <c r="R810" s="15"/>
-      <c r="S810" s="15"/>
-      <c r="T810" s="15"/>
-      <c r="U810" s="15"/>
-      <c r="V810" s="15"/>
+      <c r="Q810" s="20"/>
+      <c r="R810" s="20"/>
+      <c r="S810" s="20"/>
+      <c r="T810" s="20"/>
+      <c r="U810" s="20"/>
+      <c r="V810" s="20"/>
       <c r="W810" s="15"/>
       <c r="X810" s="15"/>
       <c r="Y810" s="15"/>
@@ -33155,12 +33210,12 @@
       <c r="AC811" s="15"/>
     </row>
     <row r="812" spans="17:29">
-      <c r="Q812" s="20"/>
-      <c r="R812" s="20"/>
-      <c r="S812" s="20"/>
-      <c r="T812" s="20"/>
-      <c r="U812" s="20"/>
-      <c r="V812" s="20"/>
+      <c r="Q812" s="15"/>
+      <c r="R812" s="15"/>
+      <c r="S812" s="15"/>
+      <c r="T812" s="15"/>
+      <c r="U812" s="15"/>
+      <c r="V812" s="15"/>
       <c r="W812" s="15"/>
       <c r="X812" s="15"/>
       <c r="Y812" s="15"/>
@@ -33185,12 +33240,12 @@
       <c r="AC813" s="15"/>
     </row>
     <row r="814" spans="17:29">
-      <c r="Q814" s="15"/>
-      <c r="R814" s="15"/>
-      <c r="S814" s="15"/>
-      <c r="T814" s="15"/>
-      <c r="U814" s="15"/>
-      <c r="V814" s="15"/>
+      <c r="Q814" s="20"/>
+      <c r="R814" s="20"/>
+      <c r="S814" s="20"/>
+      <c r="T814" s="20"/>
+      <c r="U814" s="20"/>
+      <c r="V814" s="20"/>
       <c r="W814" s="15"/>
       <c r="X814" s="15"/>
       <c r="Y814" s="15"/>
@@ -33200,12 +33255,12 @@
       <c r="AC814" s="15"/>
     </row>
     <row r="815" spans="17:29">
-      <c r="Q815" s="15"/>
-      <c r="R815" s="15"/>
-      <c r="S815" s="15"/>
-      <c r="T815" s="15"/>
-      <c r="U815" s="15"/>
-      <c r="V815" s="15"/>
+      <c r="Q815" s="20"/>
+      <c r="R815" s="20"/>
+      <c r="S815" s="20"/>
+      <c r="T815" s="20"/>
+      <c r="U815" s="20"/>
+      <c r="V815" s="20"/>
       <c r="W815" s="15"/>
       <c r="X815" s="15"/>
       <c r="Y815" s="15"/>
@@ -33215,12 +33270,12 @@
       <c r="AC815" s="15"/>
     </row>
     <row r="816" spans="17:29">
-      <c r="Q816" s="20"/>
-      <c r="R816" s="20"/>
-      <c r="S816" s="20"/>
-      <c r="T816" s="20"/>
-      <c r="U816" s="20"/>
-      <c r="V816" s="20"/>
+      <c r="Q816" s="15"/>
+      <c r="R816" s="15"/>
+      <c r="S816" s="15"/>
+      <c r="T816" s="15"/>
+      <c r="U816" s="15"/>
+      <c r="V816" s="15"/>
       <c r="W816" s="15"/>
       <c r="X816" s="15"/>
       <c r="Y816" s="15"/>
@@ -33260,12 +33315,12 @@
       <c r="AC818" s="15"/>
     </row>
     <row r="819" spans="17:29">
-      <c r="Q819" s="20"/>
-      <c r="R819" s="20"/>
-      <c r="S819" s="20"/>
-      <c r="T819" s="20"/>
-      <c r="U819" s="20"/>
-      <c r="V819" s="20"/>
+      <c r="Q819" s="15"/>
+      <c r="R819" s="15"/>
+      <c r="S819" s="15"/>
+      <c r="T819" s="15"/>
+      <c r="U819" s="15"/>
+      <c r="V819" s="15"/>
       <c r="W819" s="15"/>
       <c r="X819" s="15"/>
       <c r="Y819" s="15"/>
@@ -33275,12 +33330,12 @@
       <c r="AC819" s="15"/>
     </row>
     <row r="820" spans="17:29">
-      <c r="Q820" s="15"/>
-      <c r="R820" s="15"/>
-      <c r="S820" s="15"/>
-      <c r="T820" s="15"/>
-      <c r="U820" s="15"/>
-      <c r="V820" s="15"/>
+      <c r="Q820" s="20"/>
+      <c r="R820" s="20"/>
+      <c r="S820" s="20"/>
+      <c r="T820" s="20"/>
+      <c r="U820" s="20"/>
+      <c r="V820" s="20"/>
       <c r="W820" s="15"/>
       <c r="X820" s="15"/>
       <c r="Y820" s="15"/>
@@ -33350,12 +33405,12 @@
       <c r="AC824" s="15"/>
     </row>
     <row r="825" spans="17:29">
-      <c r="Q825" s="15"/>
-      <c r="R825" s="15"/>
-      <c r="S825" s="15"/>
-      <c r="T825" s="15"/>
-      <c r="U825" s="15"/>
-      <c r="V825" s="15"/>
+      <c r="Q825" s="20"/>
+      <c r="R825" s="20"/>
+      <c r="S825" s="20"/>
+      <c r="T825" s="20"/>
+      <c r="U825" s="20"/>
+      <c r="V825" s="20"/>
       <c r="W825" s="15"/>
       <c r="X825" s="15"/>
       <c r="Y825" s="15"/>
@@ -33410,12 +33465,12 @@
       <c r="AC828" s="15"/>
     </row>
     <row r="829" spans="17:29">
-      <c r="Q829" s="20"/>
-      <c r="R829" s="20"/>
-      <c r="S829" s="20"/>
-      <c r="T829" s="20"/>
-      <c r="U829" s="20"/>
-      <c r="V829" s="20"/>
+      <c r="Q829" s="15"/>
+      <c r="R829" s="15"/>
+      <c r="S829" s="15"/>
+      <c r="T829" s="15"/>
+      <c r="U829" s="15"/>
+      <c r="V829" s="15"/>
       <c r="W829" s="15"/>
       <c r="X829" s="15"/>
       <c r="Y829" s="15"/>
@@ -33470,12 +33525,12 @@
       <c r="AC832" s="15"/>
     </row>
     <row r="833" spans="17:29">
-      <c r="Q833" s="15"/>
-      <c r="R833" s="15"/>
-      <c r="S833" s="15"/>
-      <c r="T833" s="15"/>
-      <c r="U833" s="15"/>
-      <c r="V833" s="15"/>
+      <c r="Q833" s="20"/>
+      <c r="R833" s="20"/>
+      <c r="S833" s="20"/>
+      <c r="T833" s="20"/>
+      <c r="U833" s="20"/>
+      <c r="V833" s="20"/>
       <c r="W833" s="15"/>
       <c r="X833" s="15"/>
       <c r="Y833" s="15"/>
@@ -33485,12 +33540,12 @@
       <c r="AC833" s="15"/>
     </row>
     <row r="834" spans="17:29">
-      <c r="Q834" s="20"/>
-      <c r="R834" s="20"/>
-      <c r="S834" s="20"/>
-      <c r="T834" s="20"/>
-      <c r="U834" s="20"/>
-      <c r="V834" s="20"/>
+      <c r="Q834" s="15"/>
+      <c r="R834" s="15"/>
+      <c r="S834" s="15"/>
+      <c r="T834" s="15"/>
+      <c r="U834" s="15"/>
+      <c r="V834" s="15"/>
       <c r="W834" s="15"/>
       <c r="X834" s="15"/>
       <c r="Y834" s="15"/>
@@ -33500,12 +33555,12 @@
       <c r="AC834" s="15"/>
     </row>
     <row r="835" spans="17:29">
-      <c r="Q835" s="20"/>
-      <c r="R835" s="20"/>
-      <c r="S835" s="20"/>
-      <c r="T835" s="20"/>
-      <c r="U835" s="20"/>
-      <c r="V835" s="20"/>
+      <c r="Q835" s="15"/>
+      <c r="R835" s="15"/>
+      <c r="S835" s="15"/>
+      <c r="T835" s="15"/>
+      <c r="U835" s="15"/>
+      <c r="V835" s="15"/>
       <c r="W835" s="15"/>
       <c r="X835" s="15"/>
       <c r="Y835" s="15"/>
@@ -33515,12 +33570,12 @@
       <c r="AC835" s="15"/>
     </row>
     <row r="836" spans="17:29">
-      <c r="Q836" s="15"/>
-      <c r="R836" s="15"/>
-      <c r="S836" s="15"/>
-      <c r="T836" s="15"/>
-      <c r="U836" s="15"/>
-      <c r="V836" s="15"/>
+      <c r="Q836" s="20"/>
+      <c r="R836" s="20"/>
+      <c r="S836" s="20"/>
+      <c r="T836" s="20"/>
+      <c r="U836" s="20"/>
+      <c r="V836" s="20"/>
       <c r="W836" s="15"/>
       <c r="X836" s="15"/>
       <c r="Y836" s="15"/>
@@ -33545,12 +33600,12 @@
       <c r="AC837" s="15"/>
     </row>
     <row r="838" spans="17:29">
-      <c r="Q838" s="20"/>
-      <c r="R838" s="20"/>
-      <c r="S838" s="20"/>
-      <c r="T838" s="20"/>
-      <c r="U838" s="20"/>
-      <c r="V838" s="20"/>
+      <c r="Q838" s="15"/>
+      <c r="R838" s="15"/>
+      <c r="S838" s="15"/>
+      <c r="T838" s="15"/>
+      <c r="U838" s="15"/>
+      <c r="V838" s="15"/>
       <c r="W838" s="15"/>
       <c r="X838" s="15"/>
       <c r="Y838" s="15"/>
@@ -33575,12 +33630,12 @@
       <c r="AC839" s="15"/>
     </row>
     <row r="840" spans="17:29">
-      <c r="Q840" s="15"/>
-      <c r="R840" s="15"/>
-      <c r="S840" s="15"/>
-      <c r="T840" s="15"/>
-      <c r="U840" s="15"/>
-      <c r="V840" s="15"/>
+      <c r="Q840" s="20"/>
+      <c r="R840" s="20"/>
+      <c r="S840" s="20"/>
+      <c r="T840" s="20"/>
+      <c r="U840" s="20"/>
+      <c r="V840" s="20"/>
       <c r="W840" s="15"/>
       <c r="X840" s="15"/>
       <c r="Y840" s="15"/>
@@ -33590,12 +33645,12 @@
       <c r="AC840" s="15"/>
     </row>
     <row r="841" spans="17:29">
-      <c r="Q841" s="15"/>
-      <c r="R841" s="15"/>
-      <c r="S841" s="15"/>
-      <c r="T841" s="15"/>
-      <c r="U841" s="15"/>
-      <c r="V841" s="15"/>
+      <c r="Q841" s="20"/>
+      <c r="R841" s="20"/>
+      <c r="S841" s="20"/>
+      <c r="T841" s="20"/>
+      <c r="U841" s="20"/>
+      <c r="V841" s="20"/>
       <c r="W841" s="15"/>
       <c r="X841" s="15"/>
       <c r="Y841" s="15"/>
@@ -33620,12 +33675,12 @@
       <c r="AC842" s="15"/>
     </row>
     <row r="843" spans="17:29">
-      <c r="Q843" s="20"/>
-      <c r="R843" s="20"/>
-      <c r="S843" s="20"/>
-      <c r="T843" s="20"/>
-      <c r="U843" s="20"/>
-      <c r="V843" s="20"/>
+      <c r="Q843" s="15"/>
+      <c r="R843" s="15"/>
+      <c r="S843" s="15"/>
+      <c r="T843" s="15"/>
+      <c r="U843" s="15"/>
+      <c r="V843" s="15"/>
       <c r="W843" s="15"/>
       <c r="X843" s="15"/>
       <c r="Y843" s="15"/>
@@ -33665,12 +33720,12 @@
       <c r="AC845" s="15"/>
     </row>
     <row r="846" spans="17:29">
-      <c r="Q846" s="20"/>
-      <c r="R846" s="20"/>
-      <c r="S846" s="20"/>
-      <c r="T846" s="20"/>
-      <c r="U846" s="20"/>
-      <c r="V846" s="20"/>
+      <c r="Q846" s="15"/>
+      <c r="R846" s="15"/>
+      <c r="S846" s="15"/>
+      <c r="T846" s="15"/>
+      <c r="U846" s="15"/>
+      <c r="V846" s="15"/>
       <c r="W846" s="15"/>
       <c r="X846" s="15"/>
       <c r="Y846" s="15"/>
@@ -33680,12 +33735,12 @@
       <c r="AC846" s="15"/>
     </row>
     <row r="847" spans="17:29">
-      <c r="Q847" s="15"/>
-      <c r="R847" s="15"/>
-      <c r="S847" s="15"/>
-      <c r="T847" s="15"/>
-      <c r="U847" s="15"/>
-      <c r="V847" s="15"/>
+      <c r="Q847" s="20"/>
+      <c r="R847" s="20"/>
+      <c r="S847" s="20"/>
+      <c r="T847" s="20"/>
+      <c r="U847" s="20"/>
+      <c r="V847" s="20"/>
       <c r="W847" s="15"/>
       <c r="X847" s="15"/>
       <c r="Y847" s="15"/>
@@ -33725,12 +33780,12 @@
       <c r="AC849" s="15"/>
     </row>
     <row r="850" spans="17:29">
-      <c r="Q850" s="15"/>
-      <c r="R850" s="15"/>
-      <c r="S850" s="15"/>
-      <c r="T850" s="15"/>
-      <c r="U850" s="15"/>
-      <c r="V850" s="15"/>
+      <c r="Q850" s="20"/>
+      <c r="R850" s="20"/>
+      <c r="S850" s="20"/>
+      <c r="T850" s="20"/>
+      <c r="U850" s="20"/>
+      <c r="V850" s="20"/>
       <c r="W850" s="15"/>
       <c r="X850" s="15"/>
       <c r="Y850" s="15"/>
@@ -33755,12 +33810,12 @@
       <c r="AC851" s="15"/>
     </row>
     <row r="852" spans="17:29">
-      <c r="Q852" s="20"/>
-      <c r="R852" s="20"/>
-      <c r="S852" s="20"/>
-      <c r="T852" s="20"/>
-      <c r="U852" s="20"/>
-      <c r="V852" s="20"/>
+      <c r="Q852" s="15"/>
+      <c r="R852" s="15"/>
+      <c r="S852" s="15"/>
+      <c r="T852" s="15"/>
+      <c r="U852" s="15"/>
+      <c r="V852" s="15"/>
       <c r="W852" s="15"/>
       <c r="X852" s="15"/>
       <c r="Y852" s="15"/>
@@ -33800,12 +33855,12 @@
       <c r="AC854" s="15"/>
     </row>
     <row r="855" spans="17:29">
-      <c r="Q855" s="20"/>
-      <c r="R855" s="20"/>
-      <c r="S855" s="20"/>
-      <c r="T855" s="20"/>
-      <c r="U855" s="20"/>
-      <c r="V855" s="20"/>
+      <c r="Q855" s="15"/>
+      <c r="R855" s="15"/>
+      <c r="S855" s="15"/>
+      <c r="T855" s="15"/>
+      <c r="U855" s="15"/>
+      <c r="V855" s="15"/>
       <c r="W855" s="15"/>
       <c r="X855" s="15"/>
       <c r="Y855" s="15"/>
@@ -33845,12 +33900,12 @@
       <c r="AC857" s="15"/>
     </row>
     <row r="858" spans="17:29">
-      <c r="Q858" s="15"/>
-      <c r="R858" s="15"/>
-      <c r="S858" s="15"/>
-      <c r="T858" s="15"/>
-      <c r="U858" s="15"/>
-      <c r="V858" s="15"/>
+      <c r="Q858" s="20"/>
+      <c r="R858" s="20"/>
+      <c r="S858" s="20"/>
+      <c r="T858" s="20"/>
+      <c r="U858" s="20"/>
+      <c r="V858" s="20"/>
       <c r="W858" s="15"/>
       <c r="X858" s="15"/>
       <c r="Y858" s="15"/>
@@ -33875,12 +33930,12 @@
       <c r="AC859" s="15"/>
     </row>
     <row r="860" spans="17:29">
-      <c r="Q860" s="20"/>
-      <c r="R860" s="20"/>
-      <c r="S860" s="20"/>
-      <c r="T860" s="20"/>
-      <c r="U860" s="20"/>
-      <c r="V860" s="20"/>
+      <c r="Q860" s="15"/>
+      <c r="R860" s="15"/>
+      <c r="S860" s="15"/>
+      <c r="T860" s="15"/>
+      <c r="U860" s="15"/>
+      <c r="V860" s="15"/>
       <c r="W860" s="15"/>
       <c r="X860" s="15"/>
       <c r="Y860" s="15"/>
@@ -33995,12 +34050,12 @@
       <c r="AC867" s="15"/>
     </row>
     <row r="868" spans="17:29">
-      <c r="Q868" s="15"/>
-      <c r="R868" s="15"/>
-      <c r="S868" s="15"/>
-      <c r="T868" s="15"/>
-      <c r="U868" s="15"/>
-      <c r="V868" s="15"/>
+      <c r="Q868" s="20"/>
+      <c r="R868" s="20"/>
+      <c r="S868" s="20"/>
+      <c r="T868" s="20"/>
+      <c r="U868" s="20"/>
+      <c r="V868" s="20"/>
       <c r="W868" s="15"/>
       <c r="X868" s="15"/>
       <c r="Y868" s="15"/>
@@ -34010,12 +34065,12 @@
       <c r="AC868" s="15"/>
     </row>
     <row r="869" spans="17:29">
-      <c r="Q869" s="15"/>
-      <c r="R869" s="15"/>
-      <c r="S869" s="15"/>
-      <c r="T869" s="15"/>
-      <c r="U869" s="15"/>
-      <c r="V869" s="15"/>
+      <c r="Q869" s="20"/>
+      <c r="R869" s="20"/>
+      <c r="S869" s="20"/>
+      <c r="T869" s="20"/>
+      <c r="U869" s="20"/>
+      <c r="V869" s="20"/>
       <c r="W869" s="15"/>
       <c r="X869" s="15"/>
       <c r="Y869" s="15"/>
@@ -34040,12 +34095,12 @@
       <c r="AC870" s="15"/>
     </row>
     <row r="871" spans="17:29">
-      <c r="Q871" s="20"/>
-      <c r="R871" s="20"/>
-      <c r="S871" s="20"/>
-      <c r="T871" s="20"/>
-      <c r="U871" s="20"/>
-      <c r="V871" s="20"/>
+      <c r="Q871" s="15"/>
+      <c r="R871" s="15"/>
+      <c r="S871" s="15"/>
+      <c r="T871" s="15"/>
+      <c r="U871" s="15"/>
+      <c r="V871" s="15"/>
       <c r="W871" s="15"/>
       <c r="X871" s="15"/>
       <c r="Y871" s="15"/>
@@ -34085,12 +34140,12 @@
       <c r="AC873" s="15"/>
     </row>
     <row r="874" spans="17:29">
-      <c r="Q874" s="20"/>
-      <c r="R874" s="20"/>
-      <c r="S874" s="20"/>
-      <c r="T874" s="20"/>
-      <c r="U874" s="20"/>
-      <c r="V874" s="20"/>
+      <c r="Q874" s="15"/>
+      <c r="R874" s="15"/>
+      <c r="S874" s="15"/>
+      <c r="T874" s="15"/>
+      <c r="U874" s="15"/>
+      <c r="V874" s="15"/>
       <c r="W874" s="15"/>
       <c r="X874" s="15"/>
       <c r="Y874" s="15"/>
@@ -34100,12 +34155,12 @@
       <c r="AC874" s="15"/>
     </row>
     <row r="875" spans="17:29">
-      <c r="Q875" s="15"/>
-      <c r="R875" s="15"/>
-      <c r="S875" s="15"/>
-      <c r="T875" s="15"/>
-      <c r="U875" s="15"/>
-      <c r="V875" s="15"/>
+      <c r="Q875" s="20"/>
+      <c r="R875" s="20"/>
+      <c r="S875" s="20"/>
+      <c r="T875" s="20"/>
+      <c r="U875" s="20"/>
+      <c r="V875" s="20"/>
       <c r="W875" s="15"/>
       <c r="X875" s="15"/>
       <c r="Y875" s="15"/>
@@ -34130,12 +34185,12 @@
       <c r="AC876" s="15"/>
     </row>
     <row r="877" spans="17:29">
-      <c r="Q877" s="20"/>
-      <c r="R877" s="20"/>
-      <c r="S877" s="20"/>
-      <c r="T877" s="20"/>
-      <c r="U877" s="20"/>
-      <c r="V877" s="20"/>
+      <c r="Q877" s="15"/>
+      <c r="R877" s="15"/>
+      <c r="S877" s="15"/>
+      <c r="T877" s="15"/>
+      <c r="U877" s="15"/>
+      <c r="V877" s="15"/>
       <c r="W877" s="15"/>
       <c r="X877" s="15"/>
       <c r="Y877" s="15"/>
@@ -34160,12 +34215,12 @@
       <c r="AC878" s="15"/>
     </row>
     <row r="879" spans="17:29">
-      <c r="Q879" s="15"/>
-      <c r="R879" s="15"/>
-      <c r="S879" s="15"/>
-      <c r="T879" s="15"/>
-      <c r="U879" s="15"/>
-      <c r="V879" s="15"/>
+      <c r="Q879" s="20"/>
+      <c r="R879" s="20"/>
+      <c r="S879" s="20"/>
+      <c r="T879" s="20"/>
+      <c r="U879" s="20"/>
+      <c r="V879" s="20"/>
       <c r="W879" s="15"/>
       <c r="X879" s="15"/>
       <c r="Y879" s="15"/>
@@ -34175,12 +34230,12 @@
       <c r="AC879" s="15"/>
     </row>
     <row r="880" spans="17:29">
-      <c r="Q880" s="15"/>
-      <c r="R880" s="15"/>
-      <c r="S880" s="15"/>
-      <c r="T880" s="15"/>
-      <c r="U880" s="15"/>
-      <c r="V880" s="15"/>
+      <c r="Q880" s="20"/>
+      <c r="R880" s="20"/>
+      <c r="S880" s="20"/>
+      <c r="T880" s="20"/>
+      <c r="U880" s="20"/>
+      <c r="V880" s="20"/>
       <c r="W880" s="15"/>
       <c r="X880" s="15"/>
       <c r="Y880" s="15"/>
@@ -34205,12 +34260,12 @@
       <c r="AC881" s="15"/>
     </row>
     <row r="882" spans="17:29">
-      <c r="Q882" s="20"/>
-      <c r="R882" s="20"/>
-      <c r="S882" s="20"/>
-      <c r="T882" s="20"/>
-      <c r="U882" s="20"/>
-      <c r="V882" s="20"/>
+      <c r="Q882" s="15"/>
+      <c r="R882" s="15"/>
+      <c r="S882" s="15"/>
+      <c r="T882" s="15"/>
+      <c r="U882" s="15"/>
+      <c r="V882" s="15"/>
       <c r="W882" s="15"/>
       <c r="X882" s="15"/>
       <c r="Y882" s="15"/>
@@ -34220,12 +34275,12 @@
       <c r="AC882" s="15"/>
     </row>
     <row r="883" spans="17:29">
-      <c r="Q883" s="20"/>
-      <c r="R883" s="20"/>
-      <c r="S883" s="20"/>
-      <c r="T883" s="20"/>
-      <c r="U883" s="20"/>
-      <c r="V883" s="20"/>
+      <c r="Q883" s="15"/>
+      <c r="R883" s="15"/>
+      <c r="S883" s="15"/>
+      <c r="T883" s="15"/>
+      <c r="U883" s="15"/>
+      <c r="V883" s="15"/>
       <c r="W883" s="15"/>
       <c r="X883" s="15"/>
       <c r="Y883" s="15"/>
@@ -34310,12 +34365,12 @@
       <c r="AC888" s="15"/>
     </row>
     <row r="889" spans="17:29">
-      <c r="Q889" s="15"/>
-      <c r="R889" s="15"/>
-      <c r="S889" s="15"/>
-      <c r="T889" s="15"/>
-      <c r="U889" s="15"/>
-      <c r="V889" s="15"/>
+      <c r="Q889" s="20"/>
+      <c r="R889" s="20"/>
+      <c r="S889" s="20"/>
+      <c r="T889" s="20"/>
+      <c r="U889" s="20"/>
+      <c r="V889" s="20"/>
       <c r="W889" s="15"/>
       <c r="X889" s="15"/>
       <c r="Y889" s="15"/>
@@ -34325,12 +34380,12 @@
       <c r="AC889" s="15"/>
     </row>
     <row r="890" spans="17:29">
-      <c r="Q890" s="15"/>
-      <c r="R890" s="15"/>
-      <c r="S890" s="15"/>
-      <c r="T890" s="15"/>
-      <c r="U890" s="15"/>
-      <c r="V890" s="15"/>
+      <c r="Q890" s="20"/>
+      <c r="R890" s="20"/>
+      <c r="S890" s="20"/>
+      <c r="T890" s="20"/>
+      <c r="U890" s="20"/>
+      <c r="V890" s="20"/>
       <c r="W890" s="15"/>
       <c r="X890" s="15"/>
       <c r="Y890" s="15"/>
@@ -34340,12 +34395,12 @@
       <c r="AC890" s="15"/>
     </row>
     <row r="891" spans="17:29">
-      <c r="Q891" s="20"/>
-      <c r="R891" s="20"/>
-      <c r="S891" s="20"/>
-      <c r="T891" s="20"/>
-      <c r="U891" s="20"/>
-      <c r="V891" s="20"/>
+      <c r="Q891" s="15"/>
+      <c r="R891" s="15"/>
+      <c r="S891" s="15"/>
+      <c r="T891" s="15"/>
+      <c r="U891" s="15"/>
+      <c r="V891" s="15"/>
       <c r="W891" s="15"/>
       <c r="X891" s="15"/>
       <c r="Y891" s="15"/>
@@ -34355,12 +34410,12 @@
       <c r="AC891" s="15"/>
     </row>
     <row r="892" spans="17:29">
-      <c r="Q892" s="20"/>
-      <c r="R892" s="20"/>
-      <c r="S892" s="20"/>
-      <c r="T892" s="20"/>
-      <c r="U892" s="20"/>
-      <c r="V892" s="20"/>
+      <c r="Q892" s="15"/>
+      <c r="R892" s="15"/>
+      <c r="S892" s="15"/>
+      <c r="T892" s="15"/>
+      <c r="U892" s="15"/>
+      <c r="V892" s="15"/>
       <c r="W892" s="15"/>
       <c r="X892" s="15"/>
       <c r="Y892" s="15"/>
@@ -34490,12 +34545,12 @@
       <c r="AC900" s="15"/>
     </row>
     <row r="901" spans="17:29">
-      <c r="Q901" s="15"/>
-      <c r="R901" s="15"/>
-      <c r="S901" s="15"/>
-      <c r="T901" s="15"/>
-      <c r="U901" s="15"/>
-      <c r="V901" s="15"/>
+      <c r="Q901" s="20"/>
+      <c r="R901" s="20"/>
+      <c r="S901" s="20"/>
+      <c r="T901" s="20"/>
+      <c r="U901" s="20"/>
+      <c r="V901" s="20"/>
       <c r="W901" s="15"/>
       <c r="X901" s="15"/>
       <c r="Y901" s="15"/>
@@ -34520,12 +34575,12 @@
       <c r="AC902" s="15"/>
     </row>
     <row r="903" spans="17:29">
-      <c r="Q903" s="20"/>
-      <c r="R903" s="20"/>
-      <c r="S903" s="20"/>
-      <c r="T903" s="20"/>
-      <c r="U903" s="20"/>
-      <c r="V903" s="20"/>
+      <c r="Q903" s="15"/>
+      <c r="R903" s="15"/>
+      <c r="S903" s="15"/>
+      <c r="T903" s="15"/>
+      <c r="U903" s="15"/>
+      <c r="V903" s="15"/>
       <c r="W903" s="15"/>
       <c r="X903" s="15"/>
       <c r="Y903" s="15"/>
@@ -34595,12 +34650,12 @@
       <c r="AC907" s="15"/>
     </row>
     <row r="908" spans="17:29">
-      <c r="Q908" s="15"/>
-      <c r="R908" s="15"/>
-      <c r="S908" s="15"/>
-      <c r="T908" s="15"/>
-      <c r="U908" s="15"/>
-      <c r="V908" s="15"/>
+      <c r="Q908" s="20"/>
+      <c r="R908" s="20"/>
+      <c r="S908" s="20"/>
+      <c r="T908" s="20"/>
+      <c r="U908" s="20"/>
+      <c r="V908" s="20"/>
       <c r="W908" s="15"/>
       <c r="X908" s="15"/>
       <c r="Y908" s="15"/>
@@ -34610,12 +34665,12 @@
       <c r="AC908" s="15"/>
     </row>
     <row r="909" spans="17:29">
-      <c r="Q909" s="15"/>
-      <c r="R909" s="15"/>
-      <c r="S909" s="15"/>
-      <c r="T909" s="15"/>
-      <c r="U909" s="15"/>
-      <c r="V909" s="15"/>
+      <c r="Q909" s="20"/>
+      <c r="R909" s="20"/>
+      <c r="S909" s="20"/>
+      <c r="T909" s="20"/>
+      <c r="U909" s="20"/>
+      <c r="V909" s="20"/>
       <c r="W909" s="15"/>
       <c r="X909" s="15"/>
       <c r="Y909" s="15"/>
@@ -34640,12 +34695,12 @@
       <c r="AC910" s="15"/>
     </row>
     <row r="911" spans="17:29">
-      <c r="Q911" s="20"/>
-      <c r="R911" s="20"/>
-      <c r="S911" s="20"/>
-      <c r="T911" s="20"/>
-      <c r="U911" s="20"/>
-      <c r="V911" s="20"/>
+      <c r="Q911" s="15"/>
+      <c r="R911" s="15"/>
+      <c r="S911" s="15"/>
+      <c r="T911" s="15"/>
+      <c r="U911" s="15"/>
+      <c r="V911" s="15"/>
       <c r="W911" s="15"/>
       <c r="X911" s="15"/>
       <c r="Y911" s="15"/>
@@ -34655,12 +34710,12 @@
       <c r="AC911" s="15"/>
     </row>
     <row r="912" spans="17:29">
-      <c r="Q912" s="20"/>
-      <c r="R912" s="20"/>
-      <c r="S912" s="20"/>
-      <c r="T912" s="20"/>
-      <c r="U912" s="20"/>
-      <c r="V912" s="20"/>
+      <c r="Q912" s="15"/>
+      <c r="R912" s="15"/>
+      <c r="S912" s="15"/>
+      <c r="T912" s="15"/>
+      <c r="U912" s="15"/>
+      <c r="V912" s="15"/>
       <c r="W912" s="15"/>
       <c r="X912" s="15"/>
       <c r="Y912" s="15"/>
@@ -34715,12 +34770,12 @@
       <c r="AC915" s="15"/>
     </row>
     <row r="916" spans="17:29">
-      <c r="Q916" s="15"/>
-      <c r="R916" s="15"/>
-      <c r="S916" s="15"/>
-      <c r="T916" s="15"/>
-      <c r="U916" s="15"/>
-      <c r="V916" s="15"/>
+      <c r="Q916" s="20"/>
+      <c r="R916" s="20"/>
+      <c r="S916" s="20"/>
+      <c r="T916" s="20"/>
+      <c r="U916" s="20"/>
+      <c r="V916" s="20"/>
       <c r="W916" s="15"/>
       <c r="X916" s="15"/>
       <c r="Y916" s="15"/>
@@ -34745,12 +34800,12 @@
       <c r="AC917" s="15"/>
     </row>
     <row r="918" spans="17:29">
-      <c r="Q918" s="20"/>
-      <c r="R918" s="20"/>
-      <c r="S918" s="20"/>
-      <c r="T918" s="20"/>
-      <c r="U918" s="20"/>
-      <c r="V918" s="20"/>
+      <c r="Q918" s="15"/>
+      <c r="R918" s="15"/>
+      <c r="S918" s="15"/>
+      <c r="T918" s="15"/>
+      <c r="U918" s="15"/>
+      <c r="V918" s="15"/>
       <c r="W918" s="15"/>
       <c r="X918" s="15"/>
       <c r="Y918" s="15"/>
@@ -34790,12 +34845,12 @@
       <c r="AC920" s="15"/>
     </row>
     <row r="921" spans="17:29">
-      <c r="Q921" s="15"/>
-      <c r="R921" s="15"/>
-      <c r="S921" s="15"/>
-      <c r="T921" s="15"/>
-      <c r="U921" s="15"/>
-      <c r="V921" s="15"/>
+      <c r="Q921" s="20"/>
+      <c r="R921" s="20"/>
+      <c r="S921" s="20"/>
+      <c r="T921" s="20"/>
+      <c r="U921" s="20"/>
+      <c r="V921" s="20"/>
       <c r="W921" s="15"/>
       <c r="X921" s="15"/>
       <c r="Y921" s="15"/>
@@ -34805,12 +34860,12 @@
       <c r="AC921" s="15"/>
     </row>
     <row r="922" spans="17:29">
-      <c r="Q922" s="15"/>
-      <c r="R922" s="15"/>
-      <c r="S922" s="15"/>
-      <c r="T922" s="15"/>
-      <c r="U922" s="15"/>
-      <c r="V922" s="15"/>
+      <c r="Q922" s="20"/>
+      <c r="R922" s="20"/>
+      <c r="S922" s="20"/>
+      <c r="T922" s="20"/>
+      <c r="U922" s="20"/>
+      <c r="V922" s="20"/>
       <c r="W922" s="15"/>
       <c r="X922" s="15"/>
       <c r="Y922" s="15"/>
@@ -34820,12 +34875,12 @@
       <c r="AC922" s="15"/>
     </row>
     <row r="923" spans="17:29">
-      <c r="Q923" s="20"/>
-      <c r="R923" s="20"/>
-      <c r="S923" s="20"/>
-      <c r="T923" s="20"/>
-      <c r="U923" s="20"/>
-      <c r="V923" s="20"/>
+      <c r="Q923" s="15"/>
+      <c r="R923" s="15"/>
+      <c r="S923" s="15"/>
+      <c r="T923" s="15"/>
+      <c r="U923" s="15"/>
+      <c r="V923" s="15"/>
       <c r="W923" s="15"/>
       <c r="X923" s="15"/>
       <c r="Y923" s="15"/>
@@ -34835,12 +34890,12 @@
       <c r="AC923" s="15"/>
     </row>
     <row r="924" spans="17:29">
-      <c r="Q924" s="20"/>
-      <c r="R924" s="20"/>
-      <c r="S924" s="20"/>
-      <c r="T924" s="20"/>
-      <c r="U924" s="20"/>
-      <c r="V924" s="20"/>
+      <c r="Q924" s="15"/>
+      <c r="R924" s="15"/>
+      <c r="S924" s="15"/>
+      <c r="T924" s="15"/>
+      <c r="U924" s="15"/>
+      <c r="V924" s="15"/>
       <c r="W924" s="15"/>
       <c r="X924" s="15"/>
       <c r="Y924" s="15"/>
@@ -34910,12 +34965,12 @@
       <c r="AC928" s="15"/>
     </row>
     <row r="929" spans="17:29">
-      <c r="Q929" s="15"/>
-      <c r="R929" s="15"/>
-      <c r="S929" s="15"/>
-      <c r="T929" s="15"/>
-      <c r="U929" s="15"/>
-      <c r="V929" s="15"/>
+      <c r="Q929" s="20"/>
+      <c r="R929" s="20"/>
+      <c r="S929" s="20"/>
+      <c r="T929" s="20"/>
+      <c r="U929" s="20"/>
+      <c r="V929" s="20"/>
       <c r="W929" s="15"/>
       <c r="X929" s="15"/>
       <c r="Y929" s="15"/>
@@ -34925,12 +34980,12 @@
       <c r="AC929" s="15"/>
     </row>
     <row r="930" spans="17:29">
-      <c r="Q930" s="15"/>
-      <c r="R930" s="15"/>
-      <c r="S930" s="15"/>
-      <c r="T930" s="15"/>
-      <c r="U930" s="15"/>
-      <c r="V930" s="15"/>
+      <c r="Q930" s="20"/>
+      <c r="R930" s="20"/>
+      <c r="S930" s="20"/>
+      <c r="T930" s="20"/>
+      <c r="U930" s="20"/>
+      <c r="V930" s="20"/>
       <c r="W930" s="15"/>
       <c r="X930" s="15"/>
       <c r="Y930" s="15"/>
@@ -34970,12 +35025,12 @@
       <c r="AC932" s="15"/>
     </row>
     <row r="933" spans="17:29">
-      <c r="Q933" s="20"/>
-      <c r="R933" s="20"/>
-      <c r="S933" s="20"/>
-      <c r="T933" s="20"/>
-      <c r="U933" s="20"/>
-      <c r="V933" s="20"/>
+      <c r="Q933" s="15"/>
+      <c r="R933" s="15"/>
+      <c r="S933" s="15"/>
+      <c r="T933" s="15"/>
+      <c r="U933" s="15"/>
+      <c r="V933" s="15"/>
       <c r="W933" s="15"/>
       <c r="X933" s="15"/>
       <c r="Y933" s="15"/>
@@ -35000,12 +35055,12 @@
       <c r="AC934" s="15"/>
     </row>
     <row r="935" spans="17:29">
-      <c r="Q935" s="15"/>
-      <c r="R935" s="15"/>
-      <c r="S935" s="15"/>
-      <c r="T935" s="15"/>
-      <c r="U935" s="15"/>
-      <c r="V935" s="15"/>
+      <c r="Q935" s="20"/>
+      <c r="R935" s="20"/>
+      <c r="S935" s="20"/>
+      <c r="T935" s="20"/>
+      <c r="U935" s="20"/>
+      <c r="V935" s="20"/>
       <c r="W935" s="15"/>
       <c r="X935" s="15"/>
       <c r="Y935" s="15"/>
@@ -35045,12 +35100,12 @@
       <c r="AC937" s="15"/>
     </row>
     <row r="938" spans="17:29">
-      <c r="Q938" s="20"/>
-      <c r="R938" s="20"/>
-      <c r="S938" s="20"/>
-      <c r="T938" s="20"/>
-      <c r="U938" s="20"/>
-      <c r="V938" s="20"/>
+      <c r="Q938" s="15"/>
+      <c r="R938" s="15"/>
+      <c r="S938" s="15"/>
+      <c r="T938" s="15"/>
+      <c r="U938" s="15"/>
+      <c r="V938" s="15"/>
       <c r="W938" s="15"/>
       <c r="X938" s="15"/>
       <c r="Y938" s="15"/>
@@ -35075,12 +35130,12 @@
       <c r="AC939" s="15"/>
     </row>
     <row r="940" spans="17:29">
-      <c r="Q940" s="15"/>
-      <c r="R940" s="15"/>
-      <c r="S940" s="15"/>
-      <c r="T940" s="15"/>
-      <c r="U940" s="15"/>
-      <c r="V940" s="15"/>
+      <c r="Q940" s="20"/>
+      <c r="R940" s="20"/>
+      <c r="S940" s="20"/>
+      <c r="T940" s="20"/>
+      <c r="U940" s="20"/>
+      <c r="V940" s="20"/>
       <c r="W940" s="15"/>
       <c r="X940" s="15"/>
       <c r="Y940" s="15"/>
@@ -35120,12 +35175,12 @@
       <c r="AC942" s="15"/>
     </row>
     <row r="943" spans="17:29">
-      <c r="Q943" s="20"/>
-      <c r="R943" s="20"/>
-      <c r="S943" s="20"/>
-      <c r="T943" s="20"/>
-      <c r="U943" s="20"/>
-      <c r="V943" s="20"/>
+      <c r="Q943" s="15"/>
+      <c r="R943" s="15"/>
+      <c r="S943" s="15"/>
+      <c r="T943" s="15"/>
+      <c r="U943" s="15"/>
+      <c r="V943" s="15"/>
       <c r="W943" s="15"/>
       <c r="X943" s="15"/>
       <c r="Y943" s="15"/>
@@ -35135,12 +35190,12 @@
       <c r="AC943" s="15"/>
     </row>
     <row r="944" spans="17:29">
-      <c r="Q944" s="20"/>
-      <c r="R944" s="20"/>
-      <c r="S944" s="20"/>
-      <c r="T944" s="20"/>
-      <c r="U944" s="20"/>
-      <c r="V944" s="20"/>
+      <c r="Q944" s="15"/>
+      <c r="R944" s="15"/>
+      <c r="S944" s="15"/>
+      <c r="T944" s="15"/>
+      <c r="U944" s="15"/>
+      <c r="V944" s="15"/>
       <c r="W944" s="15"/>
       <c r="X944" s="15"/>
       <c r="Y944" s="15"/>
@@ -35330,37 +35385,7 @@
       <c r="AC956" s="15"/>
     </row>
     <row r="957" spans="17:29">
-      <c r="Q957" s="15"/>
-      <c r="R957" s="15"/>
-      <c r="S957" s="15"/>
-      <c r="T957" s="15"/>
-      <c r="U957" s="15"/>
-      <c r="V957" s="15"/>
-      <c r="W957" s="15"/>
-      <c r="X957" s="15"/>
-      <c r="Y957" s="15"/>
-      <c r="Z957" s="15"/>
       <c r="AA957" s="15"/>
-      <c r="AB957" s="15"/>
-      <c r="AC957" s="15"/>
-    </row>
-    <row r="958" spans="17:29">
-      <c r="Q958" s="15"/>
-      <c r="R958" s="15"/>
-      <c r="S958" s="15"/>
-      <c r="T958" s="15"/>
-      <c r="U958" s="15"/>
-      <c r="V958" s="15"/>
-      <c r="W958" s="15"/>
-      <c r="X958" s="15"/>
-      <c r="Y958" s="15"/>
-      <c r="Z958" s="15"/>
-      <c r="AA958" s="15"/>
-      <c r="AB958" s="15"/>
-      <c r="AC958" s="15"/>
-    </row>
-    <row r="959" spans="17:29">
-      <c r="AA959" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -35374,7 +35399,7 @@
   <dimension ref="A1:AO243"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q187" sqref="Q187"/>
+      <selection activeCell="T192" sqref="T192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -39138,12 +39163,24 @@
       </c>
     </row>
     <row r="180" spans="1:16">
-      <c r="A180" s="10"/>
-      <c r="B180" s="10"/>
+      <c r="A180" s="11">
+        <v>2</v>
+      </c>
+      <c r="B180" s="9">
+        <v>1</v>
+      </c>
       <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
+      <c r="D180" s="9">
+        <v>1</v>
+      </c>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
+      <c r="G180" s="9">
+        <v>1</v>
+      </c>
+      <c r="K180" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" s="10"/>
@@ -39152,9 +39189,6 @@
       <c r="D181" s="10"/>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
-      <c r="K181" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" s="10"/>
@@ -39163,6 +39197,9 @@
       <c r="D182" s="10"/>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
+      <c r="K182" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" s="10"/>
@@ -39463,6 +39500,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
     </row>
@@ -39522,7 +39560,9 @@
       <c r="D235" s="10"/>
     </row>
     <row r="236" spans="1:4">
+      <c r="A236" s="10"/>
       <c r="C236" s="10"/>
+      <c r="D236" s="10"/>
     </row>
     <row r="237" spans="1:4">
       <c r="C237" s="10"/>
@@ -39556,8 +39596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="S180" sqref="S180"/>
+    <sheetView topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44303,6 +44343,53 @@
         <v>15</v>
       </c>
     </row>
+    <row r="180" spans="1:19">
+      <c r="A180" s="1">
+        <v>2</v>
+      </c>
+      <c r="B180" s="1">
+        <v>3</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1">
+        <v>2</v>
+      </c>
+      <c r="G180" s="1">
+        <v>3</v>
+      </c>
+      <c r="H180" s="1">
+        <v>0</v>
+      </c>
+      <c r="I180" s="1">
+        <v>0</v>
+      </c>
+      <c r="J180" s="1">
+        <v>1</v>
+      </c>
+      <c r="K180" s="1">
+        <v>0</v>
+      </c>
+      <c r="N180" s="1">
+        <v>2</v>
+      </c>
+      <c r="O180" s="1">
+        <v>2</v>
+      </c>
+      <c r="P180" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q180" s="1">
+        <v>4</v>
+      </c>
+      <c r="R180" s="1">
+        <v>11</v>
+      </c>
+      <c r="S180" s="1">
+        <v>12</v>
+      </c>
+    </row>
     <row r="182" spans="1:19" customFormat="1">
       <c r="N182" s="18"/>
       <c r="O182" s="18"/>
@@ -44336,10 +44423,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN179"/>
+  <dimension ref="A100:AN180"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="W182" sqref="W182"/>
+    <sheetView topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="I188" sqref="I188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -47921,6 +48008,44 @@
         <v>6</v>
       </c>
     </row>
+    <row r="180" spans="1:19">
+      <c r="A180" s="11">
+        <v>2</v>
+      </c>
+      <c r="B180" s="9">
+        <v>1</v>
+      </c>
+      <c r="C180" s="9">
+        <v>1</v>
+      </c>
+      <c r="E180" s="9">
+        <v>1</v>
+      </c>
+      <c r="F180" s="9">
+        <v>1</v>
+      </c>
+      <c r="L180" s="16">
+        <v>1</v>
+      </c>
+      <c r="M180" s="16">
+        <v>1</v>
+      </c>
+      <c r="N180" s="16">
+        <v>2</v>
+      </c>
+      <c r="O180" s="16">
+        <v>3</v>
+      </c>
+      <c r="P180" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q180" s="16">
+        <v>6</v>
+      </c>
+      <c r="S180" s="16">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47933,7 +48058,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -48157,7 +48282,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -48292,10 +48417,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -48407,7 +48532,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -48424,7 +48549,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
@@ -48433,13 +48558,13 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
       </c>
       <c r="J11" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="18">
         <v>20</v>
@@ -48451,7 +48576,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -48459,13 +48584,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="G12" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
@@ -48480,7 +48605,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -48494,7 +48619,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" s="18">
         <v>0</v>
@@ -48508,7 +48633,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -48516,10 +48641,13 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="18">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N15" s="18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35398,8 +35398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T192" sqref="T192"/>
+    <sheetView topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -39596,8 +39596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="E191" sqref="E191"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="M189" sqref="M189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -588,6 +592,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -901,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO104"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH80" sqref="AH80"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE73" sqref="AE73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5513,7 +5520,7 @@
       <c r="M46" s="7">
         <v>3</v>
       </c>
-      <c r="N46" s="25">
+      <c r="N46" s="7">
         <v>1</v>
       </c>
       <c r="O46" s="7">
@@ -5614,7 +5621,7 @@
       <c r="M47" s="7">
         <v>2</v>
       </c>
-      <c r="N47" s="25">
+      <c r="N47" s="7">
         <v>5</v>
       </c>
       <c r="O47" s="7">
@@ -5715,7 +5722,7 @@
       <c r="M48" s="7">
         <v>0</v>
       </c>
-      <c r="N48" s="25">
+      <c r="N48" s="7">
         <v>2</v>
       </c>
       <c r="O48" s="7">
@@ -5816,7 +5823,7 @@
       <c r="M49" s="7">
         <v>2</v>
       </c>
-      <c r="N49" s="25">
+      <c r="N49" s="7">
         <v>2</v>
       </c>
       <c r="O49" s="7">
@@ -5923,7 +5930,9 @@
       <c r="O50" s="7">
         <v>2</v>
       </c>
-      <c r="P50" s="7"/>
+      <c r="P50" s="7">
+        <v>0</v>
+      </c>
       <c r="Q50" s="7">
         <v>4</v>
       </c>
@@ -5983,7 +5992,7 @@
       <c r="B51" s="7">
         <v>2</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C51" s="7">
         <v>5</v>
       </c>
       <c r="D51" s="7">
@@ -6082,7 +6091,7 @@
       <c r="B52" s="7">
         <v>0</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C52" s="7">
         <v>2</v>
       </c>
       <c r="D52" s="7">
@@ -6181,7 +6190,7 @@
       <c r="B53" s="7">
         <v>1</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C53" s="7">
         <v>2</v>
       </c>
       <c r="D53" s="7">
@@ -6316,7 +6325,7 @@
       <c r="N54" s="7">
         <v>5</v>
       </c>
-      <c r="O54" s="25">
+      <c r="O54" s="7">
         <v>5</v>
       </c>
       <c r="P54" s="7"/>
@@ -6415,7 +6424,7 @@
       <c r="N55" s="7">
         <v>3</v>
       </c>
-      <c r="O55" s="25">
+      <c r="O55" s="7">
         <v>2</v>
       </c>
       <c r="P55" s="7"/>
@@ -6514,7 +6523,7 @@
       <c r="N56" s="7">
         <v>1</v>
       </c>
-      <c r="O56" s="25">
+      <c r="O56" s="7">
         <v>2</v>
       </c>
       <c r="P56" s="7"/>
@@ -6602,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="7">
         <v>1</v>
@@ -6671,7 +6680,7 @@
     </row>
     <row r="58" spans="1:33" s="3" customFormat="1">
       <c r="A58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" s="7">
         <v>6</v>
@@ -6697,7 +6706,9 @@
       <c r="I58" s="7">
         <v>7</v>
       </c>
-      <c r="J58" s="25"/>
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7">
         <v>0</v>
@@ -6716,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S58" s="7">
         <v>3</v>
@@ -6731,7 +6742,7 @@
         <v>7</v>
       </c>
       <c r="W58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="7">
         <v>17</v>
@@ -6754,7 +6765,9 @@
       <c r="AD58" s="40">
         <v>0</v>
       </c>
-      <c r="AE58" s="7"/>
+      <c r="AE58" s="7">
+        <v>0</v>
+      </c>
       <c r="AF58" s="7">
         <v>6</v>
       </c>
@@ -6767,7 +6780,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D59" s="7">
         <v>6</v>
@@ -6910,11 +6923,14 @@
       <c r="AC60" s="7">
         <v>5</v>
       </c>
+      <c r="AD60" s="7">
+        <v>0</v>
+      </c>
       <c r="AF60" s="7">
         <v>3</v>
       </c>
       <c r="AG60" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
@@ -6964,7 +6980,7 @@
         <v>4</v>
       </c>
       <c r="T61" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U61" s="7">
         <v>0</v>
@@ -6983,7 +6999,7 @@
         <v>8</v>
       </c>
       <c r="AA61" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB61" s="7">
         <v>12</v>
@@ -7024,7 +7040,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -7065,7 +7081,7 @@
         <v>12</v>
       </c>
       <c r="AC62" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD62" s="7"/>
       <c r="AE62" s="3"/>
@@ -7092,7 +7108,9 @@
       <c r="G63" s="7">
         <v>5</v>
       </c>
-      <c r="H63" s="4"/>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
       <c r="I63" s="7">
         <v>2</v>
       </c>
@@ -7128,7 +7146,7 @@
         <v>3</v>
       </c>
       <c r="Y63" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z63" s="4">
         <v>12</v>
@@ -7140,7 +7158,7 @@
       <c r="AD63" s="7"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG63" s="5"/>
     </row>
@@ -7162,14 +7180,16 @@
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4">
         <v>10</v>
       </c>
-      <c r="N64" s="4"/>
+      <c r="N64" s="4">
+        <v>0</v>
+      </c>
       <c r="O64" s="4">
         <v>7</v>
       </c>
@@ -7183,7 +7203,7 @@
       </c>
       <c r="T64" s="7"/>
       <c r="U64" s="40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V64" s="4">
         <v>4</v>
@@ -7263,7 +7283,7 @@
     </row>
     <row r="66" spans="1:33">
       <c r="B66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="7">
         <v>0</v>
@@ -7272,7 +7292,7 @@
         <v>2</v>
       </c>
       <c r="F66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
@@ -7293,7 +7313,7 @@
       </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
@@ -7309,7 +7329,7 @@
         <v>4</v>
       </c>
       <c r="AB66" s="14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7325,7 +7345,7 @@
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -7336,7 +7356,7 @@
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
@@ -7351,10 +7371,10 @@
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z67" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB67" s="12"/>
       <c r="AD67" s="4"/>
@@ -7423,7 +7443,7 @@
       <c r="T69" s="3"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
@@ -7511,7 +7531,7 @@
         <v>7</v>
       </c>
       <c r="E72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="4"/>
       <c r="I72" s="4"/>
@@ -7549,13 +7569,13 @@
       <c r="I73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
@@ -7604,7 +7624,7 @@
       <c r="A75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F75" s="4"/>
       <c r="H75" s="4"/>
@@ -8097,8 +8117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT957"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X185" sqref="X185"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T187" sqref="T187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -21165,7 +21185,7 @@
         <v>1</v>
       </c>
       <c r="V160" s="20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W160" s="20"/>
       <c r="X160" s="19">
@@ -21259,7 +21279,7 @@
         <v>3</v>
       </c>
       <c r="S161" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T161" s="19">
         <v>0</v>
@@ -21268,7 +21288,7 @@
         <v>10</v>
       </c>
       <c r="V161" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W161" s="20"/>
       <c r="X161" s="19">
@@ -21566,7 +21586,7 @@
       <c r="T164" s="19">
         <v>8</v>
       </c>
-      <c r="U164" s="20">
+      <c r="U164" s="19">
         <v>16</v>
       </c>
       <c r="V164" s="19">
@@ -21588,7 +21608,9 @@
       <c r="AB164" s="19">
         <v>8</v>
       </c>
-      <c r="AC164" s="20"/>
+      <c r="AC164" s="22">
+        <v>16</v>
+      </c>
       <c r="AD164" s="64"/>
       <c r="AF164" s="39"/>
       <c r="AH164" s="21">
@@ -22075,7 +22097,7 @@
         <v>2</v>
       </c>
       <c r="U169" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V169" s="22">
         <v>2</v>
@@ -22169,7 +22191,7 @@
         <v>2</v>
       </c>
       <c r="R170" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S170" s="22">
         <v>0</v>
@@ -22374,7 +22396,7 @@
         <v>1</v>
       </c>
       <c r="S172" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T172" s="22">
         <v>0</v>
@@ -22383,7 +22405,7 @@
         <v>5</v>
       </c>
       <c r="V172" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W172" s="23"/>
       <c r="X172" s="22">
@@ -22472,7 +22494,7 @@
         <v>1</v>
       </c>
       <c r="T173" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U173" s="22">
         <v>4</v>
@@ -22578,10 +22600,10 @@
         <v>3</v>
       </c>
       <c r="U174" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V174" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W174" s="23"/>
       <c r="X174" s="21">
@@ -22670,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="S175" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T175" s="19">
         <v>1</v>
@@ -22679,7 +22701,7 @@
         <v>1</v>
       </c>
       <c r="V175" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W175" s="20"/>
       <c r="X175" s="16">
@@ -22759,7 +22781,7 @@
       </c>
       <c r="P176" s="22"/>
       <c r="Q176" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R176" s="19">
         <v>3</v>
@@ -22774,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -22851,22 +22873,22 @@
       </c>
       <c r="P177" s="22"/>
       <c r="Q177" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R177" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S177" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T177" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U177" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V177" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W177" s="23"/>
       <c r="X177" s="23"/>
@@ -22937,7 +22959,7 @@
         <v>15</v>
       </c>
       <c r="P178" s="22"/>
-      <c r="Q178" s="23">
+      <c r="Q178" s="22">
         <v>2</v>
       </c>
       <c r="R178" s="22">
@@ -22947,7 +22969,7 @@
         <v>0</v>
       </c>
       <c r="T178" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U178" s="22">
         <v>1</v>
@@ -22968,9 +22990,13 @@
       <c r="AA178" s="21">
         <v>1</v>
       </c>
-      <c r="AB178" s="39"/>
+      <c r="AB178" s="21">
+        <v>2</v>
+      </c>
       <c r="AC178" s="39"/>
-      <c r="AD178" s="64"/>
+      <c r="AD178" s="66" t="s">
+        <v>24</v>
+      </c>
       <c r="AF178" s="39"/>
       <c r="AH178" s="21">
         <v>1</v>
@@ -23044,16 +23070,16 @@
       <c r="R179" s="22">
         <v>0</v>
       </c>
-      <c r="S179" s="23">
-        <v>1</v>
-      </c>
-      <c r="T179" s="23">
-        <v>1</v>
-      </c>
-      <c r="U179" s="23">
-        <v>1</v>
-      </c>
-      <c r="V179" s="23">
+      <c r="S179" s="22">
+        <v>1</v>
+      </c>
+      <c r="T179" s="22">
+        <v>1</v>
+      </c>
+      <c r="U179" s="22">
+        <v>1</v>
+      </c>
+      <c r="V179" s="22">
         <v>1</v>
       </c>
       <c r="W179" s="23"/>
@@ -23063,10 +23089,18 @@
       <c r="Y179" s="21">
         <v>0</v>
       </c>
-      <c r="Z179" s="39"/>
-      <c r="AA179" s="39"/>
-      <c r="AB179" s="39"/>
-      <c r="AC179" s="39"/>
+      <c r="Z179" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA179" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB179" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC179" s="21">
+        <v>1</v>
+      </c>
       <c r="AD179" s="64"/>
       <c r="AF179" s="39"/>
     </row>
@@ -23109,22 +23143,22 @@
       </c>
       <c r="P180" s="22"/>
       <c r="Q180" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R180" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S180" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T180" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U180" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V180" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W180" s="23"/>
       <c r="X180" s="39"/>
@@ -23137,20 +23171,68 @@
       <c r="AF180" s="39"/>
     </row>
     <row r="181" spans="1:43" s="21" customFormat="1">
+      <c r="A181" s="21">
+        <v>2</v>
+      </c>
+      <c r="B181" s="21">
+        <v>1</v>
+      </c>
+      <c r="C181" s="21">
+        <v>1</v>
+      </c>
+      <c r="D181" s="21">
+        <v>1</v>
+      </c>
+      <c r="E181" s="21">
+        <v>1</v>
+      </c>
+      <c r="F181" s="21">
+        <v>16</v>
+      </c>
+      <c r="I181" s="21">
+        <v>1</v>
+      </c>
+      <c r="J181" s="21">
+        <v>1</v>
+      </c>
+      <c r="K181" s="21">
+        <v>1</v>
+      </c>
+      <c r="L181" s="21">
+        <v>1</v>
+      </c>
+      <c r="M181" s="21">
+        <v>2</v>
+      </c>
+      <c r="N181" s="21">
+        <v>16</v>
+      </c>
       <c r="P181" s="22"/>
-      <c r="Q181" s="23"/>
-      <c r="R181" s="23"/>
-      <c r="S181" s="23"/>
-      <c r="T181" s="23"/>
-      <c r="U181" s="23"/>
-      <c r="V181" s="23"/>
-      <c r="W181" s="23"/>
-      <c r="X181" s="39"/>
-      <c r="Y181" s="39"/>
-      <c r="Z181" s="23"/>
-      <c r="AA181" s="23"/>
-      <c r="AB181" s="23"/>
-      <c r="AC181" s="23"/>
+      <c r="Q181" s="20">
+        <v>0</v>
+      </c>
+      <c r="R181" s="20">
+        <v>0</v>
+      </c>
+      <c r="S181" s="20">
+        <v>0</v>
+      </c>
+      <c r="T181" s="20">
+        <v>0</v>
+      </c>
+      <c r="U181" s="20">
+        <v>0</v>
+      </c>
+      <c r="V181" s="20">
+        <v>0</v>
+      </c>
+      <c r="W181" s="20"/>
+      <c r="X181" s="20"/>
+      <c r="Y181" s="20"/>
+      <c r="Z181" s="20"/>
+      <c r="AA181" s="20"/>
+      <c r="AB181" s="20"/>
+      <c r="AC181" s="20"/>
       <c r="AD181" s="64"/>
       <c r="AF181" s="39"/>
     </row>
@@ -23174,39 +23256,37 @@
     </row>
     <row r="183" spans="1:43" s="21" customFormat="1">
       <c r="P183" s="22"/>
-      <c r="Q183" s="20"/>
-      <c r="R183" s="20"/>
-      <c r="S183" s="20"/>
-      <c r="T183" s="20"/>
-      <c r="U183" s="20"/>
-      <c r="V183" s="20"/>
-      <c r="W183" s="20"/>
-      <c r="X183" s="20"/>
-      <c r="Y183" s="20"/>
-      <c r="Z183" s="20"/>
-      <c r="AA183" s="20"/>
-      <c r="AB183" s="20"/>
-      <c r="AC183" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q183" s="23"/>
+      <c r="R183" s="23"/>
+      <c r="S183" s="23"/>
+      <c r="T183" s="23"/>
+      <c r="U183" s="23"/>
+      <c r="V183" s="23"/>
+      <c r="W183" s="23"/>
+      <c r="X183" s="23"/>
+      <c r="Y183" s="23"/>
+      <c r="Z183" s="23"/>
+      <c r="AA183" s="23"/>
+      <c r="AB183" s="23"/>
+      <c r="AC183" s="23"/>
       <c r="AD183" s="64"/>
       <c r="AF183" s="39"/>
     </row>
     <row r="184" spans="1:43" s="21" customFormat="1">
       <c r="P184" s="22"/>
-      <c r="Q184" s="20"/>
-      <c r="R184" s="20"/>
-      <c r="S184" s="20"/>
-      <c r="T184" s="20"/>
-      <c r="U184" s="20"/>
-      <c r="V184" s="20"/>
-      <c r="W184" s="20"/>
-      <c r="X184" s="20"/>
-      <c r="Y184" s="20"/>
-      <c r="Z184" s="20"/>
-      <c r="AA184" s="20"/>
-      <c r="AB184" s="20"/>
-      <c r="AC184" s="20"/>
+      <c r="Q184" s="23"/>
+      <c r="R184" s="23"/>
+      <c r="S184" s="23"/>
+      <c r="T184" s="23"/>
+      <c r="U184" s="23"/>
+      <c r="V184" s="23"/>
+      <c r="W184" s="23"/>
+      <c r="X184" s="39"/>
+      <c r="Y184" s="39"/>
+      <c r="Z184" s="39"/>
+      <c r="AA184" s="39"/>
+      <c r="AB184" s="39"/>
+      <c r="AC184" s="39"/>
       <c r="AD184" s="64"/>
       <c r="AF184" s="39"/>
     </row>
@@ -23254,7 +23334,7 @@
       <c r="T187" s="23"/>
       <c r="U187" s="23"/>
       <c r="V187" s="23"/>
-      <c r="W187" s="23"/>
+      <c r="W187" s="39"/>
       <c r="X187" s="39"/>
       <c r="Y187" s="39"/>
       <c r="Z187" s="39"/>
@@ -23272,13 +23352,13 @@
       <c r="T188" s="23"/>
       <c r="U188" s="23"/>
       <c r="V188" s="23"/>
-      <c r="W188" s="23"/>
-      <c r="X188" s="23"/>
-      <c r="Y188" s="23"/>
-      <c r="Z188" s="23"/>
-      <c r="AA188" s="23"/>
-      <c r="AB188" s="23"/>
-      <c r="AC188" s="23"/>
+      <c r="W188" s="39"/>
+      <c r="X188" s="39"/>
+      <c r="Y188" s="39"/>
+      <c r="Z188" s="39"/>
+      <c r="AA188" s="39"/>
+      <c r="AB188" s="39"/>
+      <c r="AC188" s="39"/>
       <c r="AD188" s="64"/>
       <c r="AF188" s="39"/>
     </row>
@@ -23290,13 +23370,13 @@
       <c r="T189" s="23"/>
       <c r="U189" s="23"/>
       <c r="V189" s="23"/>
-      <c r="W189" s="23"/>
-      <c r="X189" s="23"/>
-      <c r="Y189" s="23"/>
-      <c r="Z189" s="23"/>
-      <c r="AA189" s="23"/>
-      <c r="AB189" s="23"/>
-      <c r="AC189" s="23"/>
+      <c r="W189" s="39"/>
+      <c r="X189" s="39"/>
+      <c r="Y189" s="39"/>
+      <c r="Z189" s="39"/>
+      <c r="AA189" s="39"/>
+      <c r="AB189" s="39"/>
+      <c r="AC189" s="39"/>
       <c r="AD189" s="64"/>
       <c r="AF189" s="39"/>
     </row>
@@ -23319,7 +23399,6 @@
       <c r="AF190" s="39"/>
     </row>
     <row r="191" spans="1:43" s="21" customFormat="1">
-      <c r="P191" s="22"/>
       <c r="Q191" s="23"/>
       <c r="R191" s="23"/>
       <c r="S191" s="23"/>
@@ -23337,90 +23416,90 @@
       <c r="AF191" s="39"/>
     </row>
     <row r="192" spans="1:43" s="21" customFormat="1">
-      <c r="P192" s="22"/>
       <c r="Q192" s="23"/>
       <c r="R192" s="23"/>
       <c r="S192" s="23"/>
       <c r="T192" s="23"/>
       <c r="U192" s="23"/>
       <c r="V192" s="23"/>
-      <c r="W192" s="39"/>
+      <c r="W192" s="23"/>
       <c r="X192" s="39"/>
       <c r="Y192" s="39"/>
-      <c r="Z192" s="39"/>
-      <c r="AA192" s="39"/>
-      <c r="AB192" s="39"/>
-      <c r="AC192" s="39"/>
+      <c r="Z192" s="23"/>
+      <c r="AA192" s="23"/>
+      <c r="AB192" s="23"/>
+      <c r="AC192" s="23"/>
       <c r="AD192" s="64"/>
       <c r="AF192" s="39"/>
     </row>
     <row r="193" spans="16:32" s="21" customFormat="1">
       <c r="P193" s="22"/>
-      <c r="Q193" s="23"/>
-      <c r="R193" s="23"/>
-      <c r="S193" s="23"/>
-      <c r="T193" s="23"/>
-      <c r="U193" s="23"/>
-      <c r="V193" s="23"/>
-      <c r="W193" s="39"/>
-      <c r="X193" s="39"/>
-      <c r="Y193" s="39"/>
-      <c r="Z193" s="39"/>
-      <c r="AA193" s="39"/>
-      <c r="AB193" s="39"/>
-      <c r="AC193" s="39"/>
+      <c r="Q193" s="20"/>
+      <c r="R193" s="20"/>
+      <c r="S193" s="20"/>
+      <c r="T193" s="20"/>
+      <c r="U193" s="20"/>
+      <c r="V193" s="20"/>
+      <c r="W193" s="15"/>
+      <c r="X193" s="15"/>
+      <c r="Y193" s="15"/>
+      <c r="Z193" s="15"/>
+      <c r="AA193" s="15"/>
+      <c r="AB193" s="15"/>
+      <c r="AC193" s="15"/>
       <c r="AD193" s="64"/>
       <c r="AF193" s="39"/>
     </row>
     <row r="194" spans="16:32" s="21" customFormat="1">
+      <c r="P194" s="22"/>
       <c r="Q194" s="23"/>
       <c r="R194" s="23"/>
       <c r="S194" s="23"/>
       <c r="T194" s="23"/>
       <c r="U194" s="23"/>
       <c r="V194" s="23"/>
-      <c r="W194" s="39"/>
-      <c r="X194" s="39"/>
-      <c r="Y194" s="39"/>
-      <c r="Z194" s="39"/>
-      <c r="AA194" s="39"/>
-      <c r="AB194" s="39"/>
-      <c r="AC194" s="39"/>
+      <c r="W194" s="23"/>
+      <c r="X194" s="23"/>
+      <c r="Y194" s="23"/>
+      <c r="Z194" s="23"/>
+      <c r="AA194" s="23"/>
+      <c r="AB194" s="23"/>
+      <c r="AC194" s="23"/>
       <c r="AD194" s="64"/>
       <c r="AF194" s="39"/>
     </row>
-    <row r="195" spans="16:32" s="21" customFormat="1">
-      <c r="Q195" s="23"/>
-      <c r="R195" s="23"/>
-      <c r="S195" s="23"/>
-      <c r="T195" s="23"/>
-      <c r="U195" s="23"/>
-      <c r="V195" s="23"/>
-      <c r="W195" s="23"/>
+    <row r="195" spans="16:32">
+      <c r="Q195" s="39"/>
+      <c r="R195" s="39"/>
+      <c r="S195" s="39"/>
+      <c r="T195" s="39"/>
+      <c r="U195" s="39"/>
+      <c r="V195" s="39"/>
+      <c r="W195" s="39"/>
       <c r="X195" s="39"/>
       <c r="Y195" s="39"/>
-      <c r="Z195" s="23"/>
-      <c r="AA195" s="23"/>
-      <c r="AB195" s="23"/>
-      <c r="AC195" s="23"/>
+      <c r="Z195" s="39"/>
+      <c r="AA195" s="39"/>
+      <c r="AB195" s="39"/>
+      <c r="AC195" s="39"/>
       <c r="AD195" s="64"/>
       <c r="AF195" s="39"/>
     </row>
     <row r="196" spans="16:32" s="21" customFormat="1">
       <c r="P196" s="22"/>
-      <c r="Q196" s="20"/>
-      <c r="R196" s="20"/>
-      <c r="S196" s="20"/>
-      <c r="T196" s="20"/>
-      <c r="U196" s="20"/>
-      <c r="V196" s="20"/>
-      <c r="W196" s="15"/>
-      <c r="X196" s="15"/>
-      <c r="Y196" s="15"/>
-      <c r="Z196" s="15"/>
-      <c r="AA196" s="15"/>
-      <c r="AB196" s="15"/>
-      <c r="AC196" s="15"/>
+      <c r="Q196" s="23"/>
+      <c r="R196" s="23"/>
+      <c r="S196" s="23"/>
+      <c r="T196" s="23"/>
+      <c r="U196" s="23"/>
+      <c r="V196" s="23"/>
+      <c r="W196" s="39"/>
+      <c r="X196" s="39"/>
+      <c r="Y196" s="39"/>
+      <c r="Z196" s="39"/>
+      <c r="AA196" s="39"/>
+      <c r="AB196" s="39"/>
+      <c r="AC196" s="39"/>
       <c r="AD196" s="64"/>
       <c r="AF196" s="39"/>
     </row>
@@ -23442,20 +23521,23 @@
       <c r="AD197" s="64"/>
       <c r="AF197" s="39"/>
     </row>
-    <row r="198" spans="16:32">
-      <c r="Q198" s="39"/>
-      <c r="R198" s="39"/>
-      <c r="S198" s="39"/>
-      <c r="T198" s="39"/>
-      <c r="U198" s="39"/>
-      <c r="V198" s="39"/>
-      <c r="W198" s="39"/>
-      <c r="X198" s="39"/>
-      <c r="Y198" s="39"/>
-      <c r="Z198" s="39"/>
-      <c r="AA198" s="39"/>
-      <c r="AB198" s="39"/>
-      <c r="AC198" s="39"/>
+    <row r="198" spans="16:32" s="21" customFormat="1">
+      <c r="P198" s="22"/>
+      <c r="Q198" s="20"/>
+      <c r="R198" s="20"/>
+      <c r="S198" s="20"/>
+      <c r="T198" s="20"/>
+      <c r="U198" s="20"/>
+      <c r="V198" s="20"/>
+      <c r="W198" s="20"/>
+      <c r="X198" s="20"/>
+      <c r="Y198" s="20"/>
+      <c r="Z198" s="20"/>
+      <c r="AA198" s="20"/>
+      <c r="AB198" s="20"/>
+      <c r="AC198" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="AD198" s="64"/>
       <c r="AF198" s="39"/>
     </row>
@@ -23467,13 +23549,13 @@
       <c r="T199" s="23"/>
       <c r="U199" s="23"/>
       <c r="V199" s="23"/>
-      <c r="W199" s="39"/>
+      <c r="W199" s="23"/>
       <c r="X199" s="39"/>
       <c r="Y199" s="39"/>
-      <c r="Z199" s="39"/>
-      <c r="AA199" s="39"/>
-      <c r="AB199" s="39"/>
-      <c r="AC199" s="39"/>
+      <c r="Z199" s="23"/>
+      <c r="AA199" s="23"/>
+      <c r="AB199" s="23"/>
+      <c r="AC199" s="23"/>
       <c r="AD199" s="64"/>
       <c r="AF199" s="39"/>
     </row>
@@ -35396,10 +35478,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO243"/>
+  <dimension ref="A1:AO244"/>
   <sheetViews>
     <sheetView topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H188" sqref="H188"/>
+      <selection activeCell="Q181" sqref="Q181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -39107,7 +39189,7 @@
       <c r="O176" s="18"/>
       <c r="P176" s="10"/>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:17">
       <c r="A177" s="11">
         <v>2</v>
       </c>
@@ -39123,7 +39205,7 @@
       </c>
       <c r="F177" s="10"/>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:17">
       <c r="A178" s="10"/>
       <c r="B178" s="9">
         <v>1</v>
@@ -39144,7 +39226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:17">
       <c r="A179" s="11">
         <v>3</v>
       </c>
@@ -39162,7 +39244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:17">
       <c r="A180" s="11">
         <v>2</v>
       </c>
@@ -39182,15 +39264,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:17">
       <c r="A181" s="10"/>
-      <c r="B181" s="10"/>
-      <c r="C181" s="10"/>
+      <c r="B181" s="11">
+        <v>4</v>
+      </c>
+      <c r="C181" s="9">
+        <v>1</v>
+      </c>
       <c r="D181" s="10"/>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
-    </row>
-    <row r="182" spans="1:16">
+      <c r="Q181" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -39201,7 +39290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:17">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -39209,7 +39298,7 @@
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:17">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -39217,7 +39306,7 @@
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:17">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -39225,7 +39314,7 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:17">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -39233,7 +39322,7 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:17">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -39241,7 +39330,7 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:17">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -39249,7 +39338,7 @@
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:17">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -39257,7 +39346,7 @@
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:17">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -39265,7 +39354,7 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:17">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -39273,7 +39362,7 @@
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:17">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -39506,6 +39595,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
     </row>
@@ -39584,6 +39674,9 @@
     </row>
     <row r="243" spans="3:3">
       <c r="C243" s="10"/>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -39596,8 +39689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="M189" sqref="M189"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="H191" sqref="H191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44390,6 +44483,53 @@
         <v>12</v>
       </c>
     </row>
+    <row r="181" spans="1:19">
+      <c r="A181" s="1">
+        <v>0</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1</v>
+      </c>
+      <c r="C181" s="1">
+        <v>5</v>
+      </c>
+      <c r="F181" s="1">
+        <v>1</v>
+      </c>
+      <c r="G181" s="1">
+        <v>0</v>
+      </c>
+      <c r="H181" s="1">
+        <v>1</v>
+      </c>
+      <c r="I181" s="1">
+        <v>1</v>
+      </c>
+      <c r="J181" s="1">
+        <v>2</v>
+      </c>
+      <c r="K181" s="1">
+        <v>1</v>
+      </c>
+      <c r="N181" s="1">
+        <v>0</v>
+      </c>
+      <c r="O181" s="1">
+        <v>0</v>
+      </c>
+      <c r="P181" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="1">
+        <v>2</v>
+      </c>
+      <c r="R181" s="1">
+        <v>4</v>
+      </c>
+      <c r="S181" s="1">
+        <v>7</v>
+      </c>
+    </row>
     <row r="182" spans="1:19" customFormat="1">
       <c r="N182" s="18"/>
       <c r="O182" s="18"/>
@@ -44423,10 +44563,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN180"/>
+  <dimension ref="A100:AN181"/>
   <sheetViews>
     <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="I188" sqref="I188"/>
+      <selection activeCell="R191" sqref="R191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -48046,6 +48186,44 @@
         <v>4</v>
       </c>
     </row>
+    <row r="181" spans="1:19">
+      <c r="A181" s="9">
+        <v>1</v>
+      </c>
+      <c r="D181" s="9">
+        <v>1</v>
+      </c>
+      <c r="F181" s="9">
+        <v>1</v>
+      </c>
+      <c r="H181" s="9">
+        <v>1</v>
+      </c>
+      <c r="J181" s="11">
+        <v>2</v>
+      </c>
+      <c r="L181" s="16">
+        <v>0</v>
+      </c>
+      <c r="M181" s="16">
+        <v>0</v>
+      </c>
+      <c r="N181" s="16">
+        <v>1</v>
+      </c>
+      <c r="O181" s="16">
+        <v>4</v>
+      </c>
+      <c r="P181" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q181" s="16">
+        <v>8</v>
+      </c>
+      <c r="S181" s="16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48058,7 +48236,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -48282,7 +48460,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -48420,7 +48598,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -48463,6 +48641,9 @@
       </c>
     </row>
     <row r="9" spans="1:16">
+      <c r="A9" s="18">
+        <v>0</v>
+      </c>
       <c r="C9" s="19">
         <v>14</v>
       </c>
@@ -48532,7 +48713,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -48549,7 +48730,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
@@ -48558,13 +48739,13 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
       </c>
       <c r="J11" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="18">
         <v>20</v>
@@ -48576,7 +48757,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -48584,13 +48765,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="G12" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
@@ -48605,7 +48786,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -48619,7 +48800,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N13" s="18">
         <v>0</v>
@@ -48633,7 +48814,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -48641,13 +48822,13 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,16 +119,12 @@
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,15 +381,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -451,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -588,15 +575,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -617,6 +595,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665125</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="13009525" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -908,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO104"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE73" sqref="AE73"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6031,7 +6052,9 @@
       <c r="O51" s="7">
         <v>2</v>
       </c>
-      <c r="P51" s="7"/>
+      <c r="P51" s="7">
+        <v>0</v>
+      </c>
       <c r="Q51" s="7">
         <v>0</v>
       </c>
@@ -6611,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" s="7">
         <v>1</v>
@@ -6680,7 +6703,7 @@
     </row>
     <row r="58" spans="1:33" s="3" customFormat="1">
       <c r="A58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" s="7">
         <v>6</v>
@@ -6707,7 +6730,7 @@
         <v>7</v>
       </c>
       <c r="J58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7">
@@ -6727,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S58" s="7">
         <v>3</v>
@@ -6742,7 +6765,7 @@
         <v>7</v>
       </c>
       <c r="W58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X58" s="7">
         <v>17</v>
@@ -6766,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="AE58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF58" s="7">
         <v>6</v>
@@ -6780,7 +6803,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="7">
         <v>6</v>
@@ -6930,7 +6953,7 @@
         <v>3</v>
       </c>
       <c r="AG60" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
@@ -6980,7 +7003,7 @@
         <v>4</v>
       </c>
       <c r="T61" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U61" s="7">
         <v>0</v>
@@ -7006,6 +7029,9 @@
       </c>
       <c r="AC61" s="7">
         <v>6</v>
+      </c>
+      <c r="AD61" s="14">
+        <v>0</v>
       </c>
       <c r="AE61" s="7"/>
       <c r="AF61" s="7">
@@ -7040,7 +7066,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -7076,12 +7102,14 @@
       <c r="Z62" s="7">
         <v>4</v>
       </c>
-      <c r="AA62" s="25"/>
+      <c r="AA62" s="7">
+        <v>0</v>
+      </c>
       <c r="AB62" s="7">
         <v>12</v>
       </c>
       <c r="AC62" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD62" s="7"/>
       <c r="AE62" s="3"/>
@@ -7109,7 +7137,7 @@
         <v>5</v>
       </c>
       <c r="H63" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="7">
         <v>2</v>
@@ -7146,7 +7174,7 @@
         <v>3</v>
       </c>
       <c r="Y63" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z63" s="4">
         <v>12</v>
@@ -7180,7 +7208,7 @@
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="4"/>
@@ -7188,7 +7216,7 @@
         <v>10</v>
       </c>
       <c r="N64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" s="4">
         <v>7</v>
@@ -7221,7 +7249,9 @@
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
       <c r="AG64" s="5"/>
     </row>
     <row r="65" spans="1:33">
@@ -7261,7 +7291,9 @@
         <v>3</v>
       </c>
       <c r="T65" s="3"/>
-      <c r="U65" s="4"/>
+      <c r="U65" s="4">
+        <v>0</v>
+      </c>
       <c r="V65" s="4">
         <v>9</v>
       </c>
@@ -7283,7 +7315,7 @@
     </row>
     <row r="66" spans="1:33">
       <c r="B66" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="7">
         <v>0</v>
@@ -7313,7 +7345,7 @@
       </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
@@ -7329,7 +7361,7 @@
         <v>4</v>
       </c>
       <c r="AB66" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7343,9 +7375,11 @@
       <c r="E67" s="14">
         <v>17</v>
       </c>
-      <c r="F67" s="4"/>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
       <c r="G67" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -7356,7 +7390,7 @@
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
@@ -7371,10 +7405,10 @@
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z67" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB67" s="12"/>
       <c r="AD67" s="4"/>
@@ -7443,7 +7477,7 @@
       <c r="T69" s="3"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
@@ -7531,7 +7565,7 @@
         <v>7</v>
       </c>
       <c r="E72" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="4"/>
       <c r="I72" s="4"/>
@@ -7569,13 +7603,13 @@
       <c r="I73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
@@ -7624,7 +7658,7 @@
       <c r="A75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F75" s="4"/>
       <c r="H75" s="4"/>
@@ -8117,8 +8151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T187" sqref="T187"/>
+    <sheetView topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -8126,7 +8160,7 @@
     <col min="1" max="16" width="5.125" style="1" customWidth="1"/>
     <col min="17" max="27" width="4.625" style="1" customWidth="1"/>
     <col min="28" max="29" width="5.625" style="1"/>
-    <col min="30" max="30" width="5.625" style="65"/>
+    <col min="30" max="30" width="5.625" style="23"/>
     <col min="31" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
@@ -8204,7 +8238,7 @@
       <c r="AC1" s="19">
         <v>9</v>
       </c>
-      <c r="AD1" s="65"/>
+      <c r="AD1" s="23"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1">
@@ -16428,7 +16462,7 @@
       <c r="AC110" s="22">
         <v>23</v>
       </c>
-      <c r="AD110" s="65"/>
+      <c r="AD110" s="23"/>
       <c r="AF110" s="22"/>
     </row>
     <row r="111" spans="1:32" s="21" customFormat="1">
@@ -16506,7 +16540,7 @@
       <c r="AC111" s="22">
         <v>13</v>
       </c>
-      <c r="AD111" s="65"/>
+      <c r="AD111" s="23"/>
       <c r="AF111" s="22"/>
     </row>
     <row r="112" spans="1:32" s="21" customFormat="1">
@@ -16584,7 +16618,7 @@
       <c r="AC112" s="22">
         <v>10</v>
       </c>
-      <c r="AD112" s="65"/>
+      <c r="AD112" s="23"/>
       <c r="AF112" s="22"/>
     </row>
     <row r="113" spans="1:43" s="21" customFormat="1">
@@ -16662,7 +16696,7 @@
       <c r="AC113" s="22">
         <v>9</v>
       </c>
-      <c r="AD113" s="65"/>
+      <c r="AD113" s="23"/>
       <c r="AF113" s="22"/>
     </row>
     <row r="114" spans="1:43" s="21" customFormat="1">
@@ -16740,7 +16774,7 @@
       <c r="AC114" s="22">
         <v>6</v>
       </c>
-      <c r="AD114" s="65"/>
+      <c r="AD114" s="23"/>
       <c r="AF114" s="22"/>
     </row>
     <row r="115" spans="1:43" s="21" customFormat="1">
@@ -16818,7 +16852,7 @@
       <c r="AC115" s="22">
         <v>14</v>
       </c>
-      <c r="AD115" s="65"/>
+      <c r="AD115" s="23"/>
       <c r="AF115" s="22"/>
     </row>
     <row r="116" spans="1:43" s="21" customFormat="1">
@@ -16896,7 +16930,7 @@
       <c r="AC116" s="22">
         <v>15</v>
       </c>
-      <c r="AD116" s="65"/>
+      <c r="AD116" s="23"/>
       <c r="AF116" s="22"/>
     </row>
     <row r="117" spans="1:43" s="21" customFormat="1">
@@ -16974,7 +17008,7 @@
       <c r="AC117" s="22">
         <v>17</v>
       </c>
-      <c r="AD117" s="65"/>
+      <c r="AD117" s="23"/>
       <c r="AF117" s="22"/>
     </row>
     <row r="118" spans="1:43" s="21" customFormat="1">
@@ -17052,7 +17086,7 @@
       <c r="AC118" s="22">
         <v>7</v>
       </c>
-      <c r="AD118" s="65"/>
+      <c r="AD118" s="23"/>
       <c r="AF118" s="22"/>
     </row>
     <row r="119" spans="1:43" s="21" customFormat="1">
@@ -17130,7 +17164,7 @@
       <c r="AC119" s="19">
         <v>23</v>
       </c>
-      <c r="AD119" s="65"/>
+      <c r="AD119" s="23"/>
       <c r="AF119" s="22"/>
     </row>
     <row r="120" spans="1:43" s="21" customFormat="1">
@@ -17208,7 +17242,7 @@
       <c r="AC120" s="22">
         <v>5</v>
       </c>
-      <c r="AD120" s="65"/>
+      <c r="AD120" s="23"/>
       <c r="AF120" s="22"/>
     </row>
     <row r="121" spans="1:43" s="21" customFormat="1">
@@ -17286,7 +17320,7 @@
       <c r="AC121" s="19">
         <v>7</v>
       </c>
-      <c r="AD121" s="65"/>
+      <c r="AD121" s="23"/>
       <c r="AF121" s="22"/>
     </row>
     <row r="122" spans="1:43" s="21" customFormat="1">
@@ -17364,7 +17398,7 @@
       <c r="AC122" s="22">
         <v>8</v>
       </c>
-      <c r="AD122" s="65"/>
+      <c r="AD122" s="23"/>
       <c r="AF122" s="22"/>
     </row>
     <row r="123" spans="1:43" s="21" customFormat="1">
@@ -17442,7 +17476,7 @@
       <c r="AC123" s="19">
         <v>15</v>
       </c>
-      <c r="AD123" s="65"/>
+      <c r="AD123" s="23"/>
       <c r="AF123" s="22"/>
       <c r="AH123" s="21">
         <v>1</v>
@@ -17541,7 +17575,7 @@
       <c r="AC124" s="22">
         <v>16</v>
       </c>
-      <c r="AD124" s="65"/>
+      <c r="AD124" s="23"/>
       <c r="AF124" s="22"/>
       <c r="AH124" s="21">
         <v>0</v>
@@ -17646,7 +17680,7 @@
       <c r="AC125" s="19">
         <v>13</v>
       </c>
-      <c r="AD125" s="65"/>
+      <c r="AD125" s="23"/>
       <c r="AF125" s="22"/>
       <c r="AH125" s="21">
         <v>0</v>
@@ -17751,7 +17785,7 @@
       <c r="AC126" s="22">
         <v>4</v>
       </c>
-      <c r="AD126" s="64"/>
+      <c r="AD126" s="23"/>
       <c r="AF126" s="23"/>
       <c r="AH126" s="21">
         <v>0</v>
@@ -17853,7 +17887,7 @@
       <c r="AC127" s="22">
         <v>19</v>
       </c>
-      <c r="AD127" s="64"/>
+      <c r="AD127" s="23"/>
       <c r="AF127" s="23"/>
       <c r="AH127" s="21">
         <v>0</v>
@@ -17955,7 +17989,7 @@
       <c r="AC128" s="19">
         <v>10</v>
       </c>
-      <c r="AD128" s="64"/>
+      <c r="AD128" s="23"/>
       <c r="AF128" s="23"/>
       <c r="AH128" s="21">
         <v>0</v>
@@ -18057,7 +18091,7 @@
       <c r="AC129" s="19">
         <v>15</v>
       </c>
-      <c r="AD129" s="64"/>
+      <c r="AD129" s="23"/>
       <c r="AF129" s="23"/>
       <c r="AH129" s="21">
         <v>0</v>
@@ -18159,7 +18193,7 @@
       <c r="AC130" s="19">
         <v>15</v>
       </c>
-      <c r="AD130" s="64"/>
+      <c r="AD130" s="23"/>
       <c r="AF130" s="23"/>
       <c r="AH130" s="21">
         <v>0</v>
@@ -18261,7 +18295,7 @@
       <c r="AC131" s="22">
         <v>4</v>
       </c>
-      <c r="AD131" s="64"/>
+      <c r="AD131" s="23"/>
       <c r="AF131" s="23"/>
       <c r="AH131" s="21">
         <v>1</v>
@@ -18363,7 +18397,7 @@
       <c r="AC132" s="22">
         <v>9</v>
       </c>
-      <c r="AD132" s="64"/>
+      <c r="AD132" s="23"/>
       <c r="AF132" s="23"/>
       <c r="AH132" s="21">
         <v>2</v>
@@ -18465,7 +18499,7 @@
       <c r="AC133" s="22">
         <v>6</v>
       </c>
-      <c r="AD133" s="64"/>
+      <c r="AD133" s="23"/>
       <c r="AF133" s="39"/>
       <c r="AH133" s="21">
         <v>0</v>
@@ -18561,7 +18595,7 @@
       <c r="AC134" s="22">
         <v>5</v>
       </c>
-      <c r="AD134" s="64"/>
+      <c r="AD134" s="23"/>
       <c r="AF134" s="39"/>
       <c r="AH134" s="21">
         <v>0</v>
@@ -18663,7 +18697,7 @@
       <c r="AC135" s="22">
         <v>13</v>
       </c>
-      <c r="AD135" s="64"/>
+      <c r="AD135" s="23"/>
       <c r="AF135" s="39"/>
       <c r="AH135" s="21">
         <v>0</v>
@@ -18765,7 +18799,7 @@
       <c r="AC136" s="22">
         <v>12</v>
       </c>
-      <c r="AD136" s="64"/>
+      <c r="AD136" s="23"/>
       <c r="AF136" s="39"/>
       <c r="AH136" s="21">
         <v>1</v>
@@ -18867,7 +18901,7 @@
       <c r="AC137" s="22">
         <v>9</v>
       </c>
-      <c r="AD137" s="64"/>
+      <c r="AD137" s="23"/>
       <c r="AF137" s="39"/>
       <c r="AH137" s="21">
         <v>0</v>
@@ -18969,7 +19003,6 @@
       <c r="AC138" s="22">
         <v>12</v>
       </c>
-      <c r="AD138" s="64"/>
       <c r="AH138" s="1">
         <v>0</v>
       </c>
@@ -19067,7 +19100,7 @@
       <c r="AC139" s="22">
         <v>6</v>
       </c>
-      <c r="AD139" s="64"/>
+      <c r="AD139" s="23"/>
       <c r="AF139" s="39"/>
       <c r="AH139" s="21">
         <v>0</v>
@@ -19172,7 +19205,7 @@
       <c r="AC140" s="22">
         <v>9</v>
       </c>
-      <c r="AD140" s="64"/>
+      <c r="AD140" s="23"/>
       <c r="AF140" s="39"/>
       <c r="AH140" s="21">
         <v>0</v>
@@ -19271,7 +19304,7 @@
       <c r="AC141" s="22">
         <v>10</v>
       </c>
-      <c r="AD141" s="64"/>
+      <c r="AD141" s="23"/>
       <c r="AF141" s="39"/>
       <c r="AH141" s="21">
         <v>0</v>
@@ -19373,7 +19406,7 @@
       <c r="AC142" s="22">
         <v>7</v>
       </c>
-      <c r="AD142" s="64"/>
+      <c r="AD142" s="23"/>
       <c r="AF142" s="39"/>
       <c r="AH142" s="21">
         <v>1</v>
@@ -19475,7 +19508,7 @@
       <c r="AC143" s="19">
         <v>12</v>
       </c>
-      <c r="AD143" s="64"/>
+      <c r="AD143" s="23"/>
       <c r="AF143" s="23"/>
       <c r="AH143" s="21">
         <v>0</v>
@@ -19577,7 +19610,7 @@
       <c r="AC144" s="19">
         <v>17</v>
       </c>
-      <c r="AD144" s="64"/>
+      <c r="AD144" s="23"/>
       <c r="AF144" s="39"/>
       <c r="AH144" s="21">
         <v>0</v>
@@ -19676,7 +19709,7 @@
       <c r="AC145" s="19">
         <v>10</v>
       </c>
-      <c r="AD145" s="64"/>
+      <c r="AD145" s="23"/>
       <c r="AF145" s="39"/>
       <c r="AH145" s="21">
         <v>4</v>
@@ -19778,7 +19811,7 @@
       <c r="AC146" s="19">
         <v>8</v>
       </c>
-      <c r="AD146" s="64"/>
+      <c r="AD146" s="23"/>
       <c r="AF146" s="39"/>
       <c r="AH146" s="21">
         <v>2</v>
@@ -19880,7 +19913,7 @@
       <c r="AC147" s="22">
         <v>21</v>
       </c>
-      <c r="AD147" s="64"/>
+      <c r="AD147" s="23"/>
       <c r="AF147" s="39"/>
       <c r="AH147" s="21">
         <v>0</v>
@@ -19985,7 +20018,7 @@
       <c r="AC148" s="19">
         <v>12</v>
       </c>
-      <c r="AD148" s="64"/>
+      <c r="AD148" s="23"/>
       <c r="AF148" s="39"/>
       <c r="AH148" s="21">
         <v>0</v>
@@ -20087,7 +20120,7 @@
       <c r="AC149" s="19">
         <v>7</v>
       </c>
-      <c r="AD149" s="64"/>
+      <c r="AD149" s="23"/>
       <c r="AF149" s="39"/>
       <c r="AH149" s="21">
         <v>1</v>
@@ -20189,7 +20222,7 @@
       <c r="AC150" s="22">
         <v>20</v>
       </c>
-      <c r="AD150" s="64"/>
+      <c r="AD150" s="23"/>
       <c r="AF150" s="39"/>
       <c r="AH150" s="21">
         <v>0</v>
@@ -20288,7 +20321,7 @@
       <c r="AC151" s="19">
         <v>5</v>
       </c>
-      <c r="AD151" s="64"/>
+      <c r="AD151" s="23"/>
       <c r="AF151" s="39"/>
       <c r="AH151" s="21">
         <v>1</v>
@@ -20393,7 +20426,7 @@
       <c r="AC152" s="19">
         <v>9</v>
       </c>
-      <c r="AD152" s="64"/>
+      <c r="AD152" s="23"/>
       <c r="AF152" s="39"/>
       <c r="AH152" s="21">
         <v>1</v>
@@ -20492,7 +20525,7 @@
       <c r="AC153" s="19">
         <v>11</v>
       </c>
-      <c r="AD153" s="64"/>
+      <c r="AD153" s="23"/>
       <c r="AF153" s="39"/>
       <c r="AH153" s="21">
         <v>0</v>
@@ -20594,7 +20627,7 @@
       <c r="AC154" s="19">
         <v>6</v>
       </c>
-      <c r="AD154" s="64"/>
+      <c r="AD154" s="23"/>
       <c r="AF154" s="39"/>
       <c r="AH154" s="21">
         <v>0</v>
@@ -20696,7 +20729,7 @@
       <c r="AC155" s="19">
         <v>7</v>
       </c>
-      <c r="AD155" s="64"/>
+      <c r="AD155" s="23"/>
       <c r="AF155" s="39"/>
       <c r="AH155" s="21">
         <v>0</v>
@@ -20798,7 +20831,7 @@
       <c r="AC156" s="22">
         <v>7</v>
       </c>
-      <c r="AD156" s="64"/>
+      <c r="AD156" s="23"/>
       <c r="AF156" s="39"/>
       <c r="AH156" s="21">
         <v>2</v>
@@ -20903,7 +20936,7 @@
       <c r="AC157" s="22">
         <v>13</v>
       </c>
-      <c r="AD157" s="64"/>
+      <c r="AD157" s="23"/>
       <c r="AF157" s="39"/>
       <c r="AH157" s="21">
         <v>0</v>
@@ -21008,7 +21041,7 @@
       <c r="AC158" s="22">
         <v>9</v>
       </c>
-      <c r="AD158" s="64"/>
+      <c r="AD158" s="23"/>
       <c r="AF158" s="39"/>
       <c r="AH158" s="21">
         <v>1</v>
@@ -21107,7 +21140,7 @@
       <c r="AC159" s="19">
         <v>14</v>
       </c>
-      <c r="AD159" s="64"/>
+      <c r="AD159" s="23"/>
       <c r="AF159" s="39"/>
       <c r="AH159" s="21">
         <v>1</v>
@@ -21184,7 +21217,7 @@
       <c r="U160" s="19">
         <v>1</v>
       </c>
-      <c r="V160" s="20">
+      <c r="V160" s="19">
         <v>21</v>
       </c>
       <c r="W160" s="20"/>
@@ -21203,8 +21236,10 @@
       <c r="AB160" s="22">
         <v>9</v>
       </c>
-      <c r="AC160" s="20"/>
-      <c r="AD160" s="64"/>
+      <c r="AC160" s="22">
+        <v>21</v>
+      </c>
+      <c r="AD160" s="23"/>
       <c r="AF160" s="39"/>
       <c r="AH160" s="21">
         <v>0</v>
@@ -21279,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="S161" s="20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T161" s="19">
         <v>0</v>
@@ -21288,7 +21323,7 @@
         <v>10</v>
       </c>
       <c r="V161" s="20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W161" s="20"/>
       <c r="X161" s="19">
@@ -21305,7 +21340,7 @@
       </c>
       <c r="AB161" s="20"/>
       <c r="AC161" s="20"/>
-      <c r="AD161" s="64"/>
+      <c r="AD161" s="23"/>
       <c r="AF161" s="39"/>
       <c r="AH161" s="21">
         <v>1</v>
@@ -21407,7 +21442,7 @@
       <c r="AC162" s="19">
         <v>15</v>
       </c>
-      <c r="AD162" s="64"/>
+      <c r="AD162" s="23"/>
       <c r="AF162" s="23"/>
       <c r="AH162" s="21">
         <v>0</v>
@@ -21512,7 +21547,7 @@
       <c r="AC163" s="22">
         <v>4</v>
       </c>
-      <c r="AD163" s="64"/>
+      <c r="AD163" s="23"/>
       <c r="AF163" s="39"/>
       <c r="AH163" s="21">
         <v>1</v>
@@ -21611,7 +21646,7 @@
       <c r="AC164" s="22">
         <v>16</v>
       </c>
-      <c r="AD164" s="64"/>
+      <c r="AD164" s="23"/>
       <c r="AF164" s="39"/>
       <c r="AH164" s="21">
         <v>0</v>
@@ -21713,7 +21748,7 @@
       <c r="AC165" s="22">
         <v>7</v>
       </c>
-      <c r="AD165" s="64"/>
+      <c r="AD165" s="23"/>
       <c r="AF165" s="39"/>
       <c r="AH165" s="21">
         <v>1</v>
@@ -21812,7 +21847,7 @@
       <c r="AC166" s="22">
         <v>12</v>
       </c>
-      <c r="AD166" s="64"/>
+      <c r="AD166" s="23"/>
       <c r="AF166" s="39"/>
       <c r="AH166" s="21">
         <v>0</v>
@@ -21914,7 +21949,7 @@
       <c r="AC167" s="22">
         <v>11</v>
       </c>
-      <c r="AD167" s="64"/>
+      <c r="AD167" s="23"/>
       <c r="AF167" s="39"/>
       <c r="AH167" s="21">
         <v>0</v>
@@ -22016,7 +22051,7 @@
       <c r="AC168" s="22">
         <v>6</v>
       </c>
-      <c r="AD168" s="64"/>
+      <c r="AD168" s="23"/>
       <c r="AF168" s="39"/>
       <c r="AH168" s="21">
         <v>0</v>
@@ -22096,7 +22131,7 @@
       <c r="T169" s="22">
         <v>2</v>
       </c>
-      <c r="U169" s="23">
+      <c r="U169" s="19">
         <v>12</v>
       </c>
       <c r="V169" s="22">
@@ -22118,8 +22153,10 @@
       <c r="AB169" s="22">
         <v>10</v>
       </c>
-      <c r="AC169" s="23"/>
-      <c r="AD169" s="64"/>
+      <c r="AC169" s="22">
+        <v>12</v>
+      </c>
+      <c r="AD169" s="23"/>
       <c r="AF169" s="39"/>
       <c r="AH169" s="21">
         <v>0</v>
@@ -22191,7 +22228,7 @@
         <v>2</v>
       </c>
       <c r="R170" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S170" s="22">
         <v>0</v>
@@ -22222,7 +22259,7 @@
         <v>3</v>
       </c>
       <c r="AC170" s="23"/>
-      <c r="AD170" s="64"/>
+      <c r="AD170" s="23"/>
       <c r="AF170" s="39"/>
       <c r="AH170" s="21">
         <v>0</v>
@@ -22324,7 +22361,7 @@
       <c r="AC171" s="19">
         <v>4</v>
       </c>
-      <c r="AD171" s="64"/>
+      <c r="AD171" s="23"/>
       <c r="AF171" s="39"/>
       <c r="AH171" s="21">
         <v>0</v>
@@ -22396,7 +22433,7 @@
         <v>1</v>
       </c>
       <c r="S172" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T172" s="22">
         <v>0</v>
@@ -22405,7 +22442,7 @@
         <v>5</v>
       </c>
       <c r="V172" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W172" s="23"/>
       <c r="X172" s="22">
@@ -22422,7 +22459,7 @@
       </c>
       <c r="AB172" s="23"/>
       <c r="AC172" s="23"/>
-      <c r="AD172" s="64"/>
+      <c r="AD172" s="23"/>
       <c r="AF172" s="39"/>
       <c r="AH172" s="21">
         <v>1</v>
@@ -22494,7 +22531,7 @@
         <v>1</v>
       </c>
       <c r="T173" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U173" s="22">
         <v>4</v>
@@ -22519,7 +22556,7 @@
         <v>6</v>
       </c>
       <c r="AC173" s="23"/>
-      <c r="AD173" s="64"/>
+      <c r="AD173" s="23"/>
       <c r="AF173" s="39"/>
       <c r="AH173" s="21">
         <v>0</v>
@@ -22600,10 +22637,10 @@
         <v>3</v>
       </c>
       <c r="U174" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V174" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W174" s="23"/>
       <c r="X174" s="21">
@@ -22620,7 +22657,7 @@
       </c>
       <c r="AB174" s="23"/>
       <c r="AC174" s="23"/>
-      <c r="AD174" s="64"/>
+      <c r="AD174" s="23"/>
       <c r="AF174" s="39"/>
       <c r="AH174" s="21">
         <v>1</v>
@@ -22692,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="S175" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T175" s="19">
         <v>1</v>
@@ -22701,7 +22738,7 @@
         <v>1</v>
       </c>
       <c r="V175" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W175" s="20"/>
       <c r="X175" s="16">
@@ -22718,7 +22755,7 @@
       </c>
       <c r="AB175" s="20"/>
       <c r="AC175" s="20"/>
-      <c r="AD175" s="64"/>
+      <c r="AD175" s="23"/>
       <c r="AF175" s="39"/>
       <c r="AH175" s="21">
         <v>0</v>
@@ -22781,7 +22818,7 @@
       </c>
       <c r="P176" s="22"/>
       <c r="Q176" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R176" s="19">
         <v>3</v>
@@ -22796,7 +22833,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -22813,7 +22850,7 @@
       </c>
       <c r="AB176" s="20"/>
       <c r="AC176" s="20"/>
-      <c r="AD176" s="64"/>
+      <c r="AD176" s="23"/>
       <c r="AF176" s="39"/>
       <c r="AH176" s="21">
         <v>0</v>
@@ -22873,31 +22910,33 @@
       </c>
       <c r="P177" s="22"/>
       <c r="Q177" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R177" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S177" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T177" s="23">
-        <v>4</v>
-      </c>
-      <c r="U177" s="23">
+        <v>5</v>
+      </c>
+      <c r="U177" s="22">
         <v>4</v>
       </c>
       <c r="V177" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W177" s="23"/>
-      <c r="X177" s="23"/>
+      <c r="X177" s="22">
+        <v>4</v>
+      </c>
       <c r="Y177" s="23"/>
       <c r="Z177" s="23"/>
       <c r="AA177" s="23"/>
       <c r="AB177" s="23"/>
       <c r="AC177" s="23"/>
-      <c r="AD177" s="64"/>
+      <c r="AD177" s="23"/>
       <c r="AF177" s="39"/>
       <c r="AH177" s="21">
         <v>0</v>
@@ -22969,7 +23008,7 @@
         <v>0</v>
       </c>
       <c r="T178" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U178" s="22">
         <v>1</v>
@@ -22994,9 +23033,7 @@
         <v>2</v>
       </c>
       <c r="AC178" s="39"/>
-      <c r="AD178" s="66" t="s">
-        <v>24</v>
-      </c>
+      <c r="AD178" s="23"/>
       <c r="AF178" s="39"/>
       <c r="AH178" s="21">
         <v>1</v>
@@ -23101,7 +23138,7 @@
       <c r="AC179" s="21">
         <v>1</v>
       </c>
-      <c r="AD179" s="64"/>
+      <c r="AD179" s="23"/>
       <c r="AF179" s="39"/>
     </row>
     <row r="180" spans="1:43" s="21" customFormat="1">
@@ -23143,31 +23180,33 @@
       </c>
       <c r="P180" s="22"/>
       <c r="Q180" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R180" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S180" s="23">
-        <v>1</v>
-      </c>
-      <c r="T180" s="23">
+        <v>2</v>
+      </c>
+      <c r="T180" s="22">
         <v>1</v>
       </c>
       <c r="U180" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V180" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W180" s="23"/>
-      <c r="X180" s="39"/>
+      <c r="X180" s="21">
+        <v>1</v>
+      </c>
       <c r="Y180" s="39"/>
       <c r="Z180" s="39"/>
       <c r="AA180" s="39"/>
       <c r="AB180" s="39"/>
       <c r="AC180" s="39"/>
-      <c r="AD180" s="64"/>
+      <c r="AD180" s="23"/>
       <c r="AF180" s="39"/>
     </row>
     <row r="181" spans="1:43" s="21" customFormat="1">
@@ -23209,41 +23248,93 @@
       </c>
       <c r="P181" s="22"/>
       <c r="Q181" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R181" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S181" s="20">
-        <v>0</v>
-      </c>
-      <c r="T181" s="20">
-        <v>0</v>
-      </c>
-      <c r="U181" s="20">
+        <v>1</v>
+      </c>
+      <c r="T181" s="19">
+        <v>0</v>
+      </c>
+      <c r="U181" s="19">
         <v>0</v>
       </c>
       <c r="V181" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W181" s="20"/>
-      <c r="X181" s="20"/>
-      <c r="Y181" s="20"/>
+      <c r="X181" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y181" s="22">
+        <v>0</v>
+      </c>
       <c r="Z181" s="20"/>
       <c r="AA181" s="20"/>
       <c r="AB181" s="20"/>
       <c r="AC181" s="20"/>
-      <c r="AD181" s="64"/>
+      <c r="AD181" s="23"/>
       <c r="AF181" s="39"/>
     </row>
     <row r="182" spans="1:43" s="21" customFormat="1">
+      <c r="A182" s="21">
+        <v>1</v>
+      </c>
+      <c r="B182" s="21">
+        <v>0</v>
+      </c>
+      <c r="C182" s="21">
+        <v>4</v>
+      </c>
+      <c r="D182" s="21">
+        <v>21</v>
+      </c>
+      <c r="E182" s="21">
+        <v>0</v>
+      </c>
+      <c r="F182" s="21">
+        <v>12</v>
+      </c>
+      <c r="I182" s="21">
+        <v>0</v>
+      </c>
+      <c r="J182" s="21">
+        <v>0</v>
+      </c>
+      <c r="K182" s="21">
+        <v>1</v>
+      </c>
+      <c r="L182" s="21">
+        <v>4</v>
+      </c>
+      <c r="M182" s="21">
+        <v>12</v>
+      </c>
+      <c r="N182" s="21">
+        <v>21</v>
+      </c>
       <c r="P182" s="22"/>
-      <c r="Q182" s="23"/>
-      <c r="R182" s="23"/>
-      <c r="S182" s="23"/>
-      <c r="T182" s="23"/>
-      <c r="U182" s="23"/>
-      <c r="V182" s="23"/>
+      <c r="Q182" s="23">
+        <v>0</v>
+      </c>
+      <c r="R182" s="23">
+        <v>0</v>
+      </c>
+      <c r="S182" s="23">
+        <v>0</v>
+      </c>
+      <c r="T182" s="23">
+        <v>0</v>
+      </c>
+      <c r="U182" s="23">
+        <v>0</v>
+      </c>
+      <c r="V182" s="23">
+        <v>0</v>
+      </c>
       <c r="W182" s="23"/>
       <c r="X182" s="23"/>
       <c r="Y182" s="23"/>
@@ -23251,7 +23342,7 @@
       <c r="AA182" s="23"/>
       <c r="AB182" s="23"/>
       <c r="AC182" s="23"/>
-      <c r="AD182" s="64"/>
+      <c r="AD182" s="23"/>
       <c r="AF182" s="39"/>
     </row>
     <row r="183" spans="1:43" s="21" customFormat="1">
@@ -23269,7 +23360,7 @@
       <c r="AA183" s="23"/>
       <c r="AB183" s="23"/>
       <c r="AC183" s="23"/>
-      <c r="AD183" s="64"/>
+      <c r="AD183" s="23"/>
       <c r="AF183" s="39"/>
     </row>
     <row r="184" spans="1:43" s="21" customFormat="1">
@@ -23287,7 +23378,7 @@
       <c r="AA184" s="39"/>
       <c r="AB184" s="39"/>
       <c r="AC184" s="39"/>
-      <c r="AD184" s="64"/>
+      <c r="AD184" s="23"/>
       <c r="AF184" s="39"/>
     </row>
     <row r="185" spans="1:43" s="21" customFormat="1">
@@ -23305,7 +23396,7 @@
       <c r="AA185" s="23"/>
       <c r="AB185" s="23"/>
       <c r="AC185" s="23"/>
-      <c r="AD185" s="64"/>
+      <c r="AD185" s="23"/>
       <c r="AF185" s="39"/>
     </row>
     <row r="186" spans="1:43" s="21" customFormat="1">
@@ -23323,7 +23414,7 @@
       <c r="AA186" s="23"/>
       <c r="AB186" s="23"/>
       <c r="AC186" s="23"/>
-      <c r="AD186" s="64"/>
+      <c r="AD186" s="23"/>
       <c r="AF186" s="39"/>
     </row>
     <row r="187" spans="1:43" s="21" customFormat="1">
@@ -23341,7 +23432,7 @@
       <c r="AA187" s="39"/>
       <c r="AB187" s="39"/>
       <c r="AC187" s="39"/>
-      <c r="AD187" s="64"/>
+      <c r="AD187" s="23"/>
       <c r="AF187" s="39"/>
     </row>
     <row r="188" spans="1:43" s="21" customFormat="1">
@@ -23359,7 +23450,7 @@
       <c r="AA188" s="39"/>
       <c r="AB188" s="39"/>
       <c r="AC188" s="39"/>
-      <c r="AD188" s="64"/>
+      <c r="AD188" s="23"/>
       <c r="AF188" s="39"/>
     </row>
     <row r="189" spans="1:43" s="21" customFormat="1">
@@ -23377,7 +23468,7 @@
       <c r="AA189" s="39"/>
       <c r="AB189" s="39"/>
       <c r="AC189" s="39"/>
-      <c r="AD189" s="64"/>
+      <c r="AD189" s="23"/>
       <c r="AF189" s="39"/>
     </row>
     <row r="190" spans="1:43" s="21" customFormat="1">
@@ -23395,7 +23486,7 @@
       <c r="AA190" s="39"/>
       <c r="AB190" s="39"/>
       <c r="AC190" s="39"/>
-      <c r="AD190" s="64"/>
+      <c r="AD190" s="23"/>
       <c r="AF190" s="39"/>
     </row>
     <row r="191" spans="1:43" s="21" customFormat="1">
@@ -23412,7 +23503,7 @@
       <c r="AA191" s="39"/>
       <c r="AB191" s="39"/>
       <c r="AC191" s="39"/>
-      <c r="AD191" s="64"/>
+      <c r="AD191" s="23"/>
       <c r="AF191" s="39"/>
     </row>
     <row r="192" spans="1:43" s="21" customFormat="1">
@@ -23429,7 +23520,7 @@
       <c r="AA192" s="23"/>
       <c r="AB192" s="23"/>
       <c r="AC192" s="23"/>
-      <c r="AD192" s="64"/>
+      <c r="AD192" s="23"/>
       <c r="AF192" s="39"/>
     </row>
     <row r="193" spans="16:32" s="21" customFormat="1">
@@ -23447,7 +23538,7 @@
       <c r="AA193" s="15"/>
       <c r="AB193" s="15"/>
       <c r="AC193" s="15"/>
-      <c r="AD193" s="64"/>
+      <c r="AD193" s="23"/>
       <c r="AF193" s="39"/>
     </row>
     <row r="194" spans="16:32" s="21" customFormat="1">
@@ -23465,7 +23556,7 @@
       <c r="AA194" s="23"/>
       <c r="AB194" s="23"/>
       <c r="AC194" s="23"/>
-      <c r="AD194" s="64"/>
+      <c r="AD194" s="23"/>
       <c r="AF194" s="39"/>
     </row>
     <row r="195" spans="16:32">
@@ -23482,7 +23573,6 @@
       <c r="AA195" s="39"/>
       <c r="AB195" s="39"/>
       <c r="AC195" s="39"/>
-      <c r="AD195" s="64"/>
       <c r="AF195" s="39"/>
     </row>
     <row r="196" spans="16:32" s="21" customFormat="1">
@@ -23500,7 +23590,7 @@
       <c r="AA196" s="39"/>
       <c r="AB196" s="39"/>
       <c r="AC196" s="39"/>
-      <c r="AD196" s="64"/>
+      <c r="AD196" s="23"/>
       <c r="AF196" s="39"/>
     </row>
     <row r="197" spans="16:32" s="21" customFormat="1">
@@ -23518,7 +23608,7 @@
       <c r="AA197" s="23"/>
       <c r="AB197" s="23"/>
       <c r="AC197" s="23"/>
-      <c r="AD197" s="64"/>
+      <c r="AD197" s="23"/>
       <c r="AF197" s="39"/>
     </row>
     <row r="198" spans="16:32" s="21" customFormat="1">
@@ -23538,7 +23628,7 @@
       <c r="AC198" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AD198" s="64"/>
+      <c r="AD198" s="23"/>
       <c r="AF198" s="39"/>
     </row>
     <row r="199" spans="16:32" s="21" customFormat="1">
@@ -23556,7 +23646,7 @@
       <c r="AA199" s="23"/>
       <c r="AB199" s="23"/>
       <c r="AC199" s="23"/>
-      <c r="AD199" s="64"/>
+      <c r="AD199" s="23"/>
       <c r="AF199" s="39"/>
     </row>
     <row r="200" spans="16:32" s="21" customFormat="1">
@@ -23573,7 +23663,7 @@
       <c r="AA200" s="23"/>
       <c r="AB200" s="23"/>
       <c r="AC200" s="23"/>
-      <c r="AD200" s="64"/>
+      <c r="AD200" s="23"/>
       <c r="AF200" s="39"/>
     </row>
     <row r="201" spans="16:32" s="21" customFormat="1">
@@ -23590,7 +23680,7 @@
       <c r="AA201" s="39"/>
       <c r="AB201" s="39"/>
       <c r="AC201" s="39"/>
-      <c r="AD201" s="64"/>
+      <c r="AD201" s="23"/>
       <c r="AF201" s="39"/>
     </row>
     <row r="202" spans="16:32" s="21" customFormat="1">
@@ -23607,7 +23697,7 @@
       <c r="AA202" s="39"/>
       <c r="AB202" s="39"/>
       <c r="AC202" s="39"/>
-      <c r="AD202" s="64"/>
+      <c r="AD202" s="23"/>
       <c r="AF202" s="39"/>
     </row>
     <row r="203" spans="16:32" s="21" customFormat="1">
@@ -23624,7 +23714,7 @@
       <c r="AA203" s="23"/>
       <c r="AB203" s="23"/>
       <c r="AC203" s="23"/>
-      <c r="AD203" s="64"/>
+      <c r="AD203" s="23"/>
       <c r="AF203" s="39"/>
     </row>
     <row r="204" spans="16:32" s="21" customFormat="1">
@@ -23642,7 +23732,7 @@
       <c r="AA204" s="39"/>
       <c r="AB204" s="39"/>
       <c r="AC204" s="39"/>
-      <c r="AD204" s="64"/>
+      <c r="AD204" s="23"/>
       <c r="AF204" s="39"/>
     </row>
     <row r="205" spans="16:32" s="21" customFormat="1">
@@ -23659,7 +23749,7 @@
       <c r="AA205" s="39"/>
       <c r="AB205" s="39"/>
       <c r="AC205" s="39"/>
-      <c r="AD205" s="64"/>
+      <c r="AD205" s="23"/>
       <c r="AF205" s="39"/>
     </row>
     <row r="206" spans="16:32" s="21" customFormat="1">
@@ -23676,7 +23766,7 @@
       <c r="AA206" s="39"/>
       <c r="AB206" s="39"/>
       <c r="AC206" s="39"/>
-      <c r="AD206" s="64"/>
+      <c r="AD206" s="23"/>
       <c r="AF206" s="39"/>
     </row>
     <row r="207" spans="16:32" s="21" customFormat="1">
@@ -23693,7 +23783,7 @@
       <c r="AA207" s="23"/>
       <c r="AB207" s="23"/>
       <c r="AC207" s="23"/>
-      <c r="AD207" s="64"/>
+      <c r="AD207" s="23"/>
       <c r="AF207" s="39"/>
     </row>
     <row r="208" spans="16:32" s="21" customFormat="1">
@@ -23711,7 +23801,7 @@
       <c r="AA208" s="39"/>
       <c r="AB208" s="39"/>
       <c r="AC208" s="39"/>
-      <c r="AD208" s="64"/>
+      <c r="AD208" s="23"/>
       <c r="AF208" s="39"/>
     </row>
     <row r="209" spans="16:32" s="21" customFormat="1">
@@ -23729,7 +23819,7 @@
       <c r="AA209" s="23"/>
       <c r="AB209" s="23"/>
       <c r="AC209" s="23"/>
-      <c r="AD209" s="64"/>
+      <c r="AD209" s="23"/>
       <c r="AF209" s="39"/>
     </row>
     <row r="210" spans="16:32" s="21" customFormat="1">
@@ -23747,7 +23837,7 @@
       <c r="AA210" s="39"/>
       <c r="AB210" s="39"/>
       <c r="AC210" s="39"/>
-      <c r="AD210" s="64"/>
+      <c r="AD210" s="23"/>
       <c r="AF210" s="39"/>
     </row>
     <row r="211" spans="16:32" s="21" customFormat="1">
@@ -23765,7 +23855,7 @@
       <c r="AA211" s="23"/>
       <c r="AB211" s="23"/>
       <c r="AC211" s="23"/>
-      <c r="AD211" s="64"/>
+      <c r="AD211" s="23"/>
       <c r="AF211" s="39"/>
     </row>
     <row r="212" spans="16:32" s="21" customFormat="1">
@@ -23783,7 +23873,7 @@
       <c r="AA212" s="39"/>
       <c r="AB212" s="39"/>
       <c r="AC212" s="39"/>
-      <c r="AD212" s="64"/>
+      <c r="AD212" s="23"/>
       <c r="AF212" s="39"/>
     </row>
     <row r="213" spans="16:32" s="21" customFormat="1">
@@ -23800,7 +23890,7 @@
       <c r="AA213" s="39"/>
       <c r="AB213" s="39"/>
       <c r="AC213" s="39"/>
-      <c r="AD213" s="64"/>
+      <c r="AD213" s="23"/>
       <c r="AF213" s="39"/>
     </row>
     <row r="214" spans="16:32" s="21" customFormat="1">
@@ -23817,7 +23907,7 @@
       <c r="AA214" s="23"/>
       <c r="AB214" s="23"/>
       <c r="AC214" s="23"/>
-      <c r="AD214" s="64"/>
+      <c r="AD214" s="23"/>
       <c r="AF214" s="39"/>
     </row>
     <row r="215" spans="16:32" s="21" customFormat="1">
@@ -23835,7 +23925,7 @@
       <c r="AA215" s="39"/>
       <c r="AB215" s="39"/>
       <c r="AC215" s="39"/>
-      <c r="AD215" s="64"/>
+      <c r="AD215" s="23"/>
       <c r="AF215" s="39"/>
     </row>
     <row r="216" spans="16:32" s="21" customFormat="1">
@@ -23853,7 +23943,7 @@
       <c r="AA216" s="39"/>
       <c r="AB216" s="39"/>
       <c r="AC216" s="39"/>
-      <c r="AD216" s="64"/>
+      <c r="AD216" s="23"/>
       <c r="AF216" s="39"/>
     </row>
     <row r="217" spans="16:32" s="21" customFormat="1">
@@ -23870,7 +23960,7 @@
       <c r="AA217" s="39"/>
       <c r="AB217" s="39"/>
       <c r="AC217" s="39"/>
-      <c r="AD217" s="64"/>
+      <c r="AD217" s="23"/>
       <c r="AF217" s="39"/>
     </row>
     <row r="218" spans="16:32" s="21" customFormat="1">
@@ -23887,7 +23977,7 @@
       <c r="AA218" s="23"/>
       <c r="AB218" s="23"/>
       <c r="AC218" s="23"/>
-      <c r="AD218" s="64"/>
+      <c r="AD218" s="23"/>
       <c r="AF218" s="39"/>
     </row>
     <row r="219" spans="16:32" s="21" customFormat="1">
@@ -23905,7 +23995,7 @@
       <c r="AA219" s="39"/>
       <c r="AB219" s="39"/>
       <c r="AC219" s="39"/>
-      <c r="AD219" s="64"/>
+      <c r="AD219" s="23"/>
       <c r="AF219" s="39"/>
     </row>
     <row r="220" spans="16:32" s="21" customFormat="1">
@@ -23922,7 +24012,7 @@
       <c r="AA220" s="23"/>
       <c r="AB220" s="23"/>
       <c r="AC220" s="23"/>
-      <c r="AD220" s="64"/>
+      <c r="AD220" s="23"/>
       <c r="AF220" s="39"/>
     </row>
     <row r="221" spans="16:32" s="21" customFormat="1">
@@ -23939,7 +24029,7 @@
       <c r="AA221" s="39"/>
       <c r="AB221" s="39"/>
       <c r="AC221" s="39"/>
-      <c r="AD221" s="64"/>
+      <c r="AD221" s="23"/>
       <c r="AF221" s="39"/>
     </row>
     <row r="222" spans="16:32" s="21" customFormat="1">
@@ -23956,7 +24046,7 @@
       <c r="AA222" s="39"/>
       <c r="AB222" s="39"/>
       <c r="AC222" s="39"/>
-      <c r="AD222" s="64"/>
+      <c r="AD222" s="23"/>
       <c r="AF222" s="39"/>
     </row>
     <row r="223" spans="16:32" s="21" customFormat="1">
@@ -23973,7 +24063,7 @@
       <c r="AA223" s="23"/>
       <c r="AB223" s="23"/>
       <c r="AC223" s="23"/>
-      <c r="AD223" s="64"/>
+      <c r="AD223" s="23"/>
       <c r="AF223" s="39"/>
     </row>
     <row r="224" spans="16:32" s="21" customFormat="1">
@@ -23991,7 +24081,7 @@
       <c r="AA224" s="39"/>
       <c r="AB224" s="39"/>
       <c r="AC224" s="39"/>
-      <c r="AD224" s="64"/>
+      <c r="AD224" s="23"/>
       <c r="AF224" s="39"/>
     </row>
     <row r="225" spans="16:32" s="21" customFormat="1">
@@ -24008,7 +24098,7 @@
       <c r="AA225" s="39"/>
       <c r="AB225" s="39"/>
       <c r="AC225" s="39"/>
-      <c r="AD225" s="64"/>
+      <c r="AD225" s="23"/>
       <c r="AF225" s="39"/>
     </row>
     <row r="226" spans="16:32" s="21" customFormat="1">
@@ -24025,7 +24115,7 @@
       <c r="AA226" s="39"/>
       <c r="AB226" s="39"/>
       <c r="AC226" s="39"/>
-      <c r="AD226" s="64"/>
+      <c r="AD226" s="23"/>
       <c r="AF226" s="39"/>
     </row>
     <row r="227" spans="16:32" s="21" customFormat="1">
@@ -24042,7 +24132,7 @@
       <c r="AA227" s="23"/>
       <c r="AB227" s="23"/>
       <c r="AC227" s="23"/>
-      <c r="AD227" s="64"/>
+      <c r="AD227" s="23"/>
       <c r="AF227" s="39"/>
     </row>
     <row r="228" spans="16:32" s="21" customFormat="1">
@@ -24059,7 +24149,7 @@
       <c r="AA228" s="39"/>
       <c r="AB228" s="39"/>
       <c r="AC228" s="39"/>
-      <c r="AD228" s="64"/>
+      <c r="AD228" s="23"/>
       <c r="AF228" s="39"/>
     </row>
     <row r="229" spans="16:32" s="21" customFormat="1">
@@ -24076,7 +24166,7 @@
       <c r="AA229" s="39"/>
       <c r="AB229" s="39"/>
       <c r="AC229" s="39"/>
-      <c r="AD229" s="64"/>
+      <c r="AD229" s="23"/>
       <c r="AF229" s="39"/>
     </row>
     <row r="230" spans="16:32" s="21" customFormat="1">
@@ -24093,7 +24183,7 @@
       <c r="AA230" s="39"/>
       <c r="AB230" s="39"/>
       <c r="AC230" s="39"/>
-      <c r="AD230" s="64"/>
+      <c r="AD230" s="23"/>
       <c r="AF230" s="39"/>
     </row>
     <row r="231" spans="16:32" s="21" customFormat="1">
@@ -24110,7 +24200,7 @@
       <c r="AA231" s="39"/>
       <c r="AB231" s="39"/>
       <c r="AC231" s="39"/>
-      <c r="AD231" s="64"/>
+      <c r="AD231" s="23"/>
       <c r="AF231" s="39"/>
     </row>
     <row r="232" spans="16:32" s="21" customFormat="1">
@@ -24127,7 +24217,7 @@
       <c r="AA232" s="39"/>
       <c r="AB232" s="39"/>
       <c r="AC232" s="39"/>
-      <c r="AD232" s="64"/>
+      <c r="AD232" s="23"/>
       <c r="AF232" s="39"/>
     </row>
     <row r="233" spans="16:32" s="21" customFormat="1">
@@ -24144,7 +24234,7 @@
       <c r="AA233" s="23"/>
       <c r="AB233" s="23"/>
       <c r="AC233" s="23"/>
-      <c r="AD233" s="64"/>
+      <c r="AD233" s="23"/>
       <c r="AF233" s="39"/>
     </row>
     <row r="234" spans="16:32" s="21" customFormat="1">
@@ -24161,7 +24251,7 @@
       <c r="AA234" s="23"/>
       <c r="AB234" s="23"/>
       <c r="AC234" s="23"/>
-      <c r="AD234" s="64"/>
+      <c r="AD234" s="23"/>
       <c r="AF234" s="39"/>
     </row>
     <row r="235" spans="16:32" s="21" customFormat="1">
@@ -24179,7 +24269,7 @@
       <c r="AA235" s="39"/>
       <c r="AB235" s="39"/>
       <c r="AC235" s="39"/>
-      <c r="AD235" s="64"/>
+      <c r="AD235" s="23"/>
       <c r="AF235" s="39"/>
     </row>
     <row r="236" spans="16:32" s="21" customFormat="1">
@@ -24196,7 +24286,7 @@
       <c r="AA236" s="39"/>
       <c r="AB236" s="39"/>
       <c r="AC236" s="39"/>
-      <c r="AD236" s="64"/>
+      <c r="AD236" s="23"/>
       <c r="AF236" s="39"/>
     </row>
     <row r="237" spans="16:32" s="21" customFormat="1">
@@ -24213,7 +24303,7 @@
       <c r="AA237" s="23"/>
       <c r="AB237" s="23"/>
       <c r="AC237" s="23"/>
-      <c r="AD237" s="64"/>
+      <c r="AD237" s="23"/>
       <c r="AF237" s="39"/>
     </row>
     <row r="238" spans="16:32" s="21" customFormat="1">
@@ -24231,7 +24321,7 @@
       <c r="AA238" s="39"/>
       <c r="AB238" s="39"/>
       <c r="AC238" s="39"/>
-      <c r="AD238" s="64"/>
+      <c r="AD238" s="23"/>
       <c r="AF238" s="39"/>
     </row>
     <row r="239" spans="16:32" s="21" customFormat="1">
@@ -24248,7 +24338,7 @@
       <c r="AA239" s="39"/>
       <c r="AB239" s="39"/>
       <c r="AC239" s="39"/>
-      <c r="AD239" s="64"/>
+      <c r="AD239" s="23"/>
       <c r="AF239" s="39"/>
     </row>
     <row r="240" spans="16:32" s="21" customFormat="1">
@@ -24265,7 +24355,7 @@
       <c r="AA240" s="23"/>
       <c r="AB240" s="23"/>
       <c r="AC240" s="23"/>
-      <c r="AD240" s="64"/>
+      <c r="AD240" s="23"/>
       <c r="AF240" s="39"/>
     </row>
     <row r="241" spans="16:32" s="21" customFormat="1">
@@ -24283,7 +24373,7 @@
       <c r="AA241" s="39"/>
       <c r="AB241" s="39"/>
       <c r="AC241" s="39"/>
-      <c r="AD241" s="64"/>
+      <c r="AD241" s="23"/>
       <c r="AF241" s="39"/>
     </row>
     <row r="242" spans="16:32" s="21" customFormat="1">
@@ -24301,7 +24391,7 @@
       <c r="AA242" s="39"/>
       <c r="AB242" s="39"/>
       <c r="AC242" s="39"/>
-      <c r="AD242" s="64"/>
+      <c r="AD242" s="23"/>
       <c r="AF242" s="39"/>
     </row>
     <row r="243" spans="16:32" s="21" customFormat="1">
@@ -24318,7 +24408,7 @@
       <c r="AA243" s="39"/>
       <c r="AB243" s="39"/>
       <c r="AC243" s="39"/>
-      <c r="AD243" s="64"/>
+      <c r="AD243" s="23"/>
       <c r="AF243" s="39"/>
     </row>
     <row r="244" spans="16:32" s="21" customFormat="1">
@@ -24335,7 +24425,7 @@
       <c r="AA244" s="23"/>
       <c r="AB244" s="23"/>
       <c r="AC244" s="23"/>
-      <c r="AD244" s="64"/>
+      <c r="AD244" s="23"/>
       <c r="AF244" s="39"/>
     </row>
     <row r="245" spans="16:32" s="21" customFormat="1">
@@ -24353,7 +24443,7 @@
       <c r="AA245" s="39"/>
       <c r="AB245" s="39"/>
       <c r="AC245" s="39"/>
-      <c r="AD245" s="64"/>
+      <c r="AD245" s="23"/>
       <c r="AF245" s="39"/>
     </row>
     <row r="246" spans="16:32" s="21" customFormat="1">
@@ -24370,7 +24460,7 @@
       <c r="AA246" s="23"/>
       <c r="AB246" s="23"/>
       <c r="AC246" s="23"/>
-      <c r="AD246" s="64"/>
+      <c r="AD246" s="23"/>
       <c r="AF246" s="39"/>
     </row>
     <row r="247" spans="16:32" s="21" customFormat="1">
@@ -24387,7 +24477,7 @@
       <c r="AA247" s="39"/>
       <c r="AB247" s="39"/>
       <c r="AC247" s="39"/>
-      <c r="AD247" s="64"/>
+      <c r="AD247" s="23"/>
       <c r="AF247" s="39"/>
     </row>
     <row r="248" spans="16:32" s="21" customFormat="1">
@@ -24404,7 +24494,7 @@
       <c r="AA248" s="39"/>
       <c r="AB248" s="39"/>
       <c r="AC248" s="39"/>
-      <c r="AD248" s="64"/>
+      <c r="AD248" s="23"/>
       <c r="AF248" s="39"/>
     </row>
     <row r="249" spans="16:32" s="21" customFormat="1">
@@ -24421,7 +24511,7 @@
       <c r="AA249" s="39"/>
       <c r="AB249" s="39"/>
       <c r="AC249" s="39"/>
-      <c r="AD249" s="64"/>
+      <c r="AD249" s="23"/>
       <c r="AF249" s="39"/>
     </row>
     <row r="250" spans="16:32" s="21" customFormat="1">
@@ -24438,7 +24528,7 @@
       <c r="AA250" s="39"/>
       <c r="AB250" s="39"/>
       <c r="AC250" s="39"/>
-      <c r="AD250" s="64"/>
+      <c r="AD250" s="23"/>
       <c r="AF250" s="39"/>
     </row>
     <row r="251" spans="16:32" s="21" customFormat="1">
@@ -24455,7 +24545,7 @@
       <c r="AA251" s="39"/>
       <c r="AB251" s="39"/>
       <c r="AC251" s="39"/>
-      <c r="AD251" s="64"/>
+      <c r="AD251" s="23"/>
       <c r="AF251" s="39"/>
     </row>
     <row r="252" spans="16:32" s="21" customFormat="1">
@@ -24472,7 +24562,7 @@
       <c r="AA252" s="39"/>
       <c r="AB252" s="39"/>
       <c r="AC252" s="39"/>
-      <c r="AD252" s="64"/>
+      <c r="AD252" s="23"/>
       <c r="AF252" s="39"/>
     </row>
     <row r="253" spans="16:32" s="21" customFormat="1">
@@ -24489,7 +24579,7 @@
       <c r="AA253" s="39"/>
       <c r="AB253" s="39"/>
       <c r="AC253" s="39"/>
-      <c r="AD253" s="64"/>
+      <c r="AD253" s="23"/>
       <c r="AF253" s="39"/>
     </row>
     <row r="254" spans="16:32" s="21" customFormat="1">
@@ -24506,7 +24596,7 @@
       <c r="AA254" s="23"/>
       <c r="AB254" s="23"/>
       <c r="AC254" s="23"/>
-      <c r="AD254" s="64"/>
+      <c r="AD254" s="23"/>
       <c r="AF254" s="39"/>
     </row>
     <row r="255" spans="16:32" s="21" customFormat="1">
@@ -24523,7 +24613,7 @@
       <c r="AA255" s="39"/>
       <c r="AB255" s="39"/>
       <c r="AC255" s="39"/>
-      <c r="AD255" s="64"/>
+      <c r="AD255" s="23"/>
       <c r="AF255" s="39"/>
     </row>
     <row r="256" spans="16:32" s="21" customFormat="1">
@@ -24540,7 +24630,7 @@
       <c r="AA256" s="39"/>
       <c r="AB256" s="39"/>
       <c r="AC256" s="39"/>
-      <c r="AD256" s="64"/>
+      <c r="AD256" s="23"/>
       <c r="AF256" s="39"/>
     </row>
     <row r="257" spans="16:32" s="21" customFormat="1">
@@ -24557,7 +24647,7 @@
       <c r="AA257" s="39"/>
       <c r="AB257" s="39"/>
       <c r="AC257" s="39"/>
-      <c r="AD257" s="64"/>
+      <c r="AD257" s="23"/>
       <c r="AF257" s="39"/>
     </row>
     <row r="258" spans="16:32" s="21" customFormat="1">
@@ -24574,7 +24664,7 @@
       <c r="AA258" s="39"/>
       <c r="AB258" s="39"/>
       <c r="AC258" s="39"/>
-      <c r="AD258" s="64"/>
+      <c r="AD258" s="23"/>
       <c r="AF258" s="39"/>
     </row>
     <row r="259" spans="16:32" s="21" customFormat="1">
@@ -24591,7 +24681,7 @@
       <c r="AA259" s="23"/>
       <c r="AB259" s="23"/>
       <c r="AC259" s="23"/>
-      <c r="AD259" s="64"/>
+      <c r="AD259" s="23"/>
       <c r="AF259" s="39"/>
     </row>
     <row r="260" spans="16:32" s="21" customFormat="1">
@@ -24609,7 +24699,7 @@
       <c r="AA260" s="39"/>
       <c r="AB260" s="39"/>
       <c r="AC260" s="39"/>
-      <c r="AD260" s="64"/>
+      <c r="AD260" s="23"/>
       <c r="AF260" s="39"/>
     </row>
     <row r="261" spans="16:32" s="21" customFormat="1">
@@ -24626,7 +24716,7 @@
       <c r="AA261" s="39"/>
       <c r="AB261" s="39"/>
       <c r="AC261" s="39"/>
-      <c r="AD261" s="64"/>
+      <c r="AD261" s="23"/>
       <c r="AF261" s="39"/>
     </row>
     <row r="262" spans="16:32" s="21" customFormat="1">
@@ -24643,7 +24733,7 @@
       <c r="AA262" s="39"/>
       <c r="AB262" s="39"/>
       <c r="AC262" s="39"/>
-      <c r="AD262" s="64"/>
+      <c r="AD262" s="23"/>
       <c r="AF262" s="39"/>
     </row>
     <row r="263" spans="16:32" s="21" customFormat="1">
@@ -24660,7 +24750,7 @@
       <c r="AA263" s="23"/>
       <c r="AB263" s="23"/>
       <c r="AC263" s="23"/>
-      <c r="AD263" s="64"/>
+      <c r="AD263" s="23"/>
       <c r="AF263" s="39"/>
     </row>
     <row r="264" spans="16:32" s="21" customFormat="1">
@@ -24678,7 +24768,7 @@
       <c r="AA264" s="39"/>
       <c r="AB264" s="39"/>
       <c r="AC264" s="39"/>
-      <c r="AD264" s="64"/>
+      <c r="AD264" s="23"/>
       <c r="AF264" s="39"/>
     </row>
     <row r="265" spans="16:32" s="21" customFormat="1">
@@ -24695,7 +24785,7 @@
       <c r="AA265" s="39"/>
       <c r="AB265" s="39"/>
       <c r="AC265" s="39"/>
-      <c r="AD265" s="64"/>
+      <c r="AD265" s="23"/>
       <c r="AF265" s="39"/>
     </row>
     <row r="266" spans="16:32">
@@ -24712,7 +24802,6 @@
       <c r="AA266" s="39"/>
       <c r="AB266" s="39"/>
       <c r="AC266" s="39"/>
-      <c r="AD266" s="64"/>
       <c r="AF266" s="39"/>
     </row>
     <row r="267" spans="16:32" s="21" customFormat="1">
@@ -24729,7 +24818,7 @@
       <c r="AA267" s="39"/>
       <c r="AB267" s="39"/>
       <c r="AC267" s="39"/>
-      <c r="AD267" s="64"/>
+      <c r="AD267" s="23"/>
       <c r="AF267" s="39"/>
     </row>
     <row r="268" spans="16:32" s="21" customFormat="1">
@@ -24746,7 +24835,7 @@
       <c r="AA268" s="23"/>
       <c r="AB268" s="23"/>
       <c r="AC268" s="23"/>
-      <c r="AD268" s="64"/>
+      <c r="AD268" s="23"/>
       <c r="AF268" s="39"/>
     </row>
     <row r="269" spans="16:32" s="21" customFormat="1">
@@ -24763,7 +24852,7 @@
       <c r="AA269" s="39"/>
       <c r="AB269" s="39"/>
       <c r="AC269" s="39"/>
-      <c r="AD269" s="64"/>
+      <c r="AD269" s="23"/>
       <c r="AF269" s="39"/>
     </row>
     <row r="270" spans="16:32" s="21" customFormat="1">
@@ -24781,7 +24870,7 @@
       <c r="AA270" s="39"/>
       <c r="AB270" s="39"/>
       <c r="AC270" s="39"/>
-      <c r="AD270" s="64"/>
+      <c r="AD270" s="23"/>
       <c r="AF270" s="39"/>
     </row>
     <row r="271" spans="16:32" s="21" customFormat="1">
@@ -24798,7 +24887,7 @@
       <c r="AA271" s="23"/>
       <c r="AB271" s="23"/>
       <c r="AC271" s="23"/>
-      <c r="AD271" s="64"/>
+      <c r="AD271" s="23"/>
       <c r="AF271" s="39"/>
     </row>
     <row r="272" spans="16:32" s="21" customFormat="1">
@@ -24815,7 +24904,7 @@
       <c r="AA272" s="23"/>
       <c r="AB272" s="23"/>
       <c r="AC272" s="23"/>
-      <c r="AD272" s="64"/>
+      <c r="AD272" s="23"/>
       <c r="AF272" s="39"/>
     </row>
     <row r="273" spans="16:32" s="21" customFormat="1">
@@ -24833,7 +24922,7 @@
       <c r="AA273" s="39"/>
       <c r="AB273" s="39"/>
       <c r="AC273" s="39"/>
-      <c r="AD273" s="64"/>
+      <c r="AD273" s="23"/>
       <c r="AF273" s="39"/>
     </row>
     <row r="274" spans="16:32" s="21" customFormat="1">
@@ -24850,7 +24939,7 @@
       <c r="AA274" s="39"/>
       <c r="AB274" s="39"/>
       <c r="AC274" s="39"/>
-      <c r="AD274" s="64"/>
+      <c r="AD274" s="23"/>
       <c r="AF274" s="39"/>
     </row>
     <row r="275" spans="16:32" s="21" customFormat="1">
@@ -24867,7 +24956,7 @@
       <c r="AA275" s="39"/>
       <c r="AB275" s="39"/>
       <c r="AC275" s="39"/>
-      <c r="AD275" s="64"/>
+      <c r="AD275" s="23"/>
       <c r="AF275" s="39"/>
     </row>
     <row r="276" spans="16:32" s="21" customFormat="1">
@@ -24884,7 +24973,7 @@
       <c r="AA276" s="39"/>
       <c r="AB276" s="39"/>
       <c r="AC276" s="39"/>
-      <c r="AD276" s="64"/>
+      <c r="AD276" s="23"/>
       <c r="AF276" s="39"/>
     </row>
     <row r="277" spans="16:32" s="21" customFormat="1">
@@ -24901,7 +24990,7 @@
       <c r="AA277" s="39"/>
       <c r="AB277" s="39"/>
       <c r="AC277" s="39"/>
-      <c r="AD277" s="64"/>
+      <c r="AD277" s="23"/>
       <c r="AF277" s="39"/>
     </row>
     <row r="278" spans="16:32" s="21" customFormat="1">
@@ -24918,7 +25007,7 @@
       <c r="AA278" s="39"/>
       <c r="AB278" s="39"/>
       <c r="AC278" s="39"/>
-      <c r="AD278" s="64"/>
+      <c r="AD278" s="23"/>
       <c r="AF278" s="39"/>
     </row>
     <row r="279" spans="16:32" s="21" customFormat="1">
@@ -24935,7 +25024,7 @@
       <c r="AA279" s="39"/>
       <c r="AB279" s="39"/>
       <c r="AC279" s="39"/>
-      <c r="AD279" s="64"/>
+      <c r="AD279" s="23"/>
       <c r="AF279" s="39"/>
     </row>
     <row r="280" spans="16:32" s="21" customFormat="1">
@@ -24952,7 +25041,7 @@
       <c r="AA280" s="39"/>
       <c r="AB280" s="39"/>
       <c r="AC280" s="39"/>
-      <c r="AD280" s="64"/>
+      <c r="AD280" s="23"/>
       <c r="AF280" s="39"/>
     </row>
     <row r="281" spans="16:32" s="21" customFormat="1">
@@ -24969,7 +25058,7 @@
       <c r="AA281" s="23"/>
       <c r="AB281" s="23"/>
       <c r="AC281" s="23"/>
-      <c r="AD281" s="64"/>
+      <c r="AD281" s="23"/>
       <c r="AF281" s="39"/>
     </row>
     <row r="282" spans="16:32" s="21" customFormat="1">
@@ -24987,7 +25076,7 @@
       <c r="AA282" s="39"/>
       <c r="AB282" s="39"/>
       <c r="AC282" s="39"/>
-      <c r="AD282" s="64"/>
+      <c r="AD282" s="23"/>
       <c r="AF282" s="39"/>
     </row>
     <row r="283" spans="16:32" s="21" customFormat="1">
@@ -25004,7 +25093,7 @@
       <c r="AA283" s="39"/>
       <c r="AB283" s="39"/>
       <c r="AC283" s="39"/>
-      <c r="AD283" s="64"/>
+      <c r="AD283" s="23"/>
       <c r="AF283" s="39"/>
     </row>
     <row r="284" spans="16:32" s="21" customFormat="1">
@@ -25021,7 +25110,7 @@
       <c r="AA284" s="23"/>
       <c r="AB284" s="23"/>
       <c r="AC284" s="23"/>
-      <c r="AD284" s="64"/>
+      <c r="AD284" s="23"/>
       <c r="AF284" s="39"/>
     </row>
     <row r="285" spans="16:32" s="21" customFormat="1">
@@ -25038,7 +25127,7 @@
       <c r="AA285" s="39"/>
       <c r="AB285" s="39"/>
       <c r="AC285" s="39"/>
-      <c r="AD285" s="64"/>
+      <c r="AD285" s="23"/>
       <c r="AF285" s="39"/>
     </row>
     <row r="286" spans="16:32" s="21" customFormat="1">
@@ -25055,7 +25144,7 @@
       <c r="AA286" s="39"/>
       <c r="AB286" s="39"/>
       <c r="AC286" s="39"/>
-      <c r="AD286" s="64"/>
+      <c r="AD286" s="23"/>
       <c r="AF286" s="39"/>
     </row>
     <row r="287" spans="16:32" s="21" customFormat="1">
@@ -25072,7 +25161,7 @@
       <c r="AA287" s="39"/>
       <c r="AB287" s="39"/>
       <c r="AC287" s="39"/>
-      <c r="AD287" s="64"/>
+      <c r="AD287" s="23"/>
       <c r="AF287" s="39"/>
     </row>
     <row r="288" spans="16:32" s="21" customFormat="1">
@@ -25089,7 +25178,7 @@
       <c r="AA288" s="39"/>
       <c r="AB288" s="39"/>
       <c r="AC288" s="39"/>
-      <c r="AD288" s="65"/>
+      <c r="AD288" s="23"/>
     </row>
     <row r="289" spans="16:30" s="21" customFormat="1">
       <c r="Q289" s="23"/>
@@ -25105,7 +25194,7 @@
       <c r="AA289" s="39"/>
       <c r="AB289" s="39"/>
       <c r="AC289" s="39"/>
-      <c r="AD289" s="65"/>
+      <c r="AD289" s="23"/>
     </row>
     <row r="290" spans="16:30" s="21" customFormat="1">
       <c r="Q290" s="23"/>
@@ -25121,7 +25210,7 @@
       <c r="AA290" s="39"/>
       <c r="AB290" s="39"/>
       <c r="AC290" s="39"/>
-      <c r="AD290" s="65"/>
+      <c r="AD290" s="23"/>
     </row>
     <row r="291" spans="16:30" s="21" customFormat="1">
       <c r="Q291" s="23"/>
@@ -25137,7 +25226,7 @@
       <c r="AA291" s="39"/>
       <c r="AB291" s="39"/>
       <c r="AC291" s="39"/>
-      <c r="AD291" s="65"/>
+      <c r="AD291" s="23"/>
     </row>
     <row r="292" spans="16:30" s="21" customFormat="1">
       <c r="P292" s="22"/>
@@ -25154,7 +25243,7 @@
       <c r="AA292" s="39"/>
       <c r="AB292" s="39"/>
       <c r="AC292" s="39"/>
-      <c r="AD292" s="65"/>
+      <c r="AD292" s="23"/>
     </row>
     <row r="293" spans="16:30" s="21" customFormat="1">
       <c r="Q293" s="23"/>
@@ -25170,7 +25259,7 @@
       <c r="AA293" s="23"/>
       <c r="AB293" s="23"/>
       <c r="AC293" s="23"/>
-      <c r="AD293" s="65"/>
+      <c r="AD293" s="23"/>
     </row>
     <row r="294" spans="16:30" s="21" customFormat="1">
       <c r="Q294" s="23"/>
@@ -25186,7 +25275,7 @@
       <c r="AA294" s="39"/>
       <c r="AB294" s="39"/>
       <c r="AC294" s="39"/>
-      <c r="AD294" s="65"/>
+      <c r="AD294" s="23"/>
     </row>
     <row r="295" spans="16:30" s="21" customFormat="1">
       <c r="Q295" s="23"/>
@@ -25202,7 +25291,7 @@
       <c r="AA295" s="39"/>
       <c r="AB295" s="39"/>
       <c r="AC295" s="39"/>
-      <c r="AD295" s="65"/>
+      <c r="AD295" s="23"/>
     </row>
     <row r="296" spans="16:30" s="21" customFormat="1">
       <c r="Q296" s="23"/>
@@ -25218,7 +25307,7 @@
       <c r="AA296" s="39"/>
       <c r="AB296" s="39"/>
       <c r="AC296" s="39"/>
-      <c r="AD296" s="65"/>
+      <c r="AD296" s="23"/>
     </row>
     <row r="297" spans="16:30" s="21" customFormat="1">
       <c r="Q297" s="23"/>
@@ -25234,7 +25323,7 @@
       <c r="AA297" s="39"/>
       <c r="AB297" s="39"/>
       <c r="AC297" s="39"/>
-      <c r="AD297" s="65"/>
+      <c r="AD297" s="23"/>
     </row>
     <row r="298" spans="16:30" s="21" customFormat="1">
       <c r="Q298" s="23"/>
@@ -25250,7 +25339,7 @@
       <c r="AA298" s="39"/>
       <c r="AB298" s="39"/>
       <c r="AC298" s="39"/>
-      <c r="AD298" s="65"/>
+      <c r="AD298" s="23"/>
     </row>
     <row r="299" spans="16:30" s="21" customFormat="1">
       <c r="Q299" s="23"/>
@@ -25266,7 +25355,7 @@
       <c r="AA299" s="39"/>
       <c r="AB299" s="39"/>
       <c r="AC299" s="39"/>
-      <c r="AD299" s="65"/>
+      <c r="AD299" s="23"/>
     </row>
     <row r="300" spans="16:30" s="21" customFormat="1">
       <c r="Q300" s="23"/>
@@ -25282,7 +25371,7 @@
       <c r="AA300" s="39"/>
       <c r="AB300" s="39"/>
       <c r="AC300" s="39"/>
-      <c r="AD300" s="65"/>
+      <c r="AD300" s="23"/>
     </row>
     <row r="301" spans="16:30" s="21" customFormat="1">
       <c r="Q301" s="23"/>
@@ -25298,7 +25387,7 @@
       <c r="AA301" s="23"/>
       <c r="AB301" s="23"/>
       <c r="AC301" s="23"/>
-      <c r="AD301" s="65"/>
+      <c r="AD301" s="23"/>
     </row>
     <row r="302" spans="16:30" s="21" customFormat="1">
       <c r="P302" s="22"/>
@@ -25315,7 +25404,7 @@
       <c r="AA302" s="39"/>
       <c r="AB302" s="39"/>
       <c r="AC302" s="39"/>
-      <c r="AD302" s="65"/>
+      <c r="AD302" s="23"/>
     </row>
     <row r="303" spans="16:30" s="21" customFormat="1">
       <c r="Q303" s="23"/>
@@ -25331,7 +25420,7 @@
       <c r="AA303" s="39"/>
       <c r="AB303" s="39"/>
       <c r="AC303" s="39"/>
-      <c r="AD303" s="65"/>
+      <c r="AD303" s="23"/>
     </row>
     <row r="304" spans="16:30" s="21" customFormat="1">
       <c r="Q304" s="23"/>
@@ -25347,7 +25436,7 @@
       <c r="AA304" s="23"/>
       <c r="AB304" s="23"/>
       <c r="AC304" s="23"/>
-      <c r="AD304" s="65"/>
+      <c r="AD304" s="23"/>
     </row>
     <row r="305" spans="16:30" s="21" customFormat="1">
       <c r="Q305" s="23"/>
@@ -25363,7 +25452,7 @@
       <c r="AA305" s="39"/>
       <c r="AB305" s="39"/>
       <c r="AC305" s="39"/>
-      <c r="AD305" s="65"/>
+      <c r="AD305" s="23"/>
     </row>
     <row r="306" spans="16:30" s="21" customFormat="1">
       <c r="Q306" s="23"/>
@@ -25379,7 +25468,7 @@
       <c r="AA306" s="39"/>
       <c r="AB306" s="39"/>
       <c r="AC306" s="39"/>
-      <c r="AD306" s="65"/>
+      <c r="AD306" s="23"/>
     </row>
     <row r="307" spans="16:30" s="21" customFormat="1">
       <c r="Q307" s="23"/>
@@ -25395,7 +25484,7 @@
       <c r="AA307" s="39"/>
       <c r="AB307" s="39"/>
       <c r="AC307" s="39"/>
-      <c r="AD307" s="65"/>
+      <c r="AD307" s="23"/>
     </row>
     <row r="308" spans="16:30" s="21" customFormat="1">
       <c r="Q308" s="23"/>
@@ -25411,7 +25500,7 @@
       <c r="AA308" s="39"/>
       <c r="AB308" s="39"/>
       <c r="AC308" s="39"/>
-      <c r="AD308" s="65"/>
+      <c r="AD308" s="23"/>
     </row>
     <row r="309" spans="16:30" s="21" customFormat="1">
       <c r="P309" s="22"/>
@@ -25428,7 +25517,7 @@
       <c r="AA309" s="39"/>
       <c r="AB309" s="39"/>
       <c r="AC309" s="39"/>
-      <c r="AD309" s="65"/>
+      <c r="AD309" s="23"/>
     </row>
     <row r="310" spans="16:30" s="21" customFormat="1">
       <c r="Q310" s="23"/>
@@ -25444,7 +25533,7 @@
       <c r="AA310" s="39"/>
       <c r="AB310" s="39"/>
       <c r="AC310" s="39"/>
-      <c r="AD310" s="65"/>
+      <c r="AD310" s="23"/>
     </row>
     <row r="311" spans="16:30" s="21" customFormat="1">
       <c r="Q311" s="23"/>
@@ -25460,7 +25549,7 @@
       <c r="AA311" s="39"/>
       <c r="AB311" s="39"/>
       <c r="AC311" s="39"/>
-      <c r="AD311" s="65"/>
+      <c r="AD311" s="23"/>
     </row>
     <row r="312" spans="16:30" s="21" customFormat="1">
       <c r="Q312" s="23"/>
@@ -25476,7 +25565,7 @@
       <c r="AA312" s="39"/>
       <c r="AB312" s="39"/>
       <c r="AC312" s="39"/>
-      <c r="AD312" s="65"/>
+      <c r="AD312" s="23"/>
     </row>
     <row r="313" spans="16:30" s="21" customFormat="1">
       <c r="Q313" s="23"/>
@@ -25492,7 +25581,7 @@
       <c r="AA313" s="39"/>
       <c r="AB313" s="39"/>
       <c r="AC313" s="39"/>
-      <c r="AD313" s="65"/>
+      <c r="AD313" s="23"/>
     </row>
     <row r="314" spans="16:30" s="21" customFormat="1">
       <c r="Q314" s="23"/>
@@ -25508,7 +25597,7 @@
       <c r="AA314" s="39"/>
       <c r="AB314" s="39"/>
       <c r="AC314" s="39"/>
-      <c r="AD314" s="65"/>
+      <c r="AD314" s="23"/>
     </row>
     <row r="315" spans="16:30" s="21" customFormat="1">
       <c r="Q315" s="23"/>
@@ -25524,7 +25613,7 @@
       <c r="AA315" s="39"/>
       <c r="AB315" s="39"/>
       <c r="AC315" s="39"/>
-      <c r="AD315" s="65"/>
+      <c r="AD315" s="23"/>
     </row>
     <row r="316" spans="16:30" s="21" customFormat="1">
       <c r="Q316" s="39"/>
@@ -25540,7 +25629,7 @@
       <c r="AA316" s="39"/>
       <c r="AB316" s="39"/>
       <c r="AC316" s="39"/>
-      <c r="AD316" s="65"/>
+      <c r="AD316" s="23"/>
     </row>
     <row r="317" spans="16:30" s="21" customFormat="1">
       <c r="Q317" s="23"/>
@@ -25556,7 +25645,7 @@
       <c r="AA317" s="39"/>
       <c r="AB317" s="39"/>
       <c r="AC317" s="39"/>
-      <c r="AD317" s="65"/>
+      <c r="AD317" s="23"/>
     </row>
     <row r="318" spans="16:30" s="21" customFormat="1">
       <c r="Q318" s="39"/>
@@ -25572,7 +25661,7 @@
       <c r="AA318" s="39"/>
       <c r="AB318" s="39"/>
       <c r="AC318" s="39"/>
-      <c r="AD318" s="65"/>
+      <c r="AD318" s="23"/>
     </row>
     <row r="319" spans="16:30" s="21" customFormat="1">
       <c r="Q319" s="23"/>
@@ -25588,7 +25677,7 @@
       <c r="AA319" s="39"/>
       <c r="AB319" s="39"/>
       <c r="AC319" s="39"/>
-      <c r="AD319" s="65"/>
+      <c r="AD319" s="23"/>
     </row>
     <row r="320" spans="16:30" s="21" customFormat="1">
       <c r="Q320" s="23"/>
@@ -25604,7 +25693,7 @@
       <c r="AA320" s="23"/>
       <c r="AB320" s="23"/>
       <c r="AC320" s="23"/>
-      <c r="AD320" s="65"/>
+      <c r="AD320" s="23"/>
     </row>
     <row r="321" spans="16:30" s="21" customFormat="1">
       <c r="Q321" s="23"/>
@@ -25620,7 +25709,7 @@
       <c r="AA321" s="39"/>
       <c r="AB321" s="39"/>
       <c r="AC321" s="39"/>
-      <c r="AD321" s="65"/>
+      <c r="AD321" s="23"/>
     </row>
     <row r="322" spans="16:30" s="21" customFormat="1">
       <c r="Q322" s="23"/>
@@ -25636,7 +25725,7 @@
       <c r="AA322" s="39"/>
       <c r="AB322" s="39"/>
       <c r="AC322" s="39"/>
-      <c r="AD322" s="65"/>
+      <c r="AD322" s="23"/>
     </row>
     <row r="323" spans="16:30" s="21" customFormat="1">
       <c r="P323" s="22"/>
@@ -25653,7 +25742,7 @@
       <c r="AA323" s="39"/>
       <c r="AB323" s="39"/>
       <c r="AC323" s="39"/>
-      <c r="AD323" s="65"/>
+      <c r="AD323" s="23"/>
     </row>
     <row r="324" spans="16:30" s="21" customFormat="1">
       <c r="P324" s="22"/>
@@ -25670,7 +25759,7 @@
       <c r="AA324" s="39"/>
       <c r="AB324" s="39"/>
       <c r="AC324" s="39"/>
-      <c r="AD324" s="65"/>
+      <c r="AD324" s="23"/>
     </row>
     <row r="325" spans="16:30" s="21" customFormat="1">
       <c r="P325" s="22"/>
@@ -25687,7 +25776,7 @@
       <c r="AA325" s="39"/>
       <c r="AB325" s="39"/>
       <c r="AC325" s="39"/>
-      <c r="AD325" s="65"/>
+      <c r="AD325" s="23"/>
     </row>
     <row r="326" spans="16:30" s="21" customFormat="1">
       <c r="Q326" s="23"/>
@@ -25703,7 +25792,7 @@
       <c r="AA326" s="23"/>
       <c r="AB326" s="23"/>
       <c r="AC326" s="23"/>
-      <c r="AD326" s="65"/>
+      <c r="AD326" s="23"/>
     </row>
     <row r="327" spans="16:30" s="21" customFormat="1">
       <c r="Q327" s="23"/>
@@ -25719,7 +25808,7 @@
       <c r="AA327" s="39"/>
       <c r="AB327" s="39"/>
       <c r="AC327" s="39"/>
-      <c r="AD327" s="65"/>
+      <c r="AD327" s="23"/>
     </row>
     <row r="328" spans="16:30" s="21" customFormat="1">
       <c r="Q328" s="23"/>
@@ -25735,7 +25824,7 @@
       <c r="AA328" s="39"/>
       <c r="AB328" s="39"/>
       <c r="AC328" s="39"/>
-      <c r="AD328" s="65"/>
+      <c r="AD328" s="23"/>
     </row>
     <row r="329" spans="16:30" s="21" customFormat="1">
       <c r="Q329" s="23"/>
@@ -25751,7 +25840,7 @@
       <c r="AA329" s="39"/>
       <c r="AB329" s="39"/>
       <c r="AC329" s="39"/>
-      <c r="AD329" s="65"/>
+      <c r="AD329" s="23"/>
     </row>
     <row r="330" spans="16:30" s="21" customFormat="1">
       <c r="Q330" s="23"/>
@@ -25767,7 +25856,7 @@
       <c r="AA330" s="39"/>
       <c r="AB330" s="39"/>
       <c r="AC330" s="39"/>
-      <c r="AD330" s="65"/>
+      <c r="AD330" s="23"/>
     </row>
     <row r="331" spans="16:30" s="21" customFormat="1">
       <c r="Q331" s="23"/>
@@ -25783,7 +25872,7 @@
       <c r="AA331" s="39"/>
       <c r="AB331" s="39"/>
       <c r="AC331" s="39"/>
-      <c r="AD331" s="65"/>
+      <c r="AD331" s="23"/>
     </row>
     <row r="332" spans="16:30" s="21" customFormat="1">
       <c r="Q332" s="23"/>
@@ -25799,7 +25888,7 @@
       <c r="AA332" s="39"/>
       <c r="AB332" s="39"/>
       <c r="AC332" s="39"/>
-      <c r="AD332" s="65"/>
+      <c r="AD332" s="23"/>
     </row>
     <row r="333" spans="16:30" s="21" customFormat="1">
       <c r="Q333" s="23"/>
@@ -25815,7 +25904,7 @@
       <c r="AA333" s="39"/>
       <c r="AB333" s="39"/>
       <c r="AC333" s="39"/>
-      <c r="AD333" s="65"/>
+      <c r="AD333" s="23"/>
     </row>
     <row r="334" spans="16:30" s="21" customFormat="1">
       <c r="Q334" s="23"/>
@@ -25831,7 +25920,7 @@
       <c r="AA334" s="39"/>
       <c r="AB334" s="39"/>
       <c r="AC334" s="39"/>
-      <c r="AD334" s="65"/>
+      <c r="AD334" s="23"/>
     </row>
     <row r="335" spans="16:30" s="21" customFormat="1">
       <c r="Q335" s="23"/>
@@ -25847,7 +25936,7 @@
       <c r="AA335" s="39"/>
       <c r="AB335" s="39"/>
       <c r="AC335" s="39"/>
-      <c r="AD335" s="65"/>
+      <c r="AD335" s="23"/>
     </row>
     <row r="336" spans="16:30" s="21" customFormat="1">
       <c r="Q336" s="23"/>
@@ -25863,7 +25952,7 @@
       <c r="AA336" s="39"/>
       <c r="AB336" s="39"/>
       <c r="AC336" s="39"/>
-      <c r="AD336" s="65"/>
+      <c r="AD336" s="23"/>
     </row>
     <row r="337" spans="17:30" s="21" customFormat="1">
       <c r="Q337" s="39"/>
@@ -25879,7 +25968,7 @@
       <c r="AA337" s="39"/>
       <c r="AB337" s="39"/>
       <c r="AC337" s="39"/>
-      <c r="AD337" s="65"/>
+      <c r="AD337" s="23"/>
     </row>
     <row r="338" spans="17:30" s="21" customFormat="1">
       <c r="Q338" s="23"/>
@@ -25895,7 +25984,7 @@
       <c r="AA338" s="39"/>
       <c r="AB338" s="39"/>
       <c r="AC338" s="39"/>
-      <c r="AD338" s="65"/>
+      <c r="AD338" s="23"/>
     </row>
     <row r="339" spans="17:30" s="21" customFormat="1">
       <c r="Q339" s="39"/>
@@ -25911,7 +26000,7 @@
       <c r="AA339" s="39"/>
       <c r="AB339" s="39"/>
       <c r="AC339" s="39"/>
-      <c r="AD339" s="65"/>
+      <c r="AD339" s="23"/>
     </row>
     <row r="340" spans="17:30" s="21" customFormat="1">
       <c r="Q340" s="23"/>
@@ -25927,7 +26016,7 @@
       <c r="AA340" s="39"/>
       <c r="AB340" s="39"/>
       <c r="AC340" s="39"/>
-      <c r="AD340" s="65"/>
+      <c r="AD340" s="23"/>
     </row>
     <row r="341" spans="17:30" s="21" customFormat="1">
       <c r="Q341" s="23"/>
@@ -25943,7 +26032,7 @@
       <c r="AA341" s="23"/>
       <c r="AB341" s="23"/>
       <c r="AC341" s="23"/>
-      <c r="AD341" s="65"/>
+      <c r="AD341" s="23"/>
     </row>
     <row r="342" spans="17:30" s="21" customFormat="1">
       <c r="Q342" s="23"/>
@@ -25959,7 +26048,7 @@
       <c r="AA342" s="39"/>
       <c r="AB342" s="39"/>
       <c r="AC342" s="39"/>
-      <c r="AD342" s="65"/>
+      <c r="AD342" s="23"/>
     </row>
     <row r="343" spans="17:30" s="21" customFormat="1">
       <c r="Q343" s="23"/>
@@ -25975,7 +26064,7 @@
       <c r="AA343" s="39"/>
       <c r="AB343" s="39"/>
       <c r="AC343" s="39"/>
-      <c r="AD343" s="65"/>
+      <c r="AD343" s="23"/>
     </row>
     <row r="344" spans="17:30" s="21" customFormat="1">
       <c r="Q344" s="23"/>
@@ -25991,7 +26080,7 @@
       <c r="AA344" s="23"/>
       <c r="AB344" s="23"/>
       <c r="AC344" s="23"/>
-      <c r="AD344" s="65"/>
+      <c r="AD344" s="23"/>
     </row>
     <row r="345" spans="17:30" s="21" customFormat="1">
       <c r="Q345" s="23"/>
@@ -26007,7 +26096,7 @@
       <c r="AA345" s="39"/>
       <c r="AB345" s="39"/>
       <c r="AC345" s="39"/>
-      <c r="AD345" s="65"/>
+      <c r="AD345" s="23"/>
     </row>
     <row r="346" spans="17:30" s="21" customFormat="1">
       <c r="Q346" s="23"/>
@@ -26023,7 +26112,7 @@
       <c r="AA346" s="39"/>
       <c r="AB346" s="39"/>
       <c r="AC346" s="39"/>
-      <c r="AD346" s="65"/>
+      <c r="AD346" s="23"/>
     </row>
     <row r="347" spans="17:30" s="21" customFormat="1">
       <c r="Q347" s="23"/>
@@ -26039,7 +26128,7 @@
       <c r="AA347" s="39"/>
       <c r="AB347" s="39"/>
       <c r="AC347" s="39"/>
-      <c r="AD347" s="65"/>
+      <c r="AD347" s="23"/>
     </row>
     <row r="348" spans="17:30" s="21" customFormat="1">
       <c r="Q348" s="23"/>
@@ -26055,7 +26144,7 @@
       <c r="AA348" s="39"/>
       <c r="AB348" s="39"/>
       <c r="AC348" s="39"/>
-      <c r="AD348" s="65"/>
+      <c r="AD348" s="23"/>
     </row>
     <row r="349" spans="17:30" s="21" customFormat="1">
       <c r="Q349" s="23"/>
@@ -26071,7 +26160,7 @@
       <c r="AA349" s="39"/>
       <c r="AB349" s="39"/>
       <c r="AC349" s="39"/>
-      <c r="AD349" s="65"/>
+      <c r="AD349" s="23"/>
     </row>
     <row r="350" spans="17:30" s="21" customFormat="1">
       <c r="Q350" s="39"/>
@@ -26087,7 +26176,7 @@
       <c r="AA350" s="39"/>
       <c r="AB350" s="39"/>
       <c r="AC350" s="39"/>
-      <c r="AD350" s="65"/>
+      <c r="AD350" s="23"/>
     </row>
     <row r="351" spans="17:30" s="21" customFormat="1">
       <c r="Q351" s="23"/>
@@ -26103,7 +26192,7 @@
       <c r="AA351" s="39"/>
       <c r="AB351" s="39"/>
       <c r="AC351" s="39"/>
-      <c r="AD351" s="65"/>
+      <c r="AD351" s="23"/>
     </row>
     <row r="352" spans="17:30" s="21" customFormat="1">
       <c r="Q352" s="23"/>
@@ -26119,7 +26208,7 @@
       <c r="AA352" s="39"/>
       <c r="AB352" s="39"/>
       <c r="AC352" s="39"/>
-      <c r="AD352" s="65"/>
+      <c r="AD352" s="23"/>
     </row>
     <row r="353" spans="17:30" s="21" customFormat="1">
       <c r="Q353" s="23"/>
@@ -26135,7 +26224,7 @@
       <c r="AA353" s="23"/>
       <c r="AB353" s="23"/>
       <c r="AC353" s="23"/>
-      <c r="AD353" s="65"/>
+      <c r="AD353" s="23"/>
     </row>
     <row r="354" spans="17:30" s="21" customFormat="1">
       <c r="Q354" s="23"/>
@@ -26151,7 +26240,7 @@
       <c r="AA354" s="39"/>
       <c r="AB354" s="39"/>
       <c r="AC354" s="39"/>
-      <c r="AD354" s="65"/>
+      <c r="AD354" s="23"/>
     </row>
     <row r="355" spans="17:30" s="21" customFormat="1">
       <c r="Q355" s="23"/>
@@ -26167,7 +26256,7 @@
       <c r="AA355" s="39"/>
       <c r="AB355" s="39"/>
       <c r="AC355" s="39"/>
-      <c r="AD355" s="65"/>
+      <c r="AD355" s="23"/>
     </row>
     <row r="356" spans="17:30" s="21" customFormat="1">
       <c r="Q356" s="23"/>
@@ -26183,7 +26272,7 @@
       <c r="AA356" s="39"/>
       <c r="AB356" s="39"/>
       <c r="AC356" s="39"/>
-      <c r="AD356" s="65"/>
+      <c r="AD356" s="23"/>
     </row>
     <row r="357" spans="17:30" s="21" customFormat="1">
       <c r="Q357" s="23"/>
@@ -26199,7 +26288,7 @@
       <c r="AA357" s="39"/>
       <c r="AB357" s="39"/>
       <c r="AC357" s="39"/>
-      <c r="AD357" s="65"/>
+      <c r="AD357" s="23"/>
     </row>
     <row r="358" spans="17:30" s="21" customFormat="1">
       <c r="Q358" s="23"/>
@@ -26215,7 +26304,7 @@
       <c r="AA358" s="39"/>
       <c r="AB358" s="39"/>
       <c r="AC358" s="39"/>
-      <c r="AD358" s="65"/>
+      <c r="AD358" s="23"/>
     </row>
     <row r="359" spans="17:30" s="21" customFormat="1">
       <c r="Q359" s="23"/>
@@ -26231,7 +26320,7 @@
       <c r="AA359" s="39"/>
       <c r="AB359" s="39"/>
       <c r="AC359" s="39"/>
-      <c r="AD359" s="65"/>
+      <c r="AD359" s="23"/>
     </row>
     <row r="360" spans="17:30" s="21" customFormat="1">
       <c r="Q360" s="23"/>
@@ -26247,7 +26336,7 @@
       <c r="AA360" s="39"/>
       <c r="AB360" s="39"/>
       <c r="AC360" s="39"/>
-      <c r="AD360" s="65"/>
+      <c r="AD360" s="23"/>
     </row>
     <row r="361" spans="17:30" s="21" customFormat="1">
       <c r="Q361" s="39"/>
@@ -26263,7 +26352,7 @@
       <c r="AA361" s="39"/>
       <c r="AB361" s="39"/>
       <c r="AC361" s="39"/>
-      <c r="AD361" s="65"/>
+      <c r="AD361" s="23"/>
     </row>
     <row r="362" spans="17:30" s="21" customFormat="1">
       <c r="Q362" s="23"/>
@@ -26279,7 +26368,7 @@
       <c r="AA362" s="39"/>
       <c r="AB362" s="39"/>
       <c r="AC362" s="39"/>
-      <c r="AD362" s="65"/>
+      <c r="AD362" s="23"/>
     </row>
     <row r="363" spans="17:30" s="21" customFormat="1">
       <c r="Q363" s="23"/>
@@ -26295,7 +26384,7 @@
       <c r="AA363" s="39"/>
       <c r="AB363" s="39"/>
       <c r="AC363" s="39"/>
-      <c r="AD363" s="65"/>
+      <c r="AD363" s="23"/>
     </row>
     <row r="364" spans="17:30" s="21" customFormat="1">
       <c r="Q364" s="23"/>
@@ -26311,7 +26400,7 @@
       <c r="AA364" s="39"/>
       <c r="AB364" s="39"/>
       <c r="AC364" s="39"/>
-      <c r="AD364" s="65"/>
+      <c r="AD364" s="23"/>
     </row>
     <row r="365" spans="17:30" s="21" customFormat="1">
       <c r="Q365" s="23"/>
@@ -26327,7 +26416,7 @@
       <c r="AA365" s="39"/>
       <c r="AB365" s="39"/>
       <c r="AC365" s="39"/>
-      <c r="AD365" s="65"/>
+      <c r="AD365" s="23"/>
     </row>
     <row r="366" spans="17:30" s="21" customFormat="1">
       <c r="Q366" s="23"/>
@@ -26343,7 +26432,7 @@
       <c r="AA366" s="39"/>
       <c r="AB366" s="39"/>
       <c r="AC366" s="39"/>
-      <c r="AD366" s="65"/>
+      <c r="AD366" s="23"/>
     </row>
     <row r="367" spans="17:30" s="21" customFormat="1">
       <c r="Q367" s="23"/>
@@ -26359,7 +26448,7 @@
       <c r="AA367" s="39"/>
       <c r="AB367" s="39"/>
       <c r="AC367" s="39"/>
-      <c r="AD367" s="65"/>
+      <c r="AD367" s="23"/>
     </row>
     <row r="368" spans="17:30" s="21" customFormat="1">
       <c r="Q368" s="23"/>
@@ -26375,7 +26464,7 @@
       <c r="AA368" s="39"/>
       <c r="AB368" s="39"/>
       <c r="AC368" s="39"/>
-      <c r="AD368" s="65"/>
+      <c r="AD368" s="23"/>
     </row>
     <row r="369" spans="17:30" s="21" customFormat="1">
       <c r="Q369" s="23"/>
@@ -26391,7 +26480,7 @@
       <c r="AA369" s="39"/>
       <c r="AB369" s="39"/>
       <c r="AC369" s="39"/>
-      <c r="AD369" s="65"/>
+      <c r="AD369" s="23"/>
     </row>
     <row r="370" spans="17:30" s="21" customFormat="1">
       <c r="Q370" s="23"/>
@@ -26407,7 +26496,7 @@
       <c r="AA370" s="39"/>
       <c r="AB370" s="39"/>
       <c r="AC370" s="39"/>
-      <c r="AD370" s="65"/>
+      <c r="AD370" s="23"/>
     </row>
     <row r="371" spans="17:30" s="21" customFormat="1">
       <c r="Q371" s="23"/>
@@ -26423,7 +26512,7 @@
       <c r="AA371" s="39"/>
       <c r="AB371" s="39"/>
       <c r="AC371" s="39"/>
-      <c r="AD371" s="65"/>
+      <c r="AD371" s="23"/>
     </row>
     <row r="372" spans="17:30" s="21" customFormat="1">
       <c r="Q372" s="23"/>
@@ -26439,7 +26528,7 @@
       <c r="AA372" s="39"/>
       <c r="AB372" s="39"/>
       <c r="AC372" s="39"/>
-      <c r="AD372" s="65"/>
+      <c r="AD372" s="23"/>
     </row>
     <row r="373" spans="17:30" s="21" customFormat="1">
       <c r="Q373" s="23"/>
@@ -26455,7 +26544,7 @@
       <c r="AA373" s="39"/>
       <c r="AB373" s="39"/>
       <c r="AC373" s="39"/>
-      <c r="AD373" s="65"/>
+      <c r="AD373" s="23"/>
     </row>
     <row r="374" spans="17:30" s="21" customFormat="1">
       <c r="Q374" s="23"/>
@@ -26471,7 +26560,7 @@
       <c r="AA374" s="39"/>
       <c r="AB374" s="39"/>
       <c r="AC374" s="39"/>
-      <c r="AD374" s="65"/>
+      <c r="AD374" s="23"/>
     </row>
     <row r="375" spans="17:30" s="21" customFormat="1">
       <c r="Q375" s="23"/>
@@ -26487,7 +26576,7 @@
       <c r="AA375" s="39"/>
       <c r="AB375" s="39"/>
       <c r="AC375" s="39"/>
-      <c r="AD375" s="65"/>
+      <c r="AD375" s="23"/>
     </row>
     <row r="376" spans="17:30" s="21" customFormat="1">
       <c r="Q376" s="23"/>
@@ -26503,7 +26592,7 @@
       <c r="AA376" s="39"/>
       <c r="AB376" s="39"/>
       <c r="AC376" s="39"/>
-      <c r="AD376" s="65"/>
+      <c r="AD376" s="23"/>
     </row>
     <row r="377" spans="17:30" s="21" customFormat="1">
       <c r="Q377" s="23"/>
@@ -26519,7 +26608,7 @@
       <c r="AA377" s="39"/>
       <c r="AB377" s="39"/>
       <c r="AC377" s="39"/>
-      <c r="AD377" s="65"/>
+      <c r="AD377" s="23"/>
     </row>
     <row r="378" spans="17:30" s="21" customFormat="1">
       <c r="Q378" s="39"/>
@@ -26535,7 +26624,7 @@
       <c r="AA378" s="39"/>
       <c r="AB378" s="39"/>
       <c r="AC378" s="39"/>
-      <c r="AD378" s="65"/>
+      <c r="AD378" s="23"/>
     </row>
     <row r="379" spans="17:30" s="21" customFormat="1">
       <c r="Q379" s="23"/>
@@ -26551,7 +26640,7 @@
       <c r="AA379" s="39"/>
       <c r="AB379" s="39"/>
       <c r="AC379" s="39"/>
-      <c r="AD379" s="65"/>
+      <c r="AD379" s="23"/>
     </row>
     <row r="380" spans="17:30" s="21" customFormat="1">
       <c r="Q380" s="23"/>
@@ -26567,7 +26656,7 @@
       <c r="AA380" s="23"/>
       <c r="AB380" s="23"/>
       <c r="AC380" s="23"/>
-      <c r="AD380" s="65"/>
+      <c r="AD380" s="23"/>
     </row>
     <row r="381" spans="17:30" s="21" customFormat="1">
       <c r="Q381" s="23"/>
@@ -26583,7 +26672,7 @@
       <c r="AA381" s="23"/>
       <c r="AB381" s="23"/>
       <c r="AC381" s="23"/>
-      <c r="AD381" s="65"/>
+      <c r="AD381" s="23"/>
     </row>
     <row r="382" spans="17:30" s="21" customFormat="1">
       <c r="Q382" s="23"/>
@@ -26599,7 +26688,7 @@
       <c r="AA382" s="39"/>
       <c r="AB382" s="39"/>
       <c r="AC382" s="39"/>
-      <c r="AD382" s="65"/>
+      <c r="AD382" s="23"/>
     </row>
     <row r="383" spans="17:30" s="21" customFormat="1">
       <c r="Q383" s="23"/>
@@ -26615,7 +26704,7 @@
       <c r="AA383" s="39"/>
       <c r="AB383" s="39"/>
       <c r="AC383" s="39"/>
-      <c r="AD383" s="65"/>
+      <c r="AD383" s="23"/>
     </row>
     <row r="384" spans="17:30" s="21" customFormat="1">
       <c r="Q384" s="23"/>
@@ -26631,7 +26720,7 @@
       <c r="AA384" s="39"/>
       <c r="AB384" s="39"/>
       <c r="AC384" s="39"/>
-      <c r="AD384" s="65"/>
+      <c r="AD384" s="23"/>
     </row>
     <row r="385" spans="17:30" s="21" customFormat="1">
       <c r="Q385" s="23"/>
@@ -26647,7 +26736,7 @@
       <c r="AA385" s="39"/>
       <c r="AB385" s="39"/>
       <c r="AC385" s="39"/>
-      <c r="AD385" s="65"/>
+      <c r="AD385" s="23"/>
     </row>
     <row r="386" spans="17:30" s="21" customFormat="1">
       <c r="Q386" s="23"/>
@@ -26663,7 +26752,7 @@
       <c r="AA386" s="39"/>
       <c r="AB386" s="39"/>
       <c r="AC386" s="39"/>
-      <c r="AD386" s="65"/>
+      <c r="AD386" s="23"/>
     </row>
     <row r="387" spans="17:30" s="21" customFormat="1">
       <c r="Q387" s="23"/>
@@ -26679,7 +26768,7 @@
       <c r="AA387" s="39"/>
       <c r="AB387" s="39"/>
       <c r="AC387" s="39"/>
-      <c r="AD387" s="65"/>
+      <c r="AD387" s="23"/>
     </row>
     <row r="388" spans="17:30" s="21" customFormat="1">
       <c r="Q388" s="23"/>
@@ -26695,7 +26784,7 @@
       <c r="AA388" s="39"/>
       <c r="AB388" s="39"/>
       <c r="AC388" s="39"/>
-      <c r="AD388" s="65"/>
+      <c r="AD388" s="23"/>
     </row>
     <row r="389" spans="17:30" s="21" customFormat="1">
       <c r="Q389" s="23"/>
@@ -26711,7 +26800,7 @@
       <c r="AA389" s="39"/>
       <c r="AB389" s="39"/>
       <c r="AC389" s="39"/>
-      <c r="AD389" s="65"/>
+      <c r="AD389" s="23"/>
     </row>
     <row r="390" spans="17:30" s="21" customFormat="1">
       <c r="Q390" s="23"/>
@@ -26727,7 +26816,7 @@
       <c r="AA390" s="39"/>
       <c r="AB390" s="39"/>
       <c r="AC390" s="39"/>
-      <c r="AD390" s="65"/>
+      <c r="AD390" s="23"/>
     </row>
     <row r="391" spans="17:30" s="21" customFormat="1">
       <c r="Q391" s="23"/>
@@ -26743,7 +26832,7 @@
       <c r="AA391" s="39"/>
       <c r="AB391" s="39"/>
       <c r="AC391" s="39"/>
-      <c r="AD391" s="65"/>
+      <c r="AD391" s="23"/>
     </row>
     <row r="392" spans="17:30" s="21" customFormat="1">
       <c r="Q392" s="23"/>
@@ -26759,7 +26848,7 @@
       <c r="AA392" s="39"/>
       <c r="AB392" s="39"/>
       <c r="AC392" s="39"/>
-      <c r="AD392" s="65"/>
+      <c r="AD392" s="23"/>
     </row>
     <row r="393" spans="17:30" s="21" customFormat="1">
       <c r="Q393" s="23"/>
@@ -26775,7 +26864,7 @@
       <c r="AA393" s="39"/>
       <c r="AB393" s="39"/>
       <c r="AC393" s="39"/>
-      <c r="AD393" s="65"/>
+      <c r="AD393" s="23"/>
     </row>
     <row r="394" spans="17:30" s="21" customFormat="1">
       <c r="Q394" s="39"/>
@@ -26791,7 +26880,7 @@
       <c r="AA394" s="39"/>
       <c r="AB394" s="39"/>
       <c r="AC394" s="39"/>
-      <c r="AD394" s="65"/>
+      <c r="AD394" s="23"/>
     </row>
     <row r="395" spans="17:30" s="21" customFormat="1">
       <c r="Q395" s="23"/>
@@ -26807,7 +26896,7 @@
       <c r="AA395" s="39"/>
       <c r="AB395" s="39"/>
       <c r="AC395" s="39"/>
-      <c r="AD395" s="65"/>
+      <c r="AD395" s="23"/>
     </row>
     <row r="396" spans="17:30" s="21" customFormat="1">
       <c r="Q396" s="23"/>
@@ -26823,7 +26912,7 @@
       <c r="AA396" s="23"/>
       <c r="AB396" s="23"/>
       <c r="AC396" s="23"/>
-      <c r="AD396" s="65"/>
+      <c r="AD396" s="23"/>
     </row>
     <row r="397" spans="17:30" s="21" customFormat="1">
       <c r="Q397" s="23"/>
@@ -26839,7 +26928,7 @@
       <c r="AA397" s="39"/>
       <c r="AB397" s="39"/>
       <c r="AC397" s="39"/>
-      <c r="AD397" s="65"/>
+      <c r="AD397" s="23"/>
     </row>
     <row r="398" spans="17:30" s="21" customFormat="1">
       <c r="Q398" s="23"/>
@@ -26855,7 +26944,7 @@
       <c r="AA398" s="39"/>
       <c r="AB398" s="39"/>
       <c r="AC398" s="39"/>
-      <c r="AD398" s="65"/>
+      <c r="AD398" s="23"/>
     </row>
     <row r="399" spans="17:30" s="21" customFormat="1">
       <c r="Q399" s="23"/>
@@ -26871,7 +26960,7 @@
       <c r="AA399" s="39"/>
       <c r="AB399" s="39"/>
       <c r="AC399" s="39"/>
-      <c r="AD399" s="65"/>
+      <c r="AD399" s="23"/>
     </row>
     <row r="400" spans="17:30" s="21" customFormat="1">
       <c r="Q400" s="23"/>
@@ -26887,7 +26976,7 @@
       <c r="AA400" s="39"/>
       <c r="AB400" s="39"/>
       <c r="AC400" s="39"/>
-      <c r="AD400" s="65"/>
+      <c r="AD400" s="23"/>
     </row>
     <row r="401" spans="17:30" s="21" customFormat="1">
       <c r="Q401" s="23"/>
@@ -26903,7 +26992,7 @@
       <c r="AA401" s="39"/>
       <c r="AB401" s="39"/>
       <c r="AC401" s="39"/>
-      <c r="AD401" s="65"/>
+      <c r="AD401" s="23"/>
     </row>
     <row r="402" spans="17:30" s="21" customFormat="1">
       <c r="Q402" s="23"/>
@@ -26919,7 +27008,7 @@
       <c r="AA402" s="23"/>
       <c r="AB402" s="23"/>
       <c r="AC402" s="23"/>
-      <c r="AD402" s="65"/>
+      <c r="AD402" s="23"/>
     </row>
     <row r="403" spans="17:30" s="21" customFormat="1">
       <c r="Q403" s="23"/>
@@ -26935,7 +27024,7 @@
       <c r="AA403" s="39"/>
       <c r="AB403" s="39"/>
       <c r="AC403" s="39"/>
-      <c r="AD403" s="65"/>
+      <c r="AD403" s="23"/>
     </row>
     <row r="404" spans="17:30" s="21" customFormat="1">
       <c r="Q404" s="23"/>
@@ -26951,7 +27040,7 @@
       <c r="AA404" s="39"/>
       <c r="AB404" s="39"/>
       <c r="AC404" s="39"/>
-      <c r="AD404" s="65"/>
+      <c r="AD404" s="23"/>
     </row>
     <row r="405" spans="17:30" s="21" customFormat="1">
       <c r="Q405" s="23"/>
@@ -26967,7 +27056,7 @@
       <c r="AA405" s="39"/>
       <c r="AB405" s="39"/>
       <c r="AC405" s="39"/>
-      <c r="AD405" s="65"/>
+      <c r="AD405" s="23"/>
     </row>
     <row r="406" spans="17:30" s="21" customFormat="1">
       <c r="Q406" s="23"/>
@@ -26983,7 +27072,7 @@
       <c r="AA406" s="39"/>
       <c r="AB406" s="39"/>
       <c r="AC406" s="39"/>
-      <c r="AD406" s="65"/>
+      <c r="AD406" s="23"/>
     </row>
     <row r="407" spans="17:30" s="21" customFormat="1">
       <c r="Q407" s="23"/>
@@ -26999,7 +27088,7 @@
       <c r="AA407" s="39"/>
       <c r="AB407" s="39"/>
       <c r="AC407" s="39"/>
-      <c r="AD407" s="65"/>
+      <c r="AD407" s="23"/>
     </row>
     <row r="408" spans="17:30" s="21" customFormat="1">
       <c r="Q408" s="23"/>
@@ -27015,7 +27104,7 @@
       <c r="AA408" s="39"/>
       <c r="AB408" s="39"/>
       <c r="AC408" s="39"/>
-      <c r="AD408" s="65"/>
+      <c r="AD408" s="23"/>
     </row>
     <row r="409" spans="17:30" s="21" customFormat="1">
       <c r="Q409" s="23"/>
@@ -27031,7 +27120,7 @@
       <c r="AA409" s="39"/>
       <c r="AB409" s="39"/>
       <c r="AC409" s="39"/>
-      <c r="AD409" s="65"/>
+      <c r="AD409" s="23"/>
     </row>
     <row r="410" spans="17:30" s="21" customFormat="1">
       <c r="Q410" s="23"/>
@@ -27047,7 +27136,7 @@
       <c r="AA410" s="39"/>
       <c r="AB410" s="39"/>
       <c r="AC410" s="39"/>
-      <c r="AD410" s="65"/>
+      <c r="AD410" s="23"/>
     </row>
     <row r="411" spans="17:30" s="21" customFormat="1">
       <c r="Q411" s="23"/>
@@ -27063,7 +27152,7 @@
       <c r="AA411" s="39"/>
       <c r="AB411" s="39"/>
       <c r="AC411" s="39"/>
-      <c r="AD411" s="65"/>
+      <c r="AD411" s="23"/>
     </row>
     <row r="412" spans="17:30" s="21" customFormat="1">
       <c r="Q412" s="23"/>
@@ -27079,7 +27168,7 @@
       <c r="AA412" s="39"/>
       <c r="AB412" s="39"/>
       <c r="AC412" s="39"/>
-      <c r="AD412" s="65"/>
+      <c r="AD412" s="23"/>
     </row>
     <row r="413" spans="17:30" s="21" customFormat="1">
       <c r="Q413" s="23"/>
@@ -27095,7 +27184,7 @@
       <c r="AA413" s="39"/>
       <c r="AB413" s="39"/>
       <c r="AC413" s="39"/>
-      <c r="AD413" s="65"/>
+      <c r="AD413" s="23"/>
     </row>
     <row r="414" spans="17:30" s="21" customFormat="1">
       <c r="Q414" s="23"/>
@@ -27111,7 +27200,7 @@
       <c r="AA414" s="39"/>
       <c r="AB414" s="39"/>
       <c r="AC414" s="39"/>
-      <c r="AD414" s="65"/>
+      <c r="AD414" s="23"/>
     </row>
     <row r="415" spans="17:30" s="21" customFormat="1">
       <c r="Q415" s="39"/>
@@ -27127,7 +27216,7 @@
       <c r="AA415" s="39"/>
       <c r="AB415" s="39"/>
       <c r="AC415" s="39"/>
-      <c r="AD415" s="65"/>
+      <c r="AD415" s="23"/>
     </row>
     <row r="416" spans="17:30" s="21" customFormat="1">
       <c r="Q416" s="23"/>
@@ -27143,7 +27232,7 @@
       <c r="AA416" s="39"/>
       <c r="AB416" s="39"/>
       <c r="AC416" s="39"/>
-      <c r="AD416" s="65"/>
+      <c r="AD416" s="23"/>
     </row>
     <row r="417" spans="17:30" s="21" customFormat="1">
       <c r="Q417" s="23"/>
@@ -27159,7 +27248,7 @@
       <c r="AA417" s="23"/>
       <c r="AB417" s="23"/>
       <c r="AC417" s="23"/>
-      <c r="AD417" s="65"/>
+      <c r="AD417" s="23"/>
     </row>
     <row r="418" spans="17:30" s="21" customFormat="1">
       <c r="Q418" s="23"/>
@@ -27175,7 +27264,7 @@
       <c r="AA418" s="39"/>
       <c r="AB418" s="39"/>
       <c r="AC418" s="39"/>
-      <c r="AD418" s="65"/>
+      <c r="AD418" s="23"/>
     </row>
     <row r="419" spans="17:30" s="21" customFormat="1">
       <c r="Q419" s="23"/>
@@ -27191,7 +27280,7 @@
       <c r="AA419" s="39"/>
       <c r="AB419" s="39"/>
       <c r="AC419" s="39"/>
-      <c r="AD419" s="65"/>
+      <c r="AD419" s="23"/>
     </row>
     <row r="420" spans="17:30" s="21" customFormat="1">
       <c r="Q420" s="23"/>
@@ -27207,7 +27296,7 @@
       <c r="AA420" s="39"/>
       <c r="AB420" s="39"/>
       <c r="AC420" s="39"/>
-      <c r="AD420" s="65"/>
+      <c r="AD420" s="23"/>
     </row>
     <row r="421" spans="17:30" s="21" customFormat="1">
       <c r="Q421" s="39"/>
@@ -27223,7 +27312,7 @@
       <c r="AA421" s="39"/>
       <c r="AB421" s="39"/>
       <c r="AC421" s="39"/>
-      <c r="AD421" s="65"/>
+      <c r="AD421" s="23"/>
     </row>
     <row r="422" spans="17:30" s="21" customFormat="1">
       <c r="Q422" s="23"/>
@@ -27239,7 +27328,7 @@
       <c r="AA422" s="39"/>
       <c r="AB422" s="39"/>
       <c r="AC422" s="39"/>
-      <c r="AD422" s="65"/>
+      <c r="AD422" s="23"/>
     </row>
     <row r="423" spans="17:30" s="21" customFormat="1">
       <c r="Q423" s="39"/>
@@ -27255,7 +27344,7 @@
       <c r="AA423" s="39"/>
       <c r="AB423" s="39"/>
       <c r="AC423" s="39"/>
-      <c r="AD423" s="65"/>
+      <c r="AD423" s="23"/>
     </row>
     <row r="424" spans="17:30" s="21" customFormat="1">
       <c r="Q424" s="23"/>
@@ -27271,7 +27360,7 @@
       <c r="AA424" s="39"/>
       <c r="AB424" s="39"/>
       <c r="AC424" s="39"/>
-      <c r="AD424" s="65"/>
+      <c r="AD424" s="23"/>
     </row>
     <row r="425" spans="17:30" s="21" customFormat="1">
       <c r="Q425" s="39"/>
@@ -27287,7 +27376,7 @@
       <c r="AA425" s="39"/>
       <c r="AB425" s="39"/>
       <c r="AC425" s="39"/>
-      <c r="AD425" s="65"/>
+      <c r="AD425" s="23"/>
     </row>
     <row r="426" spans="17:30" s="21" customFormat="1">
       <c r="Q426" s="23"/>
@@ -27303,7 +27392,7 @@
       <c r="AA426" s="39"/>
       <c r="AB426" s="39"/>
       <c r="AC426" s="39"/>
-      <c r="AD426" s="65"/>
+      <c r="AD426" s="23"/>
     </row>
     <row r="427" spans="17:30" s="21" customFormat="1">
       <c r="Q427" s="23"/>
@@ -27319,7 +27408,7 @@
       <c r="AA427" s="23"/>
       <c r="AB427" s="23"/>
       <c r="AC427" s="23"/>
-      <c r="AD427" s="65"/>
+      <c r="AD427" s="23"/>
     </row>
     <row r="428" spans="17:30" s="21" customFormat="1">
       <c r="Q428" s="23"/>
@@ -27335,7 +27424,7 @@
       <c r="AA428" s="39"/>
       <c r="AB428" s="39"/>
       <c r="AC428" s="39"/>
-      <c r="AD428" s="65"/>
+      <c r="AD428" s="23"/>
     </row>
     <row r="429" spans="17:30" s="21" customFormat="1">
       <c r="Q429" s="23"/>
@@ -27351,7 +27440,7 @@
       <c r="AA429" s="39"/>
       <c r="AB429" s="39"/>
       <c r="AC429" s="39"/>
-      <c r="AD429" s="65"/>
+      <c r="AD429" s="23"/>
     </row>
     <row r="430" spans="17:30" s="21" customFormat="1">
       <c r="Q430" s="23"/>
@@ -27367,7 +27456,7 @@
       <c r="AA430" s="39"/>
       <c r="AB430" s="39"/>
       <c r="AC430" s="39"/>
-      <c r="AD430" s="65"/>
+      <c r="AD430" s="23"/>
     </row>
     <row r="431" spans="17:30" s="21" customFormat="1">
       <c r="Q431" s="23"/>
@@ -27383,7 +27472,7 @@
       <c r="AA431" s="39"/>
       <c r="AB431" s="39"/>
       <c r="AC431" s="39"/>
-      <c r="AD431" s="65"/>
+      <c r="AD431" s="23"/>
     </row>
     <row r="432" spans="17:30" s="21" customFormat="1">
       <c r="Q432" s="39"/>
@@ -27399,7 +27488,7 @@
       <c r="AA432" s="39"/>
       <c r="AB432" s="39"/>
       <c r="AC432" s="39"/>
-      <c r="AD432" s="65"/>
+      <c r="AD432" s="23"/>
     </row>
     <row r="433" spans="17:30" s="21" customFormat="1">
       <c r="Q433" s="23"/>
@@ -27415,7 +27504,7 @@
       <c r="AA433" s="23"/>
       <c r="AB433" s="23"/>
       <c r="AC433" s="23"/>
-      <c r="AD433" s="65"/>
+      <c r="AD433" s="23"/>
     </row>
     <row r="434" spans="17:30" s="21" customFormat="1">
       <c r="Q434" s="23"/>
@@ -27431,7 +27520,7 @@
       <c r="AA434" s="39"/>
       <c r="AB434" s="39"/>
       <c r="AC434" s="39"/>
-      <c r="AD434" s="65"/>
+      <c r="AD434" s="23"/>
     </row>
     <row r="435" spans="17:30" s="21" customFormat="1">
       <c r="Q435" s="23"/>
@@ -27447,7 +27536,7 @@
       <c r="AA435" s="39"/>
       <c r="AB435" s="39"/>
       <c r="AC435" s="39"/>
-      <c r="AD435" s="65"/>
+      <c r="AD435" s="23"/>
     </row>
     <row r="436" spans="17:30" s="21" customFormat="1">
       <c r="Q436" s="23"/>
@@ -27463,7 +27552,7 @@
       <c r="AA436" s="23"/>
       <c r="AB436" s="23"/>
       <c r="AC436" s="23"/>
-      <c r="AD436" s="65"/>
+      <c r="AD436" s="23"/>
     </row>
     <row r="437" spans="17:30" s="21" customFormat="1">
       <c r="Q437" s="23"/>
@@ -27479,7 +27568,7 @@
       <c r="AA437" s="39"/>
       <c r="AB437" s="39"/>
       <c r="AC437" s="39"/>
-      <c r="AD437" s="65"/>
+      <c r="AD437" s="23"/>
     </row>
     <row r="438" spans="17:30" s="21" customFormat="1">
       <c r="Q438" s="23"/>
@@ -27495,7 +27584,7 @@
       <c r="AA438" s="39"/>
       <c r="AB438" s="39"/>
       <c r="AC438" s="39"/>
-      <c r="AD438" s="65"/>
+      <c r="AD438" s="23"/>
     </row>
     <row r="439" spans="17:30" s="21" customFormat="1">
       <c r="Q439" s="23"/>
@@ -27511,7 +27600,7 @@
       <c r="AA439" s="39"/>
       <c r="AB439" s="39"/>
       <c r="AC439" s="39"/>
-      <c r="AD439" s="65"/>
+      <c r="AD439" s="23"/>
     </row>
     <row r="440" spans="17:30" s="21" customFormat="1">
       <c r="Q440" s="23"/>
@@ -27527,7 +27616,7 @@
       <c r="AA440" s="39"/>
       <c r="AB440" s="39"/>
       <c r="AC440" s="39"/>
-      <c r="AD440" s="65"/>
+      <c r="AD440" s="23"/>
     </row>
     <row r="441" spans="17:30" s="21" customFormat="1">
       <c r="Q441" s="23"/>
@@ -27543,7 +27632,7 @@
       <c r="AA441" s="39"/>
       <c r="AB441" s="39"/>
       <c r="AC441" s="39"/>
-      <c r="AD441" s="65"/>
+      <c r="AD441" s="23"/>
     </row>
     <row r="442" spans="17:30" s="21" customFormat="1">
       <c r="Q442" s="23"/>
@@ -27559,7 +27648,7 @@
       <c r="AA442" s="39"/>
       <c r="AB442" s="39"/>
       <c r="AC442" s="39"/>
-      <c r="AD442" s="65"/>
+      <c r="AD442" s="23"/>
     </row>
     <row r="443" spans="17:30" s="21" customFormat="1">
       <c r="Q443" s="23"/>
@@ -27575,7 +27664,7 @@
       <c r="AA443" s="39"/>
       <c r="AB443" s="39"/>
       <c r="AC443" s="39"/>
-      <c r="AD443" s="65"/>
+      <c r="AD443" s="23"/>
     </row>
     <row r="444" spans="17:30" s="21" customFormat="1">
       <c r="Q444" s="23"/>
@@ -27591,7 +27680,7 @@
       <c r="AA444" s="39"/>
       <c r="AB444" s="39"/>
       <c r="AC444" s="39"/>
-      <c r="AD444" s="65"/>
+      <c r="AD444" s="23"/>
     </row>
     <row r="445" spans="17:30" s="21" customFormat="1">
       <c r="Q445" s="39"/>
@@ -27607,7 +27696,7 @@
       <c r="AA445" s="39"/>
       <c r="AB445" s="39"/>
       <c r="AC445" s="39"/>
-      <c r="AD445" s="65"/>
+      <c r="AD445" s="23"/>
     </row>
     <row r="446" spans="17:30" s="21" customFormat="1">
       <c r="Q446" s="23"/>
@@ -27623,7 +27712,7 @@
       <c r="AA446" s="39"/>
       <c r="AB446" s="39"/>
       <c r="AC446" s="39"/>
-      <c r="AD446" s="65"/>
+      <c r="AD446" s="23"/>
     </row>
     <row r="447" spans="17:30" s="21" customFormat="1">
       <c r="Q447" s="23"/>
@@ -27639,7 +27728,7 @@
       <c r="AA447" s="23"/>
       <c r="AB447" s="23"/>
       <c r="AC447" s="23"/>
-      <c r="AD447" s="65"/>
+      <c r="AD447" s="23"/>
     </row>
     <row r="448" spans="17:30" s="21" customFormat="1">
       <c r="Q448" s="23"/>
@@ -27655,7 +27744,7 @@
       <c r="AA448" s="39"/>
       <c r="AB448" s="39"/>
       <c r="AC448" s="39"/>
-      <c r="AD448" s="65"/>
+      <c r="AD448" s="23"/>
     </row>
     <row r="449" spans="17:30" s="21" customFormat="1">
       <c r="Q449" s="23"/>
@@ -27671,7 +27760,7 @@
       <c r="AA449" s="23"/>
       <c r="AB449" s="23"/>
       <c r="AC449" s="23"/>
-      <c r="AD449" s="65"/>
+      <c r="AD449" s="23"/>
     </row>
     <row r="450" spans="17:30" s="21" customFormat="1">
       <c r="Q450" s="23"/>
@@ -27687,7 +27776,7 @@
       <c r="AA450" s="39"/>
       <c r="AB450" s="39"/>
       <c r="AC450" s="39"/>
-      <c r="AD450" s="65"/>
+      <c r="AD450" s="23"/>
     </row>
     <row r="451" spans="17:30" s="21" customFormat="1">
       <c r="Q451" s="23"/>
@@ -27703,7 +27792,7 @@
       <c r="AA451" s="39"/>
       <c r="AB451" s="39"/>
       <c r="AC451" s="39"/>
-      <c r="AD451" s="65"/>
+      <c r="AD451" s="23"/>
     </row>
     <row r="452" spans="17:30" s="21" customFormat="1">
       <c r="Q452" s="23"/>
@@ -27719,7 +27808,7 @@
       <c r="AA452" s="39"/>
       <c r="AB452" s="39"/>
       <c r="AC452" s="39"/>
-      <c r="AD452" s="65"/>
+      <c r="AD452" s="23"/>
     </row>
     <row r="453" spans="17:30" s="21" customFormat="1">
       <c r="Q453" s="23"/>
@@ -27735,7 +27824,7 @@
       <c r="AA453" s="39"/>
       <c r="AB453" s="39"/>
       <c r="AC453" s="39"/>
-      <c r="AD453" s="65"/>
+      <c r="AD453" s="23"/>
     </row>
     <row r="454" spans="17:30" s="21" customFormat="1">
       <c r="Q454" s="39"/>
@@ -27751,7 +27840,7 @@
       <c r="AA454" s="39"/>
       <c r="AB454" s="39"/>
       <c r="AC454" s="39"/>
-      <c r="AD454" s="65"/>
+      <c r="AD454" s="23"/>
     </row>
     <row r="455" spans="17:30" s="21" customFormat="1">
       <c r="Q455" s="23"/>
@@ -27767,7 +27856,7 @@
       <c r="AA455" s="39"/>
       <c r="AB455" s="39"/>
       <c r="AC455" s="39"/>
-      <c r="AD455" s="65"/>
+      <c r="AD455" s="23"/>
     </row>
     <row r="456" spans="17:30" s="21" customFormat="1">
       <c r="Q456" s="23"/>
@@ -27783,7 +27872,7 @@
       <c r="AA456" s="39"/>
       <c r="AB456" s="39"/>
       <c r="AC456" s="39"/>
-      <c r="AD456" s="65"/>
+      <c r="AD456" s="23"/>
     </row>
     <row r="457" spans="17:30" s="21" customFormat="1">
       <c r="Q457" s="23"/>
@@ -27799,7 +27888,7 @@
       <c r="AA457" s="39"/>
       <c r="AB457" s="39"/>
       <c r="AC457" s="39"/>
-      <c r="AD457" s="65"/>
+      <c r="AD457" s="23"/>
     </row>
     <row r="458" spans="17:30" s="21" customFormat="1">
       <c r="Q458" s="23"/>
@@ -27815,7 +27904,7 @@
       <c r="AA458" s="39"/>
       <c r="AB458" s="39"/>
       <c r="AC458" s="39"/>
-      <c r="AD458" s="65"/>
+      <c r="AD458" s="23"/>
     </row>
     <row r="459" spans="17:30" s="21" customFormat="1">
       <c r="Q459" s="23"/>
@@ -27831,7 +27920,7 @@
       <c r="AA459" s="39"/>
       <c r="AB459" s="39"/>
       <c r="AC459" s="39"/>
-      <c r="AD459" s="65"/>
+      <c r="AD459" s="23"/>
     </row>
     <row r="460" spans="17:30" s="21" customFormat="1">
       <c r="Q460" s="23"/>
@@ -27847,7 +27936,7 @@
       <c r="AA460" s="39"/>
       <c r="AB460" s="39"/>
       <c r="AC460" s="39"/>
-      <c r="AD460" s="65"/>
+      <c r="AD460" s="23"/>
     </row>
     <row r="461" spans="17:30" s="21" customFormat="1">
       <c r="Q461" s="39"/>
@@ -27863,7 +27952,7 @@
       <c r="AA461" s="39"/>
       <c r="AB461" s="39"/>
       <c r="AC461" s="39"/>
-      <c r="AD461" s="65"/>
+      <c r="AD461" s="23"/>
     </row>
     <row r="462" spans="17:30" s="21" customFormat="1">
       <c r="Q462" s="23"/>
@@ -27879,7 +27968,7 @@
       <c r="AA462" s="39"/>
       <c r="AB462" s="39"/>
       <c r="AC462" s="39"/>
-      <c r="AD462" s="65"/>
+      <c r="AD462" s="23"/>
     </row>
     <row r="463" spans="17:30" s="21" customFormat="1">
       <c r="Q463" s="23"/>
@@ -27895,7 +27984,7 @@
       <c r="AA463" s="23"/>
       <c r="AB463" s="23"/>
       <c r="AC463" s="23"/>
-      <c r="AD463" s="65"/>
+      <c r="AD463" s="23"/>
     </row>
     <row r="464" spans="17:30" s="21" customFormat="1">
       <c r="Q464" s="23"/>
@@ -27911,7 +28000,7 @@
       <c r="AA464" s="39"/>
       <c r="AB464" s="39"/>
       <c r="AC464" s="39"/>
-      <c r="AD464" s="65"/>
+      <c r="AD464" s="23"/>
     </row>
     <row r="465" spans="17:32" s="21" customFormat="1">
       <c r="Q465" s="23"/>
@@ -27927,7 +28016,7 @@
       <c r="AA465" s="23"/>
       <c r="AB465" s="23"/>
       <c r="AC465" s="23"/>
-      <c r="AD465" s="65"/>
+      <c r="AD465" s="23"/>
     </row>
     <row r="466" spans="17:32" s="21" customFormat="1">
       <c r="Q466" s="23"/>
@@ -27943,7 +28032,7 @@
       <c r="AA466" s="39"/>
       <c r="AB466" s="39"/>
       <c r="AC466" s="39"/>
-      <c r="AD466" s="65"/>
+      <c r="AD466" s="23"/>
     </row>
     <row r="467" spans="17:32" s="21" customFormat="1">
       <c r="Q467" s="23"/>
@@ -27959,7 +28048,7 @@
       <c r="AA467" s="39"/>
       <c r="AB467" s="39"/>
       <c r="AC467" s="39"/>
-      <c r="AD467" s="65"/>
+      <c r="AD467" s="23"/>
     </row>
     <row r="468" spans="17:32" s="21" customFormat="1">
       <c r="Q468" s="23"/>
@@ -27975,7 +28064,7 @@
       <c r="AA468" s="39"/>
       <c r="AB468" s="39"/>
       <c r="AC468" s="39"/>
-      <c r="AD468" s="65"/>
+      <c r="AD468" s="23"/>
     </row>
     <row r="469" spans="17:32" s="21" customFormat="1">
       <c r="Q469" s="23"/>
@@ -27991,7 +28080,7 @@
       <c r="AA469" s="23"/>
       <c r="AB469" s="23"/>
       <c r="AC469" s="23"/>
-      <c r="AD469" s="65"/>
+      <c r="AD469" s="23"/>
     </row>
     <row r="470" spans="17:32" s="21" customFormat="1">
       <c r="Q470" s="23"/>
@@ -28007,7 +28096,7 @@
       <c r="AA470" s="39"/>
       <c r="AB470" s="39"/>
       <c r="AC470" s="39"/>
-      <c r="AD470" s="65"/>
+      <c r="AD470" s="23"/>
     </row>
     <row r="471" spans="17:32" s="21" customFormat="1">
       <c r="Q471" s="23"/>
@@ -28023,7 +28112,7 @@
       <c r="AA471" s="23"/>
       <c r="AB471" s="23"/>
       <c r="AC471" s="23"/>
-      <c r="AD471" s="65"/>
+      <c r="AD471" s="23"/>
     </row>
     <row r="472" spans="17:32" s="21" customFormat="1">
       <c r="Q472" s="23"/>
@@ -28039,7 +28128,7 @@
       <c r="AA472" s="39"/>
       <c r="AB472" s="39"/>
       <c r="AC472" s="39"/>
-      <c r="AD472" s="65"/>
+      <c r="AD472" s="23"/>
     </row>
     <row r="473" spans="17:32" s="21" customFormat="1">
       <c r="Q473" s="23"/>
@@ -28055,7 +28144,7 @@
       <c r="AA473" s="39"/>
       <c r="AB473" s="39"/>
       <c r="AC473" s="39"/>
-      <c r="AD473" s="65"/>
+      <c r="AD473" s="23"/>
     </row>
     <row r="474" spans="17:32" s="21" customFormat="1">
       <c r="Q474" s="23"/>
@@ -28071,7 +28160,7 @@
       <c r="AA474" s="39"/>
       <c r="AB474" s="39"/>
       <c r="AC474" s="39"/>
-      <c r="AD474" s="65"/>
+      <c r="AD474" s="23"/>
     </row>
     <row r="475" spans="17:32" s="21" customFormat="1">
       <c r="Q475" s="23"/>
@@ -28087,7 +28176,7 @@
       <c r="AA475" s="39"/>
       <c r="AB475" s="39"/>
       <c r="AC475" s="39"/>
-      <c r="AD475" s="65"/>
+      <c r="AD475" s="23"/>
     </row>
     <row r="476" spans="17:32" s="21" customFormat="1">
       <c r="Q476" s="23"/>
@@ -28103,7 +28192,7 @@
       <c r="AA476" s="39"/>
       <c r="AB476" s="39"/>
       <c r="AC476" s="39"/>
-      <c r="AD476" s="65"/>
+      <c r="AD476" s="23"/>
     </row>
     <row r="477" spans="17:32" s="21" customFormat="1">
       <c r="Q477" s="23"/>
@@ -28119,7 +28208,7 @@
       <c r="AA477" s="23"/>
       <c r="AB477" s="23"/>
       <c r="AC477" s="23"/>
-      <c r="AD477" s="65"/>
+      <c r="AD477" s="23"/>
     </row>
     <row r="478" spans="17:32" s="21" customFormat="1">
       <c r="Q478" s="23"/>
@@ -28135,7 +28224,7 @@
       <c r="AA478" s="23"/>
       <c r="AB478" s="23"/>
       <c r="AC478" s="23"/>
-      <c r="AD478" s="65"/>
+      <c r="AD478" s="23"/>
       <c r="AF478" s="22"/>
     </row>
     <row r="479" spans="17:32" s="21" customFormat="1">
@@ -28152,7 +28241,7 @@
       <c r="AA479" s="39"/>
       <c r="AB479" s="39"/>
       <c r="AC479" s="39"/>
-      <c r="AD479" s="65"/>
+      <c r="AD479" s="23"/>
     </row>
     <row r="480" spans="17:32" s="21" customFormat="1">
       <c r="Q480" s="23"/>
@@ -28168,7 +28257,7 @@
       <c r="AA480" s="23"/>
       <c r="AB480" s="23"/>
       <c r="AC480" s="23"/>
-      <c r="AD480" s="65"/>
+      <c r="AD480" s="23"/>
       <c r="AF480" s="22"/>
     </row>
     <row r="481" spans="17:32" s="21" customFormat="1">
@@ -28185,7 +28274,7 @@
       <c r="AA481" s="23"/>
       <c r="AB481" s="23"/>
       <c r="AC481" s="23"/>
-      <c r="AD481" s="65"/>
+      <c r="AD481" s="23"/>
       <c r="AF481" s="22"/>
     </row>
     <row r="482" spans="17:32" s="21" customFormat="1">
@@ -28202,7 +28291,7 @@
       <c r="AA482" s="39"/>
       <c r="AB482" s="39"/>
       <c r="AC482" s="39"/>
-      <c r="AD482" s="65"/>
+      <c r="AD482" s="23"/>
     </row>
     <row r="483" spans="17:32" s="21" customFormat="1">
       <c r="Q483" s="23"/>
@@ -28218,7 +28307,7 @@
       <c r="AA483" s="39"/>
       <c r="AB483" s="39"/>
       <c r="AC483" s="39"/>
-      <c r="AD483" s="65"/>
+      <c r="AD483" s="23"/>
     </row>
     <row r="484" spans="17:32" s="21" customFormat="1">
       <c r="Q484" s="39"/>
@@ -28234,7 +28323,7 @@
       <c r="AA484" s="39"/>
       <c r="AB484" s="39"/>
       <c r="AC484" s="39"/>
-      <c r="AD484" s="65"/>
+      <c r="AD484" s="23"/>
     </row>
     <row r="485" spans="17:32" s="21" customFormat="1">
       <c r="Q485" s="23"/>
@@ -28250,7 +28339,7 @@
       <c r="AA485" s="39"/>
       <c r="AB485" s="39"/>
       <c r="AC485" s="39"/>
-      <c r="AD485" s="65"/>
+      <c r="AD485" s="23"/>
     </row>
     <row r="486" spans="17:32" s="21" customFormat="1">
       <c r="Q486" s="23"/>
@@ -28266,7 +28355,7 @@
       <c r="AA486" s="23"/>
       <c r="AB486" s="23"/>
       <c r="AC486" s="23"/>
-      <c r="AD486" s="65"/>
+      <c r="AD486" s="23"/>
       <c r="AF486" s="22"/>
     </row>
     <row r="487" spans="17:32" s="21" customFormat="1">
@@ -28283,7 +28372,7 @@
       <c r="AA487" s="39"/>
       <c r="AB487" s="39"/>
       <c r="AC487" s="39"/>
-      <c r="AD487" s="65"/>
+      <c r="AD487" s="23"/>
     </row>
     <row r="488" spans="17:32" s="21" customFormat="1">
       <c r="Q488" s="23"/>
@@ -28299,7 +28388,7 @@
       <c r="AA488" s="23"/>
       <c r="AB488" s="23"/>
       <c r="AC488" s="23"/>
-      <c r="AD488" s="65"/>
+      <c r="AD488" s="23"/>
     </row>
     <row r="489" spans="17:32" s="21" customFormat="1">
       <c r="Q489" s="23"/>
@@ -28315,7 +28404,7 @@
       <c r="AA489" s="23"/>
       <c r="AB489" s="23"/>
       <c r="AC489" s="23"/>
-      <c r="AD489" s="65"/>
+      <c r="AD489" s="23"/>
       <c r="AF489" s="22"/>
     </row>
     <row r="490" spans="17:32" s="21" customFormat="1">
@@ -28332,7 +28421,7 @@
       <c r="AA490" s="39"/>
       <c r="AB490" s="39"/>
       <c r="AC490" s="39"/>
-      <c r="AD490" s="65"/>
+      <c r="AD490" s="23"/>
     </row>
     <row r="491" spans="17:32" s="21" customFormat="1">
       <c r="Q491" s="39"/>
@@ -28348,7 +28437,7 @@
       <c r="AA491" s="39"/>
       <c r="AB491" s="39"/>
       <c r="AC491" s="39"/>
-      <c r="AD491" s="65"/>
+      <c r="AD491" s="23"/>
     </row>
     <row r="492" spans="17:32" s="21" customFormat="1">
       <c r="Q492" s="39"/>
@@ -28364,7 +28453,7 @@
       <c r="AA492" s="39"/>
       <c r="AB492" s="39"/>
       <c r="AC492" s="39"/>
-      <c r="AD492" s="65"/>
+      <c r="AD492" s="23"/>
     </row>
     <row r="493" spans="17:32" s="21" customFormat="1">
       <c r="Q493" s="23"/>
@@ -28380,7 +28469,7 @@
       <c r="AA493" s="39"/>
       <c r="AB493" s="39"/>
       <c r="AC493" s="39"/>
-      <c r="AD493" s="65"/>
+      <c r="AD493" s="23"/>
     </row>
     <row r="494" spans="17:32" s="21" customFormat="1">
       <c r="Q494" s="23"/>
@@ -28396,7 +28485,7 @@
       <c r="AA494" s="39"/>
       <c r="AB494" s="39"/>
       <c r="AC494" s="39"/>
-      <c r="AD494" s="65"/>
+      <c r="AD494" s="23"/>
     </row>
     <row r="495" spans="17:32" s="21" customFormat="1">
       <c r="Q495" s="23"/>
@@ -28412,7 +28501,7 @@
       <c r="AA495" s="23"/>
       <c r="AB495" s="23"/>
       <c r="AC495" s="23"/>
-      <c r="AD495" s="65"/>
+      <c r="AD495" s="23"/>
     </row>
     <row r="496" spans="17:32" s="21" customFormat="1">
       <c r="Q496" s="23"/>
@@ -28428,7 +28517,7 @@
       <c r="AA496" s="23"/>
       <c r="AB496" s="23"/>
       <c r="AC496" s="23"/>
-      <c r="AD496" s="65"/>
+      <c r="AD496" s="23"/>
       <c r="AF496" s="22"/>
     </row>
     <row r="497" spans="17:32" s="21" customFormat="1">
@@ -28445,7 +28534,7 @@
       <c r="AA497" s="39"/>
       <c r="AB497" s="39"/>
       <c r="AC497" s="39"/>
-      <c r="AD497" s="65"/>
+      <c r="AD497" s="23"/>
     </row>
     <row r="498" spans="17:32" s="21" customFormat="1">
       <c r="Q498" s="23"/>
@@ -28461,7 +28550,7 @@
       <c r="AA498" s="39"/>
       <c r="AB498" s="39"/>
       <c r="AC498" s="39"/>
-      <c r="AD498" s="65"/>
+      <c r="AD498" s="23"/>
     </row>
     <row r="499" spans="17:32" s="21" customFormat="1">
       <c r="Q499" s="23"/>
@@ -28477,7 +28566,7 @@
       <c r="AA499" s="39"/>
       <c r="AB499" s="39"/>
       <c r="AC499" s="39"/>
-      <c r="AD499" s="65"/>
+      <c r="AD499" s="23"/>
     </row>
     <row r="500" spans="17:32" s="21" customFormat="1">
       <c r="Q500" s="23"/>
@@ -28493,7 +28582,7 @@
       <c r="AA500" s="39"/>
       <c r="AB500" s="39"/>
       <c r="AC500" s="39"/>
-      <c r="AD500" s="65"/>
+      <c r="AD500" s="23"/>
     </row>
     <row r="501" spans="17:32" s="21" customFormat="1">
       <c r="Q501" s="23"/>
@@ -28509,7 +28598,7 @@
       <c r="AA501" s="39"/>
       <c r="AB501" s="39"/>
       <c r="AC501" s="39"/>
-      <c r="AD501" s="65"/>
+      <c r="AD501" s="23"/>
     </row>
     <row r="502" spans="17:32" s="21" customFormat="1">
       <c r="Q502" s="23"/>
@@ -28525,7 +28614,7 @@
       <c r="AA502" s="23"/>
       <c r="AB502" s="23"/>
       <c r="AC502" s="23"/>
-      <c r="AD502" s="65"/>
+      <c r="AD502" s="23"/>
     </row>
     <row r="503" spans="17:32" s="21" customFormat="1">
       <c r="Q503" s="23"/>
@@ -28541,7 +28630,7 @@
       <c r="AA503" s="23"/>
       <c r="AB503" s="23"/>
       <c r="AC503" s="23"/>
-      <c r="AD503" s="65"/>
+      <c r="AD503" s="23"/>
       <c r="AF503" s="22"/>
     </row>
     <row r="504" spans="17:32" s="21" customFormat="1">
@@ -28558,7 +28647,7 @@
       <c r="AA504" s="39"/>
       <c r="AB504" s="39"/>
       <c r="AC504" s="39"/>
-      <c r="AD504" s="65"/>
+      <c r="AD504" s="23"/>
     </row>
     <row r="505" spans="17:32" s="21" customFormat="1">
       <c r="Q505" s="39"/>
@@ -28574,7 +28663,7 @@
       <c r="AA505" s="39"/>
       <c r="AB505" s="39"/>
       <c r="AC505" s="39"/>
-      <c r="AD505" s="65"/>
+      <c r="AD505" s="23"/>
     </row>
     <row r="506" spans="17:32" s="21" customFormat="1">
       <c r="Q506" s="23"/>
@@ -28590,7 +28679,7 @@
       <c r="AA506" s="23"/>
       <c r="AB506" s="23"/>
       <c r="AC506" s="23"/>
-      <c r="AD506" s="65"/>
+      <c r="AD506" s="23"/>
       <c r="AF506" s="22"/>
     </row>
     <row r="507" spans="17:32" s="21" customFormat="1">
@@ -28607,7 +28696,7 @@
       <c r="AA507" s="39"/>
       <c r="AB507" s="39"/>
       <c r="AC507" s="39"/>
-      <c r="AD507" s="65"/>
+      <c r="AD507" s="23"/>
     </row>
     <row r="508" spans="17:32" s="21" customFormat="1">
       <c r="Q508" s="23"/>
@@ -28623,7 +28712,7 @@
       <c r="AA508" s="39"/>
       <c r="AB508" s="39"/>
       <c r="AC508" s="39"/>
-      <c r="AD508" s="65"/>
+      <c r="AD508" s="23"/>
     </row>
     <row r="509" spans="17:32" s="21" customFormat="1">
       <c r="Q509" s="23"/>
@@ -28639,7 +28728,7 @@
       <c r="AA509" s="39"/>
       <c r="AB509" s="39"/>
       <c r="AC509" s="39"/>
-      <c r="AD509" s="65"/>
+      <c r="AD509" s="23"/>
     </row>
     <row r="510" spans="17:32" s="21" customFormat="1">
       <c r="Q510" s="23"/>
@@ -28655,7 +28744,7 @@
       <c r="AA510" s="23"/>
       <c r="AB510" s="23"/>
       <c r="AC510" s="23"/>
-      <c r="AD510" s="65"/>
+      <c r="AD510" s="23"/>
     </row>
     <row r="511" spans="17:32" s="21" customFormat="1">
       <c r="Q511" s="23"/>
@@ -28671,7 +28760,7 @@
       <c r="AA511" s="23"/>
       <c r="AB511" s="23"/>
       <c r="AC511" s="23"/>
-      <c r="AD511" s="65"/>
+      <c r="AD511" s="23"/>
       <c r="AF511" s="22"/>
     </row>
     <row r="512" spans="17:32" s="21" customFormat="1">
@@ -28688,7 +28777,7 @@
       <c r="AA512" s="39"/>
       <c r="AB512" s="39"/>
       <c r="AC512" s="39"/>
-      <c r="AD512" s="65"/>
+      <c r="AD512" s="23"/>
     </row>
     <row r="513" spans="17:32" s="21" customFormat="1">
       <c r="Q513" s="23"/>
@@ -28704,7 +28793,7 @@
       <c r="AA513" s="39"/>
       <c r="AB513" s="39"/>
       <c r="AC513" s="39"/>
-      <c r="AD513" s="65"/>
+      <c r="AD513" s="23"/>
     </row>
     <row r="514" spans="17:32" s="21" customFormat="1">
       <c r="Q514" s="23"/>
@@ -28720,7 +28809,7 @@
       <c r="AA514" s="39"/>
       <c r="AB514" s="39"/>
       <c r="AC514" s="39"/>
-      <c r="AD514" s="65"/>
+      <c r="AD514" s="23"/>
     </row>
     <row r="515" spans="17:32" s="21" customFormat="1">
       <c r="Q515" s="23"/>
@@ -28736,7 +28825,7 @@
       <c r="AA515" s="39"/>
       <c r="AB515" s="39"/>
       <c r="AC515" s="39"/>
-      <c r="AD515" s="65"/>
+      <c r="AD515" s="23"/>
     </row>
     <row r="516" spans="17:32" s="21" customFormat="1">
       <c r="Q516" s="23"/>
@@ -28752,7 +28841,7 @@
       <c r="AA516" s="39"/>
       <c r="AB516" s="39"/>
       <c r="AC516" s="39"/>
-      <c r="AD516" s="65"/>
+      <c r="AD516" s="23"/>
     </row>
     <row r="517" spans="17:32" s="21" customFormat="1">
       <c r="Q517" s="23"/>
@@ -28768,7 +28857,7 @@
       <c r="AA517" s="23"/>
       <c r="AB517" s="23"/>
       <c r="AC517" s="23"/>
-      <c r="AD517" s="65"/>
+      <c r="AD517" s="23"/>
     </row>
     <row r="518" spans="17:32" s="21" customFormat="1">
       <c r="Q518" s="23"/>
@@ -28784,7 +28873,7 @@
       <c r="AA518" s="23"/>
       <c r="AB518" s="23"/>
       <c r="AC518" s="23"/>
-      <c r="AD518" s="65"/>
+      <c r="AD518" s="23"/>
       <c r="AF518" s="22"/>
     </row>
     <row r="519" spans="17:32" s="21" customFormat="1">
@@ -28801,7 +28890,7 @@
       <c r="AA519" s="39"/>
       <c r="AB519" s="39"/>
       <c r="AC519" s="39"/>
-      <c r="AD519" s="65"/>
+      <c r="AD519" s="23"/>
     </row>
     <row r="520" spans="17:32" s="21" customFormat="1">
       <c r="Q520" s="39"/>
@@ -28817,7 +28906,7 @@
       <c r="AA520" s="39"/>
       <c r="AB520" s="39"/>
       <c r="AC520" s="39"/>
-      <c r="AD520" s="65"/>
+      <c r="AD520" s="23"/>
     </row>
     <row r="521" spans="17:32" s="21" customFormat="1">
       <c r="Q521" s="23"/>
@@ -28833,7 +28922,7 @@
       <c r="AA521" s="23"/>
       <c r="AB521" s="23"/>
       <c r="AC521" s="23"/>
-      <c r="AD521" s="65"/>
+      <c r="AD521" s="23"/>
       <c r="AF521" s="22"/>
     </row>
     <row r="522" spans="17:32" s="21" customFormat="1">
@@ -28850,7 +28939,7 @@
       <c r="AA522" s="39"/>
       <c r="AB522" s="39"/>
       <c r="AC522" s="39"/>
-      <c r="AD522" s="65"/>
+      <c r="AD522" s="23"/>
     </row>
     <row r="523" spans="17:32" s="21" customFormat="1">
       <c r="Q523" s="23"/>
@@ -28866,7 +28955,7 @@
       <c r="AA523" s="39"/>
       <c r="AB523" s="39"/>
       <c r="AC523" s="39"/>
-      <c r="AD523" s="65"/>
+      <c r="AD523" s="23"/>
     </row>
     <row r="524" spans="17:32" s="21" customFormat="1">
       <c r="Q524" s="23"/>
@@ -28882,7 +28971,7 @@
       <c r="AA524" s="39"/>
       <c r="AB524" s="39"/>
       <c r="AC524" s="39"/>
-      <c r="AD524" s="65"/>
+      <c r="AD524" s="23"/>
     </row>
     <row r="525" spans="17:32" s="21" customFormat="1">
       <c r="Q525" s="23"/>
@@ -28898,7 +28987,7 @@
       <c r="AA525" s="39"/>
       <c r="AB525" s="39"/>
       <c r="AC525" s="39"/>
-      <c r="AD525" s="65"/>
+      <c r="AD525" s="23"/>
     </row>
     <row r="526" spans="17:32" s="21" customFormat="1">
       <c r="Q526" s="39"/>
@@ -28914,7 +29003,7 @@
       <c r="AA526" s="23"/>
       <c r="AB526" s="23"/>
       <c r="AC526" s="23"/>
-      <c r="AD526" s="65"/>
+      <c r="AD526" s="23"/>
       <c r="AF526" s="22"/>
     </row>
     <row r="527" spans="17:32" s="21" customFormat="1">
@@ -28931,7 +29020,7 @@
       <c r="AA527" s="23"/>
       <c r="AB527" s="23"/>
       <c r="AC527" s="23"/>
-      <c r="AD527" s="65"/>
+      <c r="AD527" s="23"/>
       <c r="AF527" s="22"/>
     </row>
     <row r="528" spans="17:32" s="21" customFormat="1">
@@ -28948,7 +29037,7 @@
       <c r="AA528" s="23"/>
       <c r="AB528" s="23"/>
       <c r="AC528" s="23"/>
-      <c r="AD528" s="65"/>
+      <c r="AD528" s="23"/>
     </row>
     <row r="529" spans="9:32" s="21" customFormat="1">
       <c r="Q529" s="23"/>
@@ -28964,7 +29053,7 @@
       <c r="AA529" s="23"/>
       <c r="AB529" s="23"/>
       <c r="AC529" s="23"/>
-      <c r="AD529" s="65"/>
+      <c r="AD529" s="23"/>
     </row>
     <row r="530" spans="9:32" s="21" customFormat="1">
       <c r="Q530" s="23"/>
@@ -28980,7 +29069,7 @@
       <c r="AA530" s="23"/>
       <c r="AB530" s="23"/>
       <c r="AC530" s="23"/>
-      <c r="AD530" s="65"/>
+      <c r="AD530" s="23"/>
     </row>
     <row r="531" spans="9:32" s="21" customFormat="1">
       <c r="Q531" s="23"/>
@@ -28996,7 +29085,7 @@
       <c r="AA531" s="39"/>
       <c r="AB531" s="39"/>
       <c r="AC531" s="39"/>
-      <c r="AD531" s="65"/>
+      <c r="AD531" s="23"/>
     </row>
     <row r="532" spans="9:32" s="21" customFormat="1">
       <c r="Q532" s="23"/>
@@ -29012,7 +29101,7 @@
       <c r="AA532" s="39"/>
       <c r="AB532" s="39"/>
       <c r="AC532" s="39"/>
-      <c r="AD532" s="65"/>
+      <c r="AD532" s="23"/>
     </row>
     <row r="533" spans="9:32" s="21" customFormat="1">
       <c r="Q533" s="23"/>
@@ -29028,7 +29117,7 @@
       <c r="AA533" s="23"/>
       <c r="AB533" s="23"/>
       <c r="AC533" s="23"/>
-      <c r="AD533" s="65"/>
+      <c r="AD533" s="23"/>
       <c r="AF533" s="22"/>
     </row>
     <row r="534" spans="9:32" s="21" customFormat="1">
@@ -29047,7 +29136,7 @@
       <c r="AA534" s="39"/>
       <c r="AB534" s="39"/>
       <c r="AC534" s="39"/>
-      <c r="AD534" s="65"/>
+      <c r="AD534" s="23"/>
     </row>
     <row r="535" spans="9:32" s="21" customFormat="1">
       <c r="I535" s="35"/>
@@ -29066,7 +29155,7 @@
       <c r="AA535" s="39"/>
       <c r="AB535" s="39"/>
       <c r="AC535" s="39"/>
-      <c r="AD535" s="65"/>
+      <c r="AD535" s="23"/>
     </row>
     <row r="536" spans="9:32" s="21" customFormat="1">
       <c r="Q536" s="39"/>
@@ -29082,7 +29171,7 @@
       <c r="AA536" s="39"/>
       <c r="AB536" s="39"/>
       <c r="AC536" s="39"/>
-      <c r="AD536" s="65"/>
+      <c r="AD536" s="23"/>
     </row>
     <row r="537" spans="9:32" s="21" customFormat="1">
       <c r="Q537" s="23"/>
@@ -29098,7 +29187,7 @@
       <c r="AA537" s="23"/>
       <c r="AB537" s="23"/>
       <c r="AC537" s="23"/>
-      <c r="AD537" s="65"/>
+      <c r="AD537" s="23"/>
     </row>
     <row r="538" spans="9:32" s="21" customFormat="1">
       <c r="Q538" s="23"/>
@@ -29114,7 +29203,7 @@
       <c r="AA538" s="23"/>
       <c r="AB538" s="23"/>
       <c r="AC538" s="23"/>
-      <c r="AD538" s="65"/>
+      <c r="AD538" s="23"/>
       <c r="AF538" s="22"/>
     </row>
     <row r="539" spans="9:32" s="21" customFormat="1">
@@ -29131,7 +29220,7 @@
       <c r="AA539" s="39"/>
       <c r="AB539" s="39"/>
       <c r="AC539" s="39"/>
-      <c r="AD539" s="65"/>
+      <c r="AD539" s="23"/>
     </row>
     <row r="540" spans="9:32" s="21" customFormat="1">
       <c r="Q540" s="23"/>
@@ -29147,7 +29236,7 @@
       <c r="AA540" s="39"/>
       <c r="AB540" s="39"/>
       <c r="AC540" s="39"/>
-      <c r="AD540" s="65"/>
+      <c r="AD540" s="23"/>
     </row>
     <row r="541" spans="9:32" s="21" customFormat="1">
       <c r="Q541" s="23"/>
@@ -29163,7 +29252,7 @@
       <c r="AA541" s="39"/>
       <c r="AB541" s="39"/>
       <c r="AC541" s="39"/>
-      <c r="AD541" s="65"/>
+      <c r="AD541" s="23"/>
     </row>
     <row r="542" spans="9:32" s="21" customFormat="1">
       <c r="Q542" s="23"/>
@@ -29179,7 +29268,7 @@
       <c r="AA542" s="39"/>
       <c r="AB542" s="39"/>
       <c r="AC542" s="39"/>
-      <c r="AD542" s="65"/>
+      <c r="AD542" s="23"/>
     </row>
     <row r="543" spans="9:32" s="21" customFormat="1">
       <c r="Q543" s="23"/>
@@ -29195,7 +29284,7 @@
       <c r="AA543" s="39"/>
       <c r="AB543" s="39"/>
       <c r="AC543" s="39"/>
-      <c r="AD543" s="65"/>
+      <c r="AD543" s="23"/>
     </row>
     <row r="544" spans="9:32" s="21" customFormat="1">
       <c r="Q544" s="39"/>
@@ -29211,7 +29300,7 @@
       <c r="AA544" s="39"/>
       <c r="AB544" s="39"/>
       <c r="AC544" s="39"/>
-      <c r="AD544" s="65"/>
+      <c r="AD544" s="23"/>
     </row>
     <row r="545" spans="16:32" s="21" customFormat="1">
       <c r="Q545" s="23"/>
@@ -29227,7 +29316,7 @@
       <c r="AA545" s="23"/>
       <c r="AB545" s="23"/>
       <c r="AC545" s="23"/>
-      <c r="AD545" s="65"/>
+      <c r="AD545" s="23"/>
       <c r="AF545" s="22"/>
     </row>
     <row r="546" spans="16:32" s="21" customFormat="1">
@@ -29244,7 +29333,7 @@
       <c r="AA546" s="39"/>
       <c r="AB546" s="39"/>
       <c r="AC546" s="39"/>
-      <c r="AD546" s="65"/>
+      <c r="AD546" s="23"/>
     </row>
     <row r="547" spans="16:32" s="21" customFormat="1">
       <c r="Q547" s="23"/>
@@ -29260,7 +29349,7 @@
       <c r="AA547" s="39"/>
       <c r="AB547" s="39"/>
       <c r="AC547" s="39"/>
-      <c r="AD547" s="65"/>
+      <c r="AD547" s="23"/>
     </row>
     <row r="548" spans="16:32" s="21" customFormat="1">
       <c r="Q548" s="23"/>
@@ -29276,7 +29365,7 @@
       <c r="AA548" s="39"/>
       <c r="AB548" s="39"/>
       <c r="AC548" s="39"/>
-      <c r="AD548" s="65"/>
+      <c r="AD548" s="23"/>
     </row>
     <row r="549" spans="16:32" s="21" customFormat="1">
       <c r="P549" s="22"/>
@@ -29292,7 +29381,7 @@
       <c r="Z549" s="39"/>
       <c r="AA549" s="39"/>
       <c r="AB549" s="39"/>
-      <c r="AD549" s="65"/>
+      <c r="AD549" s="23"/>
     </row>
     <row r="550" spans="16:32" s="21" customFormat="1">
       <c r="Q550" s="23"/>
@@ -29308,7 +29397,7 @@
       <c r="AA550" s="39"/>
       <c r="AB550" s="39"/>
       <c r="AC550" s="39"/>
-      <c r="AD550" s="65"/>
+      <c r="AD550" s="23"/>
     </row>
     <row r="551" spans="16:32" s="21" customFormat="1">
       <c r="Q551" s="23"/>
@@ -29324,7 +29413,7 @@
       <c r="AA551" s="39"/>
       <c r="AB551" s="39"/>
       <c r="AC551" s="39"/>
-      <c r="AD551" s="65"/>
+      <c r="AD551" s="23"/>
     </row>
     <row r="552" spans="16:32" s="21" customFormat="1">
       <c r="Q552" s="23"/>
@@ -29340,7 +29429,7 @@
       <c r="AA552" s="39"/>
       <c r="AB552" s="39"/>
       <c r="AC552" s="39"/>
-      <c r="AD552" s="65"/>
+      <c r="AD552" s="23"/>
     </row>
     <row r="553" spans="16:32" s="21" customFormat="1">
       <c r="Q553" s="23"/>
@@ -29356,7 +29445,7 @@
       <c r="AA553" s="23"/>
       <c r="AB553" s="23"/>
       <c r="AC553" s="23"/>
-      <c r="AD553" s="65"/>
+      <c r="AD553" s="23"/>
     </row>
     <row r="554" spans="16:32" s="21" customFormat="1">
       <c r="Q554" s="23"/>
@@ -29372,7 +29461,7 @@
       <c r="AA554" s="23"/>
       <c r="AB554" s="23"/>
       <c r="AC554" s="23"/>
-      <c r="AD554" s="65"/>
+      <c r="AD554" s="23"/>
     </row>
     <row r="555" spans="16:32" s="21" customFormat="1">
       <c r="Q555" s="23"/>
@@ -29388,7 +29477,7 @@
       <c r="AA555" s="23"/>
       <c r="AB555" s="23"/>
       <c r="AC555" s="23"/>
-      <c r="AD555" s="65"/>
+      <c r="AD555" s="23"/>
       <c r="AF555" s="22"/>
     </row>
     <row r="556" spans="16:32" s="21" customFormat="1">
@@ -29405,7 +29494,7 @@
       <c r="AA556" s="39"/>
       <c r="AB556" s="39"/>
       <c r="AC556" s="39"/>
-      <c r="AD556" s="65"/>
+      <c r="AD556" s="23"/>
     </row>
     <row r="557" spans="16:32" s="21" customFormat="1">
       <c r="Q557" s="23"/>
@@ -29421,7 +29510,7 @@
       <c r="AA557" s="39"/>
       <c r="AB557" s="39"/>
       <c r="AC557" s="39"/>
-      <c r="AD557" s="65"/>
+      <c r="AD557" s="23"/>
     </row>
     <row r="558" spans="16:32" s="21" customFormat="1">
       <c r="Q558" s="23"/>
@@ -29437,7 +29526,7 @@
       <c r="AA558" s="39"/>
       <c r="AB558" s="39"/>
       <c r="AC558" s="39"/>
-      <c r="AD558" s="65"/>
+      <c r="AD558" s="23"/>
     </row>
     <row r="559" spans="16:32" s="21" customFormat="1">
       <c r="Q559" s="23"/>
@@ -29453,7 +29542,7 @@
       <c r="AA559" s="39"/>
       <c r="AB559" s="39"/>
       <c r="AC559" s="39"/>
-      <c r="AD559" s="65"/>
+      <c r="AD559" s="23"/>
     </row>
     <row r="560" spans="16:32" s="21" customFormat="1">
       <c r="Q560" s="23"/>
@@ -29469,7 +29558,7 @@
       <c r="AA560" s="39"/>
       <c r="AB560" s="39"/>
       <c r="AC560" s="39"/>
-      <c r="AD560" s="65"/>
+      <c r="AD560" s="23"/>
     </row>
     <row r="561" spans="9:30" s="21" customFormat="1">
       <c r="Q561" s="39"/>
@@ -29485,7 +29574,7 @@
       <c r="AA561" s="39"/>
       <c r="AB561" s="39"/>
       <c r="AC561" s="39"/>
-      <c r="AD561" s="65"/>
+      <c r="AD561" s="23"/>
     </row>
     <row r="562" spans="9:30" s="21" customFormat="1">
       <c r="Q562" s="23"/>
@@ -29501,7 +29590,7 @@
       <c r="AA562" s="39"/>
       <c r="AB562" s="39"/>
       <c r="AC562" s="39"/>
-      <c r="AD562" s="65"/>
+      <c r="AD562" s="23"/>
     </row>
     <row r="563" spans="9:30" s="21" customFormat="1">
       <c r="Q563" s="23"/>
@@ -29517,7 +29606,7 @@
       <c r="AA563" s="39"/>
       <c r="AB563" s="39"/>
       <c r="AC563" s="39"/>
-      <c r="AD563" s="65"/>
+      <c r="AD563" s="23"/>
     </row>
     <row r="564" spans="9:30" s="21" customFormat="1">
       <c r="J564" s="1"/>
@@ -29535,7 +29624,7 @@
       <c r="AA564" s="39"/>
       <c r="AB564" s="39"/>
       <c r="AC564" s="39"/>
-      <c r="AD564" s="65"/>
+      <c r="AD564" s="23"/>
     </row>
     <row r="565" spans="9:30">
       <c r="J565" s="35"/>
@@ -35480,8 +35569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO244"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q181" sqref="Q181"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J197" sqref="J197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -39189,7 +39278,7 @@
       <c r="O176" s="18"/>
       <c r="P176" s="10"/>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:22">
       <c r="A177" s="11">
         <v>2</v>
       </c>
@@ -39205,7 +39294,7 @@
       </c>
       <c r="F177" s="10"/>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:22">
       <c r="A178" s="10"/>
       <c r="B178" s="9">
         <v>1</v>
@@ -39226,7 +39315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:22">
       <c r="A179" s="11">
         <v>3</v>
       </c>
@@ -39244,7 +39333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:22">
       <c r="A180" s="11">
         <v>2</v>
       </c>
@@ -39264,7 +39353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:22">
       <c r="A181" s="10"/>
       <c r="B181" s="11">
         <v>4</v>
@@ -39279,18 +39368,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
-      <c r="A182" s="10"/>
-      <c r="B182" s="10"/>
+    <row r="182" spans="1:22">
+      <c r="A182" s="11">
+        <v>2</v>
+      </c>
+      <c r="B182" s="9">
+        <v>1</v>
+      </c>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
-      <c r="E182" s="10"/>
+      <c r="E182" s="9">
+        <v>1</v>
+      </c>
       <c r="F182" s="10"/>
       <c r="K182" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="183" spans="1:17">
+      <c r="M182" s="9">
+        <v>1</v>
+      </c>
+      <c r="V182" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -39298,7 +39399,7 @@
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:22">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -39306,7 +39407,7 @@
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:22">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -39314,7 +39415,7 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:22">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -39322,7 +39423,7 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:22">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -39330,7 +39431,7 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:22">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -39338,7 +39439,7 @@
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:22">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -39346,7 +39447,7 @@
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:22">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -39354,7 +39455,7 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:22">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -39362,7 +39463,7 @@
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:22">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -39439,6 +39540,7 @@
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
       <c r="F201" s="10"/>
     </row>
     <row r="202" spans="1:6">
@@ -39601,6 +39703,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
       <c r="C226" s="10"/>
       <c r="D226" s="10"/>
     </row>
@@ -39655,6 +39758,7 @@
       <c r="D236" s="10"/>
     </row>
     <row r="237" spans="1:4">
+      <c r="A237" s="10"/>
       <c r="C237" s="10"/>
     </row>
     <row r="238" spans="1:4">
@@ -39689,8 +39793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="H191" sqref="H191"/>
+    <sheetView topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="L190" sqref="L190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44531,12 +44635,51 @@
       </c>
     </row>
     <row r="182" spans="1:19" customFormat="1">
-      <c r="N182" s="18"/>
-      <c r="O182" s="18"/>
-      <c r="P182" s="18"/>
-      <c r="Q182" s="18"/>
-      <c r="R182" s="18"/>
-      <c r="S182" s="18"/>
+      <c r="A182" s="1">
+        <v>2</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1">
+        <v>3</v>
+      </c>
+      <c r="F182" s="1">
+        <v>0</v>
+      </c>
+      <c r="G182" s="1">
+        <v>0</v>
+      </c>
+      <c r="H182" s="1">
+        <v>0</v>
+      </c>
+      <c r="I182" s="1">
+        <v>2</v>
+      </c>
+      <c r="J182" s="1">
+        <v>3</v>
+      </c>
+      <c r="K182" s="1">
+        <v>1</v>
+      </c>
+      <c r="N182" s="18">
+        <v>0</v>
+      </c>
+      <c r="O182" s="18">
+        <v>0</v>
+      </c>
+      <c r="P182" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q182" s="18">
+        <v>1</v>
+      </c>
+      <c r="R182" s="18">
+        <v>3</v>
+      </c>
+      <c r="S182" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="195" spans="14:19" customFormat="1">
       <c r="N195" s="18"/>
@@ -44563,10 +44706,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN181"/>
+  <dimension ref="A100:AN182"/>
   <sheetViews>
     <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="R191" sqref="R191"/>
+      <selection activeCell="J192" sqref="J192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -48224,6 +48367,44 @@
         <v>1</v>
       </c>
     </row>
+    <row r="182" spans="1:19">
+      <c r="A182" s="9">
+        <v>1</v>
+      </c>
+      <c r="B182" s="9">
+        <v>1</v>
+      </c>
+      <c r="F182" s="11">
+        <v>2</v>
+      </c>
+      <c r="G182" s="9">
+        <v>1</v>
+      </c>
+      <c r="J182" s="9">
+        <v>1</v>
+      </c>
+      <c r="L182" s="16">
+        <v>0</v>
+      </c>
+      <c r="M182" s="16">
+        <v>1</v>
+      </c>
+      <c r="N182" s="16">
+        <v>2</v>
+      </c>
+      <c r="O182" s="16">
+        <v>6</v>
+      </c>
+      <c r="P182" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q182" s="16">
+        <v>7</v>
+      </c>
+      <c r="S182" s="16">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48236,7 +48417,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -48460,7 +48641,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -48598,7 +48779,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -48642,7 +48823,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -48713,7 +48894,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -48739,13 +48920,13 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
       </c>
       <c r="J11" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" s="18">
         <v>20</v>
@@ -48757,7 +48938,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -48765,13 +48946,16 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="G12" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
@@ -48786,7 +48970,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -48800,7 +48984,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N13" s="18">
         <v>0</v>
@@ -48814,7 +48998,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -48822,13 +49006,13 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -49128,13 +49312,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O97" sqref="O97"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +381,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -438,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,6 +582,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -927,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO104"/>
+  <dimension ref="A1:AO106"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6153,7 +6165,9 @@
       <c r="O52" s="7">
         <v>5</v>
       </c>
-      <c r="P52" s="7"/>
+      <c r="P52" s="7">
+        <v>0</v>
+      </c>
       <c r="Q52" s="7">
         <v>17</v>
       </c>
@@ -6634,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L57" s="7">
         <v>1</v>
@@ -6703,7 +6717,7 @@
     </row>
     <row r="58" spans="1:33" s="3" customFormat="1">
       <c r="A58" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" s="7">
         <v>6</v>
@@ -6730,7 +6744,7 @@
         <v>7</v>
       </c>
       <c r="J58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7">
@@ -6750,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S58" s="7">
         <v>3</v>
@@ -6765,7 +6779,7 @@
         <v>7</v>
       </c>
       <c r="W58" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X58" s="7">
         <v>17</v>
@@ -6789,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="AE58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF58" s="7">
         <v>6</v>
@@ -6803,7 +6817,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59" s="7">
         <v>6</v>
@@ -6953,7 +6967,7 @@
         <v>3</v>
       </c>
       <c r="AG60" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
@@ -7003,7 +7017,7 @@
         <v>4</v>
       </c>
       <c r="T61" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U61" s="7">
         <v>0</v>
@@ -7031,7 +7045,7 @@
         <v>6</v>
       </c>
       <c r="AD61" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE61" s="7"/>
       <c r="AF61" s="7">
@@ -7066,7 +7080,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -7103,7 +7117,7 @@
         <v>4</v>
       </c>
       <c r="AA62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB62" s="7">
         <v>12</v>
@@ -7137,7 +7151,7 @@
         <v>5</v>
       </c>
       <c r="H63" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" s="7">
         <v>2</v>
@@ -7174,7 +7188,7 @@
         <v>3</v>
       </c>
       <c r="Y63" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z63" s="4">
         <v>12</v>
@@ -7182,6 +7196,9 @@
       <c r="AA63" s="25"/>
       <c r="AB63" s="7">
         <v>1</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
       </c>
       <c r="AD63" s="7"/>
       <c r="AE63" s="3"/>
@@ -7208,7 +7225,7 @@
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="4"/>
@@ -7250,7 +7267,7 @@
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG64" s="5"/>
     </row>
@@ -7278,7 +7295,9 @@
       <c r="M65" s="4">
         <v>0</v>
       </c>
-      <c r="N65" s="25"/>
+      <c r="N65" s="7">
+        <v>0</v>
+      </c>
       <c r="O65" s="4">
         <v>5</v>
       </c>
@@ -7345,10 +7364,12 @@
       </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T66" s="3"/>
-      <c r="U66" s="4"/>
+      <c r="U66" s="4">
+        <v>0</v>
+      </c>
       <c r="V66" s="4">
         <v>9</v>
       </c>
@@ -7361,7 +7382,7 @@
         <v>4</v>
       </c>
       <c r="AB66" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7369,6 +7390,9 @@
       <c r="AG66" s="36"/>
     </row>
     <row r="67" spans="1:33">
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
       <c r="D67" s="3">
         <v>2</v>
       </c>
@@ -7376,7 +7400,7 @@
         <v>17</v>
       </c>
       <c r="F67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="2">
         <v>5</v>
@@ -7390,7 +7414,7 @@
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
@@ -7405,10 +7429,10 @@
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB67" s="12"/>
       <c r="AD67" s="4"/>
@@ -7424,6 +7448,9 @@
         <v>1</v>
       </c>
       <c r="F68" s="4"/>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="K68" s="3"/>
@@ -7477,7 +7504,7 @@
       <c r="T69" s="3"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
@@ -7565,7 +7592,7 @@
         <v>7</v>
       </c>
       <c r="E72" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="4"/>
       <c r="I72" s="4"/>
@@ -7603,13 +7630,13 @@
       <c r="I73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
@@ -7658,7 +7685,7 @@
       <c r="A75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F75" s="4"/>
       <c r="H75" s="4"/>
@@ -7700,87 +7727,97 @@
       <c r="AF76" s="3"/>
       <c r="AG76" s="5"/>
     </row>
-    <row r="77" spans="1:33" s="43" customFormat="1"/>
-    <row r="78" spans="1:33" s="41" customFormat="1"/>
-    <row r="79" spans="1:33" s="45" customFormat="1"/>
-    <row r="80" spans="1:33">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4"/>
-      <c r="AF80" s="3"/>
-      <c r="AG80" s="5"/>
-    </row>
-    <row r="81" spans="1:33">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="3"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4"/>
-      <c r="AG81" s="5"/>
-    </row>
+    <row r="77" spans="1:33">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="5"/>
+    </row>
+    <row r="78" spans="1:33">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="3"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AG78" s="5"/>
+    </row>
+    <row r="79" spans="1:33" s="43" customFormat="1"/>
+    <row r="80" spans="1:33" s="41" customFormat="1"/>
+    <row r="81" spans="1:33" s="45" customFormat="1"/>
     <row r="82" spans="1:33">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="3"/>
-      <c r="H82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="3"/>
       <c r="K82" s="3"/>
+      <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
       <c r="S82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
       <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AF82" s="3"/>
       <c r="AG82" s="5"/>
     </row>
     <row r="83" spans="1:33">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-      <c r="H83" s="4"/>
+      <c r="D83" s="3"/>
       <c r="I83" s="4"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="M83" s="4"/>
-      <c r="O83" s="4"/>
+      <c r="N83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="U83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
       <c r="AG83" s="5"/>
     </row>
     <row r="84" spans="1:33">
@@ -7789,14 +7826,15 @@
       <c r="C84" s="5"/>
       <c r="D84" s="3"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
       <c r="S84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
       <c r="Y84" s="4"/>
       <c r="AG84" s="5"/>
     </row>
@@ -7804,25 +7842,17 @@
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
+      <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="4"/>
       <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="3"/>
-      <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
       <c r="AG85" s="5"/>
     </row>
     <row r="86" spans="1:33">
@@ -7830,22 +7860,16 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="L86" s="4"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="M86" s="4"/>
       <c r="N86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="R86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="Q86" s="4"/>
       <c r="S86" s="4"/>
-      <c r="T86" s="3"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="4"/>
-      <c r="W86" s="4"/>
-      <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
-      <c r="Z86" s="4"/>
       <c r="AG86" s="5"/>
     </row>
     <row r="87" spans="1:33">
@@ -7855,21 +7879,22 @@
       <c r="D87" s="3"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="H87" s="4"/>
       <c r="I87" s="4"/>
+      <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
       <c r="T87" s="3"/>
-      <c r="U87" s="4"/>
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="4"/>
-      <c r="Z87" s="4"/>
+      <c r="Y87" s="4"/>
       <c r="AG87" s="5"/>
     </row>
     <row r="88" spans="1:33">
@@ -7877,16 +7902,21 @@
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="K88" s="3"/>
+      <c r="L88" s="4"/>
       <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
+      <c r="T88" s="3"/>
       <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
       <c r="AG88" s="5"/>
     </row>
@@ -7898,34 +7928,35 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
       <c r="K89" s="3"/>
       <c r="L89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
       <c r="T89" s="3"/>
+      <c r="U89" s="4"/>
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
+      <c r="Z89" s="4"/>
       <c r="AG89" s="5"/>
     </row>
     <row r="90" spans="1:33">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
+      <c r="D90" s="3"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
+      <c r="K90" s="3"/>
+      <c r="N90" s="4"/>
       <c r="O90" s="4"/>
-      <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
-      <c r="T90" s="3"/>
+      <c r="S90" s="4"/>
       <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
       <c r="Z90" s="4"/>
@@ -7939,41 +7970,37 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
+      <c r="K91" s="3"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
-      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
       <c r="S91" s="4"/>
       <c r="T91" s="3"/>
-      <c r="U91" s="4"/>
       <c r="V91" s="4"/>
-      <c r="Z91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
       <c r="AG91" s="5"/>
     </row>
     <row r="92" spans="1:33">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="3"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
+      <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
       <c r="T92" s="3"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
       <c r="Z92" s="4"/>
-      <c r="AC92" s="5"/>
       <c r="AG92" s="5"/>
     </row>
     <row r="93" spans="1:33">
@@ -7984,39 +8011,40 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
       <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
       <c r="N93" s="4"/>
-      <c r="R93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="Q93" s="4"/>
       <c r="S93" s="4"/>
       <c r="T93" s="3"/>
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
-      <c r="W93" s="4"/>
-      <c r="X93" s="4"/>
       <c r="Z93" s="4"/>
-      <c r="AC93" s="5"/>
       <c r="AG93" s="5"/>
     </row>
     <row r="94" spans="1:33">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
+      <c r="D94" s="3"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
       <c r="T94" s="3"/>
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
       <c r="Z94" s="4"/>
-      <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
       <c r="AG94" s="5"/>
     </row>
@@ -8024,14 +8052,20 @@
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
       <c r="H95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="Q95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="3"/>
       <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
       <c r="Z95" s="4"/>
-      <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
       <c r="AG95" s="5"/>
     </row>
@@ -8042,15 +8076,20 @@
       <c r="D96" s="5"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
+      <c r="H96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="O96" s="4"/>
       <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
       <c r="T96" s="3"/>
+      <c r="U96" s="4"/>
       <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Z96" s="4"/>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
-      <c r="AF96" s="5"/>
       <c r="AG96" s="5"/>
     </row>
     <row r="97" spans="1:33">
@@ -8058,18 +8097,14 @@
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="L97" s="4"/>
+      <c r="H97" s="4"/>
       <c r="M97" s="4"/>
+      <c r="O97" s="4"/>
       <c r="Q97" s="4"/>
-      <c r="T97" s="3"/>
       <c r="U97" s="4"/>
-      <c r="V97" s="4"/>
       <c r="Z97" s="4"/>
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
-      <c r="AF97" s="5"/>
       <c r="AG97" s="5"/>
     </row>
     <row r="98" spans="1:33">
@@ -8081,11 +8116,10 @@
       <c r="F98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
+      <c r="O98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="T98" s="3"/>
-      <c r="U98" s="4"/>
       <c r="V98" s="4"/>
-      <c r="Z98" s="4"/>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
       <c r="AF98" s="5"/>
@@ -8096,9 +8130,14 @@
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="Q99" s="4"/>
+      <c r="T99" s="3"/>
       <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
       <c r="Z99" s="4"/>
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
@@ -8110,35 +8149,68 @@
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="Z100" s="4"/>
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
       <c r="AF100" s="5"/>
       <c r="AG100" s="5"/>
     </row>
     <row r="101" spans="1:33">
+      <c r="A101" s="5"/>
       <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="M101" s="4"/>
       <c r="Q101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="Z101" s="4"/>
       <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
       <c r="AF101" s="5"/>
+      <c r="AG101" s="5"/>
     </row>
     <row r="102" spans="1:33">
+      <c r="A102" s="5"/>
       <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
       <c r="D102" s="5"/>
-      <c r="M102" s="4"/>
-      <c r="Q102" s="4"/>
       <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
       <c r="AF102" s="5"/>
+      <c r="AG102" s="5"/>
     </row>
     <row r="103" spans="1:33">
       <c r="B103" s="5"/>
+      <c r="D103" s="5"/>
       <c r="M103" s="4"/>
       <c r="Q103" s="4"/>
+      <c r="AB103" s="5"/>
       <c r="AF103" s="5"/>
     </row>
     <row r="104" spans="1:33">
+      <c r="B104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="M104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="AB104" s="5"/>
       <c r="AF104" s="5"/>
+    </row>
+    <row r="105" spans="1:33">
+      <c r="B105" s="5"/>
+      <c r="M105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="AF105" s="5"/>
+    </row>
+    <row r="106" spans="1:33">
+      <c r="AF106" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8151,8 +8223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT957"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U196" sqref="U196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -8160,7 +8232,7 @@
     <col min="1" max="16" width="5.125" style="1" customWidth="1"/>
     <col min="17" max="27" width="4.625" style="1" customWidth="1"/>
     <col min="28" max="29" width="5.625" style="1"/>
-    <col min="30" max="30" width="5.625" style="23"/>
+    <col min="30" max="30" width="5.625" style="64"/>
     <col min="31" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
@@ -8238,7 +8310,7 @@
       <c r="AC1" s="19">
         <v>9</v>
       </c>
-      <c r="AD1" s="23"/>
+      <c r="AD1" s="64"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1">
@@ -16462,7 +16534,7 @@
       <c r="AC110" s="22">
         <v>23</v>
       </c>
-      <c r="AD110" s="23"/>
+      <c r="AD110" s="64"/>
       <c r="AF110" s="22"/>
     </row>
     <row r="111" spans="1:32" s="21" customFormat="1">
@@ -16540,7 +16612,7 @@
       <c r="AC111" s="22">
         <v>13</v>
       </c>
-      <c r="AD111" s="23"/>
+      <c r="AD111" s="64"/>
       <c r="AF111" s="22"/>
     </row>
     <row r="112" spans="1:32" s="21" customFormat="1">
@@ -16618,7 +16690,7 @@
       <c r="AC112" s="22">
         <v>10</v>
       </c>
-      <c r="AD112" s="23"/>
+      <c r="AD112" s="64"/>
       <c r="AF112" s="22"/>
     </row>
     <row r="113" spans="1:43" s="21" customFormat="1">
@@ -16696,7 +16768,7 @@
       <c r="AC113" s="22">
         <v>9</v>
       </c>
-      <c r="AD113" s="23"/>
+      <c r="AD113" s="64"/>
       <c r="AF113" s="22"/>
     </row>
     <row r="114" spans="1:43" s="21" customFormat="1">
@@ -16774,7 +16846,7 @@
       <c r="AC114" s="22">
         <v>6</v>
       </c>
-      <c r="AD114" s="23"/>
+      <c r="AD114" s="64"/>
       <c r="AF114" s="22"/>
     </row>
     <row r="115" spans="1:43" s="21" customFormat="1">
@@ -16852,7 +16924,7 @@
       <c r="AC115" s="22">
         <v>14</v>
       </c>
-      <c r="AD115" s="23"/>
+      <c r="AD115" s="64"/>
       <c r="AF115" s="22"/>
     </row>
     <row r="116" spans="1:43" s="21" customFormat="1">
@@ -16930,7 +17002,7 @@
       <c r="AC116" s="22">
         <v>15</v>
       </c>
-      <c r="AD116" s="23"/>
+      <c r="AD116" s="64"/>
       <c r="AF116" s="22"/>
     </row>
     <row r="117" spans="1:43" s="21" customFormat="1">
@@ -17008,7 +17080,7 @@
       <c r="AC117" s="22">
         <v>17</v>
       </c>
-      <c r="AD117" s="23"/>
+      <c r="AD117" s="64"/>
       <c r="AF117" s="22"/>
     </row>
     <row r="118" spans="1:43" s="21" customFormat="1">
@@ -17086,7 +17158,7 @@
       <c r="AC118" s="22">
         <v>7</v>
       </c>
-      <c r="AD118" s="23"/>
+      <c r="AD118" s="64"/>
       <c r="AF118" s="22"/>
     </row>
     <row r="119" spans="1:43" s="21" customFormat="1">
@@ -17164,7 +17236,7 @@
       <c r="AC119" s="19">
         <v>23</v>
       </c>
-      <c r="AD119" s="23"/>
+      <c r="AD119" s="64"/>
       <c r="AF119" s="22"/>
     </row>
     <row r="120" spans="1:43" s="21" customFormat="1">
@@ -17242,7 +17314,7 @@
       <c r="AC120" s="22">
         <v>5</v>
       </c>
-      <c r="AD120" s="23"/>
+      <c r="AD120" s="64"/>
       <c r="AF120" s="22"/>
     </row>
     <row r="121" spans="1:43" s="21" customFormat="1">
@@ -17320,7 +17392,7 @@
       <c r="AC121" s="19">
         <v>7</v>
       </c>
-      <c r="AD121" s="23"/>
+      <c r="AD121" s="64"/>
       <c r="AF121" s="22"/>
     </row>
     <row r="122" spans="1:43" s="21" customFormat="1">
@@ -17398,7 +17470,7 @@
       <c r="AC122" s="22">
         <v>8</v>
       </c>
-      <c r="AD122" s="23"/>
+      <c r="AD122" s="64"/>
       <c r="AF122" s="22"/>
     </row>
     <row r="123" spans="1:43" s="21" customFormat="1">
@@ -17476,7 +17548,7 @@
       <c r="AC123" s="19">
         <v>15</v>
       </c>
-      <c r="AD123" s="23"/>
+      <c r="AD123" s="64"/>
       <c r="AF123" s="22"/>
       <c r="AH123" s="21">
         <v>1</v>
@@ -17575,7 +17647,7 @@
       <c r="AC124" s="22">
         <v>16</v>
       </c>
-      <c r="AD124" s="23"/>
+      <c r="AD124" s="64"/>
       <c r="AF124" s="22"/>
       <c r="AH124" s="21">
         <v>0</v>
@@ -17680,7 +17752,7 @@
       <c r="AC125" s="19">
         <v>13</v>
       </c>
-      <c r="AD125" s="23"/>
+      <c r="AD125" s="64"/>
       <c r="AF125" s="22"/>
       <c r="AH125" s="21">
         <v>0</v>
@@ -17785,7 +17857,7 @@
       <c r="AC126" s="22">
         <v>4</v>
       </c>
-      <c r="AD126" s="23"/>
+      <c r="AD126" s="64"/>
       <c r="AF126" s="23"/>
       <c r="AH126" s="21">
         <v>0</v>
@@ -17887,7 +17959,7 @@
       <c r="AC127" s="22">
         <v>19</v>
       </c>
-      <c r="AD127" s="23"/>
+      <c r="AD127" s="64"/>
       <c r="AF127" s="23"/>
       <c r="AH127" s="21">
         <v>0</v>
@@ -17989,7 +18061,7 @@
       <c r="AC128" s="19">
         <v>10</v>
       </c>
-      <c r="AD128" s="23"/>
+      <c r="AD128" s="64"/>
       <c r="AF128" s="23"/>
       <c r="AH128" s="21">
         <v>0</v>
@@ -18091,7 +18163,7 @@
       <c r="AC129" s="19">
         <v>15</v>
       </c>
-      <c r="AD129" s="23"/>
+      <c r="AD129" s="64"/>
       <c r="AF129" s="23"/>
       <c r="AH129" s="21">
         <v>0</v>
@@ -18193,7 +18265,7 @@
       <c r="AC130" s="19">
         <v>15</v>
       </c>
-      <c r="AD130" s="23"/>
+      <c r="AD130" s="64"/>
       <c r="AF130" s="23"/>
       <c r="AH130" s="21">
         <v>0</v>
@@ -18295,7 +18367,7 @@
       <c r="AC131" s="22">
         <v>4</v>
       </c>
-      <c r="AD131" s="23"/>
+      <c r="AD131" s="64"/>
       <c r="AF131" s="23"/>
       <c r="AH131" s="21">
         <v>1</v>
@@ -18397,7 +18469,7 @@
       <c r="AC132" s="22">
         <v>9</v>
       </c>
-      <c r="AD132" s="23"/>
+      <c r="AD132" s="64"/>
       <c r="AF132" s="23"/>
       <c r="AH132" s="21">
         <v>2</v>
@@ -18499,7 +18571,7 @@
       <c r="AC133" s="22">
         <v>6</v>
       </c>
-      <c r="AD133" s="23"/>
+      <c r="AD133" s="64"/>
       <c r="AF133" s="39"/>
       <c r="AH133" s="21">
         <v>0</v>
@@ -18595,7 +18667,7 @@
       <c r="AC134" s="22">
         <v>5</v>
       </c>
-      <c r="AD134" s="23"/>
+      <c r="AD134" s="64"/>
       <c r="AF134" s="39"/>
       <c r="AH134" s="21">
         <v>0</v>
@@ -18697,7 +18769,7 @@
       <c r="AC135" s="22">
         <v>13</v>
       </c>
-      <c r="AD135" s="23"/>
+      <c r="AD135" s="64"/>
       <c r="AF135" s="39"/>
       <c r="AH135" s="21">
         <v>0</v>
@@ -18799,7 +18871,7 @@
       <c r="AC136" s="22">
         <v>12</v>
       </c>
-      <c r="AD136" s="23"/>
+      <c r="AD136" s="64"/>
       <c r="AF136" s="39"/>
       <c r="AH136" s="21">
         <v>1</v>
@@ -18901,7 +18973,7 @@
       <c r="AC137" s="22">
         <v>9</v>
       </c>
-      <c r="AD137" s="23"/>
+      <c r="AD137" s="64"/>
       <c r="AF137" s="39"/>
       <c r="AH137" s="21">
         <v>0</v>
@@ -19100,7 +19172,7 @@
       <c r="AC139" s="22">
         <v>6</v>
       </c>
-      <c r="AD139" s="23"/>
+      <c r="AD139" s="64"/>
       <c r="AF139" s="39"/>
       <c r="AH139" s="21">
         <v>0</v>
@@ -19205,7 +19277,7 @@
       <c r="AC140" s="22">
         <v>9</v>
       </c>
-      <c r="AD140" s="23"/>
+      <c r="AD140" s="64"/>
       <c r="AF140" s="39"/>
       <c r="AH140" s="21">
         <v>0</v>
@@ -19304,7 +19376,7 @@
       <c r="AC141" s="22">
         <v>10</v>
       </c>
-      <c r="AD141" s="23"/>
+      <c r="AD141" s="64"/>
       <c r="AF141" s="39"/>
       <c r="AH141" s="21">
         <v>0</v>
@@ -19406,7 +19478,7 @@
       <c r="AC142" s="22">
         <v>7</v>
       </c>
-      <c r="AD142" s="23"/>
+      <c r="AD142" s="64"/>
       <c r="AF142" s="39"/>
       <c r="AH142" s="21">
         <v>1</v>
@@ -19508,7 +19580,7 @@
       <c r="AC143" s="19">
         <v>12</v>
       </c>
-      <c r="AD143" s="23"/>
+      <c r="AD143" s="64"/>
       <c r="AF143" s="23"/>
       <c r="AH143" s="21">
         <v>0</v>
@@ -19610,7 +19682,7 @@
       <c r="AC144" s="19">
         <v>17</v>
       </c>
-      <c r="AD144" s="23"/>
+      <c r="AD144" s="64"/>
       <c r="AF144" s="39"/>
       <c r="AH144" s="21">
         <v>0</v>
@@ -19709,7 +19781,7 @@
       <c r="AC145" s="19">
         <v>10</v>
       </c>
-      <c r="AD145" s="23"/>
+      <c r="AD145" s="64"/>
       <c r="AF145" s="39"/>
       <c r="AH145" s="21">
         <v>4</v>
@@ -19811,7 +19883,7 @@
       <c r="AC146" s="19">
         <v>8</v>
       </c>
-      <c r="AD146" s="23"/>
+      <c r="AD146" s="64"/>
       <c r="AF146" s="39"/>
       <c r="AH146" s="21">
         <v>2</v>
@@ -19913,7 +19985,7 @@
       <c r="AC147" s="22">
         <v>21</v>
       </c>
-      <c r="AD147" s="23"/>
+      <c r="AD147" s="64"/>
       <c r="AF147" s="39"/>
       <c r="AH147" s="21">
         <v>0</v>
@@ -20018,7 +20090,7 @@
       <c r="AC148" s="19">
         <v>12</v>
       </c>
-      <c r="AD148" s="23"/>
+      <c r="AD148" s="64"/>
       <c r="AF148" s="39"/>
       <c r="AH148" s="21">
         <v>0</v>
@@ -20120,7 +20192,7 @@
       <c r="AC149" s="19">
         <v>7</v>
       </c>
-      <c r="AD149" s="23"/>
+      <c r="AD149" s="64"/>
       <c r="AF149" s="39"/>
       <c r="AH149" s="21">
         <v>1</v>
@@ -20222,7 +20294,7 @@
       <c r="AC150" s="22">
         <v>20</v>
       </c>
-      <c r="AD150" s="23"/>
+      <c r="AD150" s="64"/>
       <c r="AF150" s="39"/>
       <c r="AH150" s="21">
         <v>0</v>
@@ -20321,7 +20393,7 @@
       <c r="AC151" s="19">
         <v>5</v>
       </c>
-      <c r="AD151" s="23"/>
+      <c r="AD151" s="64"/>
       <c r="AF151" s="39"/>
       <c r="AH151" s="21">
         <v>1</v>
@@ -20426,7 +20498,7 @@
       <c r="AC152" s="19">
         <v>9</v>
       </c>
-      <c r="AD152" s="23"/>
+      <c r="AD152" s="64"/>
       <c r="AF152" s="39"/>
       <c r="AH152" s="21">
         <v>1</v>
@@ -20525,7 +20597,7 @@
       <c r="AC153" s="19">
         <v>11</v>
       </c>
-      <c r="AD153" s="23"/>
+      <c r="AD153" s="64"/>
       <c r="AF153" s="39"/>
       <c r="AH153" s="21">
         <v>0</v>
@@ -20627,7 +20699,7 @@
       <c r="AC154" s="19">
         <v>6</v>
       </c>
-      <c r="AD154" s="23"/>
+      <c r="AD154" s="64"/>
       <c r="AF154" s="39"/>
       <c r="AH154" s="21">
         <v>0</v>
@@ -20729,7 +20801,7 @@
       <c r="AC155" s="19">
         <v>7</v>
       </c>
-      <c r="AD155" s="23"/>
+      <c r="AD155" s="64"/>
       <c r="AF155" s="39"/>
       <c r="AH155" s="21">
         <v>0</v>
@@ -20831,7 +20903,7 @@
       <c r="AC156" s="22">
         <v>7</v>
       </c>
-      <c r="AD156" s="23"/>
+      <c r="AD156" s="64"/>
       <c r="AF156" s="39"/>
       <c r="AH156" s="21">
         <v>2</v>
@@ -20936,7 +21008,7 @@
       <c r="AC157" s="22">
         <v>13</v>
       </c>
-      <c r="AD157" s="23"/>
+      <c r="AD157" s="64"/>
       <c r="AF157" s="39"/>
       <c r="AH157" s="21">
         <v>0</v>
@@ -21041,7 +21113,7 @@
       <c r="AC158" s="22">
         <v>9</v>
       </c>
-      <c r="AD158" s="23"/>
+      <c r="AD158" s="64"/>
       <c r="AF158" s="39"/>
       <c r="AH158" s="21">
         <v>1</v>
@@ -21140,7 +21212,7 @@
       <c r="AC159" s="19">
         <v>14</v>
       </c>
-      <c r="AD159" s="23"/>
+      <c r="AD159" s="64"/>
       <c r="AF159" s="39"/>
       <c r="AH159" s="21">
         <v>1</v>
@@ -21239,7 +21311,7 @@
       <c r="AC160" s="22">
         <v>21</v>
       </c>
-      <c r="AD160" s="23"/>
+      <c r="AD160" s="64"/>
       <c r="AF160" s="39"/>
       <c r="AH160" s="21">
         <v>0</v>
@@ -21314,7 +21386,7 @@
         <v>3</v>
       </c>
       <c r="S161" s="20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T161" s="19">
         <v>0</v>
@@ -21323,7 +21395,7 @@
         <v>10</v>
       </c>
       <c r="V161" s="20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W161" s="20"/>
       <c r="X161" s="19">
@@ -21340,7 +21412,7 @@
       </c>
       <c r="AB161" s="20"/>
       <c r="AC161" s="20"/>
-      <c r="AD161" s="23"/>
+      <c r="AD161" s="64"/>
       <c r="AF161" s="39"/>
       <c r="AH161" s="21">
         <v>1</v>
@@ -21442,7 +21514,7 @@
       <c r="AC162" s="19">
         <v>15</v>
       </c>
-      <c r="AD162" s="23"/>
+      <c r="AD162" s="64"/>
       <c r="AF162" s="23"/>
       <c r="AH162" s="21">
         <v>0</v>
@@ -21547,7 +21619,7 @@
       <c r="AC163" s="22">
         <v>4</v>
       </c>
-      <c r="AD163" s="23"/>
+      <c r="AD163" s="64"/>
       <c r="AF163" s="39"/>
       <c r="AH163" s="21">
         <v>1</v>
@@ -21646,7 +21718,7 @@
       <c r="AC164" s="22">
         <v>16</v>
       </c>
-      <c r="AD164" s="23"/>
+      <c r="AD164" s="64"/>
       <c r="AF164" s="39"/>
       <c r="AH164" s="21">
         <v>0</v>
@@ -21748,7 +21820,7 @@
       <c r="AC165" s="22">
         <v>7</v>
       </c>
-      <c r="AD165" s="23"/>
+      <c r="AD165" s="64"/>
       <c r="AF165" s="39"/>
       <c r="AH165" s="21">
         <v>1</v>
@@ -21847,7 +21919,7 @@
       <c r="AC166" s="22">
         <v>12</v>
       </c>
-      <c r="AD166" s="23"/>
+      <c r="AD166" s="64"/>
       <c r="AF166" s="39"/>
       <c r="AH166" s="21">
         <v>0</v>
@@ -21949,7 +22021,7 @@
       <c r="AC167" s="22">
         <v>11</v>
       </c>
-      <c r="AD167" s="23"/>
+      <c r="AD167" s="64"/>
       <c r="AF167" s="39"/>
       <c r="AH167" s="21">
         <v>0</v>
@@ -22051,7 +22123,7 @@
       <c r="AC168" s="22">
         <v>6</v>
       </c>
-      <c r="AD168" s="23"/>
+      <c r="AD168" s="64"/>
       <c r="AF168" s="39"/>
       <c r="AH168" s="21">
         <v>0</v>
@@ -22156,7 +22228,7 @@
       <c r="AC169" s="22">
         <v>12</v>
       </c>
-      <c r="AD169" s="23"/>
+      <c r="AD169" s="64"/>
       <c r="AF169" s="39"/>
       <c r="AH169" s="21">
         <v>0</v>
@@ -22228,7 +22300,7 @@
         <v>2</v>
       </c>
       <c r="R170" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S170" s="22">
         <v>0</v>
@@ -22259,7 +22331,7 @@
         <v>3</v>
       </c>
       <c r="AC170" s="23"/>
-      <c r="AD170" s="23"/>
+      <c r="AD170" s="64"/>
       <c r="AF170" s="39"/>
       <c r="AH170" s="21">
         <v>0</v>
@@ -22361,7 +22433,7 @@
       <c r="AC171" s="19">
         <v>4</v>
       </c>
-      <c r="AD171" s="23"/>
+      <c r="AD171" s="64"/>
       <c r="AF171" s="39"/>
       <c r="AH171" s="21">
         <v>0</v>
@@ -22433,7 +22505,7 @@
         <v>1</v>
       </c>
       <c r="S172" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T172" s="22">
         <v>0</v>
@@ -22442,7 +22514,7 @@
         <v>5</v>
       </c>
       <c r="V172" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W172" s="23"/>
       <c r="X172" s="22">
@@ -22459,7 +22531,7 @@
       </c>
       <c r="AB172" s="23"/>
       <c r="AC172" s="23"/>
-      <c r="AD172" s="23"/>
+      <c r="AD172" s="64"/>
       <c r="AF172" s="39"/>
       <c r="AH172" s="21">
         <v>1</v>
@@ -22531,7 +22603,7 @@
         <v>1</v>
       </c>
       <c r="T173" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U173" s="22">
         <v>4</v>
@@ -22556,7 +22628,7 @@
         <v>6</v>
       </c>
       <c r="AC173" s="23"/>
-      <c r="AD173" s="23"/>
+      <c r="AD173" s="64"/>
       <c r="AF173" s="39"/>
       <c r="AH173" s="21">
         <v>0</v>
@@ -22637,10 +22709,10 @@
         <v>3</v>
       </c>
       <c r="U174" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V174" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W174" s="23"/>
       <c r="X174" s="21">
@@ -22657,7 +22729,7 @@
       </c>
       <c r="AB174" s="23"/>
       <c r="AC174" s="23"/>
-      <c r="AD174" s="23"/>
+      <c r="AD174" s="64"/>
       <c r="AF174" s="39"/>
       <c r="AH174" s="21">
         <v>1</v>
@@ -22729,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="S175" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T175" s="19">
         <v>1</v>
@@ -22737,7 +22809,7 @@
       <c r="U175" s="19">
         <v>1</v>
       </c>
-      <c r="V175" s="20">
+      <c r="V175" s="19">
         <v>7</v>
       </c>
       <c r="W175" s="20"/>
@@ -22753,9 +22825,11 @@
       <c r="AA175" s="19">
         <v>2</v>
       </c>
-      <c r="AB175" s="20"/>
+      <c r="AB175" s="22">
+        <v>7</v>
+      </c>
       <c r="AC175" s="20"/>
-      <c r="AD175" s="23"/>
+      <c r="AD175" s="64"/>
       <c r="AF175" s="39"/>
       <c r="AH175" s="21">
         <v>0</v>
@@ -22818,7 +22892,7 @@
       </c>
       <c r="P176" s="22"/>
       <c r="Q176" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R176" s="19">
         <v>3</v>
@@ -22833,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -22850,7 +22924,7 @@
       </c>
       <c r="AB176" s="20"/>
       <c r="AC176" s="20"/>
-      <c r="AD176" s="23"/>
+      <c r="AD176" s="64"/>
       <c r="AF176" s="39"/>
       <c r="AH176" s="21">
         <v>0</v>
@@ -22909,34 +22983,36 @@
         <v>4</v>
       </c>
       <c r="P177" s="22"/>
-      <c r="Q177" s="23">
+      <c r="Q177" s="22">
         <v>5</v>
       </c>
       <c r="R177" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S177" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T177" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U177" s="22">
         <v>4</v>
       </c>
       <c r="V177" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W177" s="23"/>
       <c r="X177" s="22">
         <v>4</v>
       </c>
-      <c r="Y177" s="23"/>
+      <c r="Y177" s="22">
+        <v>5</v>
+      </c>
       <c r="Z177" s="23"/>
       <c r="AA177" s="23"/>
       <c r="AB177" s="23"/>
       <c r="AC177" s="23"/>
-      <c r="AD177" s="23"/>
+      <c r="AD177" s="64"/>
       <c r="AF177" s="39"/>
       <c r="AH177" s="21">
         <v>0</v>
@@ -23008,7 +23084,7 @@
         <v>0</v>
       </c>
       <c r="T178" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U178" s="22">
         <v>1</v>
@@ -23033,7 +23109,7 @@
         <v>2</v>
       </c>
       <c r="AC178" s="39"/>
-      <c r="AD178" s="23"/>
+      <c r="AD178" s="64"/>
       <c r="AF178" s="39"/>
       <c r="AH178" s="21">
         <v>1</v>
@@ -23138,7 +23214,7 @@
       <c r="AC179" s="21">
         <v>1</v>
       </c>
-      <c r="AD179" s="23"/>
+      <c r="AD179" s="64"/>
       <c r="AF179" s="39"/>
     </row>
     <row r="180" spans="1:43" s="21" customFormat="1">
@@ -23180,33 +23256,35 @@
       </c>
       <c r="P180" s="22"/>
       <c r="Q180" s="23">
-        <v>2</v>
-      </c>
-      <c r="R180" s="23">
+        <v>3</v>
+      </c>
+      <c r="R180" s="22">
         <v>2</v>
       </c>
       <c r="S180" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T180" s="22">
         <v>1</v>
       </c>
       <c r="U180" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V180" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W180" s="23"/>
       <c r="X180" s="21">
         <v>1</v>
       </c>
-      <c r="Y180" s="39"/>
+      <c r="Y180" s="21">
+        <v>2</v>
+      </c>
       <c r="Z180" s="39"/>
       <c r="AA180" s="39"/>
       <c r="AB180" s="39"/>
       <c r="AC180" s="39"/>
-      <c r="AD180" s="23"/>
+      <c r="AD180" s="64"/>
       <c r="AF180" s="39"/>
     </row>
     <row r="181" spans="1:43" s="21" customFormat="1">
@@ -23248,12 +23326,12 @@
       </c>
       <c r="P181" s="22"/>
       <c r="Q181" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R181" s="20">
-        <v>1</v>
-      </c>
-      <c r="S181" s="20">
+        <v>2</v>
+      </c>
+      <c r="S181" s="19">
         <v>1</v>
       </c>
       <c r="T181" s="19">
@@ -23263,7 +23341,7 @@
         <v>0</v>
       </c>
       <c r="V181" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W181" s="20"/>
       <c r="X181" s="22">
@@ -23272,11 +23350,13 @@
       <c r="Y181" s="22">
         <v>0</v>
       </c>
-      <c r="Z181" s="20"/>
+      <c r="Z181" s="22">
+        <v>1</v>
+      </c>
       <c r="AA181" s="20"/>
       <c r="AB181" s="20"/>
       <c r="AC181" s="20"/>
-      <c r="AD181" s="23"/>
+      <c r="AD181" s="64"/>
       <c r="AF181" s="39"/>
     </row>
     <row r="182" spans="1:43" s="21" customFormat="1">
@@ -23318,49 +23398,101 @@
       </c>
       <c r="P182" s="22"/>
       <c r="Q182" s="23">
-        <v>0</v>
-      </c>
-      <c r="R182" s="23">
-        <v>0</v>
-      </c>
-      <c r="S182" s="23">
+        <v>1</v>
+      </c>
+      <c r="R182" s="22">
+        <v>0</v>
+      </c>
+      <c r="S182" s="22">
         <v>0</v>
       </c>
       <c r="T182" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U182" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V182" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W182" s="23"/>
-      <c r="X182" s="23"/>
-      <c r="Y182" s="23"/>
+      <c r="X182" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y182" s="22">
+        <v>0</v>
+      </c>
       <c r="Z182" s="23"/>
       <c r="AA182" s="23"/>
       <c r="AB182" s="23"/>
       <c r="AC182" s="23"/>
-      <c r="AD182" s="23"/>
+      <c r="AD182" s="64"/>
       <c r="AF182" s="39"/>
     </row>
     <row r="183" spans="1:43" s="21" customFormat="1">
+      <c r="A183" s="21">
+        <v>2</v>
+      </c>
+      <c r="B183" s="21">
+        <v>5</v>
+      </c>
+      <c r="C183" s="21">
+        <v>1</v>
+      </c>
+      <c r="D183" s="21">
+        <v>0</v>
+      </c>
+      <c r="E183" s="21">
+        <v>0</v>
+      </c>
+      <c r="F183" s="21">
+        <v>7</v>
+      </c>
+      <c r="I183" s="21">
+        <v>0</v>
+      </c>
+      <c r="J183" s="21">
+        <v>0</v>
+      </c>
+      <c r="K183" s="21">
+        <v>1</v>
+      </c>
+      <c r="L183" s="21">
+        <v>2</v>
+      </c>
+      <c r="M183" s="21">
+        <v>5</v>
+      </c>
+      <c r="N183" s="21">
+        <v>7</v>
+      </c>
       <c r="P183" s="22"/>
-      <c r="Q183" s="23"/>
-      <c r="R183" s="23"/>
-      <c r="S183" s="23"/>
-      <c r="T183" s="23"/>
-      <c r="U183" s="23"/>
-      <c r="V183" s="23"/>
+      <c r="Q183" s="23">
+        <v>0</v>
+      </c>
+      <c r="R183" s="23">
+        <v>0</v>
+      </c>
+      <c r="S183" s="23">
+        <v>0</v>
+      </c>
+      <c r="T183" s="23">
+        <v>0</v>
+      </c>
+      <c r="U183" s="23">
+        <v>0</v>
+      </c>
+      <c r="V183" s="23">
+        <v>0</v>
+      </c>
       <c r="W183" s="23"/>
-      <c r="X183" s="23"/>
-      <c r="Y183" s="23"/>
-      <c r="Z183" s="23"/>
-      <c r="AA183" s="23"/>
-      <c r="AB183" s="23"/>
-      <c r="AC183" s="23"/>
-      <c r="AD183" s="23"/>
+      <c r="X183" s="39"/>
+      <c r="Y183" s="39"/>
+      <c r="Z183" s="39"/>
+      <c r="AA183" s="39"/>
+      <c r="AB183" s="39"/>
+      <c r="AC183" s="39"/>
+      <c r="AD183" s="64"/>
       <c r="AF183" s="39"/>
     </row>
     <row r="184" spans="1:43" s="21" customFormat="1">
@@ -23372,13 +23504,13 @@
       <c r="U184" s="23"/>
       <c r="V184" s="23"/>
       <c r="W184" s="23"/>
-      <c r="X184" s="39"/>
-      <c r="Y184" s="39"/>
-      <c r="Z184" s="39"/>
-      <c r="AA184" s="39"/>
-      <c r="AB184" s="39"/>
-      <c r="AC184" s="39"/>
-      <c r="AD184" s="23"/>
+      <c r="X184" s="23"/>
+      <c r="Y184" s="23"/>
+      <c r="Z184" s="23"/>
+      <c r="AA184" s="23"/>
+      <c r="AB184" s="23"/>
+      <c r="AC184" s="23"/>
+      <c r="AD184" s="64"/>
       <c r="AF184" s="39"/>
     </row>
     <row r="185" spans="1:43" s="21" customFormat="1">
@@ -23396,7 +23528,7 @@
       <c r="AA185" s="23"/>
       <c r="AB185" s="23"/>
       <c r="AC185" s="23"/>
-      <c r="AD185" s="23"/>
+      <c r="AD185" s="64"/>
       <c r="AF185" s="39"/>
     </row>
     <row r="186" spans="1:43" s="21" customFormat="1">
@@ -23407,14 +23539,14 @@
       <c r="T186" s="23"/>
       <c r="U186" s="23"/>
       <c r="V186" s="23"/>
-      <c r="W186" s="23"/>
-      <c r="X186" s="23"/>
-      <c r="Y186" s="23"/>
-      <c r="Z186" s="23"/>
-      <c r="AA186" s="23"/>
-      <c r="AB186" s="23"/>
-      <c r="AC186" s="23"/>
-      <c r="AD186" s="23"/>
+      <c r="W186" s="39"/>
+      <c r="X186" s="39"/>
+      <c r="Y186" s="39"/>
+      <c r="Z186" s="39"/>
+      <c r="AA186" s="39"/>
+      <c r="AB186" s="39"/>
+      <c r="AC186" s="39"/>
+      <c r="AD186" s="64"/>
       <c r="AF186" s="39"/>
     </row>
     <row r="187" spans="1:43" s="21" customFormat="1">
@@ -23432,7 +23564,7 @@
       <c r="AA187" s="39"/>
       <c r="AB187" s="39"/>
       <c r="AC187" s="39"/>
-      <c r="AD187" s="23"/>
+      <c r="AD187" s="64"/>
       <c r="AF187" s="39"/>
     </row>
     <row r="188" spans="1:43" s="21" customFormat="1">
@@ -23450,7 +23582,7 @@
       <c r="AA188" s="39"/>
       <c r="AB188" s="39"/>
       <c r="AC188" s="39"/>
-      <c r="AD188" s="23"/>
+      <c r="AD188" s="64"/>
       <c r="AF188" s="39"/>
     </row>
     <row r="189" spans="1:43" s="21" customFormat="1">
@@ -23468,11 +23600,10 @@
       <c r="AA189" s="39"/>
       <c r="AB189" s="39"/>
       <c r="AC189" s="39"/>
-      <c r="AD189" s="23"/>
+      <c r="AD189" s="64"/>
       <c r="AF189" s="39"/>
     </row>
     <row r="190" spans="1:43" s="21" customFormat="1">
-      <c r="P190" s="22"/>
       <c r="Q190" s="23"/>
       <c r="R190" s="23"/>
       <c r="S190" s="23"/>
@@ -23486,7 +23617,7 @@
       <c r="AA190" s="39"/>
       <c r="AB190" s="39"/>
       <c r="AC190" s="39"/>
-      <c r="AD190" s="23"/>
+      <c r="AD190" s="64"/>
       <c r="AF190" s="39"/>
     </row>
     <row r="191" spans="1:43" s="21" customFormat="1">
@@ -23496,76 +23627,76 @@
       <c r="T191" s="23"/>
       <c r="U191" s="23"/>
       <c r="V191" s="23"/>
-      <c r="W191" s="39"/>
+      <c r="W191" s="23"/>
       <c r="X191" s="39"/>
       <c r="Y191" s="39"/>
-      <c r="Z191" s="39"/>
-      <c r="AA191" s="39"/>
-      <c r="AB191" s="39"/>
-      <c r="AC191" s="39"/>
-      <c r="AD191" s="23"/>
+      <c r="Z191" s="23"/>
+      <c r="AA191" s="23"/>
+      <c r="AB191" s="23"/>
+      <c r="AC191" s="23"/>
+      <c r="AD191" s="64"/>
       <c r="AF191" s="39"/>
     </row>
     <row r="192" spans="1:43" s="21" customFormat="1">
-      <c r="Q192" s="23"/>
-      <c r="R192" s="23"/>
-      <c r="S192" s="23"/>
-      <c r="T192" s="23"/>
-      <c r="U192" s="23"/>
-      <c r="V192" s="23"/>
-      <c r="W192" s="23"/>
-      <c r="X192" s="39"/>
-      <c r="Y192" s="39"/>
-      <c r="Z192" s="23"/>
-      <c r="AA192" s="23"/>
-      <c r="AB192" s="23"/>
-      <c r="AC192" s="23"/>
-      <c r="AD192" s="23"/>
+      <c r="P192" s="22"/>
+      <c r="Q192" s="20"/>
+      <c r="R192" s="20"/>
+      <c r="S192" s="20"/>
+      <c r="T192" s="20"/>
+      <c r="U192" s="20"/>
+      <c r="V192" s="20"/>
+      <c r="W192" s="15"/>
+      <c r="X192" s="15"/>
+      <c r="Y192" s="15"/>
+      <c r="Z192" s="15"/>
+      <c r="AA192" s="15"/>
+      <c r="AB192" s="15"/>
+      <c r="AC192" s="15"/>
+      <c r="AD192" s="64"/>
       <c r="AF192" s="39"/>
     </row>
     <row r="193" spans="16:32" s="21" customFormat="1">
       <c r="P193" s="22"/>
-      <c r="Q193" s="20"/>
-      <c r="R193" s="20"/>
-      <c r="S193" s="20"/>
-      <c r="T193" s="20"/>
-      <c r="U193" s="20"/>
-      <c r="V193" s="20"/>
-      <c r="W193" s="15"/>
-      <c r="X193" s="15"/>
-      <c r="Y193" s="15"/>
-      <c r="Z193" s="15"/>
-      <c r="AA193" s="15"/>
-      <c r="AB193" s="15"/>
-      <c r="AC193" s="15"/>
-      <c r="AD193" s="23"/>
+      <c r="Q193" s="23"/>
+      <c r="R193" s="23"/>
+      <c r="S193" s="23"/>
+      <c r="T193" s="23"/>
+      <c r="U193" s="23"/>
+      <c r="V193" s="23"/>
+      <c r="W193" s="23"/>
+      <c r="X193" s="23"/>
+      <c r="Y193" s="23"/>
+      <c r="Z193" s="23"/>
+      <c r="AA193" s="23"/>
+      <c r="AB193" s="23"/>
+      <c r="AC193" s="23"/>
+      <c r="AD193" s="64"/>
       <c r="AF193" s="39"/>
     </row>
-    <row r="194" spans="16:32" s="21" customFormat="1">
-      <c r="P194" s="22"/>
-      <c r="Q194" s="23"/>
-      <c r="R194" s="23"/>
-      <c r="S194" s="23"/>
-      <c r="T194" s="23"/>
-      <c r="U194" s="23"/>
-      <c r="V194" s="23"/>
-      <c r="W194" s="23"/>
-      <c r="X194" s="23"/>
-      <c r="Y194" s="23"/>
-      <c r="Z194" s="23"/>
-      <c r="AA194" s="23"/>
-      <c r="AB194" s="23"/>
-      <c r="AC194" s="23"/>
-      <c r="AD194" s="23"/>
+    <row r="194" spans="16:32">
+      <c r="Q194" s="39"/>
+      <c r="R194" s="39"/>
+      <c r="S194" s="39"/>
+      <c r="T194" s="39"/>
+      <c r="U194" s="39"/>
+      <c r="V194" s="39"/>
+      <c r="W194" s="39"/>
+      <c r="X194" s="39"/>
+      <c r="Y194" s="39"/>
+      <c r="Z194" s="39"/>
+      <c r="AA194" s="39"/>
+      <c r="AB194" s="39"/>
+      <c r="AC194" s="39"/>
       <c r="AF194" s="39"/>
     </row>
-    <row r="195" spans="16:32">
-      <c r="Q195" s="39"/>
-      <c r="R195" s="39"/>
-      <c r="S195" s="39"/>
-      <c r="T195" s="39"/>
-      <c r="U195" s="39"/>
-      <c r="V195" s="39"/>
+    <row r="195" spans="16:32" s="21" customFormat="1">
+      <c r="P195" s="22"/>
+      <c r="Q195" s="23"/>
+      <c r="R195" s="23"/>
+      <c r="S195" s="23"/>
+      <c r="T195" s="23"/>
+      <c r="U195" s="23"/>
+      <c r="V195" s="23"/>
       <c r="W195" s="39"/>
       <c r="X195" s="39"/>
       <c r="Y195" s="39"/>
@@ -23573,6 +23704,7 @@
       <c r="AA195" s="39"/>
       <c r="AB195" s="39"/>
       <c r="AC195" s="39"/>
+      <c r="AD195" s="64"/>
       <c r="AF195" s="39"/>
     </row>
     <row r="196" spans="16:32" s="21" customFormat="1">
@@ -23583,14 +23715,14 @@
       <c r="T196" s="23"/>
       <c r="U196" s="23"/>
       <c r="V196" s="23"/>
-      <c r="W196" s="39"/>
-      <c r="X196" s="39"/>
-      <c r="Y196" s="39"/>
-      <c r="Z196" s="39"/>
-      <c r="AA196" s="39"/>
-      <c r="AB196" s="39"/>
-      <c r="AC196" s="39"/>
-      <c r="AD196" s="23"/>
+      <c r="W196" s="23"/>
+      <c r="X196" s="23"/>
+      <c r="Y196" s="23"/>
+      <c r="Z196" s="23"/>
+      <c r="AA196" s="23"/>
+      <c r="AB196" s="23"/>
+      <c r="AC196" s="23"/>
+      <c r="AD196" s="64"/>
       <c r="AF196" s="39"/>
     </row>
     <row r="197" spans="16:32" s="21" customFormat="1">
@@ -23608,7 +23740,7 @@
       <c r="AA197" s="23"/>
       <c r="AB197" s="23"/>
       <c r="AC197" s="23"/>
-      <c r="AD197" s="23"/>
+      <c r="AD197" s="64"/>
       <c r="AF197" s="39"/>
     </row>
     <row r="198" spans="16:32" s="21" customFormat="1">
@@ -23628,7 +23760,7 @@
       <c r="AC198" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AD198" s="23"/>
+      <c r="AD198" s="64"/>
       <c r="AF198" s="39"/>
     </row>
     <row r="199" spans="16:32" s="21" customFormat="1">
@@ -23646,7 +23778,7 @@
       <c r="AA199" s="23"/>
       <c r="AB199" s="23"/>
       <c r="AC199" s="23"/>
-      <c r="AD199" s="23"/>
+      <c r="AD199" s="64"/>
       <c r="AF199" s="39"/>
     </row>
     <row r="200" spans="16:32" s="21" customFormat="1">
@@ -23663,7 +23795,7 @@
       <c r="AA200" s="23"/>
       <c r="AB200" s="23"/>
       <c r="AC200" s="23"/>
-      <c r="AD200" s="23"/>
+      <c r="AD200" s="64"/>
       <c r="AF200" s="39"/>
     </row>
     <row r="201" spans="16:32" s="21" customFormat="1">
@@ -23680,7 +23812,7 @@
       <c r="AA201" s="39"/>
       <c r="AB201" s="39"/>
       <c r="AC201" s="39"/>
-      <c r="AD201" s="23"/>
+      <c r="AD201" s="64"/>
       <c r="AF201" s="39"/>
     </row>
     <row r="202" spans="16:32" s="21" customFormat="1">
@@ -23697,7 +23829,7 @@
       <c r="AA202" s="39"/>
       <c r="AB202" s="39"/>
       <c r="AC202" s="39"/>
-      <c r="AD202" s="23"/>
+      <c r="AD202" s="64"/>
       <c r="AF202" s="39"/>
     </row>
     <row r="203" spans="16:32" s="21" customFormat="1">
@@ -23714,7 +23846,7 @@
       <c r="AA203" s="23"/>
       <c r="AB203" s="23"/>
       <c r="AC203" s="23"/>
-      <c r="AD203" s="23"/>
+      <c r="AD203" s="64"/>
       <c r="AF203" s="39"/>
     </row>
     <row r="204" spans="16:32" s="21" customFormat="1">
@@ -23732,7 +23864,7 @@
       <c r="AA204" s="39"/>
       <c r="AB204" s="39"/>
       <c r="AC204" s="39"/>
-      <c r="AD204" s="23"/>
+      <c r="AD204" s="64"/>
       <c r="AF204" s="39"/>
     </row>
     <row r="205" spans="16:32" s="21" customFormat="1">
@@ -23749,7 +23881,7 @@
       <c r="AA205" s="39"/>
       <c r="AB205" s="39"/>
       <c r="AC205" s="39"/>
-      <c r="AD205" s="23"/>
+      <c r="AD205" s="64"/>
       <c r="AF205" s="39"/>
     </row>
     <row r="206" spans="16:32" s="21" customFormat="1">
@@ -23766,7 +23898,7 @@
       <c r="AA206" s="39"/>
       <c r="AB206" s="39"/>
       <c r="AC206" s="39"/>
-      <c r="AD206" s="23"/>
+      <c r="AD206" s="64"/>
       <c r="AF206" s="39"/>
     </row>
     <row r="207" spans="16:32" s="21" customFormat="1">
@@ -23783,7 +23915,7 @@
       <c r="AA207" s="23"/>
       <c r="AB207" s="23"/>
       <c r="AC207" s="23"/>
-      <c r="AD207" s="23"/>
+      <c r="AD207" s="64"/>
       <c r="AF207" s="39"/>
     </row>
     <row r="208" spans="16:32" s="21" customFormat="1">
@@ -23801,7 +23933,7 @@
       <c r="AA208" s="39"/>
       <c r="AB208" s="39"/>
       <c r="AC208" s="39"/>
-      <c r="AD208" s="23"/>
+      <c r="AD208" s="64"/>
       <c r="AF208" s="39"/>
     </row>
     <row r="209" spans="16:32" s="21" customFormat="1">
@@ -23819,7 +23951,7 @@
       <c r="AA209" s="23"/>
       <c r="AB209" s="23"/>
       <c r="AC209" s="23"/>
-      <c r="AD209" s="23"/>
+      <c r="AD209" s="64"/>
       <c r="AF209" s="39"/>
     </row>
     <row r="210" spans="16:32" s="21" customFormat="1">
@@ -23837,7 +23969,7 @@
       <c r="AA210" s="39"/>
       <c r="AB210" s="39"/>
       <c r="AC210" s="39"/>
-      <c r="AD210" s="23"/>
+      <c r="AD210" s="64"/>
       <c r="AF210" s="39"/>
     </row>
     <row r="211" spans="16:32" s="21" customFormat="1">
@@ -23855,7 +23987,7 @@
       <c r="AA211" s="23"/>
       <c r="AB211" s="23"/>
       <c r="AC211" s="23"/>
-      <c r="AD211" s="23"/>
+      <c r="AD211" s="64"/>
       <c r="AF211" s="39"/>
     </row>
     <row r="212" spans="16:32" s="21" customFormat="1">
@@ -23873,7 +24005,7 @@
       <c r="AA212" s="39"/>
       <c r="AB212" s="39"/>
       <c r="AC212" s="39"/>
-      <c r="AD212" s="23"/>
+      <c r="AD212" s="64"/>
       <c r="AF212" s="39"/>
     </row>
     <row r="213" spans="16:32" s="21" customFormat="1">
@@ -23890,7 +24022,7 @@
       <c r="AA213" s="39"/>
       <c r="AB213" s="39"/>
       <c r="AC213" s="39"/>
-      <c r="AD213" s="23"/>
+      <c r="AD213" s="64"/>
       <c r="AF213" s="39"/>
     </row>
     <row r="214" spans="16:32" s="21" customFormat="1">
@@ -23907,7 +24039,7 @@
       <c r="AA214" s="23"/>
       <c r="AB214" s="23"/>
       <c r="AC214" s="23"/>
-      <c r="AD214" s="23"/>
+      <c r="AD214" s="64"/>
       <c r="AF214" s="39"/>
     </row>
     <row r="215" spans="16:32" s="21" customFormat="1">
@@ -23925,7 +24057,7 @@
       <c r="AA215" s="39"/>
       <c r="AB215" s="39"/>
       <c r="AC215" s="39"/>
-      <c r="AD215" s="23"/>
+      <c r="AD215" s="64"/>
       <c r="AF215" s="39"/>
     </row>
     <row r="216" spans="16:32" s="21" customFormat="1">
@@ -23943,7 +24075,7 @@
       <c r="AA216" s="39"/>
       <c r="AB216" s="39"/>
       <c r="AC216" s="39"/>
-      <c r="AD216" s="23"/>
+      <c r="AD216" s="64"/>
       <c r="AF216" s="39"/>
     </row>
     <row r="217" spans="16:32" s="21" customFormat="1">
@@ -23960,7 +24092,7 @@
       <c r="AA217" s="39"/>
       <c r="AB217" s="39"/>
       <c r="AC217" s="39"/>
-      <c r="AD217" s="23"/>
+      <c r="AD217" s="64"/>
       <c r="AF217" s="39"/>
     </row>
     <row r="218" spans="16:32" s="21" customFormat="1">
@@ -23977,7 +24109,7 @@
       <c r="AA218" s="23"/>
       <c r="AB218" s="23"/>
       <c r="AC218" s="23"/>
-      <c r="AD218" s="23"/>
+      <c r="AD218" s="64"/>
       <c r="AF218" s="39"/>
     </row>
     <row r="219" spans="16:32" s="21" customFormat="1">
@@ -23995,7 +24127,7 @@
       <c r="AA219" s="39"/>
       <c r="AB219" s="39"/>
       <c r="AC219" s="39"/>
-      <c r="AD219" s="23"/>
+      <c r="AD219" s="64"/>
       <c r="AF219" s="39"/>
     </row>
     <row r="220" spans="16:32" s="21" customFormat="1">
@@ -24012,7 +24144,7 @@
       <c r="AA220" s="23"/>
       <c r="AB220" s="23"/>
       <c r="AC220" s="23"/>
-      <c r="AD220" s="23"/>
+      <c r="AD220" s="64"/>
       <c r="AF220" s="39"/>
     </row>
     <row r="221" spans="16:32" s="21" customFormat="1">
@@ -24029,7 +24161,7 @@
       <c r="AA221" s="39"/>
       <c r="AB221" s="39"/>
       <c r="AC221" s="39"/>
-      <c r="AD221" s="23"/>
+      <c r="AD221" s="64"/>
       <c r="AF221" s="39"/>
     </row>
     <row r="222" spans="16:32" s="21" customFormat="1">
@@ -24046,7 +24178,7 @@
       <c r="AA222" s="39"/>
       <c r="AB222" s="39"/>
       <c r="AC222" s="39"/>
-      <c r="AD222" s="23"/>
+      <c r="AD222" s="64"/>
       <c r="AF222" s="39"/>
     </row>
     <row r="223" spans="16:32" s="21" customFormat="1">
@@ -24063,7 +24195,7 @@
       <c r="AA223" s="23"/>
       <c r="AB223" s="23"/>
       <c r="AC223" s="23"/>
-      <c r="AD223" s="23"/>
+      <c r="AD223" s="64"/>
       <c r="AF223" s="39"/>
     </row>
     <row r="224" spans="16:32" s="21" customFormat="1">
@@ -24081,7 +24213,7 @@
       <c r="AA224" s="39"/>
       <c r="AB224" s="39"/>
       <c r="AC224" s="39"/>
-      <c r="AD224" s="23"/>
+      <c r="AD224" s="64"/>
       <c r="AF224" s="39"/>
     </row>
     <row r="225" spans="16:32" s="21" customFormat="1">
@@ -24098,7 +24230,7 @@
       <c r="AA225" s="39"/>
       <c r="AB225" s="39"/>
       <c r="AC225" s="39"/>
-      <c r="AD225" s="23"/>
+      <c r="AD225" s="64"/>
       <c r="AF225" s="39"/>
     </row>
     <row r="226" spans="16:32" s="21" customFormat="1">
@@ -24115,7 +24247,7 @@
       <c r="AA226" s="39"/>
       <c r="AB226" s="39"/>
       <c r="AC226" s="39"/>
-      <c r="AD226" s="23"/>
+      <c r="AD226" s="64"/>
       <c r="AF226" s="39"/>
     </row>
     <row r="227" spans="16:32" s="21" customFormat="1">
@@ -24132,7 +24264,7 @@
       <c r="AA227" s="23"/>
       <c r="AB227" s="23"/>
       <c r="AC227" s="23"/>
-      <c r="AD227" s="23"/>
+      <c r="AD227" s="64"/>
       <c r="AF227" s="39"/>
     </row>
     <row r="228" spans="16:32" s="21" customFormat="1">
@@ -24149,7 +24281,7 @@
       <c r="AA228" s="39"/>
       <c r="AB228" s="39"/>
       <c r="AC228" s="39"/>
-      <c r="AD228" s="23"/>
+      <c r="AD228" s="64"/>
       <c r="AF228" s="39"/>
     </row>
     <row r="229" spans="16:32" s="21" customFormat="1">
@@ -24166,7 +24298,7 @@
       <c r="AA229" s="39"/>
       <c r="AB229" s="39"/>
       <c r="AC229" s="39"/>
-      <c r="AD229" s="23"/>
+      <c r="AD229" s="64"/>
       <c r="AF229" s="39"/>
     </row>
     <row r="230" spans="16:32" s="21" customFormat="1">
@@ -24183,7 +24315,7 @@
       <c r="AA230" s="39"/>
       <c r="AB230" s="39"/>
       <c r="AC230" s="39"/>
-      <c r="AD230" s="23"/>
+      <c r="AD230" s="64"/>
       <c r="AF230" s="39"/>
     </row>
     <row r="231" spans="16:32" s="21" customFormat="1">
@@ -24200,7 +24332,7 @@
       <c r="AA231" s="39"/>
       <c r="AB231" s="39"/>
       <c r="AC231" s="39"/>
-      <c r="AD231" s="23"/>
+      <c r="AD231" s="64"/>
       <c r="AF231" s="39"/>
     </row>
     <row r="232" spans="16:32" s="21" customFormat="1">
@@ -24217,7 +24349,7 @@
       <c r="AA232" s="39"/>
       <c r="AB232" s="39"/>
       <c r="AC232" s="39"/>
-      <c r="AD232" s="23"/>
+      <c r="AD232" s="64"/>
       <c r="AF232" s="39"/>
     </row>
     <row r="233" spans="16:32" s="21" customFormat="1">
@@ -24234,7 +24366,7 @@
       <c r="AA233" s="23"/>
       <c r="AB233" s="23"/>
       <c r="AC233" s="23"/>
-      <c r="AD233" s="23"/>
+      <c r="AD233" s="64"/>
       <c r="AF233" s="39"/>
     </row>
     <row r="234" spans="16:32" s="21" customFormat="1">
@@ -24251,7 +24383,7 @@
       <c r="AA234" s="23"/>
       <c r="AB234" s="23"/>
       <c r="AC234" s="23"/>
-      <c r="AD234" s="23"/>
+      <c r="AD234" s="64"/>
       <c r="AF234" s="39"/>
     </row>
     <row r="235" spans="16:32" s="21" customFormat="1">
@@ -24269,7 +24401,7 @@
       <c r="AA235" s="39"/>
       <c r="AB235" s="39"/>
       <c r="AC235" s="39"/>
-      <c r="AD235" s="23"/>
+      <c r="AD235" s="64"/>
       <c r="AF235" s="39"/>
     </row>
     <row r="236" spans="16:32" s="21" customFormat="1">
@@ -24286,7 +24418,7 @@
       <c r="AA236" s="39"/>
       <c r="AB236" s="39"/>
       <c r="AC236" s="39"/>
-      <c r="AD236" s="23"/>
+      <c r="AD236" s="64"/>
       <c r="AF236" s="39"/>
     </row>
     <row r="237" spans="16:32" s="21" customFormat="1">
@@ -24303,7 +24435,7 @@
       <c r="AA237" s="23"/>
       <c r="AB237" s="23"/>
       <c r="AC237" s="23"/>
-      <c r="AD237" s="23"/>
+      <c r="AD237" s="64"/>
       <c r="AF237" s="39"/>
     </row>
     <row r="238" spans="16:32" s="21" customFormat="1">
@@ -24321,7 +24453,7 @@
       <c r="AA238" s="39"/>
       <c r="AB238" s="39"/>
       <c r="AC238" s="39"/>
-      <c r="AD238" s="23"/>
+      <c r="AD238" s="64"/>
       <c r="AF238" s="39"/>
     </row>
     <row r="239" spans="16:32" s="21" customFormat="1">
@@ -24338,7 +24470,7 @@
       <c r="AA239" s="39"/>
       <c r="AB239" s="39"/>
       <c r="AC239" s="39"/>
-      <c r="AD239" s="23"/>
+      <c r="AD239" s="64"/>
       <c r="AF239" s="39"/>
     </row>
     <row r="240" spans="16:32" s="21" customFormat="1">
@@ -24355,7 +24487,7 @@
       <c r="AA240" s="23"/>
       <c r="AB240" s="23"/>
       <c r="AC240" s="23"/>
-      <c r="AD240" s="23"/>
+      <c r="AD240" s="64"/>
       <c r="AF240" s="39"/>
     </row>
     <row r="241" spans="16:32" s="21" customFormat="1">
@@ -24373,7 +24505,7 @@
       <c r="AA241" s="39"/>
       <c r="AB241" s="39"/>
       <c r="AC241" s="39"/>
-      <c r="AD241" s="23"/>
+      <c r="AD241" s="64"/>
       <c r="AF241" s="39"/>
     </row>
     <row r="242" spans="16:32" s="21" customFormat="1">
@@ -24391,7 +24523,7 @@
       <c r="AA242" s="39"/>
       <c r="AB242" s="39"/>
       <c r="AC242" s="39"/>
-      <c r="AD242" s="23"/>
+      <c r="AD242" s="64"/>
       <c r="AF242" s="39"/>
     </row>
     <row r="243" spans="16:32" s="21" customFormat="1">
@@ -24408,7 +24540,7 @@
       <c r="AA243" s="39"/>
       <c r="AB243" s="39"/>
       <c r="AC243" s="39"/>
-      <c r="AD243" s="23"/>
+      <c r="AD243" s="64"/>
       <c r="AF243" s="39"/>
     </row>
     <row r="244" spans="16:32" s="21" customFormat="1">
@@ -24425,7 +24557,7 @@
       <c r="AA244" s="23"/>
       <c r="AB244" s="23"/>
       <c r="AC244" s="23"/>
-      <c r="AD244" s="23"/>
+      <c r="AD244" s="64"/>
       <c r="AF244" s="39"/>
     </row>
     <row r="245" spans="16:32" s="21" customFormat="1">
@@ -24443,7 +24575,7 @@
       <c r="AA245" s="39"/>
       <c r="AB245" s="39"/>
       <c r="AC245" s="39"/>
-      <c r="AD245" s="23"/>
+      <c r="AD245" s="64"/>
       <c r="AF245" s="39"/>
     </row>
     <row r="246" spans="16:32" s="21" customFormat="1">
@@ -24460,7 +24592,7 @@
       <c r="AA246" s="23"/>
       <c r="AB246" s="23"/>
       <c r="AC246" s="23"/>
-      <c r="AD246" s="23"/>
+      <c r="AD246" s="64"/>
       <c r="AF246" s="39"/>
     </row>
     <row r="247" spans="16:32" s="21" customFormat="1">
@@ -24477,7 +24609,7 @@
       <c r="AA247" s="39"/>
       <c r="AB247" s="39"/>
       <c r="AC247" s="39"/>
-      <c r="AD247" s="23"/>
+      <c r="AD247" s="64"/>
       <c r="AF247" s="39"/>
     </row>
     <row r="248" spans="16:32" s="21" customFormat="1">
@@ -24494,7 +24626,7 @@
       <c r="AA248" s="39"/>
       <c r="AB248" s="39"/>
       <c r="AC248" s="39"/>
-      <c r="AD248" s="23"/>
+      <c r="AD248" s="64"/>
       <c r="AF248" s="39"/>
     </row>
     <row r="249" spans="16:32" s="21" customFormat="1">
@@ -24511,7 +24643,7 @@
       <c r="AA249" s="39"/>
       <c r="AB249" s="39"/>
       <c r="AC249" s="39"/>
-      <c r="AD249" s="23"/>
+      <c r="AD249" s="64"/>
       <c r="AF249" s="39"/>
     </row>
     <row r="250" spans="16:32" s="21" customFormat="1">
@@ -24528,7 +24660,7 @@
       <c r="AA250" s="39"/>
       <c r="AB250" s="39"/>
       <c r="AC250" s="39"/>
-      <c r="AD250" s="23"/>
+      <c r="AD250" s="64"/>
       <c r="AF250" s="39"/>
     </row>
     <row r="251" spans="16:32" s="21" customFormat="1">
@@ -24545,7 +24677,7 @@
       <c r="AA251" s="39"/>
       <c r="AB251" s="39"/>
       <c r="AC251" s="39"/>
-      <c r="AD251" s="23"/>
+      <c r="AD251" s="64"/>
       <c r="AF251" s="39"/>
     </row>
     <row r="252" spans="16:32" s="21" customFormat="1">
@@ -24562,7 +24694,7 @@
       <c r="AA252" s="39"/>
       <c r="AB252" s="39"/>
       <c r="AC252" s="39"/>
-      <c r="AD252" s="23"/>
+      <c r="AD252" s="64"/>
       <c r="AF252" s="39"/>
     </row>
     <row r="253" spans="16:32" s="21" customFormat="1">
@@ -24579,7 +24711,7 @@
       <c r="AA253" s="39"/>
       <c r="AB253" s="39"/>
       <c r="AC253" s="39"/>
-      <c r="AD253" s="23"/>
+      <c r="AD253" s="64"/>
       <c r="AF253" s="39"/>
     </row>
     <row r="254" spans="16:32" s="21" customFormat="1">
@@ -24596,7 +24728,7 @@
       <c r="AA254" s="23"/>
       <c r="AB254" s="23"/>
       <c r="AC254" s="23"/>
-      <c r="AD254" s="23"/>
+      <c r="AD254" s="64"/>
       <c r="AF254" s="39"/>
     </row>
     <row r="255" spans="16:32" s="21" customFormat="1">
@@ -24613,7 +24745,7 @@
       <c r="AA255" s="39"/>
       <c r="AB255" s="39"/>
       <c r="AC255" s="39"/>
-      <c r="AD255" s="23"/>
+      <c r="AD255" s="64"/>
       <c r="AF255" s="39"/>
     </row>
     <row r="256" spans="16:32" s="21" customFormat="1">
@@ -24630,7 +24762,7 @@
       <c r="AA256" s="39"/>
       <c r="AB256" s="39"/>
       <c r="AC256" s="39"/>
-      <c r="AD256" s="23"/>
+      <c r="AD256" s="64"/>
       <c r="AF256" s="39"/>
     </row>
     <row r="257" spans="16:32" s="21" customFormat="1">
@@ -24647,7 +24779,7 @@
       <c r="AA257" s="39"/>
       <c r="AB257" s="39"/>
       <c r="AC257" s="39"/>
-      <c r="AD257" s="23"/>
+      <c r="AD257" s="64"/>
       <c r="AF257" s="39"/>
     </row>
     <row r="258" spans="16:32" s="21" customFormat="1">
@@ -24664,7 +24796,7 @@
       <c r="AA258" s="39"/>
       <c r="AB258" s="39"/>
       <c r="AC258" s="39"/>
-      <c r="AD258" s="23"/>
+      <c r="AD258" s="64"/>
       <c r="AF258" s="39"/>
     </row>
     <row r="259" spans="16:32" s="21" customFormat="1">
@@ -24681,7 +24813,7 @@
       <c r="AA259" s="23"/>
       <c r="AB259" s="23"/>
       <c r="AC259" s="23"/>
-      <c r="AD259" s="23"/>
+      <c r="AD259" s="64"/>
       <c r="AF259" s="39"/>
     </row>
     <row r="260" spans="16:32" s="21" customFormat="1">
@@ -24699,7 +24831,7 @@
       <c r="AA260" s="39"/>
       <c r="AB260" s="39"/>
       <c r="AC260" s="39"/>
-      <c r="AD260" s="23"/>
+      <c r="AD260" s="64"/>
       <c r="AF260" s="39"/>
     </row>
     <row r="261" spans="16:32" s="21" customFormat="1">
@@ -24716,7 +24848,7 @@
       <c r="AA261" s="39"/>
       <c r="AB261" s="39"/>
       <c r="AC261" s="39"/>
-      <c r="AD261" s="23"/>
+      <c r="AD261" s="64"/>
       <c r="AF261" s="39"/>
     </row>
     <row r="262" spans="16:32" s="21" customFormat="1">
@@ -24733,7 +24865,7 @@
       <c r="AA262" s="39"/>
       <c r="AB262" s="39"/>
       <c r="AC262" s="39"/>
-      <c r="AD262" s="23"/>
+      <c r="AD262" s="64"/>
       <c r="AF262" s="39"/>
     </row>
     <row r="263" spans="16:32" s="21" customFormat="1">
@@ -24750,7 +24882,7 @@
       <c r="AA263" s="23"/>
       <c r="AB263" s="23"/>
       <c r="AC263" s="23"/>
-      <c r="AD263" s="23"/>
+      <c r="AD263" s="64"/>
       <c r="AF263" s="39"/>
     </row>
     <row r="264" spans="16:32" s="21" customFormat="1">
@@ -24768,7 +24900,7 @@
       <c r="AA264" s="39"/>
       <c r="AB264" s="39"/>
       <c r="AC264" s="39"/>
-      <c r="AD264" s="23"/>
+      <c r="AD264" s="64"/>
       <c r="AF264" s="39"/>
     </row>
     <row r="265" spans="16:32" s="21" customFormat="1">
@@ -24785,7 +24917,7 @@
       <c r="AA265" s="39"/>
       <c r="AB265" s="39"/>
       <c r="AC265" s="39"/>
-      <c r="AD265" s="23"/>
+      <c r="AD265" s="64"/>
       <c r="AF265" s="39"/>
     </row>
     <row r="266" spans="16:32">
@@ -24818,7 +24950,7 @@
       <c r="AA267" s="39"/>
       <c r="AB267" s="39"/>
       <c r="AC267" s="39"/>
-      <c r="AD267" s="23"/>
+      <c r="AD267" s="64"/>
       <c r="AF267" s="39"/>
     </row>
     <row r="268" spans="16:32" s="21" customFormat="1">
@@ -24835,7 +24967,7 @@
       <c r="AA268" s="23"/>
       <c r="AB268" s="23"/>
       <c r="AC268" s="23"/>
-      <c r="AD268" s="23"/>
+      <c r="AD268" s="64"/>
       <c r="AF268" s="39"/>
     </row>
     <row r="269" spans="16:32" s="21" customFormat="1">
@@ -24852,7 +24984,7 @@
       <c r="AA269" s="39"/>
       <c r="AB269" s="39"/>
       <c r="AC269" s="39"/>
-      <c r="AD269" s="23"/>
+      <c r="AD269" s="64"/>
       <c r="AF269" s="39"/>
     </row>
     <row r="270" spans="16:32" s="21" customFormat="1">
@@ -24870,7 +25002,7 @@
       <c r="AA270" s="39"/>
       <c r="AB270" s="39"/>
       <c r="AC270" s="39"/>
-      <c r="AD270" s="23"/>
+      <c r="AD270" s="64"/>
       <c r="AF270" s="39"/>
     </row>
     <row r="271" spans="16:32" s="21" customFormat="1">
@@ -24887,7 +25019,7 @@
       <c r="AA271" s="23"/>
       <c r="AB271" s="23"/>
       <c r="AC271" s="23"/>
-      <c r="AD271" s="23"/>
+      <c r="AD271" s="64"/>
       <c r="AF271" s="39"/>
     </row>
     <row r="272" spans="16:32" s="21" customFormat="1">
@@ -24904,7 +25036,7 @@
       <c r="AA272" s="23"/>
       <c r="AB272" s="23"/>
       <c r="AC272" s="23"/>
-      <c r="AD272" s="23"/>
+      <c r="AD272" s="64"/>
       <c r="AF272" s="39"/>
     </row>
     <row r="273" spans="16:32" s="21" customFormat="1">
@@ -24922,7 +25054,7 @@
       <c r="AA273" s="39"/>
       <c r="AB273" s="39"/>
       <c r="AC273" s="39"/>
-      <c r="AD273" s="23"/>
+      <c r="AD273" s="64"/>
       <c r="AF273" s="39"/>
     </row>
     <row r="274" spans="16:32" s="21" customFormat="1">
@@ -24939,7 +25071,7 @@
       <c r="AA274" s="39"/>
       <c r="AB274" s="39"/>
       <c r="AC274" s="39"/>
-      <c r="AD274" s="23"/>
+      <c r="AD274" s="64"/>
       <c r="AF274" s="39"/>
     </row>
     <row r="275" spans="16:32" s="21" customFormat="1">
@@ -24956,7 +25088,7 @@
       <c r="AA275" s="39"/>
       <c r="AB275" s="39"/>
       <c r="AC275" s="39"/>
-      <c r="AD275" s="23"/>
+      <c r="AD275" s="64"/>
       <c r="AF275" s="39"/>
     </row>
     <row r="276" spans="16:32" s="21" customFormat="1">
@@ -24973,7 +25105,7 @@
       <c r="AA276" s="39"/>
       <c r="AB276" s="39"/>
       <c r="AC276" s="39"/>
-      <c r="AD276" s="23"/>
+      <c r="AD276" s="64"/>
       <c r="AF276" s="39"/>
     </row>
     <row r="277" spans="16:32" s="21" customFormat="1">
@@ -24990,7 +25122,7 @@
       <c r="AA277" s="39"/>
       <c r="AB277" s="39"/>
       <c r="AC277" s="39"/>
-      <c r="AD277" s="23"/>
+      <c r="AD277" s="64"/>
       <c r="AF277" s="39"/>
     </row>
     <row r="278" spans="16:32" s="21" customFormat="1">
@@ -25007,7 +25139,7 @@
       <c r="AA278" s="39"/>
       <c r="AB278" s="39"/>
       <c r="AC278" s="39"/>
-      <c r="AD278" s="23"/>
+      <c r="AD278" s="64"/>
       <c r="AF278" s="39"/>
     </row>
     <row r="279" spans="16:32" s="21" customFormat="1">
@@ -25024,7 +25156,7 @@
       <c r="AA279" s="39"/>
       <c r="AB279" s="39"/>
       <c r="AC279" s="39"/>
-      <c r="AD279" s="23"/>
+      <c r="AD279" s="64"/>
       <c r="AF279" s="39"/>
     </row>
     <row r="280" spans="16:32" s="21" customFormat="1">
@@ -25041,7 +25173,7 @@
       <c r="AA280" s="39"/>
       <c r="AB280" s="39"/>
       <c r="AC280" s="39"/>
-      <c r="AD280" s="23"/>
+      <c r="AD280" s="64"/>
       <c r="AF280" s="39"/>
     </row>
     <row r="281" spans="16:32" s="21" customFormat="1">
@@ -25058,7 +25190,7 @@
       <c r="AA281" s="23"/>
       <c r="AB281" s="23"/>
       <c r="AC281" s="23"/>
-      <c r="AD281" s="23"/>
+      <c r="AD281" s="64"/>
       <c r="AF281" s="39"/>
     </row>
     <row r="282" spans="16:32" s="21" customFormat="1">
@@ -25076,7 +25208,7 @@
       <c r="AA282" s="39"/>
       <c r="AB282" s="39"/>
       <c r="AC282" s="39"/>
-      <c r="AD282" s="23"/>
+      <c r="AD282" s="64"/>
       <c r="AF282" s="39"/>
     </row>
     <row r="283" spans="16:32" s="21" customFormat="1">
@@ -25093,7 +25225,7 @@
       <c r="AA283" s="39"/>
       <c r="AB283" s="39"/>
       <c r="AC283" s="39"/>
-      <c r="AD283" s="23"/>
+      <c r="AD283" s="64"/>
       <c r="AF283" s="39"/>
     </row>
     <row r="284" spans="16:32" s="21" customFormat="1">
@@ -25110,7 +25242,7 @@
       <c r="AA284" s="23"/>
       <c r="AB284" s="23"/>
       <c r="AC284" s="23"/>
-      <c r="AD284" s="23"/>
+      <c r="AD284" s="64"/>
       <c r="AF284" s="39"/>
     </row>
     <row r="285" spans="16:32" s="21" customFormat="1">
@@ -25127,7 +25259,7 @@
       <c r="AA285" s="39"/>
       <c r="AB285" s="39"/>
       <c r="AC285" s="39"/>
-      <c r="AD285" s="23"/>
+      <c r="AD285" s="64"/>
       <c r="AF285" s="39"/>
     </row>
     <row r="286" spans="16:32" s="21" customFormat="1">
@@ -25144,7 +25276,7 @@
       <c r="AA286" s="39"/>
       <c r="AB286" s="39"/>
       <c r="AC286" s="39"/>
-      <c r="AD286" s="23"/>
+      <c r="AD286" s="64"/>
       <c r="AF286" s="39"/>
     </row>
     <row r="287" spans="16:32" s="21" customFormat="1">
@@ -25161,7 +25293,7 @@
       <c r="AA287" s="39"/>
       <c r="AB287" s="39"/>
       <c r="AC287" s="39"/>
-      <c r="AD287" s="23"/>
+      <c r="AD287" s="64"/>
       <c r="AF287" s="39"/>
     </row>
     <row r="288" spans="16:32" s="21" customFormat="1">
@@ -25178,7 +25310,7 @@
       <c r="AA288" s="39"/>
       <c r="AB288" s="39"/>
       <c r="AC288" s="39"/>
-      <c r="AD288" s="23"/>
+      <c r="AD288" s="64"/>
     </row>
     <row r="289" spans="16:30" s="21" customFormat="1">
       <c r="Q289" s="23"/>
@@ -25194,7 +25326,7 @@
       <c r="AA289" s="39"/>
       <c r="AB289" s="39"/>
       <c r="AC289" s="39"/>
-      <c r="AD289" s="23"/>
+      <c r="AD289" s="64"/>
     </row>
     <row r="290" spans="16:30" s="21" customFormat="1">
       <c r="Q290" s="23"/>
@@ -25210,7 +25342,7 @@
       <c r="AA290" s="39"/>
       <c r="AB290" s="39"/>
       <c r="AC290" s="39"/>
-      <c r="AD290" s="23"/>
+      <c r="AD290" s="64"/>
     </row>
     <row r="291" spans="16:30" s="21" customFormat="1">
       <c r="Q291" s="23"/>
@@ -25226,7 +25358,7 @@
       <c r="AA291" s="39"/>
       <c r="AB291" s="39"/>
       <c r="AC291" s="39"/>
-      <c r="AD291" s="23"/>
+      <c r="AD291" s="64"/>
     </row>
     <row r="292" spans="16:30" s="21" customFormat="1">
       <c r="P292" s="22"/>
@@ -25243,7 +25375,7 @@
       <c r="AA292" s="39"/>
       <c r="AB292" s="39"/>
       <c r="AC292" s="39"/>
-      <c r="AD292" s="23"/>
+      <c r="AD292" s="64"/>
     </row>
     <row r="293" spans="16:30" s="21" customFormat="1">
       <c r="Q293" s="23"/>
@@ -25259,7 +25391,7 @@
       <c r="AA293" s="23"/>
       <c r="AB293" s="23"/>
       <c r="AC293" s="23"/>
-      <c r="AD293" s="23"/>
+      <c r="AD293" s="64"/>
     </row>
     <row r="294" spans="16:30" s="21" customFormat="1">
       <c r="Q294" s="23"/>
@@ -25275,7 +25407,7 @@
       <c r="AA294" s="39"/>
       <c r="AB294" s="39"/>
       <c r="AC294" s="39"/>
-      <c r="AD294" s="23"/>
+      <c r="AD294" s="64"/>
     </row>
     <row r="295" spans="16:30" s="21" customFormat="1">
       <c r="Q295" s="23"/>
@@ -25291,7 +25423,7 @@
       <c r="AA295" s="39"/>
       <c r="AB295" s="39"/>
       <c r="AC295" s="39"/>
-      <c r="AD295" s="23"/>
+      <c r="AD295" s="64"/>
     </row>
     <row r="296" spans="16:30" s="21" customFormat="1">
       <c r="Q296" s="23"/>
@@ -25307,7 +25439,7 @@
       <c r="AA296" s="39"/>
       <c r="AB296" s="39"/>
       <c r="AC296" s="39"/>
-      <c r="AD296" s="23"/>
+      <c r="AD296" s="64"/>
     </row>
     <row r="297" spans="16:30" s="21" customFormat="1">
       <c r="Q297" s="23"/>
@@ -25323,7 +25455,7 @@
       <c r="AA297" s="39"/>
       <c r="AB297" s="39"/>
       <c r="AC297" s="39"/>
-      <c r="AD297" s="23"/>
+      <c r="AD297" s="64"/>
     </row>
     <row r="298" spans="16:30" s="21" customFormat="1">
       <c r="Q298" s="23"/>
@@ -25339,7 +25471,7 @@
       <c r="AA298" s="39"/>
       <c r="AB298" s="39"/>
       <c r="AC298" s="39"/>
-      <c r="AD298" s="23"/>
+      <c r="AD298" s="64"/>
     </row>
     <row r="299" spans="16:30" s="21" customFormat="1">
       <c r="Q299" s="23"/>
@@ -25355,7 +25487,7 @@
       <c r="AA299" s="39"/>
       <c r="AB299" s="39"/>
       <c r="AC299" s="39"/>
-      <c r="AD299" s="23"/>
+      <c r="AD299" s="64"/>
     </row>
     <row r="300" spans="16:30" s="21" customFormat="1">
       <c r="Q300" s="23"/>
@@ -25371,7 +25503,7 @@
       <c r="AA300" s="39"/>
       <c r="AB300" s="39"/>
       <c r="AC300" s="39"/>
-      <c r="AD300" s="23"/>
+      <c r="AD300" s="64"/>
     </row>
     <row r="301" spans="16:30" s="21" customFormat="1">
       <c r="Q301" s="23"/>
@@ -25387,7 +25519,7 @@
       <c r="AA301" s="23"/>
       <c r="AB301" s="23"/>
       <c r="AC301" s="23"/>
-      <c r="AD301" s="23"/>
+      <c r="AD301" s="64"/>
     </row>
     <row r="302" spans="16:30" s="21" customFormat="1">
       <c r="P302" s="22"/>
@@ -25404,7 +25536,7 @@
       <c r="AA302" s="39"/>
       <c r="AB302" s="39"/>
       <c r="AC302" s="39"/>
-      <c r="AD302" s="23"/>
+      <c r="AD302" s="64"/>
     </row>
     <row r="303" spans="16:30" s="21" customFormat="1">
       <c r="Q303" s="23"/>
@@ -25420,7 +25552,7 @@
       <c r="AA303" s="39"/>
       <c r="AB303" s="39"/>
       <c r="AC303" s="39"/>
-      <c r="AD303" s="23"/>
+      <c r="AD303" s="64"/>
     </row>
     <row r="304" spans="16:30" s="21" customFormat="1">
       <c r="Q304" s="23"/>
@@ -25436,7 +25568,7 @@
       <c r="AA304" s="23"/>
       <c r="AB304" s="23"/>
       <c r="AC304" s="23"/>
-      <c r="AD304" s="23"/>
+      <c r="AD304" s="64"/>
     </row>
     <row r="305" spans="16:30" s="21" customFormat="1">
       <c r="Q305" s="23"/>
@@ -25452,7 +25584,7 @@
       <c r="AA305" s="39"/>
       <c r="AB305" s="39"/>
       <c r="AC305" s="39"/>
-      <c r="AD305" s="23"/>
+      <c r="AD305" s="64"/>
     </row>
     <row r="306" spans="16:30" s="21" customFormat="1">
       <c r="Q306" s="23"/>
@@ -25468,7 +25600,7 @@
       <c r="AA306" s="39"/>
       <c r="AB306" s="39"/>
       <c r="AC306" s="39"/>
-      <c r="AD306" s="23"/>
+      <c r="AD306" s="64"/>
     </row>
     <row r="307" spans="16:30" s="21" customFormat="1">
       <c r="Q307" s="23"/>
@@ -25484,7 +25616,7 @@
       <c r="AA307" s="39"/>
       <c r="AB307" s="39"/>
       <c r="AC307" s="39"/>
-      <c r="AD307" s="23"/>
+      <c r="AD307" s="64"/>
     </row>
     <row r="308" spans="16:30" s="21" customFormat="1">
       <c r="Q308" s="23"/>
@@ -25500,7 +25632,7 @@
       <c r="AA308" s="39"/>
       <c r="AB308" s="39"/>
       <c r="AC308" s="39"/>
-      <c r="AD308" s="23"/>
+      <c r="AD308" s="64"/>
     </row>
     <row r="309" spans="16:30" s="21" customFormat="1">
       <c r="P309" s="22"/>
@@ -25517,7 +25649,7 @@
       <c r="AA309" s="39"/>
       <c r="AB309" s="39"/>
       <c r="AC309" s="39"/>
-      <c r="AD309" s="23"/>
+      <c r="AD309" s="64"/>
     </row>
     <row r="310" spans="16:30" s="21" customFormat="1">
       <c r="Q310" s="23"/>
@@ -25533,7 +25665,7 @@
       <c r="AA310" s="39"/>
       <c r="AB310" s="39"/>
       <c r="AC310" s="39"/>
-      <c r="AD310" s="23"/>
+      <c r="AD310" s="64"/>
     </row>
     <row r="311" spans="16:30" s="21" customFormat="1">
       <c r="Q311" s="23"/>
@@ -25549,7 +25681,7 @@
       <c r="AA311" s="39"/>
       <c r="AB311" s="39"/>
       <c r="AC311" s="39"/>
-      <c r="AD311" s="23"/>
+      <c r="AD311" s="64"/>
     </row>
     <row r="312" spans="16:30" s="21" customFormat="1">
       <c r="Q312" s="23"/>
@@ -25565,7 +25697,7 @@
       <c r="AA312" s="39"/>
       <c r="AB312" s="39"/>
       <c r="AC312" s="39"/>
-      <c r="AD312" s="23"/>
+      <c r="AD312" s="64"/>
     </row>
     <row r="313" spans="16:30" s="21" customFormat="1">
       <c r="Q313" s="23"/>
@@ -25581,7 +25713,7 @@
       <c r="AA313" s="39"/>
       <c r="AB313" s="39"/>
       <c r="AC313" s="39"/>
-      <c r="AD313" s="23"/>
+      <c r="AD313" s="64"/>
     </row>
     <row r="314" spans="16:30" s="21" customFormat="1">
       <c r="Q314" s="23"/>
@@ -25597,7 +25729,7 @@
       <c r="AA314" s="39"/>
       <c r="AB314" s="39"/>
       <c r="AC314" s="39"/>
-      <c r="AD314" s="23"/>
+      <c r="AD314" s="64"/>
     </row>
     <row r="315" spans="16:30" s="21" customFormat="1">
       <c r="Q315" s="23"/>
@@ -25613,7 +25745,7 @@
       <c r="AA315" s="39"/>
       <c r="AB315" s="39"/>
       <c r="AC315" s="39"/>
-      <c r="AD315" s="23"/>
+      <c r="AD315" s="64"/>
     </row>
     <row r="316" spans="16:30" s="21" customFormat="1">
       <c r="Q316" s="39"/>
@@ -25629,7 +25761,7 @@
       <c r="AA316" s="39"/>
       <c r="AB316" s="39"/>
       <c r="AC316" s="39"/>
-      <c r="AD316" s="23"/>
+      <c r="AD316" s="64"/>
     </row>
     <row r="317" spans="16:30" s="21" customFormat="1">
       <c r="Q317" s="23"/>
@@ -25645,7 +25777,7 @@
       <c r="AA317" s="39"/>
       <c r="AB317" s="39"/>
       <c r="AC317" s="39"/>
-      <c r="AD317" s="23"/>
+      <c r="AD317" s="64"/>
     </row>
     <row r="318" spans="16:30" s="21" customFormat="1">
       <c r="Q318" s="39"/>
@@ -25661,7 +25793,7 @@
       <c r="AA318" s="39"/>
       <c r="AB318" s="39"/>
       <c r="AC318" s="39"/>
-      <c r="AD318" s="23"/>
+      <c r="AD318" s="64"/>
     </row>
     <row r="319" spans="16:30" s="21" customFormat="1">
       <c r="Q319" s="23"/>
@@ -25677,7 +25809,7 @@
       <c r="AA319" s="39"/>
       <c r="AB319" s="39"/>
       <c r="AC319" s="39"/>
-      <c r="AD319" s="23"/>
+      <c r="AD319" s="64"/>
     </row>
     <row r="320" spans="16:30" s="21" customFormat="1">
       <c r="Q320" s="23"/>
@@ -25693,7 +25825,7 @@
       <c r="AA320" s="23"/>
       <c r="AB320" s="23"/>
       <c r="AC320" s="23"/>
-      <c r="AD320" s="23"/>
+      <c r="AD320" s="64"/>
     </row>
     <row r="321" spans="16:30" s="21" customFormat="1">
       <c r="Q321" s="23"/>
@@ -25709,7 +25841,7 @@
       <c r="AA321" s="39"/>
       <c r="AB321" s="39"/>
       <c r="AC321" s="39"/>
-      <c r="AD321" s="23"/>
+      <c r="AD321" s="64"/>
     </row>
     <row r="322" spans="16:30" s="21" customFormat="1">
       <c r="Q322" s="23"/>
@@ -25725,7 +25857,7 @@
       <c r="AA322" s="39"/>
       <c r="AB322" s="39"/>
       <c r="AC322" s="39"/>
-      <c r="AD322" s="23"/>
+      <c r="AD322" s="64"/>
     </row>
     <row r="323" spans="16:30" s="21" customFormat="1">
       <c r="P323" s="22"/>
@@ -25742,7 +25874,7 @@
       <c r="AA323" s="39"/>
       <c r="AB323" s="39"/>
       <c r="AC323" s="39"/>
-      <c r="AD323" s="23"/>
+      <c r="AD323" s="64"/>
     </row>
     <row r="324" spans="16:30" s="21" customFormat="1">
       <c r="P324" s="22"/>
@@ -25759,7 +25891,7 @@
       <c r="AA324" s="39"/>
       <c r="AB324" s="39"/>
       <c r="AC324" s="39"/>
-      <c r="AD324" s="23"/>
+      <c r="AD324" s="64"/>
     </row>
     <row r="325" spans="16:30" s="21" customFormat="1">
       <c r="P325" s="22"/>
@@ -25776,7 +25908,7 @@
       <c r="AA325" s="39"/>
       <c r="AB325" s="39"/>
       <c r="AC325" s="39"/>
-      <c r="AD325" s="23"/>
+      <c r="AD325" s="64"/>
     </row>
     <row r="326" spans="16:30" s="21" customFormat="1">
       <c r="Q326" s="23"/>
@@ -25792,7 +25924,7 @@
       <c r="AA326" s="23"/>
       <c r="AB326" s="23"/>
       <c r="AC326" s="23"/>
-      <c r="AD326" s="23"/>
+      <c r="AD326" s="64"/>
     </row>
     <row r="327" spans="16:30" s="21" customFormat="1">
       <c r="Q327" s="23"/>
@@ -25808,7 +25940,7 @@
       <c r="AA327" s="39"/>
       <c r="AB327" s="39"/>
       <c r="AC327" s="39"/>
-      <c r="AD327" s="23"/>
+      <c r="AD327" s="64"/>
     </row>
     <row r="328" spans="16:30" s="21" customFormat="1">
       <c r="Q328" s="23"/>
@@ -25824,7 +25956,7 @@
       <c r="AA328" s="39"/>
       <c r="AB328" s="39"/>
       <c r="AC328" s="39"/>
-      <c r="AD328" s="23"/>
+      <c r="AD328" s="64"/>
     </row>
     <row r="329" spans="16:30" s="21" customFormat="1">
       <c r="Q329" s="23"/>
@@ -25840,7 +25972,7 @@
       <c r="AA329" s="39"/>
       <c r="AB329" s="39"/>
       <c r="AC329" s="39"/>
-      <c r="AD329" s="23"/>
+      <c r="AD329" s="64"/>
     </row>
     <row r="330" spans="16:30" s="21" customFormat="1">
       <c r="Q330" s="23"/>
@@ -25856,7 +25988,7 @@
       <c r="AA330" s="39"/>
       <c r="AB330" s="39"/>
       <c r="AC330" s="39"/>
-      <c r="AD330" s="23"/>
+      <c r="AD330" s="64"/>
     </row>
     <row r="331" spans="16:30" s="21" customFormat="1">
       <c r="Q331" s="23"/>
@@ -25872,7 +26004,7 @@
       <c r="AA331" s="39"/>
       <c r="AB331" s="39"/>
       <c r="AC331" s="39"/>
-      <c r="AD331" s="23"/>
+      <c r="AD331" s="64"/>
     </row>
     <row r="332" spans="16:30" s="21" customFormat="1">
       <c r="Q332" s="23"/>
@@ -25888,7 +26020,7 @@
       <c r="AA332" s="39"/>
       <c r="AB332" s="39"/>
       <c r="AC332" s="39"/>
-      <c r="AD332" s="23"/>
+      <c r="AD332" s="64"/>
     </row>
     <row r="333" spans="16:30" s="21" customFormat="1">
       <c r="Q333" s="23"/>
@@ -25904,7 +26036,7 @@
       <c r="AA333" s="39"/>
       <c r="AB333" s="39"/>
       <c r="AC333" s="39"/>
-      <c r="AD333" s="23"/>
+      <c r="AD333" s="64"/>
     </row>
     <row r="334" spans="16:30" s="21" customFormat="1">
       <c r="Q334" s="23"/>
@@ -25920,7 +26052,7 @@
       <c r="AA334" s="39"/>
       <c r="AB334" s="39"/>
       <c r="AC334" s="39"/>
-      <c r="AD334" s="23"/>
+      <c r="AD334" s="64"/>
     </row>
     <row r="335" spans="16:30" s="21" customFormat="1">
       <c r="Q335" s="23"/>
@@ -25936,7 +26068,7 @@
       <c r="AA335" s="39"/>
       <c r="AB335" s="39"/>
       <c r="AC335" s="39"/>
-      <c r="AD335" s="23"/>
+      <c r="AD335" s="64"/>
     </row>
     <row r="336" spans="16:30" s="21" customFormat="1">
       <c r="Q336" s="23"/>
@@ -25952,7 +26084,7 @@
       <c r="AA336" s="39"/>
       <c r="AB336" s="39"/>
       <c r="AC336" s="39"/>
-      <c r="AD336" s="23"/>
+      <c r="AD336" s="64"/>
     </row>
     <row r="337" spans="17:30" s="21" customFormat="1">
       <c r="Q337" s="39"/>
@@ -25968,7 +26100,7 @@
       <c r="AA337" s="39"/>
       <c r="AB337" s="39"/>
       <c r="AC337" s="39"/>
-      <c r="AD337" s="23"/>
+      <c r="AD337" s="64"/>
     </row>
     <row r="338" spans="17:30" s="21" customFormat="1">
       <c r="Q338" s="23"/>
@@ -25984,7 +26116,7 @@
       <c r="AA338" s="39"/>
       <c r="AB338" s="39"/>
       <c r="AC338" s="39"/>
-      <c r="AD338" s="23"/>
+      <c r="AD338" s="64"/>
     </row>
     <row r="339" spans="17:30" s="21" customFormat="1">
       <c r="Q339" s="39"/>
@@ -26000,7 +26132,7 @@
       <c r="AA339" s="39"/>
       <c r="AB339" s="39"/>
       <c r="AC339" s="39"/>
-      <c r="AD339" s="23"/>
+      <c r="AD339" s="64"/>
     </row>
     <row r="340" spans="17:30" s="21" customFormat="1">
       <c r="Q340" s="23"/>
@@ -26016,7 +26148,7 @@
       <c r="AA340" s="39"/>
       <c r="AB340" s="39"/>
       <c r="AC340" s="39"/>
-      <c r="AD340" s="23"/>
+      <c r="AD340" s="64"/>
     </row>
     <row r="341" spans="17:30" s="21" customFormat="1">
       <c r="Q341" s="23"/>
@@ -26032,7 +26164,7 @@
       <c r="AA341" s="23"/>
       <c r="AB341" s="23"/>
       <c r="AC341" s="23"/>
-      <c r="AD341" s="23"/>
+      <c r="AD341" s="64"/>
     </row>
     <row r="342" spans="17:30" s="21" customFormat="1">
       <c r="Q342" s="23"/>
@@ -26048,7 +26180,7 @@
       <c r="AA342" s="39"/>
       <c r="AB342" s="39"/>
       <c r="AC342" s="39"/>
-      <c r="AD342" s="23"/>
+      <c r="AD342" s="64"/>
     </row>
     <row r="343" spans="17:30" s="21" customFormat="1">
       <c r="Q343" s="23"/>
@@ -26064,7 +26196,7 @@
       <c r="AA343" s="39"/>
       <c r="AB343" s="39"/>
       <c r="AC343" s="39"/>
-      <c r="AD343" s="23"/>
+      <c r="AD343" s="64"/>
     </row>
     <row r="344" spans="17:30" s="21" customFormat="1">
       <c r="Q344" s="23"/>
@@ -26080,7 +26212,7 @@
       <c r="AA344" s="23"/>
       <c r="AB344" s="23"/>
       <c r="AC344" s="23"/>
-      <c r="AD344" s="23"/>
+      <c r="AD344" s="64"/>
     </row>
     <row r="345" spans="17:30" s="21" customFormat="1">
       <c r="Q345" s="23"/>
@@ -26096,7 +26228,7 @@
       <c r="AA345" s="39"/>
       <c r="AB345" s="39"/>
       <c r="AC345" s="39"/>
-      <c r="AD345" s="23"/>
+      <c r="AD345" s="64"/>
     </row>
     <row r="346" spans="17:30" s="21" customFormat="1">
       <c r="Q346" s="23"/>
@@ -26112,7 +26244,7 @@
       <c r="AA346" s="39"/>
       <c r="AB346" s="39"/>
       <c r="AC346" s="39"/>
-      <c r="AD346" s="23"/>
+      <c r="AD346" s="64"/>
     </row>
     <row r="347" spans="17:30" s="21" customFormat="1">
       <c r="Q347" s="23"/>
@@ -26128,7 +26260,7 @@
       <c r="AA347" s="39"/>
       <c r="AB347" s="39"/>
       <c r="AC347" s="39"/>
-      <c r="AD347" s="23"/>
+      <c r="AD347" s="64"/>
     </row>
     <row r="348" spans="17:30" s="21" customFormat="1">
       <c r="Q348" s="23"/>
@@ -26144,7 +26276,7 @@
       <c r="AA348" s="39"/>
       <c r="AB348" s="39"/>
       <c r="AC348" s="39"/>
-      <c r="AD348" s="23"/>
+      <c r="AD348" s="64"/>
     </row>
     <row r="349" spans="17:30" s="21" customFormat="1">
       <c r="Q349" s="23"/>
@@ -26160,7 +26292,7 @@
       <c r="AA349" s="39"/>
       <c r="AB349" s="39"/>
       <c r="AC349" s="39"/>
-      <c r="AD349" s="23"/>
+      <c r="AD349" s="64"/>
     </row>
     <row r="350" spans="17:30" s="21" customFormat="1">
       <c r="Q350" s="39"/>
@@ -26176,7 +26308,7 @@
       <c r="AA350" s="39"/>
       <c r="AB350" s="39"/>
       <c r="AC350" s="39"/>
-      <c r="AD350" s="23"/>
+      <c r="AD350" s="64"/>
     </row>
     <row r="351" spans="17:30" s="21" customFormat="1">
       <c r="Q351" s="23"/>
@@ -26192,7 +26324,7 @@
       <c r="AA351" s="39"/>
       <c r="AB351" s="39"/>
       <c r="AC351" s="39"/>
-      <c r="AD351" s="23"/>
+      <c r="AD351" s="64"/>
     </row>
     <row r="352" spans="17:30" s="21" customFormat="1">
       <c r="Q352" s="23"/>
@@ -26208,7 +26340,7 @@
       <c r="AA352" s="39"/>
       <c r="AB352" s="39"/>
       <c r="AC352" s="39"/>
-      <c r="AD352" s="23"/>
+      <c r="AD352" s="64"/>
     </row>
     <row r="353" spans="17:30" s="21" customFormat="1">
       <c r="Q353" s="23"/>
@@ -26224,7 +26356,7 @@
       <c r="AA353" s="23"/>
       <c r="AB353" s="23"/>
       <c r="AC353" s="23"/>
-      <c r="AD353" s="23"/>
+      <c r="AD353" s="64"/>
     </row>
     <row r="354" spans="17:30" s="21" customFormat="1">
       <c r="Q354" s="23"/>
@@ -26240,7 +26372,7 @@
       <c r="AA354" s="39"/>
       <c r="AB354" s="39"/>
       <c r="AC354" s="39"/>
-      <c r="AD354" s="23"/>
+      <c r="AD354" s="64"/>
     </row>
     <row r="355" spans="17:30" s="21" customFormat="1">
       <c r="Q355" s="23"/>
@@ -26256,7 +26388,7 @@
       <c r="AA355" s="39"/>
       <c r="AB355" s="39"/>
       <c r="AC355" s="39"/>
-      <c r="AD355" s="23"/>
+      <c r="AD355" s="64"/>
     </row>
     <row r="356" spans="17:30" s="21" customFormat="1">
       <c r="Q356" s="23"/>
@@ -26272,7 +26404,7 @@
       <c r="AA356" s="39"/>
       <c r="AB356" s="39"/>
       <c r="AC356" s="39"/>
-      <c r="AD356" s="23"/>
+      <c r="AD356" s="64"/>
     </row>
     <row r="357" spans="17:30" s="21" customFormat="1">
       <c r="Q357" s="23"/>
@@ -26288,7 +26420,7 @@
       <c r="AA357" s="39"/>
       <c r="AB357" s="39"/>
       <c r="AC357" s="39"/>
-      <c r="AD357" s="23"/>
+      <c r="AD357" s="64"/>
     </row>
     <row r="358" spans="17:30" s="21" customFormat="1">
       <c r="Q358" s="23"/>
@@ -26304,7 +26436,7 @@
       <c r="AA358" s="39"/>
       <c r="AB358" s="39"/>
       <c r="AC358" s="39"/>
-      <c r="AD358" s="23"/>
+      <c r="AD358" s="64"/>
     </row>
     <row r="359" spans="17:30" s="21" customFormat="1">
       <c r="Q359" s="23"/>
@@ -26320,7 +26452,7 @@
       <c r="AA359" s="39"/>
       <c r="AB359" s="39"/>
       <c r="AC359" s="39"/>
-      <c r="AD359" s="23"/>
+      <c r="AD359" s="64"/>
     </row>
     <row r="360" spans="17:30" s="21" customFormat="1">
       <c r="Q360" s="23"/>
@@ -26336,7 +26468,7 @@
       <c r="AA360" s="39"/>
       <c r="AB360" s="39"/>
       <c r="AC360" s="39"/>
-      <c r="AD360" s="23"/>
+      <c r="AD360" s="64"/>
     </row>
     <row r="361" spans="17:30" s="21" customFormat="1">
       <c r="Q361" s="39"/>
@@ -26352,7 +26484,7 @@
       <c r="AA361" s="39"/>
       <c r="AB361" s="39"/>
       <c r="AC361" s="39"/>
-      <c r="AD361" s="23"/>
+      <c r="AD361" s="64"/>
     </row>
     <row r="362" spans="17:30" s="21" customFormat="1">
       <c r="Q362" s="23"/>
@@ -26368,7 +26500,7 @@
       <c r="AA362" s="39"/>
       <c r="AB362" s="39"/>
       <c r="AC362" s="39"/>
-      <c r="AD362" s="23"/>
+      <c r="AD362" s="64"/>
     </row>
     <row r="363" spans="17:30" s="21" customFormat="1">
       <c r="Q363" s="23"/>
@@ -26384,7 +26516,7 @@
       <c r="AA363" s="39"/>
       <c r="AB363" s="39"/>
       <c r="AC363" s="39"/>
-      <c r="AD363" s="23"/>
+      <c r="AD363" s="64"/>
     </row>
     <row r="364" spans="17:30" s="21" customFormat="1">
       <c r="Q364" s="23"/>
@@ -26400,7 +26532,7 @@
       <c r="AA364" s="39"/>
       <c r="AB364" s="39"/>
       <c r="AC364" s="39"/>
-      <c r="AD364" s="23"/>
+      <c r="AD364" s="64"/>
     </row>
     <row r="365" spans="17:30" s="21" customFormat="1">
       <c r="Q365" s="23"/>
@@ -26416,7 +26548,7 @@
       <c r="AA365" s="39"/>
       <c r="AB365" s="39"/>
       <c r="AC365" s="39"/>
-      <c r="AD365" s="23"/>
+      <c r="AD365" s="64"/>
     </row>
     <row r="366" spans="17:30" s="21" customFormat="1">
       <c r="Q366" s="23"/>
@@ -26432,7 +26564,7 @@
       <c r="AA366" s="39"/>
       <c r="AB366" s="39"/>
       <c r="AC366" s="39"/>
-      <c r="AD366" s="23"/>
+      <c r="AD366" s="64"/>
     </row>
     <row r="367" spans="17:30" s="21" customFormat="1">
       <c r="Q367" s="23"/>
@@ -26448,7 +26580,7 @@
       <c r="AA367" s="39"/>
       <c r="AB367" s="39"/>
       <c r="AC367" s="39"/>
-      <c r="AD367" s="23"/>
+      <c r="AD367" s="64"/>
     </row>
     <row r="368" spans="17:30" s="21" customFormat="1">
       <c r="Q368" s="23"/>
@@ -26464,7 +26596,7 @@
       <c r="AA368" s="39"/>
       <c r="AB368" s="39"/>
       <c r="AC368" s="39"/>
-      <c r="AD368" s="23"/>
+      <c r="AD368" s="64"/>
     </row>
     <row r="369" spans="17:30" s="21" customFormat="1">
       <c r="Q369" s="23"/>
@@ -26480,7 +26612,7 @@
       <c r="AA369" s="39"/>
       <c r="AB369" s="39"/>
       <c r="AC369" s="39"/>
-      <c r="AD369" s="23"/>
+      <c r="AD369" s="64"/>
     </row>
     <row r="370" spans="17:30" s="21" customFormat="1">
       <c r="Q370" s="23"/>
@@ -26496,7 +26628,7 @@
       <c r="AA370" s="39"/>
       <c r="AB370" s="39"/>
       <c r="AC370" s="39"/>
-      <c r="AD370" s="23"/>
+      <c r="AD370" s="64"/>
     </row>
     <row r="371" spans="17:30" s="21" customFormat="1">
       <c r="Q371" s="23"/>
@@ -26512,7 +26644,7 @@
       <c r="AA371" s="39"/>
       <c r="AB371" s="39"/>
       <c r="AC371" s="39"/>
-      <c r="AD371" s="23"/>
+      <c r="AD371" s="64"/>
     </row>
     <row r="372" spans="17:30" s="21" customFormat="1">
       <c r="Q372" s="23"/>
@@ -26528,7 +26660,7 @@
       <c r="AA372" s="39"/>
       <c r="AB372" s="39"/>
       <c r="AC372" s="39"/>
-      <c r="AD372" s="23"/>
+      <c r="AD372" s="64"/>
     </row>
     <row r="373" spans="17:30" s="21" customFormat="1">
       <c r="Q373" s="23"/>
@@ -26544,7 +26676,7 @@
       <c r="AA373" s="39"/>
       <c r="AB373" s="39"/>
       <c r="AC373" s="39"/>
-      <c r="AD373" s="23"/>
+      <c r="AD373" s="64"/>
     </row>
     <row r="374" spans="17:30" s="21" customFormat="1">
       <c r="Q374" s="23"/>
@@ -26560,7 +26692,7 @@
       <c r="AA374" s="39"/>
       <c r="AB374" s="39"/>
       <c r="AC374" s="39"/>
-      <c r="AD374" s="23"/>
+      <c r="AD374" s="64"/>
     </row>
     <row r="375" spans="17:30" s="21" customFormat="1">
       <c r="Q375" s="23"/>
@@ -26576,7 +26708,7 @@
       <c r="AA375" s="39"/>
       <c r="AB375" s="39"/>
       <c r="AC375" s="39"/>
-      <c r="AD375" s="23"/>
+      <c r="AD375" s="64"/>
     </row>
     <row r="376" spans="17:30" s="21" customFormat="1">
       <c r="Q376" s="23"/>
@@ -26592,7 +26724,7 @@
       <c r="AA376" s="39"/>
       <c r="AB376" s="39"/>
       <c r="AC376" s="39"/>
-      <c r="AD376" s="23"/>
+      <c r="AD376" s="64"/>
     </row>
     <row r="377" spans="17:30" s="21" customFormat="1">
       <c r="Q377" s="23"/>
@@ -26608,7 +26740,7 @@
       <c r="AA377" s="39"/>
       <c r="AB377" s="39"/>
       <c r="AC377" s="39"/>
-      <c r="AD377" s="23"/>
+      <c r="AD377" s="64"/>
     </row>
     <row r="378" spans="17:30" s="21" customFormat="1">
       <c r="Q378" s="39"/>
@@ -26624,7 +26756,7 @@
       <c r="AA378" s="39"/>
       <c r="AB378" s="39"/>
       <c r="AC378" s="39"/>
-      <c r="AD378" s="23"/>
+      <c r="AD378" s="64"/>
     </row>
     <row r="379" spans="17:30" s="21" customFormat="1">
       <c r="Q379" s="23"/>
@@ -26640,7 +26772,7 @@
       <c r="AA379" s="39"/>
       <c r="AB379" s="39"/>
       <c r="AC379" s="39"/>
-      <c r="AD379" s="23"/>
+      <c r="AD379" s="64"/>
     </row>
     <row r="380" spans="17:30" s="21" customFormat="1">
       <c r="Q380" s="23"/>
@@ -26656,7 +26788,7 @@
       <c r="AA380" s="23"/>
       <c r="AB380" s="23"/>
       <c r="AC380" s="23"/>
-      <c r="AD380" s="23"/>
+      <c r="AD380" s="64"/>
     </row>
     <row r="381" spans="17:30" s="21" customFormat="1">
       <c r="Q381" s="23"/>
@@ -26672,7 +26804,7 @@
       <c r="AA381" s="23"/>
       <c r="AB381" s="23"/>
       <c r="AC381" s="23"/>
-      <c r="AD381" s="23"/>
+      <c r="AD381" s="64"/>
     </row>
     <row r="382" spans="17:30" s="21" customFormat="1">
       <c r="Q382" s="23"/>
@@ -26688,7 +26820,7 @@
       <c r="AA382" s="39"/>
       <c r="AB382" s="39"/>
       <c r="AC382" s="39"/>
-      <c r="AD382" s="23"/>
+      <c r="AD382" s="64"/>
     </row>
     <row r="383" spans="17:30" s="21" customFormat="1">
       <c r="Q383" s="23"/>
@@ -26704,7 +26836,7 @@
       <c r="AA383" s="39"/>
       <c r="AB383" s="39"/>
       <c r="AC383" s="39"/>
-      <c r="AD383" s="23"/>
+      <c r="AD383" s="64"/>
     </row>
     <row r="384" spans="17:30" s="21" customFormat="1">
       <c r="Q384" s="23"/>
@@ -26720,7 +26852,7 @@
       <c r="AA384" s="39"/>
       <c r="AB384" s="39"/>
       <c r="AC384" s="39"/>
-      <c r="AD384" s="23"/>
+      <c r="AD384" s="64"/>
     </row>
     <row r="385" spans="17:30" s="21" customFormat="1">
       <c r="Q385" s="23"/>
@@ -26736,7 +26868,7 @@
       <c r="AA385" s="39"/>
       <c r="AB385" s="39"/>
       <c r="AC385" s="39"/>
-      <c r="AD385" s="23"/>
+      <c r="AD385" s="64"/>
     </row>
     <row r="386" spans="17:30" s="21" customFormat="1">
       <c r="Q386" s="23"/>
@@ -26752,7 +26884,7 @@
       <c r="AA386" s="39"/>
       <c r="AB386" s="39"/>
       <c r="AC386" s="39"/>
-      <c r="AD386" s="23"/>
+      <c r="AD386" s="64"/>
     </row>
     <row r="387" spans="17:30" s="21" customFormat="1">
       <c r="Q387" s="23"/>
@@ -26768,7 +26900,7 @@
       <c r="AA387" s="39"/>
       <c r="AB387" s="39"/>
       <c r="AC387" s="39"/>
-      <c r="AD387" s="23"/>
+      <c r="AD387" s="64"/>
     </row>
     <row r="388" spans="17:30" s="21" customFormat="1">
       <c r="Q388" s="23"/>
@@ -26784,7 +26916,7 @@
       <c r="AA388" s="39"/>
       <c r="AB388" s="39"/>
       <c r="AC388" s="39"/>
-      <c r="AD388" s="23"/>
+      <c r="AD388" s="64"/>
     </row>
     <row r="389" spans="17:30" s="21" customFormat="1">
       <c r="Q389" s="23"/>
@@ -26800,7 +26932,7 @@
       <c r="AA389" s="39"/>
       <c r="AB389" s="39"/>
       <c r="AC389" s="39"/>
-      <c r="AD389" s="23"/>
+      <c r="AD389" s="64"/>
     </row>
     <row r="390" spans="17:30" s="21" customFormat="1">
       <c r="Q390" s="23"/>
@@ -26816,7 +26948,7 @@
       <c r="AA390" s="39"/>
       <c r="AB390" s="39"/>
       <c r="AC390" s="39"/>
-      <c r="AD390" s="23"/>
+      <c r="AD390" s="64"/>
     </row>
     <row r="391" spans="17:30" s="21" customFormat="1">
       <c r="Q391" s="23"/>
@@ -26832,7 +26964,7 @@
       <c r="AA391" s="39"/>
       <c r="AB391" s="39"/>
       <c r="AC391" s="39"/>
-      <c r="AD391" s="23"/>
+      <c r="AD391" s="64"/>
     </row>
     <row r="392" spans="17:30" s="21" customFormat="1">
       <c r="Q392" s="23"/>
@@ -26848,7 +26980,7 @@
       <c r="AA392" s="39"/>
       <c r="AB392" s="39"/>
       <c r="AC392" s="39"/>
-      <c r="AD392" s="23"/>
+      <c r="AD392" s="64"/>
     </row>
     <row r="393" spans="17:30" s="21" customFormat="1">
       <c r="Q393" s="23"/>
@@ -26864,7 +26996,7 @@
       <c r="AA393" s="39"/>
       <c r="AB393" s="39"/>
       <c r="AC393" s="39"/>
-      <c r="AD393" s="23"/>
+      <c r="AD393" s="64"/>
     </row>
     <row r="394" spans="17:30" s="21" customFormat="1">
       <c r="Q394" s="39"/>
@@ -26880,7 +27012,7 @@
       <c r="AA394" s="39"/>
       <c r="AB394" s="39"/>
       <c r="AC394" s="39"/>
-      <c r="AD394" s="23"/>
+      <c r="AD394" s="64"/>
     </row>
     <row r="395" spans="17:30" s="21" customFormat="1">
       <c r="Q395" s="23"/>
@@ -26896,7 +27028,7 @@
       <c r="AA395" s="39"/>
       <c r="AB395" s="39"/>
       <c r="AC395" s="39"/>
-      <c r="AD395" s="23"/>
+      <c r="AD395" s="64"/>
     </row>
     <row r="396" spans="17:30" s="21" customFormat="1">
       <c r="Q396" s="23"/>
@@ -26912,7 +27044,7 @@
       <c r="AA396" s="23"/>
       <c r="AB396" s="23"/>
       <c r="AC396" s="23"/>
-      <c r="AD396" s="23"/>
+      <c r="AD396" s="64"/>
     </row>
     <row r="397" spans="17:30" s="21" customFormat="1">
       <c r="Q397" s="23"/>
@@ -26928,7 +27060,7 @@
       <c r="AA397" s="39"/>
       <c r="AB397" s="39"/>
       <c r="AC397" s="39"/>
-      <c r="AD397" s="23"/>
+      <c r="AD397" s="64"/>
     </row>
     <row r="398" spans="17:30" s="21" customFormat="1">
       <c r="Q398" s="23"/>
@@ -26944,7 +27076,7 @@
       <c r="AA398" s="39"/>
       <c r="AB398" s="39"/>
       <c r="AC398" s="39"/>
-      <c r="AD398" s="23"/>
+      <c r="AD398" s="64"/>
     </row>
     <row r="399" spans="17:30" s="21" customFormat="1">
       <c r="Q399" s="23"/>
@@ -26960,7 +27092,7 @@
       <c r="AA399" s="39"/>
       <c r="AB399" s="39"/>
       <c r="AC399" s="39"/>
-      <c r="AD399" s="23"/>
+      <c r="AD399" s="64"/>
     </row>
     <row r="400" spans="17:30" s="21" customFormat="1">
       <c r="Q400" s="23"/>
@@ -26976,7 +27108,7 @@
       <c r="AA400" s="39"/>
       <c r="AB400" s="39"/>
       <c r="AC400" s="39"/>
-      <c r="AD400" s="23"/>
+      <c r="AD400" s="64"/>
     </row>
     <row r="401" spans="17:30" s="21" customFormat="1">
       <c r="Q401" s="23"/>
@@ -26992,7 +27124,7 @@
       <c r="AA401" s="39"/>
       <c r="AB401" s="39"/>
       <c r="AC401" s="39"/>
-      <c r="AD401" s="23"/>
+      <c r="AD401" s="64"/>
     </row>
     <row r="402" spans="17:30" s="21" customFormat="1">
       <c r="Q402" s="23"/>
@@ -27008,7 +27140,7 @@
       <c r="AA402" s="23"/>
       <c r="AB402" s="23"/>
       <c r="AC402" s="23"/>
-      <c r="AD402" s="23"/>
+      <c r="AD402" s="64"/>
     </row>
     <row r="403" spans="17:30" s="21" customFormat="1">
       <c r="Q403" s="23"/>
@@ -27024,7 +27156,7 @@
       <c r="AA403" s="39"/>
       <c r="AB403" s="39"/>
       <c r="AC403" s="39"/>
-      <c r="AD403" s="23"/>
+      <c r="AD403" s="64"/>
     </row>
     <row r="404" spans="17:30" s="21" customFormat="1">
       <c r="Q404" s="23"/>
@@ -27040,7 +27172,7 @@
       <c r="AA404" s="39"/>
       <c r="AB404" s="39"/>
       <c r="AC404" s="39"/>
-      <c r="AD404" s="23"/>
+      <c r="AD404" s="64"/>
     </row>
     <row r="405" spans="17:30" s="21" customFormat="1">
       <c r="Q405" s="23"/>
@@ -27056,7 +27188,7 @@
       <c r="AA405" s="39"/>
       <c r="AB405" s="39"/>
       <c r="AC405" s="39"/>
-      <c r="AD405" s="23"/>
+      <c r="AD405" s="64"/>
     </row>
     <row r="406" spans="17:30" s="21" customFormat="1">
       <c r="Q406" s="23"/>
@@ -27072,7 +27204,7 @@
       <c r="AA406" s="39"/>
       <c r="AB406" s="39"/>
       <c r="AC406" s="39"/>
-      <c r="AD406" s="23"/>
+      <c r="AD406" s="64"/>
     </row>
     <row r="407" spans="17:30" s="21" customFormat="1">
       <c r="Q407" s="23"/>
@@ -27088,7 +27220,7 @@
       <c r="AA407" s="39"/>
       <c r="AB407" s="39"/>
       <c r="AC407" s="39"/>
-      <c r="AD407" s="23"/>
+      <c r="AD407" s="64"/>
     </row>
     <row r="408" spans="17:30" s="21" customFormat="1">
       <c r="Q408" s="23"/>
@@ -27104,7 +27236,7 @@
       <c r="AA408" s="39"/>
       <c r="AB408" s="39"/>
       <c r="AC408" s="39"/>
-      <c r="AD408" s="23"/>
+      <c r="AD408" s="64"/>
     </row>
     <row r="409" spans="17:30" s="21" customFormat="1">
       <c r="Q409" s="23"/>
@@ -27120,7 +27252,7 @@
       <c r="AA409" s="39"/>
       <c r="AB409" s="39"/>
       <c r="AC409" s="39"/>
-      <c r="AD409" s="23"/>
+      <c r="AD409" s="64"/>
     </row>
     <row r="410" spans="17:30" s="21" customFormat="1">
       <c r="Q410" s="23"/>
@@ -27136,7 +27268,7 @@
       <c r="AA410" s="39"/>
       <c r="AB410" s="39"/>
       <c r="AC410" s="39"/>
-      <c r="AD410" s="23"/>
+      <c r="AD410" s="64"/>
     </row>
     <row r="411" spans="17:30" s="21" customFormat="1">
       <c r="Q411" s="23"/>
@@ -27152,7 +27284,7 @@
       <c r="AA411" s="39"/>
       <c r="AB411" s="39"/>
       <c r="AC411" s="39"/>
-      <c r="AD411" s="23"/>
+      <c r="AD411" s="64"/>
     </row>
     <row r="412" spans="17:30" s="21" customFormat="1">
       <c r="Q412" s="23"/>
@@ -27168,7 +27300,7 @@
       <c r="AA412" s="39"/>
       <c r="AB412" s="39"/>
       <c r="AC412" s="39"/>
-      <c r="AD412" s="23"/>
+      <c r="AD412" s="64"/>
     </row>
     <row r="413" spans="17:30" s="21" customFormat="1">
       <c r="Q413" s="23"/>
@@ -27184,7 +27316,7 @@
       <c r="AA413" s="39"/>
       <c r="AB413" s="39"/>
       <c r="AC413" s="39"/>
-      <c r="AD413" s="23"/>
+      <c r="AD413" s="64"/>
     </row>
     <row r="414" spans="17:30" s="21" customFormat="1">
       <c r="Q414" s="23"/>
@@ -27200,7 +27332,7 @@
       <c r="AA414" s="39"/>
       <c r="AB414" s="39"/>
       <c r="AC414" s="39"/>
-      <c r="AD414" s="23"/>
+      <c r="AD414" s="64"/>
     </row>
     <row r="415" spans="17:30" s="21" customFormat="1">
       <c r="Q415" s="39"/>
@@ -27216,7 +27348,7 @@
       <c r="AA415" s="39"/>
       <c r="AB415" s="39"/>
       <c r="AC415" s="39"/>
-      <c r="AD415" s="23"/>
+      <c r="AD415" s="64"/>
     </row>
     <row r="416" spans="17:30" s="21" customFormat="1">
       <c r="Q416" s="23"/>
@@ -27232,7 +27364,7 @@
       <c r="AA416" s="39"/>
       <c r="AB416" s="39"/>
       <c r="AC416" s="39"/>
-      <c r="AD416" s="23"/>
+      <c r="AD416" s="64"/>
     </row>
     <row r="417" spans="17:30" s="21" customFormat="1">
       <c r="Q417" s="23"/>
@@ -27248,7 +27380,7 @@
       <c r="AA417" s="23"/>
       <c r="AB417" s="23"/>
       <c r="AC417" s="23"/>
-      <c r="AD417" s="23"/>
+      <c r="AD417" s="64"/>
     </row>
     <row r="418" spans="17:30" s="21" customFormat="1">
       <c r="Q418" s="23"/>
@@ -27264,7 +27396,7 @@
       <c r="AA418" s="39"/>
       <c r="AB418" s="39"/>
       <c r="AC418" s="39"/>
-      <c r="AD418" s="23"/>
+      <c r="AD418" s="64"/>
     </row>
     <row r="419" spans="17:30" s="21" customFormat="1">
       <c r="Q419" s="23"/>
@@ -27280,7 +27412,7 @@
       <c r="AA419" s="39"/>
       <c r="AB419" s="39"/>
       <c r="AC419" s="39"/>
-      <c r="AD419" s="23"/>
+      <c r="AD419" s="64"/>
     </row>
     <row r="420" spans="17:30" s="21" customFormat="1">
       <c r="Q420" s="23"/>
@@ -27296,7 +27428,7 @@
       <c r="AA420" s="39"/>
       <c r="AB420" s="39"/>
       <c r="AC420" s="39"/>
-      <c r="AD420" s="23"/>
+      <c r="AD420" s="64"/>
     </row>
     <row r="421" spans="17:30" s="21" customFormat="1">
       <c r="Q421" s="39"/>
@@ -27312,7 +27444,7 @@
       <c r="AA421" s="39"/>
       <c r="AB421" s="39"/>
       <c r="AC421" s="39"/>
-      <c r="AD421" s="23"/>
+      <c r="AD421" s="64"/>
     </row>
     <row r="422" spans="17:30" s="21" customFormat="1">
       <c r="Q422" s="23"/>
@@ -27328,7 +27460,7 @@
       <c r="AA422" s="39"/>
       <c r="AB422" s="39"/>
       <c r="AC422" s="39"/>
-      <c r="AD422" s="23"/>
+      <c r="AD422" s="64"/>
     </row>
     <row r="423" spans="17:30" s="21" customFormat="1">
       <c r="Q423" s="39"/>
@@ -27344,7 +27476,7 @@
       <c r="AA423" s="39"/>
       <c r="AB423" s="39"/>
       <c r="AC423" s="39"/>
-      <c r="AD423" s="23"/>
+      <c r="AD423" s="64"/>
     </row>
     <row r="424" spans="17:30" s="21" customFormat="1">
       <c r="Q424" s="23"/>
@@ -27360,7 +27492,7 @@
       <c r="AA424" s="39"/>
       <c r="AB424" s="39"/>
       <c r="AC424" s="39"/>
-      <c r="AD424" s="23"/>
+      <c r="AD424" s="64"/>
     </row>
     <row r="425" spans="17:30" s="21" customFormat="1">
       <c r="Q425" s="39"/>
@@ -27376,7 +27508,7 @@
       <c r="AA425" s="39"/>
       <c r="AB425" s="39"/>
       <c r="AC425" s="39"/>
-      <c r="AD425" s="23"/>
+      <c r="AD425" s="64"/>
     </row>
     <row r="426" spans="17:30" s="21" customFormat="1">
       <c r="Q426" s="23"/>
@@ -27392,7 +27524,7 @@
       <c r="AA426" s="39"/>
       <c r="AB426" s="39"/>
       <c r="AC426" s="39"/>
-      <c r="AD426" s="23"/>
+      <c r="AD426" s="64"/>
     </row>
     <row r="427" spans="17:30" s="21" customFormat="1">
       <c r="Q427" s="23"/>
@@ -27408,7 +27540,7 @@
       <c r="AA427" s="23"/>
       <c r="AB427" s="23"/>
       <c r="AC427" s="23"/>
-      <c r="AD427" s="23"/>
+      <c r="AD427" s="64"/>
     </row>
     <row r="428" spans="17:30" s="21" customFormat="1">
       <c r="Q428" s="23"/>
@@ -27424,7 +27556,7 @@
       <c r="AA428" s="39"/>
       <c r="AB428" s="39"/>
       <c r="AC428" s="39"/>
-      <c r="AD428" s="23"/>
+      <c r="AD428" s="64"/>
     </row>
     <row r="429" spans="17:30" s="21" customFormat="1">
       <c r="Q429" s="23"/>
@@ -27440,7 +27572,7 @@
       <c r="AA429" s="39"/>
       <c r="AB429" s="39"/>
       <c r="AC429" s="39"/>
-      <c r="AD429" s="23"/>
+      <c r="AD429" s="64"/>
     </row>
     <row r="430" spans="17:30" s="21" customFormat="1">
       <c r="Q430" s="23"/>
@@ -27456,7 +27588,7 @@
       <c r="AA430" s="39"/>
       <c r="AB430" s="39"/>
       <c r="AC430" s="39"/>
-      <c r="AD430" s="23"/>
+      <c r="AD430" s="64"/>
     </row>
     <row r="431" spans="17:30" s="21" customFormat="1">
       <c r="Q431" s="23"/>
@@ -27472,7 +27604,7 @@
       <c r="AA431" s="39"/>
       <c r="AB431" s="39"/>
       <c r="AC431" s="39"/>
-      <c r="AD431" s="23"/>
+      <c r="AD431" s="64"/>
     </row>
     <row r="432" spans="17:30" s="21" customFormat="1">
       <c r="Q432" s="39"/>
@@ -27488,7 +27620,7 @@
       <c r="AA432" s="39"/>
       <c r="AB432" s="39"/>
       <c r="AC432" s="39"/>
-      <c r="AD432" s="23"/>
+      <c r="AD432" s="64"/>
     </row>
     <row r="433" spans="17:30" s="21" customFormat="1">
       <c r="Q433" s="23"/>
@@ -27504,7 +27636,7 @@
       <c r="AA433" s="23"/>
       <c r="AB433" s="23"/>
       <c r="AC433" s="23"/>
-      <c r="AD433" s="23"/>
+      <c r="AD433" s="64"/>
     </row>
     <row r="434" spans="17:30" s="21" customFormat="1">
       <c r="Q434" s="23"/>
@@ -27520,7 +27652,7 @@
       <c r="AA434" s="39"/>
       <c r="AB434" s="39"/>
       <c r="AC434" s="39"/>
-      <c r="AD434" s="23"/>
+      <c r="AD434" s="64"/>
     </row>
     <row r="435" spans="17:30" s="21" customFormat="1">
       <c r="Q435" s="23"/>
@@ -27536,7 +27668,7 @@
       <c r="AA435" s="39"/>
       <c r="AB435" s="39"/>
       <c r="AC435" s="39"/>
-      <c r="AD435" s="23"/>
+      <c r="AD435" s="64"/>
     </row>
     <row r="436" spans="17:30" s="21" customFormat="1">
       <c r="Q436" s="23"/>
@@ -27552,7 +27684,7 @@
       <c r="AA436" s="23"/>
       <c r="AB436" s="23"/>
       <c r="AC436" s="23"/>
-      <c r="AD436" s="23"/>
+      <c r="AD436" s="64"/>
     </row>
     <row r="437" spans="17:30" s="21" customFormat="1">
       <c r="Q437" s="23"/>
@@ -27568,7 +27700,7 @@
       <c r="AA437" s="39"/>
       <c r="AB437" s="39"/>
       <c r="AC437" s="39"/>
-      <c r="AD437" s="23"/>
+      <c r="AD437" s="64"/>
     </row>
     <row r="438" spans="17:30" s="21" customFormat="1">
       <c r="Q438" s="23"/>
@@ -27584,7 +27716,7 @@
       <c r="AA438" s="39"/>
       <c r="AB438" s="39"/>
       <c r="AC438" s="39"/>
-      <c r="AD438" s="23"/>
+      <c r="AD438" s="64"/>
     </row>
     <row r="439" spans="17:30" s="21" customFormat="1">
       <c r="Q439" s="23"/>
@@ -27600,7 +27732,7 @@
       <c r="AA439" s="39"/>
       <c r="AB439" s="39"/>
       <c r="AC439" s="39"/>
-      <c r="AD439" s="23"/>
+      <c r="AD439" s="64"/>
     </row>
     <row r="440" spans="17:30" s="21" customFormat="1">
       <c r="Q440" s="23"/>
@@ -27616,7 +27748,7 @@
       <c r="AA440" s="39"/>
       <c r="AB440" s="39"/>
       <c r="AC440" s="39"/>
-      <c r="AD440" s="23"/>
+      <c r="AD440" s="64"/>
     </row>
     <row r="441" spans="17:30" s="21" customFormat="1">
       <c r="Q441" s="23"/>
@@ -27632,7 +27764,7 @@
       <c r="AA441" s="39"/>
       <c r="AB441" s="39"/>
       <c r="AC441" s="39"/>
-      <c r="AD441" s="23"/>
+      <c r="AD441" s="64"/>
     </row>
     <row r="442" spans="17:30" s="21" customFormat="1">
       <c r="Q442" s="23"/>
@@ -27648,7 +27780,7 @@
       <c r="AA442" s="39"/>
       <c r="AB442" s="39"/>
       <c r="AC442" s="39"/>
-      <c r="AD442" s="23"/>
+      <c r="AD442" s="64"/>
     </row>
     <row r="443" spans="17:30" s="21" customFormat="1">
       <c r="Q443" s="23"/>
@@ -27664,7 +27796,7 @@
       <c r="AA443" s="39"/>
       <c r="AB443" s="39"/>
       <c r="AC443" s="39"/>
-      <c r="AD443" s="23"/>
+      <c r="AD443" s="64"/>
     </row>
     <row r="444" spans="17:30" s="21" customFormat="1">
       <c r="Q444" s="23"/>
@@ -27680,7 +27812,7 @@
       <c r="AA444" s="39"/>
       <c r="AB444" s="39"/>
       <c r="AC444" s="39"/>
-      <c r="AD444" s="23"/>
+      <c r="AD444" s="64"/>
     </row>
     <row r="445" spans="17:30" s="21" customFormat="1">
       <c r="Q445" s="39"/>
@@ -27696,7 +27828,7 @@
       <c r="AA445" s="39"/>
       <c r="AB445" s="39"/>
       <c r="AC445" s="39"/>
-      <c r="AD445" s="23"/>
+      <c r="AD445" s="64"/>
     </row>
     <row r="446" spans="17:30" s="21" customFormat="1">
       <c r="Q446" s="23"/>
@@ -27712,7 +27844,7 @@
       <c r="AA446" s="39"/>
       <c r="AB446" s="39"/>
       <c r="AC446" s="39"/>
-      <c r="AD446" s="23"/>
+      <c r="AD446" s="64"/>
     </row>
     <row r="447" spans="17:30" s="21" customFormat="1">
       <c r="Q447" s="23"/>
@@ -27728,7 +27860,7 @@
       <c r="AA447" s="23"/>
       <c r="AB447" s="23"/>
       <c r="AC447" s="23"/>
-      <c r="AD447" s="23"/>
+      <c r="AD447" s="64"/>
     </row>
     <row r="448" spans="17:30" s="21" customFormat="1">
       <c r="Q448" s="23"/>
@@ -27744,7 +27876,7 @@
       <c r="AA448" s="39"/>
       <c r="AB448" s="39"/>
       <c r="AC448" s="39"/>
-      <c r="AD448" s="23"/>
+      <c r="AD448" s="64"/>
     </row>
     <row r="449" spans="17:30" s="21" customFormat="1">
       <c r="Q449" s="23"/>
@@ -27760,7 +27892,7 @@
       <c r="AA449" s="23"/>
       <c r="AB449" s="23"/>
       <c r="AC449" s="23"/>
-      <c r="AD449" s="23"/>
+      <c r="AD449" s="64"/>
     </row>
     <row r="450" spans="17:30" s="21" customFormat="1">
       <c r="Q450" s="23"/>
@@ -27776,7 +27908,7 @@
       <c r="AA450" s="39"/>
       <c r="AB450" s="39"/>
       <c r="AC450" s="39"/>
-      <c r="AD450" s="23"/>
+      <c r="AD450" s="64"/>
     </row>
     <row r="451" spans="17:30" s="21" customFormat="1">
       <c r="Q451" s="23"/>
@@ -27792,7 +27924,7 @@
       <c r="AA451" s="39"/>
       <c r="AB451" s="39"/>
       <c r="AC451" s="39"/>
-      <c r="AD451" s="23"/>
+      <c r="AD451" s="64"/>
     </row>
     <row r="452" spans="17:30" s="21" customFormat="1">
       <c r="Q452" s="23"/>
@@ -27808,7 +27940,7 @@
       <c r="AA452" s="39"/>
       <c r="AB452" s="39"/>
       <c r="AC452" s="39"/>
-      <c r="AD452" s="23"/>
+      <c r="AD452" s="64"/>
     </row>
     <row r="453" spans="17:30" s="21" customFormat="1">
       <c r="Q453" s="23"/>
@@ -27824,7 +27956,7 @@
       <c r="AA453" s="39"/>
       <c r="AB453" s="39"/>
       <c r="AC453" s="39"/>
-      <c r="AD453" s="23"/>
+      <c r="AD453" s="64"/>
     </row>
     <row r="454" spans="17:30" s="21" customFormat="1">
       <c r="Q454" s="39"/>
@@ -27840,7 +27972,7 @@
       <c r="AA454" s="39"/>
       <c r="AB454" s="39"/>
       <c r="AC454" s="39"/>
-      <c r="AD454" s="23"/>
+      <c r="AD454" s="64"/>
     </row>
     <row r="455" spans="17:30" s="21" customFormat="1">
       <c r="Q455" s="23"/>
@@ -27856,7 +27988,7 @@
       <c r="AA455" s="39"/>
       <c r="AB455" s="39"/>
       <c r="AC455" s="39"/>
-      <c r="AD455" s="23"/>
+      <c r="AD455" s="64"/>
     </row>
     <row r="456" spans="17:30" s="21" customFormat="1">
       <c r="Q456" s="23"/>
@@ -27872,7 +28004,7 @@
       <c r="AA456" s="39"/>
       <c r="AB456" s="39"/>
       <c r="AC456" s="39"/>
-      <c r="AD456" s="23"/>
+      <c r="AD456" s="64"/>
     </row>
     <row r="457" spans="17:30" s="21" customFormat="1">
       <c r="Q457" s="23"/>
@@ -27888,7 +28020,7 @@
       <c r="AA457" s="39"/>
       <c r="AB457" s="39"/>
       <c r="AC457" s="39"/>
-      <c r="AD457" s="23"/>
+      <c r="AD457" s="64"/>
     </row>
     <row r="458" spans="17:30" s="21" customFormat="1">
       <c r="Q458" s="23"/>
@@ -27904,7 +28036,7 @@
       <c r="AA458" s="39"/>
       <c r="AB458" s="39"/>
       <c r="AC458" s="39"/>
-      <c r="AD458" s="23"/>
+      <c r="AD458" s="64"/>
     </row>
     <row r="459" spans="17:30" s="21" customFormat="1">
       <c r="Q459" s="23"/>
@@ -27920,7 +28052,7 @@
       <c r="AA459" s="39"/>
       <c r="AB459" s="39"/>
       <c r="AC459" s="39"/>
-      <c r="AD459" s="23"/>
+      <c r="AD459" s="64"/>
     </row>
     <row r="460" spans="17:30" s="21" customFormat="1">
       <c r="Q460" s="23"/>
@@ -27936,7 +28068,7 @@
       <c r="AA460" s="39"/>
       <c r="AB460" s="39"/>
       <c r="AC460" s="39"/>
-      <c r="AD460" s="23"/>
+      <c r="AD460" s="64"/>
     </row>
     <row r="461" spans="17:30" s="21" customFormat="1">
       <c r="Q461" s="39"/>
@@ -27952,7 +28084,7 @@
       <c r="AA461" s="39"/>
       <c r="AB461" s="39"/>
       <c r="AC461" s="39"/>
-      <c r="AD461" s="23"/>
+      <c r="AD461" s="64"/>
     </row>
     <row r="462" spans="17:30" s="21" customFormat="1">
       <c r="Q462" s="23"/>
@@ -27968,7 +28100,7 @@
       <c r="AA462" s="39"/>
       <c r="AB462" s="39"/>
       <c r="AC462" s="39"/>
-      <c r="AD462" s="23"/>
+      <c r="AD462" s="64"/>
     </row>
     <row r="463" spans="17:30" s="21" customFormat="1">
       <c r="Q463" s="23"/>
@@ -27984,7 +28116,7 @@
       <c r="AA463" s="23"/>
       <c r="AB463" s="23"/>
       <c r="AC463" s="23"/>
-      <c r="AD463" s="23"/>
+      <c r="AD463" s="64"/>
     </row>
     <row r="464" spans="17:30" s="21" customFormat="1">
       <c r="Q464" s="23"/>
@@ -28000,7 +28132,7 @@
       <c r="AA464" s="39"/>
       <c r="AB464" s="39"/>
       <c r="AC464" s="39"/>
-      <c r="AD464" s="23"/>
+      <c r="AD464" s="64"/>
     </row>
     <row r="465" spans="17:32" s="21" customFormat="1">
       <c r="Q465" s="23"/>
@@ -28016,7 +28148,7 @@
       <c r="AA465" s="23"/>
       <c r="AB465" s="23"/>
       <c r="AC465" s="23"/>
-      <c r="AD465" s="23"/>
+      <c r="AD465" s="64"/>
     </row>
     <row r="466" spans="17:32" s="21" customFormat="1">
       <c r="Q466" s="23"/>
@@ -28032,7 +28164,7 @@
       <c r="AA466" s="39"/>
       <c r="AB466" s="39"/>
       <c r="AC466" s="39"/>
-      <c r="AD466" s="23"/>
+      <c r="AD466" s="64"/>
     </row>
     <row r="467" spans="17:32" s="21" customFormat="1">
       <c r="Q467" s="23"/>
@@ -28048,7 +28180,7 @@
       <c r="AA467" s="39"/>
       <c r="AB467" s="39"/>
       <c r="AC467" s="39"/>
-      <c r="AD467" s="23"/>
+      <c r="AD467" s="64"/>
     </row>
     <row r="468" spans="17:32" s="21" customFormat="1">
       <c r="Q468" s="23"/>
@@ -28064,7 +28196,7 @@
       <c r="AA468" s="39"/>
       <c r="AB468" s="39"/>
       <c r="AC468" s="39"/>
-      <c r="AD468" s="23"/>
+      <c r="AD468" s="64"/>
     </row>
     <row r="469" spans="17:32" s="21" customFormat="1">
       <c r="Q469" s="23"/>
@@ -28080,7 +28212,7 @@
       <c r="AA469" s="23"/>
       <c r="AB469" s="23"/>
       <c r="AC469" s="23"/>
-      <c r="AD469" s="23"/>
+      <c r="AD469" s="64"/>
     </row>
     <row r="470" spans="17:32" s="21" customFormat="1">
       <c r="Q470" s="23"/>
@@ -28096,7 +28228,7 @@
       <c r="AA470" s="39"/>
       <c r="AB470" s="39"/>
       <c r="AC470" s="39"/>
-      <c r="AD470" s="23"/>
+      <c r="AD470" s="64"/>
     </row>
     <row r="471" spans="17:32" s="21" customFormat="1">
       <c r="Q471" s="23"/>
@@ -28112,7 +28244,7 @@
       <c r="AA471" s="23"/>
       <c r="AB471" s="23"/>
       <c r="AC471" s="23"/>
-      <c r="AD471" s="23"/>
+      <c r="AD471" s="64"/>
     </row>
     <row r="472" spans="17:32" s="21" customFormat="1">
       <c r="Q472" s="23"/>
@@ -28128,7 +28260,7 @@
       <c r="AA472" s="39"/>
       <c r="AB472" s="39"/>
       <c r="AC472" s="39"/>
-      <c r="AD472" s="23"/>
+      <c r="AD472" s="64"/>
     </row>
     <row r="473" spans="17:32" s="21" customFormat="1">
       <c r="Q473" s="23"/>
@@ -28144,7 +28276,7 @@
       <c r="AA473" s="39"/>
       <c r="AB473" s="39"/>
       <c r="AC473" s="39"/>
-      <c r="AD473" s="23"/>
+      <c r="AD473" s="64"/>
     </row>
     <row r="474" spans="17:32" s="21" customFormat="1">
       <c r="Q474" s="23"/>
@@ -28160,7 +28292,7 @@
       <c r="AA474" s="39"/>
       <c r="AB474" s="39"/>
       <c r="AC474" s="39"/>
-      <c r="AD474" s="23"/>
+      <c r="AD474" s="64"/>
     </row>
     <row r="475" spans="17:32" s="21" customFormat="1">
       <c r="Q475" s="23"/>
@@ -28176,7 +28308,7 @@
       <c r="AA475" s="39"/>
       <c r="AB475" s="39"/>
       <c r="AC475" s="39"/>
-      <c r="AD475" s="23"/>
+      <c r="AD475" s="64"/>
     </row>
     <row r="476" spans="17:32" s="21" customFormat="1">
       <c r="Q476" s="23"/>
@@ -28192,7 +28324,7 @@
       <c r="AA476" s="39"/>
       <c r="AB476" s="39"/>
       <c r="AC476" s="39"/>
-      <c r="AD476" s="23"/>
+      <c r="AD476" s="64"/>
     </row>
     <row r="477" spans="17:32" s="21" customFormat="1">
       <c r="Q477" s="23"/>
@@ -28208,7 +28340,7 @@
       <c r="AA477" s="23"/>
       <c r="AB477" s="23"/>
       <c r="AC477" s="23"/>
-      <c r="AD477" s="23"/>
+      <c r="AD477" s="64"/>
     </row>
     <row r="478" spans="17:32" s="21" customFormat="1">
       <c r="Q478" s="23"/>
@@ -28224,7 +28356,7 @@
       <c r="AA478" s="23"/>
       <c r="AB478" s="23"/>
       <c r="AC478" s="23"/>
-      <c r="AD478" s="23"/>
+      <c r="AD478" s="64"/>
       <c r="AF478" s="22"/>
     </row>
     <row r="479" spans="17:32" s="21" customFormat="1">
@@ -28241,7 +28373,7 @@
       <c r="AA479" s="39"/>
       <c r="AB479" s="39"/>
       <c r="AC479" s="39"/>
-      <c r="AD479" s="23"/>
+      <c r="AD479" s="64"/>
     </row>
     <row r="480" spans="17:32" s="21" customFormat="1">
       <c r="Q480" s="23"/>
@@ -28257,7 +28389,7 @@
       <c r="AA480" s="23"/>
       <c r="AB480" s="23"/>
       <c r="AC480" s="23"/>
-      <c r="AD480" s="23"/>
+      <c r="AD480" s="64"/>
       <c r="AF480" s="22"/>
     </row>
     <row r="481" spans="17:32" s="21" customFormat="1">
@@ -28274,7 +28406,7 @@
       <c r="AA481" s="23"/>
       <c r="AB481" s="23"/>
       <c r="AC481" s="23"/>
-      <c r="AD481" s="23"/>
+      <c r="AD481" s="64"/>
       <c r="AF481" s="22"/>
     </row>
     <row r="482" spans="17:32" s="21" customFormat="1">
@@ -28291,7 +28423,7 @@
       <c r="AA482" s="39"/>
       <c r="AB482" s="39"/>
       <c r="AC482" s="39"/>
-      <c r="AD482" s="23"/>
+      <c r="AD482" s="64"/>
     </row>
     <row r="483" spans="17:32" s="21" customFormat="1">
       <c r="Q483" s="23"/>
@@ -28307,7 +28439,7 @@
       <c r="AA483" s="39"/>
       <c r="AB483" s="39"/>
       <c r="AC483" s="39"/>
-      <c r="AD483" s="23"/>
+      <c r="AD483" s="64"/>
     </row>
     <row r="484" spans="17:32" s="21" customFormat="1">
       <c r="Q484" s="39"/>
@@ -28323,7 +28455,7 @@
       <c r="AA484" s="39"/>
       <c r="AB484" s="39"/>
       <c r="AC484" s="39"/>
-      <c r="AD484" s="23"/>
+      <c r="AD484" s="64"/>
     </row>
     <row r="485" spans="17:32" s="21" customFormat="1">
       <c r="Q485" s="23"/>
@@ -28339,7 +28471,7 @@
       <c r="AA485" s="39"/>
       <c r="AB485" s="39"/>
       <c r="AC485" s="39"/>
-      <c r="AD485" s="23"/>
+      <c r="AD485" s="64"/>
     </row>
     <row r="486" spans="17:32" s="21" customFormat="1">
       <c r="Q486" s="23"/>
@@ -28355,7 +28487,7 @@
       <c r="AA486" s="23"/>
       <c r="AB486" s="23"/>
       <c r="AC486" s="23"/>
-      <c r="AD486" s="23"/>
+      <c r="AD486" s="64"/>
       <c r="AF486" s="22"/>
     </row>
     <row r="487" spans="17:32" s="21" customFormat="1">
@@ -28372,7 +28504,7 @@
       <c r="AA487" s="39"/>
       <c r="AB487" s="39"/>
       <c r="AC487" s="39"/>
-      <c r="AD487" s="23"/>
+      <c r="AD487" s="64"/>
     </row>
     <row r="488" spans="17:32" s="21" customFormat="1">
       <c r="Q488" s="23"/>
@@ -28388,7 +28520,7 @@
       <c r="AA488" s="23"/>
       <c r="AB488" s="23"/>
       <c r="AC488" s="23"/>
-      <c r="AD488" s="23"/>
+      <c r="AD488" s="64"/>
     </row>
     <row r="489" spans="17:32" s="21" customFormat="1">
       <c r="Q489" s="23"/>
@@ -28404,7 +28536,7 @@
       <c r="AA489" s="23"/>
       <c r="AB489" s="23"/>
       <c r="AC489" s="23"/>
-      <c r="AD489" s="23"/>
+      <c r="AD489" s="64"/>
       <c r="AF489" s="22"/>
     </row>
     <row r="490" spans="17:32" s="21" customFormat="1">
@@ -28421,7 +28553,7 @@
       <c r="AA490" s="39"/>
       <c r="AB490" s="39"/>
       <c r="AC490" s="39"/>
-      <c r="AD490" s="23"/>
+      <c r="AD490" s="64"/>
     </row>
     <row r="491" spans="17:32" s="21" customFormat="1">
       <c r="Q491" s="39"/>
@@ -28437,7 +28569,7 @@
       <c r="AA491" s="39"/>
       <c r="AB491" s="39"/>
       <c r="AC491" s="39"/>
-      <c r="AD491" s="23"/>
+      <c r="AD491" s="64"/>
     </row>
     <row r="492" spans="17:32" s="21" customFormat="1">
       <c r="Q492" s="39"/>
@@ -28453,7 +28585,7 @@
       <c r="AA492" s="39"/>
       <c r="AB492" s="39"/>
       <c r="AC492" s="39"/>
-      <c r="AD492" s="23"/>
+      <c r="AD492" s="64"/>
     </row>
     <row r="493" spans="17:32" s="21" customFormat="1">
       <c r="Q493" s="23"/>
@@ -28469,7 +28601,7 @@
       <c r="AA493" s="39"/>
       <c r="AB493" s="39"/>
       <c r="AC493" s="39"/>
-      <c r="AD493" s="23"/>
+      <c r="AD493" s="64"/>
     </row>
     <row r="494" spans="17:32" s="21" customFormat="1">
       <c r="Q494" s="23"/>
@@ -28485,7 +28617,7 @@
       <c r="AA494" s="39"/>
       <c r="AB494" s="39"/>
       <c r="AC494" s="39"/>
-      <c r="AD494" s="23"/>
+      <c r="AD494" s="64"/>
     </row>
     <row r="495" spans="17:32" s="21" customFormat="1">
       <c r="Q495" s="23"/>
@@ -28501,7 +28633,7 @@
       <c r="AA495" s="23"/>
       <c r="AB495" s="23"/>
       <c r="AC495" s="23"/>
-      <c r="AD495" s="23"/>
+      <c r="AD495" s="64"/>
     </row>
     <row r="496" spans="17:32" s="21" customFormat="1">
       <c r="Q496" s="23"/>
@@ -28517,7 +28649,7 @@
       <c r="AA496" s="23"/>
       <c r="AB496" s="23"/>
       <c r="AC496" s="23"/>
-      <c r="AD496" s="23"/>
+      <c r="AD496" s="64"/>
       <c r="AF496" s="22"/>
     </row>
     <row r="497" spans="17:32" s="21" customFormat="1">
@@ -28534,7 +28666,7 @@
       <c r="AA497" s="39"/>
       <c r="AB497" s="39"/>
       <c r="AC497" s="39"/>
-      <c r="AD497" s="23"/>
+      <c r="AD497" s="64"/>
     </row>
     <row r="498" spans="17:32" s="21" customFormat="1">
       <c r="Q498" s="23"/>
@@ -28550,7 +28682,7 @@
       <c r="AA498" s="39"/>
       <c r="AB498" s="39"/>
       <c r="AC498" s="39"/>
-      <c r="AD498" s="23"/>
+      <c r="AD498" s="64"/>
     </row>
     <row r="499" spans="17:32" s="21" customFormat="1">
       <c r="Q499" s="23"/>
@@ -28566,7 +28698,7 @@
       <c r="AA499" s="39"/>
       <c r="AB499" s="39"/>
       <c r="AC499" s="39"/>
-      <c r="AD499" s="23"/>
+      <c r="AD499" s="64"/>
     </row>
     <row r="500" spans="17:32" s="21" customFormat="1">
       <c r="Q500" s="23"/>
@@ -28582,7 +28714,7 @@
       <c r="AA500" s="39"/>
       <c r="AB500" s="39"/>
       <c r="AC500" s="39"/>
-      <c r="AD500" s="23"/>
+      <c r="AD500" s="64"/>
     </row>
     <row r="501" spans="17:32" s="21" customFormat="1">
       <c r="Q501" s="23"/>
@@ -28598,7 +28730,7 @@
       <c r="AA501" s="39"/>
       <c r="AB501" s="39"/>
       <c r="AC501" s="39"/>
-      <c r="AD501" s="23"/>
+      <c r="AD501" s="64"/>
     </row>
     <row r="502" spans="17:32" s="21" customFormat="1">
       <c r="Q502" s="23"/>
@@ -28614,7 +28746,7 @@
       <c r="AA502" s="23"/>
       <c r="AB502" s="23"/>
       <c r="AC502" s="23"/>
-      <c r="AD502" s="23"/>
+      <c r="AD502" s="64"/>
     </row>
     <row r="503" spans="17:32" s="21" customFormat="1">
       <c r="Q503" s="23"/>
@@ -28630,7 +28762,7 @@
       <c r="AA503" s="23"/>
       <c r="AB503" s="23"/>
       <c r="AC503" s="23"/>
-      <c r="AD503" s="23"/>
+      <c r="AD503" s="64"/>
       <c r="AF503" s="22"/>
     </row>
     <row r="504" spans="17:32" s="21" customFormat="1">
@@ -28647,7 +28779,7 @@
       <c r="AA504" s="39"/>
       <c r="AB504" s="39"/>
       <c r="AC504" s="39"/>
-      <c r="AD504" s="23"/>
+      <c r="AD504" s="64"/>
     </row>
     <row r="505" spans="17:32" s="21" customFormat="1">
       <c r="Q505" s="39"/>
@@ -28663,7 +28795,7 @@
       <c r="AA505" s="39"/>
       <c r="AB505" s="39"/>
       <c r="AC505" s="39"/>
-      <c r="AD505" s="23"/>
+      <c r="AD505" s="64"/>
     </row>
     <row r="506" spans="17:32" s="21" customFormat="1">
       <c r="Q506" s="23"/>
@@ -28679,7 +28811,7 @@
       <c r="AA506" s="23"/>
       <c r="AB506" s="23"/>
       <c r="AC506" s="23"/>
-      <c r="AD506" s="23"/>
+      <c r="AD506" s="64"/>
       <c r="AF506" s="22"/>
     </row>
     <row r="507" spans="17:32" s="21" customFormat="1">
@@ -28696,7 +28828,7 @@
       <c r="AA507" s="39"/>
       <c r="AB507" s="39"/>
       <c r="AC507" s="39"/>
-      <c r="AD507" s="23"/>
+      <c r="AD507" s="64"/>
     </row>
     <row r="508" spans="17:32" s="21" customFormat="1">
       <c r="Q508" s="23"/>
@@ -28712,7 +28844,7 @@
       <c r="AA508" s="39"/>
       <c r="AB508" s="39"/>
       <c r="AC508" s="39"/>
-      <c r="AD508" s="23"/>
+      <c r="AD508" s="64"/>
     </row>
     <row r="509" spans="17:32" s="21" customFormat="1">
       <c r="Q509" s="23"/>
@@ -28728,7 +28860,7 @@
       <c r="AA509" s="39"/>
       <c r="AB509" s="39"/>
       <c r="AC509" s="39"/>
-      <c r="AD509" s="23"/>
+      <c r="AD509" s="64"/>
     </row>
     <row r="510" spans="17:32" s="21" customFormat="1">
       <c r="Q510" s="23"/>
@@ -28744,7 +28876,7 @@
       <c r="AA510" s="23"/>
       <c r="AB510" s="23"/>
       <c r="AC510" s="23"/>
-      <c r="AD510" s="23"/>
+      <c r="AD510" s="64"/>
     </row>
     <row r="511" spans="17:32" s="21" customFormat="1">
       <c r="Q511" s="23"/>
@@ -28760,7 +28892,7 @@
       <c r="AA511" s="23"/>
       <c r="AB511" s="23"/>
       <c r="AC511" s="23"/>
-      <c r="AD511" s="23"/>
+      <c r="AD511" s="64"/>
       <c r="AF511" s="22"/>
     </row>
     <row r="512" spans="17:32" s="21" customFormat="1">
@@ -28777,7 +28909,7 @@
       <c r="AA512" s="39"/>
       <c r="AB512" s="39"/>
       <c r="AC512" s="39"/>
-      <c r="AD512" s="23"/>
+      <c r="AD512" s="64"/>
     </row>
     <row r="513" spans="17:32" s="21" customFormat="1">
       <c r="Q513" s="23"/>
@@ -28793,7 +28925,7 @@
       <c r="AA513" s="39"/>
       <c r="AB513" s="39"/>
       <c r="AC513" s="39"/>
-      <c r="AD513" s="23"/>
+      <c r="AD513" s="64"/>
     </row>
     <row r="514" spans="17:32" s="21" customFormat="1">
       <c r="Q514" s="23"/>
@@ -28809,7 +28941,7 @@
       <c r="AA514" s="39"/>
       <c r="AB514" s="39"/>
       <c r="AC514" s="39"/>
-      <c r="AD514" s="23"/>
+      <c r="AD514" s="64"/>
     </row>
     <row r="515" spans="17:32" s="21" customFormat="1">
       <c r="Q515" s="23"/>
@@ -28825,7 +28957,7 @@
       <c r="AA515" s="39"/>
       <c r="AB515" s="39"/>
       <c r="AC515" s="39"/>
-      <c r="AD515" s="23"/>
+      <c r="AD515" s="64"/>
     </row>
     <row r="516" spans="17:32" s="21" customFormat="1">
       <c r="Q516" s="23"/>
@@ -28841,7 +28973,7 @@
       <c r="AA516" s="39"/>
       <c r="AB516" s="39"/>
       <c r="AC516" s="39"/>
-      <c r="AD516" s="23"/>
+      <c r="AD516" s="64"/>
     </row>
     <row r="517" spans="17:32" s="21" customFormat="1">
       <c r="Q517" s="23"/>
@@ -28857,7 +28989,7 @@
       <c r="AA517" s="23"/>
       <c r="AB517" s="23"/>
       <c r="AC517" s="23"/>
-      <c r="AD517" s="23"/>
+      <c r="AD517" s="64"/>
     </row>
     <row r="518" spans="17:32" s="21" customFormat="1">
       <c r="Q518" s="23"/>
@@ -28873,7 +29005,7 @@
       <c r="AA518" s="23"/>
       <c r="AB518" s="23"/>
       <c r="AC518" s="23"/>
-      <c r="AD518" s="23"/>
+      <c r="AD518" s="64"/>
       <c r="AF518" s="22"/>
     </row>
     <row r="519" spans="17:32" s="21" customFormat="1">
@@ -28890,7 +29022,7 @@
       <c r="AA519" s="39"/>
       <c r="AB519" s="39"/>
       <c r="AC519" s="39"/>
-      <c r="AD519" s="23"/>
+      <c r="AD519" s="64"/>
     </row>
     <row r="520" spans="17:32" s="21" customFormat="1">
       <c r="Q520" s="39"/>
@@ -28906,7 +29038,7 @@
       <c r="AA520" s="39"/>
       <c r="AB520" s="39"/>
       <c r="AC520" s="39"/>
-      <c r="AD520" s="23"/>
+      <c r="AD520" s="64"/>
     </row>
     <row r="521" spans="17:32" s="21" customFormat="1">
       <c r="Q521" s="23"/>
@@ -28922,7 +29054,7 @@
       <c r="AA521" s="23"/>
       <c r="AB521" s="23"/>
       <c r="AC521" s="23"/>
-      <c r="AD521" s="23"/>
+      <c r="AD521" s="64"/>
       <c r="AF521" s="22"/>
     </row>
     <row r="522" spans="17:32" s="21" customFormat="1">
@@ -28939,7 +29071,7 @@
       <c r="AA522" s="39"/>
       <c r="AB522" s="39"/>
       <c r="AC522" s="39"/>
-      <c r="AD522" s="23"/>
+      <c r="AD522" s="64"/>
     </row>
     <row r="523" spans="17:32" s="21" customFormat="1">
       <c r="Q523" s="23"/>
@@ -28955,7 +29087,7 @@
       <c r="AA523" s="39"/>
       <c r="AB523" s="39"/>
       <c r="AC523" s="39"/>
-      <c r="AD523" s="23"/>
+      <c r="AD523" s="64"/>
     </row>
     <row r="524" spans="17:32" s="21" customFormat="1">
       <c r="Q524" s="23"/>
@@ -28971,7 +29103,7 @@
       <c r="AA524" s="39"/>
       <c r="AB524" s="39"/>
       <c r="AC524" s="39"/>
-      <c r="AD524" s="23"/>
+      <c r="AD524" s="64"/>
     </row>
     <row r="525" spans="17:32" s="21" customFormat="1">
       <c r="Q525" s="23"/>
@@ -28987,7 +29119,7 @@
       <c r="AA525" s="39"/>
       <c r="AB525" s="39"/>
       <c r="AC525" s="39"/>
-      <c r="AD525" s="23"/>
+      <c r="AD525" s="64"/>
     </row>
     <row r="526" spans="17:32" s="21" customFormat="1">
       <c r="Q526" s="39"/>
@@ -29003,7 +29135,7 @@
       <c r="AA526" s="23"/>
       <c r="AB526" s="23"/>
       <c r="AC526" s="23"/>
-      <c r="AD526" s="23"/>
+      <c r="AD526" s="64"/>
       <c r="AF526" s="22"/>
     </row>
     <row r="527" spans="17:32" s="21" customFormat="1">
@@ -29020,7 +29152,7 @@
       <c r="AA527" s="23"/>
       <c r="AB527" s="23"/>
       <c r="AC527" s="23"/>
-      <c r="AD527" s="23"/>
+      <c r="AD527" s="64"/>
       <c r="AF527" s="22"/>
     </row>
     <row r="528" spans="17:32" s="21" customFormat="1">
@@ -29037,7 +29169,7 @@
       <c r="AA528" s="23"/>
       <c r="AB528" s="23"/>
       <c r="AC528" s="23"/>
-      <c r="AD528" s="23"/>
+      <c r="AD528" s="64"/>
     </row>
     <row r="529" spans="9:32" s="21" customFormat="1">
       <c r="Q529" s="23"/>
@@ -29053,7 +29185,7 @@
       <c r="AA529" s="23"/>
       <c r="AB529" s="23"/>
       <c r="AC529" s="23"/>
-      <c r="AD529" s="23"/>
+      <c r="AD529" s="64"/>
     </row>
     <row r="530" spans="9:32" s="21" customFormat="1">
       <c r="Q530" s="23"/>
@@ -29069,7 +29201,7 @@
       <c r="AA530" s="23"/>
       <c r="AB530" s="23"/>
       <c r="AC530" s="23"/>
-      <c r="AD530" s="23"/>
+      <c r="AD530" s="64"/>
     </row>
     <row r="531" spans="9:32" s="21" customFormat="1">
       <c r="Q531" s="23"/>
@@ -29085,7 +29217,7 @@
       <c r="AA531" s="39"/>
       <c r="AB531" s="39"/>
       <c r="AC531" s="39"/>
-      <c r="AD531" s="23"/>
+      <c r="AD531" s="64"/>
     </row>
     <row r="532" spans="9:32" s="21" customFormat="1">
       <c r="Q532" s="23"/>
@@ -29101,7 +29233,7 @@
       <c r="AA532" s="39"/>
       <c r="AB532" s="39"/>
       <c r="AC532" s="39"/>
-      <c r="AD532" s="23"/>
+      <c r="AD532" s="64"/>
     </row>
     <row r="533" spans="9:32" s="21" customFormat="1">
       <c r="Q533" s="23"/>
@@ -29117,7 +29249,7 @@
       <c r="AA533" s="23"/>
       <c r="AB533" s="23"/>
       <c r="AC533" s="23"/>
-      <c r="AD533" s="23"/>
+      <c r="AD533" s="64"/>
       <c r="AF533" s="22"/>
     </row>
     <row r="534" spans="9:32" s="21" customFormat="1">
@@ -29136,7 +29268,7 @@
       <c r="AA534" s="39"/>
       <c r="AB534" s="39"/>
       <c r="AC534" s="39"/>
-      <c r="AD534" s="23"/>
+      <c r="AD534" s="64"/>
     </row>
     <row r="535" spans="9:32" s="21" customFormat="1">
       <c r="I535" s="35"/>
@@ -29155,7 +29287,7 @@
       <c r="AA535" s="39"/>
       <c r="AB535" s="39"/>
       <c r="AC535" s="39"/>
-      <c r="AD535" s="23"/>
+      <c r="AD535" s="64"/>
     </row>
     <row r="536" spans="9:32" s="21" customFormat="1">
       <c r="Q536" s="39"/>
@@ -29171,7 +29303,7 @@
       <c r="AA536" s="39"/>
       <c r="AB536" s="39"/>
       <c r="AC536" s="39"/>
-      <c r="AD536" s="23"/>
+      <c r="AD536" s="64"/>
     </row>
     <row r="537" spans="9:32" s="21" customFormat="1">
       <c r="Q537" s="23"/>
@@ -29187,7 +29319,7 @@
       <c r="AA537" s="23"/>
       <c r="AB537" s="23"/>
       <c r="AC537" s="23"/>
-      <c r="AD537" s="23"/>
+      <c r="AD537" s="64"/>
     </row>
     <row r="538" spans="9:32" s="21" customFormat="1">
       <c r="Q538" s="23"/>
@@ -29203,7 +29335,7 @@
       <c r="AA538" s="23"/>
       <c r="AB538" s="23"/>
       <c r="AC538" s="23"/>
-      <c r="AD538" s="23"/>
+      <c r="AD538" s="64"/>
       <c r="AF538" s="22"/>
     </row>
     <row r="539" spans="9:32" s="21" customFormat="1">
@@ -29220,7 +29352,7 @@
       <c r="AA539" s="39"/>
       <c r="AB539" s="39"/>
       <c r="AC539" s="39"/>
-      <c r="AD539" s="23"/>
+      <c r="AD539" s="64"/>
     </row>
     <row r="540" spans="9:32" s="21" customFormat="1">
       <c r="Q540" s="23"/>
@@ -29236,7 +29368,7 @@
       <c r="AA540" s="39"/>
       <c r="AB540" s="39"/>
       <c r="AC540" s="39"/>
-      <c r="AD540" s="23"/>
+      <c r="AD540" s="64"/>
     </row>
     <row r="541" spans="9:32" s="21" customFormat="1">
       <c r="Q541" s="23"/>
@@ -29252,7 +29384,7 @@
       <c r="AA541" s="39"/>
       <c r="AB541" s="39"/>
       <c r="AC541" s="39"/>
-      <c r="AD541" s="23"/>
+      <c r="AD541" s="64"/>
     </row>
     <row r="542" spans="9:32" s="21" customFormat="1">
       <c r="Q542" s="23"/>
@@ -29268,7 +29400,7 @@
       <c r="AA542" s="39"/>
       <c r="AB542" s="39"/>
       <c r="AC542" s="39"/>
-      <c r="AD542" s="23"/>
+      <c r="AD542" s="64"/>
     </row>
     <row r="543" spans="9:32" s="21" customFormat="1">
       <c r="Q543" s="23"/>
@@ -29284,7 +29416,7 @@
       <c r="AA543" s="39"/>
       <c r="AB543" s="39"/>
       <c r="AC543" s="39"/>
-      <c r="AD543" s="23"/>
+      <c r="AD543" s="64"/>
     </row>
     <row r="544" spans="9:32" s="21" customFormat="1">
       <c r="Q544" s="39"/>
@@ -29300,7 +29432,7 @@
       <c r="AA544" s="39"/>
       <c r="AB544" s="39"/>
       <c r="AC544" s="39"/>
-      <c r="AD544" s="23"/>
+      <c r="AD544" s="64"/>
     </row>
     <row r="545" spans="16:32" s="21" customFormat="1">
       <c r="Q545" s="23"/>
@@ -29316,7 +29448,7 @@
       <c r="AA545" s="23"/>
       <c r="AB545" s="23"/>
       <c r="AC545" s="23"/>
-      <c r="AD545" s="23"/>
+      <c r="AD545" s="64"/>
       <c r="AF545" s="22"/>
     </row>
     <row r="546" spans="16:32" s="21" customFormat="1">
@@ -29333,7 +29465,7 @@
       <c r="AA546" s="39"/>
       <c r="AB546" s="39"/>
       <c r="AC546" s="39"/>
-      <c r="AD546" s="23"/>
+      <c r="AD546" s="64"/>
     </row>
     <row r="547" spans="16:32" s="21" customFormat="1">
       <c r="Q547" s="23"/>
@@ -29349,7 +29481,7 @@
       <c r="AA547" s="39"/>
       <c r="AB547" s="39"/>
       <c r="AC547" s="39"/>
-      <c r="AD547" s="23"/>
+      <c r="AD547" s="64"/>
     </row>
     <row r="548" spans="16:32" s="21" customFormat="1">
       <c r="Q548" s="23"/>
@@ -29365,7 +29497,7 @@
       <c r="AA548" s="39"/>
       <c r="AB548" s="39"/>
       <c r="AC548" s="39"/>
-      <c r="AD548" s="23"/>
+      <c r="AD548" s="64"/>
     </row>
     <row r="549" spans="16:32" s="21" customFormat="1">
       <c r="P549" s="22"/>
@@ -29381,7 +29513,7 @@
       <c r="Z549" s="39"/>
       <c r="AA549" s="39"/>
       <c r="AB549" s="39"/>
-      <c r="AD549" s="23"/>
+      <c r="AD549" s="64"/>
     </row>
     <row r="550" spans="16:32" s="21" customFormat="1">
       <c r="Q550" s="23"/>
@@ -29397,7 +29529,7 @@
       <c r="AA550" s="39"/>
       <c r="AB550" s="39"/>
       <c r="AC550" s="39"/>
-      <c r="AD550" s="23"/>
+      <c r="AD550" s="64"/>
     </row>
     <row r="551" spans="16:32" s="21" customFormat="1">
       <c r="Q551" s="23"/>
@@ -29413,7 +29545,7 @@
       <c r="AA551" s="39"/>
       <c r="AB551" s="39"/>
       <c r="AC551" s="39"/>
-      <c r="AD551" s="23"/>
+      <c r="AD551" s="64"/>
     </row>
     <row r="552" spans="16:32" s="21" customFormat="1">
       <c r="Q552" s="23"/>
@@ -29429,7 +29561,7 @@
       <c r="AA552" s="39"/>
       <c r="AB552" s="39"/>
       <c r="AC552" s="39"/>
-      <c r="AD552" s="23"/>
+      <c r="AD552" s="64"/>
     </row>
     <row r="553" spans="16:32" s="21" customFormat="1">
       <c r="Q553" s="23"/>
@@ -29445,7 +29577,7 @@
       <c r="AA553" s="23"/>
       <c r="AB553" s="23"/>
       <c r="AC553" s="23"/>
-      <c r="AD553" s="23"/>
+      <c r="AD553" s="64"/>
     </row>
     <row r="554" spans="16:32" s="21" customFormat="1">
       <c r="Q554" s="23"/>
@@ -29461,7 +29593,7 @@
       <c r="AA554" s="23"/>
       <c r="AB554" s="23"/>
       <c r="AC554" s="23"/>
-      <c r="AD554" s="23"/>
+      <c r="AD554" s="64"/>
     </row>
     <row r="555" spans="16:32" s="21" customFormat="1">
       <c r="Q555" s="23"/>
@@ -29477,7 +29609,7 @@
       <c r="AA555" s="23"/>
       <c r="AB555" s="23"/>
       <c r="AC555" s="23"/>
-      <c r="AD555" s="23"/>
+      <c r="AD555" s="64"/>
       <c r="AF555" s="22"/>
     </row>
     <row r="556" spans="16:32" s="21" customFormat="1">
@@ -29494,7 +29626,7 @@
       <c r="AA556" s="39"/>
       <c r="AB556" s="39"/>
       <c r="AC556" s="39"/>
-      <c r="AD556" s="23"/>
+      <c r="AD556" s="64"/>
     </row>
     <row r="557" spans="16:32" s="21" customFormat="1">
       <c r="Q557" s="23"/>
@@ -29510,7 +29642,7 @@
       <c r="AA557" s="39"/>
       <c r="AB557" s="39"/>
       <c r="AC557" s="39"/>
-      <c r="AD557" s="23"/>
+      <c r="AD557" s="64"/>
     </row>
     <row r="558" spans="16:32" s="21" customFormat="1">
       <c r="Q558" s="23"/>
@@ -29526,7 +29658,7 @@
       <c r="AA558" s="39"/>
       <c r="AB558" s="39"/>
       <c r="AC558" s="39"/>
-      <c r="AD558" s="23"/>
+      <c r="AD558" s="64"/>
     </row>
     <row r="559" spans="16:32" s="21" customFormat="1">
       <c r="Q559" s="23"/>
@@ -29542,7 +29674,7 @@
       <c r="AA559" s="39"/>
       <c r="AB559" s="39"/>
       <c r="AC559" s="39"/>
-      <c r="AD559" s="23"/>
+      <c r="AD559" s="64"/>
     </row>
     <row r="560" spans="16:32" s="21" customFormat="1">
       <c r="Q560" s="23"/>
@@ -29558,7 +29690,7 @@
       <c r="AA560" s="39"/>
       <c r="AB560" s="39"/>
       <c r="AC560" s="39"/>
-      <c r="AD560" s="23"/>
+      <c r="AD560" s="64"/>
     </row>
     <row r="561" spans="9:30" s="21" customFormat="1">
       <c r="Q561" s="39"/>
@@ -29574,7 +29706,7 @@
       <c r="AA561" s="39"/>
       <c r="AB561" s="39"/>
       <c r="AC561" s="39"/>
-      <c r="AD561" s="23"/>
+      <c r="AD561" s="64"/>
     </row>
     <row r="562" spans="9:30" s="21" customFormat="1">
       <c r="Q562" s="23"/>
@@ -29590,7 +29722,7 @@
       <c r="AA562" s="39"/>
       <c r="AB562" s="39"/>
       <c r="AC562" s="39"/>
-      <c r="AD562" s="23"/>
+      <c r="AD562" s="64"/>
     </row>
     <row r="563" spans="9:30" s="21" customFormat="1">
       <c r="Q563" s="23"/>
@@ -29606,7 +29738,7 @@
       <c r="AA563" s="39"/>
       <c r="AB563" s="39"/>
       <c r="AC563" s="39"/>
-      <c r="AD563" s="23"/>
+      <c r="AD563" s="64"/>
     </row>
     <row r="564" spans="9:30" s="21" customFormat="1">
       <c r="J564" s="1"/>
@@ -29624,7 +29756,7 @@
       <c r="AA564" s="39"/>
       <c r="AB564" s="39"/>
       <c r="AC564" s="39"/>
-      <c r="AD564" s="23"/>
+      <c r="AD564" s="64"/>
     </row>
     <row r="565" spans="9:30">
       <c r="J565" s="35"/>
@@ -35567,10 +35699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO244"/>
+  <dimension ref="A1:AO245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J197" sqref="J197"/>
+    <sheetView topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -39392,12 +39524,23 @@
       </c>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="10"/>
-      <c r="B183" s="10"/>
-      <c r="C183" s="10"/>
+      <c r="A183" s="11">
+        <v>2</v>
+      </c>
+      <c r="B183" s="9">
+        <v>1</v>
+      </c>
+      <c r="C183" s="9">
+        <v>1</v>
+      </c>
       <c r="D183" s="10"/>
       <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
+      <c r="F183" s="9">
+        <v>1</v>
+      </c>
+      <c r="H183" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:22">
       <c r="A184" s="10"/>
@@ -39632,7 +39775,7 @@
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
-      <c r="F214" s="18"/>
+      <c r="F214" s="10"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="10"/>
@@ -39646,6 +39789,7 @@
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
       <c r="D216" s="10"/>
+      <c r="F216" s="18"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="10"/>
@@ -39709,6 +39853,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
       <c r="C227" s="10"/>
       <c r="D227" s="10"/>
     </row>
@@ -39762,6 +39907,7 @@
       <c r="C237" s="10"/>
     </row>
     <row r="238" spans="1:4">
+      <c r="A238" s="10"/>
       <c r="C238" s="10"/>
     </row>
     <row r="239" spans="1:4">
@@ -39781,6 +39927,9 @@
     </row>
     <row r="244" spans="3:3">
       <c r="C244" s="10"/>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -39793,8 +39942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="L190" sqref="L190"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44681,6 +44830,53 @@
         <v>3</v>
       </c>
     </row>
+    <row r="183" spans="1:19">
+      <c r="A183" s="1">
+        <v>2</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2</v>
+      </c>
+      <c r="F183" s="1">
+        <v>1</v>
+      </c>
+      <c r="G183" s="1">
+        <v>2</v>
+      </c>
+      <c r="H183" s="1">
+        <v>2</v>
+      </c>
+      <c r="I183" s="1">
+        <v>0</v>
+      </c>
+      <c r="J183" s="1">
+        <v>0</v>
+      </c>
+      <c r="K183" s="1">
+        <v>1</v>
+      </c>
+      <c r="N183" s="1">
+        <v>0</v>
+      </c>
+      <c r="O183" s="1">
+        <v>0</v>
+      </c>
+      <c r="P183" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q183" s="1">
+        <v>4</v>
+      </c>
+      <c r="R183" s="1">
+        <v>6</v>
+      </c>
+      <c r="S183" s="1">
+        <v>6</v>
+      </c>
+    </row>
     <row r="195" spans="14:19" customFormat="1">
       <c r="N195" s="18"/>
       <c r="O195" s="18"/>
@@ -44706,7 +44902,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN182"/>
+  <dimension ref="A100:AN183"/>
   <sheetViews>
     <sheetView topLeftCell="A161" workbookViewId="0">
       <selection activeCell="J192" sqref="J192"/>
@@ -48405,6 +48601,47 @@
         <v>5</v>
       </c>
     </row>
+    <row r="183" spans="1:19">
+      <c r="A183" s="9">
+        <v>1</v>
+      </c>
+      <c r="B183" s="9">
+        <v>1</v>
+      </c>
+      <c r="D183" s="9">
+        <v>1</v>
+      </c>
+      <c r="F183" s="9">
+        <v>1</v>
+      </c>
+      <c r="G183" s="9">
+        <v>1</v>
+      </c>
+      <c r="I183" s="9">
+        <v>1</v>
+      </c>
+      <c r="L183" s="16">
+        <v>1</v>
+      </c>
+      <c r="M183" s="16">
+        <v>2</v>
+      </c>
+      <c r="N183" s="16">
+        <v>4</v>
+      </c>
+      <c r="O183" s="16">
+        <v>6</v>
+      </c>
+      <c r="P183" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q183" s="16">
+        <v>9</v>
+      </c>
+      <c r="S183" s="16">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48414,10 +48651,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -48641,7 +48878,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -48779,7 +49016,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -48823,7 +49060,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -48894,7 +49131,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -48920,13 +49157,13 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
       </c>
       <c r="J11" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K11" s="18">
         <v>20</v>
@@ -48938,7 +49175,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -48946,16 +49183,16 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="G12" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
@@ -48970,7 +49207,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -48984,7 +49221,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13" s="18">
         <v>0</v>
@@ -48998,7 +49235,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -49006,13 +49243,18 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="N16" s="18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO106"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O80" sqref="O80"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6166,7 +6166,7 @@
         <v>5</v>
       </c>
       <c r="P52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="7">
         <v>17</v>
@@ -6648,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L57" s="7">
         <v>1</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="58" spans="1:33" s="3" customFormat="1">
       <c r="A58" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" s="7">
         <v>6</v>
@@ -6744,7 +6744,7 @@
         <v>7</v>
       </c>
       <c r="J58" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7">
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="AE58" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF58" s="7">
         <v>6</v>
@@ -6817,7 +6817,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" s="7">
         <v>6</v>
@@ -6853,6 +6853,9 @@
       <c r="Q59" s="7">
         <v>2</v>
       </c>
+      <c r="R59" s="7">
+        <v>0</v>
+      </c>
       <c r="S59" s="7">
         <v>2</v>
       </c>
@@ -6865,6 +6868,9 @@
       <c r="V59" s="7">
         <v>4</v>
       </c>
+      <c r="W59" s="7">
+        <v>0</v>
+      </c>
       <c r="X59" s="7">
         <v>1</v>
       </c>
@@ -6967,7 +6973,7 @@
         <v>3</v>
       </c>
       <c r="AG60" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
@@ -7017,7 +7023,7 @@
         <v>4</v>
       </c>
       <c r="T61" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U61" s="7">
         <v>0</v>
@@ -7117,7 +7123,7 @@
         <v>4</v>
       </c>
       <c r="AA62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB62" s="7">
         <v>12</v>
@@ -7125,7 +7131,9 @@
       <c r="AC62" s="7">
         <v>7</v>
       </c>
-      <c r="AD62" s="7"/>
+      <c r="AD62" s="7">
+        <v>0</v>
+      </c>
       <c r="AE62" s="3"/>
       <c r="AF62" s="7">
         <v>3</v>
@@ -7151,14 +7159,16 @@
         <v>5</v>
       </c>
       <c r="H63" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I63" s="7">
         <v>2</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="4"/>
+      <c r="L63" s="4">
+        <v>0</v>
+      </c>
       <c r="M63" s="7">
         <v>0</v>
       </c>
@@ -7188,7 +7198,7 @@
         <v>3</v>
       </c>
       <c r="Y63" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z63" s="4">
         <v>12</v>
@@ -7198,7 +7208,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="7"/>
       <c r="AE63" s="3"/>
@@ -7225,7 +7235,7 @@
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="4"/>
@@ -7267,7 +7277,7 @@
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG64" s="5"/>
     </row>
@@ -7296,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" s="4">
         <v>5</v>
@@ -7368,7 +7378,7 @@
       </c>
       <c r="T66" s="3"/>
       <c r="U66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66" s="4">
         <v>9</v>
@@ -7382,7 +7392,7 @@
         <v>4</v>
       </c>
       <c r="AB66" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7391,7 +7401,7 @@
     </row>
     <row r="67" spans="1:33">
       <c r="B67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="3">
         <v>2</v>
@@ -7400,7 +7410,7 @@
         <v>17</v>
       </c>
       <c r="F67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" s="2">
         <v>5</v>
@@ -7414,14 +7424,16 @@
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
         <v>11</v>
       </c>
       <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
+      <c r="S67" s="4">
+        <v>0</v>
+      </c>
       <c r="T67" s="7"/>
       <c r="U67" s="38"/>
       <c r="V67" s="4">
@@ -7432,7 +7444,7 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB67" s="12"/>
       <c r="AD67" s="4"/>
@@ -7449,7 +7461,7 @@
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -7471,7 +7483,9 @@
         <v>1</v>
       </c>
       <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
+      <c r="X68" s="4">
+        <v>0</v>
+      </c>
       <c r="Z68" s="4"/>
       <c r="AB68" s="12"/>
       <c r="AD68" s="4"/>
@@ -7504,7 +7518,7 @@
       <c r="T69" s="3"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
@@ -7592,7 +7606,7 @@
         <v>7</v>
       </c>
       <c r="E72" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72" s="4"/>
       <c r="I72" s="4"/>
@@ -7630,13 +7644,13 @@
       <c r="I73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
@@ -7685,7 +7699,7 @@
       <c r="A75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F75" s="4"/>
       <c r="H75" s="4"/>
@@ -8223,8 +8237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT957"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U196" sqref="U196"/>
+    <sheetView topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L191" sqref="L191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -21385,7 +21399,7 @@
       <c r="R161" s="19">
         <v>3</v>
       </c>
-      <c r="S161" s="20">
+      <c r="S161" s="19">
         <v>22</v>
       </c>
       <c r="T161" s="19">
@@ -21395,7 +21409,7 @@
         <v>10</v>
       </c>
       <c r="V161" s="20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W161" s="20"/>
       <c r="X161" s="19">
@@ -21410,7 +21424,9 @@
       <c r="AA161" s="22">
         <v>10</v>
       </c>
-      <c r="AB161" s="20"/>
+      <c r="AB161" s="22">
+        <v>22</v>
+      </c>
       <c r="AC161" s="20"/>
       <c r="AD161" s="64"/>
       <c r="AF161" s="39"/>
@@ -22300,7 +22316,7 @@
         <v>2</v>
       </c>
       <c r="R170" s="23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S170" s="22">
         <v>0</v>
@@ -22504,7 +22520,7 @@
       <c r="R172" s="22">
         <v>1</v>
       </c>
-      <c r="S172" s="23">
+      <c r="S172" s="22">
         <v>11</v>
       </c>
       <c r="T172" s="22">
@@ -22514,7 +22530,7 @@
         <v>5</v>
       </c>
       <c r="V172" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W172" s="23"/>
       <c r="X172" s="22">
@@ -22529,7 +22545,9 @@
       <c r="AA172" s="19">
         <v>5</v>
       </c>
-      <c r="AB172" s="23"/>
+      <c r="AB172" s="22">
+        <v>11</v>
+      </c>
       <c r="AC172" s="23"/>
       <c r="AD172" s="64"/>
       <c r="AF172" s="39"/>
@@ -22602,7 +22620,7 @@
       <c r="S173" s="22">
         <v>1</v>
       </c>
-      <c r="T173" s="23">
+      <c r="T173" s="22">
         <v>10</v>
       </c>
       <c r="U173" s="22">
@@ -22627,7 +22645,9 @@
       <c r="AB173" s="22">
         <v>6</v>
       </c>
-      <c r="AC173" s="23"/>
+      <c r="AC173" s="22">
+        <v>10</v>
+      </c>
       <c r="AD173" s="64"/>
       <c r="AF173" s="39"/>
       <c r="AH173" s="21">
@@ -22708,11 +22728,11 @@
       <c r="T174" s="22">
         <v>3</v>
       </c>
-      <c r="U174" s="23">
+      <c r="U174" s="22">
         <v>9</v>
       </c>
       <c r="V174" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W174" s="23"/>
       <c r="X174" s="21">
@@ -22727,7 +22747,9 @@
       <c r="AA174" s="22">
         <v>4</v>
       </c>
-      <c r="AB174" s="23"/>
+      <c r="AB174" s="22">
+        <v>9</v>
+      </c>
       <c r="AC174" s="23"/>
       <c r="AD174" s="64"/>
       <c r="AF174" s="39"/>
@@ -22801,7 +22823,7 @@
         <v>0</v>
       </c>
       <c r="S175" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T175" s="19">
         <v>1</v>
@@ -22892,7 +22914,7 @@
       </c>
       <c r="P176" s="22"/>
       <c r="Q176" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R176" s="19">
         <v>3</v>
@@ -22907,7 +22929,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -22987,19 +23009,19 @@
         <v>5</v>
       </c>
       <c r="R177" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S177" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T177" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U177" s="22">
         <v>4</v>
       </c>
       <c r="V177" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W177" s="23"/>
       <c r="X177" s="22">
@@ -23084,7 +23106,7 @@
         <v>0</v>
       </c>
       <c r="T178" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U178" s="22">
         <v>1</v>
@@ -23256,21 +23278,21 @@
       </c>
       <c r="P180" s="22"/>
       <c r="Q180" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R180" s="22">
         <v>2</v>
       </c>
       <c r="S180" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T180" s="22">
         <v>1</v>
       </c>
       <c r="U180" s="23">
-        <v>3</v>
-      </c>
-      <c r="V180" s="23">
+        <v>4</v>
+      </c>
+      <c r="V180" s="22">
         <v>3</v>
       </c>
       <c r="W180" s="23"/>
@@ -23280,7 +23302,9 @@
       <c r="Y180" s="21">
         <v>2</v>
       </c>
-      <c r="Z180" s="39"/>
+      <c r="Z180" s="21">
+        <v>3</v>
+      </c>
       <c r="AA180" s="39"/>
       <c r="AB180" s="39"/>
       <c r="AC180" s="39"/>
@@ -23326,10 +23350,10 @@
       </c>
       <c r="P181" s="22"/>
       <c r="Q181" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R181" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S181" s="19">
         <v>1</v>
@@ -23341,7 +23365,7 @@
         <v>0</v>
       </c>
       <c r="V181" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W181" s="20"/>
       <c r="X181" s="22">
@@ -23398,7 +23422,7 @@
       </c>
       <c r="P182" s="22"/>
       <c r="Q182" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R182" s="22">
         <v>0</v>
@@ -23407,13 +23431,13 @@
         <v>0</v>
       </c>
       <c r="T182" s="23">
-        <v>1</v>
-      </c>
-      <c r="U182" s="23">
+        <v>2</v>
+      </c>
+      <c r="U182" s="22">
         <v>1</v>
       </c>
       <c r="V182" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W182" s="23"/>
       <c r="X182" s="22">
@@ -23422,7 +23446,9 @@
       <c r="Y182" s="22">
         <v>0</v>
       </c>
-      <c r="Z182" s="23"/>
+      <c r="Z182" s="22">
+        <v>1</v>
+      </c>
       <c r="AA182" s="23"/>
       <c r="AB182" s="23"/>
       <c r="AC182" s="23"/>
@@ -23468,22 +23494,22 @@
       </c>
       <c r="P183" s="22"/>
       <c r="Q183" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R183" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S183" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T183" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U183" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V183" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W183" s="23"/>
       <c r="X183" s="39"/>
@@ -23496,13 +23522,61 @@
       <c r="AF183" s="39"/>
     </row>
     <row r="184" spans="1:43" s="21" customFormat="1">
+      <c r="A184" s="21">
+        <v>22</v>
+      </c>
+      <c r="B184" s="21">
+        <v>11</v>
+      </c>
+      <c r="C184" s="21">
+        <v>10</v>
+      </c>
+      <c r="D184" s="21">
+        <v>3</v>
+      </c>
+      <c r="E184" s="21">
+        <v>9</v>
+      </c>
+      <c r="F184" s="21">
+        <v>1</v>
+      </c>
+      <c r="I184" s="21">
+        <v>1</v>
+      </c>
+      <c r="J184" s="21">
+        <v>3</v>
+      </c>
+      <c r="K184" s="21">
+        <v>9</v>
+      </c>
+      <c r="L184" s="21">
+        <v>10</v>
+      </c>
+      <c r="M184" s="21">
+        <v>11</v>
+      </c>
+      <c r="N184" s="21">
+        <v>22</v>
+      </c>
       <c r="P184" s="22"/>
-      <c r="Q184" s="23"/>
-      <c r="R184" s="23"/>
-      <c r="S184" s="23"/>
-      <c r="T184" s="23"/>
-      <c r="U184" s="23"/>
-      <c r="V184" s="23"/>
+      <c r="Q184" s="23">
+        <v>0</v>
+      </c>
+      <c r="R184" s="23">
+        <v>0</v>
+      </c>
+      <c r="S184" s="23">
+        <v>0</v>
+      </c>
+      <c r="T184" s="23">
+        <v>0</v>
+      </c>
+      <c r="U184" s="23">
+        <v>0</v>
+      </c>
+      <c r="V184" s="23">
+        <v>0</v>
+      </c>
       <c r="W184" s="23"/>
       <c r="X184" s="23"/>
       <c r="Y184" s="23"/>
@@ -23539,7 +23613,7 @@
       <c r="T186" s="23"/>
       <c r="U186" s="23"/>
       <c r="V186" s="23"/>
-      <c r="W186" s="39"/>
+      <c r="W186" s="23"/>
       <c r="X186" s="39"/>
       <c r="Y186" s="39"/>
       <c r="Z186" s="39"/>
@@ -23557,7 +23631,7 @@
       <c r="T187" s="23"/>
       <c r="U187" s="23"/>
       <c r="V187" s="23"/>
-      <c r="W187" s="39"/>
+      <c r="W187" s="23"/>
       <c r="X187" s="39"/>
       <c r="Y187" s="39"/>
       <c r="Z187" s="39"/>
@@ -23575,7 +23649,7 @@
       <c r="T188" s="23"/>
       <c r="U188" s="23"/>
       <c r="V188" s="23"/>
-      <c r="W188" s="39"/>
+      <c r="W188" s="23"/>
       <c r="X188" s="39"/>
       <c r="Y188" s="39"/>
       <c r="Z188" s="39"/>
@@ -35699,10 +35773,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO245"/>
+  <dimension ref="A1:AO244"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I189" sqref="I189"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -39410,7 +39484,7 @@
       <c r="O176" s="18"/>
       <c r="P176" s="10"/>
     </row>
-    <row r="177" spans="1:22">
+    <row r="177" spans="1:23">
       <c r="A177" s="11">
         <v>2</v>
       </c>
@@ -39426,7 +39500,7 @@
       </c>
       <c r="F177" s="10"/>
     </row>
-    <row r="178" spans="1:22">
+    <row r="178" spans="1:23">
       <c r="A178" s="10"/>
       <c r="B178" s="9">
         <v>1</v>
@@ -39447,7 +39521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:22">
+    <row r="179" spans="1:23">
       <c r="A179" s="11">
         <v>3</v>
       </c>
@@ -39465,7 +39539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:22">
+    <row r="180" spans="1:23">
       <c r="A180" s="11">
         <v>2</v>
       </c>
@@ -39485,7 +39559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:22">
+    <row r="181" spans="1:23">
       <c r="A181" s="10"/>
       <c r="B181" s="11">
         <v>4</v>
@@ -39500,7 +39574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:22">
+    <row r="182" spans="1:23">
       <c r="A182" s="11">
         <v>2</v>
       </c>
@@ -39523,7 +39597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:22">
+    <row r="183" spans="1:23">
       <c r="A183" s="11">
         <v>2</v>
       </c>
@@ -39542,15 +39616,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:22">
+    <row r="184" spans="1:23">
       <c r="A184" s="10"/>
-      <c r="B184" s="10"/>
+      <c r="B184" s="9">
+        <v>1</v>
+      </c>
       <c r="C184" s="10"/>
-      <c r="D184" s="10"/>
+      <c r="D184" s="9">
+        <v>1</v>
+      </c>
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
-    </row>
-    <row r="185" spans="1:22">
+      <c r="J184" s="9">
+        <v>1</v>
+      </c>
+      <c r="K184" s="9">
+        <v>1</v>
+      </c>
+      <c r="L184" s="9">
+        <v>1</v>
+      </c>
+      <c r="W184" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -39558,7 +39648,7 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
     </row>
-    <row r="186" spans="1:22">
+    <row r="186" spans="1:23">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -39566,7 +39656,7 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
     </row>
-    <row r="187" spans="1:22">
+    <row r="187" spans="1:23">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -39574,7 +39664,7 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
     </row>
-    <row r="188" spans="1:22">
+    <row r="188" spans="1:23">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -39582,7 +39672,7 @@
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
     </row>
-    <row r="189" spans="1:22">
+    <row r="189" spans="1:23">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -39590,7 +39680,7 @@
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
     </row>
-    <row r="190" spans="1:22">
+    <row r="190" spans="1:23">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -39598,7 +39688,7 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
     </row>
-    <row r="191" spans="1:22">
+    <row r="191" spans="1:23">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -39606,7 +39696,7 @@
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
     </row>
-    <row r="192" spans="1:22">
+    <row r="192" spans="1:23">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -39683,7 +39773,6 @@
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
       <c r="F201" s="10"/>
     </row>
     <row r="202" spans="1:6">
@@ -39905,6 +39994,7 @@
     <row r="237" spans="1:4">
       <c r="A237" s="10"/>
       <c r="C237" s="10"/>
+      <c r="D237" s="10"/>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="10"/>
@@ -39927,9 +40017,6 @@
     </row>
     <row r="244" spans="3:3">
       <c r="C244" s="10"/>
-    </row>
-    <row r="245" spans="3:3">
-      <c r="C245" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -39942,8 +40029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="I190" sqref="I190"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="N193" sqref="N193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44877,6 +44964,53 @@
         <v>6</v>
       </c>
     </row>
+    <row r="184" spans="1:19">
+      <c r="A184" s="1">
+        <v>0</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1</v>
+      </c>
+      <c r="C184" s="1">
+        <v>5</v>
+      </c>
+      <c r="F184" s="1">
+        <v>0</v>
+      </c>
+      <c r="G184" s="1">
+        <v>0</v>
+      </c>
+      <c r="H184" s="1">
+        <v>2</v>
+      </c>
+      <c r="I184" s="1">
+        <v>1</v>
+      </c>
+      <c r="J184" s="1">
+        <v>2</v>
+      </c>
+      <c r="K184" s="1">
+        <v>1</v>
+      </c>
+      <c r="N184" s="1">
+        <v>0</v>
+      </c>
+      <c r="O184" s="1">
+        <v>1</v>
+      </c>
+      <c r="P184" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q184" s="1">
+        <v>3</v>
+      </c>
+      <c r="R184" s="1">
+        <v>10</v>
+      </c>
+      <c r="S184" s="1">
+        <v>12</v>
+      </c>
+    </row>
     <row r="195" spans="14:19" customFormat="1">
       <c r="N195" s="18"/>
       <c r="O195" s="18"/>
@@ -44902,10 +45036,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN183"/>
+  <dimension ref="A100:AN184"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="J192" sqref="J192"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="X188" sqref="X188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -48642,6 +48776,47 @@
         <v>4</v>
       </c>
     </row>
+    <row r="184" spans="1:19">
+      <c r="B184" s="9">
+        <v>1</v>
+      </c>
+      <c r="C184" s="9">
+        <v>1</v>
+      </c>
+      <c r="D184" s="9">
+        <v>1</v>
+      </c>
+      <c r="H184" s="9">
+        <v>1</v>
+      </c>
+      <c r="I184" s="9">
+        <v>1</v>
+      </c>
+      <c r="J184" s="9">
+        <v>1</v>
+      </c>
+      <c r="L184" s="16">
+        <v>0</v>
+      </c>
+      <c r="M184" s="16">
+        <v>2</v>
+      </c>
+      <c r="N184" s="16">
+        <v>3</v>
+      </c>
+      <c r="O184" s="16">
+        <v>4</v>
+      </c>
+      <c r="P184" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q184" s="16">
+        <v>9</v>
+      </c>
+      <c r="S184" s="16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48654,7 +48829,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -48878,7 +49053,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -49016,7 +49191,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -49060,7 +49235,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -49131,7 +49306,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -49157,7 +49332,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -49175,7 +49350,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -49183,20 +49358,23 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="G12" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
       </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
       <c r="K12" s="18">
         <v>5</v>
       </c>
@@ -49207,7 +49385,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -49221,7 +49399,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N13" s="18">
         <v>0</v>
@@ -49235,7 +49413,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -49243,10 +49421,10 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -49254,7 +49432,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="N16" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -935,7 +935,7 @@
   <dimension ref="A1:AO106"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S80" sqref="S80"/>
+      <selection activeCell="S78" sqref="S78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6260,7 +6260,7 @@
         <v>5</v>
       </c>
       <c r="P53" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q53" s="7">
         <v>6</v>
@@ -6643,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L57" s="7">
         <v>1</v>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="AE58" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF58" s="7">
         <v>6</v>
@@ -6808,11 +6808,14 @@
       </c>
     </row>
     <row r="59" spans="1:33" s="7" customFormat="1">
+      <c r="A59" s="7">
+        <v>1</v>
+      </c>
       <c r="B59" s="7">
         <v>4</v>
       </c>
       <c r="C59" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D59" s="7">
         <v>6</v>
@@ -6833,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L59" s="7">
         <v>0</v>
@@ -6852,7 +6855,7 @@
         <v>2</v>
       </c>
       <c r="R59" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S59" s="7">
         <v>2</v>
@@ -6867,7 +6870,7 @@
         <v>4</v>
       </c>
       <c r="W59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X59" s="7">
         <v>1</v>
@@ -6944,6 +6947,9 @@
         <v>1</v>
       </c>
       <c r="V60" s="7">
+        <v>0</v>
+      </c>
+      <c r="W60" s="7">
         <v>0</v>
       </c>
       <c r="X60" s="7">
@@ -7021,7 +7027,7 @@
         <v>4</v>
       </c>
       <c r="T61" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U61" s="7">
         <v>0</v>
@@ -7055,7 +7061,9 @@
       <c r="AF61" s="7">
         <v>1</v>
       </c>
-      <c r="AG61" s="26"/>
+      <c r="AG61" s="39">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
@@ -7130,13 +7138,15 @@
         <v>7</v>
       </c>
       <c r="AD62" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE62" s="3"/>
       <c r="AF62" s="7">
         <v>3</v>
       </c>
-      <c r="AG62" s="26"/>
+      <c r="AG62" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="25"/>
@@ -7157,7 +7167,7 @@
         <v>5</v>
       </c>
       <c r="H63" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I63" s="7">
         <v>2</v>
@@ -7165,7 +7175,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -7196,13 +7206,13 @@
         <v>3</v>
       </c>
       <c r="Y63" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z63" s="4">
         <v>12</v>
       </c>
       <c r="AA63" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB63" s="7">
         <v>1</v>
@@ -7235,7 +7245,7 @@
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="4"/>
@@ -7274,10 +7284,13 @@
       <c r="AB64" s="14">
         <v>3</v>
       </c>
+      <c r="AC64" s="3">
+        <v>1</v>
+      </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG64" s="5"/>
     </row>
@@ -7339,7 +7352,9 @@
       </c>
       <c r="AD65" s="7"/>
       <c r="AE65" s="3"/>
-      <c r="AF65" s="3"/>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
       <c r="AG65" s="5"/>
     </row>
     <row r="66" spans="1:33">
@@ -7365,7 +7380,9 @@
       <c r="M66" s="4">
         <v>4</v>
       </c>
-      <c r="N66" s="4"/>
+      <c r="N66" s="4">
+        <v>1</v>
+      </c>
       <c r="O66" s="4">
         <v>1</v>
       </c>
@@ -7392,7 +7409,7 @@
         <v>4</v>
       </c>
       <c r="AB66" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7410,7 +7427,7 @@
         <v>17</v>
       </c>
       <c r="F67" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G67" s="2">
         <v>5</v>
@@ -7424,7 +7441,7 @@
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
@@ -7432,11 +7449,11 @@
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T67" s="7"/>
       <c r="U67" s="39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V67" s="4">
         <v>6</v>
@@ -7446,15 +7463,20 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>9</v>
-      </c>
-      <c r="AB67" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="AB67" s="14">
+        <v>0</v>
+      </c>
       <c r="AD67" s="4"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="5"/>
     </row>
     <row r="68" spans="1:33">
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
       <c r="D68" s="3">
         <v>10</v>
       </c>
@@ -7463,7 +7485,7 @@
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -7486,7 +7508,7 @@
       </c>
       <c r="W68" s="4"/>
       <c r="X68" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z68" s="4"/>
       <c r="AB68" s="12"/>
@@ -7557,7 +7579,9 @@
       <c r="S70" s="4"/>
       <c r="T70" s="3"/>
       <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
+      <c r="V70" s="4">
+        <v>1</v>
+      </c>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
@@ -7608,7 +7632,7 @@
         <v>7</v>
       </c>
       <c r="E72" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72" s="4"/>
       <c r="I72" s="4"/>
@@ -7640,13 +7664,15 @@
       <c r="D73" s="3">
         <v>2</v>
       </c>
-      <c r="E73" s="4"/>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
       <c r="F73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -7679,12 +7705,14 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
+      <c r="M74" s="4">
+        <v>0</v>
+      </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
@@ -7728,7 +7756,7 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -8243,8 +8271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q196" sqref="Q196"/>
+    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q197" sqref="Q197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -21414,8 +21442,8 @@
       <c r="U161" s="19">
         <v>10</v>
       </c>
-      <c r="V161" s="20">
-        <v>24</v>
+      <c r="V161" s="19">
+        <v>25</v>
       </c>
       <c r="W161" s="20"/>
       <c r="X161" s="19">
@@ -21433,8 +21461,10 @@
       <c r="AB161" s="22">
         <v>22</v>
       </c>
-      <c r="AC161" s="20"/>
-      <c r="AD161" s="63"/>
+      <c r="AC161" s="19">
+        <v>25</v>
+      </c>
+      <c r="AD161" s="64"/>
       <c r="AF161" s="38"/>
       <c r="AH161" s="21">
         <v>1</v>
@@ -22322,7 +22352,7 @@
         <v>2</v>
       </c>
       <c r="R170" s="23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S170" s="22">
         <v>0</v>
@@ -22455,7 +22485,7 @@
       <c r="AC171" s="19">
         <v>4</v>
       </c>
-      <c r="AD171" s="64"/>
+      <c r="AD171" s="63"/>
       <c r="AF171" s="38"/>
       <c r="AH171" s="21">
         <v>0</v>
@@ -22535,7 +22565,7 @@
       <c r="U172" s="22">
         <v>5</v>
       </c>
-      <c r="V172" s="23">
+      <c r="V172" s="22">
         <v>13</v>
       </c>
       <c r="W172" s="23"/>
@@ -22554,8 +22584,10 @@
       <c r="AB172" s="22">
         <v>11</v>
       </c>
-      <c r="AC172" s="23"/>
-      <c r="AD172" s="64"/>
+      <c r="AC172" s="22">
+        <v>13</v>
+      </c>
+      <c r="AD172" s="63"/>
       <c r="AF172" s="38"/>
       <c r="AH172" s="21">
         <v>1</v>
@@ -22654,7 +22686,7 @@
       <c r="AC173" s="22">
         <v>10</v>
       </c>
-      <c r="AD173" s="64"/>
+      <c r="AD173" s="63"/>
       <c r="AF173" s="38"/>
       <c r="AH173" s="21">
         <v>0</v>
@@ -22738,7 +22770,7 @@
         <v>9</v>
       </c>
       <c r="V174" s="23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W174" s="23"/>
       <c r="X174" s="21">
@@ -22829,7 +22861,7 @@
         <v>0</v>
       </c>
       <c r="S175" s="20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T175" s="19">
         <v>1</v>
@@ -22857,7 +22889,7 @@
         <v>7</v>
       </c>
       <c r="AC175" s="20"/>
-      <c r="AD175" s="63"/>
+      <c r="AD175" s="64"/>
       <c r="AF175" s="38"/>
       <c r="AH175" s="21">
         <v>0</v>
@@ -22935,7 +22967,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -22954,7 +22986,7 @@
         <v>8</v>
       </c>
       <c r="AC176" s="20"/>
-      <c r="AD176" s="63"/>
+      <c r="AD176" s="64"/>
       <c r="AF176" s="38"/>
       <c r="AH176" s="21">
         <v>0</v>
@@ -23017,10 +23049,10 @@
         <v>5</v>
       </c>
       <c r="R177" s="23">
-        <v>8</v>
-      </c>
-      <c r="S177" s="23">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="S177" s="22">
+        <v>9</v>
       </c>
       <c r="T177" s="22">
         <v>7</v>
@@ -23028,7 +23060,7 @@
       <c r="U177" s="22">
         <v>4</v>
       </c>
-      <c r="V177" s="23">
+      <c r="V177" s="22">
         <v>8</v>
       </c>
       <c r="W177" s="23"/>
@@ -23041,8 +23073,12 @@
       <c r="Z177" s="22">
         <v>7</v>
       </c>
-      <c r="AA177" s="23"/>
-      <c r="AB177" s="23"/>
+      <c r="AA177" s="22">
+        <v>8</v>
+      </c>
+      <c r="AB177" s="19">
+        <v>9</v>
+      </c>
       <c r="AC177" s="23"/>
       <c r="AD177" s="63"/>
       <c r="AF177" s="38"/>
@@ -23116,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="T178" s="23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U178" s="22">
         <v>1</v>
@@ -23141,7 +23177,7 @@
         <v>2</v>
       </c>
       <c r="AC178" s="38"/>
-      <c r="AD178" s="63"/>
+      <c r="AD178" s="64"/>
       <c r="AF178" s="38"/>
       <c r="AH178" s="21">
         <v>1</v>
@@ -23287,20 +23323,20 @@
         <v>10</v>
       </c>
       <c r="P180" s="22"/>
-      <c r="Q180" s="23">
+      <c r="Q180" s="22">
         <v>5</v>
       </c>
       <c r="R180" s="22">
         <v>2</v>
       </c>
-      <c r="S180" s="23">
-        <v>5</v>
+      <c r="S180" s="22">
+        <v>6</v>
       </c>
       <c r="T180" s="22">
         <v>1</v>
       </c>
       <c r="U180" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V180" s="22">
         <v>3</v>
@@ -23315,10 +23351,14 @@
       <c r="Z180" s="21">
         <v>3</v>
       </c>
-      <c r="AA180" s="38"/>
-      <c r="AB180" s="38"/>
+      <c r="AA180" s="21">
+        <v>5</v>
+      </c>
+      <c r="AB180" s="16">
+        <v>6</v>
+      </c>
       <c r="AC180" s="38"/>
-      <c r="AD180" s="63"/>
+      <c r="AD180" s="64"/>
       <c r="AF180" s="38"/>
     </row>
     <row r="181" spans="1:43" s="21" customFormat="1">
@@ -23360,7 +23400,7 @@
       </c>
       <c r="P181" s="22"/>
       <c r="Q181" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R181" s="19">
         <v>3</v>
@@ -23375,7 +23415,7 @@
         <v>0</v>
       </c>
       <c r="V181" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W181" s="20"/>
       <c r="X181" s="22">
@@ -23434,7 +23474,7 @@
       </c>
       <c r="P182" s="22"/>
       <c r="Q182" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R182" s="22">
         <v>0</v>
@@ -23448,8 +23488,8 @@
       <c r="U182" s="22">
         <v>1</v>
       </c>
-      <c r="V182" s="23">
-        <v>3</v>
+      <c r="V182" s="22">
+        <v>4</v>
       </c>
       <c r="W182" s="23"/>
       <c r="X182" s="22">
@@ -23464,9 +23504,11 @@
       <c r="AA182" s="22">
         <v>2</v>
       </c>
-      <c r="AB182" s="23"/>
+      <c r="AB182" s="19">
+        <v>4</v>
+      </c>
       <c r="AC182" s="23"/>
-      <c r="AD182" s="63"/>
+      <c r="AD182" s="23"/>
       <c r="AF182" s="38"/>
     </row>
     <row r="183" spans="1:43" s="21" customFormat="1">
@@ -23507,13 +23549,13 @@
         <v>7</v>
       </c>
       <c r="P183" s="22"/>
-      <c r="Q183" s="23">
+      <c r="Q183" s="22">
         <v>2</v>
       </c>
       <c r="R183" s="23">
-        <v>2</v>
-      </c>
-      <c r="S183" s="23">
+        <v>4</v>
+      </c>
+      <c r="S183" s="22">
         <v>2</v>
       </c>
       <c r="T183" s="22">
@@ -23522,7 +23564,7 @@
       <c r="U183" s="22">
         <v>1</v>
       </c>
-      <c r="V183" s="23">
+      <c r="V183" s="22">
         <v>2</v>
       </c>
       <c r="W183" s="23"/>
@@ -23532,11 +23574,17 @@
       <c r="Y183" s="21">
         <v>1</v>
       </c>
-      <c r="Z183" s="38"/>
-      <c r="AA183" s="38"/>
-      <c r="AB183" s="38"/>
+      <c r="Z183" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA183" s="21">
+        <v>2</v>
+      </c>
+      <c r="AB183" s="21">
+        <v>2</v>
+      </c>
       <c r="AC183" s="38"/>
-      <c r="AD183" s="63"/>
+      <c r="AD183" s="64"/>
       <c r="AF183" s="38"/>
     </row>
     <row r="184" spans="1:43" s="21" customFormat="1">
@@ -23578,25 +23626,27 @@
       </c>
       <c r="P184" s="22"/>
       <c r="Q184" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R184" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S184" s="23">
-        <v>1</v>
-      </c>
-      <c r="T184" s="23">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="T184" s="22">
+        <v>2</v>
       </c>
       <c r="U184" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V184" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W184" s="23"/>
-      <c r="X184" s="23"/>
+      <c r="X184" s="19">
+        <v>2</v>
+      </c>
       <c r="Y184" s="23"/>
       <c r="Z184" s="23"/>
       <c r="AA184" s="23"/>
@@ -23644,22 +23694,22 @@
       </c>
       <c r="P185" s="22"/>
       <c r="Q185" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R185" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S185" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T185" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U185" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V185" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W185" s="23"/>
       <c r="X185" s="38"/>
@@ -23672,15 +23722,65 @@
       <c r="AF185" s="38"/>
     </row>
     <row r="186" spans="1:43" s="21" customFormat="1">
+      <c r="A186" s="21">
+        <v>5</v>
+      </c>
+      <c r="B186" s="21">
+        <v>2</v>
+      </c>
+      <c r="C186" s="21">
+        <v>2</v>
+      </c>
+      <c r="D186" s="21">
+        <v>8</v>
+      </c>
+      <c r="E186" s="21">
+        <v>2</v>
+      </c>
+      <c r="F186" s="21">
+        <v>13</v>
+      </c>
+      <c r="I186" s="21">
+        <v>2</v>
+      </c>
+      <c r="J186" s="21">
+        <v>2</v>
+      </c>
+      <c r="K186" s="21">
+        <v>2</v>
+      </c>
+      <c r="L186" s="21">
+        <v>5</v>
+      </c>
+      <c r="M186" s="21">
+        <v>8</v>
+      </c>
+      <c r="N186" s="21">
+        <v>13</v>
+      </c>
       <c r="P186" s="22"/>
-      <c r="Q186" s="23"/>
-      <c r="R186" s="23"/>
-      <c r="S186" s="23"/>
-      <c r="T186" s="23"/>
-      <c r="U186" s="23"/>
-      <c r="V186" s="23"/>
+      <c r="Q186" s="23">
+        <v>1</v>
+      </c>
+      <c r="R186" s="23">
+        <v>1</v>
+      </c>
+      <c r="S186" s="23">
+        <v>1</v>
+      </c>
+      <c r="T186" s="23">
+        <v>1</v>
+      </c>
+      <c r="U186" s="23">
+        <v>1</v>
+      </c>
+      <c r="V186" s="22">
+        <v>0</v>
+      </c>
       <c r="W186" s="23"/>
-      <c r="X186" s="38"/>
+      <c r="X186" s="16">
+        <v>0</v>
+      </c>
       <c r="Y186" s="38"/>
       <c r="Z186" s="38"/>
       <c r="AA186" s="38"/>
@@ -23690,13 +23790,61 @@
       <c r="AF186" s="38"/>
     </row>
     <row r="187" spans="1:43" s="21" customFormat="1">
+      <c r="A187" s="21">
+        <v>6</v>
+      </c>
+      <c r="B187" s="21">
+        <v>9</v>
+      </c>
+      <c r="C187" s="21">
+        <v>2</v>
+      </c>
+      <c r="D187" s="21">
+        <v>25</v>
+      </c>
+      <c r="E187" s="21">
+        <v>4</v>
+      </c>
+      <c r="F187" s="21">
+        <v>0</v>
+      </c>
+      <c r="I187" s="21">
+        <v>0</v>
+      </c>
+      <c r="J187" s="21">
+        <v>2</v>
+      </c>
+      <c r="K187" s="21">
+        <v>4</v>
+      </c>
+      <c r="L187" s="21">
+        <v>6</v>
+      </c>
+      <c r="M187" s="21">
+        <v>9</v>
+      </c>
+      <c r="N187" s="21">
+        <v>25</v>
+      </c>
       <c r="P187" s="22"/>
-      <c r="Q187" s="23"/>
-      <c r="R187" s="23"/>
-      <c r="S187" s="23"/>
-      <c r="T187" s="23"/>
-      <c r="U187" s="23"/>
-      <c r="V187" s="23"/>
+      <c r="Q187" s="23">
+        <v>0</v>
+      </c>
+      <c r="R187" s="23">
+        <v>0</v>
+      </c>
+      <c r="S187" s="23">
+        <v>0</v>
+      </c>
+      <c r="T187" s="23">
+        <v>0</v>
+      </c>
+      <c r="U187" s="23">
+        <v>0</v>
+      </c>
+      <c r="V187" s="23">
+        <v>0</v>
+      </c>
       <c r="W187" s="23"/>
       <c r="X187" s="38"/>
       <c r="Y187" s="38"/>
@@ -23715,7 +23863,7 @@
       <c r="T188" s="23"/>
       <c r="U188" s="23"/>
       <c r="V188" s="23"/>
-      <c r="W188" s="38"/>
+      <c r="W188" s="23"/>
       <c r="X188" s="38"/>
       <c r="Y188" s="38"/>
       <c r="Z188" s="38"/>
@@ -23733,7 +23881,7 @@
       <c r="T189" s="23"/>
       <c r="U189" s="23"/>
       <c r="V189" s="23"/>
-      <c r="W189" s="38"/>
+      <c r="W189" s="23"/>
       <c r="X189" s="38"/>
       <c r="Y189" s="38"/>
       <c r="Z189" s="38"/>
@@ -35822,10 +35970,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO245"/>
+  <dimension ref="A1:AO247"/>
   <sheetViews>
     <sheetView topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F194" sqref="F194"/>
+      <selection activeCell="J195" sqref="J195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -39533,7 +39681,7 @@
       <c r="O176" s="18"/>
       <c r="P176" s="10"/>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:26">
       <c r="A177" s="11">
         <v>2</v>
       </c>
@@ -39549,7 +39697,7 @@
       </c>
       <c r="F177" s="10"/>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:26">
       <c r="A178" s="10"/>
       <c r="B178" s="9">
         <v>1</v>
@@ -39570,7 +39718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:26">
       <c r="A179" s="11">
         <v>3</v>
       </c>
@@ -39588,7 +39736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:26">
       <c r="A180" s="11">
         <v>2</v>
       </c>
@@ -39608,7 +39756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:26">
       <c r="A181" s="10"/>
       <c r="B181" s="11">
         <v>4</v>
@@ -39623,7 +39771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:26">
       <c r="A182" s="11">
         <v>2</v>
       </c>
@@ -39646,7 +39794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:26">
       <c r="A183" s="11">
         <v>2</v>
       </c>
@@ -39665,7 +39813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:26">
       <c r="A184" s="10"/>
       <c r="B184" s="9">
         <v>1</v>
@@ -39689,7 +39837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:26">
       <c r="A185" s="10"/>
       <c r="B185" s="11">
         <v>2</v>
@@ -39709,23 +39857,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:26">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
-      <c r="C186" s="10"/>
+      <c r="C186" s="11">
+        <v>3</v>
+      </c>
       <c r="D186" s="10"/>
       <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
-    </row>
-    <row r="187" spans="1:23">
-      <c r="A187" s="10"/>
+      <c r="F186" s="9">
+        <v>1</v>
+      </c>
+      <c r="I186" s="9">
+        <v>1</v>
+      </c>
+      <c r="N186" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26">
+      <c r="A187" s="9">
+        <v>1</v>
+      </c>
       <c r="B187" s="10"/>
-      <c r="C187" s="10"/>
+      <c r="C187" s="9">
+        <v>1</v>
+      </c>
       <c r="D187" s="10"/>
-      <c r="E187" s="10"/>
+      <c r="E187" s="9">
+        <v>1</v>
+      </c>
       <c r="F187" s="10"/>
-    </row>
-    <row r="188" spans="1:23">
+      <c r="G187" s="9">
+        <v>1</v>
+      </c>
+      <c r="J187" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z187" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -39733,7 +39906,7 @@
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:26">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -39741,7 +39914,7 @@
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:26">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -39749,7 +39922,7 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:26">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -39757,7 +39930,7 @@
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:26">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -39834,6 +40007,7 @@
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
       <c r="F201" s="10"/>
     </row>
     <row r="202" spans="1:6">
@@ -39932,7 +40106,7 @@
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
-      <c r="F215" s="18"/>
+      <c r="F215" s="10"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="10"/>
@@ -39946,6 +40120,7 @@
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
       <c r="D217" s="10"/>
+      <c r="F217" s="18"/>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="10"/>
@@ -40064,6 +40239,7 @@
       <c r="D238" s="10"/>
     </row>
     <row r="239" spans="1:4">
+      <c r="A239" s="10"/>
       <c r="C239" s="10"/>
     </row>
     <row r="240" spans="1:4">
@@ -40083,6 +40259,12 @@
     </row>
     <row r="245" spans="3:3">
       <c r="C245" s="10"/>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246" s="10"/>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -40095,8 +40277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="G195" sqref="G195"/>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45124,6 +45306,100 @@
         <v>21</v>
       </c>
     </row>
+    <row r="186" spans="1:19">
+      <c r="A186" s="1">
+        <v>0</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1</v>
+      </c>
+      <c r="C186" s="1">
+        <v>5</v>
+      </c>
+      <c r="F186" s="1">
+        <v>2</v>
+      </c>
+      <c r="G186" s="1">
+        <v>0</v>
+      </c>
+      <c r="H186" s="1">
+        <v>1</v>
+      </c>
+      <c r="I186" s="1">
+        <v>0</v>
+      </c>
+      <c r="J186" s="1">
+        <v>0</v>
+      </c>
+      <c r="K186" s="1">
+        <v>3</v>
+      </c>
+      <c r="N186" s="1">
+        <v>0</v>
+      </c>
+      <c r="O186" s="1">
+        <v>1</v>
+      </c>
+      <c r="P186" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q186" s="1">
+        <v>2</v>
+      </c>
+      <c r="R186" s="1">
+        <v>2</v>
+      </c>
+      <c r="S186" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19">
+      <c r="A187" s="1">
+        <v>1</v>
+      </c>
+      <c r="B187" s="1">
+        <v>4</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0</v>
+      </c>
+      <c r="G187" s="1">
+        <v>0</v>
+      </c>
+      <c r="H187" s="1">
+        <v>2</v>
+      </c>
+      <c r="I187" s="1">
+        <v>1</v>
+      </c>
+      <c r="J187" s="1">
+        <v>0</v>
+      </c>
+      <c r="K187" s="1">
+        <v>3</v>
+      </c>
+      <c r="N187" s="1">
+        <v>0</v>
+      </c>
+      <c r="O187" s="1">
+        <v>3</v>
+      </c>
+      <c r="P187" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q187" s="1">
+        <v>4</v>
+      </c>
+      <c r="R187" s="1">
+        <v>12</v>
+      </c>
+      <c r="S187" s="1">
+        <v>13</v>
+      </c>
+    </row>
     <row r="195" spans="14:19" customFormat="1">
       <c r="N195" s="18"/>
       <c r="O195" s="18"/>
@@ -45149,16 +45425,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN185"/>
+  <dimension ref="A100:AN187"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="H192" sqref="H192"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="J197" sqref="J197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="9" width="5.625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="10" width="5.625" style="46" customWidth="1"/>
     <col min="11" max="20" width="6.625" style="16" customWidth="1"/>
     <col min="21" max="27" width="5.625" customWidth="1"/>
     <col min="30" max="39" width="6.625" style="16" customWidth="1"/>
@@ -45168,17 +45444,17 @@
       <c r="A100" s="9">
         <v>1</v>
       </c>
-      <c r="B100" s="1"/>
-      <c r="D100" s="11">
-        <v>2</v>
-      </c>
-      <c r="F100" s="9">
-        <v>1</v>
-      </c>
-      <c r="H100" s="9">
-        <v>1</v>
-      </c>
-      <c r="J100" s="9">
+      <c r="B100" s="9">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="E100" s="11">
+        <v>2</v>
+      </c>
+      <c r="G100" s="9">
+        <v>1</v>
+      </c>
+      <c r="I100" s="9">
         <v>1</v>
       </c>
       <c r="K100" s="46"/>
@@ -45226,19 +45502,19 @@
       </c>
     </row>
     <row r="101" spans="1:37">
-      <c r="B101" s="9">
-        <v>1</v>
-      </c>
       <c r="C101" s="9">
         <v>1</v>
       </c>
-      <c r="E101" s="9">
-        <v>1</v>
-      </c>
-      <c r="G101" s="11">
-        <v>2</v>
-      </c>
-      <c r="I101" s="9">
+      <c r="D101" s="9">
+        <v>1</v>
+      </c>
+      <c r="F101" s="9">
+        <v>1</v>
+      </c>
+      <c r="H101" s="11">
+        <v>2</v>
+      </c>
+      <c r="J101" s="9">
         <v>1</v>
       </c>
       <c r="K101" s="46"/>
@@ -45286,19 +45562,19 @@
       </c>
     </row>
     <row r="102" spans="1:37">
-      <c r="B102" s="9">
-        <v>1</v>
-      </c>
-      <c r="D102" s="9">
+      <c r="C102" s="9">
         <v>1</v>
       </c>
       <c r="E102" s="9">
         <v>1</v>
       </c>
-      <c r="F102" s="11">
-        <v>2</v>
-      </c>
-      <c r="H102" s="9">
+      <c r="F102" s="9">
+        <v>1</v>
+      </c>
+      <c r="G102" s="11">
+        <v>2</v>
+      </c>
+      <c r="I102" s="9">
         <v>1</v>
       </c>
       <c r="K102" s="46"/>
@@ -45346,17 +45622,17 @@
       </c>
     </row>
     <row r="103" spans="1:37">
-      <c r="A103" s="1"/>
-      <c r="B103" s="9">
-        <v>1</v>
-      </c>
+      <c r="A103" s="9">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1"/>
       <c r="C103" s="9">
         <v>1</v>
       </c>
       <c r="D103" s="9">
         <v>1</v>
       </c>
-      <c r="H103" s="9">
+      <c r="E103" s="9">
         <v>1</v>
       </c>
       <c r="I103" s="9">
@@ -45410,22 +45686,22 @@
       </c>
     </row>
     <row r="104" spans="1:37">
-      <c r="A104" s="9">
-        <v>1</v>
-      </c>
       <c r="B104" s="9">
         <v>1</v>
       </c>
-      <c r="D104" s="9">
+      <c r="C104" s="9">
         <v>1</v>
       </c>
       <c r="E104" s="9">
         <v>1</v>
       </c>
-      <c r="G104" s="9">
+      <c r="F104" s="9">
         <v>1</v>
       </c>
       <c r="H104" s="9">
+        <v>1</v>
+      </c>
+      <c r="I104" s="9">
         <v>1</v>
       </c>
       <c r="K104" s="46"/>
@@ -45473,16 +45749,16 @@
       </c>
     </row>
     <row r="105" spans="1:37">
-      <c r="A105" s="11">
-        <v>3</v>
-      </c>
-      <c r="B105" s="9">
-        <v>1</v>
+      <c r="B105" s="11">
+        <v>3</v>
       </c>
       <c r="C105" s="9">
         <v>1</v>
       </c>
-      <c r="G105" s="9">
+      <c r="D105" s="9">
+        <v>1</v>
+      </c>
+      <c r="H105" s="9">
         <v>1</v>
       </c>
       <c r="K105" s="46"/>
@@ -45530,19 +45806,19 @@
       </c>
     </row>
     <row r="106" spans="1:37">
-      <c r="A106" s="11">
-        <v>2</v>
-      </c>
-      <c r="B106" s="9">
-        <v>1</v>
+      <c r="A106" s="9">
+        <v>1</v>
+      </c>
+      <c r="B106" s="11">
+        <v>2</v>
       </c>
       <c r="C106" s="9">
         <v>1</v>
       </c>
-      <c r="D106" s="1"/>
-      <c r="I106" s="9">
-        <v>1</v>
-      </c>
+      <c r="D106" s="9">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1"/>
       <c r="J106" s="9">
         <v>1</v>
       </c>
@@ -45591,16 +45867,16 @@
       </c>
     </row>
     <row r="107" spans="1:37">
-      <c r="A107" s="11">
-        <v>2</v>
-      </c>
-      <c r="G107" s="11">
-        <v>2</v>
-      </c>
-      <c r="H107" s="9">
-        <v>1</v>
+      <c r="B107" s="11">
+        <v>2</v>
+      </c>
+      <c r="H107" s="11">
+        <v>2</v>
       </c>
       <c r="I107" s="9">
+        <v>1</v>
+      </c>
+      <c r="J107" s="9">
         <v>1</v>
       </c>
       <c r="K107" s="46"/>
@@ -45648,16 +45924,16 @@
       </c>
     </row>
     <row r="108" spans="1:37">
-      <c r="A108" s="11">
-        <v>2</v>
-      </c>
       <c r="B108" s="11">
         <v>2</v>
       </c>
-      <c r="F108" s="9">
-        <v>1</v>
-      </c>
-      <c r="H108" s="9">
+      <c r="C108" s="11">
+        <v>2</v>
+      </c>
+      <c r="G108" s="9">
+        <v>1</v>
+      </c>
+      <c r="I108" s="9">
         <v>1</v>
       </c>
       <c r="K108" s="46"/>
@@ -45705,19 +45981,19 @@
       </c>
     </row>
     <row r="109" spans="1:37">
-      <c r="B109" s="9">
-        <v>1</v>
-      </c>
       <c r="C109" s="9">
         <v>1</v>
       </c>
       <c r="D109" s="9">
         <v>1</v>
       </c>
-      <c r="G109" s="9">
-        <v>1</v>
-      </c>
-      <c r="I109" s="11">
+      <c r="E109" s="9">
+        <v>1</v>
+      </c>
+      <c r="H109" s="9">
+        <v>1</v>
+      </c>
+      <c r="J109" s="11">
         <v>2</v>
       </c>
       <c r="K109" s="46"/>
@@ -45765,16 +46041,14 @@
       </c>
     </row>
     <row r="110" spans="1:37">
-      <c r="A110" s="9">
-        <v>1</v>
-      </c>
+      <c r="A110" s="46"/>
       <c r="B110" s="9">
         <v>1</v>
       </c>
-      <c r="E110" s="9">
-        <v>1</v>
-      </c>
-      <c r="G110" s="9">
+      <c r="C110" s="9">
+        <v>1</v>
+      </c>
+      <c r="F110" s="9">
         <v>1</v>
       </c>
       <c r="H110" s="9">
@@ -45783,7 +46057,9 @@
       <c r="I110" s="9">
         <v>1</v>
       </c>
-      <c r="J110" s="46"/>
+      <c r="J110" s="9">
+        <v>1</v>
+      </c>
       <c r="K110" s="46"/>
       <c r="L110" s="16">
         <v>1</v>
@@ -45829,22 +46105,22 @@
       </c>
     </row>
     <row r="111" spans="1:37">
-      <c r="A111" s="9">
-        <v>1</v>
-      </c>
+      <c r="A111" s="46"/>
       <c r="B111" s="9">
         <v>1</v>
       </c>
-      <c r="C111" s="11">
-        <v>2</v>
-      </c>
-      <c r="F111" s="9">
-        <v>1</v>
-      </c>
-      <c r="H111" s="9">
-        <v>1</v>
-      </c>
-      <c r="J111" s="46"/>
+      <c r="C111" s="9">
+        <v>1</v>
+      </c>
+      <c r="D111" s="11">
+        <v>2</v>
+      </c>
+      <c r="G111" s="9">
+        <v>1</v>
+      </c>
+      <c r="I111" s="9">
+        <v>1</v>
+      </c>
       <c r="K111" s="46"/>
       <c r="L111" s="16">
         <v>1</v>
@@ -45890,19 +46166,19 @@
       </c>
     </row>
     <row r="112" spans="1:37">
-      <c r="A112" s="11">
-        <v>2</v>
-      </c>
+      <c r="A112" s="46"/>
       <c r="B112" s="11">
         <v>2</v>
       </c>
-      <c r="C112" s="9">
-        <v>1</v>
-      </c>
-      <c r="F112" s="9">
-        <v>1</v>
-      </c>
-      <c r="J112" s="46"/>
+      <c r="C112" s="11">
+        <v>2</v>
+      </c>
+      <c r="D112" s="9">
+        <v>1</v>
+      </c>
+      <c r="G112" s="9">
+        <v>1</v>
+      </c>
       <c r="K112" s="46"/>
       <c r="L112" s="16">
         <v>1</v>
@@ -45948,19 +46224,19 @@
       </c>
     </row>
     <row r="113" spans="1:40">
-      <c r="A113" s="9">
-        <v>1</v>
-      </c>
-      <c r="C113" s="9">
-        <v>1</v>
-      </c>
-      <c r="D113" s="11">
-        <v>2</v>
-      </c>
-      <c r="G113" s="11">
-        <v>2</v>
-      </c>
-      <c r="J113" s="46"/>
+      <c r="A113" s="46"/>
+      <c r="B113" s="9">
+        <v>1</v>
+      </c>
+      <c r="D113" s="9">
+        <v>1</v>
+      </c>
+      <c r="E113" s="11">
+        <v>2</v>
+      </c>
+      <c r="H113" s="11">
+        <v>2</v>
+      </c>
       <c r="K113" s="46"/>
       <c r="L113" s="16">
         <v>1</v>
@@ -46006,22 +46282,22 @@
       </c>
     </row>
     <row r="114" spans="1:40">
-      <c r="A114" s="9">
-        <v>1</v>
-      </c>
-      <c r="C114" s="11">
-        <v>2</v>
-      </c>
-      <c r="D114" s="9">
-        <v>1</v>
-      </c>
-      <c r="F114" s="9">
+      <c r="A114" s="46"/>
+      <c r="B114" s="9">
+        <v>1</v>
+      </c>
+      <c r="D114" s="11">
+        <v>2</v>
+      </c>
+      <c r="E114" s="9">
         <v>1</v>
       </c>
       <c r="G114" s="9">
         <v>1</v>
       </c>
-      <c r="J114" s="46"/>
+      <c r="H114" s="9">
+        <v>1</v>
+      </c>
       <c r="K114" s="46"/>
       <c r="L114" s="16">
         <v>1</v>
@@ -46067,22 +46343,22 @@
       </c>
     </row>
     <row r="115" spans="1:40">
-      <c r="B115" s="9">
-        <v>1</v>
-      </c>
+      <c r="A115" s="46"/>
       <c r="C115" s="9">
         <v>1</v>
       </c>
-      <c r="F115" s="9">
-        <v>1</v>
-      </c>
-      <c r="G115" s="11">
-        <v>2</v>
-      </c>
-      <c r="H115" s="9">
-        <v>1</v>
-      </c>
-      <c r="J115" s="46"/>
+      <c r="D115" s="9">
+        <v>1</v>
+      </c>
+      <c r="G115" s="9">
+        <v>1</v>
+      </c>
+      <c r="H115" s="11">
+        <v>2</v>
+      </c>
+      <c r="I115" s="9">
+        <v>1</v>
+      </c>
       <c r="K115" s="46"/>
       <c r="L115" s="16">
         <v>2</v>
@@ -46128,22 +46404,22 @@
       </c>
     </row>
     <row r="116" spans="1:40">
-      <c r="A116" s="9">
-        <v>1</v>
-      </c>
-      <c r="B116" s="11">
-        <v>2</v>
-      </c>
-      <c r="C116" s="9">
-        <v>1</v>
-      </c>
-      <c r="E116" s="9">
+      <c r="A116" s="46"/>
+      <c r="B116" s="9">
+        <v>1</v>
+      </c>
+      <c r="C116" s="11">
+        <v>2</v>
+      </c>
+      <c r="D116" s="9">
         <v>1</v>
       </c>
       <c r="F116" s="9">
         <v>1</v>
       </c>
-      <c r="J116" s="46"/>
+      <c r="G116" s="9">
+        <v>1</v>
+      </c>
       <c r="K116" s="46"/>
       <c r="L116" s="16">
         <v>1</v>
@@ -46189,22 +46465,22 @@
       </c>
     </row>
     <row r="117" spans="1:40">
-      <c r="B117" s="9">
-        <v>1</v>
-      </c>
-      <c r="C117" s="11">
-        <v>2</v>
-      </c>
-      <c r="D117" s="9">
-        <v>1</v>
-      </c>
-      <c r="G117" s="9">
-        <v>1</v>
-      </c>
-      <c r="I117" s="9">
-        <v>1</v>
-      </c>
-      <c r="J117" s="46"/>
+      <c r="A117" s="46"/>
+      <c r="C117" s="9">
+        <v>1</v>
+      </c>
+      <c r="D117" s="11">
+        <v>2</v>
+      </c>
+      <c r="E117" s="9">
+        <v>1</v>
+      </c>
+      <c r="H117" s="9">
+        <v>1</v>
+      </c>
+      <c r="J117" s="9">
+        <v>1</v>
+      </c>
       <c r="K117" s="46"/>
       <c r="L117" s="16">
         <v>2</v>
@@ -46250,16 +46526,16 @@
       </c>
     </row>
     <row r="118" spans="1:40">
-      <c r="B118" s="11">
-        <v>3</v>
-      </c>
+      <c r="A118" s="46"/>
       <c r="C118" s="11">
-        <v>2</v>
-      </c>
-      <c r="G118" s="9">
-        <v>1</v>
-      </c>
-      <c r="J118" s="46"/>
+        <v>3</v>
+      </c>
+      <c r="D118" s="11">
+        <v>2</v>
+      </c>
+      <c r="H118" s="9">
+        <v>1</v>
+      </c>
       <c r="L118" s="16">
         <v>2</v>
       </c>
@@ -46310,16 +46586,16 @@
       <c r="AM118"/>
     </row>
     <row r="119" spans="1:40">
-      <c r="B119" s="11">
-        <v>2</v>
-      </c>
-      <c r="E119" s="11">
-        <v>2</v>
-      </c>
-      <c r="F119" s="9">
-        <v>1</v>
-      </c>
-      <c r="J119" s="9">
+      <c r="A119" s="9">
+        <v>1</v>
+      </c>
+      <c r="C119" s="11">
+        <v>2</v>
+      </c>
+      <c r="F119" s="11">
+        <v>2</v>
+      </c>
+      <c r="G119" s="9">
         <v>1</v>
       </c>
       <c r="L119" s="16">
@@ -46369,19 +46645,19 @@
       <c r="AM119"/>
     </row>
     <row r="120" spans="1:40">
-      <c r="A120" s="9">
-        <v>1</v>
-      </c>
-      <c r="C120" s="11">
-        <v>2</v>
-      </c>
-      <c r="E120" s="9">
-        <v>1</v>
+      <c r="B120" s="9">
+        <v>1</v>
+      </c>
+      <c r="D120" s="11">
+        <v>2</v>
       </c>
       <c r="F120" s="9">
         <v>1</v>
       </c>
-      <c r="H120" s="9">
+      <c r="G120" s="9">
+        <v>1</v>
+      </c>
+      <c r="I120" s="9">
         <v>1</v>
       </c>
       <c r="L120" s="16">
@@ -46430,19 +46706,19 @@
     <row r="121" spans="1:40">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
-      <c r="D121" s="9">
-        <v>1</v>
-      </c>
-      <c r="E121" s="11">
-        <v>2</v>
-      </c>
-      <c r="F121" s="9">
-        <v>1</v>
-      </c>
-      <c r="G121" s="11">
-        <v>2</v>
-      </c>
-      <c r="I121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="E121" s="9">
+        <v>1</v>
+      </c>
+      <c r="F121" s="11">
+        <v>2</v>
+      </c>
+      <c r="G121" s="9">
+        <v>1</v>
+      </c>
+      <c r="H121" s="11">
+        <v>2</v>
+      </c>
       <c r="J121" s="10"/>
       <c r="K121"/>
       <c r="L121" s="16">
@@ -46471,20 +46747,20 @@
       <c r="AN121" s="16"/>
     </row>
     <row r="122" spans="1:40">
-      <c r="C122" s="9">
-        <v>1</v>
-      </c>
-      <c r="E122" s="9">
+      <c r="A122" s="9">
+        <v>1</v>
+      </c>
+      <c r="D122" s="9">
         <v>1</v>
       </c>
       <c r="F122" s="9">
         <v>1</v>
       </c>
-      <c r="G122" s="11">
-        <v>2</v>
-      </c>
-      <c r="J122" s="9">
-        <v>1</v>
+      <c r="G122" s="9">
+        <v>1</v>
+      </c>
+      <c r="H122" s="11">
+        <v>2</v>
       </c>
       <c r="L122" s="16">
         <v>0</v>
@@ -46512,24 +46788,24 @@
       <c r="W122" s="16"/>
     </row>
     <row r="123" spans="1:40">
-      <c r="A123" s="11">
-        <v>2</v>
-      </c>
-      <c r="B123" s="9">
-        <v>1</v>
-      </c>
-      <c r="C123" s="10"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="11">
+        <v>2</v>
+      </c>
+      <c r="C123" s="9">
+        <v>1</v>
+      </c>
       <c r="D123" s="10"/>
-      <c r="E123" s="9">
-        <v>1</v>
-      </c>
+      <c r="E123" s="10"/>
       <c r="F123" s="9">
         <v>1</v>
       </c>
       <c r="G123" s="9">
         <v>1</v>
       </c>
-      <c r="J123" s="10"/>
+      <c r="H123" s="9">
+        <v>1</v>
+      </c>
       <c r="L123" s="16">
         <v>1</v>
       </c>
@@ -46556,21 +46832,21 @@
       <c r="W123" s="16"/>
     </row>
     <row r="124" spans="1:40">
-      <c r="A124" s="10"/>
+      <c r="A124" s="9">
+        <v>1</v>
+      </c>
       <c r="B124" s="10"/>
-      <c r="C124" s="11">
-        <v>2</v>
-      </c>
-      <c r="D124" s="10"/>
-      <c r="E124" s="11">
-        <v>2</v>
-      </c>
-      <c r="F124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="11">
+        <v>2</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="11">
+        <v>2</v>
+      </c>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
-      <c r="I124" s="9">
-        <v>1</v>
-      </c>
+      <c r="I124" s="10"/>
       <c r="J124" s="9">
         <v>1</v>
       </c>
@@ -46601,20 +46877,20 @@
     </row>
     <row r="125" spans="1:40">
       <c r="A125" s="10"/>
-      <c r="D125" s="9">
-        <v>1</v>
-      </c>
+      <c r="B125" s="10"/>
       <c r="E125" s="9">
         <v>1</v>
       </c>
       <c r="F125" s="9">
         <v>1</v>
       </c>
-      <c r="G125" s="10"/>
-      <c r="H125" s="11">
-        <v>3</v>
-      </c>
-      <c r="I125" s="10"/>
+      <c r="G125" s="9">
+        <v>1</v>
+      </c>
+      <c r="H125" s="10"/>
+      <c r="I125" s="11">
+        <v>3</v>
+      </c>
       <c r="J125" s="10"/>
       <c r="L125" s="16">
         <v>4</v>
@@ -46645,21 +46921,21 @@
       <c r="A126" s="9">
         <v>1</v>
       </c>
-      <c r="C126" s="9">
+      <c r="B126" s="9">
         <v>1</v>
       </c>
       <c r="D126" s="9">
         <v>1</v>
       </c>
-      <c r="E126" s="10"/>
+      <c r="E126" s="9">
+        <v>1</v>
+      </c>
       <c r="F126" s="10"/>
-      <c r="G126" s="9">
-        <v>1</v>
-      </c>
-      <c r="H126" s="10"/>
-      <c r="I126" s="9">
-        <v>1</v>
-      </c>
+      <c r="G126" s="10"/>
+      <c r="H126" s="9">
+        <v>1</v>
+      </c>
+      <c r="I126" s="10"/>
       <c r="J126" s="9">
         <v>1</v>
       </c>
@@ -46689,18 +46965,18 @@
       <c r="W126" s="16"/>
     </row>
     <row r="127" spans="1:40">
-      <c r="B127" s="11">
-        <v>2</v>
+      <c r="A127" s="9">
+        <v>1</v>
       </c>
       <c r="C127" s="11">
-        <v>3</v>
-      </c>
-      <c r="D127" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="D127" s="11">
+        <v>3</v>
+      </c>
       <c r="E127" s="10"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="9">
-        <v>1</v>
-      </c>
+      <c r="F127" s="10"/>
+      <c r="J127" s="10"/>
       <c r="L127" s="16">
         <v>0</v>
       </c>
@@ -46727,22 +47003,22 @@
       <c r="W127" s="16"/>
     </row>
     <row r="128" spans="1:40">
-      <c r="A128" s="9">
-        <v>1</v>
-      </c>
-      <c r="C128" s="9">
-        <v>1</v>
-      </c>
-      <c r="E128" s="9">
-        <v>1</v>
-      </c>
-      <c r="G128" s="11">
-        <v>2</v>
-      </c>
-      <c r="I128" s="9">
-        <v>1</v>
-      </c>
-      <c r="J128" s="10"/>
+      <c r="A128" s="10"/>
+      <c r="B128" s="9">
+        <v>1</v>
+      </c>
+      <c r="D128" s="9">
+        <v>1</v>
+      </c>
+      <c r="F128" s="9">
+        <v>1</v>
+      </c>
+      <c r="H128" s="11">
+        <v>2</v>
+      </c>
+      <c r="J128" s="9">
+        <v>1</v>
+      </c>
       <c r="L128" s="16">
         <v>1</v>
       </c>
@@ -46772,7 +47048,7 @@
       <c r="A129" s="9">
         <v>1</v>
       </c>
-      <c r="D129" s="9">
+      <c r="B129" s="9">
         <v>1</v>
       </c>
       <c r="E129" s="9">
@@ -46784,7 +47060,7 @@
       <c r="G129" s="9">
         <v>1</v>
       </c>
-      <c r="J129" s="9">
+      <c r="H129" s="9">
         <v>1</v>
       </c>
       <c r="L129" s="16">
@@ -46813,19 +47089,19 @@
       <c r="W129" s="16"/>
     </row>
     <row r="130" spans="1:23">
-      <c r="A130" s="11">
-        <v>2</v>
-      </c>
-      <c r="C130" s="11">
-        <v>2</v>
-      </c>
-      <c r="E130" s="9">
-        <v>1</v>
+      <c r="A130" s="10"/>
+      <c r="B130" s="11">
+        <v>2</v>
+      </c>
+      <c r="D130" s="11">
+        <v>2</v>
       </c>
       <c r="F130" s="9">
         <v>1</v>
       </c>
-      <c r="J130" s="10"/>
+      <c r="G130" s="9">
+        <v>1</v>
+      </c>
       <c r="L130" s="16">
         <v>1</v>
       </c>
@@ -46852,21 +47128,21 @@
       <c r="W130" s="16"/>
     </row>
     <row r="131" spans="1:23">
-      <c r="B131" s="9">
-        <v>1</v>
-      </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="9">
-        <v>1</v>
-      </c>
-      <c r="F131" s="11">
-        <v>2</v>
-      </c>
-      <c r="G131" s="9">
-        <v>1</v>
-      </c>
-      <c r="H131" s="10"/>
-      <c r="I131" s="9">
+      <c r="C131" s="9">
+        <v>1</v>
+      </c>
+      <c r="D131" s="10"/>
+      <c r="E131" s="9">
+        <v>1</v>
+      </c>
+      <c r="G131" s="11">
+        <v>2</v>
+      </c>
+      <c r="H131" s="9">
+        <v>1</v>
+      </c>
+      <c r="I131" s="10"/>
+      <c r="J131" s="9">
         <v>1</v>
       </c>
       <c r="L131" s="16">
@@ -46904,14 +47180,14 @@
       <c r="C132" s="9">
         <v>1</v>
       </c>
-      <c r="D132" s="10"/>
-      <c r="E132" s="9">
-        <v>1</v>
-      </c>
-      <c r="G132" s="9">
-        <v>1</v>
-      </c>
-      <c r="J132" s="9">
+      <c r="D132" s="9">
+        <v>1</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="9">
+        <v>1</v>
+      </c>
+      <c r="H132" s="9">
         <v>1</v>
       </c>
       <c r="L132" s="16">
@@ -46940,19 +47216,19 @@
       <c r="W132" s="16"/>
     </row>
     <row r="133" spans="1:23">
-      <c r="B133" s="11">
-        <v>2</v>
-      </c>
-      <c r="D133" s="9">
-        <v>1</v>
+      <c r="C133" s="11">
+        <v>2</v>
       </c>
       <c r="E133" s="9">
         <v>1</v>
       </c>
-      <c r="G133" s="9">
-        <v>1</v>
-      </c>
-      <c r="I133" s="9">
+      <c r="F133" s="9">
+        <v>1</v>
+      </c>
+      <c r="H133" s="9">
+        <v>1</v>
+      </c>
+      <c r="J133" s="9">
         <v>1</v>
       </c>
       <c r="L133" s="16">
@@ -46981,19 +47257,19 @@
       <c r="W133" s="16"/>
     </row>
     <row r="134" spans="1:23">
-      <c r="A134" s="9">
-        <v>1</v>
-      </c>
-      <c r="E134" s="9">
-        <v>1</v>
-      </c>
-      <c r="G134" s="9">
+      <c r="B134" s="9">
+        <v>1</v>
+      </c>
+      <c r="F134" s="9">
         <v>1</v>
       </c>
       <c r="H134" s="9">
         <v>1</v>
       </c>
-      <c r="I134" s="11">
+      <c r="I134" s="9">
+        <v>1</v>
+      </c>
+      <c r="J134" s="11">
         <v>2</v>
       </c>
       <c r="L134" s="16">
@@ -47022,10 +47298,7 @@
       <c r="W134" s="16"/>
     </row>
     <row r="135" spans="1:23">
-      <c r="A135" s="9">
-        <v>1</v>
-      </c>
-      <c r="C135" s="9">
+      <c r="B135" s="9">
         <v>1</v>
       </c>
       <c r="D135" s="9">
@@ -47034,8 +47307,11 @@
       <c r="E135" s="9">
         <v>1</v>
       </c>
-      <c r="H135" s="10"/>
-      <c r="I135" s="11">
+      <c r="F135" s="9">
+        <v>1</v>
+      </c>
+      <c r="I135" s="10"/>
+      <c r="J135" s="11">
         <v>2</v>
       </c>
       <c r="L135" s="16">
@@ -47064,13 +47340,13 @@
       <c r="W135" s="16"/>
     </row>
     <row r="136" spans="1:23">
-      <c r="D136" s="11">
-        <v>2</v>
-      </c>
-      <c r="F136" s="11">
-        <v>3</v>
-      </c>
-      <c r="H136" s="9">
+      <c r="E136" s="11">
+        <v>2</v>
+      </c>
+      <c r="G136" s="11">
+        <v>3</v>
+      </c>
+      <c r="I136" s="9">
         <v>1</v>
       </c>
       <c r="L136" s="16">
@@ -47099,16 +47375,16 @@
       <c r="W136" s="16"/>
     </row>
     <row r="137" spans="1:23">
-      <c r="C137" s="9">
-        <v>1</v>
-      </c>
-      <c r="D137" s="11">
-        <v>2</v>
-      </c>
-      <c r="G137" s="11">
-        <v>2</v>
-      </c>
-      <c r="I137" s="9">
+      <c r="D137" s="9">
+        <v>1</v>
+      </c>
+      <c r="E137" s="11">
+        <v>2</v>
+      </c>
+      <c r="H137" s="11">
+        <v>2</v>
+      </c>
+      <c r="J137" s="9">
         <v>1</v>
       </c>
       <c r="L137" s="16">
@@ -47137,11 +47413,8 @@
       <c r="W137" s="16"/>
     </row>
     <row r="138" spans="1:23">
-      <c r="D138" s="11">
-        <v>2</v>
-      </c>
-      <c r="E138" s="9">
-        <v>1</v>
+      <c r="E138" s="11">
+        <v>2</v>
       </c>
       <c r="F138" s="9">
         <v>1</v>
@@ -47150,6 +47423,9 @@
         <v>1</v>
       </c>
       <c r="H138" s="9">
+        <v>1</v>
+      </c>
+      <c r="I138" s="9">
         <v>1</v>
       </c>
       <c r="L138" s="16">
@@ -47175,16 +47451,16 @@
       </c>
     </row>
     <row r="139" spans="1:23">
-      <c r="A139" s="11">
-        <v>2</v>
-      </c>
-      <c r="C139" s="9">
-        <v>1</v>
-      </c>
-      <c r="G139" s="11">
-        <v>2</v>
-      </c>
-      <c r="H139" s="9">
+      <c r="B139" s="11">
+        <v>2</v>
+      </c>
+      <c r="D139" s="9">
+        <v>1</v>
+      </c>
+      <c r="H139" s="11">
+        <v>2</v>
+      </c>
+      <c r="I139" s="9">
         <v>1</v>
       </c>
       <c r="L139" s="16">
@@ -47210,16 +47486,16 @@
       </c>
     </row>
     <row r="140" spans="1:23">
-      <c r="A140" s="11">
-        <v>2</v>
-      </c>
       <c r="B140" s="11">
         <v>2</v>
       </c>
-      <c r="C140" s="9">
-        <v>1</v>
-      </c>
-      <c r="E140" s="9">
+      <c r="C140" s="11">
+        <v>2</v>
+      </c>
+      <c r="D140" s="9">
+        <v>1</v>
+      </c>
+      <c r="F140" s="9">
         <v>1</v>
       </c>
       <c r="L140" s="16">
@@ -47248,17 +47524,17 @@
       <c r="A141" s="9">
         <v>1</v>
       </c>
-      <c r="C141" s="9">
+      <c r="B141" s="9">
         <v>1</v>
       </c>
       <c r="D141" s="9">
         <v>1</v>
       </c>
-      <c r="E141" s="11">
-        <v>2</v>
-      </c>
-      <c r="J141" s="9">
-        <v>1</v>
+      <c r="E141" s="9">
+        <v>1</v>
+      </c>
+      <c r="F141" s="11">
+        <v>2</v>
       </c>
       <c r="L141" s="16">
         <v>0</v>
@@ -47286,13 +47562,13 @@
       <c r="A142" s="9">
         <v>1</v>
       </c>
-      <c r="B142" s="11">
-        <v>2</v>
-      </c>
-      <c r="D142" s="9">
-        <v>1</v>
-      </c>
-      <c r="I142" s="9">
+      <c r="B142" s="9">
+        <v>1</v>
+      </c>
+      <c r="C142" s="11">
+        <v>2</v>
+      </c>
+      <c r="E142" s="9">
         <v>1</v>
       </c>
       <c r="J142" s="9">
@@ -47321,16 +47597,16 @@
       </c>
     </row>
     <row r="143" spans="1:23">
-      <c r="A143" s="9">
-        <v>1</v>
-      </c>
-      <c r="B143" s="11">
-        <v>3</v>
-      </c>
-      <c r="G143" s="9">
-        <v>1</v>
+      <c r="B143" s="9">
+        <v>1</v>
+      </c>
+      <c r="C143" s="11">
+        <v>3</v>
       </c>
       <c r="H143" s="9">
+        <v>1</v>
+      </c>
+      <c r="I143" s="9">
         <v>1</v>
       </c>
       <c r="L143" s="16">
@@ -47356,19 +47632,19 @@
       </c>
     </row>
     <row r="144" spans="1:23">
-      <c r="A144" s="9">
-        <v>1</v>
-      </c>
       <c r="B144" s="9">
         <v>1</v>
       </c>
-      <c r="E144" s="9">
-        <v>1</v>
-      </c>
-      <c r="G144" s="11">
-        <v>2</v>
-      </c>
-      <c r="I144" s="9">
+      <c r="C144" s="9">
+        <v>1</v>
+      </c>
+      <c r="F144" s="9">
+        <v>1</v>
+      </c>
+      <c r="H144" s="11">
+        <v>2</v>
+      </c>
+      <c r="J144" s="9">
         <v>1</v>
       </c>
       <c r="L144" s="16">
@@ -47394,17 +47670,17 @@
       </c>
     </row>
     <row r="145" spans="1:19">
-      <c r="C145" s="11">
-        <v>2</v>
-      </c>
-      <c r="D145" s="9">
-        <v>1</v>
-      </c>
-      <c r="F145" s="11">
-        <v>2</v>
-      </c>
-      <c r="J145" s="9">
-        <v>1</v>
+      <c r="A145" s="9">
+        <v>1</v>
+      </c>
+      <c r="D145" s="11">
+        <v>2</v>
+      </c>
+      <c r="E145" s="9">
+        <v>1</v>
+      </c>
+      <c r="G145" s="11">
+        <v>2</v>
       </c>
       <c r="L145" s="16">
         <v>0</v>
@@ -47429,20 +47705,20 @@
       </c>
     </row>
     <row r="146" spans="1:19">
-      <c r="B146" s="9">
-        <v>1</v>
+      <c r="A146" s="11">
+        <v>2</v>
       </c>
       <c r="C146" s="9">
         <v>1</v>
       </c>
-      <c r="E146" s="9">
-        <v>1</v>
-      </c>
-      <c r="H146" s="9">
-        <v>1</v>
-      </c>
-      <c r="J146" s="11">
-        <v>2</v>
+      <c r="D146" s="9">
+        <v>1</v>
+      </c>
+      <c r="F146" s="9">
+        <v>1</v>
+      </c>
+      <c r="I146" s="9">
+        <v>1</v>
       </c>
       <c r="L146" s="16">
         <v>0</v>
@@ -47467,10 +47743,10 @@
       </c>
     </row>
     <row r="147" spans="1:19">
-      <c r="B147" s="9">
-        <v>1</v>
-      </c>
-      <c r="E147" s="9">
+      <c r="A147" s="9">
+        <v>1</v>
+      </c>
+      <c r="C147" s="9">
         <v>1</v>
       </c>
       <c r="F147" s="9">
@@ -47479,7 +47755,7 @@
       <c r="G147" s="9">
         <v>1</v>
       </c>
-      <c r="I147" s="9">
+      <c r="H147" s="9">
         <v>1</v>
       </c>
       <c r="J147" s="9">
@@ -47508,23 +47784,23 @@
       </c>
     </row>
     <row r="148" spans="1:19">
-      <c r="A148" s="9">
-        <v>1</v>
-      </c>
-      <c r="B148" s="11">
-        <v>2</v>
-      </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="9">
-        <v>1</v>
-      </c>
-      <c r="F148" s="9">
+      <c r="B148" s="9">
+        <v>1</v>
+      </c>
+      <c r="C148" s="11">
+        <v>2</v>
+      </c>
+      <c r="D148" s="10"/>
+      <c r="E148" s="9">
         <v>1</v>
       </c>
       <c r="G148" s="9">
         <v>1</v>
       </c>
-      <c r="I148" s="10"/>
+      <c r="H148" s="9">
+        <v>1</v>
+      </c>
+      <c r="J148" s="10"/>
       <c r="L148" s="16">
         <v>1</v>
       </c>
@@ -47548,21 +47824,21 @@
       </c>
     </row>
     <row r="149" spans="1:19">
-      <c r="B149" s="9">
-        <v>1</v>
-      </c>
-      <c r="C149" s="10"/>
+      <c r="A149" s="9">
+        <v>1</v>
+      </c>
+      <c r="C149" s="9">
+        <v>1</v>
+      </c>
       <c r="D149" s="10"/>
-      <c r="E149" s="9">
-        <v>1</v>
-      </c>
+      <c r="E149" s="10"/>
       <c r="F149" s="9">
         <v>1</v>
       </c>
-      <c r="G149" s="10"/>
-      <c r="H149" s="9">
-        <v>1</v>
-      </c>
+      <c r="G149" s="9">
+        <v>1</v>
+      </c>
+      <c r="H149" s="10"/>
       <c r="I149" s="9">
         <v>1</v>
       </c>
@@ -47592,18 +47868,18 @@
       </c>
     </row>
     <row r="150" spans="1:19">
-      <c r="A150" s="9">
-        <v>1</v>
-      </c>
-      <c r="B150" s="10"/>
-      <c r="E150" s="11">
-        <v>2</v>
-      </c>
+      <c r="B150" s="9">
+        <v>1</v>
+      </c>
+      <c r="C150" s="10"/>
       <c r="F150" s="11">
         <v>2</v>
       </c>
-      <c r="H150" s="10"/>
-      <c r="I150" s="9">
+      <c r="G150" s="11">
+        <v>2</v>
+      </c>
+      <c r="I150" s="10"/>
+      <c r="J150" s="9">
         <v>1</v>
       </c>
       <c r="L150" s="16">
@@ -47629,21 +47905,21 @@
       </c>
     </row>
     <row r="151" spans="1:19">
-      <c r="A151" s="10"/>
-      <c r="C151" s="11">
-        <v>2</v>
-      </c>
-      <c r="E151" s="10"/>
+      <c r="A151" s="9">
+        <v>1</v>
+      </c>
+      <c r="B151" s="10"/>
+      <c r="D151" s="11">
+        <v>2</v>
+      </c>
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
-      <c r="H151" s="9">
-        <v>1</v>
-      </c>
-      <c r="I151" s="11">
-        <v>2</v>
-      </c>
-      <c r="J151" s="9">
-        <v>1</v>
+      <c r="H151" s="10"/>
+      <c r="I151" s="9">
+        <v>1</v>
+      </c>
+      <c r="J151" s="11">
+        <v>2</v>
       </c>
       <c r="L151" s="16">
         <v>0</v>
@@ -47668,16 +47944,16 @@
       </c>
     </row>
     <row r="152" spans="1:19">
-      <c r="D152" s="11">
-        <v>2</v>
-      </c>
-      <c r="F152" s="11">
-        <v>2</v>
-      </c>
-      <c r="H152" s="9">
-        <v>1</v>
+      <c r="E152" s="11">
+        <v>2</v>
+      </c>
+      <c r="G152" s="11">
+        <v>2</v>
       </c>
       <c r="I152" s="9">
+        <v>1</v>
+      </c>
+      <c r="J152" s="9">
         <v>1</v>
       </c>
       <c r="L152" s="16">
@@ -47703,14 +47979,14 @@
       </c>
     </row>
     <row r="153" spans="1:19">
-      <c r="A153" s="9">
-        <v>1</v>
-      </c>
-      <c r="C153" s="11">
-        <v>2</v>
-      </c>
-      <c r="F153" s="10"/>
-      <c r="H153" s="11">
+      <c r="B153" s="9">
+        <v>1</v>
+      </c>
+      <c r="D153" s="11">
+        <v>2</v>
+      </c>
+      <c r="G153" s="10"/>
+      <c r="I153" s="11">
         <v>3</v>
       </c>
       <c r="L153" s="16">
@@ -47736,16 +48012,16 @@
       </c>
     </row>
     <row r="154" spans="1:19">
-      <c r="A154" s="9">
-        <v>1</v>
-      </c>
-      <c r="D154" s="11">
-        <v>2</v>
-      </c>
-      <c r="G154" s="9">
-        <v>1</v>
-      </c>
-      <c r="I154" s="11">
+      <c r="B154" s="9">
+        <v>1</v>
+      </c>
+      <c r="E154" s="11">
+        <v>2</v>
+      </c>
+      <c r="H154" s="9">
+        <v>1</v>
+      </c>
+      <c r="J154" s="11">
         <v>2</v>
       </c>
       <c r="L154" s="16">
@@ -47771,20 +48047,20 @@
       </c>
     </row>
     <row r="155" spans="1:19">
-      <c r="C155" s="9">
-        <v>1</v>
-      </c>
-      <c r="E155" s="9">
-        <v>1</v>
-      </c>
-      <c r="G155" s="9">
-        <v>1</v>
-      </c>
-      <c r="I155" s="11">
-        <v>2</v>
-      </c>
-      <c r="J155" s="9">
-        <v>1</v>
+      <c r="A155" s="9">
+        <v>1</v>
+      </c>
+      <c r="D155" s="9">
+        <v>1</v>
+      </c>
+      <c r="F155" s="9">
+        <v>1</v>
+      </c>
+      <c r="H155" s="9">
+        <v>1</v>
+      </c>
+      <c r="J155" s="11">
+        <v>2</v>
       </c>
       <c r="L155" s="16">
         <v>0</v>
@@ -47809,16 +48085,16 @@
       </c>
     </row>
     <row r="156" spans="1:19">
-      <c r="A156" s="11">
-        <v>2</v>
-      </c>
-      <c r="B156" s="9">
-        <v>1</v>
-      </c>
-      <c r="C156" s="11">
-        <v>2</v>
-      </c>
-      <c r="D156" s="9">
+      <c r="B156" s="11">
+        <v>2</v>
+      </c>
+      <c r="C156" s="9">
+        <v>1</v>
+      </c>
+      <c r="D156" s="11">
+        <v>2</v>
+      </c>
+      <c r="E156" s="9">
         <v>1</v>
       </c>
       <c r="L156" s="16">
@@ -47844,20 +48120,20 @@
       </c>
     </row>
     <row r="157" spans="1:19">
-      <c r="A157" s="9">
-        <v>1</v>
-      </c>
-      <c r="C157" s="9">
-        <v>1</v>
-      </c>
-      <c r="F157" s="9">
-        <v>1</v>
-      </c>
-      <c r="H157" s="9">
-        <v>1</v>
-      </c>
-      <c r="J157" s="11">
-        <v>2</v>
+      <c r="A157" s="11">
+        <v>2</v>
+      </c>
+      <c r="B157" s="9">
+        <v>1</v>
+      </c>
+      <c r="D157" s="9">
+        <v>1</v>
+      </c>
+      <c r="G157" s="9">
+        <v>1</v>
+      </c>
+      <c r="I157" s="9">
+        <v>1</v>
       </c>
       <c r="L157" s="16">
         <v>0</v>
@@ -47882,19 +48158,19 @@
       </c>
     </row>
     <row r="158" spans="1:19">
-      <c r="A158" s="9">
-        <v>1</v>
-      </c>
       <c r="B158" s="9">
         <v>1</v>
       </c>
-      <c r="D158" s="11">
-        <v>2</v>
-      </c>
-      <c r="E158" s="9">
-        <v>1</v>
-      </c>
-      <c r="I158" s="9">
+      <c r="C158" s="9">
+        <v>1</v>
+      </c>
+      <c r="E158" s="11">
+        <v>2</v>
+      </c>
+      <c r="F158" s="9">
+        <v>1</v>
+      </c>
+      <c r="J158" s="9">
         <v>1</v>
       </c>
       <c r="L158" s="16">
@@ -47920,25 +48196,25 @@
       </c>
     </row>
     <row r="159" spans="1:19">
-      <c r="A159" s="10"/>
-      <c r="B159" s="9">
-        <v>1</v>
-      </c>
-      <c r="C159" s="11">
-        <v>2</v>
-      </c>
-      <c r="D159" s="10"/>
-      <c r="E159" s="9">
-        <v>1</v>
-      </c>
-      <c r="F159" s="10"/>
-      <c r="G159" s="9">
-        <v>1</v>
-      </c>
+      <c r="B159" s="10"/>
+      <c r="C159" s="9">
+        <v>1</v>
+      </c>
+      <c r="D159" s="11">
+        <v>2</v>
+      </c>
+      <c r="E159" s="10"/>
+      <c r="F159" s="9">
+        <v>1</v>
+      </c>
+      <c r="G159" s="10"/>
       <c r="H159" s="9">
         <v>1</v>
       </c>
-      <c r="I159" s="10"/>
+      <c r="I159" s="9">
+        <v>1</v>
+      </c>
+      <c r="J159" s="10"/>
       <c r="L159" s="16">
         <v>2</v>
       </c>
@@ -47962,22 +48238,22 @@
       </c>
     </row>
     <row r="160" spans="1:19">
-      <c r="A160" s="9">
-        <v>1</v>
-      </c>
-      <c r="B160" s="10"/>
-      <c r="C160" s="9">
-        <v>1</v>
-      </c>
+      <c r="B160" s="9">
+        <v>1</v>
+      </c>
+      <c r="C160" s="10"/>
       <c r="D160" s="9">
         <v>1</v>
       </c>
-      <c r="E160" s="10"/>
+      <c r="E160" s="9">
+        <v>1</v>
+      </c>
       <c r="F160" s="10"/>
-      <c r="G160" s="11">
-        <v>3</v>
-      </c>
-      <c r="H160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="11">
+        <v>3</v>
+      </c>
+      <c r="I160" s="10"/>
       <c r="L160" s="16">
         <v>1</v>
       </c>
@@ -48001,21 +48277,21 @@
       </c>
     </row>
     <row r="161" spans="1:19">
-      <c r="A161" s="10"/>
-      <c r="B161" s="9">
-        <v>1</v>
-      </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="9">
-        <v>1</v>
-      </c>
-      <c r="E161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="11">
-        <v>3</v>
-      </c>
-      <c r="J161" s="9">
-        <v>1</v>
+      <c r="A161" s="9">
+        <v>1</v>
+      </c>
+      <c r="B161" s="10"/>
+      <c r="C161" s="9">
+        <v>1</v>
+      </c>
+      <c r="D161" s="10"/>
+      <c r="E161" s="9">
+        <v>1</v>
+      </c>
+      <c r="F161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="11">
+        <v>3</v>
       </c>
       <c r="L161" s="16">
         <v>0</v>
@@ -48043,20 +48319,20 @@
       <c r="A162" s="9">
         <v>1</v>
       </c>
-      <c r="B162" s="10"/>
-      <c r="D162" s="9">
-        <v>1</v>
-      </c>
+      <c r="B162" s="9">
+        <v>1</v>
+      </c>
+      <c r="C162" s="10"/>
       <c r="E162" s="9">
         <v>1</v>
       </c>
       <c r="F162" s="9">
         <v>1</v>
       </c>
-      <c r="G162" s="10"/>
-      <c r="I162" s="9">
-        <v>1</v>
-      </c>
+      <c r="G162" s="9">
+        <v>1</v>
+      </c>
+      <c r="H162" s="10"/>
       <c r="J162" s="9">
         <v>1</v>
       </c>
@@ -48083,20 +48359,20 @@
       </c>
     </row>
     <row r="163" spans="1:19">
-      <c r="B163" s="9">
-        <v>1</v>
-      </c>
-      <c r="E163" s="9">
-        <v>1</v>
-      </c>
-      <c r="H163" s="9">
-        <v>1</v>
-      </c>
-      <c r="I163" s="11">
-        <v>2</v>
-      </c>
-      <c r="J163" s="9">
-        <v>1</v>
+      <c r="A163" s="9">
+        <v>1</v>
+      </c>
+      <c r="C163" s="9">
+        <v>1</v>
+      </c>
+      <c r="F163" s="9">
+        <v>1</v>
+      </c>
+      <c r="I163" s="9">
+        <v>1</v>
+      </c>
+      <c r="J163" s="11">
+        <v>2</v>
       </c>
       <c r="L163" s="16">
         <v>0</v>
@@ -48124,20 +48400,20 @@
       <c r="A164" s="9">
         <v>1</v>
       </c>
-      <c r="B164" s="10"/>
-      <c r="C164" s="9">
-        <v>1</v>
-      </c>
-      <c r="E164" s="9">
-        <v>1</v>
-      </c>
-      <c r="G164" s="9">
+      <c r="B164" s="9">
+        <v>1</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="9">
+        <v>1</v>
+      </c>
+      <c r="F164" s="9">
         <v>1</v>
       </c>
       <c r="H164" s="9">
         <v>1</v>
       </c>
-      <c r="J164" s="9">
+      <c r="I164" s="9">
         <v>1</v>
       </c>
       <c r="L164" s="16">
@@ -48175,10 +48451,10 @@
       <c r="D165" s="9">
         <v>1</v>
       </c>
-      <c r="F165" s="10"/>
-      <c r="I165" s="9">
-        <v>1</v>
-      </c>
+      <c r="E165" s="9">
+        <v>1</v>
+      </c>
+      <c r="G165" s="10"/>
       <c r="J165" s="9">
         <v>1</v>
       </c>
@@ -48205,20 +48481,20 @@
       </c>
     </row>
     <row r="166" spans="1:19">
-      <c r="A166" s="11">
-        <v>3</v>
-      </c>
-      <c r="B166" s="10"/>
+      <c r="B166" s="11">
+        <v>3</v>
+      </c>
       <c r="C166" s="10"/>
-      <c r="D166" s="9">
-        <v>1</v>
-      </c>
-      <c r="E166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="9">
+        <v>1</v>
+      </c>
       <c r="F166" s="10"/>
-      <c r="H166" s="9">
-        <v>1</v>
-      </c>
+      <c r="G166" s="10"/>
       <c r="I166" s="9">
+        <v>1</v>
+      </c>
+      <c r="J166" s="9">
         <v>1</v>
       </c>
       <c r="L166" s="16">
@@ -48244,20 +48520,20 @@
       </c>
     </row>
     <row r="167" spans="1:19">
-      <c r="A167" s="9">
-        <v>1</v>
-      </c>
-      <c r="C167" s="9">
-        <v>1</v>
-      </c>
-      <c r="D167" s="10"/>
-      <c r="E167" s="11">
-        <v>2</v>
-      </c>
-      <c r="G167" s="9">
-        <v>1</v>
-      </c>
-      <c r="I167" s="9">
+      <c r="B167" s="9">
+        <v>1</v>
+      </c>
+      <c r="D167" s="9">
+        <v>1</v>
+      </c>
+      <c r="E167" s="10"/>
+      <c r="F167" s="11">
+        <v>2</v>
+      </c>
+      <c r="H167" s="9">
+        <v>1</v>
+      </c>
+      <c r="J167" s="9">
         <v>1</v>
       </c>
       <c r="L167" s="16">
@@ -48283,17 +48559,17 @@
       </c>
     </row>
     <row r="168" spans="1:19">
-      <c r="B168" s="9">
-        <v>1</v>
-      </c>
-      <c r="C168" s="10"/>
-      <c r="D168" s="9">
-        <v>1</v>
-      </c>
+      <c r="C168" s="9">
+        <v>1</v>
+      </c>
+      <c r="D168" s="10"/>
       <c r="E168" s="9">
         <v>1</v>
       </c>
-      <c r="I168" s="11">
+      <c r="F168" s="9">
+        <v>1</v>
+      </c>
+      <c r="J168" s="11">
         <v>3</v>
       </c>
       <c r="L168" s="16">
@@ -48322,13 +48598,13 @@
       <c r="A169" s="9">
         <v>1</v>
       </c>
-      <c r="B169" s="11">
-        <v>2</v>
-      </c>
-      <c r="C169" s="9">
-        <v>1</v>
-      </c>
-      <c r="I169" s="9">
+      <c r="B169" s="9">
+        <v>1</v>
+      </c>
+      <c r="C169" s="11">
+        <v>2</v>
+      </c>
+      <c r="D169" s="9">
         <v>1</v>
       </c>
       <c r="J169" s="9">
@@ -48357,22 +48633,22 @@
       </c>
     </row>
     <row r="170" spans="1:19">
-      <c r="A170" s="9">
-        <v>1</v>
-      </c>
+      <c r="A170" s="10"/>
       <c r="B170" s="9">
         <v>1</v>
       </c>
-      <c r="C170" s="11">
-        <v>2</v>
-      </c>
-      <c r="D170" s="9">
-        <v>1</v>
-      </c>
-      <c r="G170" s="9">
-        <v>1</v>
-      </c>
-      <c r="J170" s="10"/>
+      <c r="C170" s="9">
+        <v>1</v>
+      </c>
+      <c r="D170" s="11">
+        <v>2</v>
+      </c>
+      <c r="E170" s="9">
+        <v>1</v>
+      </c>
+      <c r="H170" s="9">
+        <v>1</v>
+      </c>
       <c r="L170" s="16">
         <v>1</v>
       </c>
@@ -48396,16 +48672,16 @@
       </c>
     </row>
     <row r="171" spans="1:19">
-      <c r="D171" s="11">
-        <v>2</v>
-      </c>
-      <c r="E171" s="9">
-        <v>1</v>
-      </c>
-      <c r="F171" s="11">
-        <v>2</v>
-      </c>
-      <c r="G171" s="9">
+      <c r="E171" s="11">
+        <v>2</v>
+      </c>
+      <c r="F171" s="9">
+        <v>1</v>
+      </c>
+      <c r="G171" s="11">
+        <v>2</v>
+      </c>
+      <c r="H171" s="9">
         <v>1</v>
       </c>
       <c r="L171" s="16">
@@ -48434,16 +48710,16 @@
       <c r="A172" s="9">
         <v>1</v>
       </c>
-      <c r="C172" s="11">
-        <v>2</v>
-      </c>
-      <c r="G172" s="9">
-        <v>1</v>
+      <c r="B172" s="9">
+        <v>1</v>
+      </c>
+      <c r="D172" s="11">
+        <v>2</v>
       </c>
       <c r="H172" s="9">
         <v>1</v>
       </c>
-      <c r="J172" s="9">
+      <c r="I172" s="9">
         <v>1</v>
       </c>
       <c r="L172" s="16">
@@ -48469,20 +48745,20 @@
       </c>
     </row>
     <row r="173" spans="1:19">
-      <c r="A173" s="9">
-        <v>1</v>
+      <c r="A173" s="11">
+        <v>2</v>
       </c>
       <c r="B173" s="9">
         <v>1</v>
       </c>
-      <c r="E173" s="9">
-        <v>1</v>
-      </c>
-      <c r="I173" s="9">
-        <v>1</v>
-      </c>
-      <c r="J173" s="11">
-        <v>2</v>
+      <c r="C173" s="9">
+        <v>1</v>
+      </c>
+      <c r="F173" s="9">
+        <v>1</v>
+      </c>
+      <c r="J173" s="9">
+        <v>1</v>
       </c>
       <c r="L173" s="16">
         <v>0</v>
@@ -48507,19 +48783,19 @@
       </c>
     </row>
     <row r="174" spans="1:19">
-      <c r="C174" s="9">
-        <v>1</v>
-      </c>
-      <c r="D174" s="11">
-        <v>2</v>
-      </c>
-      <c r="E174" s="9">
-        <v>1</v>
-      </c>
-      <c r="G174" s="9">
-        <v>1</v>
-      </c>
-      <c r="I174" s="9">
+      <c r="D174" s="9">
+        <v>1</v>
+      </c>
+      <c r="E174" s="11">
+        <v>2</v>
+      </c>
+      <c r="F174" s="9">
+        <v>1</v>
+      </c>
+      <c r="H174" s="9">
+        <v>1</v>
+      </c>
+      <c r="J174" s="9">
         <v>1</v>
       </c>
       <c r="L174" s="16">
@@ -48545,13 +48821,13 @@
       </c>
     </row>
     <row r="175" spans="1:19">
-      <c r="B175" s="9">
-        <v>1</v>
-      </c>
-      <c r="E175" s="9">
-        <v>1</v>
-      </c>
-      <c r="G175" s="9">
+      <c r="A175" s="9">
+        <v>1</v>
+      </c>
+      <c r="C175" s="9">
+        <v>1</v>
+      </c>
+      <c r="F175" s="9">
         <v>1</v>
       </c>
       <c r="H175" s="9">
@@ -48589,16 +48865,16 @@
       <c r="A176" s="9">
         <v>1</v>
       </c>
-      <c r="D176" s="9">
-        <v>1</v>
-      </c>
-      <c r="F176" s="11">
-        <v>2</v>
-      </c>
-      <c r="G176" s="9">
-        <v>1</v>
-      </c>
-      <c r="J176" s="9">
+      <c r="B176" s="9">
+        <v>1</v>
+      </c>
+      <c r="E176" s="9">
+        <v>1</v>
+      </c>
+      <c r="G176" s="11">
+        <v>2</v>
+      </c>
+      <c r="H176" s="9">
         <v>1</v>
       </c>
       <c r="L176" s="16">
@@ -48624,19 +48900,19 @@
       </c>
     </row>
     <row r="177" spans="1:19">
-      <c r="A177" s="9">
-        <v>1</v>
-      </c>
       <c r="B177" s="9">
         <v>1</v>
       </c>
       <c r="C177" s="9">
         <v>1</v>
       </c>
-      <c r="G177" s="11">
-        <v>2</v>
-      </c>
-      <c r="I177" s="9">
+      <c r="D177" s="9">
+        <v>1</v>
+      </c>
+      <c r="H177" s="11">
+        <v>2</v>
+      </c>
+      <c r="J177" s="9">
         <v>1</v>
       </c>
       <c r="L177" s="16">
@@ -48662,17 +48938,17 @@
       </c>
     </row>
     <row r="178" spans="1:19">
-      <c r="C178" s="9">
-        <v>1</v>
-      </c>
-      <c r="F178" s="9">
-        <v>1</v>
-      </c>
-      <c r="H178" s="9">
-        <v>1</v>
-      </c>
-      <c r="J178" s="11">
-        <v>3</v>
+      <c r="A178" s="11">
+        <v>3</v>
+      </c>
+      <c r="D178" s="9">
+        <v>1</v>
+      </c>
+      <c r="G178" s="9">
+        <v>1</v>
+      </c>
+      <c r="I178" s="9">
+        <v>1</v>
       </c>
       <c r="L178" s="16">
         <v>0</v>
@@ -48697,10 +48973,10 @@
       </c>
     </row>
     <row r="179" spans="1:19">
-      <c r="A179" s="9">
-        <v>1</v>
-      </c>
-      <c r="D179" s="9">
+      <c r="A179" s="11">
+        <v>2</v>
+      </c>
+      <c r="B179" s="9">
         <v>1</v>
       </c>
       <c r="E179" s="9">
@@ -48709,8 +48985,8 @@
       <c r="F179" s="9">
         <v>1</v>
       </c>
-      <c r="J179" s="11">
-        <v>2</v>
+      <c r="G179" s="9">
+        <v>1</v>
       </c>
       <c r="L179" s="16">
         <v>0</v>
@@ -48735,21 +49011,21 @@
       </c>
     </row>
     <row r="180" spans="1:19">
-      <c r="A180" s="11">
-        <v>2</v>
-      </c>
-      <c r="B180" s="9">
-        <v>1</v>
+      <c r="B180" s="11">
+        <v>2</v>
       </c>
       <c r="C180" s="9">
         <v>1</v>
       </c>
-      <c r="E180" s="9">
+      <c r="D180" s="9">
         <v>1</v>
       </c>
       <c r="F180" s="9">
         <v>1</v>
       </c>
+      <c r="G180" s="9">
+        <v>1</v>
+      </c>
       <c r="L180" s="16">
         <v>1</v>
       </c>
@@ -48773,20 +49049,20 @@
       </c>
     </row>
     <row r="181" spans="1:19">
-      <c r="A181" s="9">
-        <v>1</v>
-      </c>
-      <c r="D181" s="9">
-        <v>1</v>
-      </c>
-      <c r="F181" s="9">
-        <v>1</v>
-      </c>
-      <c r="H181" s="9">
-        <v>1</v>
-      </c>
-      <c r="J181" s="11">
-        <v>2</v>
+      <c r="A181" s="11">
+        <v>2</v>
+      </c>
+      <c r="B181" s="9">
+        <v>1</v>
+      </c>
+      <c r="E181" s="9">
+        <v>1</v>
+      </c>
+      <c r="G181" s="9">
+        <v>1</v>
+      </c>
+      <c r="I181" s="9">
+        <v>1</v>
       </c>
       <c r="L181" s="16">
         <v>0</v>
@@ -48817,13 +49093,13 @@
       <c r="B182" s="9">
         <v>1</v>
       </c>
-      <c r="F182" s="11">
-        <v>2</v>
-      </c>
-      <c r="G182" s="9">
-        <v>1</v>
-      </c>
-      <c r="J182" s="9">
+      <c r="C182" s="9">
+        <v>1</v>
+      </c>
+      <c r="G182" s="11">
+        <v>2</v>
+      </c>
+      <c r="H182" s="9">
         <v>1</v>
       </c>
       <c r="L182" s="16">
@@ -48849,22 +49125,22 @@
       </c>
     </row>
     <row r="183" spans="1:19">
-      <c r="A183" s="9">
-        <v>1</v>
-      </c>
       <c r="B183" s="9">
         <v>1</v>
       </c>
-      <c r="D183" s="9">
-        <v>1</v>
-      </c>
-      <c r="F183" s="9">
+      <c r="C183" s="9">
+        <v>1</v>
+      </c>
+      <c r="E183" s="9">
         <v>1</v>
       </c>
       <c r="G183" s="9">
         <v>1</v>
       </c>
-      <c r="I183" s="9">
+      <c r="H183" s="9">
+        <v>1</v>
+      </c>
+      <c r="J183" s="9">
         <v>1</v>
       </c>
       <c r="L183" s="16">
@@ -48890,7 +49166,7 @@
       </c>
     </row>
     <row r="184" spans="1:19">
-      <c r="B184" s="9">
+      <c r="A184" s="9">
         <v>1</v>
       </c>
       <c r="C184" s="9">
@@ -48899,7 +49175,7 @@
       <c r="D184" s="9">
         <v>1</v>
       </c>
-      <c r="H184" s="9">
+      <c r="E184" s="9">
         <v>1</v>
       </c>
       <c r="I184" s="9">
@@ -48934,17 +49210,17 @@
       <c r="A185" s="9">
         <v>1</v>
       </c>
-      <c r="D185" s="9">
-        <v>1</v>
-      </c>
-      <c r="F185" s="9">
-        <v>1</v>
-      </c>
-      <c r="G185" s="11">
-        <v>2</v>
-      </c>
-      <c r="J185" s="9">
-        <v>1</v>
+      <c r="B185" s="9">
+        <v>1</v>
+      </c>
+      <c r="E185" s="9">
+        <v>1</v>
+      </c>
+      <c r="G185" s="9">
+        <v>1</v>
+      </c>
+      <c r="H185" s="11">
+        <v>2</v>
       </c>
       <c r="L185" s="16">
         <v>0</v>
@@ -48966,6 +49242,79 @@
       </c>
       <c r="S185" s="16">
         <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19">
+      <c r="B186" s="9">
+        <v>1</v>
+      </c>
+      <c r="C186" s="11">
+        <v>2</v>
+      </c>
+      <c r="D186" s="9">
+        <v>1</v>
+      </c>
+      <c r="E186" s="9">
+        <v>1</v>
+      </c>
+      <c r="J186" s="9">
+        <v>1</v>
+      </c>
+      <c r="L186" s="16">
+        <v>1</v>
+      </c>
+      <c r="M186" s="16">
+        <v>2</v>
+      </c>
+      <c r="N186" s="16">
+        <v>2</v>
+      </c>
+      <c r="O186" s="16">
+        <v>3</v>
+      </c>
+      <c r="P186" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q186" s="16">
+        <v>9</v>
+      </c>
+      <c r="S186" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19">
+      <c r="C187" s="9">
+        <v>1</v>
+      </c>
+      <c r="D187" s="11">
+        <v>3</v>
+      </c>
+      <c r="F187" s="9">
+        <v>1</v>
+      </c>
+      <c r="I187" s="9">
+        <v>1</v>
+      </c>
+      <c r="L187" s="16">
+        <v>2</v>
+      </c>
+      <c r="M187" s="16">
+        <v>3</v>
+      </c>
+      <c r="N187" s="16">
+        <v>3</v>
+      </c>
+      <c r="O187" s="16">
+        <v>3</v>
+      </c>
+      <c r="P187" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q187" s="16">
+        <v>8</v>
+      </c>
+      <c r="S187" s="16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -48979,8 +49328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -49204,7 +49553,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -49342,7 +49691,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -49386,7 +49735,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -49457,7 +49806,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -49483,7 +49832,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -49501,7 +49850,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -49509,10 +49858,10 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -49524,7 +49873,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="18">
         <v>5</v>
@@ -49536,13 +49885,16 @@
         <v>17</v>
       </c>
       <c r="P12" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="F13" s="19">
         <v>13</v>
       </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
       <c r="I13" s="18">
         <v>17</v>
       </c>
@@ -49550,7 +49902,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N13" s="18">
         <v>0</v>
@@ -49564,7 +49916,10 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="L14" s="18">
+        <v>0</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -49572,10 +49927,10 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I15" s="18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -49588,7 +49943,7 @@
     </row>
     <row r="17" spans="14:14">
       <c r="N17" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,6 +578,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -935,7 +938,7 @@
   <dimension ref="A1:AO106"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S78" sqref="S78"/>
+      <selection activeCell="U77" sqref="U77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6260,7 +6263,7 @@
         <v>5</v>
       </c>
       <c r="P53" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q53" s="7">
         <v>6</v>
@@ -6342,7 +6345,7 @@
       <c r="I54" s="7">
         <v>10</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="25">
         <v>0</v>
       </c>
       <c r="K54" s="7">
@@ -6441,7 +6444,7 @@
       <c r="I55" s="7">
         <v>13</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="25">
         <v>1</v>
       </c>
       <c r="K55" s="7">
@@ -6540,7 +6543,7 @@
       <c r="I56" s="7">
         <v>1</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="25">
         <v>0</v>
       </c>
       <c r="K56" s="7">
@@ -6639,11 +6642,11 @@
       <c r="I57" s="7">
         <v>3</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="25">
         <v>1</v>
       </c>
       <c r="K57" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L57" s="7">
         <v>1</v>
@@ -6738,7 +6741,7 @@
       <c r="I58" s="7">
         <v>7</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="25">
         <v>3</v>
       </c>
       <c r="K58" s="7"/>
@@ -6836,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L59" s="7">
         <v>0</v>
@@ -6855,7 +6858,7 @@
         <v>2</v>
       </c>
       <c r="R59" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S59" s="7">
         <v>2</v>
@@ -6893,6 +6896,9 @@
       <c r="AD59" s="7">
         <v>1</v>
       </c>
+      <c r="AE59" s="7">
+        <v>0</v>
+      </c>
       <c r="AF59" s="7">
         <v>2</v>
       </c>
@@ -6901,8 +6907,14 @@
       </c>
     </row>
     <row r="60" spans="1:33" s="7" customFormat="1">
+      <c r="A60" s="7">
+        <v>0</v>
+      </c>
       <c r="B60" s="7">
         <v>3</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0</v>
       </c>
       <c r="D60" s="7">
         <v>3</v>
@@ -6950,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60" s="7">
         <v>0</v>
@@ -7027,7 +7039,7 @@
         <v>4</v>
       </c>
       <c r="T61" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U61" s="7">
         <v>0</v>
@@ -7138,14 +7150,14 @@
         <v>7</v>
       </c>
       <c r="AD62" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE62" s="3"/>
       <c r="AF62" s="7">
         <v>3</v>
       </c>
       <c r="AG62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -7175,7 +7187,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -7212,7 +7224,7 @@
         <v>12</v>
       </c>
       <c r="AA63" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB63" s="7">
         <v>1</v>
@@ -7243,9 +7255,11 @@
       <c r="G64" s="2">
         <v>0</v>
       </c>
-      <c r="H64" s="4"/>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
       <c r="I64" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="4"/>
@@ -7277,7 +7291,9 @@
       <c r="X64" s="4">
         <v>7</v>
       </c>
-      <c r="Y64" s="4"/>
+      <c r="Y64" s="4">
+        <v>0</v>
+      </c>
       <c r="Z64" s="4">
         <v>0</v>
       </c>
@@ -7285,7 +7301,7 @@
         <v>3</v>
       </c>
       <c r="AC64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
@@ -7353,7 +7369,7 @@
       <c r="AD65" s="7"/>
       <c r="AE65" s="3"/>
       <c r="AF65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG65" s="5"/>
     </row>
@@ -7381,7 +7397,7 @@
         <v>4</v>
       </c>
       <c r="N66" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O66" s="4">
         <v>1</v>
@@ -7427,7 +7443,7 @@
         <v>17</v>
       </c>
       <c r="F67" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G67" s="2">
         <v>5</v>
@@ -7441,7 +7457,7 @@
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
@@ -7449,11 +7465,11 @@
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T67" s="7"/>
       <c r="U67" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V67" s="4">
         <v>6</v>
@@ -7463,10 +7479,10 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB67" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" s="4"/>
       <c r="AE67" s="3"/>
@@ -7475,7 +7491,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="B68" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="3">
         <v>10</v>
@@ -7485,7 +7501,7 @@
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -7508,7 +7524,7 @@
       </c>
       <c r="W68" s="4"/>
       <c r="X68" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z68" s="4"/>
       <c r="AB68" s="12"/>
@@ -7580,7 +7596,7 @@
       <c r="T70" s="3"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
@@ -7665,7 +7681,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="4"/>
       <c r="H73" s="4"/>
@@ -7706,13 +7722,13 @@
       <c r="K74" s="3"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
@@ -7779,7 +7795,9 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="3"/>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="I77" s="4"/>
@@ -7821,7 +7839,7 @@
       <c r="AG78" s="5"/>
     </row>
     <row r="79" spans="1:33" s="42" customFormat="1"/>
-    <row r="80" spans="1:33" s="40" customFormat="1"/>
+    <row r="80" spans="1:33" s="65" customFormat="1"/>
     <row r="81" spans="1:33" s="44" customFormat="1"/>
     <row r="82" spans="1:33">
       <c r="A82" s="5"/>
@@ -8271,8 +8289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT956"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q197" sqref="Q197"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S194" sqref="S194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -21972,6 +21990,7 @@
         <v>12</v>
       </c>
       <c r="AD166" s="63"/>
+      <c r="AE166" s="22"/>
       <c r="AF166" s="38"/>
       <c r="AH166" s="21">
         <v>0</v>
@@ -22074,6 +22093,7 @@
         <v>11</v>
       </c>
       <c r="AD167" s="63"/>
+      <c r="AE167" s="22"/>
       <c r="AF167" s="38"/>
       <c r="AH167" s="21">
         <v>0</v>
@@ -22176,6 +22196,7 @@
         <v>6</v>
       </c>
       <c r="AD168" s="63"/>
+      <c r="AE168" s="22"/>
       <c r="AF168" s="38"/>
       <c r="AH168" s="21">
         <v>0</v>
@@ -22281,6 +22302,7 @@
         <v>12</v>
       </c>
       <c r="AD169" s="63"/>
+      <c r="AE169" s="22"/>
       <c r="AF169" s="38"/>
       <c r="AH169" s="21">
         <v>0</v>
@@ -22351,7 +22373,7 @@
       <c r="Q170" s="22">
         <v>2</v>
       </c>
-      <c r="R170" s="23">
+      <c r="R170" s="22">
         <v>17</v>
       </c>
       <c r="S170" s="22">
@@ -22382,8 +22404,11 @@
       <c r="AB170" s="19">
         <v>3</v>
       </c>
-      <c r="AC170" s="23"/>
+      <c r="AC170" s="22">
+        <v>17</v>
+      </c>
       <c r="AD170" s="64"/>
+      <c r="AE170" s="22"/>
       <c r="AF170" s="38"/>
       <c r="AH170" s="21">
         <v>0</v>
@@ -22486,6 +22511,7 @@
         <v>4</v>
       </c>
       <c r="AD171" s="63"/>
+      <c r="AE171" s="22"/>
       <c r="AF171" s="38"/>
       <c r="AH171" s="21">
         <v>0</v>
@@ -22588,6 +22614,7 @@
         <v>13</v>
       </c>
       <c r="AD172" s="63"/>
+      <c r="AE172" s="22"/>
       <c r="AF172" s="38"/>
       <c r="AH172" s="21">
         <v>1</v>
@@ -22687,6 +22714,7 @@
         <v>10</v>
       </c>
       <c r="AD173" s="63"/>
+      <c r="AE173" s="22"/>
       <c r="AF173" s="38"/>
       <c r="AH173" s="21">
         <v>0</v>
@@ -22769,14 +22797,14 @@
       <c r="U174" s="22">
         <v>9</v>
       </c>
-      <c r="V174" s="23">
+      <c r="V174" s="22">
         <v>13</v>
       </c>
       <c r="W174" s="23"/>
-      <c r="X174" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y174" s="16">
+      <c r="X174" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y174" s="19">
         <v>2</v>
       </c>
       <c r="Z174" s="19">
@@ -22788,8 +22816,11 @@
       <c r="AB174" s="22">
         <v>9</v>
       </c>
-      <c r="AC174" s="23"/>
+      <c r="AC174" s="22">
+        <v>13</v>
+      </c>
       <c r="AD174" s="64"/>
+      <c r="AE174" s="22"/>
       <c r="AF174" s="38"/>
       <c r="AH174" s="21">
         <v>1</v>
@@ -22861,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="S175" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T175" s="19">
         <v>1</v>
@@ -22873,10 +22904,10 @@
         <v>7</v>
       </c>
       <c r="W175" s="20"/>
-      <c r="X175" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y175" s="16">
+      <c r="X175" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y175" s="19">
         <v>1</v>
       </c>
       <c r="Z175" s="19">
@@ -22890,6 +22921,7 @@
       </c>
       <c r="AC175" s="20"/>
       <c r="AD175" s="64"/>
+      <c r="AE175" s="22"/>
       <c r="AF175" s="38"/>
       <c r="AH175" s="21">
         <v>0</v>
@@ -22967,7 +22999,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -22987,6 +23019,7 @@
       </c>
       <c r="AC176" s="20"/>
       <c r="AD176" s="64"/>
+      <c r="AE176" s="22"/>
       <c r="AF176" s="38"/>
       <c r="AH176" s="21">
         <v>0</v>
@@ -23049,7 +23082,7 @@
         <v>5</v>
       </c>
       <c r="R177" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S177" s="22">
         <v>9</v>
@@ -23081,6 +23114,7 @@
       </c>
       <c r="AC177" s="23"/>
       <c r="AD177" s="63"/>
+      <c r="AE177" s="22"/>
       <c r="AF177" s="38"/>
       <c r="AH177" s="21">
         <v>0</v>
@@ -23152,7 +23186,7 @@
         <v>0</v>
       </c>
       <c r="T178" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U178" s="22">
         <v>1</v>
@@ -23161,23 +23195,24 @@
         <v>0</v>
       </c>
       <c r="W178" s="23"/>
-      <c r="X178" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y178" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z178" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA178" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB178" s="21">
-        <v>2</v>
-      </c>
-      <c r="AC178" s="38"/>
+      <c r="X178" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y178" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z178" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA178" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB178" s="22">
+        <v>2</v>
+      </c>
+      <c r="AC178" s="23"/>
       <c r="AD178" s="64"/>
+      <c r="AE178" s="22"/>
       <c r="AF178" s="38"/>
       <c r="AH178" s="21">
         <v>1</v>
@@ -23264,25 +23299,26 @@
         <v>1</v>
       </c>
       <c r="W179" s="23"/>
-      <c r="X179" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y179" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z179" s="21">
-        <v>1</v>
-      </c>
-      <c r="AA179" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB179" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC179" s="21">
+      <c r="X179" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y179" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z179" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA179" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB179" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC179" s="22">
         <v>1</v>
       </c>
       <c r="AD179" s="63"/>
+      <c r="AE179" s="22"/>
       <c r="AF179" s="38"/>
     </row>
     <row r="180" spans="1:43" s="21" customFormat="1">
@@ -23336,29 +23372,30 @@
         <v>1</v>
       </c>
       <c r="U180" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V180" s="22">
         <v>3</v>
       </c>
       <c r="W180" s="23"/>
-      <c r="X180" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y180" s="21">
-        <v>2</v>
-      </c>
-      <c r="Z180" s="21">
-        <v>3</v>
-      </c>
-      <c r="AA180" s="21">
-        <v>5</v>
-      </c>
-      <c r="AB180" s="16">
-        <v>6</v>
-      </c>
-      <c r="AC180" s="38"/>
+      <c r="X180" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y180" s="22">
+        <v>2</v>
+      </c>
+      <c r="Z180" s="22">
+        <v>3</v>
+      </c>
+      <c r="AA180" s="22">
+        <v>5</v>
+      </c>
+      <c r="AB180" s="19">
+        <v>6</v>
+      </c>
+      <c r="AC180" s="23"/>
       <c r="AD180" s="64"/>
+      <c r="AE180" s="22"/>
       <c r="AF180" s="38"/>
     </row>
     <row r="181" spans="1:43" s="21" customFormat="1">
@@ -23399,7 +23436,7 @@
         <v>16</v>
       </c>
       <c r="P181" s="22"/>
-      <c r="Q181" s="20">
+      <c r="Q181" s="19">
         <v>6</v>
       </c>
       <c r="R181" s="19">
@@ -23414,7 +23451,7 @@
       <c r="U181" s="19">
         <v>0</v>
       </c>
-      <c r="V181" s="20">
+      <c r="V181" s="19">
         <v>6</v>
       </c>
       <c r="W181" s="20"/>
@@ -23430,9 +23467,14 @@
       <c r="AA181" s="22">
         <v>3</v>
       </c>
-      <c r="AB181" s="20"/>
-      <c r="AC181" s="20"/>
+      <c r="AB181" s="22">
+        <v>6</v>
+      </c>
+      <c r="AC181" s="22">
+        <v>6</v>
+      </c>
       <c r="AD181" s="63"/>
+      <c r="AE181" s="22"/>
       <c r="AF181" s="38"/>
     </row>
     <row r="182" spans="1:43" s="21" customFormat="1">
@@ -23474,7 +23516,7 @@
       </c>
       <c r="P182" s="22"/>
       <c r="Q182" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R182" s="22">
         <v>0</v>
@@ -23509,6 +23551,7 @@
       </c>
       <c r="AC182" s="23"/>
       <c r="AD182" s="23"/>
+      <c r="AE182" s="22"/>
       <c r="AF182" s="38"/>
     </row>
     <row r="183" spans="1:43" s="21" customFormat="1">
@@ -23553,7 +23596,7 @@
         <v>2</v>
       </c>
       <c r="R183" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S183" s="22">
         <v>2</v>
@@ -23568,23 +23611,24 @@
         <v>2</v>
       </c>
       <c r="W183" s="23"/>
-      <c r="X183" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y183" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z183" s="21">
-        <v>2</v>
-      </c>
-      <c r="AA183" s="21">
-        <v>2</v>
-      </c>
-      <c r="AB183" s="21">
-        <v>2</v>
-      </c>
-      <c r="AC183" s="38"/>
+      <c r="X183" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y183" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z183" s="22">
+        <v>2</v>
+      </c>
+      <c r="AA183" s="22">
+        <v>2</v>
+      </c>
+      <c r="AB183" s="22">
+        <v>2</v>
+      </c>
+      <c r="AC183" s="23"/>
       <c r="AD183" s="64"/>
+      <c r="AE183" s="22"/>
       <c r="AF183" s="38"/>
     </row>
     <row r="184" spans="1:43" s="21" customFormat="1">
@@ -23626,22 +23670,22 @@
       </c>
       <c r="P184" s="22"/>
       <c r="Q184" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R184" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S184" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T184" s="22">
         <v>2</v>
       </c>
       <c r="U184" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V184" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W184" s="23"/>
       <c r="X184" s="19">
@@ -23653,6 +23697,7 @@
       <c r="AB184" s="23"/>
       <c r="AC184" s="23"/>
       <c r="AD184" s="63"/>
+      <c r="AE184" s="22"/>
       <c r="AF184" s="38"/>
     </row>
     <row r="185" spans="1:43" s="21" customFormat="1">
@@ -23693,32 +23738,35 @@
         <v>8</v>
       </c>
       <c r="P185" s="22"/>
-      <c r="Q185" s="23">
+      <c r="Q185" s="22">
         <v>2</v>
       </c>
       <c r="R185" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S185" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T185" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U185" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V185" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W185" s="23"/>
-      <c r="X185" s="38"/>
-      <c r="Y185" s="38"/>
-      <c r="Z185" s="38"/>
-      <c r="AA185" s="38"/>
-      <c r="AB185" s="38"/>
-      <c r="AC185" s="38"/>
+      <c r="X185" s="22">
+        <v>2</v>
+      </c>
+      <c r="Y185" s="23"/>
+      <c r="Z185" s="23"/>
+      <c r="AA185" s="23"/>
+      <c r="AB185" s="23"/>
+      <c r="AC185" s="23"/>
       <c r="AD185" s="63"/>
+      <c r="AE185" s="22"/>
       <c r="AF185" s="38"/>
     </row>
     <row r="186" spans="1:43" s="21" customFormat="1">
@@ -23759,34 +23807,37 @@
         <v>13</v>
       </c>
       <c r="P186" s="22"/>
-      <c r="Q186" s="23">
+      <c r="Q186" s="22">
         <v>1</v>
       </c>
       <c r="R186" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S186" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T186" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U186" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V186" s="22">
         <v>0</v>
       </c>
       <c r="W186" s="23"/>
-      <c r="X186" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y186" s="38"/>
-      <c r="Z186" s="38"/>
-      <c r="AA186" s="38"/>
-      <c r="AB186" s="38"/>
-      <c r="AC186" s="38"/>
+      <c r="X186" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y186" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z186" s="23"/>
+      <c r="AA186" s="23"/>
+      <c r="AB186" s="23"/>
+      <c r="AC186" s="23"/>
       <c r="AD186" s="63"/>
+      <c r="AE186" s="22"/>
       <c r="AF186" s="38"/>
     </row>
     <row r="187" spans="1:43" s="21" customFormat="1">
@@ -23828,49 +23879,99 @@
       </c>
       <c r="P187" s="22"/>
       <c r="Q187" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R187" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S187" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T187" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U187" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V187" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W187" s="23"/>
-      <c r="X187" s="38"/>
-      <c r="Y187" s="38"/>
-      <c r="Z187" s="38"/>
-      <c r="AA187" s="38"/>
-      <c r="AB187" s="38"/>
-      <c r="AC187" s="38"/>
+      <c r="X187" s="23"/>
+      <c r="Y187" s="23"/>
+      <c r="Z187" s="23"/>
+      <c r="AA187" s="23"/>
+      <c r="AB187" s="23"/>
+      <c r="AC187" s="23"/>
       <c r="AD187" s="63"/>
+      <c r="AE187" s="22"/>
       <c r="AF187" s="38"/>
     </row>
     <row r="188" spans="1:43" s="21" customFormat="1">
+      <c r="A188" s="21">
+        <v>1</v>
+      </c>
+      <c r="B188" s="21">
+        <v>17</v>
+      </c>
+      <c r="C188" s="21">
+        <v>2</v>
+      </c>
+      <c r="D188" s="21">
+        <v>6</v>
+      </c>
+      <c r="E188" s="21">
+        <v>13</v>
+      </c>
+      <c r="F188" s="21">
+        <v>6</v>
+      </c>
+      <c r="I188" s="21">
+        <v>1</v>
+      </c>
+      <c r="J188" s="21">
+        <v>2</v>
+      </c>
+      <c r="K188" s="21">
+        <v>6</v>
+      </c>
+      <c r="L188" s="21">
+        <v>6</v>
+      </c>
+      <c r="M188" s="21">
+        <v>13</v>
+      </c>
+      <c r="N188" s="21">
+        <v>17</v>
+      </c>
       <c r="P188" s="22"/>
-      <c r="Q188" s="23"/>
-      <c r="R188" s="23"/>
-      <c r="S188" s="23"/>
-      <c r="T188" s="23"/>
-      <c r="U188" s="23"/>
-      <c r="V188" s="23"/>
+      <c r="Q188" s="23">
+        <v>0</v>
+      </c>
+      <c r="R188" s="23">
+        <v>0</v>
+      </c>
+      <c r="S188" s="23">
+        <v>0</v>
+      </c>
+      <c r="T188" s="23">
+        <v>0</v>
+      </c>
+      <c r="U188" s="23">
+        <v>0</v>
+      </c>
+      <c r="V188" s="23">
+        <v>0</v>
+      </c>
       <c r="W188" s="23"/>
-      <c r="X188" s="38"/>
-      <c r="Y188" s="38"/>
-      <c r="Z188" s="38"/>
-      <c r="AA188" s="38"/>
-      <c r="AB188" s="38"/>
-      <c r="AC188" s="38"/>
+      <c r="X188" s="23"/>
+      <c r="Y188" s="23"/>
+      <c r="Z188" s="23"/>
+      <c r="AA188" s="23"/>
+      <c r="AB188" s="23"/>
+      <c r="AC188" s="23"/>
       <c r="AD188" s="63"/>
+      <c r="AE188" s="22"/>
       <c r="AF188" s="38"/>
     </row>
     <row r="189" spans="1:43" s="21" customFormat="1">
@@ -23882,16 +23983,18 @@
       <c r="U189" s="23"/>
       <c r="V189" s="23"/>
       <c r="W189" s="23"/>
-      <c r="X189" s="38"/>
-      <c r="Y189" s="38"/>
-      <c r="Z189" s="38"/>
-      <c r="AA189" s="38"/>
-      <c r="AB189" s="38"/>
-      <c r="AC189" s="38"/>
+      <c r="X189" s="23"/>
+      <c r="Y189" s="23"/>
+      <c r="Z189" s="23"/>
+      <c r="AA189" s="23"/>
+      <c r="AB189" s="23"/>
+      <c r="AC189" s="23"/>
       <c r="AD189" s="63"/>
+      <c r="AE189" s="22"/>
       <c r="AF189" s="38"/>
     </row>
     <row r="190" spans="1:43" s="21" customFormat="1">
+      <c r="P190" s="22"/>
       <c r="Q190" s="23"/>
       <c r="R190" s="23"/>
       <c r="S190" s="23"/>
@@ -23899,13 +24002,14 @@
       <c r="U190" s="23"/>
       <c r="V190" s="23"/>
       <c r="W190" s="23"/>
-      <c r="X190" s="38"/>
-      <c r="Y190" s="38"/>
+      <c r="X190" s="23"/>
+      <c r="Y190" s="23"/>
       <c r="Z190" s="23"/>
       <c r="AA190" s="23"/>
       <c r="AB190" s="23"/>
       <c r="AC190" s="23"/>
       <c r="AD190" s="63"/>
+      <c r="AE190" s="22"/>
       <c r="AF190" s="38"/>
     </row>
     <row r="191" spans="1:43" s="21" customFormat="1">
@@ -23916,14 +24020,15 @@
       <c r="T191" s="20"/>
       <c r="U191" s="20"/>
       <c r="V191" s="20"/>
-      <c r="W191" s="15"/>
-      <c r="X191" s="15"/>
-      <c r="Y191" s="15"/>
-      <c r="Z191" s="15"/>
-      <c r="AA191" s="15"/>
-      <c r="AB191" s="15"/>
-      <c r="AC191" s="15"/>
+      <c r="W191" s="20"/>
+      <c r="X191" s="20"/>
+      <c r="Y191" s="20"/>
+      <c r="Z191" s="20"/>
+      <c r="AA191" s="20"/>
+      <c r="AB191" s="20"/>
+      <c r="AC191" s="20"/>
       <c r="AD191" s="63"/>
+      <c r="AE191" s="22"/>
       <c r="AF191" s="38"/>
     </row>
     <row r="192" spans="1:43" s="21" customFormat="1">
@@ -23942,22 +24047,25 @@
       <c r="AB192" s="23"/>
       <c r="AC192" s="23"/>
       <c r="AD192" s="63"/>
+      <c r="AE192" s="22"/>
       <c r="AF192" s="38"/>
     </row>
     <row r="193" spans="16:32">
-      <c r="Q193" s="38"/>
-      <c r="R193" s="38"/>
-      <c r="S193" s="38"/>
-      <c r="T193" s="38"/>
-      <c r="U193" s="38"/>
-      <c r="V193" s="38"/>
-      <c r="W193" s="38"/>
-      <c r="X193" s="38"/>
-      <c r="Y193" s="38"/>
-      <c r="Z193" s="38"/>
-      <c r="AA193" s="38"/>
-      <c r="AB193" s="38"/>
-      <c r="AC193" s="38"/>
+      <c r="P193" s="18"/>
+      <c r="Q193" s="23"/>
+      <c r="R193" s="23"/>
+      <c r="S193" s="23"/>
+      <c r="T193" s="23"/>
+      <c r="U193" s="23"/>
+      <c r="V193" s="23"/>
+      <c r="W193" s="23"/>
+      <c r="X193" s="23"/>
+      <c r="Y193" s="23"/>
+      <c r="Z193" s="23"/>
+      <c r="AA193" s="23"/>
+      <c r="AB193" s="23"/>
+      <c r="AC193" s="23"/>
+      <c r="AE193" s="18"/>
       <c r="AF193" s="38"/>
     </row>
     <row r="194" spans="16:32" s="21" customFormat="1">
@@ -23968,14 +24076,15 @@
       <c r="T194" s="23"/>
       <c r="U194" s="23"/>
       <c r="V194" s="23"/>
-      <c r="W194" s="38"/>
-      <c r="X194" s="38"/>
-      <c r="Y194" s="38"/>
-      <c r="Z194" s="38"/>
-      <c r="AA194" s="38"/>
-      <c r="AB194" s="38"/>
-      <c r="AC194" s="38"/>
+      <c r="W194" s="23"/>
+      <c r="X194" s="23"/>
+      <c r="Y194" s="23"/>
+      <c r="Z194" s="23"/>
+      <c r="AA194" s="23"/>
+      <c r="AB194" s="23"/>
+      <c r="AC194" s="23"/>
       <c r="AD194" s="63"/>
+      <c r="AE194" s="22"/>
       <c r="AF194" s="38"/>
     </row>
     <row r="195" spans="16:32" s="21" customFormat="1">
@@ -35970,10 +36079,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO247"/>
+  <dimension ref="A1:AO248"/>
   <sheetViews>
     <sheetView topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J195" sqref="J195"/>
+      <selection activeCell="I195" sqref="I195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -39900,11 +40009,24 @@
     </row>
     <row r="188" spans="1:26">
       <c r="A188" s="10"/>
-      <c r="B188" s="10"/>
-      <c r="C188" s="10"/>
+      <c r="B188" s="9">
+        <v>1</v>
+      </c>
+      <c r="C188" s="9">
+        <v>1</v>
+      </c>
       <c r="D188" s="10"/>
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
+      <c r="G188" s="11">
+        <v>2</v>
+      </c>
+      <c r="N188" s="9">
+        <v>1</v>
+      </c>
+      <c r="R188" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="189" spans="1:26">
       <c r="A189" s="10"/>
@@ -40190,6 +40312,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
       <c r="C229" s="10"/>
       <c r="D229" s="10"/>
     </row>
@@ -40265,6 +40388,9 @@
     </row>
     <row r="247" spans="3:3">
       <c r="C247" s="10"/>
+    </row>
+    <row r="248" spans="3:3">
+      <c r="C248" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -40277,8 +40403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="G202" sqref="G202"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45400,6 +45526,53 @@
         <v>13</v>
       </c>
     </row>
+    <row r="188" spans="1:19">
+      <c r="A188" s="1">
+        <v>0</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2</v>
+      </c>
+      <c r="C188" s="1">
+        <v>4</v>
+      </c>
+      <c r="F188" s="1">
+        <v>3</v>
+      </c>
+      <c r="G188" s="1">
+        <v>1</v>
+      </c>
+      <c r="H188" s="1">
+        <v>0</v>
+      </c>
+      <c r="I188" s="1">
+        <v>0</v>
+      </c>
+      <c r="J188" s="1">
+        <v>0</v>
+      </c>
+      <c r="K188" s="1">
+        <v>2</v>
+      </c>
+      <c r="N188" s="1">
+        <v>2</v>
+      </c>
+      <c r="O188" s="1">
+        <v>2</v>
+      </c>
+      <c r="P188" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q188" s="1">
+        <v>8</v>
+      </c>
+      <c r="R188" s="1">
+        <v>9</v>
+      </c>
+      <c r="S188" s="1">
+        <v>16</v>
+      </c>
+    </row>
     <row r="195" spans="14:19" customFormat="1">
       <c r="N195" s="18"/>
       <c r="O195" s="18"/>
@@ -45425,10 +45598,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN187"/>
+  <dimension ref="A100:AN188"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="J197" sqref="J197"/>
+    <sheetView topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="O199" sqref="O199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -49317,6 +49490,44 @@
         <v>2</v>
       </c>
     </row>
+    <row r="188" spans="1:19">
+      <c r="B188" s="11">
+        <v>2</v>
+      </c>
+      <c r="D188" s="9">
+        <v>1</v>
+      </c>
+      <c r="E188" s="9">
+        <v>1</v>
+      </c>
+      <c r="F188" s="9">
+        <v>1</v>
+      </c>
+      <c r="I188" s="9">
+        <v>1</v>
+      </c>
+      <c r="L188" s="16">
+        <v>1</v>
+      </c>
+      <c r="M188" s="16">
+        <v>1</v>
+      </c>
+      <c r="N188" s="16">
+        <v>3</v>
+      </c>
+      <c r="O188" s="16">
+        <v>4</v>
+      </c>
+      <c r="P188" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q188" s="16">
+        <v>8</v>
+      </c>
+      <c r="S188" s="16">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49328,8 +49539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -49553,7 +49764,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -49691,7 +49902,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -49735,7 +49946,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -49806,7 +50017,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -49832,7 +50043,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -49850,7 +50061,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -49858,10 +50069,10 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -49873,7 +50084,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="18">
         <v>5</v>
@@ -49885,7 +50096,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -49893,7 +50104,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="18">
         <v>17</v>
@@ -49916,10 +50127,10 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -49930,20 +50141,23 @@
         <v>51</v>
       </c>
       <c r="I15" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:16">
+      <c r="F16" s="19">
+        <v>0</v>
+      </c>
       <c r="N16" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="14:14">
       <c r="N17" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -50243,7 +50457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -938,7 +938,7 @@
   <dimension ref="A1:AO106"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U77" sqref="U77"/>
+      <selection activeCell="Z80" sqref="Z80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6263,7 +6263,7 @@
         <v>5</v>
       </c>
       <c r="P53" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q53" s="7">
         <v>6</v>
@@ -6646,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L57" s="7">
         <v>1</v>
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L59" s="7">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>2</v>
       </c>
       <c r="R59" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S59" s="7">
         <v>2</v>
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="AE59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF59" s="7">
         <v>2</v>
@@ -6908,13 +6908,13 @@
     </row>
     <row r="60" spans="1:33" s="7" customFormat="1">
       <c r="A60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" s="7">
         <v>3</v>
       </c>
       <c r="C60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="7">
         <v>3</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X60" s="7">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         <v>4</v>
       </c>
       <c r="T61" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U61" s="7">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>7</v>
       </c>
       <c r="AD62" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE62" s="3"/>
       <c r="AF62" s="7">
@@ -7187,7 +7187,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -7224,7 +7224,7 @@
         <v>12</v>
       </c>
       <c r="AA63" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB63" s="7">
         <v>1</v>
@@ -7237,7 +7237,9 @@
       <c r="AF63" s="3">
         <v>12</v>
       </c>
-      <c r="AG63" s="5"/>
+      <c r="AG63" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:33">
       <c r="B64" s="3">
@@ -7292,7 +7294,7 @@
         <v>7</v>
       </c>
       <c r="Y64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z64" s="4">
         <v>0</v>
@@ -7301,7 +7303,7 @@
         <v>3</v>
       </c>
       <c r="AC64" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
@@ -7327,7 +7329,12 @@
       <c r="G65" s="2">
         <v>4</v>
       </c>
-      <c r="H65" s="4"/>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="4"/>
@@ -7397,7 +7404,7 @@
         <v>4</v>
       </c>
       <c r="N66" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O66" s="4">
         <v>1</v>
@@ -7429,7 +7436,9 @@
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
-      <c r="AF66" s="3"/>
+      <c r="AF66" s="3">
+        <v>0</v>
+      </c>
       <c r="AG66" s="36"/>
     </row>
     <row r="67" spans="1:33">
@@ -7443,7 +7452,7 @@
         <v>17</v>
       </c>
       <c r="F67" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G67" s="2">
         <v>5</v>
@@ -7457,7 +7466,7 @@
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
@@ -7465,11 +7474,11 @@
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T67" s="7"/>
       <c r="U67" s="39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V67" s="4">
         <v>6</v>
@@ -7479,10 +7488,10 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB67" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD67" s="4"/>
       <c r="AE67" s="3"/>
@@ -7491,7 +7500,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="B68" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" s="3">
         <v>10</v>
@@ -7524,7 +7533,7 @@
       </c>
       <c r="W68" s="4"/>
       <c r="X68" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z68" s="4"/>
       <c r="AB68" s="12"/>
@@ -7541,6 +7550,9 @@
         <v>2</v>
       </c>
       <c r="F69" s="4"/>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="3"/>
@@ -7596,7 +7608,7 @@
       <c r="T70" s="3"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
@@ -7681,7 +7693,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="4"/>
       <c r="H73" s="4"/>
@@ -7722,7 +7734,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -7756,7 +7768,9 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
-      <c r="Q75" s="4"/>
+      <c r="Q75" s="4">
+        <v>0</v>
+      </c>
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
@@ -7796,7 +7810,7 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -8289,8 +8303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S194" sqref="S194"/>
+    <sheetView topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -22892,7 +22906,7 @@
         <v>0</v>
       </c>
       <c r="S175" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T175" s="19">
         <v>1</v>
@@ -22999,7 +23013,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -23081,7 +23095,7 @@
       <c r="Q177" s="22">
         <v>5</v>
       </c>
-      <c r="R177" s="23">
+      <c r="R177" s="22">
         <v>11</v>
       </c>
       <c r="S177" s="22">
@@ -23112,7 +23126,9 @@
       <c r="AB177" s="19">
         <v>9</v>
       </c>
-      <c r="AC177" s="23"/>
+      <c r="AC177" s="22">
+        <v>11</v>
+      </c>
       <c r="AD177" s="63"/>
       <c r="AE177" s="22"/>
       <c r="AF177" s="38"/>
@@ -23186,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="T178" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U178" s="22">
         <v>1</v>
@@ -23372,7 +23388,7 @@
         <v>1</v>
       </c>
       <c r="U180" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V180" s="22">
         <v>3</v>
@@ -23516,7 +23532,7 @@
       </c>
       <c r="P182" s="22"/>
       <c r="Q182" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R182" s="22">
         <v>0</v>
@@ -23595,7 +23611,7 @@
       <c r="Q183" s="22">
         <v>2</v>
       </c>
-      <c r="R183" s="23">
+      <c r="R183" s="22">
         <v>5</v>
       </c>
       <c r="S183" s="22">
@@ -23626,7 +23642,9 @@
       <c r="AB183" s="22">
         <v>2</v>
       </c>
-      <c r="AC183" s="23"/>
+      <c r="AC183" s="22">
+        <v>5</v>
+      </c>
       <c r="AD183" s="64"/>
       <c r="AE183" s="22"/>
       <c r="AF183" s="38"/>
@@ -23670,22 +23688,22 @@
       </c>
       <c r="P184" s="22"/>
       <c r="Q184" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R184" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S184" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T184" s="22">
         <v>2</v>
       </c>
       <c r="U184" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V184" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W184" s="23"/>
       <c r="X184" s="19">
@@ -23742,25 +23760,27 @@
         <v>2</v>
       </c>
       <c r="R185" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S185" s="23">
-        <v>3</v>
-      </c>
-      <c r="T185" s="23">
+        <v>4</v>
+      </c>
+      <c r="T185" s="22">
         <v>3</v>
       </c>
       <c r="U185" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V185" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W185" s="23"/>
       <c r="X185" s="22">
         <v>2</v>
       </c>
-      <c r="Y185" s="23"/>
+      <c r="Y185" s="22">
+        <v>3</v>
+      </c>
       <c r="Z185" s="23"/>
       <c r="AA185" s="23"/>
       <c r="AB185" s="23"/>
@@ -23811,16 +23831,16 @@
         <v>1</v>
       </c>
       <c r="R186" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S186" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T186" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U186" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V186" s="22">
         <v>0</v>
@@ -23879,26 +23899,30 @@
       </c>
       <c r="P187" s="22"/>
       <c r="Q187" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R187" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S187" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T187" s="23">
-        <v>1</v>
-      </c>
-      <c r="U187" s="23">
-        <v>1</v>
-      </c>
-      <c r="V187" s="23">
+        <v>2</v>
+      </c>
+      <c r="U187" s="22">
+        <v>1</v>
+      </c>
+      <c r="V187" s="22">
         <v>1</v>
       </c>
       <c r="W187" s="23"/>
-      <c r="X187" s="23"/>
-      <c r="Y187" s="23"/>
+      <c r="X187" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y187" s="22">
+        <v>1</v>
+      </c>
       <c r="Z187" s="23"/>
       <c r="AA187" s="23"/>
       <c r="AB187" s="23"/>
@@ -23946,25 +23970,27 @@
       </c>
       <c r="P188" s="22"/>
       <c r="Q188" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R188" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S188" s="23">
-        <v>0</v>
-      </c>
-      <c r="T188" s="23">
+        <v>1</v>
+      </c>
+      <c r="T188" s="22">
         <v>0</v>
       </c>
       <c r="U188" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V188" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W188" s="23"/>
-      <c r="X188" s="23"/>
+      <c r="X188" s="22">
+        <v>0</v>
+      </c>
       <c r="Y188" s="23"/>
       <c r="Z188" s="23"/>
       <c r="AA188" s="23"/>
@@ -23975,13 +24001,61 @@
       <c r="AF188" s="38"/>
     </row>
     <row r="189" spans="1:43" s="21" customFormat="1">
+      <c r="A189" s="21">
+        <v>5</v>
+      </c>
+      <c r="B189" s="21">
+        <v>0</v>
+      </c>
+      <c r="C189" s="21">
+        <v>11</v>
+      </c>
+      <c r="D189" s="21">
+        <v>3</v>
+      </c>
+      <c r="E189" s="21">
+        <v>1</v>
+      </c>
+      <c r="F189" s="21">
+        <v>1</v>
+      </c>
+      <c r="I189" s="21">
+        <v>0</v>
+      </c>
+      <c r="J189" s="21">
+        <v>1</v>
+      </c>
+      <c r="K189" s="21">
+        <v>1</v>
+      </c>
+      <c r="L189" s="21">
+        <v>3</v>
+      </c>
+      <c r="M189" s="21">
+        <v>5</v>
+      </c>
+      <c r="N189" s="21">
+        <v>11</v>
+      </c>
       <c r="P189" s="22"/>
-      <c r="Q189" s="23"/>
-      <c r="R189" s="23"/>
-      <c r="S189" s="23"/>
-      <c r="T189" s="23"/>
-      <c r="U189" s="23"/>
-      <c r="V189" s="23"/>
+      <c r="Q189" s="23">
+        <v>0</v>
+      </c>
+      <c r="R189" s="23">
+        <v>0</v>
+      </c>
+      <c r="S189" s="23">
+        <v>0</v>
+      </c>
+      <c r="T189" s="23">
+        <v>0</v>
+      </c>
+      <c r="U189" s="23">
+        <v>0</v>
+      </c>
+      <c r="V189" s="23">
+        <v>0</v>
+      </c>
       <c r="W189" s="23"/>
       <c r="X189" s="23"/>
       <c r="Y189" s="23"/>
@@ -36081,8 +36155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO248"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I195" sqref="I195"/>
+    <sheetView topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J198" sqref="J198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -40029,12 +40103,23 @@
       </c>
     </row>
     <row r="189" spans="1:26">
-      <c r="A189" s="10"/>
-      <c r="B189" s="10"/>
+      <c r="A189" s="9">
+        <v>1</v>
+      </c>
+      <c r="B189" s="11">
+        <v>2</v>
+      </c>
       <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
+      <c r="D189" s="9">
+        <v>1</v>
+      </c>
       <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
+      <c r="F189" s="9">
+        <v>1</v>
+      </c>
+      <c r="L189" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:26">
       <c r="A190" s="10"/>
@@ -40235,7 +40320,7 @@
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
       <c r="D216" s="10"/>
-      <c r="F216" s="18"/>
+      <c r="F216" s="10"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="10"/>
@@ -40249,6 +40334,7 @@
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
+      <c r="F218" s="18"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="10"/>
@@ -40318,6 +40404,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
     </row>
@@ -40364,8 +40451,10 @@
     <row r="239" spans="1:4">
       <c r="A239" s="10"/>
       <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
     </row>
     <row r="240" spans="1:4">
+      <c r="A240" s="10"/>
       <c r="C240" s="10"/>
     </row>
     <row r="241" spans="3:3">
@@ -40404,7 +40493,7 @@
   <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="F195" sqref="F195"/>
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45573,6 +45662,53 @@
         <v>16</v>
       </c>
     </row>
+    <row r="189" spans="1:19">
+      <c r="A189" s="1">
+        <v>1</v>
+      </c>
+      <c r="B189" s="1">
+        <v>3</v>
+      </c>
+      <c r="C189" s="1">
+        <v>2</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0</v>
+      </c>
+      <c r="G189" s="1">
+        <v>2</v>
+      </c>
+      <c r="H189" s="1">
+        <v>0</v>
+      </c>
+      <c r="I189" s="1">
+        <v>2</v>
+      </c>
+      <c r="J189" s="1">
+        <v>1</v>
+      </c>
+      <c r="K189" s="1">
+        <v>1</v>
+      </c>
+      <c r="N189" s="1">
+        <v>0</v>
+      </c>
+      <c r="O189" s="1">
+        <v>2</v>
+      </c>
+      <c r="P189" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q189" s="1">
+        <v>5</v>
+      </c>
+      <c r="R189" s="1">
+        <v>6</v>
+      </c>
+      <c r="S189" s="1">
+        <v>7</v>
+      </c>
+    </row>
     <row r="195" spans="14:19" customFormat="1">
       <c r="N195" s="18"/>
       <c r="O195" s="18"/>
@@ -45598,10 +45734,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN188"/>
+  <dimension ref="A100:AN189"/>
   <sheetViews>
-    <sheetView topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="O199" sqref="O199"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="I197" sqref="I197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -49528,6 +49664,44 @@
         <v>6</v>
       </c>
     </row>
+    <row r="189" spans="1:19">
+      <c r="C189" s="9">
+        <v>1</v>
+      </c>
+      <c r="D189" s="9">
+        <v>1</v>
+      </c>
+      <c r="H189" s="11">
+        <v>2</v>
+      </c>
+      <c r="I189" s="9">
+        <v>1</v>
+      </c>
+      <c r="J189" s="9">
+        <v>1</v>
+      </c>
+      <c r="L189" s="16">
+        <v>2</v>
+      </c>
+      <c r="M189" s="16">
+        <v>3</v>
+      </c>
+      <c r="N189" s="16">
+        <v>7</v>
+      </c>
+      <c r="O189" s="16">
+        <v>7</v>
+      </c>
+      <c r="P189" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q189" s="16">
+        <v>9</v>
+      </c>
+      <c r="S189" s="16">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49539,8 +49713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -49764,7 +49938,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -49902,7 +50076,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -49946,7 +50120,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -50017,7 +50191,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -50043,7 +50217,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -50061,7 +50235,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -50069,10 +50243,10 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -50084,7 +50258,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="18">
         <v>5</v>
@@ -50096,7 +50270,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -50104,7 +50278,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="18">
         <v>17</v>
@@ -50127,10 +50301,10 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L14" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -50141,7 +50315,7 @@
         <v>51</v>
       </c>
       <c r="I15" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -50155,9 +50329,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="14:14">
+    <row r="17" spans="6:14">
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
       <c r="N17" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -938,7 +938,7 @@
   <dimension ref="A1:AO106"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z80" sqref="Z80"/>
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6263,7 +6263,7 @@
         <v>5</v>
       </c>
       <c r="P53" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q53" s="7">
         <v>6</v>
@@ -6744,7 +6744,9 @@
       <c r="J58" s="25">
         <v>3</v>
       </c>
-      <c r="K58" s="7"/>
+      <c r="K58" s="7">
+        <v>0</v>
+      </c>
       <c r="L58" s="7">
         <v>0</v>
       </c>
@@ -6839,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L59" s="7">
         <v>0</v>
@@ -6858,7 +6860,7 @@
         <v>2</v>
       </c>
       <c r="R59" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S59" s="7">
         <v>2</v>
@@ -6897,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="AE59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF59" s="7">
         <v>2</v>
@@ -6914,7 +6916,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="7">
         <v>3</v>
@@ -6962,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X60" s="7">
         <v>0</v>
@@ -6993,7 +6995,9 @@
       </c>
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
-      <c r="A61" s="7"/>
+      <c r="A61" s="7">
+        <v>0</v>
+      </c>
       <c r="B61" s="7">
         <v>19</v>
       </c>
@@ -7039,7 +7043,7 @@
         <v>4</v>
       </c>
       <c r="T61" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U61" s="7">
         <v>0</v>
@@ -7150,7 +7154,7 @@
         <v>7</v>
       </c>
       <c r="AD62" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE62" s="3"/>
       <c r="AF62" s="7">
@@ -7187,7 +7191,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -7224,7 +7228,7 @@
         <v>12</v>
       </c>
       <c r="AA63" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB63" s="7">
         <v>1</v>
@@ -7238,7 +7242,7 @@
         <v>12</v>
       </c>
       <c r="AG63" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -7294,7 +7298,7 @@
         <v>7</v>
       </c>
       <c r="Y64" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z64" s="4">
         <v>0</v>
@@ -7303,7 +7307,7 @@
         <v>3</v>
       </c>
       <c r="AC64" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
@@ -7396,15 +7400,19 @@
       <c r="G66" s="2">
         <v>0</v>
       </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
       <c r="J66" s="3"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4">
         <v>4</v>
       </c>
       <c r="N66" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O66" s="4">
         <v>1</v>
@@ -7437,7 +7445,7 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG66" s="36"/>
     </row>
@@ -7452,7 +7460,7 @@
         <v>17</v>
       </c>
       <c r="F67" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G67" s="2">
         <v>5</v>
@@ -7466,7 +7474,7 @@
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
@@ -7474,11 +7482,11 @@
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T67" s="7"/>
       <c r="U67" s="39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V67" s="4">
         <v>6</v>
@@ -7488,10 +7496,10 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB67" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD67" s="4"/>
       <c r="AE67" s="3"/>
@@ -7500,7 +7508,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="B68" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" s="3">
         <v>10</v>
@@ -7533,7 +7541,7 @@
       </c>
       <c r="W68" s="4"/>
       <c r="X68" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z68" s="4"/>
       <c r="AB68" s="12"/>
@@ -7590,6 +7598,9 @@
         <v>11</v>
       </c>
       <c r="F70" s="7"/>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -7644,7 +7655,9 @@
       <c r="S71" s="4"/>
       <c r="T71" s="3"/>
       <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
+      <c r="V71" s="4">
+        <v>0</v>
+      </c>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
@@ -7693,7 +7706,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="4"/>
       <c r="H73" s="4"/>
@@ -7734,7 +7747,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -7769,7 +7782,7 @@
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="Q75" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
@@ -7810,7 +7823,7 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -8303,8 +8316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT956"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F199" sqref="F199"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -22906,7 +22919,7 @@
         <v>0</v>
       </c>
       <c r="S175" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T175" s="19">
         <v>1</v>
@@ -23013,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -23202,7 +23215,7 @@
         <v>0</v>
       </c>
       <c r="T178" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U178" s="22">
         <v>1</v>
@@ -23387,7 +23400,7 @@
       <c r="T180" s="22">
         <v>1</v>
       </c>
-      <c r="U180" s="23">
+      <c r="U180" s="22">
         <v>9</v>
       </c>
       <c r="V180" s="22">
@@ -23409,7 +23422,9 @@
       <c r="AB180" s="19">
         <v>6</v>
       </c>
-      <c r="AC180" s="23"/>
+      <c r="AC180" s="22">
+        <v>9</v>
+      </c>
       <c r="AD180" s="64"/>
       <c r="AE180" s="22"/>
       <c r="AF180" s="38"/>
@@ -23532,7 +23547,7 @@
       </c>
       <c r="P182" s="22"/>
       <c r="Q182" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R182" s="22">
         <v>0</v>
@@ -23688,22 +23703,22 @@
       </c>
       <c r="P184" s="22"/>
       <c r="Q184" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R184" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S184" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T184" s="22">
         <v>2</v>
       </c>
       <c r="U184" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V184" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W184" s="23"/>
       <c r="X184" s="19">
@@ -23760,19 +23775,19 @@
         <v>2</v>
       </c>
       <c r="R185" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S185" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T185" s="22">
         <v>3</v>
       </c>
       <c r="U185" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V185" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W185" s="23"/>
       <c r="X185" s="22">
@@ -23831,16 +23846,16 @@
         <v>1</v>
       </c>
       <c r="R186" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S186" s="23">
-        <v>3</v>
-      </c>
-      <c r="T186" s="23">
+        <v>4</v>
+      </c>
+      <c r="T186" s="22">
         <v>3</v>
       </c>
       <c r="U186" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V186" s="22">
         <v>0</v>
@@ -23852,7 +23867,9 @@
       <c r="Y186" s="22">
         <v>1</v>
       </c>
-      <c r="Z186" s="23"/>
+      <c r="Z186" s="22">
+        <v>3</v>
+      </c>
       <c r="AA186" s="23"/>
       <c r="AB186" s="23"/>
       <c r="AC186" s="23"/>
@@ -23899,16 +23916,16 @@
       </c>
       <c r="P187" s="22"/>
       <c r="Q187" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R187" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S187" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T187" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U187" s="22">
         <v>1</v>
@@ -23969,29 +23986,31 @@
         <v>17</v>
       </c>
       <c r="P188" s="22"/>
-      <c r="Q188" s="23">
+      <c r="Q188" s="22">
         <v>1</v>
       </c>
       <c r="R188" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S188" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T188" s="22">
         <v>0</v>
       </c>
       <c r="U188" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V188" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W188" s="23"/>
       <c r="X188" s="22">
         <v>0</v>
       </c>
-      <c r="Y188" s="23"/>
+      <c r="Y188" s="22">
+        <v>1</v>
+      </c>
       <c r="Z188" s="23"/>
       <c r="AA188" s="23"/>
       <c r="AB188" s="23"/>
@@ -24038,28 +24057,34 @@
         <v>11</v>
       </c>
       <c r="P189" s="22"/>
-      <c r="Q189" s="23">
-        <v>0</v>
-      </c>
-      <c r="R189" s="23">
-        <v>0</v>
-      </c>
-      <c r="S189" s="23">
+      <c r="Q189" s="22">
+        <v>0</v>
+      </c>
+      <c r="R189" s="22">
+        <v>0</v>
+      </c>
+      <c r="S189" s="22">
         <v>0</v>
       </c>
       <c r="T189" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U189" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V189" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W189" s="23"/>
-      <c r="X189" s="23"/>
-      <c r="Y189" s="23"/>
-      <c r="Z189" s="23"/>
+      <c r="X189" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y189" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z189" s="22">
+        <v>0</v>
+      </c>
       <c r="AA189" s="23"/>
       <c r="AB189" s="23"/>
       <c r="AC189" s="23"/>
@@ -24068,13 +24093,61 @@
       <c r="AF189" s="38"/>
     </row>
     <row r="190" spans="1:43" s="21" customFormat="1">
+      <c r="A190" s="21">
+        <v>1</v>
+      </c>
+      <c r="B190" s="21">
+        <v>0</v>
+      </c>
+      <c r="C190" s="21">
+        <v>0</v>
+      </c>
+      <c r="D190" s="21">
+        <v>0</v>
+      </c>
+      <c r="E190" s="21">
+        <v>9</v>
+      </c>
+      <c r="F190" s="21">
+        <v>3</v>
+      </c>
+      <c r="I190" s="21">
+        <v>0</v>
+      </c>
+      <c r="J190" s="21">
+        <v>0</v>
+      </c>
+      <c r="K190" s="21">
+        <v>0</v>
+      </c>
+      <c r="L190" s="21">
+        <v>1</v>
+      </c>
+      <c r="M190" s="21">
+        <v>3</v>
+      </c>
+      <c r="N190" s="21">
+        <v>9</v>
+      </c>
       <c r="P190" s="22"/>
-      <c r="Q190" s="23"/>
-      <c r="R190" s="23"/>
-      <c r="S190" s="23"/>
-      <c r="T190" s="23"/>
-      <c r="U190" s="23"/>
-      <c r="V190" s="23"/>
+      <c r="Q190" s="23">
+        <v>0</v>
+      </c>
+      <c r="R190" s="23">
+        <v>0</v>
+      </c>
+      <c r="S190" s="23">
+        <v>0</v>
+      </c>
+      <c r="T190" s="23">
+        <v>0</v>
+      </c>
+      <c r="U190" s="23">
+        <v>0</v>
+      </c>
+      <c r="V190" s="23">
+        <v>0</v>
+      </c>
       <c r="W190" s="23"/>
       <c r="X190" s="23"/>
       <c r="Y190" s="23"/>
@@ -36156,7 +36229,7 @@
   <dimension ref="A1:AO248"/>
   <sheetViews>
     <sheetView topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J198" sqref="J198"/>
+      <selection activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -40122,12 +40195,21 @@
       </c>
     </row>
     <row r="190" spans="1:26">
-      <c r="A190" s="10"/>
-      <c r="B190" s="10"/>
+      <c r="A190" s="11">
+        <v>3</v>
+      </c>
+      <c r="B190" s="9">
+        <v>1</v>
+      </c>
       <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
+      <c r="D190" s="9">
+        <v>1</v>
+      </c>
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
+      <c r="J190" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" spans="1:26">
       <c r="A191" s="10"/>
@@ -40410,6 +40492,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="10"/>
+      <c r="B231" s="10"/>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
     </row>
@@ -40456,29 +40539,31 @@
     <row r="240" spans="1:4">
       <c r="A240" s="10"/>
       <c r="C240" s="10"/>
-    </row>
-    <row r="241" spans="3:3">
+      <c r="D240" s="10"/>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="10"/>
       <c r="C241" s="10"/>
     </row>
-    <row r="242" spans="3:3">
+    <row r="242" spans="1:3">
       <c r="C242" s="10"/>
     </row>
-    <row r="243" spans="3:3">
+    <row r="243" spans="1:3">
       <c r="C243" s="10"/>
     </row>
-    <row r="244" spans="3:3">
+    <row r="244" spans="1:3">
       <c r="C244" s="10"/>
     </row>
-    <row r="245" spans="3:3">
+    <row r="245" spans="1:3">
       <c r="C245" s="10"/>
     </row>
-    <row r="246" spans="3:3">
+    <row r="246" spans="1:3">
       <c r="C246" s="10"/>
     </row>
-    <row r="247" spans="3:3">
+    <row r="247" spans="1:3">
       <c r="C247" s="10"/>
     </row>
-    <row r="248" spans="3:3">
+    <row r="248" spans="1:3">
       <c r="C248" s="10"/>
     </row>
   </sheetData>
@@ -40493,7 +40578,7 @@
   <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="D198" sqref="D198"/>
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45709,6 +45794,53 @@
         <v>7</v>
       </c>
     </row>
+    <row r="190" spans="1:19">
+      <c r="A190" s="1">
+        <v>3</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+      <c r="C190" s="1">
+        <v>3</v>
+      </c>
+      <c r="F190" s="1">
+        <v>2</v>
+      </c>
+      <c r="G190" s="1">
+        <v>1</v>
+      </c>
+      <c r="H190" s="1">
+        <v>1</v>
+      </c>
+      <c r="I190" s="1">
+        <v>1</v>
+      </c>
+      <c r="J190" s="1">
+        <v>1</v>
+      </c>
+      <c r="K190" s="1">
+        <v>0</v>
+      </c>
+      <c r="N190" s="1">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1">
+        <v>1</v>
+      </c>
+      <c r="P190" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q190" s="1">
+        <v>8</v>
+      </c>
+      <c r="R190" s="1">
+        <v>10</v>
+      </c>
+      <c r="S190" s="1">
+        <v>11</v>
+      </c>
+    </row>
     <row r="195" spans="14:19" customFormat="1">
       <c r="N195" s="18"/>
       <c r="O195" s="18"/>
@@ -45734,10 +45866,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN189"/>
+  <dimension ref="A100:AN190"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="I197" sqref="I197"/>
+    <sheetView topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="L197" sqref="L197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -49702,6 +49834,44 @@
         <v>6</v>
       </c>
     </row>
+    <row r="190" spans="1:19">
+      <c r="B190" s="11">
+        <v>2</v>
+      </c>
+      <c r="C190" s="9">
+        <v>1</v>
+      </c>
+      <c r="H190" s="9">
+        <v>1</v>
+      </c>
+      <c r="I190" s="9">
+        <v>1</v>
+      </c>
+      <c r="J190" s="9">
+        <v>1</v>
+      </c>
+      <c r="L190" s="16">
+        <v>1</v>
+      </c>
+      <c r="M190" s="16">
+        <v>1</v>
+      </c>
+      <c r="N190" s="16">
+        <v>2</v>
+      </c>
+      <c r="O190" s="16">
+        <v>7</v>
+      </c>
+      <c r="P190" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q190" s="16">
+        <v>9</v>
+      </c>
+      <c r="S190" s="16">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49713,8 +49883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -49938,7 +50108,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -50076,7 +50246,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -50120,7 +50290,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -50191,7 +50361,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -50217,7 +50387,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -50235,7 +50405,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -50246,7 +50416,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -50258,7 +50428,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" s="18">
         <v>5</v>
@@ -50270,15 +50440,18 @@
         <v>17</v>
       </c>
       <c r="P12" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:16">
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
       <c r="F13" s="19">
         <v>13</v>
       </c>
       <c r="G13" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="18">
         <v>17</v>
@@ -50301,10 +50474,10 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L14" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -50315,7 +50488,7 @@
         <v>51</v>
       </c>
       <c r="I15" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -50331,10 +50504,10 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -50634,7 +50807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,7 +942,7 @@
   <dimension ref="A1:AO106"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6263,7 +6267,7 @@
         <v>5</v>
       </c>
       <c r="P53" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q53" s="7">
         <v>6</v>
@@ -6745,7 +6749,7 @@
         <v>3</v>
       </c>
       <c r="K58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="7">
         <v>0</v>
@@ -6841,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L59" s="7">
         <v>0</v>
@@ -6860,7 +6864,7 @@
         <v>2</v>
       </c>
       <c r="R59" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S59" s="7">
         <v>2</v>
@@ -6899,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="AE59" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF59" s="7">
         <v>2</v>
@@ -6916,7 +6920,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" s="7">
         <v>3</v>
@@ -6964,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X60" s="7">
         <v>0</v>
@@ -6996,7 +7000,7 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" s="7">
         <v>19</v>
@@ -7043,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="T61" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U61" s="7">
         <v>0</v>
@@ -7191,7 +7195,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -7228,7 +7232,7 @@
         <v>12</v>
       </c>
       <c r="AA63" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB63" s="7">
         <v>1</v>
@@ -7236,13 +7240,15 @@
       <c r="AC63" s="3">
         <v>2</v>
       </c>
-      <c r="AD63" s="7"/>
+      <c r="AD63" s="7">
+        <v>0</v>
+      </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
         <v>12</v>
       </c>
       <c r="AG63" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -7307,7 +7313,7 @@
         <v>3</v>
       </c>
       <c r="AC64" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
@@ -7370,7 +7376,9 @@
       <c r="X65" s="4">
         <v>3</v>
       </c>
-      <c r="Y65" s="4"/>
+      <c r="Y65" s="4">
+        <v>0</v>
+      </c>
       <c r="Z65" s="4">
         <v>20</v>
       </c>
@@ -7401,10 +7409,10 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="3"/>
       <c r="L66" s="4"/>
@@ -7445,7 +7453,7 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG66" s="36"/>
     </row>
@@ -7472,9 +7480,11 @@
       <c r="M67" s="4">
         <v>7</v>
       </c>
-      <c r="N67" s="4"/>
+      <c r="N67" s="4">
+        <v>0</v>
+      </c>
       <c r="O67" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
@@ -7482,11 +7492,11 @@
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T67" s="7"/>
       <c r="U67" s="39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V67" s="4">
         <v>6</v>
@@ -7496,10 +7506,10 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB67" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD67" s="4"/>
       <c r="AE67" s="3"/>
@@ -7508,7 +7518,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="B68" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" s="3">
         <v>10</v>
@@ -7516,7 +7526,9 @@
       <c r="E68" s="4">
         <v>1</v>
       </c>
-      <c r="F68" s="4"/>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
       <c r="G68" s="2">
         <v>5</v>
       </c>
@@ -7581,7 +7593,9 @@
         <v>8</v>
       </c>
       <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
+      <c r="X69" s="4">
+        <v>0</v>
+      </c>
       <c r="Z69" s="4"/>
       <c r="AB69" s="12"/>
       <c r="AD69" s="4"/>
@@ -7599,7 +7613,7 @@
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="4"/>
       <c r="J70" s="3"/>
@@ -7656,7 +7670,7 @@
       <c r="T71" s="3"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
@@ -7706,7 +7720,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" s="4"/>
       <c r="H73" s="4"/>
@@ -7778,11 +7792,13 @@
       <c r="H75" s="4"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="M75" s="4"/>
+      <c r="M75" s="4">
+        <v>0</v>
+      </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="Q75" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
@@ -7823,7 +7839,7 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -8316,8 +8332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G196" sqref="G196"/>
+    <sheetView topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T201" sqref="T201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -22919,7 +22935,7 @@
         <v>0</v>
       </c>
       <c r="S175" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T175" s="19">
         <v>1</v>
@@ -23026,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -23215,7 +23231,7 @@
         <v>0</v>
       </c>
       <c r="T178" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U178" s="22">
         <v>1</v>
@@ -23546,7 +23562,7 @@
         <v>21</v>
       </c>
       <c r="P182" s="22"/>
-      <c r="Q182" s="23">
+      <c r="Q182" s="22">
         <v>8</v>
       </c>
       <c r="R182" s="22">
@@ -23580,7 +23596,9 @@
       <c r="AB182" s="19">
         <v>4</v>
       </c>
-      <c r="AC182" s="23"/>
+      <c r="AC182" s="22">
+        <v>8</v>
+      </c>
       <c r="AD182" s="23"/>
       <c r="AE182" s="22"/>
       <c r="AF182" s="38"/>
@@ -23703,29 +23721,33 @@
       </c>
       <c r="P184" s="22"/>
       <c r="Q184" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R184" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S184" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T184" s="22">
         <v>2</v>
       </c>
-      <c r="U184" s="23">
-        <v>6</v>
-      </c>
-      <c r="V184" s="23">
+      <c r="U184" s="22">
+        <v>6</v>
+      </c>
+      <c r="V184" s="22">
         <v>6</v>
       </c>
       <c r="W184" s="23"/>
       <c r="X184" s="19">
         <v>2</v>
       </c>
-      <c r="Y184" s="23"/>
-      <c r="Z184" s="23"/>
+      <c r="Y184" s="22">
+        <v>6</v>
+      </c>
+      <c r="Z184" s="22">
+        <v>6</v>
+      </c>
       <c r="AA184" s="23"/>
       <c r="AB184" s="23"/>
       <c r="AC184" s="23"/>
@@ -23775,19 +23797,19 @@
         <v>2</v>
       </c>
       <c r="R185" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S185" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T185" s="22">
         <v>3</v>
       </c>
       <c r="U185" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V185" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W185" s="23"/>
       <c r="X185" s="22">
@@ -23846,16 +23868,16 @@
         <v>1</v>
       </c>
       <c r="R186" s="23">
-        <v>4</v>
-      </c>
-      <c r="S186" s="23">
+        <v>5</v>
+      </c>
+      <c r="S186" s="22">
         <v>4</v>
       </c>
       <c r="T186" s="22">
         <v>3</v>
       </c>
       <c r="U186" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V186" s="22">
         <v>0</v>
@@ -23870,7 +23892,9 @@
       <c r="Z186" s="22">
         <v>3</v>
       </c>
-      <c r="AA186" s="23"/>
+      <c r="AA186" s="22">
+        <v>4</v>
+      </c>
       <c r="AB186" s="23"/>
       <c r="AC186" s="23"/>
       <c r="AD186" s="63"/>
@@ -23916,16 +23940,16 @@
       </c>
       <c r="P187" s="22"/>
       <c r="Q187" s="23">
-        <v>3</v>
-      </c>
-      <c r="R187" s="23">
+        <v>4</v>
+      </c>
+      <c r="R187" s="22">
         <v>3</v>
       </c>
       <c r="S187" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T187" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U187" s="22">
         <v>1</v>
@@ -23940,7 +23964,9 @@
       <c r="Y187" s="22">
         <v>1</v>
       </c>
-      <c r="Z187" s="23"/>
+      <c r="Z187" s="22">
+        <v>3</v>
+      </c>
       <c r="AA187" s="23"/>
       <c r="AB187" s="23"/>
       <c r="AC187" s="23"/>
@@ -23990,19 +24016,19 @@
         <v>1</v>
       </c>
       <c r="R188" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S188" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T188" s="22">
         <v>0</v>
       </c>
-      <c r="U188" s="23">
+      <c r="U188" s="22">
         <v>2</v>
       </c>
       <c r="V188" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W188" s="23"/>
       <c r="X188" s="22">
@@ -24011,11 +24037,15 @@
       <c r="Y188" s="22">
         <v>1</v>
       </c>
-      <c r="Z188" s="23"/>
+      <c r="Z188" s="22">
+        <v>2</v>
+      </c>
       <c r="AA188" s="23"/>
       <c r="AB188" s="23"/>
       <c r="AC188" s="23"/>
-      <c r="AD188" s="63"/>
+      <c r="AD188" s="63" t="s">
+        <v>24</v>
+      </c>
       <c r="AE188" s="22"/>
       <c r="AF188" s="38"/>
     </row>
@@ -24067,13 +24097,13 @@
         <v>0</v>
       </c>
       <c r="T189" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U189" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V189" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W189" s="23"/>
       <c r="X189" s="22">
@@ -24131,22 +24161,22 @@
       </c>
       <c r="P190" s="22"/>
       <c r="Q190" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R190" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S190" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T190" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U190" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V190" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W190" s="23"/>
       <c r="X190" s="23"/>
@@ -24160,13 +24190,61 @@
       <c r="AF190" s="38"/>
     </row>
     <row r="191" spans="1:43" s="21" customFormat="1">
+      <c r="A191" s="21">
+        <v>8</v>
+      </c>
+      <c r="B191" s="21">
+        <v>3</v>
+      </c>
+      <c r="C191" s="21">
+        <v>4</v>
+      </c>
+      <c r="D191" s="21">
+        <v>6</v>
+      </c>
+      <c r="E191" s="21">
+        <v>2</v>
+      </c>
+      <c r="F191" s="21">
+        <v>6</v>
+      </c>
+      <c r="I191" s="21">
+        <v>2</v>
+      </c>
+      <c r="J191" s="21">
+        <v>3</v>
+      </c>
+      <c r="K191" s="21">
+        <v>4</v>
+      </c>
+      <c r="L191" s="21">
+        <v>6</v>
+      </c>
+      <c r="M191" s="21">
+        <v>6</v>
+      </c>
+      <c r="N191" s="21">
+        <v>8</v>
+      </c>
       <c r="P191" s="22"/>
-      <c r="Q191" s="20"/>
-      <c r="R191" s="20"/>
-      <c r="S191" s="20"/>
-      <c r="T191" s="20"/>
-      <c r="U191" s="20"/>
-      <c r="V191" s="20"/>
+      <c r="Q191" s="20">
+        <v>0</v>
+      </c>
+      <c r="R191" s="20">
+        <v>0</v>
+      </c>
+      <c r="S191" s="20">
+        <v>0</v>
+      </c>
+      <c r="T191" s="20">
+        <v>0</v>
+      </c>
+      <c r="U191" s="20">
+        <v>0</v>
+      </c>
+      <c r="V191" s="20">
+        <v>0</v>
+      </c>
       <c r="W191" s="20"/>
       <c r="X191" s="20"/>
       <c r="Y191" s="20"/>
@@ -36226,10 +36304,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO248"/>
+  <dimension ref="A1:AO249"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F198" sqref="F198"/>
+    <sheetView topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P199" sqref="P199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -40214,10 +40292,22 @@
     <row r="191" spans="1:26">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
+      <c r="C191" s="9">
+        <v>1</v>
+      </c>
+      <c r="D191" s="9">
+        <v>1</v>
+      </c>
+      <c r="E191" s="9">
+        <v>1</v>
+      </c>
       <c r="F191" s="10"/>
+      <c r="G191" s="11">
+        <v>2</v>
+      </c>
+      <c r="I191" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" spans="1:26">
       <c r="A192" s="10"/>
@@ -40304,6 +40394,7 @@
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
       <c r="F202" s="10"/>
     </row>
     <row r="203" spans="1:6">
@@ -40541,30 +40632,34 @@
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:4">
       <c r="A241" s="10"/>
       <c r="C241" s="10"/>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="D241" s="10"/>
+    </row>
+    <row r="242" spans="1:4">
       <c r="C242" s="10"/>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:4">
       <c r="C243" s="10"/>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:4">
       <c r="C244" s="10"/>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:4">
       <c r="C245" s="10"/>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:4">
       <c r="C246" s="10"/>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:4">
       <c r="C247" s="10"/>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:4">
       <c r="C248" s="10"/>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="C249" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -40577,8 +40672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45841,6 +45936,53 @@
         <v>11</v>
       </c>
     </row>
+    <row r="191" spans="1:19">
+      <c r="A191" s="1">
+        <v>0</v>
+      </c>
+      <c r="B191" s="1">
+        <v>1</v>
+      </c>
+      <c r="C191" s="1">
+        <v>5</v>
+      </c>
+      <c r="F191" s="1">
+        <v>1</v>
+      </c>
+      <c r="G191" s="1">
+        <v>1</v>
+      </c>
+      <c r="H191" s="1">
+        <v>1</v>
+      </c>
+      <c r="I191" s="1">
+        <v>0</v>
+      </c>
+      <c r="J191" s="1">
+        <v>2</v>
+      </c>
+      <c r="K191" s="1">
+        <v>1</v>
+      </c>
+      <c r="N191" s="1">
+        <v>1</v>
+      </c>
+      <c r="O191" s="1">
+        <v>1</v>
+      </c>
+      <c r="P191" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q191" s="1">
+        <v>9</v>
+      </c>
+      <c r="R191" s="1">
+        <v>9</v>
+      </c>
+      <c r="S191" s="1">
+        <v>13</v>
+      </c>
+    </row>
     <row r="195" spans="14:19" customFormat="1">
       <c r="N195" s="18"/>
       <c r="O195" s="18"/>
@@ -45866,10 +46008,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN190"/>
+  <dimension ref="A100:AN191"/>
   <sheetViews>
     <sheetView topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="L197" sqref="L197"/>
+      <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -49872,6 +50014,44 @@
         <v>3</v>
       </c>
     </row>
+    <row r="191" spans="1:19">
+      <c r="A191" s="9">
+        <v>1</v>
+      </c>
+      <c r="D191" s="9">
+        <v>1</v>
+      </c>
+      <c r="E191" s="11">
+        <v>2</v>
+      </c>
+      <c r="F191" s="9">
+        <v>1</v>
+      </c>
+      <c r="G191" s="9">
+        <v>1</v>
+      </c>
+      <c r="L191" s="16">
+        <v>0</v>
+      </c>
+      <c r="M191" s="16">
+        <v>3</v>
+      </c>
+      <c r="N191" s="16">
+        <v>4</v>
+      </c>
+      <c r="O191" s="16">
+        <v>4</v>
+      </c>
+      <c r="P191" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q191" s="16">
+        <v>6</v>
+      </c>
+      <c r="S191" s="16">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49884,7 +50064,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50108,7 +50288,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -50246,7 +50426,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -50290,7 +50470,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -50361,7 +50541,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -50387,7 +50567,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -50405,7 +50585,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -50416,7 +50596,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -50428,7 +50608,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K12" s="18">
         <v>5</v>
@@ -50440,12 +50620,12 @@
         <v>17</v>
       </c>
       <c r="P12" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="C13" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="19">
         <v>13</v>
@@ -50470,14 +50650,17 @@
       <c r="F14" s="19">
         <v>29</v>
       </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
       <c r="I14" s="18">
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L14" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -50488,7 +50671,7 @@
         <v>51</v>
       </c>
       <c r="I15" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -50504,10 +50687,10 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,10 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +425,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -442,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -585,6 +587,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -939,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO106"/>
+  <dimension ref="A1:AO109"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6267,7 +6275,7 @@
         <v>5</v>
       </c>
       <c r="P53" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q53" s="7">
         <v>6</v>
@@ -6749,7 +6757,7 @@
         <v>3</v>
       </c>
       <c r="K58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58" s="7">
         <v>0</v>
@@ -6845,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L59" s="7">
         <v>0</v>
@@ -6864,7 +6872,7 @@
         <v>2</v>
       </c>
       <c r="R59" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S59" s="7">
         <v>2</v>
@@ -6903,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="AE59" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF59" s="7">
         <v>2</v>
@@ -6920,7 +6928,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" s="7">
         <v>3</v>
@@ -7000,7 +7008,7 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" s="7">
         <v>19</v>
@@ -7047,7 +7055,7 @@
         <v>4</v>
       </c>
       <c r="T61" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U61" s="7">
         <v>0</v>
@@ -7055,7 +7063,9 @@
       <c r="V61" s="7">
         <v>6</v>
       </c>
-      <c r="W61" s="7"/>
+      <c r="W61" s="7">
+        <v>0</v>
+      </c>
       <c r="X61" s="3">
         <v>6</v>
       </c>
@@ -7195,7 +7205,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -7232,7 +7242,7 @@
         <v>12</v>
       </c>
       <c r="AA63" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB63" s="7">
         <v>1</v>
@@ -7241,7 +7251,7 @@
         <v>2</v>
       </c>
       <c r="AD63" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
@@ -7313,14 +7323,16 @@
         <v>3</v>
       </c>
       <c r="AC64" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3">
         <v>4</v>
       </c>
-      <c r="AG64" s="5"/>
+      <c r="AG64" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:33">
       <c r="B65" s="3">
@@ -7377,7 +7389,7 @@
         <v>3</v>
       </c>
       <c r="Y65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z65" s="4">
         <v>20</v>
@@ -7409,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" s="3"/>
       <c r="L66" s="4"/>
@@ -7453,7 +7465,7 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG66" s="36"/>
     </row>
@@ -7481,10 +7493,10 @@
         <v>7</v>
       </c>
       <c r="N67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
@@ -7492,11 +7504,11 @@
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T67" s="7"/>
       <c r="U67" s="39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V67" s="4">
         <v>6</v>
@@ -7506,10 +7518,10 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB67" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD67" s="4"/>
       <c r="AE67" s="3"/>
@@ -7518,7 +7530,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="B68" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68" s="3">
         <v>10</v>
@@ -7527,7 +7539,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="2">
         <v>5</v>
@@ -7636,7 +7648,9 @@
         <v>3</v>
       </c>
       <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
+      <c r="X70" s="4">
+        <v>0</v>
+      </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
       <c r="AB70" s="7"/>
@@ -7653,6 +7667,9 @@
         <v>0</v>
       </c>
       <c r="F71" s="4"/>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="3"/>
@@ -7706,7 +7723,9 @@
       <c r="S72" s="4"/>
       <c r="T72" s="3"/>
       <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
+      <c r="V72" s="4">
+        <v>0</v>
+      </c>
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
@@ -7720,7 +7739,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F73" s="4"/>
       <c r="H73" s="4"/>
@@ -7793,12 +7812,12 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="M75" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="Q75" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
@@ -7864,7 +7883,9 @@
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="3"/>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
       <c r="I78" s="4"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -7881,87 +7902,87 @@
       <c r="Z78" s="4"/>
       <c r="AG78" s="5"/>
     </row>
-    <row r="79" spans="1:33" s="42" customFormat="1"/>
-    <row r="80" spans="1:33" s="65" customFormat="1"/>
-    <row r="81" spans="1:33" s="44" customFormat="1"/>
-    <row r="82" spans="1:33">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
-      <c r="AF82" s="3"/>
-      <c r="AG82" s="5"/>
-    </row>
-    <row r="83" spans="1:33">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="3"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="4"/>
-      <c r="AG83" s="5"/>
-    </row>
-    <row r="84" spans="1:33">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="3"/>
-      <c r="H84" s="4"/>
-      <c r="K84" s="3"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="W84" s="4"/>
-      <c r="X84" s="4"/>
-      <c r="Y84" s="4"/>
-      <c r="AG84" s="5"/>
-    </row>
+    <row r="79" spans="1:33">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="3"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AG79" s="5"/>
+    </row>
+    <row r="80" spans="1:33">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="3"/>
+      <c r="H80" s="4"/>
+      <c r="K80" s="3"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="AG80" s="5"/>
+    </row>
+    <row r="81" spans="1:33">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="M81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="AG81" s="5"/>
+    </row>
+    <row r="82" spans="1:33" s="42" customFormat="1"/>
+    <row r="83" spans="1:33" s="65" customFormat="1"/>
+    <row r="84" spans="1:33" s="44" customFormat="1"/>
     <row r="85" spans="1:33">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="H85" s="4"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
+      <c r="L85" s="4"/>
       <c r="M85" s="4"/>
-      <c r="O85" s="4"/>
+      <c r="N85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="W85" s="4"/>
-      <c r="X85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+      <c r="AF85" s="3"/>
       <c r="AG85" s="5"/>
     </row>
     <row r="86" spans="1:33">
@@ -7969,16 +7990,20 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="3"/>
-      <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
       <c r="S86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
       <c r="AG86" s="5"/>
     </row>
     <row r="87" spans="1:33">
@@ -7986,21 +8011,14 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="3"/>
+      <c r="H87" s="4"/>
       <c r="K87" s="3"/>
-      <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
-      <c r="T87" s="3"/>
-      <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="4"/>
       <c r="Y87" s="4"/>
@@ -8010,23 +8028,17 @@
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="N88" s="4"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="M88" s="4"/>
+      <c r="O88" s="4"/>
       <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="3"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="4"/>
-      <c r="Y88" s="4"/>
-      <c r="Z88" s="4"/>
       <c r="AG88" s="5"/>
     </row>
     <row r="89" spans="1:33">
@@ -8034,23 +8046,16 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
+      <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="R89" s="4"/>
+      <c r="Q89" s="4"/>
       <c r="S89" s="4"/>
-      <c r="T89" s="3"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
-      <c r="Z89" s="4"/>
+      <c r="Y89" s="4"/>
       <c r="AG89" s="5"/>
     </row>
     <row r="90" spans="1:33">
@@ -8058,17 +8063,24 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="3"/>
-      <c r="H90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
       <c r="I90" s="4"/>
+      <c r="J90" s="3"/>
       <c r="K90" s="3"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
-      <c r="U90" s="4"/>
+      <c r="T90" s="3"/>
+      <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
-      <c r="Z90" s="4"/>
+      <c r="Y90" s="4"/>
       <c r="AG90" s="5"/>
     </row>
     <row r="91" spans="1:33">
@@ -8079,31 +8091,37 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="H91" s="4"/>
-      <c r="K91" s="3"/>
+      <c r="I91" s="4"/>
       <c r="L91" s="4"/>
       <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
       <c r="T91" s="3"/>
+      <c r="U91" s="4"/>
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
       <c r="AG91" s="5"/>
     </row>
     <row r="92" spans="1:33">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
+      <c r="D92" s="3"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
+      <c r="K92" s="3"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
       <c r="O92" s="4"/>
-      <c r="Q92" s="4"/>
+      <c r="P92" s="4"/>
       <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
       <c r="T92" s="3"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
@@ -8117,19 +8135,16 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
+      <c r="K93" s="3"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
-      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
       <c r="S93" s="4"/>
-      <c r="T93" s="3"/>
       <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
       <c r="Z93" s="4"/>
       <c r="AG93" s="5"/>
     </row>
@@ -8140,79 +8155,82 @@
       <c r="D94" s="3"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="I94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="K94" s="3"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
-      <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
       <c r="T94" s="3"/>
-      <c r="U94" s="4"/>
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
-      <c r="Z94" s="4"/>
-      <c r="AC94" s="5"/>
       <c r="AG94" s="5"/>
     </row>
     <row r="95" spans="1:33">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="3"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
       <c r="L95" s="4"/>
-      <c r="N95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
       <c r="T95" s="3"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
       <c r="Z95" s="4"/>
-      <c r="AC95" s="5"/>
       <c r="AG95" s="5"/>
     </row>
     <row r="96" spans="1:33">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
+      <c r="D96" s="3"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
       <c r="T96" s="3"/>
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
-      <c r="W96" s="4"/>
-      <c r="X96" s="4"/>
       <c r="Z96" s="4"/>
-      <c r="AB96" s="5"/>
-      <c r="AC96" s="5"/>
       <c r="AG96" s="5"/>
     </row>
     <row r="97" spans="1:33">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="H97" s="4"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="L97" s="4"/>
       <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="3"/>
       <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
       <c r="Z97" s="4"/>
-      <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
       <c r="AG97" s="5"/>
     </row>
@@ -8220,18 +8238,21 @@
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
+      <c r="D98" s="3"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
+      <c r="H98" s="4"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="Q98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
       <c r="T98" s="3"/>
+      <c r="U98" s="4"/>
       <c r="V98" s="4"/>
-      <c r="AB98" s="5"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Z98" s="4"/>
       <c r="AC98" s="5"/>
-      <c r="AF98" s="5"/>
       <c r="AG98" s="5"/>
     </row>
     <row r="99" spans="1:33">
@@ -8241,16 +8262,20 @@
       <c r="D99" s="5"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
+      <c r="H99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
+      <c r="O99" s="4"/>
       <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
       <c r="T99" s="3"/>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
       <c r="Z99" s="4"/>
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
-      <c r="AF99" s="5"/>
       <c r="AG99" s="5"/>
     </row>
     <row r="100" spans="1:33">
@@ -8258,18 +8283,14 @@
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="L100" s="4"/>
+      <c r="H100" s="4"/>
       <c r="M100" s="4"/>
+      <c r="O100" s="4"/>
       <c r="Q100" s="4"/>
-      <c r="T100" s="3"/>
       <c r="U100" s="4"/>
-      <c r="V100" s="4"/>
       <c r="Z100" s="4"/>
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
-      <c r="AF100" s="5"/>
       <c r="AG100" s="5"/>
     </row>
     <row r="101" spans="1:33">
@@ -8277,10 +8298,14 @@
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="L101" s="4"/>
       <c r="M101" s="4"/>
+      <c r="O101" s="4"/>
       <c r="Q101" s="4"/>
-      <c r="U101" s="4"/>
-      <c r="Z101" s="4"/>
+      <c r="T101" s="3"/>
+      <c r="V101" s="4"/>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
       <c r="AF101" s="5"/>
@@ -8291,35 +8316,87 @@
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="Z102" s="4"/>
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
       <c r="AF102" s="5"/>
       <c r="AG102" s="5"/>
     </row>
     <row r="103" spans="1:33">
+      <c r="A103" s="5"/>
       <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="5"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="Q103" s="4"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="Z103" s="4"/>
       <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
       <c r="AF103" s="5"/>
+      <c r="AG103" s="5"/>
     </row>
     <row r="104" spans="1:33">
+      <c r="A104" s="5"/>
       <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="M104" s="4"/>
       <c r="Q104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="Z104" s="4"/>
       <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
       <c r="AF104" s="5"/>
+      <c r="AG104" s="5"/>
     </row>
     <row r="105" spans="1:33">
+      <c r="A105" s="5"/>
       <c r="B105" s="5"/>
-      <c r="M105" s="4"/>
-      <c r="Q105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
       <c r="AF105" s="5"/>
+      <c r="AG105" s="5"/>
     </row>
     <row r="106" spans="1:33">
+      <c r="B106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="M106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="AB106" s="5"/>
       <c r="AF106" s="5"/>
+    </row>
+    <row r="107" spans="1:33">
+      <c r="B107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="M107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="AB107" s="5"/>
+      <c r="AF107" s="5"/>
+    </row>
+    <row r="108" spans="1:33">
+      <c r="B108" s="5"/>
+      <c r="M108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="AF108" s="5"/>
+    </row>
+    <row r="109" spans="1:33">
+      <c r="AF109" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8332,8 +8409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT956"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T201" sqref="T201"/>
+    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -22935,7 +23012,7 @@
         <v>0</v>
       </c>
       <c r="S175" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T175" s="19">
         <v>1</v>
@@ -23042,7 +23119,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -23231,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="T178" s="23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U178" s="22">
         <v>1</v>
@@ -23721,13 +23798,13 @@
       </c>
       <c r="P184" s="22"/>
       <c r="Q184" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R184" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S184" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T184" s="22">
         <v>2</v>
@@ -23797,19 +23874,19 @@
         <v>2</v>
       </c>
       <c r="R185" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S185" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T185" s="22">
         <v>3</v>
       </c>
       <c r="U185" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V185" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W185" s="23"/>
       <c r="X185" s="22">
@@ -23868,7 +23945,7 @@
         <v>1</v>
       </c>
       <c r="R186" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S186" s="22">
         <v>4</v>
@@ -23877,7 +23954,7 @@
         <v>3</v>
       </c>
       <c r="U186" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V186" s="22">
         <v>0</v>
@@ -23940,16 +24017,16 @@
       </c>
       <c r="P187" s="22"/>
       <c r="Q187" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R187" s="22">
         <v>3</v>
       </c>
-      <c r="S187" s="23">
+      <c r="S187" s="67">
         <v>4</v>
       </c>
       <c r="T187" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U187" s="22">
         <v>1</v>
@@ -23967,7 +24044,9 @@
       <c r="Z187" s="22">
         <v>3</v>
       </c>
-      <c r="AA187" s="23"/>
+      <c r="AA187" s="19">
+        <v>4</v>
+      </c>
       <c r="AB187" s="23"/>
       <c r="AC187" s="23"/>
       <c r="AD187" s="63"/>
@@ -24016,9 +24095,9 @@
         <v>1</v>
       </c>
       <c r="R188" s="23">
-        <v>3</v>
-      </c>
-      <c r="S188" s="23">
+        <v>4</v>
+      </c>
+      <c r="S188" s="67">
         <v>3</v>
       </c>
       <c r="T188" s="22">
@@ -24028,7 +24107,7 @@
         <v>2</v>
       </c>
       <c r="V188" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W188" s="23"/>
       <c r="X188" s="22">
@@ -24040,12 +24119,12 @@
       <c r="Z188" s="22">
         <v>2</v>
       </c>
-      <c r="AA188" s="23"/>
+      <c r="AA188" s="19">
+        <v>3</v>
+      </c>
       <c r="AB188" s="23"/>
       <c r="AC188" s="23"/>
-      <c r="AD188" s="63" t="s">
-        <v>24</v>
-      </c>
+      <c r="AD188" s="63"/>
       <c r="AE188" s="22"/>
       <c r="AF188" s="38"/>
     </row>
@@ -24097,12 +24176,12 @@
         <v>0</v>
       </c>
       <c r="T189" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U189" s="23">
-        <v>2</v>
-      </c>
-      <c r="V189" s="23">
+        <v>3</v>
+      </c>
+      <c r="V189" s="67">
         <v>2</v>
       </c>
       <c r="W189" s="23"/>
@@ -24115,7 +24194,9 @@
       <c r="Z189" s="22">
         <v>0</v>
       </c>
-      <c r="AA189" s="23"/>
+      <c r="AA189" s="19">
+        <v>2</v>
+      </c>
       <c r="AB189" s="23"/>
       <c r="AC189" s="23"/>
       <c r="AD189" s="63"/>
@@ -24161,26 +24242,30 @@
       </c>
       <c r="P190" s="22"/>
       <c r="Q190" s="23">
-        <v>1</v>
-      </c>
-      <c r="R190" s="23">
+        <v>2</v>
+      </c>
+      <c r="R190" s="67">
         <v>1</v>
       </c>
       <c r="S190" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T190" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U190" s="23">
-        <v>1</v>
-      </c>
-      <c r="V190" s="23">
+        <v>2</v>
+      </c>
+      <c r="V190" s="67">
         <v>1</v>
       </c>
       <c r="W190" s="23"/>
-      <c r="X190" s="23"/>
-      <c r="Y190" s="23"/>
+      <c r="X190" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y190" s="19">
+        <v>1</v>
+      </c>
       <c r="Z190" s="23"/>
       <c r="AA190" s="23"/>
       <c r="AB190" s="23"/>
@@ -24228,25 +24313,27 @@
       </c>
       <c r="P191" s="22"/>
       <c r="Q191" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R191" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S191" s="20">
-        <v>0</v>
-      </c>
-      <c r="T191" s="20">
+        <v>1</v>
+      </c>
+      <c r="T191" s="66">
         <v>0</v>
       </c>
       <c r="U191" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V191" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W191" s="20"/>
-      <c r="X191" s="20"/>
+      <c r="X191" s="19">
+        <v>0</v>
+      </c>
       <c r="Y191" s="20"/>
       <c r="Z191" s="20"/>
       <c r="AA191" s="20"/>
@@ -24257,13 +24344,61 @@
       <c r="AF191" s="38"/>
     </row>
     <row r="192" spans="1:43" s="21" customFormat="1">
+      <c r="A192" s="21">
+        <v>3</v>
+      </c>
+      <c r="B192" s="21">
+        <v>1</v>
+      </c>
+      <c r="C192" s="21">
+        <v>1</v>
+      </c>
+      <c r="D192" s="21">
+        <v>4</v>
+      </c>
+      <c r="E192" s="21">
+        <v>0</v>
+      </c>
+      <c r="F192" s="21">
+        <v>2</v>
+      </c>
+      <c r="I192" s="21">
+        <v>0</v>
+      </c>
+      <c r="J192" s="21">
+        <v>1</v>
+      </c>
+      <c r="K192" s="21">
+        <v>1</v>
+      </c>
+      <c r="L192" s="21">
+        <v>2</v>
+      </c>
+      <c r="M192" s="21">
+        <v>3</v>
+      </c>
+      <c r="N192" s="21">
+        <v>4</v>
+      </c>
       <c r="P192" s="22"/>
-      <c r="Q192" s="23"/>
-      <c r="R192" s="23"/>
-      <c r="S192" s="23"/>
-      <c r="T192" s="23"/>
-      <c r="U192" s="23"/>
-      <c r="V192" s="23"/>
+      <c r="Q192" s="23">
+        <v>0</v>
+      </c>
+      <c r="R192" s="23">
+        <v>0</v>
+      </c>
+      <c r="S192" s="23">
+        <v>0</v>
+      </c>
+      <c r="T192" s="23">
+        <v>0</v>
+      </c>
+      <c r="U192" s="23">
+        <v>0</v>
+      </c>
+      <c r="V192" s="23">
+        <v>0</v>
+      </c>
       <c r="W192" s="23"/>
       <c r="X192" s="23"/>
       <c r="Y192" s="23"/>
@@ -36304,10 +36439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO249"/>
+  <dimension ref="A1:AO250"/>
   <sheetViews>
     <sheetView topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P199" sqref="P199"/>
+      <selection activeCell="J201" sqref="J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -40310,11 +40445,21 @@
       </c>
     </row>
     <row r="192" spans="1:26">
-      <c r="A192" s="10"/>
-      <c r="B192" s="10"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
+      <c r="A192" s="9">
+        <v>1</v>
+      </c>
+      <c r="B192" s="11">
+        <v>2</v>
+      </c>
+      <c r="C192" s="9">
+        <v>1</v>
+      </c>
+      <c r="D192" s="9">
+        <v>1</v>
+      </c>
+      <c r="E192" s="9">
+        <v>1</v>
+      </c>
       <c r="F192" s="10"/>
     </row>
     <row r="193" spans="1:6">
@@ -40402,6 +40547,7 @@
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
       <c r="F203" s="10"/>
     </row>
     <row r="204" spans="1:6">
@@ -40589,6 +40735,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="10"/>
+      <c r="B232" s="10"/>
       <c r="C232" s="10"/>
       <c r="D232" s="10"/>
     </row>
@@ -40638,7 +40785,9 @@
       <c r="D241" s="10"/>
     </row>
     <row r="242" spans="1:4">
+      <c r="A242" s="10"/>
       <c r="C242" s="10"/>
+      <c r="D242" s="10"/>
     </row>
     <row r="243" spans="1:4">
       <c r="C243" s="10"/>
@@ -40660,6 +40809,9 @@
     </row>
     <row r="249" spans="1:4">
       <c r="C249" s="10"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="C250" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -40672,8 +40824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="L201" sqref="L201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45983,6 +46135,53 @@
         <v>13</v>
       </c>
     </row>
+    <row r="192" spans="1:19">
+      <c r="A192" s="1">
+        <v>1</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2</v>
+      </c>
+      <c r="C192" s="1">
+        <v>3</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0</v>
+      </c>
+      <c r="G192" s="1">
+        <v>1</v>
+      </c>
+      <c r="H192" s="1">
+        <v>2</v>
+      </c>
+      <c r="I192" s="1">
+        <v>1</v>
+      </c>
+      <c r="J192" s="1">
+        <v>0</v>
+      </c>
+      <c r="K192" s="1">
+        <v>2</v>
+      </c>
+      <c r="N192" s="1">
+        <v>0</v>
+      </c>
+      <c r="O192" s="1">
+        <v>1</v>
+      </c>
+      <c r="P192" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q192" s="1">
+        <v>2</v>
+      </c>
+      <c r="R192" s="1">
+        <v>3</v>
+      </c>
+      <c r="S192" s="1">
+        <v>6</v>
+      </c>
+    </row>
     <row r="195" spans="14:19" customFormat="1">
       <c r="N195" s="18"/>
       <c r="O195" s="18"/>
@@ -46008,10 +46207,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN191"/>
+  <dimension ref="A100:AN192"/>
   <sheetViews>
     <sheetView topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="I200" sqref="I200"/>
+      <selection activeCell="J198" sqref="J198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50052,6 +50251,41 @@
         <v>7</v>
       </c>
     </row>
+    <row r="192" spans="1:19">
+      <c r="C192" s="9">
+        <v>1</v>
+      </c>
+      <c r="D192" s="11">
+        <v>2</v>
+      </c>
+      <c r="E192" s="11">
+        <v>2</v>
+      </c>
+      <c r="H192" s="9">
+        <v>1</v>
+      </c>
+      <c r="L192" s="16">
+        <v>2</v>
+      </c>
+      <c r="M192" s="16">
+        <v>3</v>
+      </c>
+      <c r="N192" s="16">
+        <v>3</v>
+      </c>
+      <c r="O192" s="16">
+        <v>4</v>
+      </c>
+      <c r="P192" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q192" s="16">
+        <v>7</v>
+      </c>
+      <c r="S192" s="16">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50063,8 +50297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50288,7 +50522,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -50426,7 +50660,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -50470,7 +50704,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -50541,7 +50775,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -50567,7 +50801,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -50585,7 +50819,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -50596,7 +50830,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -50608,7 +50842,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K12" s="18">
         <v>5</v>
@@ -50625,7 +50859,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="C13" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="19">
         <v>13</v>
@@ -50643,6 +50877,9 @@
         <v>11</v>
       </c>
       <c r="N13" s="18">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18">
         <v>0</v>
       </c>
     </row>
@@ -50651,16 +50888,16 @@
         <v>29</v>
       </c>
       <c r="G14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="18">
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L14" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -50671,7 +50908,7 @@
         <v>51</v>
       </c>
       <c r="I15" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -50687,10 +50924,10 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,12 +425,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -444,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,12 +581,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -949,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO109"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W81" sqref="W81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6275,7 +6263,7 @@
         <v>5</v>
       </c>
       <c r="P53" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q53" s="7">
         <v>6</v>
@@ -6853,7 +6841,10 @@
         <v>1</v>
       </c>
       <c r="J59" s="7">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0</v>
       </c>
       <c r="L59" s="7">
         <v>0</v>
@@ -6872,7 +6863,7 @@
         <v>2</v>
       </c>
       <c r="R59" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S59" s="7">
         <v>2</v>
@@ -6999,6 +6990,9 @@
       <c r="AD60" s="7">
         <v>0</v>
       </c>
+      <c r="AE60" s="7">
+        <v>0</v>
+      </c>
       <c r="AF60" s="7">
         <v>3</v>
       </c>
@@ -7008,12 +7002,14 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61" s="7">
         <v>19</v>
       </c>
-      <c r="C61" s="7"/>
+      <c r="C61" s="7">
+        <v>0</v>
+      </c>
       <c r="D61" s="7">
         <v>0</v>
       </c>
@@ -7064,7 +7060,7 @@
         <v>6</v>
       </c>
       <c r="W61" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61" s="3">
         <v>6</v>
@@ -7141,7 +7137,9 @@
       <c r="S62" s="4">
         <v>2</v>
       </c>
-      <c r="T62" s="7"/>
+      <c r="T62" s="7">
+        <v>0</v>
+      </c>
       <c r="U62" s="7">
         <v>2</v>
       </c>
@@ -7205,7 +7203,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -7242,7 +7240,7 @@
         <v>12</v>
       </c>
       <c r="AA63" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB63" s="7">
         <v>1</v>
@@ -7251,7 +7249,7 @@
         <v>2</v>
       </c>
       <c r="AD63" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
@@ -7323,7 +7321,7 @@
         <v>3</v>
       </c>
       <c r="AC64" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
@@ -7331,7 +7329,7 @@
         <v>4</v>
       </c>
       <c r="AG64" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -7389,7 +7387,7 @@
         <v>3</v>
       </c>
       <c r="Y65" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z65" s="4">
         <v>20</v>
@@ -7421,10 +7419,10 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" s="3"/>
       <c r="L66" s="4"/>
@@ -7465,7 +7463,7 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG66" s="36"/>
     </row>
@@ -7493,7 +7491,7 @@
         <v>7</v>
       </c>
       <c r="N67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" s="4">
         <v>17</v>
@@ -7508,7 +7506,7 @@
       </c>
       <c r="T67" s="7"/>
       <c r="U67" s="39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V67" s="4">
         <v>6</v>
@@ -7518,10 +7516,10 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB67" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD67" s="4"/>
       <c r="AE67" s="3"/>
@@ -7530,7 +7528,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="B68" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D68" s="3">
         <v>10</v>
@@ -7539,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" s="2">
         <v>5</v>
@@ -7552,12 +7550,16 @@
         <v>11</v>
       </c>
       <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
+      <c r="O68" s="4">
+        <v>0</v>
+      </c>
       <c r="Q68" s="39">
         <v>6</v>
       </c>
       <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
+      <c r="S68" s="4">
+        <v>0</v>
+      </c>
       <c r="T68" s="3"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4">
@@ -7649,7 +7651,7 @@
       </c>
       <c r="W70" s="4"/>
       <c r="X70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
@@ -7668,7 +7670,7 @@
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -7724,7 +7726,7 @@
       <c r="T72" s="3"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
@@ -7739,7 +7741,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F73" s="4"/>
       <c r="H73" s="4"/>
@@ -7812,12 +7814,12 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="M75" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="Q75" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
@@ -7884,7 +7886,7 @@
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="3"/>
@@ -8409,8 +8411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT956"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F198" sqref="F198"/>
+    <sheetView topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J202" sqref="J202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -23011,7 +23013,7 @@
       <c r="R175" s="19">
         <v>0</v>
       </c>
-      <c r="S175" s="20">
+      <c r="S175" s="19">
         <v>17</v>
       </c>
       <c r="T175" s="19">
@@ -23039,7 +23041,9 @@
       <c r="AB175" s="22">
         <v>7</v>
       </c>
-      <c r="AC175" s="20"/>
+      <c r="AC175" s="22">
+        <v>17</v>
+      </c>
       <c r="AD175" s="64"/>
       <c r="AE175" s="22"/>
       <c r="AF175" s="38"/>
@@ -23119,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -23307,7 +23311,7 @@
       <c r="S178" s="22">
         <v>0</v>
       </c>
-      <c r="T178" s="23">
+      <c r="T178" s="22">
         <v>14</v>
       </c>
       <c r="U178" s="22">
@@ -23332,7 +23336,9 @@
       <c r="AB178" s="22">
         <v>2</v>
       </c>
-      <c r="AC178" s="23"/>
+      <c r="AC178" s="22">
+        <v>14</v>
+      </c>
       <c r="AD178" s="64"/>
       <c r="AE178" s="22"/>
       <c r="AF178" s="38"/>
@@ -23798,12 +23804,12 @@
       </c>
       <c r="P184" s="22"/>
       <c r="Q184" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R184" s="23">
-        <v>8</v>
-      </c>
-      <c r="S184" s="23">
+        <v>9</v>
+      </c>
+      <c r="S184" s="22">
         <v>8</v>
       </c>
       <c r="T184" s="22">
@@ -23825,7 +23831,9 @@
       <c r="Z184" s="22">
         <v>6</v>
       </c>
-      <c r="AA184" s="23"/>
+      <c r="AA184" s="22">
+        <v>8</v>
+      </c>
       <c r="AB184" s="23"/>
       <c r="AC184" s="23"/>
       <c r="AD184" s="63"/>
@@ -23874,19 +23882,19 @@
         <v>2</v>
       </c>
       <c r="R185" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S185" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T185" s="22">
         <v>3</v>
       </c>
       <c r="U185" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V185" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W185" s="23"/>
       <c r="X185" s="22">
@@ -23945,7 +23953,7 @@
         <v>1</v>
       </c>
       <c r="R186" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S186" s="22">
         <v>4</v>
@@ -23954,7 +23962,7 @@
         <v>3</v>
       </c>
       <c r="U186" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V186" s="22">
         <v>0</v>
@@ -24017,16 +24025,16 @@
       </c>
       <c r="P187" s="22"/>
       <c r="Q187" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R187" s="22">
         <v>3</v>
       </c>
-      <c r="S187" s="67">
+      <c r="S187" s="22">
         <v>4</v>
       </c>
       <c r="T187" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U187" s="22">
         <v>1</v>
@@ -24094,10 +24102,10 @@
       <c r="Q188" s="22">
         <v>1</v>
       </c>
-      <c r="R188" s="23">
-        <v>4</v>
-      </c>
-      <c r="S188" s="67">
+      <c r="R188" s="22">
+        <v>4</v>
+      </c>
+      <c r="S188" s="22">
         <v>3</v>
       </c>
       <c r="T188" s="22">
@@ -24106,7 +24114,7 @@
       <c r="U188" s="22">
         <v>2</v>
       </c>
-      <c r="V188" s="23">
+      <c r="V188" s="22">
         <v>4</v>
       </c>
       <c r="W188" s="23"/>
@@ -24122,8 +24130,12 @@
       <c r="AA188" s="19">
         <v>3</v>
       </c>
-      <c r="AB188" s="23"/>
-      <c r="AC188" s="23"/>
+      <c r="AB188" s="22">
+        <v>4</v>
+      </c>
+      <c r="AC188" s="22">
+        <v>4</v>
+      </c>
       <c r="AD188" s="63"/>
       <c r="AE188" s="22"/>
       <c r="AF188" s="38"/>
@@ -24176,12 +24188,12 @@
         <v>0</v>
       </c>
       <c r="T189" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U189" s="23">
-        <v>3</v>
-      </c>
-      <c r="V189" s="67">
+        <v>4</v>
+      </c>
+      <c r="V189" s="22">
         <v>2</v>
       </c>
       <c r="W189" s="23"/>
@@ -24242,21 +24254,21 @@
       </c>
       <c r="P190" s="22"/>
       <c r="Q190" s="23">
-        <v>2</v>
-      </c>
-      <c r="R190" s="67">
+        <v>3</v>
+      </c>
+      <c r="R190" s="22">
         <v>1</v>
       </c>
       <c r="S190" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T190" s="23">
-        <v>2</v>
-      </c>
-      <c r="U190" s="23">
-        <v>2</v>
-      </c>
-      <c r="V190" s="67">
+        <v>3</v>
+      </c>
+      <c r="U190" s="22">
+        <v>2</v>
+      </c>
+      <c r="V190" s="22">
         <v>1</v>
       </c>
       <c r="W190" s="23"/>
@@ -24266,7 +24278,9 @@
       <c r="Y190" s="19">
         <v>1</v>
       </c>
-      <c r="Z190" s="23"/>
+      <c r="Z190" s="22">
+        <v>2</v>
+      </c>
       <c r="AA190" s="23"/>
       <c r="AB190" s="23"/>
       <c r="AC190" s="23"/>
@@ -24313,22 +24327,22 @@
       </c>
       <c r="P191" s="22"/>
       <c r="Q191" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R191" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S191" s="20">
-        <v>1</v>
-      </c>
-      <c r="T191" s="66">
+        <v>2</v>
+      </c>
+      <c r="T191" s="19">
         <v>0</v>
       </c>
       <c r="U191" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V191" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W191" s="20"/>
       <c r="X191" s="19">
@@ -24382,22 +24396,22 @@
       </c>
       <c r="P192" s="22"/>
       <c r="Q192" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R192" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S192" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T192" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U192" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V192" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W192" s="23"/>
       <c r="X192" s="23"/>
@@ -24410,14 +24424,62 @@
       <c r="AE192" s="22"/>
       <c r="AF192" s="38"/>
     </row>
-    <row r="193" spans="16:32">
+    <row r="193" spans="1:32">
+      <c r="A193" s="1">
+        <v>4</v>
+      </c>
+      <c r="B193" s="1">
+        <v>2</v>
+      </c>
+      <c r="C193" s="1">
+        <v>17</v>
+      </c>
+      <c r="D193" s="1">
+        <v>8</v>
+      </c>
+      <c r="E193" s="1">
+        <v>14</v>
+      </c>
+      <c r="F193" s="1">
+        <v>4</v>
+      </c>
+      <c r="I193" s="1">
+        <v>2</v>
+      </c>
+      <c r="J193" s="1">
+        <v>4</v>
+      </c>
+      <c r="K193" s="1">
+        <v>4</v>
+      </c>
+      <c r="L193" s="1">
+        <v>8</v>
+      </c>
+      <c r="M193" s="1">
+        <v>14</v>
+      </c>
+      <c r="N193" s="1">
+        <v>17</v>
+      </c>
       <c r="P193" s="18"/>
-      <c r="Q193" s="23"/>
-      <c r="R193" s="23"/>
-      <c r="S193" s="23"/>
-      <c r="T193" s="23"/>
-      <c r="U193" s="23"/>
-      <c r="V193" s="23"/>
+      <c r="Q193" s="23">
+        <v>0</v>
+      </c>
+      <c r="R193" s="23">
+        <v>0</v>
+      </c>
+      <c r="S193" s="23">
+        <v>0</v>
+      </c>
+      <c r="T193" s="23">
+        <v>0</v>
+      </c>
+      <c r="U193" s="23">
+        <v>0</v>
+      </c>
+      <c r="V193" s="23">
+        <v>0</v>
+      </c>
       <c r="W193" s="23"/>
       <c r="X193" s="23"/>
       <c r="Y193" s="23"/>
@@ -24428,7 +24490,7 @@
       <c r="AE193" s="18"/>
       <c r="AF193" s="38"/>
     </row>
-    <row r="194" spans="16:32" s="21" customFormat="1">
+    <row r="194" spans="1:32" s="21" customFormat="1">
       <c r="P194" s="22"/>
       <c r="Q194" s="23"/>
       <c r="R194" s="23"/>
@@ -24447,14 +24509,14 @@
       <c r="AE194" s="22"/>
       <c r="AF194" s="38"/>
     </row>
-    <row r="195" spans="16:32" s="21" customFormat="1">
+    <row r="195" spans="1:32" s="21" customFormat="1">
       <c r="P195" s="22"/>
       <c r="Q195" s="23"/>
       <c r="R195" s="23"/>
       <c r="S195" s="23"/>
       <c r="T195" s="23"/>
       <c r="U195" s="23"/>
-      <c r="V195" s="23"/>
+      <c r="V195" s="22"/>
       <c r="W195" s="23"/>
       <c r="X195" s="23"/>
       <c r="Y195" s="23"/>
@@ -24465,7 +24527,7 @@
       <c r="AD195" s="63"/>
       <c r="AF195" s="38"/>
     </row>
-    <row r="196" spans="16:32" s="21" customFormat="1">
+    <row r="196" spans="1:32" s="21" customFormat="1">
       <c r="P196" s="22"/>
       <c r="Q196" s="23"/>
       <c r="R196" s="23"/>
@@ -24483,7 +24545,7 @@
       <c r="AD196" s="63"/>
       <c r="AF196" s="38"/>
     </row>
-    <row r="197" spans="16:32" s="21" customFormat="1">
+    <row r="197" spans="1:32" s="21" customFormat="1">
       <c r="P197" s="22"/>
       <c r="Q197" s="20"/>
       <c r="R197" s="20"/>
@@ -24503,7 +24565,7 @@
       <c r="AD197" s="63"/>
       <c r="AF197" s="38"/>
     </row>
-    <row r="198" spans="16:32" s="21" customFormat="1">
+    <row r="198" spans="1:32" s="21" customFormat="1">
       <c r="P198" s="22"/>
       <c r="Q198" s="23"/>
       <c r="R198" s="23"/>
@@ -24521,7 +24583,7 @@
       <c r="AD198" s="63"/>
       <c r="AF198" s="38"/>
     </row>
-    <row r="199" spans="16:32" s="21" customFormat="1">
+    <row r="199" spans="1:32" s="21" customFormat="1">
       <c r="Q199" s="23"/>
       <c r="R199" s="23"/>
       <c r="S199" s="23"/>
@@ -24538,7 +24600,7 @@
       <c r="AD199" s="63"/>
       <c r="AF199" s="38"/>
     </row>
-    <row r="200" spans="16:32" s="21" customFormat="1">
+    <row r="200" spans="1:32" s="21" customFormat="1">
       <c r="Q200" s="23"/>
       <c r="R200" s="23"/>
       <c r="S200" s="23"/>
@@ -24555,7 +24617,7 @@
       <c r="AD200" s="63"/>
       <c r="AF200" s="38"/>
     </row>
-    <row r="201" spans="16:32" s="21" customFormat="1">
+    <row r="201" spans="1:32" s="21" customFormat="1">
       <c r="Q201" s="23"/>
       <c r="R201" s="23"/>
       <c r="S201" s="23"/>
@@ -24572,7 +24634,7 @@
       <c r="AD201" s="63"/>
       <c r="AF201" s="38"/>
     </row>
-    <row r="202" spans="16:32" s="21" customFormat="1">
+    <row r="202" spans="1:32" s="21" customFormat="1">
       <c r="Q202" s="23"/>
       <c r="R202" s="23"/>
       <c r="S202" s="23"/>
@@ -24589,7 +24651,7 @@
       <c r="AD202" s="63"/>
       <c r="AF202" s="38"/>
     </row>
-    <row r="203" spans="16:32" s="21" customFormat="1">
+    <row r="203" spans="1:32" s="21" customFormat="1">
       <c r="P203" s="22"/>
       <c r="Q203" s="23"/>
       <c r="R203" s="23"/>
@@ -24607,7 +24669,7 @@
       <c r="AD203" s="63"/>
       <c r="AF203" s="38"/>
     </row>
-    <row r="204" spans="16:32" s="21" customFormat="1">
+    <row r="204" spans="1:32" s="21" customFormat="1">
       <c r="Q204" s="23"/>
       <c r="R204" s="23"/>
       <c r="S204" s="23"/>
@@ -24624,7 +24686,7 @@
       <c r="AD204" s="63"/>
       <c r="AF204" s="38"/>
     </row>
-    <row r="205" spans="16:32" s="21" customFormat="1">
+    <row r="205" spans="1:32" s="21" customFormat="1">
       <c r="Q205" s="23"/>
       <c r="R205" s="23"/>
       <c r="S205" s="23"/>
@@ -24641,7 +24703,7 @@
       <c r="AD205" s="63"/>
       <c r="AF205" s="38"/>
     </row>
-    <row r="206" spans="16:32" s="21" customFormat="1">
+    <row r="206" spans="1:32" s="21" customFormat="1">
       <c r="Q206" s="23"/>
       <c r="R206" s="23"/>
       <c r="S206" s="23"/>
@@ -24658,7 +24720,7 @@
       <c r="AD206" s="63"/>
       <c r="AF206" s="38"/>
     </row>
-    <row r="207" spans="16:32" s="21" customFormat="1">
+    <row r="207" spans="1:32" s="21" customFormat="1">
       <c r="P207" s="22"/>
       <c r="Q207" s="23"/>
       <c r="R207" s="23"/>
@@ -24676,7 +24738,7 @@
       <c r="AD207" s="63"/>
       <c r="AF207" s="38"/>
     </row>
-    <row r="208" spans="16:32" s="21" customFormat="1">
+    <row r="208" spans="1:32" s="21" customFormat="1">
       <c r="P208" s="22"/>
       <c r="Q208" s="23"/>
       <c r="R208" s="23"/>
@@ -36439,10 +36501,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO250"/>
+  <dimension ref="A1:AO251"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J201" sqref="J201"/>
+    <sheetView topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I210" sqref="I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -40462,15 +40524,28 @@
       </c>
       <c r="F192" s="10"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:18">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
-      <c r="C193" s="10"/>
+      <c r="C193" s="9">
+        <v>1</v>
+      </c>
       <c r="D193" s="10"/>
-      <c r="E193" s="10"/>
+      <c r="E193" s="11">
+        <v>2</v>
+      </c>
       <c r="F193" s="10"/>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="I193" s="9">
+        <v>1</v>
+      </c>
+      <c r="O193" s="9">
+        <v>1</v>
+      </c>
+      <c r="R193" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -40478,7 +40553,7 @@
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:18">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -40486,7 +40561,7 @@
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:18">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -40494,7 +40569,7 @@
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:18">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -40502,7 +40577,7 @@
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:18">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -40510,7 +40585,7 @@
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:18">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -40518,7 +40593,7 @@
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:18">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -40526,7 +40601,7 @@
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:18">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -40534,7 +40609,7 @@
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:18">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -40542,7 +40617,7 @@
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:18">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -40550,35 +40625,36 @@
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:18">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
       <c r="F204" s="10"/>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:18">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
       <c r="F205" s="10"/>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:18">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
       <c r="F206" s="10"/>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:18">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
       <c r="F207" s="10"/>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:18">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -40812,6 +40888,9 @@
     </row>
     <row r="250" spans="1:4">
       <c r="C250" s="10"/>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="C251" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -46182,7 +46261,54 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="14:19" customFormat="1">
+    <row r="193" spans="1:19">
+      <c r="A193" s="1">
+        <v>0</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1</v>
+      </c>
+      <c r="C193" s="1">
+        <v>5</v>
+      </c>
+      <c r="F193" s="1">
+        <v>0</v>
+      </c>
+      <c r="G193" s="1">
+        <v>1</v>
+      </c>
+      <c r="H193" s="1">
+        <v>2</v>
+      </c>
+      <c r="I193" s="1">
+        <v>1</v>
+      </c>
+      <c r="J193" s="1">
+        <v>1</v>
+      </c>
+      <c r="K193" s="1">
+        <v>1</v>
+      </c>
+      <c r="N193" s="1">
+        <v>1</v>
+      </c>
+      <c r="O193" s="1">
+        <v>4</v>
+      </c>
+      <c r="P193" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q193" s="1">
+        <v>9</v>
+      </c>
+      <c r="R193" s="1">
+        <v>10</v>
+      </c>
+      <c r="S193" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" customFormat="1">
       <c r="N195" s="18"/>
       <c r="O195" s="18"/>
       <c r="P195" s="18"/>
@@ -46190,7 +46316,7 @@
       <c r="R195" s="18"/>
       <c r="S195" s="18"/>
     </row>
-    <row r="197" spans="14:19" customFormat="1">
+    <row r="197" spans="1:19" customFormat="1">
       <c r="N197" s="18"/>
       <c r="O197" s="18"/>
       <c r="P197" s="18"/>
@@ -46207,10 +46333,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN192"/>
+  <dimension ref="A100:AN193"/>
   <sheetViews>
     <sheetView topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="J198" sqref="J198"/>
+      <selection activeCell="J193" sqref="J193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50286,6 +50412,44 @@
         <v>6</v>
       </c>
     </row>
+    <row r="193" spans="1:19">
+      <c r="A193" s="9">
+        <v>1</v>
+      </c>
+      <c r="B193" s="11">
+        <v>2</v>
+      </c>
+      <c r="D193" s="9">
+        <v>1</v>
+      </c>
+      <c r="F193" s="9">
+        <v>1</v>
+      </c>
+      <c r="J193" s="9">
+        <v>1</v>
+      </c>
+      <c r="L193" s="16">
+        <v>0</v>
+      </c>
+      <c r="M193" s="16">
+        <v>1</v>
+      </c>
+      <c r="N193" s="16">
+        <v>1</v>
+      </c>
+      <c r="O193" s="16">
+        <v>3</v>
+      </c>
+      <c r="P193" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q193" s="16">
+        <v>9</v>
+      </c>
+      <c r="S193" s="16">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50297,8 +50461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50522,7 +50686,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -50660,7 +50824,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -50704,7 +50868,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -50775,7 +50939,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -50801,7 +50965,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -50819,7 +50983,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -50830,7 +50994,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -50842,7 +51006,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K12" s="18">
         <v>5</v>
@@ -50859,7 +51023,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="C13" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="19">
         <v>13</v>
@@ -50880,7 +51044,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -50894,10 +51058,10 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L14" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -50907,8 +51071,11 @@
       <c r="F15" s="19">
         <v>51</v>
       </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
       <c r="I15" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -50924,10 +51091,10 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W81" sqref="W81"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q80" sqref="Q80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6263,7 +6263,7 @@
         <v>5</v>
       </c>
       <c r="P53" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q53" s="7">
         <v>6</v>
@@ -6841,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -6863,7 +6863,7 @@
         <v>2</v>
       </c>
       <c r="R59" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S59" s="7">
         <v>2</v>
@@ -6939,6 +6939,9 @@
       <c r="I60" s="7">
         <v>1</v>
       </c>
+      <c r="K60" s="7">
+        <v>0</v>
+      </c>
       <c r="L60" s="7">
         <v>3</v>
       </c>
@@ -6991,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -7002,7 +7005,7 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61" s="7">
         <v>19</v>
@@ -7060,7 +7063,7 @@
         <v>6</v>
       </c>
       <c r="W61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X61" s="3">
         <v>6</v>
@@ -7096,7 +7099,9 @@
       <c r="B62" s="7">
         <v>21</v>
       </c>
-      <c r="C62" s="7"/>
+      <c r="C62" s="7">
+        <v>0</v>
+      </c>
       <c r="D62" s="7">
         <v>4</v>
       </c>
@@ -7138,7 +7143,7 @@
         <v>2</v>
       </c>
       <c r="T62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="7">
         <v>2</v>
@@ -7240,7 +7245,7 @@
         <v>12</v>
       </c>
       <c r="AA63" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB63" s="7">
         <v>1</v>
@@ -7249,7 +7254,7 @@
         <v>2</v>
       </c>
       <c r="AD63" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
@@ -7282,7 +7287,9 @@
         <v>11</v>
       </c>
       <c r="K64" s="3"/>
-      <c r="L64" s="4"/>
+      <c r="L64" s="4">
+        <v>0</v>
+      </c>
       <c r="M64" s="4">
         <v>10</v>
       </c>
@@ -7321,7 +7328,7 @@
         <v>3</v>
       </c>
       <c r="AC64" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
@@ -7329,7 +7336,7 @@
         <v>4</v>
       </c>
       <c r="AG64" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -7387,7 +7394,7 @@
         <v>3</v>
       </c>
       <c r="Y65" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z65" s="4">
         <v>20</v>
@@ -7419,10 +7426,10 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I66" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J66" s="3"/>
       <c r="L66" s="4"/>
@@ -7463,7 +7470,7 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG66" s="36"/>
     </row>
@@ -7491,7 +7498,7 @@
         <v>7</v>
       </c>
       <c r="N67" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O67" s="4">
         <v>17</v>
@@ -7506,7 +7513,7 @@
       </c>
       <c r="T67" s="7"/>
       <c r="U67" s="39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V67" s="4">
         <v>6</v>
@@ -7516,10 +7523,10 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB67" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD67" s="4"/>
       <c r="AE67" s="3"/>
@@ -7528,7 +7535,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="B68" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" s="3">
         <v>10</v>
@@ -7558,7 +7565,7 @@
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" s="3"/>
       <c r="U68" s="4"/>
@@ -7583,7 +7590,9 @@
       <c r="E69" s="4">
         <v>2</v>
       </c>
-      <c r="F69" s="4"/>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
       <c r="G69" s="2">
         <v>0</v>
       </c>
@@ -7595,7 +7604,9 @@
         <v>1</v>
       </c>
       <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
+      <c r="O69" s="4">
+        <v>0</v>
+      </c>
       <c r="Q69" s="4">
         <v>4</v>
       </c>
@@ -7651,7 +7662,7 @@
       </c>
       <c r="W70" s="4"/>
       <c r="X70" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
@@ -7670,7 +7681,7 @@
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -7726,7 +7737,7 @@
       <c r="T72" s="3"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
@@ -7741,7 +7752,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F73" s="4"/>
       <c r="H73" s="4"/>
@@ -7814,12 +7825,12 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="M75" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="Q75" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
@@ -7908,7 +7919,9 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="3"/>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
       <c r="I79" s="4"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -23123,7 +23136,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -23803,11 +23816,11 @@
         <v>22</v>
       </c>
       <c r="P184" s="22"/>
-      <c r="Q184" s="23">
+      <c r="Q184" s="22">
         <v>9</v>
       </c>
       <c r="R184" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S184" s="22">
         <v>8</v>
@@ -23834,7 +23847,9 @@
       <c r="AA184" s="22">
         <v>8</v>
       </c>
-      <c r="AB184" s="23"/>
+      <c r="AB184" s="22">
+        <v>9</v>
+      </c>
       <c r="AC184" s="23"/>
       <c r="AD184" s="63"/>
       <c r="AE184" s="22"/>
@@ -23882,19 +23897,19 @@
         <v>2</v>
       </c>
       <c r="R185" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S185" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T185" s="22">
         <v>3</v>
       </c>
       <c r="U185" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V185" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W185" s="23"/>
       <c r="X185" s="22">
@@ -23953,7 +23968,7 @@
         <v>1</v>
       </c>
       <c r="R186" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S186" s="22">
         <v>4</v>
@@ -23962,7 +23977,7 @@
         <v>3</v>
       </c>
       <c r="U186" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V186" s="22">
         <v>0</v>
@@ -24025,7 +24040,7 @@
       </c>
       <c r="P187" s="22"/>
       <c r="Q187" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R187" s="22">
         <v>3</v>
@@ -24034,7 +24049,7 @@
         <v>4</v>
       </c>
       <c r="T187" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U187" s="22">
         <v>1</v>
@@ -24188,10 +24203,10 @@
         <v>0</v>
       </c>
       <c r="T189" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U189" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V189" s="22">
         <v>2</v>
@@ -24254,16 +24269,16 @@
       </c>
       <c r="P190" s="22"/>
       <c r="Q190" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R190" s="22">
         <v>1</v>
       </c>
       <c r="S190" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T190" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U190" s="22">
         <v>2</v>
@@ -24326,29 +24341,31 @@
         <v>8</v>
       </c>
       <c r="P191" s="22"/>
-      <c r="Q191" s="20">
+      <c r="Q191" s="22">
         <v>2</v>
       </c>
       <c r="R191" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S191" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T191" s="19">
         <v>0</v>
       </c>
       <c r="U191" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V191" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W191" s="20"/>
       <c r="X191" s="19">
         <v>0</v>
       </c>
-      <c r="Y191" s="20"/>
+      <c r="Y191" s="22">
+        <v>2</v>
+      </c>
       <c r="Z191" s="20"/>
       <c r="AA191" s="20"/>
       <c r="AB191" s="20"/>
@@ -24395,26 +24412,28 @@
         <v>4</v>
       </c>
       <c r="P192" s="22"/>
-      <c r="Q192" s="23">
+      <c r="Q192" s="22">
         <v>1</v>
       </c>
       <c r="R192" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S192" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T192" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U192" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V192" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W192" s="23"/>
-      <c r="X192" s="23"/>
+      <c r="X192" s="22">
+        <v>1</v>
+      </c>
       <c r="Y192" s="23"/>
       <c r="Z192" s="23"/>
       <c r="AA192" s="23"/>
@@ -24462,28 +24481,34 @@
         <v>17</v>
       </c>
       <c r="P193" s="18"/>
-      <c r="Q193" s="23">
-        <v>0</v>
-      </c>
-      <c r="R193" s="23">
-        <v>0</v>
-      </c>
-      <c r="S193" s="23">
+      <c r="Q193" s="22">
+        <v>0</v>
+      </c>
+      <c r="R193" s="22">
+        <v>0</v>
+      </c>
+      <c r="S193" s="22">
         <v>0</v>
       </c>
       <c r="T193" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U193" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V193" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W193" s="23"/>
-      <c r="X193" s="23"/>
-      <c r="Y193" s="23"/>
-      <c r="Z193" s="23"/>
+      <c r="X193" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y193" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z193" s="22">
+        <v>0</v>
+      </c>
       <c r="AA193" s="23"/>
       <c r="AB193" s="23"/>
       <c r="AC193" s="23"/>
@@ -24491,13 +24516,61 @@
       <c r="AF193" s="38"/>
     </row>
     <row r="194" spans="1:32" s="21" customFormat="1">
+      <c r="A194" s="21">
+        <v>0</v>
+      </c>
+      <c r="B194" s="21">
+        <v>1</v>
+      </c>
+      <c r="C194" s="21">
+        <v>2</v>
+      </c>
+      <c r="D194" s="21">
+        <v>0</v>
+      </c>
+      <c r="E194" s="21">
+        <v>9</v>
+      </c>
+      <c r="F194" s="21">
+        <v>0</v>
+      </c>
+      <c r="I194" s="21">
+        <v>0</v>
+      </c>
+      <c r="J194" s="21">
+        <v>0</v>
+      </c>
+      <c r="K194" s="21">
+        <v>0</v>
+      </c>
+      <c r="L194" s="21">
+        <v>1</v>
+      </c>
+      <c r="M194" s="21">
+        <v>2</v>
+      </c>
+      <c r="N194" s="21">
+        <v>9</v>
+      </c>
       <c r="P194" s="22"/>
-      <c r="Q194" s="23"/>
-      <c r="R194" s="23"/>
-      <c r="S194" s="23"/>
-      <c r="T194" s="23"/>
-      <c r="U194" s="23"/>
-      <c r="V194" s="23"/>
+      <c r="Q194" s="23">
+        <v>0</v>
+      </c>
+      <c r="R194" s="23">
+        <v>0</v>
+      </c>
+      <c r="S194" s="23">
+        <v>0</v>
+      </c>
+      <c r="T194" s="23">
+        <v>0</v>
+      </c>
+      <c r="U194" s="23">
+        <v>0</v>
+      </c>
+      <c r="V194" s="23">
+        <v>0</v>
+      </c>
       <c r="W194" s="23"/>
       <c r="X194" s="23"/>
       <c r="Y194" s="23"/>
@@ -36501,10 +36574,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO251"/>
+  <dimension ref="A1:AO252"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I210" sqref="I210"/>
+    <sheetView topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M204" sqref="M204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -40546,12 +40619,21 @@
       </c>
     </row>
     <row r="194" spans="1:18">
-      <c r="A194" s="10"/>
-      <c r="B194" s="10"/>
-      <c r="C194" s="10"/>
+      <c r="A194" s="11">
+        <v>3</v>
+      </c>
+      <c r="B194" s="9">
+        <v>1</v>
+      </c>
+      <c r="C194" s="9">
+        <v>1</v>
+      </c>
       <c r="D194" s="10"/>
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
+      <c r="J194" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="1:18">
       <c r="A195" s="10"/>
@@ -40817,6 +40899,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="10"/>
+      <c r="B233" s="10"/>
       <c r="C233" s="10"/>
       <c r="D233" s="10"/>
     </row>
@@ -40866,6 +40949,7 @@
       <c r="D242" s="10"/>
     </row>
     <row r="243" spans="1:4">
+      <c r="A243" s="10"/>
       <c r="C243" s="10"/>
     </row>
     <row r="244" spans="1:4">
@@ -40891,6 +40975,9 @@
     </row>
     <row r="251" spans="1:4">
       <c r="C251" s="10"/>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="C252" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -40903,8 +40990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="L201" sqref="L201"/>
+    <sheetView topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -46308,6 +46395,53 @@
         <v>17</v>
       </c>
     </row>
+    <row r="194" spans="1:19">
+      <c r="A194" s="1">
+        <v>3</v>
+      </c>
+      <c r="B194" s="1">
+        <v>2</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="F194" s="1">
+        <v>4</v>
+      </c>
+      <c r="G194" s="1">
+        <v>1</v>
+      </c>
+      <c r="H194" s="1">
+        <v>1</v>
+      </c>
+      <c r="I194" s="1">
+        <v>0</v>
+      </c>
+      <c r="J194" s="1">
+        <v>0</v>
+      </c>
+      <c r="K194" s="1">
+        <v>0</v>
+      </c>
+      <c r="N194" s="1">
+        <v>2</v>
+      </c>
+      <c r="O194" s="1">
+        <v>3</v>
+      </c>
+      <c r="P194" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q194" s="1">
+        <v>8</v>
+      </c>
+      <c r="R194" s="1">
+        <v>17</v>
+      </c>
+      <c r="S194" s="1">
+        <v>22</v>
+      </c>
+    </row>
     <row r="195" spans="1:19" customFormat="1">
       <c r="N195" s="18"/>
       <c r="O195" s="18"/>
@@ -46333,10 +46467,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN193"/>
+  <dimension ref="A100:AN194"/>
   <sheetViews>
-    <sheetView topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="J193" sqref="J193"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="J201" sqref="J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50450,6 +50584,47 @@
         <v>7</v>
       </c>
     </row>
+    <row r="194" spans="1:19">
+      <c r="B194" s="9">
+        <v>1</v>
+      </c>
+      <c r="C194" s="9">
+        <v>1</v>
+      </c>
+      <c r="D194" s="9">
+        <v>1</v>
+      </c>
+      <c r="E194" s="9">
+        <v>1</v>
+      </c>
+      <c r="F194" s="9">
+        <v>1</v>
+      </c>
+      <c r="G194" s="9">
+        <v>1</v>
+      </c>
+      <c r="L194" s="16">
+        <v>1</v>
+      </c>
+      <c r="M194" s="16">
+        <v>2</v>
+      </c>
+      <c r="N194" s="16">
+        <v>3</v>
+      </c>
+      <c r="O194" s="16">
+        <v>4</v>
+      </c>
+      <c r="P194" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q194" s="16">
+        <v>6</v>
+      </c>
+      <c r="S194" s="16">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50462,7 +50637,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50686,7 +50861,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -50824,7 +50999,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -50868,7 +51043,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -50939,7 +51114,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -50983,7 +51158,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -50994,7 +51169,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -51002,11 +51177,14 @@
       <c r="G12" s="18">
         <v>12</v>
       </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
       <c r="I12" s="18">
         <v>19</v>
       </c>
       <c r="J12" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K12" s="18">
         <v>5</v>
@@ -51023,7 +51201,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="C13" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="19">
         <v>13</v>
@@ -51044,7 +51222,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -51058,10 +51236,10 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L14" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -51072,10 +51250,10 @@
         <v>51</v>
       </c>
       <c r="G15" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -51091,10 +51269,10 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +425,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -438,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,6 +587,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -937,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO109"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q80" sqref="Q80"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6363,7 +6372,9 @@
       <c r="O54" s="7">
         <v>5</v>
       </c>
-      <c r="P54" s="7"/>
+      <c r="P54" s="7">
+        <v>0</v>
+      </c>
       <c r="Q54" s="7">
         <v>2</v>
       </c>
@@ -6841,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -6957,6 +6968,9 @@
       <c r="Q60" s="7">
         <v>4</v>
       </c>
+      <c r="R60" s="7">
+        <v>0</v>
+      </c>
       <c r="S60" s="7">
         <v>3</v>
       </c>
@@ -6994,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -7005,7 +7019,7 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B61" s="7">
         <v>19</v>
@@ -7032,7 +7046,9 @@
         <v>0</v>
       </c>
       <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
+      <c r="K61" s="7">
+        <v>0</v>
+      </c>
       <c r="L61" s="7">
         <v>12</v>
       </c>
@@ -7063,7 +7079,7 @@
         <v>6</v>
       </c>
       <c r="W61" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X61" s="3">
         <v>6</v>
@@ -7100,7 +7116,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="7">
         <v>4</v>
@@ -7143,7 +7159,7 @@
         <v>2</v>
       </c>
       <c r="T62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U62" s="7">
         <v>2</v>
@@ -7245,7 +7261,7 @@
         <v>12</v>
       </c>
       <c r="AA63" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB63" s="7">
         <v>1</v>
@@ -7254,7 +7270,7 @@
         <v>2</v>
       </c>
       <c r="AD63" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
@@ -7288,7 +7304,7 @@
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="4">
         <v>10</v>
@@ -7328,7 +7344,7 @@
         <v>3</v>
       </c>
       <c r="AC64" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
@@ -7336,7 +7352,7 @@
         <v>4</v>
       </c>
       <c r="AG64" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -7394,7 +7410,7 @@
         <v>3</v>
       </c>
       <c r="Y65" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z65" s="4">
         <v>20</v>
@@ -7426,10 +7442,10 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I66" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J66" s="3"/>
       <c r="L66" s="4"/>
@@ -7470,7 +7486,7 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG66" s="36"/>
     </row>
@@ -7498,7 +7514,7 @@
         <v>7</v>
       </c>
       <c r="N67" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O67" s="4">
         <v>17</v>
@@ -7523,10 +7539,10 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB67" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD67" s="4"/>
       <c r="AE67" s="3"/>
@@ -7535,7 +7551,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="B68" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="3">
         <v>10</v>
@@ -7565,10 +7581,12 @@
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T68" s="3"/>
-      <c r="U68" s="4"/>
+      <c r="U68" s="4">
+        <v>0</v>
+      </c>
       <c r="V68" s="4">
         <v>1</v>
       </c>
@@ -7591,7 +7609,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
@@ -7605,7 +7623,7 @@
       </c>
       <c r="N69" s="4"/>
       <c r="O69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="4">
         <v>4</v>
@@ -7662,7 +7680,7 @@
       </c>
       <c r="W70" s="4"/>
       <c r="X70" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
@@ -7720,6 +7738,9 @@
         <v>6</v>
       </c>
       <c r="F72" s="4"/>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
       <c r="I72" s="4"/>
       <c r="J72" s="3"/>
       <c r="L72" s="4"/>
@@ -7752,7 +7773,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F73" s="4"/>
       <c r="H73" s="4"/>
@@ -7771,7 +7792,9 @@
       <c r="S73" s="4"/>
       <c r="T73" s="3"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
+      <c r="V73" s="4">
+        <v>0</v>
+      </c>
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
@@ -7825,12 +7848,12 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="M75" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="Q75" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
@@ -7920,7 +7943,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="3"/>
@@ -8424,8 +8447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT956"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J202" sqref="J202"/>
+    <sheetView topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA201" sqref="AA201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -23136,7 +23159,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -23819,7 +23842,7 @@
       <c r="Q184" s="22">
         <v>9</v>
       </c>
-      <c r="R184" s="23">
+      <c r="R184" s="66">
         <v>10</v>
       </c>
       <c r="S184" s="22">
@@ -23850,7 +23873,9 @@
       <c r="AB184" s="22">
         <v>9</v>
       </c>
-      <c r="AC184" s="23"/>
+      <c r="AC184" s="22">
+        <v>10</v>
+      </c>
       <c r="AD184" s="63"/>
       <c r="AE184" s="22"/>
       <c r="AF184" s="38"/>
@@ -23897,19 +23922,19 @@
         <v>2</v>
       </c>
       <c r="R185" s="23">
+        <v>10</v>
+      </c>
+      <c r="S185" s="66">
         <v>9</v>
       </c>
-      <c r="S185" s="23">
+      <c r="T185" s="22">
+        <v>3</v>
+      </c>
+      <c r="U185" s="66">
         <v>9</v>
       </c>
-      <c r="T185" s="22">
-        <v>3</v>
-      </c>
-      <c r="U185" s="23">
-        <v>9</v>
-      </c>
       <c r="V185" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W185" s="23"/>
       <c r="X185" s="22">
@@ -23918,8 +23943,12 @@
       <c r="Y185" s="22">
         <v>3</v>
       </c>
-      <c r="Z185" s="23"/>
-      <c r="AA185" s="23"/>
+      <c r="Z185" s="22">
+        <v>9</v>
+      </c>
+      <c r="AA185" s="22">
+        <v>9</v>
+      </c>
       <c r="AB185" s="23"/>
       <c r="AC185" s="23"/>
       <c r="AD185" s="63"/>
@@ -23968,7 +23997,7 @@
         <v>1</v>
       </c>
       <c r="R186" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S186" s="22">
         <v>4</v>
@@ -23977,7 +24006,7 @@
         <v>3</v>
       </c>
       <c r="U186" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V186" s="22">
         <v>0</v>
@@ -24040,7 +24069,7 @@
       </c>
       <c r="P187" s="22"/>
       <c r="Q187" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R187" s="22">
         <v>3</v>
@@ -24049,7 +24078,7 @@
         <v>4</v>
       </c>
       <c r="T187" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U187" s="22">
         <v>1</v>
@@ -24203,10 +24232,10 @@
         <v>0</v>
       </c>
       <c r="T189" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U189" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V189" s="22">
         <v>2</v>
@@ -24269,16 +24298,16 @@
       </c>
       <c r="P190" s="22"/>
       <c r="Q190" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R190" s="22">
         <v>1</v>
       </c>
       <c r="S190" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T190" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U190" s="22">
         <v>2</v>
@@ -24345,19 +24374,19 @@
         <v>2</v>
       </c>
       <c r="R191" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S191" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T191" s="19">
         <v>0</v>
       </c>
       <c r="U191" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V191" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W191" s="20"/>
       <c r="X191" s="19">
@@ -24415,27 +24444,31 @@
       <c r="Q192" s="22">
         <v>1</v>
       </c>
-      <c r="R192" s="23">
-        <v>2</v>
-      </c>
-      <c r="S192" s="23">
+      <c r="R192" s="66">
+        <v>2</v>
+      </c>
+      <c r="S192" s="66">
         <v>2</v>
       </c>
       <c r="T192" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U192" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V192" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W192" s="23"/>
       <c r="X192" s="22">
         <v>1</v>
       </c>
-      <c r="Y192" s="23"/>
-      <c r="Z192" s="23"/>
+      <c r="Y192" s="22">
+        <v>2</v>
+      </c>
+      <c r="Z192" s="22">
+        <v>2</v>
+      </c>
       <c r="AA192" s="23"/>
       <c r="AB192" s="23"/>
       <c r="AC192" s="23"/>
@@ -24491,13 +24524,13 @@
         <v>0</v>
       </c>
       <c r="T193" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U193" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V193" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W193" s="23"/>
       <c r="X193" s="22">
@@ -24554,25 +24587,27 @@
       </c>
       <c r="P194" s="22"/>
       <c r="Q194" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R194" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S194" s="23">
-        <v>0</v>
-      </c>
-      <c r="T194" s="23">
+        <v>1</v>
+      </c>
+      <c r="T194" s="66">
         <v>0</v>
       </c>
       <c r="U194" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V194" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W194" s="23"/>
-      <c r="X194" s="23"/>
+      <c r="X194" s="22">
+        <v>0</v>
+      </c>
       <c r="Y194" s="23"/>
       <c r="Z194" s="23"/>
       <c r="AA194" s="23"/>
@@ -24583,13 +24618,61 @@
       <c r="AF194" s="38"/>
     </row>
     <row r="195" spans="1:32" s="21" customFormat="1">
+      <c r="A195" s="21">
+        <v>2</v>
+      </c>
+      <c r="B195" s="21">
+        <v>0</v>
+      </c>
+      <c r="C195" s="21">
+        <v>9</v>
+      </c>
+      <c r="D195" s="21">
+        <v>10</v>
+      </c>
+      <c r="E195" s="21">
+        <v>9</v>
+      </c>
+      <c r="F195" s="21">
+        <v>2</v>
+      </c>
+      <c r="I195" s="21">
+        <v>0</v>
+      </c>
+      <c r="J195" s="21">
+        <v>2</v>
+      </c>
+      <c r="K195" s="21">
+        <v>2</v>
+      </c>
+      <c r="L195" s="21">
+        <v>9</v>
+      </c>
+      <c r="M195" s="21">
+        <v>9</v>
+      </c>
+      <c r="N195" s="21">
+        <v>10</v>
+      </c>
       <c r="P195" s="22"/>
-      <c r="Q195" s="23"/>
-      <c r="R195" s="23"/>
-      <c r="S195" s="23"/>
-      <c r="T195" s="23"/>
-      <c r="U195" s="23"/>
-      <c r="V195" s="22"/>
+      <c r="Q195" s="23">
+        <v>0</v>
+      </c>
+      <c r="R195" s="23">
+        <v>0</v>
+      </c>
+      <c r="S195" s="23">
+        <v>0</v>
+      </c>
+      <c r="T195" s="23">
+        <v>0</v>
+      </c>
+      <c r="U195" s="23">
+        <v>0</v>
+      </c>
+      <c r="V195" s="23">
+        <v>0</v>
+      </c>
       <c r="W195" s="23"/>
       <c r="X195" s="23"/>
       <c r="Y195" s="23"/>
@@ -24620,19 +24703,19 @@
     </row>
     <row r="197" spans="1:32" s="21" customFormat="1">
       <c r="P197" s="22"/>
-      <c r="Q197" s="20"/>
-      <c r="R197" s="20"/>
-      <c r="S197" s="20"/>
-      <c r="T197" s="20"/>
-      <c r="U197" s="20"/>
-      <c r="V197" s="20"/>
-      <c r="W197" s="20"/>
-      <c r="X197" s="20"/>
-      <c r="Y197" s="20"/>
-      <c r="Z197" s="20"/>
-      <c r="AA197" s="20"/>
-      <c r="AB197" s="20"/>
-      <c r="AC197" s="20" t="s">
+      <c r="Q197" s="23"/>
+      <c r="R197" s="23"/>
+      <c r="S197" s="23"/>
+      <c r="T197" s="23"/>
+      <c r="U197" s="23"/>
+      <c r="V197" s="23"/>
+      <c r="W197" s="23"/>
+      <c r="X197" s="23"/>
+      <c r="Y197" s="23"/>
+      <c r="Z197" s="23"/>
+      <c r="AA197" s="23"/>
+      <c r="AB197" s="23"/>
+      <c r="AC197" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AD197" s="63"/>
@@ -36574,10 +36657,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO252"/>
+  <dimension ref="A1:AO253"/>
   <sheetViews>
     <sheetView topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M204" sqref="M204"/>
+      <selection activeCell="L202" sqref="L202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -40636,12 +40719,22 @@
       </c>
     </row>
     <row r="195" spans="1:18">
-      <c r="A195" s="10"/>
+      <c r="A195" s="9">
+        <v>1</v>
+      </c>
       <c r="B195" s="10"/>
-      <c r="C195" s="10"/>
+      <c r="C195" s="11">
+        <v>2</v>
+      </c>
       <c r="D195" s="10"/>
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
+      <c r="J195" s="11">
+        <v>2</v>
+      </c>
+      <c r="K195" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="196" spans="1:18">
       <c r="A196" s="10"/>
@@ -40953,6 +41046,7 @@
       <c r="C243" s="10"/>
     </row>
     <row r="244" spans="1:4">
+      <c r="A244" s="10"/>
       <c r="C244" s="10"/>
     </row>
     <row r="245" spans="1:4">
@@ -40978,6 +41072,9 @@
     </row>
     <row r="252" spans="1:4">
       <c r="C252" s="10"/>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="C253" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -40991,7 +41088,7 @@
   <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="E205" sqref="E205"/>
+      <selection activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -46443,12 +46540,51 @@
       </c>
     </row>
     <row r="195" spans="1:19" customFormat="1">
-      <c r="N195" s="18"/>
-      <c r="O195" s="18"/>
-      <c r="P195" s="18"/>
-      <c r="Q195" s="18"/>
-      <c r="R195" s="18"/>
-      <c r="S195" s="18"/>
+      <c r="A195" s="1">
+        <v>1</v>
+      </c>
+      <c r="B195" s="1">
+        <v>2</v>
+      </c>
+      <c r="C195" s="1">
+        <v>3</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0</v>
+      </c>
+      <c r="G195" s="1">
+        <v>2</v>
+      </c>
+      <c r="H195" s="1">
+        <v>2</v>
+      </c>
+      <c r="I195" s="1">
+        <v>1</v>
+      </c>
+      <c r="J195" s="1">
+        <v>1</v>
+      </c>
+      <c r="K195" s="1">
+        <v>0</v>
+      </c>
+      <c r="N195" s="18">
+        <v>0</v>
+      </c>
+      <c r="O195" s="18">
+        <v>1</v>
+      </c>
+      <c r="P195" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q195" s="18">
+        <v>1</v>
+      </c>
+      <c r="R195" s="18">
+        <v>1</v>
+      </c>
+      <c r="S195" s="18">
+        <v>11</v>
+      </c>
     </row>
     <row r="197" spans="1:19" customFormat="1">
       <c r="N197" s="18"/>
@@ -46467,10 +46603,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN194"/>
+  <dimension ref="A100:AN195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="J201" sqref="J201"/>
+    <sheetView topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="I204" sqref="I204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50625,6 +50761,44 @@
         <v>8</v>
       </c>
     </row>
+    <row r="195" spans="1:19">
+      <c r="B195" s="11">
+        <v>2</v>
+      </c>
+      <c r="C195" s="9">
+        <v>1</v>
+      </c>
+      <c r="G195" s="9">
+        <v>1</v>
+      </c>
+      <c r="H195" s="9">
+        <v>1</v>
+      </c>
+      <c r="I195" s="9">
+        <v>1</v>
+      </c>
+      <c r="L195" s="16">
+        <v>1</v>
+      </c>
+      <c r="M195" s="16">
+        <v>1</v>
+      </c>
+      <c r="N195" s="16">
+        <v>2</v>
+      </c>
+      <c r="O195" s="16">
+        <v>6</v>
+      </c>
+      <c r="P195" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q195" s="16">
+        <v>8</v>
+      </c>
+      <c r="S195" s="16">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50637,7 +50811,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50861,7 +51035,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -51043,7 +51217,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -51114,7 +51291,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -51158,7 +51335,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -51169,7 +51346,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -51178,13 +51355,13 @@
         <v>12</v>
       </c>
       <c r="H12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
       </c>
       <c r="J12" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K12" s="18">
         <v>5</v>
@@ -51201,7 +51378,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="C13" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="19">
         <v>13</v>
@@ -51222,7 +51399,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -51236,10 +51413,10 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L14" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -51250,10 +51427,10 @@
         <v>51</v>
       </c>
       <c r="G15" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -51269,10 +51446,10 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -444,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -590,6 +590,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -947,7 +950,7 @@
   <dimension ref="A1:AO109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+      <selection activeCell="AC78" sqref="AC78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6373,7 +6376,7 @@
         <v>5</v>
       </c>
       <c r="P54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="7">
         <v>2</v>
@@ -6852,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -6969,7 +6972,7 @@
         <v>4</v>
       </c>
       <c r="R60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" s="7">
         <v>3</v>
@@ -7008,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -7019,7 +7022,7 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" s="7">
         <v>19</v>
@@ -7047,7 +7050,7 @@
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="7">
         <v>12</v>
@@ -7079,7 +7082,7 @@
         <v>6</v>
       </c>
       <c r="W61" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X61" s="3">
         <v>6</v>
@@ -7116,7 +7119,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="7">
         <v>4</v>
@@ -7243,7 +7246,9 @@
       <c r="S63" s="4">
         <v>1</v>
       </c>
-      <c r="T63" s="3"/>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
       <c r="U63" s="4">
         <v>0</v>
       </c>
@@ -7261,7 +7266,7 @@
         <v>12</v>
       </c>
       <c r="AA63" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB63" s="7">
         <v>1</v>
@@ -7270,7 +7275,7 @@
         <v>2</v>
       </c>
       <c r="AD63" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
@@ -7344,7 +7349,7 @@
         <v>3</v>
       </c>
       <c r="AC64" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
@@ -7380,7 +7385,9 @@
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="4"/>
+      <c r="L65" s="4">
+        <v>0</v>
+      </c>
       <c r="M65" s="4">
         <v>0</v>
       </c>
@@ -7423,7 +7430,9 @@
       <c r="AF65" s="3">
         <v>1</v>
       </c>
-      <c r="AG65" s="5"/>
+      <c r="AG65" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:33">
       <c r="B66" s="3">
@@ -7442,10 +7451,10 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I66" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J66" s="3"/>
       <c r="L66" s="4"/>
@@ -7476,7 +7485,9 @@
       <c r="X66" s="4">
         <v>3</v>
       </c>
-      <c r="Y66" s="4"/>
+      <c r="Y66" s="4">
+        <v>0</v>
+      </c>
       <c r="Z66" s="4">
         <v>4</v>
       </c>
@@ -7486,7 +7497,7 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG66" s="36"/>
     </row>
@@ -7514,7 +7525,7 @@
         <v>7</v>
       </c>
       <c r="N67" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O67" s="4">
         <v>17</v>
@@ -7539,7 +7550,7 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB67" s="14">
         <v>8</v>
@@ -7551,7 +7562,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="B68" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" s="3">
         <v>10</v>
@@ -7581,11 +7592,11 @@
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T68" s="3"/>
       <c r="U68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68" s="4">
         <v>1</v>
@@ -7595,7 +7606,9 @@
         <v>6</v>
       </c>
       <c r="Z68" s="4"/>
-      <c r="AB68" s="12"/>
+      <c r="AB68" s="14">
+        <v>0</v>
+      </c>
       <c r="AD68" s="4"/>
       <c r="AE68" s="3"/>
       <c r="AF68" s="37"/>
@@ -7609,7 +7622,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
@@ -7666,7 +7679,9 @@
         <v>2</v>
       </c>
       <c r="N70" s="25"/>
-      <c r="O70" s="4"/>
+      <c r="O70" s="4">
+        <v>0</v>
+      </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4">
         <v>1</v>
@@ -7680,7 +7695,7 @@
       </c>
       <c r="W70" s="4"/>
       <c r="X70" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
@@ -7739,7 +7754,7 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="3"/>
@@ -7773,7 +7788,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F73" s="4"/>
       <c r="H73" s="4"/>
@@ -7793,7 +7808,7 @@
       <c r="T73" s="3"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
@@ -7848,12 +7863,12 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="M75" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="Q75" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
@@ -7943,7 +7958,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="3"/>
@@ -8448,7 +8463,7 @@
   <dimension ref="A1:AT956"/>
   <sheetViews>
     <sheetView topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA201" sqref="AA201"/>
+      <selection activeCell="R204" sqref="R204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -23159,7 +23174,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -23842,7 +23857,7 @@
       <c r="Q184" s="22">
         <v>9</v>
       </c>
-      <c r="R184" s="66">
+      <c r="R184" s="22">
         <v>10</v>
       </c>
       <c r="S184" s="22">
@@ -23922,19 +23937,19 @@
         <v>2</v>
       </c>
       <c r="R185" s="23">
-        <v>10</v>
-      </c>
-      <c r="S185" s="66">
+        <v>11</v>
+      </c>
+      <c r="S185" s="22">
         <v>9</v>
       </c>
       <c r="T185" s="22">
         <v>3</v>
       </c>
-      <c r="U185" s="66">
+      <c r="U185" s="22">
         <v>9</v>
       </c>
       <c r="V185" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W185" s="23"/>
       <c r="X185" s="22">
@@ -23997,7 +24012,7 @@
         <v>1</v>
       </c>
       <c r="R186" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S186" s="22">
         <v>4</v>
@@ -24006,7 +24021,7 @@
         <v>3</v>
       </c>
       <c r="U186" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V186" s="22">
         <v>0</v>
@@ -24069,7 +24084,7 @@
       </c>
       <c r="P187" s="22"/>
       <c r="Q187" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R187" s="22">
         <v>3</v>
@@ -24077,7 +24092,7 @@
       <c r="S187" s="22">
         <v>4</v>
       </c>
-      <c r="T187" s="23">
+      <c r="T187" s="66">
         <v>8</v>
       </c>
       <c r="U187" s="22">
@@ -24099,7 +24114,9 @@
       <c r="AA187" s="19">
         <v>4</v>
       </c>
-      <c r="AB187" s="23"/>
+      <c r="AB187" s="22">
+        <v>8</v>
+      </c>
       <c r="AC187" s="23"/>
       <c r="AD187" s="63"/>
       <c r="AE187" s="22"/>
@@ -24232,10 +24249,10 @@
         <v>0</v>
       </c>
       <c r="T189" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U189" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V189" s="22">
         <v>2</v>
@@ -24298,16 +24315,16 @@
       </c>
       <c r="P190" s="22"/>
       <c r="Q190" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R190" s="22">
         <v>1</v>
       </c>
       <c r="S190" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T190" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U190" s="22">
         <v>2</v>
@@ -24374,19 +24391,19 @@
         <v>2</v>
       </c>
       <c r="R191" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S191" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T191" s="19">
         <v>0</v>
       </c>
-      <c r="U191" s="20">
+      <c r="U191" s="67">
         <v>4</v>
       </c>
       <c r="V191" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W191" s="20"/>
       <c r="X191" s="19">
@@ -24395,7 +24412,9 @@
       <c r="Y191" s="22">
         <v>2</v>
       </c>
-      <c r="Z191" s="20"/>
+      <c r="Z191" s="22">
+        <v>4</v>
+      </c>
       <c r="AA191" s="20"/>
       <c r="AB191" s="20"/>
       <c r="AC191" s="20"/>
@@ -24444,19 +24463,19 @@
       <c r="Q192" s="22">
         <v>1</v>
       </c>
-      <c r="R192" s="66">
-        <v>2</v>
-      </c>
-      <c r="S192" s="66">
+      <c r="R192" s="22">
+        <v>2</v>
+      </c>
+      <c r="S192" s="22">
         <v>2</v>
       </c>
       <c r="T192" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U192" s="23">
-        <v>3</v>
-      </c>
-      <c r="V192" s="23">
+        <v>4</v>
+      </c>
+      <c r="V192" s="66">
         <v>3</v>
       </c>
       <c r="W192" s="23"/>
@@ -24469,7 +24488,9 @@
       <c r="Z192" s="22">
         <v>2</v>
       </c>
-      <c r="AA192" s="23"/>
+      <c r="AA192" s="22">
+        <v>3</v>
+      </c>
       <c r="AB192" s="23"/>
       <c r="AC192" s="23"/>
       <c r="AD192" s="63"/>
@@ -24524,13 +24545,13 @@
         <v>0</v>
       </c>
       <c r="T193" s="23">
-        <v>2</v>
-      </c>
-      <c r="U193" s="23">
+        <v>3</v>
+      </c>
+      <c r="U193" s="66">
         <v>2</v>
       </c>
       <c r="V193" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W193" s="23"/>
       <c r="X193" s="22">
@@ -24542,7 +24563,9 @@
       <c r="Z193" s="22">
         <v>0</v>
       </c>
-      <c r="AA193" s="23"/>
+      <c r="AA193" s="22">
+        <v>2</v>
+      </c>
       <c r="AB193" s="23"/>
       <c r="AC193" s="23"/>
       <c r="AE193" s="18"/>
@@ -24587,29 +24610,33 @@
       </c>
       <c r="P194" s="22"/>
       <c r="Q194" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R194" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S194" s="23">
-        <v>1</v>
-      </c>
-      <c r="T194" s="66">
-        <v>0</v>
-      </c>
-      <c r="U194" s="23">
-        <v>1</v>
-      </c>
-      <c r="V194" s="23">
+        <v>2</v>
+      </c>
+      <c r="T194" s="22">
+        <v>0</v>
+      </c>
+      <c r="U194" s="66">
+        <v>1</v>
+      </c>
+      <c r="V194" s="66">
         <v>1</v>
       </c>
       <c r="W194" s="23"/>
       <c r="X194" s="22">
         <v>0</v>
       </c>
-      <c r="Y194" s="23"/>
-      <c r="Z194" s="23"/>
+      <c r="Y194" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z194" s="22">
+        <v>1</v>
+      </c>
       <c r="AA194" s="23"/>
       <c r="AB194" s="23"/>
       <c r="AC194" s="23"/>
@@ -24656,22 +24683,22 @@
       </c>
       <c r="P195" s="22"/>
       <c r="Q195" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R195" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S195" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T195" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U195" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V195" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W195" s="23"/>
       <c r="X195" s="23"/>
@@ -24684,13 +24711,61 @@
       <c r="AF195" s="38"/>
     </row>
     <row r="196" spans="1:32" s="21" customFormat="1">
+      <c r="A196" s="21">
+        <v>1</v>
+      </c>
+      <c r="B196" s="21">
+        <v>1</v>
+      </c>
+      <c r="C196" s="21">
+        <v>2</v>
+      </c>
+      <c r="D196" s="21">
+        <v>4</v>
+      </c>
+      <c r="E196" s="21">
+        <v>8</v>
+      </c>
+      <c r="F196" s="21">
+        <v>3</v>
+      </c>
+      <c r="I196" s="21">
+        <v>1</v>
+      </c>
+      <c r="J196" s="21">
+        <v>1</v>
+      </c>
+      <c r="K196" s="21">
+        <v>2</v>
+      </c>
+      <c r="L196" s="21">
+        <v>3</v>
+      </c>
+      <c r="M196" s="21">
+        <v>4</v>
+      </c>
+      <c r="N196" s="21">
+        <v>8</v>
+      </c>
       <c r="P196" s="22"/>
-      <c r="Q196" s="23"/>
-      <c r="R196" s="23"/>
-      <c r="S196" s="23"/>
-      <c r="T196" s="23"/>
-      <c r="U196" s="23"/>
-      <c r="V196" s="23"/>
+      <c r="Q196" s="23">
+        <v>0</v>
+      </c>
+      <c r="R196" s="23">
+        <v>0</v>
+      </c>
+      <c r="S196" s="23">
+        <v>0</v>
+      </c>
+      <c r="T196" s="23">
+        <v>0</v>
+      </c>
+      <c r="U196" s="23">
+        <v>0</v>
+      </c>
+      <c r="V196" s="23">
+        <v>0</v>
+      </c>
       <c r="W196" s="23"/>
       <c r="X196" s="23"/>
       <c r="Y196" s="23"/>
@@ -36657,10 +36732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO253"/>
+  <dimension ref="A1:AO254"/>
   <sheetViews>
     <sheetView topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L202" sqref="L202"/>
+      <selection activeCell="K205" sqref="K205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -40738,11 +40813,22 @@
     </row>
     <row r="196" spans="1:18">
       <c r="A196" s="10"/>
-      <c r="B196" s="10"/>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
+      <c r="B196" s="11">
+        <v>2</v>
+      </c>
+      <c r="C196" s="9">
+        <v>1</v>
+      </c>
+      <c r="D196" s="9">
+        <v>1</v>
+      </c>
+      <c r="E196" s="9">
+        <v>1</v>
+      </c>
       <c r="F196" s="10"/>
+      <c r="I196" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" spans="1:18">
       <c r="A197" s="10"/>
@@ -40813,6 +40899,7 @@
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
       <c r="F205" s="10"/>
     </row>
     <row r="206" spans="1:18">
@@ -40998,6 +41085,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="10"/>
+      <c r="B234" s="10"/>
       <c r="C234" s="10"/>
       <c r="D234" s="10"/>
     </row>
@@ -41044,6 +41132,7 @@
     <row r="243" spans="1:4">
       <c r="A243" s="10"/>
       <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="10"/>
@@ -41075,6 +41164,9 @@
     </row>
     <row r="253" spans="1:4">
       <c r="C253" s="10"/>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="C254" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -41087,8 +41179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="G200" sqref="G200"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="E203" sqref="E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -46586,6 +46678,53 @@
         <v>11</v>
       </c>
     </row>
+    <row r="196" spans="1:19">
+      <c r="A196" s="1">
+        <v>0</v>
+      </c>
+      <c r="B196" s="1">
+        <v>3</v>
+      </c>
+      <c r="C196" s="1">
+        <v>3</v>
+      </c>
+      <c r="F196" s="1">
+        <v>0</v>
+      </c>
+      <c r="G196" s="1">
+        <v>0</v>
+      </c>
+      <c r="H196" s="1">
+        <v>0</v>
+      </c>
+      <c r="I196" s="1">
+        <v>1</v>
+      </c>
+      <c r="J196" s="1">
+        <v>3</v>
+      </c>
+      <c r="K196" s="1">
+        <v>2</v>
+      </c>
+      <c r="N196" s="1">
+        <v>0</v>
+      </c>
+      <c r="O196" s="1">
+        <v>2</v>
+      </c>
+      <c r="P196" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q196" s="1">
+        <v>9</v>
+      </c>
+      <c r="R196" s="1">
+        <v>14</v>
+      </c>
+      <c r="S196" s="1">
+        <v>25</v>
+      </c>
+    </row>
     <row r="197" spans="1:19" customFormat="1">
       <c r="N197" s="18"/>
       <c r="O197" s="18"/>
@@ -46603,10 +46742,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN195"/>
+  <dimension ref="A100:AN196"/>
   <sheetViews>
     <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="I204" sqref="I204"/>
+      <selection activeCell="I207" sqref="I207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50799,6 +50938,44 @@
         <v>2</v>
       </c>
     </row>
+    <row r="196" spans="1:19">
+      <c r="A196" s="9">
+        <v>1</v>
+      </c>
+      <c r="C196" s="9">
+        <v>1</v>
+      </c>
+      <c r="D196" s="9">
+        <v>1</v>
+      </c>
+      <c r="F196" s="11">
+        <v>2</v>
+      </c>
+      <c r="I196" s="9">
+        <v>1</v>
+      </c>
+      <c r="L196" s="16">
+        <v>0</v>
+      </c>
+      <c r="M196" s="16">
+        <v>2</v>
+      </c>
+      <c r="N196" s="16">
+        <v>3</v>
+      </c>
+      <c r="O196" s="16">
+        <v>5</v>
+      </c>
+      <c r="P196" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q196" s="16">
+        <v>8</v>
+      </c>
+      <c r="S196" s="16">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50808,10 +50985,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51035,7 +51212,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -51217,10 +51394,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -51291,7 +51468,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -51335,7 +51512,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -51346,7 +51523,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -51355,13 +51532,13 @@
         <v>12</v>
       </c>
       <c r="H12" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
       </c>
       <c r="J12" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K12" s="18">
         <v>5</v>
@@ -51378,7 +51555,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="C13" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="19">
         <v>13</v>
@@ -51399,7 +51576,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -51413,10 +51590,10 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L14" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -51427,10 +51604,10 @@
         <v>51</v>
       </c>
       <c r="G15" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -51446,10 +51623,15 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N17" s="18">
         <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14">
+      <c r="N18" s="18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -382,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,12 +425,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -444,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,12 +581,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -950,7 +938,7 @@
   <dimension ref="A1:AO109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC78" sqref="AC78"/>
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6357,7 +6345,7 @@
       <c r="I54" s="7">
         <v>10</v>
       </c>
-      <c r="J54" s="25">
+      <c r="J54" s="7">
         <v>0</v>
       </c>
       <c r="K54" s="7">
@@ -6376,7 +6364,7 @@
         <v>5</v>
       </c>
       <c r="P54" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q54" s="7">
         <v>2</v>
@@ -6458,7 +6446,7 @@
       <c r="I55" s="7">
         <v>13</v>
       </c>
-      <c r="J55" s="25">
+      <c r="J55" s="7">
         <v>1</v>
       </c>
       <c r="K55" s="7">
@@ -6557,7 +6545,7 @@
       <c r="I56" s="7">
         <v>1</v>
       </c>
-      <c r="J56" s="25">
+      <c r="J56" s="7">
         <v>0</v>
       </c>
       <c r="K56" s="7">
@@ -6656,7 +6644,7 @@
       <c r="I57" s="7">
         <v>3</v>
       </c>
-      <c r="J57" s="25">
+      <c r="J57" s="7">
         <v>1</v>
       </c>
       <c r="K57" s="7">
@@ -6755,7 +6743,7 @@
       <c r="I58" s="7">
         <v>7</v>
       </c>
-      <c r="J58" s="25">
+      <c r="J58" s="7">
         <v>3</v>
       </c>
       <c r="K58" s="7">
@@ -6855,7 +6843,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -6972,7 +6960,7 @@
         <v>4</v>
       </c>
       <c r="R60" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S60" s="7">
         <v>3</v>
@@ -7011,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -7022,7 +7010,7 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B61" s="7">
         <v>19</v>
@@ -7050,7 +7038,7 @@
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61" s="7">
         <v>12</v>
@@ -7082,7 +7070,7 @@
         <v>6</v>
       </c>
       <c r="W61" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X61" s="3">
         <v>6</v>
@@ -7119,7 +7107,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" s="7">
         <v>4</v>
@@ -7247,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" s="4">
         <v>0</v>
@@ -7266,7 +7254,7 @@
         <v>12</v>
       </c>
       <c r="AA63" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB63" s="7">
         <v>1</v>
@@ -7275,7 +7263,7 @@
         <v>2</v>
       </c>
       <c r="AD63" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
@@ -7349,7 +7337,7 @@
         <v>3</v>
       </c>
       <c r="AC64" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
@@ -7386,7 +7374,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="4">
         <v>0</v>
@@ -7451,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I66" s="4">
         <v>6</v>
@@ -7486,7 +7474,7 @@
         <v>3</v>
       </c>
       <c r="Y66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z66" s="4">
         <v>4</v>
@@ -7497,9 +7485,11 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3">
-        <v>7</v>
-      </c>
-      <c r="AG66" s="36"/>
+        <v>8</v>
+      </c>
+      <c r="AG66" s="39">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:33">
       <c r="B67" s="3">
@@ -7518,7 +7508,9 @@
         <v>5</v>
       </c>
       <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
       <c r="K67" s="3"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4">
@@ -7550,7 +7542,7 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB67" s="14">
         <v>8</v>
@@ -7583,7 +7575,9 @@
       <c r="M68" s="4">
         <v>11</v>
       </c>
-      <c r="N68" s="4"/>
+      <c r="N68" s="4">
+        <v>0</v>
+      </c>
       <c r="O68" s="4">
         <v>0</v>
       </c>
@@ -7592,11 +7586,11 @@
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T68" s="3"/>
       <c r="U68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V68" s="4">
         <v>1</v>
@@ -7607,7 +7601,7 @@
       </c>
       <c r="Z68" s="4"/>
       <c r="AB68" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68" s="4"/>
       <c r="AE68" s="3"/>
@@ -7615,6 +7609,9 @@
       <c r="AG68" s="5"/>
     </row>
     <row r="69" spans="1:33">
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
       <c r="D69" s="3">
         <v>3</v>
       </c>
@@ -7622,7 +7619,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
@@ -7680,7 +7677,7 @@
       </c>
       <c r="N70" s="25"/>
       <c r="O70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4">
@@ -7736,7 +7733,9 @@
         <v>1</v>
       </c>
       <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
+      <c r="X71" s="4">
+        <v>0</v>
+      </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
       <c r="AB71" s="12"/>
@@ -7754,7 +7753,7 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="3"/>
@@ -7808,7 +7807,7 @@
       <c r="T73" s="3"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
@@ -7824,7 +7823,9 @@
       <c r="D74" s="3">
         <v>4</v>
       </c>
-      <c r="E74" s="4"/>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
       <c r="F74" s="4"/>
       <c r="H74" s="4"/>
       <c r="J74" s="3"/>
@@ -7863,12 +7864,12 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="M75" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="Q75" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
@@ -7958,7 +7959,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="3"/>
@@ -8463,7 +8464,7 @@
   <dimension ref="A1:AT956"/>
   <sheetViews>
     <sheetView topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R204" sqref="R204"/>
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -23174,7 +23175,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -23937,7 +23938,7 @@
         <v>2</v>
       </c>
       <c r="R185" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S185" s="22">
         <v>9</v>
@@ -23949,7 +23950,7 @@
         <v>9</v>
       </c>
       <c r="V185" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W185" s="23"/>
       <c r="X185" s="22">
@@ -24011,7 +24012,7 @@
       <c r="Q186" s="22">
         <v>1</v>
       </c>
-      <c r="R186" s="23">
+      <c r="R186" s="22">
         <v>10</v>
       </c>
       <c r="S186" s="22">
@@ -24021,7 +24022,7 @@
         <v>3</v>
       </c>
       <c r="U186" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V186" s="22">
         <v>0</v>
@@ -24039,7 +24040,9 @@
       <c r="AA186" s="22">
         <v>4</v>
       </c>
-      <c r="AB186" s="23"/>
+      <c r="AB186" s="22">
+        <v>10</v>
+      </c>
       <c r="AC186" s="23"/>
       <c r="AD186" s="63"/>
       <c r="AE186" s="22"/>
@@ -24083,7 +24086,7 @@
         <v>25</v>
       </c>
       <c r="P187" s="22"/>
-      <c r="Q187" s="23">
+      <c r="Q187" s="22">
         <v>9</v>
       </c>
       <c r="R187" s="22">
@@ -24092,7 +24095,7 @@
       <c r="S187" s="22">
         <v>4</v>
       </c>
-      <c r="T187" s="66">
+      <c r="T187" s="22">
         <v>8</v>
       </c>
       <c r="U187" s="22">
@@ -24117,7 +24120,9 @@
       <c r="AB187" s="22">
         <v>8</v>
       </c>
-      <c r="AC187" s="23"/>
+      <c r="AC187" s="22">
+        <v>9</v>
+      </c>
       <c r="AD187" s="63"/>
       <c r="AE187" s="22"/>
       <c r="AF187" s="38"/>
@@ -24249,10 +24254,10 @@
         <v>0</v>
       </c>
       <c r="T189" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U189" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V189" s="22">
         <v>2</v>
@@ -24315,15 +24320,15 @@
       </c>
       <c r="P190" s="22"/>
       <c r="Q190" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R190" s="22">
         <v>1</v>
       </c>
       <c r="S190" s="23">
-        <v>6</v>
-      </c>
-      <c r="T190" s="23">
+        <v>7</v>
+      </c>
+      <c r="T190" s="22">
         <v>6</v>
       </c>
       <c r="U190" s="22">
@@ -24342,7 +24347,9 @@
       <c r="Z190" s="22">
         <v>2</v>
       </c>
-      <c r="AA190" s="23"/>
+      <c r="AA190" s="22">
+        <v>6</v>
+      </c>
       <c r="AB190" s="23"/>
       <c r="AC190" s="23"/>
       <c r="AD190" s="63"/>
@@ -24391,19 +24398,19 @@
         <v>2</v>
       </c>
       <c r="R191" s="20">
-        <v>5</v>
-      </c>
-      <c r="S191" s="20">
+        <v>6</v>
+      </c>
+      <c r="S191" s="19">
         <v>5</v>
       </c>
       <c r="T191" s="19">
         <v>0</v>
       </c>
-      <c r="U191" s="67">
+      <c r="U191" s="19">
         <v>4</v>
       </c>
       <c r="V191" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W191" s="20"/>
       <c r="X191" s="19">
@@ -24415,7 +24422,9 @@
       <c r="Z191" s="22">
         <v>4</v>
       </c>
-      <c r="AA191" s="20"/>
+      <c r="AA191" s="22">
+        <v>5</v>
+      </c>
       <c r="AB191" s="20"/>
       <c r="AC191" s="20"/>
       <c r="AD191" s="63"/>
@@ -24470,12 +24479,12 @@
         <v>2</v>
       </c>
       <c r="T192" s="23">
-        <v>4</v>
-      </c>
-      <c r="U192" s="23">
-        <v>4</v>
-      </c>
-      <c r="V192" s="66">
+        <v>5</v>
+      </c>
+      <c r="U192" s="22">
+        <v>4</v>
+      </c>
+      <c r="V192" s="22">
         <v>3</v>
       </c>
       <c r="W192" s="23"/>
@@ -24491,7 +24500,9 @@
       <c r="AA192" s="22">
         <v>3</v>
       </c>
-      <c r="AB192" s="23"/>
+      <c r="AB192" s="22">
+        <v>4</v>
+      </c>
       <c r="AC192" s="23"/>
       <c r="AD192" s="63"/>
       <c r="AE192" s="22"/>
@@ -24545,13 +24556,13 @@
         <v>0</v>
       </c>
       <c r="T193" s="23">
-        <v>3</v>
-      </c>
-      <c r="U193" s="66">
+        <v>4</v>
+      </c>
+      <c r="U193" s="22">
         <v>2</v>
       </c>
       <c r="V193" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W193" s="23"/>
       <c r="X193" s="22">
@@ -24610,21 +24621,21 @@
       </c>
       <c r="P194" s="22"/>
       <c r="Q194" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R194" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S194" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T194" s="22">
         <v>0</v>
       </c>
-      <c r="U194" s="66">
-        <v>1</v>
-      </c>
-      <c r="V194" s="66">
+      <c r="U194" s="22">
+        <v>1</v>
+      </c>
+      <c r="V194" s="22">
         <v>1</v>
       </c>
       <c r="W194" s="23"/>
@@ -24683,22 +24694,22 @@
       </c>
       <c r="P195" s="22"/>
       <c r="Q195" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R195" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S195" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T195" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U195" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V195" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W195" s="23"/>
       <c r="X195" s="23"/>
@@ -24749,25 +24760,27 @@
       </c>
       <c r="P196" s="22"/>
       <c r="Q196" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R196" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S196" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T196" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U196" s="23">
-        <v>0</v>
-      </c>
-      <c r="V196" s="23">
+        <v>1</v>
+      </c>
+      <c r="V196" s="22">
         <v>0</v>
       </c>
       <c r="W196" s="23"/>
-      <c r="X196" s="23"/>
+      <c r="X196" s="22">
+        <v>0</v>
+      </c>
       <c r="Y196" s="23"/>
       <c r="Z196" s="23"/>
       <c r="AA196" s="23"/>
@@ -24777,13 +24790,61 @@
       <c r="AF196" s="38"/>
     </row>
     <row r="197" spans="1:32" s="21" customFormat="1">
+      <c r="A197" s="21">
+        <v>10</v>
+      </c>
+      <c r="B197" s="21">
+        <v>9</v>
+      </c>
+      <c r="C197" s="21">
+        <v>6</v>
+      </c>
+      <c r="D197" s="21">
+        <v>5</v>
+      </c>
+      <c r="E197" s="21">
+        <v>4</v>
+      </c>
+      <c r="F197" s="21">
+        <v>0</v>
+      </c>
+      <c r="I197" s="21">
+        <v>0</v>
+      </c>
+      <c r="J197" s="21">
+        <v>4</v>
+      </c>
+      <c r="K197" s="21">
+        <v>5</v>
+      </c>
+      <c r="L197" s="21">
+        <v>6</v>
+      </c>
+      <c r="M197" s="21">
+        <v>9</v>
+      </c>
+      <c r="N197" s="21">
+        <v>10</v>
+      </c>
       <c r="P197" s="22"/>
-      <c r="Q197" s="23"/>
-      <c r="R197" s="23"/>
-      <c r="S197" s="23"/>
-      <c r="T197" s="23"/>
-      <c r="U197" s="23"/>
-      <c r="V197" s="23"/>
+      <c r="Q197" s="23">
+        <v>0</v>
+      </c>
+      <c r="R197" s="23">
+        <v>0</v>
+      </c>
+      <c r="S197" s="23">
+        <v>0</v>
+      </c>
+      <c r="T197" s="23">
+        <v>0</v>
+      </c>
+      <c r="U197" s="23">
+        <v>0</v>
+      </c>
+      <c r="V197" s="23">
+        <v>0</v>
+      </c>
       <c r="W197" s="23"/>
       <c r="X197" s="23"/>
       <c r="Y197" s="23"/>
@@ -24815,6 +24876,7 @@
       <c r="AF198" s="38"/>
     </row>
     <row r="199" spans="1:32" s="21" customFormat="1">
+      <c r="P199" s="22"/>
       <c r="Q199" s="23"/>
       <c r="R199" s="23"/>
       <c r="S199" s="23"/>
@@ -24832,6 +24894,7 @@
       <c r="AF199" s="38"/>
     </row>
     <row r="200" spans="1:32" s="21" customFormat="1">
+      <c r="P200" s="22"/>
       <c r="Q200" s="23"/>
       <c r="R200" s="23"/>
       <c r="S200" s="23"/>
@@ -36735,7 +36798,7 @@
   <dimension ref="A1:AO254"/>
   <sheetViews>
     <sheetView topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K205" sqref="K205"/>
+      <selection activeCell="R203" sqref="R203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -40831,12 +40894,27 @@
       </c>
     </row>
     <row r="197" spans="1:18">
-      <c r="A197" s="10"/>
+      <c r="A197" s="9">
+        <v>1</v>
+      </c>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
+      <c r="E197" s="9">
+        <v>1</v>
+      </c>
+      <c r="F197" s="9">
+        <v>1</v>
+      </c>
+      <c r="G197" s="9">
+        <v>1</v>
+      </c>
+      <c r="J197" s="9">
+        <v>1</v>
+      </c>
+      <c r="K197" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" spans="1:18">
       <c r="A198" s="10"/>
@@ -40907,6 +40985,7 @@
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
       <c r="F206" s="10"/>
     </row>
     <row r="207" spans="1:18">
@@ -40984,7 +41063,7 @@
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
       <c r="D217" s="10"/>
-      <c r="F217" s="18"/>
+      <c r="F217" s="10"/>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="10"/>
@@ -40998,6 +41077,7 @@
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
+      <c r="F219" s="18"/>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="10"/>
@@ -41139,6 +41219,7 @@
       <c r="C244" s="10"/>
     </row>
     <row r="245" spans="1:4">
+      <c r="A245" s="10"/>
       <c r="C245" s="10"/>
     </row>
     <row r="246" spans="1:4">
@@ -41180,7 +41261,7 @@
   <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="E203" sqref="E203"/>
+      <selection activeCell="Q206" sqref="Q206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -46726,12 +46807,51 @@
       </c>
     </row>
     <row r="197" spans="1:19" customFormat="1">
-      <c r="N197" s="18"/>
-      <c r="O197" s="18"/>
-      <c r="P197" s="18"/>
-      <c r="Q197" s="18"/>
-      <c r="R197" s="18"/>
-      <c r="S197" s="18"/>
+      <c r="A197" s="1">
+        <v>1</v>
+      </c>
+      <c r="B197" s="1">
+        <v>2</v>
+      </c>
+      <c r="C197" s="1">
+        <v>3</v>
+      </c>
+      <c r="F197" s="1">
+        <v>1</v>
+      </c>
+      <c r="G197" s="1">
+        <v>1</v>
+      </c>
+      <c r="H197" s="1">
+        <v>1</v>
+      </c>
+      <c r="I197" s="1">
+        <v>1</v>
+      </c>
+      <c r="J197" s="1">
+        <v>1</v>
+      </c>
+      <c r="K197" s="1">
+        <v>1</v>
+      </c>
+      <c r="N197" s="18">
+        <v>0</v>
+      </c>
+      <c r="O197" s="18">
+        <v>0</v>
+      </c>
+      <c r="P197" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q197" s="18">
+        <v>3</v>
+      </c>
+      <c r="R197" s="18">
+        <v>4</v>
+      </c>
+      <c r="S197" s="18">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -46742,10 +46862,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN196"/>
+  <dimension ref="A100:AN197"/>
   <sheetViews>
     <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="I207" sqref="I207"/>
+      <selection activeCell="P204" sqref="P204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50976,6 +51096,44 @@
         <v>4</v>
       </c>
     </row>
+    <row r="197" spans="1:19">
+      <c r="C197" s="9">
+        <v>1</v>
+      </c>
+      <c r="D197" s="9">
+        <v>1</v>
+      </c>
+      <c r="E197" s="11">
+        <v>2</v>
+      </c>
+      <c r="F197" s="9">
+        <v>1</v>
+      </c>
+      <c r="J197" s="9">
+        <v>1</v>
+      </c>
+      <c r="L197" s="16">
+        <v>2</v>
+      </c>
+      <c r="M197" s="16">
+        <v>3</v>
+      </c>
+      <c r="N197" s="16">
+        <v>4</v>
+      </c>
+      <c r="O197" s="16">
+        <v>4</v>
+      </c>
+      <c r="P197" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q197" s="16">
+        <v>9</v>
+      </c>
+      <c r="S197" s="16">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50988,7 +51146,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51212,7 +51370,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -51394,10 +51552,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -51468,7 +51626,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -51512,7 +51670,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -51523,7 +51681,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -51532,13 +51690,13 @@
         <v>12</v>
       </c>
       <c r="H12" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
       </c>
       <c r="J12" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" s="18">
         <v>5</v>
@@ -51555,7 +51713,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="C13" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" s="19">
         <v>13</v>
@@ -51576,7 +51734,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -51590,10 +51748,10 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L14" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
@@ -51604,7 +51762,7 @@
         <v>51</v>
       </c>
       <c r="G15" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="18">
         <v>18</v>
@@ -51617,13 +51775,16 @@
       <c r="F16" s="19">
         <v>0</v>
       </c>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
       <c r="N16" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="6:14">
       <c r="F17" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N17" s="18">
         <v>10</v>
@@ -51631,7 +51792,7 @@
     </row>
     <row r="18" spans="6:14">
       <c r="N18" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +425,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -438,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,6 +587,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -937,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6364,7 +6373,7 @@
         <v>5</v>
       </c>
       <c r="P54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q54" s="7">
         <v>2</v>
@@ -6843,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -6960,7 +6969,7 @@
         <v>4</v>
       </c>
       <c r="R60" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S60" s="7">
         <v>3</v>
@@ -6999,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -7010,7 +7019,7 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B61" s="7">
         <v>19</v>
@@ -7038,7 +7047,7 @@
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L61" s="7">
         <v>12</v>
@@ -7070,7 +7079,7 @@
         <v>6</v>
       </c>
       <c r="W61" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X61" s="3">
         <v>6</v>
@@ -7107,7 +7116,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" s="7">
         <v>4</v>
@@ -7235,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U63" s="4">
         <v>0</v>
@@ -7263,7 +7272,7 @@
         <v>2</v>
       </c>
       <c r="AD63" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
@@ -7333,11 +7342,14 @@
       <c r="Z64" s="4">
         <v>0</v>
       </c>
+      <c r="AA64" s="7">
+        <v>0</v>
+      </c>
       <c r="AB64" s="14">
         <v>3</v>
       </c>
       <c r="AC64" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
@@ -7374,7 +7386,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M65" s="4">
         <v>0</v>
@@ -7439,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I66" s="4">
         <v>6</v>
@@ -7474,7 +7486,7 @@
         <v>3</v>
       </c>
       <c r="Y66" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z66" s="4">
         <v>4</v>
@@ -7485,7 +7497,7 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG66" s="39">
         <v>0</v>
@@ -7542,7 +7554,7 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB67" s="14">
         <v>8</v>
@@ -7550,7 +7562,9 @@
       <c r="AD67" s="4"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-      <c r="AG67" s="5"/>
+      <c r="AG67" s="39">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:33">
       <c r="B68" s="3">
@@ -7569,14 +7583,16 @@
         <v>5</v>
       </c>
       <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
       <c r="K68" s="3"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4">
         <v>11</v>
       </c>
       <c r="N68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" s="4">
         <v>0</v>
@@ -7586,7 +7602,7 @@
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T68" s="3"/>
       <c r="U68" s="4">
@@ -7610,7 +7626,7 @@
     </row>
     <row r="69" spans="1:33">
       <c r="B69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="3">
         <v>3</v>
@@ -7619,7 +7635,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
@@ -7641,7 +7657,9 @@
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="3"/>
-      <c r="U69" s="4"/>
+      <c r="U69" s="4">
+        <v>0</v>
+      </c>
       <c r="V69" s="4">
         <v>8</v>
       </c>
@@ -7650,7 +7668,9 @@
         <v>0</v>
       </c>
       <c r="Z69" s="4"/>
-      <c r="AB69" s="12"/>
+      <c r="AB69" s="14">
+        <v>0</v>
+      </c>
       <c r="AD69" s="4"/>
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
@@ -7677,7 +7697,7 @@
       </c>
       <c r="N70" s="25"/>
       <c r="O70" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4">
@@ -7734,7 +7754,7 @@
       </c>
       <c r="W71" s="4"/>
       <c r="X71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
@@ -7753,7 +7773,7 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="3"/>
@@ -7807,7 +7827,7 @@
       <c r="T73" s="3"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
@@ -7824,7 +7844,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="4"/>
       <c r="H74" s="4"/>
@@ -7864,12 +7884,12 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="M75" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="Q75" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
@@ -7981,7 +8001,9 @@
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="3"/>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
       <c r="H80" s="4"/>
       <c r="K80" s="3"/>
       <c r="M80" s="4"/>
@@ -8464,7 +8486,7 @@
   <dimension ref="A1:AT956"/>
   <sheetViews>
     <sheetView topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205"/>
+      <selection activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -23175,7 +23197,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -23938,7 +23960,7 @@
         <v>2</v>
       </c>
       <c r="R185" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S185" s="22">
         <v>9</v>
@@ -23949,7 +23971,7 @@
       <c r="U185" s="22">
         <v>9</v>
       </c>
-      <c r="V185" s="23">
+      <c r="V185" s="66">
         <v>12</v>
       </c>
       <c r="W185" s="23"/>
@@ -23965,7 +23987,9 @@
       <c r="AA185" s="22">
         <v>9</v>
       </c>
-      <c r="AB185" s="23"/>
+      <c r="AB185" s="22">
+        <v>12</v>
+      </c>
       <c r="AC185" s="23"/>
       <c r="AD185" s="63"/>
       <c r="AE185" s="22"/>
@@ -24022,7 +24046,7 @@
         <v>3</v>
       </c>
       <c r="U186" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V186" s="22">
         <v>0</v>
@@ -24254,10 +24278,10 @@
         <v>0</v>
       </c>
       <c r="T189" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U189" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V189" s="22">
         <v>2</v>
@@ -24320,13 +24344,13 @@
       </c>
       <c r="P190" s="22"/>
       <c r="Q190" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R190" s="22">
         <v>1</v>
       </c>
       <c r="S190" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T190" s="22">
         <v>6</v>
@@ -24398,7 +24422,7 @@
         <v>2</v>
       </c>
       <c r="R191" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S191" s="19">
         <v>5</v>
@@ -24410,7 +24434,7 @@
         <v>4</v>
       </c>
       <c r="V191" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W191" s="20"/>
       <c r="X191" s="19">
@@ -24479,7 +24503,7 @@
         <v>2</v>
       </c>
       <c r="T192" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U192" s="22">
         <v>4</v>
@@ -24556,13 +24580,13 @@
         <v>0</v>
       </c>
       <c r="T193" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U193" s="22">
         <v>2</v>
       </c>
       <c r="V193" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W193" s="23"/>
       <c r="X193" s="22">
@@ -24621,13 +24645,13 @@
       </c>
       <c r="P194" s="22"/>
       <c r="Q194" s="23">
-        <v>3</v>
-      </c>
-      <c r="R194" s="23">
+        <v>4</v>
+      </c>
+      <c r="R194" s="66">
         <v>3</v>
       </c>
       <c r="S194" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T194" s="22">
         <v>0</v>
@@ -24648,7 +24672,9 @@
       <c r="Z194" s="22">
         <v>1</v>
       </c>
-      <c r="AA194" s="23"/>
+      <c r="AA194" s="22">
+        <v>3</v>
+      </c>
       <c r="AB194" s="23"/>
       <c r="AC194" s="23"/>
       <c r="AD194" s="63"/>
@@ -24694,25 +24720,27 @@
       </c>
       <c r="P195" s="22"/>
       <c r="Q195" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R195" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S195" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T195" s="23">
-        <v>2</v>
-      </c>
-      <c r="U195" s="23">
+        <v>3</v>
+      </c>
+      <c r="U195" s="66">
         <v>2</v>
       </c>
       <c r="V195" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W195" s="23"/>
-      <c r="X195" s="23"/>
+      <c r="X195" s="22">
+        <v>2</v>
+      </c>
       <c r="Y195" s="23"/>
       <c r="Z195" s="23"/>
       <c r="AA195" s="23"/>
@@ -24760,18 +24788,18 @@
       </c>
       <c r="P196" s="22"/>
       <c r="Q196" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R196" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S196" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T196" s="23">
-        <v>1</v>
-      </c>
-      <c r="U196" s="23">
+        <v>2</v>
+      </c>
+      <c r="U196" s="66">
         <v>1</v>
       </c>
       <c r="V196" s="22">
@@ -24781,7 +24809,9 @@
       <c r="X196" s="22">
         <v>0</v>
       </c>
-      <c r="Y196" s="23"/>
+      <c r="Y196" s="22">
+        <v>1</v>
+      </c>
       <c r="Z196" s="23"/>
       <c r="AA196" s="23"/>
       <c r="AB196" s="23"/>
@@ -24828,26 +24858,30 @@
       </c>
       <c r="P197" s="22"/>
       <c r="Q197" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R197" s="23">
-        <v>0</v>
-      </c>
-      <c r="S197" s="23">
+        <v>1</v>
+      </c>
+      <c r="S197" s="66">
         <v>0</v>
       </c>
       <c r="T197" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U197" s="23">
-        <v>0</v>
-      </c>
-      <c r="V197" s="23">
+        <v>1</v>
+      </c>
+      <c r="V197" s="66">
         <v>0</v>
       </c>
       <c r="W197" s="23"/>
-      <c r="X197" s="23"/>
-      <c r="Y197" s="23"/>
+      <c r="X197" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y197" s="22">
+        <v>0</v>
+      </c>
       <c r="Z197" s="23"/>
       <c r="AA197" s="23"/>
       <c r="AB197" s="23"/>
@@ -24858,13 +24892,61 @@
       <c r="AF197" s="38"/>
     </row>
     <row r="198" spans="1:32" s="21" customFormat="1">
+      <c r="A198" s="21">
+        <v>3</v>
+      </c>
+      <c r="B198" s="21">
+        <v>0</v>
+      </c>
+      <c r="C198" s="21">
+        <v>2</v>
+      </c>
+      <c r="D198" s="21">
+        <v>12</v>
+      </c>
+      <c r="E198" s="21">
+        <v>1</v>
+      </c>
+      <c r="F198" s="21">
+        <v>0</v>
+      </c>
+      <c r="I198" s="21">
+        <v>0</v>
+      </c>
+      <c r="J198" s="21">
+        <v>0</v>
+      </c>
+      <c r="K198" s="21">
+        <v>1</v>
+      </c>
+      <c r="L198" s="21">
+        <v>2</v>
+      </c>
+      <c r="M198" s="21">
+        <v>3</v>
+      </c>
+      <c r="N198" s="21">
+        <v>12</v>
+      </c>
       <c r="P198" s="22"/>
-      <c r="Q198" s="23"/>
-      <c r="R198" s="23"/>
-      <c r="S198" s="23"/>
-      <c r="T198" s="23"/>
-      <c r="U198" s="23"/>
-      <c r="V198" s="23"/>
+      <c r="Q198" s="23">
+        <v>0</v>
+      </c>
+      <c r="R198" s="23">
+        <v>0</v>
+      </c>
+      <c r="S198" s="23">
+        <v>0</v>
+      </c>
+      <c r="T198" s="23">
+        <v>0</v>
+      </c>
+      <c r="U198" s="23">
+        <v>0</v>
+      </c>
+      <c r="V198" s="23">
+        <v>0</v>
+      </c>
       <c r="W198" s="23"/>
       <c r="X198" s="38"/>
       <c r="Y198" s="38"/>
@@ -36795,10 +36877,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO254"/>
+  <dimension ref="A1:AO255"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R203" sqref="R203"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J208" sqref="J208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -40917,12 +40999,23 @@
       </c>
     </row>
     <row r="198" spans="1:18">
-      <c r="A198" s="10"/>
-      <c r="B198" s="10"/>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
+      <c r="A198" s="11">
+        <v>2</v>
+      </c>
+      <c r="B198" s="9">
+        <v>1</v>
+      </c>
+      <c r="C198" s="9">
+        <v>1</v>
+      </c>
+      <c r="D198" s="9">
+        <v>1</v>
+      </c>
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
+      <c r="M198" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" spans="1:18">
       <c r="A199" s="10"/>
@@ -41171,6 +41264,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="10"/>
+      <c r="B235" s="10"/>
       <c r="C235" s="10"/>
       <c r="D235" s="10"/>
     </row>
@@ -41217,12 +41311,14 @@
     <row r="244" spans="1:4">
       <c r="A244" s="10"/>
       <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="10"/>
       <c r="C245" s="10"/>
     </row>
     <row r="246" spans="1:4">
+      <c r="A246" s="10"/>
       <c r="C246" s="10"/>
     </row>
     <row r="247" spans="1:4">
@@ -41248,6 +41344,9 @@
     </row>
     <row r="254" spans="1:4">
       <c r="C254" s="10"/>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="C255" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -41258,10 +41357,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U197"/>
+  <dimension ref="A1:U198"/>
   <sheetViews>
     <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="Q206" sqref="Q206"/>
+      <selection activeCell="D206" sqref="D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -46853,6 +46952,53 @@
         <v>6</v>
       </c>
     </row>
+    <row r="198" spans="1:19">
+      <c r="A198" s="1">
+        <v>2</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1</v>
+      </c>
+      <c r="C198" s="1">
+        <v>3</v>
+      </c>
+      <c r="F198" s="1">
+        <v>0</v>
+      </c>
+      <c r="G198" s="1">
+        <v>1</v>
+      </c>
+      <c r="H198" s="1">
+        <v>1</v>
+      </c>
+      <c r="I198" s="1">
+        <v>0</v>
+      </c>
+      <c r="J198" s="1">
+        <v>2</v>
+      </c>
+      <c r="K198" s="1">
+        <v>2</v>
+      </c>
+      <c r="N198" s="1">
+        <v>0</v>
+      </c>
+      <c r="O198" s="1">
+        <v>1</v>
+      </c>
+      <c r="P198" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q198" s="1">
+        <v>6</v>
+      </c>
+      <c r="R198" s="1">
+        <v>8</v>
+      </c>
+      <c r="S198" s="1">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46862,10 +47008,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN197"/>
+  <dimension ref="A100:AN198"/>
   <sheetViews>
     <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="P204" sqref="P204"/>
+      <selection activeCell="G208" sqref="G208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51134,6 +51280,47 @@
         <v>9</v>
       </c>
     </row>
+    <row r="198" spans="1:19">
+      <c r="B198" s="9">
+        <v>1</v>
+      </c>
+      <c r="D198" s="9">
+        <v>1</v>
+      </c>
+      <c r="E198" s="9">
+        <v>1</v>
+      </c>
+      <c r="H198" s="9">
+        <v>1</v>
+      </c>
+      <c r="I198" s="9">
+        <v>1</v>
+      </c>
+      <c r="J198" s="9">
+        <v>1</v>
+      </c>
+      <c r="L198" s="16">
+        <v>1</v>
+      </c>
+      <c r="M198" s="16">
+        <v>3</v>
+      </c>
+      <c r="N198" s="16">
+        <v>4</v>
+      </c>
+      <c r="O198" s="16">
+        <v>7</v>
+      </c>
+      <c r="P198" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q198" s="16">
+        <v>9</v>
+      </c>
+      <c r="S198" s="16">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51146,7 +51333,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51370,7 +51557,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -51552,10 +51739,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -51626,7 +51813,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -51670,7 +51857,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -51681,7 +51868,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -51690,13 +51877,13 @@
         <v>12</v>
       </c>
       <c r="H12" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
       </c>
       <c r="J12" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" s="18">
         <v>5</v>
@@ -51713,7 +51900,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="C13" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="19">
         <v>13</v>
@@ -51734,7 +51921,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -51748,7 +51935,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L14" s="18">
         <v>10</v>
@@ -51762,11 +51949,14 @@
         <v>51</v>
       </c>
       <c r="G15" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" s="18">
         <v>18</v>
       </c>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
       <c r="N15" s="18">
         <v>2</v>
       </c>
@@ -51776,7 +51966,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="18">
         <v>1</v>
@@ -51784,7 +51974,7 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N17" s="18">
         <v>10</v>
@@ -51792,7 +51982,7 @@
     </row>
     <row r="18" spans="6:14">
       <c r="N18" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8485,8 +8485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT956"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E205" sqref="E205"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S203" sqref="S203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -36879,7 +36879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J208" sqref="J208"/>
     </sheetView>
   </sheetViews>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -382,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,12 +425,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -444,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,9 +581,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -947,7 +938,7 @@
   <dimension ref="A1:AO109"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M80" sqref="M80"/>
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6373,7 +6364,7 @@
         <v>5</v>
       </c>
       <c r="P54" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q54" s="7">
         <v>2</v>
@@ -6852,7 +6843,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -6969,7 +6960,7 @@
         <v>4</v>
       </c>
       <c r="R60" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S60" s="7">
         <v>3</v>
@@ -7008,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -7019,7 +7010,7 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61" s="7">
         <v>19</v>
@@ -7079,7 +7070,7 @@
         <v>6</v>
       </c>
       <c r="W61" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X61" s="3">
         <v>6</v>
@@ -7116,7 +7107,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" s="7">
         <v>4</v>
@@ -7137,7 +7128,9 @@
         <v>5</v>
       </c>
       <c r="J62" s="3"/>
-      <c r="K62" s="7"/>
+      <c r="K62" s="7">
+        <v>0</v>
+      </c>
       <c r="L62" s="7">
         <v>22</v>
       </c>
@@ -7244,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U63" s="4">
         <v>0</v>
@@ -7272,7 +7265,7 @@
         <v>2</v>
       </c>
       <c r="AD63" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
@@ -7343,13 +7336,13 @@
         <v>0</v>
       </c>
       <c r="AA64" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB64" s="14">
         <v>3</v>
       </c>
       <c r="AC64" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
@@ -7386,7 +7379,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M65" s="4">
         <v>0</v>
@@ -7451,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I66" s="4">
         <v>6</v>
@@ -7486,7 +7479,7 @@
         <v>3</v>
       </c>
       <c r="Y66" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z66" s="4">
         <v>4</v>
@@ -7497,7 +7490,7 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG66" s="39">
         <v>0</v>
@@ -7554,7 +7547,7 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB67" s="14">
         <v>8</v>
@@ -7563,7 +7556,7 @@
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -7592,7 +7585,7 @@
         <v>11</v>
       </c>
       <c r="N68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O68" s="4">
         <v>0</v>
@@ -7635,13 +7628,15 @@
         <v>2</v>
       </c>
       <c r="F69" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
       </c>
       <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
       <c r="J69" s="3"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4">
@@ -7655,10 +7650,12 @@
         <v>4</v>
       </c>
       <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
+      <c r="S69" s="4">
+        <v>0</v>
+      </c>
       <c r="T69" s="3"/>
       <c r="U69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69" s="4">
         <v>8</v>
@@ -7669,7 +7666,7 @@
       </c>
       <c r="Z69" s="4"/>
       <c r="AB69" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69" s="4"/>
       <c r="AE69" s="3"/>
@@ -7677,6 +7674,9 @@
       <c r="AG69" s="3"/>
     </row>
     <row r="70" spans="1:33">
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
       <c r="C70" s="5"/>
       <c r="D70" s="3">
         <v>1</v>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="N70" s="25"/>
       <c r="O70" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4">
@@ -7754,7 +7754,7 @@
       </c>
       <c r="W71" s="4"/>
       <c r="X71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="3"/>
@@ -7844,7 +7844,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="4"/>
       <c r="H74" s="4"/>
@@ -7864,7 +7864,9 @@
       <c r="S74" s="4"/>
       <c r="T74" s="3"/>
       <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
+      <c r="V74" s="4">
+        <v>0</v>
+      </c>
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
       <c r="Z74" s="4"/>
@@ -7884,12 +7886,12 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="M75" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="Q75" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
@@ -8021,6 +8023,9 @@
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="3"/>
@@ -8486,7 +8491,7 @@
   <dimension ref="A1:AT956"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S203" sqref="S203"/>
+      <selection activeCell="P205" sqref="P205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -23197,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -23960,7 +23965,7 @@
         <v>2</v>
       </c>
       <c r="R185" s="23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S185" s="22">
         <v>9</v>
@@ -23971,7 +23976,7 @@
       <c r="U185" s="22">
         <v>9</v>
       </c>
-      <c r="V185" s="66">
+      <c r="V185" s="22">
         <v>12</v>
       </c>
       <c r="W185" s="23"/>
@@ -24046,7 +24051,7 @@
         <v>3</v>
       </c>
       <c r="U186" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V186" s="22">
         <v>0</v>
@@ -24278,10 +24283,10 @@
         <v>0</v>
       </c>
       <c r="T189" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U189" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V189" s="22">
         <v>2</v>
@@ -24344,13 +24349,13 @@
       </c>
       <c r="P190" s="22"/>
       <c r="Q190" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R190" s="22">
         <v>1</v>
       </c>
       <c r="S190" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T190" s="22">
         <v>6</v>
@@ -24422,7 +24427,7 @@
         <v>2</v>
       </c>
       <c r="R191" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S191" s="19">
         <v>5</v>
@@ -24434,7 +24439,7 @@
         <v>4</v>
       </c>
       <c r="V191" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W191" s="20"/>
       <c r="X191" s="19">
@@ -24503,7 +24508,7 @@
         <v>2</v>
       </c>
       <c r="T192" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U192" s="22">
         <v>4</v>
@@ -24579,14 +24584,14 @@
       <c r="S193" s="22">
         <v>0</v>
       </c>
-      <c r="T193" s="23">
+      <c r="T193" s="22">
         <v>5</v>
       </c>
       <c r="U193" s="22">
         <v>2</v>
       </c>
       <c r="V193" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W193" s="23"/>
       <c r="X193" s="22">
@@ -24601,7 +24606,9 @@
       <c r="AA193" s="22">
         <v>2</v>
       </c>
-      <c r="AB193" s="23"/>
+      <c r="AB193" s="22">
+        <v>5</v>
+      </c>
       <c r="AC193" s="23"/>
       <c r="AE193" s="18"/>
       <c r="AF193" s="38"/>
@@ -24645,13 +24652,13 @@
       </c>
       <c r="P194" s="22"/>
       <c r="Q194" s="23">
-        <v>4</v>
-      </c>
-      <c r="R194" s="66">
+        <v>5</v>
+      </c>
+      <c r="R194" s="22">
         <v>3</v>
       </c>
       <c r="S194" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T194" s="22">
         <v>0</v>
@@ -24720,29 +24727,33 @@
       </c>
       <c r="P195" s="22"/>
       <c r="Q195" s="23">
-        <v>3</v>
-      </c>
-      <c r="R195" s="23">
+        <v>4</v>
+      </c>
+      <c r="R195" s="22">
         <v>3</v>
       </c>
       <c r="S195" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T195" s="23">
-        <v>3</v>
-      </c>
-      <c r="U195" s="66">
-        <v>2</v>
-      </c>
-      <c r="V195" s="23">
+        <v>4</v>
+      </c>
+      <c r="U195" s="22">
+        <v>2</v>
+      </c>
+      <c r="V195" s="22">
         <v>3</v>
       </c>
       <c r="W195" s="23"/>
       <c r="X195" s="22">
         <v>2</v>
       </c>
-      <c r="Y195" s="23"/>
-      <c r="Z195" s="23"/>
+      <c r="Y195" s="22">
+        <v>3</v>
+      </c>
+      <c r="Z195" s="22">
+        <v>3</v>
+      </c>
       <c r="AA195" s="23"/>
       <c r="AB195" s="23"/>
       <c r="AC195" s="23"/>
@@ -24788,18 +24799,18 @@
       </c>
       <c r="P196" s="22"/>
       <c r="Q196" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R196" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S196" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T196" s="23">
-        <v>2</v>
-      </c>
-      <c r="U196" s="66">
+        <v>3</v>
+      </c>
+      <c r="U196" s="22">
         <v>1</v>
       </c>
       <c r="V196" s="22">
@@ -24857,22 +24868,22 @@
         <v>10</v>
       </c>
       <c r="P197" s="22"/>
-      <c r="Q197" s="23">
+      <c r="Q197" s="22">
         <v>1</v>
       </c>
       <c r="R197" s="23">
-        <v>1</v>
-      </c>
-      <c r="S197" s="66">
+        <v>2</v>
+      </c>
+      <c r="S197" s="22">
         <v>0</v>
       </c>
       <c r="T197" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U197" s="23">
-        <v>1</v>
-      </c>
-      <c r="V197" s="66">
+        <v>2</v>
+      </c>
+      <c r="V197" s="22">
         <v>0</v>
       </c>
       <c r="W197" s="23"/>
@@ -24882,7 +24893,9 @@
       <c r="Y197" s="22">
         <v>0</v>
       </c>
-      <c r="Z197" s="23"/>
+      <c r="Z197" s="22">
+        <v>1</v>
+      </c>
       <c r="AA197" s="23"/>
       <c r="AB197" s="23"/>
       <c r="AC197" s="23" t="s">
@@ -24929,27 +24942,31 @@
         <v>12</v>
       </c>
       <c r="P198" s="22"/>
-      <c r="Q198" s="23">
-        <v>0</v>
-      </c>
-      <c r="R198" s="23">
+      <c r="Q198" s="22">
+        <v>0</v>
+      </c>
+      <c r="R198" s="22">
         <v>0</v>
       </c>
       <c r="S198" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T198" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U198" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V198" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W198" s="23"/>
-      <c r="X198" s="38"/>
-      <c r="Y198" s="38"/>
+      <c r="X198" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y198" s="21">
+        <v>0</v>
+      </c>
       <c r="Z198" s="23"/>
       <c r="AA198" s="23"/>
       <c r="AB198" s="23"/>
@@ -24958,13 +24975,61 @@
       <c r="AF198" s="38"/>
     </row>
     <row r="199" spans="1:32" s="21" customFormat="1">
+      <c r="A199" s="21">
+        <v>1</v>
+      </c>
+      <c r="B199" s="21">
+        <v>0</v>
+      </c>
+      <c r="C199" s="21">
+        <v>0</v>
+      </c>
+      <c r="D199" s="21">
+        <v>3</v>
+      </c>
+      <c r="E199" s="21">
+        <v>5</v>
+      </c>
+      <c r="F199" s="21">
+        <v>3</v>
+      </c>
+      <c r="I199" s="21">
+        <v>0</v>
+      </c>
+      <c r="J199" s="21">
+        <v>0</v>
+      </c>
+      <c r="K199" s="21">
+        <v>1</v>
+      </c>
+      <c r="L199" s="21">
+        <v>3</v>
+      </c>
+      <c r="M199" s="21">
+        <v>3</v>
+      </c>
+      <c r="N199" s="21">
+        <v>5</v>
+      </c>
       <c r="P199" s="22"/>
-      <c r="Q199" s="23"/>
-      <c r="R199" s="23"/>
-      <c r="S199" s="23"/>
-      <c r="T199" s="23"/>
-      <c r="U199" s="23"/>
-      <c r="V199" s="23"/>
+      <c r="Q199" s="23">
+        <v>0</v>
+      </c>
+      <c r="R199" s="23">
+        <v>0</v>
+      </c>
+      <c r="S199" s="23">
+        <v>0</v>
+      </c>
+      <c r="T199" s="23">
+        <v>0</v>
+      </c>
+      <c r="U199" s="23">
+        <v>0</v>
+      </c>
+      <c r="V199" s="23">
+        <v>0</v>
+      </c>
       <c r="W199" s="23"/>
       <c r="X199" s="38"/>
       <c r="Y199" s="38"/>
@@ -24994,13 +25059,14 @@
       <c r="AF200" s="38"/>
     </row>
     <row r="201" spans="1:32" s="21" customFormat="1">
+      <c r="P201" s="22"/>
       <c r="Q201" s="23"/>
       <c r="R201" s="23"/>
       <c r="S201" s="23"/>
       <c r="T201" s="23"/>
       <c r="U201" s="23"/>
       <c r="V201" s="23"/>
-      <c r="W201" s="38"/>
+      <c r="W201" s="23"/>
       <c r="X201" s="38"/>
       <c r="Y201" s="38"/>
       <c r="Z201" s="38"/>
@@ -25011,6 +25077,7 @@
       <c r="AF201" s="38"/>
     </row>
     <row r="202" spans="1:32" s="21" customFormat="1">
+      <c r="P202" s="22"/>
       <c r="Q202" s="23"/>
       <c r="R202" s="23"/>
       <c r="S202" s="23"/>
@@ -36880,7 +36947,7 @@
   <dimension ref="A1:AO255"/>
   <sheetViews>
     <sheetView topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J208" sqref="J208"/>
+      <selection activeCell="J205" sqref="J205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -41018,12 +41085,20 @@
       </c>
     </row>
     <row r="199" spans="1:18">
-      <c r="A199" s="10"/>
-      <c r="B199" s="10"/>
+      <c r="A199" s="11">
+        <v>2</v>
+      </c>
+      <c r="B199" s="9">
+        <v>1</v>
+      </c>
       <c r="C199" s="10"/>
-      <c r="D199" s="10"/>
+      <c r="D199" s="11">
+        <v>2</v>
+      </c>
       <c r="E199" s="10"/>
-      <c r="F199" s="10"/>
+      <c r="F199" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" spans="1:18">
       <c r="A200" s="10"/>
@@ -41163,7 +41238,7 @@
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
-      <c r="F218" s="18"/>
+      <c r="F218" s="10"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="10"/>
@@ -41177,6 +41252,7 @@
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
+      <c r="F220" s="18"/>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="10"/>
@@ -41270,6 +41346,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="10"/>
+      <c r="B236" s="10"/>
       <c r="C236" s="10"/>
       <c r="D236" s="10"/>
     </row>
@@ -41316,12 +41393,14 @@
     <row r="245" spans="1:4">
       <c r="A245" s="10"/>
       <c r="C245" s="10"/>
+      <c r="D245" s="10"/>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="10"/>
       <c r="C246" s="10"/>
     </row>
     <row r="247" spans="1:4">
+      <c r="A247" s="10"/>
       <c r="C247" s="10"/>
     </row>
     <row r="248" spans="1:4">
@@ -41357,10 +41436,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U198"/>
+  <dimension ref="A1:U199"/>
   <sheetViews>
     <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="D206" sqref="D206"/>
+      <selection activeCell="Q207" sqref="Q207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -46999,6 +47078,53 @@
         <v>9</v>
       </c>
     </row>
+    <row r="199" spans="1:19">
+      <c r="A199" s="1">
+        <v>2</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1</v>
+      </c>
+      <c r="C199" s="1">
+        <v>3</v>
+      </c>
+      <c r="F199" s="1">
+        <v>2</v>
+      </c>
+      <c r="G199" s="1">
+        <v>2</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0</v>
+      </c>
+      <c r="I199" s="1">
+        <v>1</v>
+      </c>
+      <c r="J199" s="1">
+        <v>0</v>
+      </c>
+      <c r="K199" s="1">
+        <v>1</v>
+      </c>
+      <c r="N199" s="1">
+        <v>0</v>
+      </c>
+      <c r="O199" s="1">
+        <v>0</v>
+      </c>
+      <c r="P199" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q199" s="1">
+        <v>3</v>
+      </c>
+      <c r="R199" s="1">
+        <v>8</v>
+      </c>
+      <c r="S199" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47008,10 +47134,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN198"/>
+  <dimension ref="A100:AN199"/>
   <sheetViews>
     <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="G208" sqref="G208"/>
+      <selection activeCell="N206" sqref="N206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51321,6 +51447,41 @@
         <v>2</v>
       </c>
     </row>
+    <row r="199" spans="1:19">
+      <c r="B199" s="9">
+        <v>1</v>
+      </c>
+      <c r="C199" s="11">
+        <v>2</v>
+      </c>
+      <c r="E199" s="9">
+        <v>1</v>
+      </c>
+      <c r="J199" s="11">
+        <v>2</v>
+      </c>
+      <c r="L199" s="16">
+        <v>1</v>
+      </c>
+      <c r="M199" s="16">
+        <v>2</v>
+      </c>
+      <c r="N199" s="16">
+        <v>2</v>
+      </c>
+      <c r="O199" s="16">
+        <v>4</v>
+      </c>
+      <c r="P199" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q199" s="16">
+        <v>9</v>
+      </c>
+      <c r="S199" s="16">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51333,7 +51494,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51557,7 +51718,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -51739,10 +51900,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -51813,7 +51974,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -51868,7 +52029,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -51877,13 +52038,13 @@
         <v>12</v>
       </c>
       <c r="H12" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
       </c>
       <c r="J12" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K12" s="18">
         <v>5</v>
@@ -51894,13 +52055,16 @@
       <c r="N12" s="18">
         <v>17</v>
       </c>
+      <c r="O12" s="18">
+        <v>0</v>
+      </c>
       <c r="P12" s="18">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="C13" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="19">
         <v>13</v>
@@ -51921,7 +52085,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -51935,7 +52099,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L14" s="18">
         <v>10</v>
@@ -51949,13 +52113,13 @@
         <v>51</v>
       </c>
       <c r="G15" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="18">
         <v>18</v>
       </c>
       <c r="L15" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -51966,7 +52130,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" s="18">
         <v>1</v>
@@ -51974,7 +52138,7 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N17" s="18">
         <v>10</v>
@@ -51982,7 +52146,7 @@
     </row>
     <row r="18" spans="6:14">
       <c r="N18" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -935,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO109"/>
+  <dimension ref="A1:AO112"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S96" sqref="S96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6364,7 +6364,7 @@
         <v>5</v>
       </c>
       <c r="P54" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q54" s="7">
         <v>2</v>
@@ -6941,6 +6941,9 @@
       <c r="I60" s="7">
         <v>1</v>
       </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
       <c r="K60" s="7">
         <v>0</v>
       </c>
@@ -6999,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -7010,7 +7013,7 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B61" s="7">
         <v>19</v>
@@ -7056,7 +7059,9 @@
       <c r="Q61" s="7">
         <v>4</v>
       </c>
-      <c r="R61" s="7"/>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
       <c r="S61" s="14">
         <v>4</v>
       </c>
@@ -7070,7 +7075,7 @@
         <v>6</v>
       </c>
       <c r="W61" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X61" s="3">
         <v>6</v>
@@ -7107,7 +7112,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62" s="7">
         <v>4</v>
@@ -7215,7 +7220,9 @@
         <v>2</v>
       </c>
       <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
       <c r="L63" s="4">
         <v>9</v>
       </c>
@@ -7237,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U63" s="4">
         <v>0</v>
@@ -7265,7 +7272,7 @@
         <v>2</v>
       </c>
       <c r="AD63" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
@@ -7336,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="AA64" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB64" s="14">
         <v>3</v>
       </c>
       <c r="AC64" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
@@ -7379,7 +7386,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M65" s="4">
         <v>0</v>
@@ -7444,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I66" s="4">
         <v>6</v>
@@ -7479,7 +7486,7 @@
         <v>3</v>
       </c>
       <c r="Y66" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z66" s="4">
         <v>4</v>
@@ -7490,7 +7497,7 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG66" s="39">
         <v>0</v>
@@ -7547,7 +7554,7 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB67" s="14">
         <v>8</v>
@@ -7556,7 +7563,7 @@
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -7585,7 +7592,7 @@
         <v>11</v>
       </c>
       <c r="N68" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O68" s="4">
         <v>0</v>
@@ -7628,14 +7635,14 @@
         <v>2</v>
       </c>
       <c r="F69" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="3"/>
       <c r="L69" s="4"/>
@@ -7651,11 +7658,11 @@
       </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" s="3"/>
       <c r="U69" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V69" s="4">
         <v>8</v>
@@ -7666,7 +7673,7 @@
       </c>
       <c r="Z69" s="4"/>
       <c r="AB69" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD69" s="4"/>
       <c r="AE69" s="3"/>
@@ -7697,7 +7704,7 @@
       </c>
       <c r="N70" s="25"/>
       <c r="O70" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4">
@@ -7723,6 +7730,9 @@
       <c r="AG70" s="5"/>
     </row>
     <row r="71" spans="1:33">
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
       <c r="D71" s="3">
         <v>1</v>
       </c>
@@ -7754,7 +7764,7 @@
       </c>
       <c r="W71" s="4"/>
       <c r="X71" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
@@ -7773,7 +7783,7 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="3"/>
@@ -7844,7 +7854,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="4"/>
       <c r="H74" s="4"/>
@@ -7886,7 +7896,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="M75" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -7895,7 +7905,9 @@
       </c>
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
+      <c r="V75" s="4">
+        <v>0</v>
+      </c>
       <c r="W75" s="4"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
@@ -7918,7 +7930,9 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
+      <c r="Q76" s="4">
+        <v>0</v>
+      </c>
       <c r="T76" s="3"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
@@ -8024,7 +8038,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -8039,87 +8053,94 @@
       <c r="X81" s="4"/>
       <c r="AG81" s="5"/>
     </row>
-    <row r="82" spans="1:33" s="42" customFormat="1"/>
-    <row r="83" spans="1:33" s="65" customFormat="1"/>
-    <row r="84" spans="1:33" s="44" customFormat="1"/>
-    <row r="85" spans="1:33">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="3"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4"/>
-      <c r="AF85" s="3"/>
-      <c r="AG85" s="5"/>
-    </row>
-    <row r="86" spans="1:33">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="3"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="U86" s="4"/>
-      <c r="W86" s="4"/>
-      <c r="X86" s="4"/>
-      <c r="Y86" s="4"/>
-      <c r="Z86" s="4"/>
-      <c r="AG86" s="5"/>
-    </row>
-    <row r="87" spans="1:33">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="3"/>
-      <c r="H87" s="4"/>
-      <c r="K87" s="3"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
-      <c r="Y87" s="4"/>
-      <c r="AG87" s="5"/>
-    </row>
+    <row r="82" spans="1:33">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="5"/>
+    </row>
+    <row r="83" spans="1:33">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="3"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AG83" s="5"/>
+    </row>
+    <row r="84" spans="1:33">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="3"/>
+      <c r="H84" s="4"/>
+      <c r="K84" s="3"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="AG84" s="5"/>
+    </row>
+    <row r="85" spans="1:33" s="42" customFormat="1"/>
+    <row r="86" spans="1:33" s="65" customFormat="1"/>
+    <row r="87" spans="1:33" s="44" customFormat="1"/>
     <row r="88" spans="1:33">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="H88" s="4"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
+      <c r="L88" s="4"/>
       <c r="M88" s="4"/>
-      <c r="O88" s="4"/>
+      <c r="N88" s="4"/>
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4"/>
+      <c r="AF88" s="3"/>
       <c r="AG88" s="5"/>
     </row>
     <row r="89" spans="1:33">
@@ -8127,16 +8148,20 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="3"/>
-      <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
       <c r="S89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
       <c r="AG89" s="5"/>
     </row>
     <row r="90" spans="1:33">
@@ -8144,21 +8169,14 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="3"/>
+      <c r="H90" s="4"/>
       <c r="K90" s="3"/>
-      <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
-      <c r="T90" s="3"/>
-      <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
@@ -8168,23 +8186,17 @@
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="N91" s="4"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="M91" s="4"/>
+      <c r="O91" s="4"/>
       <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
-      <c r="S91" s="4"/>
-      <c r="T91" s="3"/>
-      <c r="U91" s="4"/>
-      <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
-      <c r="Y91" s="4"/>
-      <c r="Z91" s="4"/>
       <c r="AG91" s="5"/>
     </row>
     <row r="92" spans="1:33">
@@ -8192,23 +8204,16 @@
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
+      <c r="J92" s="3"/>
       <c r="K92" s="3"/>
-      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="R92" s="4"/>
+      <c r="Q92" s="4"/>
       <c r="S92" s="4"/>
-      <c r="T92" s="3"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="4"/>
-      <c r="X92" s="4"/>
-      <c r="Z92" s="4"/>
+      <c r="Y92" s="4"/>
       <c r="AG92" s="5"/>
     </row>
     <row r="93" spans="1:33">
@@ -8216,17 +8221,24 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="3"/>
-      <c r="H93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
       <c r="I93" s="4"/>
+      <c r="J93" s="3"/>
       <c r="K93" s="3"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
-      <c r="U93" s="4"/>
+      <c r="T93" s="3"/>
+      <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
-      <c r="Z93" s="4"/>
+      <c r="Y93" s="4"/>
       <c r="AG93" s="5"/>
     </row>
     <row r="94" spans="1:33">
@@ -8237,31 +8249,37 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="H94" s="4"/>
-      <c r="K94" s="3"/>
+      <c r="I94" s="4"/>
       <c r="L94" s="4"/>
       <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
       <c r="T94" s="3"/>
+      <c r="U94" s="4"/>
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
       <c r="AG94" s="5"/>
     </row>
     <row r="95" spans="1:33">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
+      <c r="D95" s="3"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
+      <c r="K95" s="3"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
       <c r="O95" s="4"/>
-      <c r="Q95" s="4"/>
+      <c r="P95" s="4"/>
       <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
       <c r="T95" s="3"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
@@ -8275,19 +8293,16 @@
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
+      <c r="K96" s="3"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
-      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
       <c r="S96" s="4"/>
-      <c r="T96" s="3"/>
       <c r="U96" s="4"/>
-      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
       <c r="Z96" s="4"/>
       <c r="AG96" s="5"/>
     </row>
@@ -8298,79 +8313,82 @@
       <c r="D97" s="3"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="I97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="K97" s="3"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
-      <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
       <c r="T97" s="3"/>
-      <c r="U97" s="4"/>
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
-      <c r="Z97" s="4"/>
-      <c r="AC97" s="5"/>
       <c r="AG97" s="5"/>
     </row>
     <row r="98" spans="1:33">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="3"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
       <c r="L98" s="4"/>
-      <c r="N98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
-      <c r="S98" s="4"/>
       <c r="T98" s="3"/>
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
       <c r="Z98" s="4"/>
-      <c r="AC98" s="5"/>
       <c r="AG98" s="5"/>
     </row>
     <row r="99" spans="1:33">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
+      <c r="D99" s="3"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
       <c r="T99" s="3"/>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
-      <c r="W99" s="4"/>
-      <c r="X99" s="4"/>
       <c r="Z99" s="4"/>
-      <c r="AB99" s="5"/>
-      <c r="AC99" s="5"/>
       <c r="AG99" s="5"/>
     </row>
     <row r="100" spans="1:33">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="H100" s="4"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="L100" s="4"/>
       <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="3"/>
       <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
       <c r="Z100" s="4"/>
-      <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
       <c r="AG100" s="5"/>
     </row>
@@ -8378,18 +8396,21 @@
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
+      <c r="D101" s="3"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
+      <c r="H101" s="4"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="Q101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
       <c r="T101" s="3"/>
+      <c r="U101" s="4"/>
       <c r="V101" s="4"/>
-      <c r="AB101" s="5"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Z101" s="4"/>
       <c r="AC101" s="5"/>
-      <c r="AF101" s="5"/>
       <c r="AG101" s="5"/>
     </row>
     <row r="102" spans="1:33">
@@ -8399,16 +8420,20 @@
       <c r="D102" s="5"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
+      <c r="H102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
+      <c r="O102" s="4"/>
       <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
       <c r="T102" s="3"/>
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
       <c r="Z102" s="4"/>
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
-      <c r="AF102" s="5"/>
       <c r="AG102" s="5"/>
     </row>
     <row r="103" spans="1:33">
@@ -8416,18 +8441,14 @@
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="L103" s="4"/>
+      <c r="H103" s="4"/>
       <c r="M103" s="4"/>
+      <c r="O103" s="4"/>
       <c r="Q103" s="4"/>
-      <c r="T103" s="3"/>
       <c r="U103" s="4"/>
-      <c r="V103" s="4"/>
       <c r="Z103" s="4"/>
       <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
-      <c r="AF103" s="5"/>
       <c r="AG103" s="5"/>
     </row>
     <row r="104" spans="1:33">
@@ -8435,10 +8456,14 @@
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="L104" s="4"/>
       <c r="M104" s="4"/>
+      <c r="O104" s="4"/>
       <c r="Q104" s="4"/>
-      <c r="U104" s="4"/>
-      <c r="Z104" s="4"/>
+      <c r="T104" s="3"/>
+      <c r="V104" s="4"/>
       <c r="AB104" s="5"/>
       <c r="AC104" s="5"/>
       <c r="AF104" s="5"/>
@@ -8449,35 +8474,87 @@
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="Z105" s="4"/>
       <c r="AB105" s="5"/>
       <c r="AC105" s="5"/>
       <c r="AF105" s="5"/>
       <c r="AG105" s="5"/>
     </row>
     <row r="106" spans="1:33">
+      <c r="A106" s="5"/>
       <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="5"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="Q106" s="4"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="Z106" s="4"/>
       <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
       <c r="AF106" s="5"/>
+      <c r="AG106" s="5"/>
     </row>
     <row r="107" spans="1:33">
+      <c r="A107" s="5"/>
       <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="M107" s="4"/>
       <c r="Q107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="Z107" s="4"/>
       <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
       <c r="AF107" s="5"/>
+      <c r="AG107" s="5"/>
     </row>
     <row r="108" spans="1:33">
+      <c r="A108" s="5"/>
       <c r="B108" s="5"/>
-      <c r="M108" s="4"/>
-      <c r="Q108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="AB108" s="5"/>
+      <c r="AC108" s="5"/>
       <c r="AF108" s="5"/>
+      <c r="AG108" s="5"/>
     </row>
     <row r="109" spans="1:33">
+      <c r="B109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="M109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="AB109" s="5"/>
       <c r="AF109" s="5"/>
+    </row>
+    <row r="110" spans="1:33">
+      <c r="B110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="M110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="AB110" s="5"/>
+      <c r="AF110" s="5"/>
+    </row>
+    <row r="111" spans="1:33">
+      <c r="B111" s="5"/>
+      <c r="M111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="AF111" s="5"/>
+    </row>
+    <row r="112" spans="1:33">
+      <c r="AF112" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8490,8 +8567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P205" sqref="P205"/>
+    <sheetView topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L207" sqref="L207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -23202,7 +23279,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -23964,7 +24041,7 @@
       <c r="Q185" s="22">
         <v>2</v>
       </c>
-      <c r="R185" s="23">
+      <c r="R185" s="22">
         <v>14</v>
       </c>
       <c r="S185" s="22">
@@ -23995,7 +24072,9 @@
       <c r="AB185" s="22">
         <v>12</v>
       </c>
-      <c r="AC185" s="23"/>
+      <c r="AC185" s="22">
+        <v>14</v>
+      </c>
       <c r="AD185" s="63"/>
       <c r="AE185" s="22"/>
       <c r="AF185" s="38"/>
@@ -24051,7 +24130,7 @@
         <v>3</v>
       </c>
       <c r="U186" s="23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V186" s="22">
         <v>0</v>
@@ -24282,11 +24361,11 @@
       <c r="S189" s="22">
         <v>0</v>
       </c>
-      <c r="T189" s="23">
+      <c r="T189" s="22">
         <v>10</v>
       </c>
       <c r="U189" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V189" s="22">
         <v>2</v>
@@ -24304,7 +24383,9 @@
       <c r="AA189" s="19">
         <v>2</v>
       </c>
-      <c r="AB189" s="23"/>
+      <c r="AB189" s="22">
+        <v>10</v>
+      </c>
       <c r="AC189" s="23"/>
       <c r="AD189" s="63"/>
       <c r="AE189" s="22"/>
@@ -24349,13 +24430,13 @@
       </c>
       <c r="P190" s="22"/>
       <c r="Q190" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R190" s="22">
         <v>1</v>
       </c>
       <c r="S190" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T190" s="22">
         <v>6</v>
@@ -24427,7 +24508,7 @@
         <v>2</v>
       </c>
       <c r="R191" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S191" s="19">
         <v>5</v>
@@ -24439,7 +24520,7 @@
         <v>4</v>
       </c>
       <c r="V191" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W191" s="20"/>
       <c r="X191" s="19">
@@ -24508,7 +24589,7 @@
         <v>2</v>
       </c>
       <c r="T192" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U192" s="22">
         <v>4</v>
@@ -24591,7 +24672,7 @@
         <v>2</v>
       </c>
       <c r="V193" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W193" s="23"/>
       <c r="X193" s="22">
@@ -24652,13 +24733,13 @@
       </c>
       <c r="P194" s="22"/>
       <c r="Q194" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R194" s="22">
         <v>3</v>
       </c>
       <c r="S194" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T194" s="22">
         <v>0</v>
@@ -24727,15 +24808,15 @@
       </c>
       <c r="P195" s="22"/>
       <c r="Q195" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R195" s="22">
         <v>3</v>
       </c>
       <c r="S195" s="23">
-        <v>4</v>
-      </c>
-      <c r="T195" s="23">
+        <v>5</v>
+      </c>
+      <c r="T195" s="22">
         <v>4</v>
       </c>
       <c r="U195" s="22">
@@ -24754,10 +24835,13 @@
       <c r="Z195" s="22">
         <v>3</v>
       </c>
-      <c r="AA195" s="23"/>
+      <c r="AA195" s="22">
+        <v>4</v>
+      </c>
       <c r="AB195" s="23"/>
       <c r="AC195" s="23"/>
       <c r="AD195" s="63"/>
+      <c r="AE195" s="22"/>
       <c r="AF195" s="38"/>
     </row>
     <row r="196" spans="1:32" s="21" customFormat="1">
@@ -24799,16 +24883,16 @@
       </c>
       <c r="P196" s="22"/>
       <c r="Q196" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R196" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S196" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T196" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U196" s="22">
         <v>1</v>
@@ -24828,6 +24912,7 @@
       <c r="AB196" s="23"/>
       <c r="AC196" s="23"/>
       <c r="AD196" s="63"/>
+      <c r="AE196" s="22"/>
       <c r="AF196" s="38"/>
     </row>
     <row r="197" spans="1:32" s="21" customFormat="1">
@@ -24872,16 +24957,16 @@
         <v>1</v>
       </c>
       <c r="R197" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S197" s="22">
         <v>0</v>
       </c>
       <c r="T197" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U197" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V197" s="22">
         <v>0</v>
@@ -24902,6 +24987,7 @@
         <v>22</v>
       </c>
       <c r="AD197" s="63"/>
+      <c r="AE197" s="22"/>
       <c r="AF197" s="38"/>
     </row>
     <row r="198" spans="1:32" s="21" customFormat="1">
@@ -24949,22 +25035,22 @@
         <v>0</v>
       </c>
       <c r="S198" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T198" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U198" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V198" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W198" s="23"/>
-      <c r="X198" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y198" s="21">
+      <c r="X198" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y198" s="22">
         <v>0</v>
       </c>
       <c r="Z198" s="23"/>
@@ -24972,6 +25058,7 @@
       <c r="AB198" s="23"/>
       <c r="AC198" s="23"/>
       <c r="AD198" s="63"/>
+      <c r="AE198" s="22"/>
       <c r="AF198" s="38"/>
     </row>
     <row r="199" spans="1:32" s="21" customFormat="1">
@@ -25012,50 +25099,106 @@
         <v>5</v>
       </c>
       <c r="P199" s="22"/>
-      <c r="Q199" s="23">
+      <c r="Q199" s="22">
         <v>0</v>
       </c>
       <c r="R199" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S199" s="23">
-        <v>0</v>
-      </c>
-      <c r="T199" s="23">
+        <v>1</v>
+      </c>
+      <c r="T199" s="22">
         <v>0</v>
       </c>
       <c r="U199" s="23">
-        <v>0</v>
-      </c>
-      <c r="V199" s="23">
+        <v>1</v>
+      </c>
+      <c r="V199" s="22">
         <v>0</v>
       </c>
       <c r="W199" s="23"/>
-      <c r="X199" s="38"/>
-      <c r="Y199" s="38"/>
-      <c r="Z199" s="23"/>
+      <c r="X199" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y199" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z199" s="22">
+        <v>0</v>
+      </c>
       <c r="AA199" s="23"/>
       <c r="AB199" s="23"/>
       <c r="AC199" s="23"/>
       <c r="AD199" s="63"/>
+      <c r="AE199" s="22"/>
       <c r="AF199" s="38"/>
     </row>
     <row r="200" spans="1:32" s="21" customFormat="1">
+      <c r="A200" s="21">
+        <v>0</v>
+      </c>
+      <c r="B200" s="21">
+        <v>14</v>
+      </c>
+      <c r="C200" s="21">
+        <v>0</v>
+      </c>
+      <c r="D200" s="21">
+        <v>10</v>
+      </c>
+      <c r="E200" s="21">
+        <v>4</v>
+      </c>
+      <c r="F200" s="21">
+        <v>0</v>
+      </c>
+      <c r="I200" s="21">
+        <v>0</v>
+      </c>
+      <c r="J200" s="21">
+        <v>0</v>
+      </c>
+      <c r="K200" s="21">
+        <v>0</v>
+      </c>
+      <c r="L200" s="21">
+        <v>4</v>
+      </c>
+      <c r="M200" s="21">
+        <v>10</v>
+      </c>
+      <c r="N200" s="21">
+        <v>14</v>
+      </c>
       <c r="P200" s="22"/>
-      <c r="Q200" s="23"/>
-      <c r="R200" s="23"/>
-      <c r="S200" s="23"/>
-      <c r="T200" s="23"/>
-      <c r="U200" s="23"/>
-      <c r="V200" s="23"/>
+      <c r="Q200" s="23">
+        <v>0</v>
+      </c>
+      <c r="R200" s="23">
+        <v>0</v>
+      </c>
+      <c r="S200" s="23">
+        <v>0</v>
+      </c>
+      <c r="T200" s="23">
+        <v>0</v>
+      </c>
+      <c r="U200" s="23">
+        <v>0</v>
+      </c>
+      <c r="V200" s="23">
+        <v>0</v>
+      </c>
       <c r="W200" s="23"/>
-      <c r="X200" s="38"/>
-      <c r="Y200" s="38"/>
-      <c r="Z200" s="38"/>
-      <c r="AA200" s="38"/>
-      <c r="AB200" s="38"/>
-      <c r="AC200" s="38"/>
+      <c r="X200" s="23"/>
+      <c r="Y200" s="23"/>
+      <c r="Z200" s="23"/>
+      <c r="AA200" s="23"/>
+      <c r="AB200" s="23"/>
+      <c r="AC200" s="23"/>
       <c r="AD200" s="63"/>
+      <c r="AE200" s="22"/>
       <c r="AF200" s="38"/>
     </row>
     <row r="201" spans="1:32" s="21" customFormat="1">
@@ -25067,13 +25210,14 @@
       <c r="U201" s="23"/>
       <c r="V201" s="23"/>
       <c r="W201" s="23"/>
-      <c r="X201" s="38"/>
-      <c r="Y201" s="38"/>
-      <c r="Z201" s="38"/>
-      <c r="AA201" s="38"/>
-      <c r="AB201" s="38"/>
-      <c r="AC201" s="38"/>
+      <c r="X201" s="23"/>
+      <c r="Y201" s="23"/>
+      <c r="Z201" s="23"/>
+      <c r="AA201" s="23"/>
+      <c r="AB201" s="23"/>
+      <c r="AC201" s="23"/>
       <c r="AD201" s="63"/>
+      <c r="AE201" s="22"/>
       <c r="AF201" s="38"/>
     </row>
     <row r="202" spans="1:32" s="21" customFormat="1">
@@ -25085,13 +25229,14 @@
       <c r="U202" s="23"/>
       <c r="V202" s="23"/>
       <c r="W202" s="23"/>
-      <c r="X202" s="38"/>
-      <c r="Y202" s="38"/>
+      <c r="X202" s="23"/>
+      <c r="Y202" s="23"/>
       <c r="Z202" s="23"/>
       <c r="AA202" s="23"/>
       <c r="AB202" s="23"/>
       <c r="AC202" s="23"/>
       <c r="AD202" s="63"/>
+      <c r="AE202" s="22"/>
       <c r="AF202" s="38"/>
     </row>
     <row r="203" spans="1:32" s="21" customFormat="1">
@@ -25103,13 +25248,14 @@
       <c r="U203" s="23"/>
       <c r="V203" s="23"/>
       <c r="W203" s="23"/>
-      <c r="X203" s="38"/>
-      <c r="Y203" s="38"/>
-      <c r="Z203" s="38"/>
-      <c r="AA203" s="38"/>
-      <c r="AB203" s="38"/>
-      <c r="AC203" s="38"/>
+      <c r="X203" s="23"/>
+      <c r="Y203" s="23"/>
+      <c r="Z203" s="23"/>
+      <c r="AA203" s="23"/>
+      <c r="AB203" s="23"/>
+      <c r="AC203" s="23"/>
       <c r="AD203" s="63"/>
+      <c r="AE203" s="22"/>
       <c r="AF203" s="38"/>
     </row>
     <row r="204" spans="1:32" s="21" customFormat="1">
@@ -25119,14 +25265,15 @@
       <c r="T204" s="23"/>
       <c r="U204" s="23"/>
       <c r="V204" s="23"/>
-      <c r="W204" s="38"/>
-      <c r="X204" s="38"/>
-      <c r="Y204" s="38"/>
-      <c r="Z204" s="38"/>
-      <c r="AA204" s="38"/>
-      <c r="AB204" s="38"/>
-      <c r="AC204" s="38"/>
+      <c r="W204" s="23"/>
+      <c r="X204" s="23"/>
+      <c r="Y204" s="23"/>
+      <c r="Z204" s="23"/>
+      <c r="AA204" s="23"/>
+      <c r="AB204" s="23"/>
+      <c r="AC204" s="23"/>
       <c r="AD204" s="63"/>
+      <c r="AE204" s="22"/>
       <c r="AF204" s="38"/>
     </row>
     <row r="205" spans="1:32" s="21" customFormat="1">
@@ -25137,13 +25284,14 @@
       <c r="U205" s="23"/>
       <c r="V205" s="23"/>
       <c r="W205" s="23"/>
-      <c r="X205" s="38"/>
-      <c r="Y205" s="38"/>
-      <c r="Z205" s="38"/>
-      <c r="AA205" s="38"/>
-      <c r="AB205" s="38"/>
-      <c r="AC205" s="38"/>
+      <c r="X205" s="23"/>
+      <c r="Y205" s="23"/>
+      <c r="Z205" s="23"/>
+      <c r="AA205" s="23"/>
+      <c r="AB205" s="23"/>
+      <c r="AC205" s="23"/>
       <c r="AD205" s="63"/>
+      <c r="AE205" s="22"/>
       <c r="AF205" s="38"/>
     </row>
     <row r="206" spans="1:32" s="21" customFormat="1">
@@ -25154,13 +25302,14 @@
       <c r="U206" s="23"/>
       <c r="V206" s="23"/>
       <c r="W206" s="23"/>
-      <c r="X206" s="38"/>
-      <c r="Y206" s="38"/>
+      <c r="X206" s="23"/>
+      <c r="Y206" s="23"/>
       <c r="Z206" s="23"/>
       <c r="AA206" s="23"/>
       <c r="AB206" s="23"/>
       <c r="AC206" s="23"/>
       <c r="AD206" s="63"/>
+      <c r="AE206" s="22"/>
       <c r="AF206" s="38"/>
     </row>
     <row r="207" spans="1:32" s="21" customFormat="1">
@@ -36947,7 +37096,7 @@
   <dimension ref="A1:AO255"/>
   <sheetViews>
     <sheetView topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J205" sqref="J205"/>
+      <selection activeCell="I207" sqref="I207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -41101,12 +41250,22 @@
       </c>
     </row>
     <row r="200" spans="1:18">
-      <c r="A200" s="10"/>
+      <c r="A200" s="11">
+        <v>3</v>
+      </c>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
+      <c r="E200" s="9">
+        <v>1</v>
+      </c>
       <c r="F200" s="10"/>
+      <c r="K200" s="9">
+        <v>1</v>
+      </c>
+      <c r="O200" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" spans="1:18">
       <c r="A201" s="10"/>
@@ -41161,6 +41320,7 @@
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
       <c r="F207" s="10"/>
     </row>
     <row r="208" spans="1:18">
@@ -41404,6 +41564,7 @@
       <c r="C247" s="10"/>
     </row>
     <row r="248" spans="1:4">
+      <c r="A248" s="10"/>
       <c r="C248" s="10"/>
     </row>
     <row r="249" spans="1:4">
@@ -41436,10 +41597,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U199"/>
+  <dimension ref="A1:U200"/>
   <sheetViews>
     <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="Q207" sqref="Q207"/>
+      <selection activeCell="R208" sqref="R208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -47125,6 +47286,53 @@
         <v>10</v>
       </c>
     </row>
+    <row r="200" spans="1:19">
+      <c r="A200" s="1">
+        <v>3</v>
+      </c>
+      <c r="B200" s="1">
+        <v>2</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1">
+        <v>1</v>
+      </c>
+      <c r="G200" s="1">
+        <v>1</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0</v>
+      </c>
+      <c r="I200" s="1">
+        <v>3</v>
+      </c>
+      <c r="J200" s="1">
+        <v>0</v>
+      </c>
+      <c r="K200" s="1">
+        <v>1</v>
+      </c>
+      <c r="N200" s="1">
+        <v>1</v>
+      </c>
+      <c r="O200" s="1">
+        <v>3</v>
+      </c>
+      <c r="P200" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q200" s="1">
+        <v>3</v>
+      </c>
+      <c r="R200" s="1">
+        <v>3</v>
+      </c>
+      <c r="S200" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47134,10 +47342,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN199"/>
+  <dimension ref="A100:AN200"/>
   <sheetViews>
     <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="N206" sqref="N206"/>
+      <selection activeCell="I207" sqref="I207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51482,6 +51690,44 @@
         <v>5</v>
       </c>
     </row>
+    <row r="200" spans="1:19">
+      <c r="A200" s="9">
+        <v>1</v>
+      </c>
+      <c r="B200" s="9">
+        <v>1</v>
+      </c>
+      <c r="C200" s="11">
+        <v>2</v>
+      </c>
+      <c r="H200" s="9">
+        <v>1</v>
+      </c>
+      <c r="I200" s="9">
+        <v>1</v>
+      </c>
+      <c r="L200" s="16">
+        <v>0</v>
+      </c>
+      <c r="M200" s="16">
+        <v>1</v>
+      </c>
+      <c r="N200" s="16">
+        <v>2</v>
+      </c>
+      <c r="O200" s="16">
+        <v>2</v>
+      </c>
+      <c r="P200" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q200" s="16">
+        <v>8</v>
+      </c>
+      <c r="S200" s="16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51494,7 +51740,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51718,7 +51964,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -51900,10 +52146,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -51974,7 +52220,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -52029,7 +52275,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -52038,7 +52284,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
@@ -52056,7 +52302,7 @@
         <v>17</v>
       </c>
       <c r="O12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="18">
         <v>12</v>
@@ -52064,7 +52310,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="C13" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="19">
         <v>13</v>
@@ -52075,6 +52321,9 @@
       <c r="I13" s="18">
         <v>17</v>
       </c>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
       <c r="K13" s="18">
         <v>14</v>
       </c>
@@ -52085,7 +52334,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -52099,7 +52348,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L14" s="18">
         <v>10</v>
@@ -52113,13 +52362,13 @@
         <v>51</v>
       </c>
       <c r="G15" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15" s="18">
         <v>18</v>
       </c>
       <c r="L15" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -52130,7 +52379,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" s="18">
         <v>1</v>
@@ -52138,7 +52387,7 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N17" s="18">
         <v>10</v>
@@ -52146,7 +52395,7 @@
     </row>
     <row r="18" spans="6:14">
       <c r="N18" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S96" sqref="S96"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6364,7 +6364,7 @@
         <v>5</v>
       </c>
       <c r="P54" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q54" s="7">
         <v>2</v>
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61" s="7">
         <v>19</v>
@@ -7039,7 +7039,9 @@
       <c r="I61" s="7">
         <v>0</v>
       </c>
-      <c r="J61" s="7"/>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
       <c r="K61" s="7">
         <v>3</v>
       </c>
@@ -7060,7 +7062,7 @@
         <v>4</v>
       </c>
       <c r="R61" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="14">
         <v>4</v>
@@ -7075,7 +7077,7 @@
         <v>6</v>
       </c>
       <c r="W61" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X61" s="3">
         <v>6</v>
@@ -7112,7 +7114,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D62" s="7">
         <v>4</v>
@@ -7244,7 +7246,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U63" s="4">
         <v>0</v>
@@ -7272,7 +7274,7 @@
         <v>2</v>
       </c>
       <c r="AD63" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
@@ -7304,7 +7306,9 @@
       <c r="I64" s="4">
         <v>11</v>
       </c>
-      <c r="K64" s="3"/>
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
       <c r="L64" s="4">
         <v>1</v>
       </c>
@@ -7343,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB64" s="14">
         <v>3</v>
@@ -7425,6 +7429,9 @@
       <c r="AB65" s="7">
         <v>3</v>
       </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
       <c r="AD65" s="7"/>
       <c r="AE65" s="3"/>
       <c r="AF65" s="3">
@@ -7457,7 +7464,9 @@
         <v>6</v>
       </c>
       <c r="J66" s="3"/>
-      <c r="L66" s="4"/>
+      <c r="L66" s="4">
+        <v>0</v>
+      </c>
       <c r="M66" s="4">
         <v>4</v>
       </c>
@@ -7486,7 +7495,7 @@
         <v>3</v>
       </c>
       <c r="Y66" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z66" s="4">
         <v>4</v>
@@ -7497,7 +7506,7 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG66" s="39">
         <v>0</v>
@@ -7519,7 +7528,9 @@
       <c r="G67" s="2">
         <v>5</v>
       </c>
-      <c r="H67" s="4"/>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
       <c r="I67" s="4">
         <v>0</v>
       </c>
@@ -7554,7 +7565,7 @@
         <v>9</v>
       </c>
       <c r="Z67" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB67" s="14">
         <v>8</v>
@@ -7563,7 +7574,7 @@
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -7592,7 +7603,7 @@
         <v>11</v>
       </c>
       <c r="N68" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O68" s="4">
         <v>0</v>
@@ -7635,14 +7646,14 @@
         <v>2</v>
       </c>
       <c r="F69" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" s="3"/>
       <c r="L69" s="4"/>
@@ -7662,7 +7673,7 @@
       </c>
       <c r="T69" s="3"/>
       <c r="U69" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V69" s="4">
         <v>8</v>
@@ -7673,7 +7684,7 @@
       </c>
       <c r="Z69" s="4"/>
       <c r="AB69" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD69" s="4"/>
       <c r="AE69" s="3"/>
@@ -7704,14 +7715,16 @@
       </c>
       <c r="N70" s="25"/>
       <c r="O70" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4">
         <v>1</v>
       </c>
       <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
+      <c r="S70" s="4">
+        <v>0</v>
+      </c>
       <c r="T70" s="3"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4">
@@ -7731,7 +7744,7 @@
     </row>
     <row r="71" spans="1:33">
       <c r="B71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -7764,7 +7777,7 @@
       </c>
       <c r="W71" s="4"/>
       <c r="X71" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
@@ -7783,7 +7796,7 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="3"/>
@@ -7854,7 +7867,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="4"/>
       <c r="H74" s="4"/>
@@ -7896,7 +7909,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="M75" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -7906,7 +7919,7 @@
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W75" s="4"/>
       <c r="Y75" s="4"/>
@@ -7931,7 +7944,7 @@
       <c r="N76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76" s="3"/>
       <c r="U76" s="4"/>
@@ -8038,7 +8051,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -8567,8 +8580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT956"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L207" sqref="L207"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W205" sqref="P184:W205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -23279,7 +23292,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -24129,7 +24142,7 @@
       <c r="T186" s="22">
         <v>3</v>
       </c>
-      <c r="U186" s="23">
+      <c r="U186" s="22">
         <v>14</v>
       </c>
       <c r="V186" s="22">
@@ -24151,7 +24164,9 @@
       <c r="AB186" s="22">
         <v>10</v>
       </c>
-      <c r="AC186" s="23"/>
+      <c r="AC186" s="22">
+        <v>14</v>
+      </c>
       <c r="AD186" s="63"/>
       <c r="AE186" s="22"/>
       <c r="AF186" s="38"/>
@@ -24365,7 +24380,7 @@
         <v>10</v>
       </c>
       <c r="U189" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V189" s="22">
         <v>2</v>
@@ -24430,12 +24445,12 @@
       </c>
       <c r="P190" s="22"/>
       <c r="Q190" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R190" s="22">
         <v>1</v>
       </c>
-      <c r="S190" s="23">
+      <c r="S190" s="22">
         <v>10</v>
       </c>
       <c r="T190" s="22">
@@ -24460,7 +24475,9 @@
       <c r="AA190" s="22">
         <v>6</v>
       </c>
-      <c r="AB190" s="23"/>
+      <c r="AB190" s="22">
+        <v>10</v>
+      </c>
       <c r="AC190" s="23"/>
       <c r="AD190" s="63"/>
       <c r="AE190" s="22"/>
@@ -24508,7 +24525,7 @@
         <v>2</v>
       </c>
       <c r="R191" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S191" s="19">
         <v>5</v>
@@ -24520,7 +24537,7 @@
         <v>4</v>
       </c>
       <c r="V191" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W191" s="20"/>
       <c r="X191" s="19">
@@ -24589,7 +24606,7 @@
         <v>2</v>
       </c>
       <c r="T192" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U192" s="22">
         <v>4</v>
@@ -24672,7 +24689,7 @@
         <v>2</v>
       </c>
       <c r="V193" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W193" s="23"/>
       <c r="X193" s="22">
@@ -24733,13 +24750,13 @@
       </c>
       <c r="P194" s="22"/>
       <c r="Q194" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R194" s="22">
         <v>3</v>
       </c>
       <c r="S194" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T194" s="22">
         <v>0</v>
@@ -24808,13 +24825,13 @@
       </c>
       <c r="P195" s="22"/>
       <c r="Q195" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R195" s="22">
         <v>3</v>
       </c>
       <c r="S195" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T195" s="22">
         <v>4</v>
@@ -24882,17 +24899,17 @@
         <v>8</v>
       </c>
       <c r="P196" s="22"/>
-      <c r="Q196" s="23">
+      <c r="Q196" s="22">
         <v>4</v>
       </c>
       <c r="R196" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S196" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T196" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U196" s="22">
         <v>1</v>
@@ -24907,7 +24924,9 @@
       <c r="Y196" s="22">
         <v>1</v>
       </c>
-      <c r="Z196" s="23"/>
+      <c r="Z196" s="22">
+        <v>4</v>
+      </c>
       <c r="AA196" s="23"/>
       <c r="AB196" s="23"/>
       <c r="AC196" s="23"/>
@@ -24957,16 +24976,16 @@
         <v>1</v>
       </c>
       <c r="R197" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S197" s="22">
         <v>0</v>
       </c>
       <c r="T197" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U197" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V197" s="22">
         <v>0</v>
@@ -25035,16 +25054,16 @@
         <v>0</v>
       </c>
       <c r="S198" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T198" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U198" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V198" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W198" s="23"/>
       <c r="X198" s="22">
@@ -25103,15 +25122,15 @@
         <v>0</v>
       </c>
       <c r="R199" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S199" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T199" s="22">
         <v>0</v>
       </c>
-      <c r="U199" s="23">
+      <c r="U199" s="22">
         <v>1</v>
       </c>
       <c r="V199" s="22">
@@ -25127,7 +25146,9 @@
       <c r="Z199" s="22">
         <v>0</v>
       </c>
-      <c r="AA199" s="23"/>
+      <c r="AA199" s="22">
+        <v>1</v>
+      </c>
       <c r="AB199" s="23"/>
       <c r="AC199" s="23"/>
       <c r="AD199" s="63"/>
@@ -25173,26 +25194,30 @@
       </c>
       <c r="P200" s="22"/>
       <c r="Q200" s="23">
-        <v>0</v>
-      </c>
-      <c r="R200" s="23">
-        <v>0</v>
-      </c>
-      <c r="S200" s="23">
+        <v>1</v>
+      </c>
+      <c r="R200" s="22">
+        <v>0</v>
+      </c>
+      <c r="S200" s="22">
         <v>0</v>
       </c>
       <c r="T200" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U200" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V200" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W200" s="23"/>
-      <c r="X200" s="23"/>
-      <c r="Y200" s="23"/>
+      <c r="X200" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y200" s="22">
+        <v>0</v>
+      </c>
       <c r="Z200" s="23"/>
       <c r="AA200" s="23"/>
       <c r="AB200" s="23"/>
@@ -25202,13 +25227,61 @@
       <c r="AF200" s="38"/>
     </row>
     <row r="201" spans="1:32" s="21" customFormat="1">
+      <c r="A201" s="21">
+        <v>10</v>
+      </c>
+      <c r="B201" s="21">
+        <v>0</v>
+      </c>
+      <c r="C201" s="21">
+        <v>0</v>
+      </c>
+      <c r="D201" s="21">
+        <v>4</v>
+      </c>
+      <c r="E201" s="21">
+        <v>1</v>
+      </c>
+      <c r="F201" s="21">
+        <v>14</v>
+      </c>
+      <c r="I201" s="21">
+        <v>0</v>
+      </c>
+      <c r="J201" s="21">
+        <v>0</v>
+      </c>
+      <c r="K201" s="21">
+        <v>1</v>
+      </c>
+      <c r="L201" s="21">
+        <v>4</v>
+      </c>
+      <c r="M201" s="21">
+        <v>10</v>
+      </c>
+      <c r="N201" s="21">
+        <v>14</v>
+      </c>
       <c r="P201" s="22"/>
-      <c r="Q201" s="23"/>
-      <c r="R201" s="23"/>
-      <c r="S201" s="23"/>
-      <c r="T201" s="23"/>
-      <c r="U201" s="23"/>
-      <c r="V201" s="23"/>
+      <c r="Q201" s="23">
+        <v>0</v>
+      </c>
+      <c r="R201" s="23">
+        <v>0</v>
+      </c>
+      <c r="S201" s="23">
+        <v>0</v>
+      </c>
+      <c r="T201" s="23">
+        <v>0</v>
+      </c>
+      <c r="U201" s="23">
+        <v>0</v>
+      </c>
+      <c r="V201" s="23">
+        <v>0</v>
+      </c>
       <c r="W201" s="23"/>
       <c r="X201" s="23"/>
       <c r="Y201" s="23"/>
@@ -25259,6 +25332,7 @@
       <c r="AF203" s="38"/>
     </row>
     <row r="204" spans="1:32" s="21" customFormat="1">
+      <c r="P204" s="22"/>
       <c r="Q204" s="23"/>
       <c r="R204" s="23"/>
       <c r="S204" s="23"/>
@@ -25277,6 +25351,7 @@
       <c r="AF204" s="38"/>
     </row>
     <row r="205" spans="1:32" s="21" customFormat="1">
+      <c r="P205" s="22"/>
       <c r="Q205" s="23"/>
       <c r="R205" s="23"/>
       <c r="S205" s="23"/>
@@ -37095,8 +37170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO255"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I207" sqref="I207"/>
+    <sheetView topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N211" sqref="N211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -41268,12 +41343,24 @@
       </c>
     </row>
     <row r="201" spans="1:18">
-      <c r="A201" s="10"/>
-      <c r="B201" s="10"/>
+      <c r="A201" s="11">
+        <v>2</v>
+      </c>
+      <c r="B201" s="9">
+        <v>1</v>
+      </c>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
+      <c r="E201" s="9">
+        <v>1</v>
+      </c>
       <c r="F201" s="10"/>
+      <c r="K201" s="9">
+        <v>1</v>
+      </c>
+      <c r="O201" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" spans="1:18">
       <c r="A202" s="10"/>
@@ -41328,6 +41415,7 @@
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
       <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
       <c r="F208" s="10"/>
     </row>
     <row r="209" spans="1:6">
@@ -41512,6 +41600,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="10"/>
+      <c r="B237" s="10"/>
       <c r="C237" s="10"/>
       <c r="D237" s="10"/>
     </row>
@@ -41568,6 +41657,7 @@
       <c r="C248" s="10"/>
     </row>
     <row r="249" spans="1:4">
+      <c r="A249" s="10"/>
       <c r="C249" s="10"/>
     </row>
     <row r="250" spans="1:4">
@@ -41597,10 +41687,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U200"/>
+  <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="R208" sqref="R208"/>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="M208" sqref="M208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -47333,6 +47423,53 @@
         <v>10</v>
       </c>
     </row>
+    <row r="201" spans="1:19">
+      <c r="A201" s="1">
+        <v>2</v>
+      </c>
+      <c r="B201" s="1">
+        <v>2</v>
+      </c>
+      <c r="C201" s="1">
+        <v>2</v>
+      </c>
+      <c r="F201" s="1">
+        <v>1</v>
+      </c>
+      <c r="G201" s="1">
+        <v>1</v>
+      </c>
+      <c r="H201" s="1">
+        <v>2</v>
+      </c>
+      <c r="I201" s="1">
+        <v>0</v>
+      </c>
+      <c r="J201" s="1">
+        <v>2</v>
+      </c>
+      <c r="K201" s="1">
+        <v>0</v>
+      </c>
+      <c r="N201" s="1">
+        <v>0</v>
+      </c>
+      <c r="O201" s="1">
+        <v>0</v>
+      </c>
+      <c r="P201" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q201" s="1">
+        <v>2</v>
+      </c>
+      <c r="R201" s="1">
+        <v>5</v>
+      </c>
+      <c r="S201" s="1">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47342,10 +47479,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN200"/>
+  <dimension ref="A100:AN201"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="I207" sqref="I207"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="K208" sqref="K208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51728,6 +51865,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="201" spans="1:19">
+      <c r="A201" s="9">
+        <v>1</v>
+      </c>
+      <c r="B201" s="9">
+        <v>1</v>
+      </c>
+      <c r="C201" s="9">
+        <v>1</v>
+      </c>
+      <c r="I201" s="9">
+        <v>1</v>
+      </c>
+      <c r="J201" s="11">
+        <v>2</v>
+      </c>
+      <c r="L201" s="16">
+        <v>0</v>
+      </c>
+      <c r="M201" s="16">
+        <v>1</v>
+      </c>
+      <c r="N201" s="16">
+        <v>2</v>
+      </c>
+      <c r="O201" s="16">
+        <v>8</v>
+      </c>
+      <c r="P201" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q201" s="16">
+        <v>9</v>
+      </c>
+      <c r="S201" s="16">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51740,7 +51915,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51964,7 +52139,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -52146,10 +52321,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -52220,7 +52395,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -52275,7 +52450,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -52284,7 +52459,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
@@ -52310,7 +52485,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="C13" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="19">
         <v>13</v>
@@ -52322,7 +52497,7 @@
         <v>17</v>
       </c>
       <c r="J13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="18">
         <v>14</v>
@@ -52333,8 +52508,11 @@
       <c r="N13" s="18">
         <v>0</v>
       </c>
+      <c r="O13" s="18">
+        <v>0</v>
+      </c>
       <c r="P13" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -52348,7 +52526,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L14" s="18">
         <v>10</v>
@@ -52362,13 +52540,13 @@
         <v>51</v>
       </c>
       <c r="G15" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I15" s="18">
         <v>18</v>
       </c>
       <c r="L15" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -52379,7 +52557,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" s="18">
         <v>1</v>
@@ -52387,7 +52565,7 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N17" s="18">
         <v>10</v>
@@ -52395,7 +52573,7 @@
     </row>
     <row r="18" spans="6:14">
       <c r="N18" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -52695,7 +52873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -938,7 +938,7 @@
   <dimension ref="A1:AO112"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+      <selection activeCell="AG67" sqref="AG67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6464,7 +6464,9 @@
       <c r="O55" s="7">
         <v>2</v>
       </c>
-      <c r="P55" s="7"/>
+      <c r="P55" s="7">
+        <v>0</v>
+      </c>
       <c r="Q55" s="7">
         <v>2</v>
       </c>
@@ -7002,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -7013,7 +7015,7 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B61" s="7">
         <v>19</v>
@@ -7040,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="7">
         <v>3</v>
@@ -7062,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="R61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S61" s="14">
         <v>4</v>
@@ -7077,7 +7079,7 @@
         <v>6</v>
       </c>
       <c r="W61" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X61" s="3">
         <v>6</v>
@@ -7114,7 +7116,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62" s="7">
         <v>4</v>
@@ -7246,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U63" s="4">
         <v>0</v>
@@ -7274,7 +7276,7 @@
         <v>2</v>
       </c>
       <c r="AD63" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
@@ -7307,7 +7309,7 @@
         <v>11</v>
       </c>
       <c r="K64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="4">
         <v>1</v>
@@ -7347,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB64" s="14">
         <v>3</v>
@@ -7430,7 +7432,7 @@
         <v>3</v>
       </c>
       <c r="AC65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65" s="7"/>
       <c r="AE65" s="3"/>
@@ -7465,7 +7467,7 @@
       </c>
       <c r="J66" s="3"/>
       <c r="L66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="4">
         <v>4</v>
@@ -7506,7 +7508,7 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG66" s="39">
         <v>0</v>
@@ -7529,7 +7531,7 @@
         <v>5</v>
       </c>
       <c r="H67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="4">
         <v>0</v>
@@ -7564,8 +7566,11 @@
       <c r="X67" s="4">
         <v>9</v>
       </c>
+      <c r="Y67" s="4">
+        <v>0</v>
+      </c>
       <c r="Z67" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB67" s="14">
         <v>8</v>
@@ -7574,7 +7579,7 @@
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="39">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -7603,7 +7608,7 @@
         <v>11</v>
       </c>
       <c r="N68" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O68" s="4">
         <v>0</v>
@@ -7673,7 +7678,7 @@
       </c>
       <c r="T69" s="3"/>
       <c r="U69" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V69" s="4">
         <v>8</v>
@@ -7684,7 +7689,7 @@
       </c>
       <c r="Z69" s="4"/>
       <c r="AB69" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD69" s="4"/>
       <c r="AE69" s="3"/>
@@ -7702,11 +7707,16 @@
       <c r="E70" s="4">
         <v>11</v>
       </c>
-      <c r="F70" s="7"/>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
       <c r="G70" s="2">
         <v>1</v>
       </c>
       <c r="H70" s="4"/>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="4"/>
@@ -7715,7 +7725,7 @@
       </c>
       <c r="N70" s="25"/>
       <c r="O70" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4">
@@ -7723,7 +7733,7 @@
       </c>
       <c r="R70" s="4"/>
       <c r="S70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="3"/>
       <c r="U70" s="4"/>
@@ -7744,7 +7754,7 @@
     </row>
     <row r="71" spans="1:33">
       <c r="B71" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -7796,7 +7806,7 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="3"/>
@@ -7818,7 +7828,9 @@
         <v>2</v>
       </c>
       <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
+      <c r="X72" s="4">
+        <v>0</v>
+      </c>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
       <c r="AB72" s="12"/>
@@ -7867,7 +7879,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F74" s="4"/>
       <c r="H74" s="4"/>
@@ -7909,7 +7921,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="M75" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -7919,7 +7931,7 @@
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W75" s="4"/>
       <c r="Y75" s="4"/>
@@ -7970,7 +7982,9 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
+      <c r="Q77" s="4">
+        <v>0</v>
+      </c>
       <c r="S77" s="4"/>
       <c r="T77" s="3"/>
       <c r="U77" s="4"/>
@@ -8051,7 +8065,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -8580,8 +8594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W205" sqref="P184:W205"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M208" sqref="M208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -23292,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -24380,7 +24394,7 @@
         <v>10</v>
       </c>
       <c r="U189" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V189" s="22">
         <v>2</v>
@@ -24445,7 +24459,7 @@
       </c>
       <c r="P190" s="22"/>
       <c r="Q190" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R190" s="22">
         <v>1</v>
@@ -24525,7 +24539,7 @@
         <v>2</v>
       </c>
       <c r="R191" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S191" s="19">
         <v>5</v>
@@ -24537,7 +24551,7 @@
         <v>4</v>
       </c>
       <c r="V191" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W191" s="20"/>
       <c r="X191" s="19">
@@ -24606,7 +24620,7 @@
         <v>2</v>
       </c>
       <c r="T192" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U192" s="22">
         <v>4</v>
@@ -24689,7 +24703,7 @@
         <v>2</v>
       </c>
       <c r="V193" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W193" s="23"/>
       <c r="X193" s="22">
@@ -24750,12 +24764,12 @@
       </c>
       <c r="P194" s="22"/>
       <c r="Q194" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R194" s="22">
         <v>3</v>
       </c>
-      <c r="S194" s="23">
+      <c r="S194" s="22">
         <v>7</v>
       </c>
       <c r="T194" s="22">
@@ -24780,7 +24794,9 @@
       <c r="AA194" s="22">
         <v>3</v>
       </c>
-      <c r="AB194" s="23"/>
+      <c r="AB194" s="22">
+        <v>7</v>
+      </c>
       <c r="AC194" s="23"/>
       <c r="AD194" s="63"/>
       <c r="AE194" s="22"/>
@@ -24825,12 +24841,12 @@
       </c>
       <c r="P195" s="22"/>
       <c r="Q195" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R195" s="22">
         <v>3</v>
       </c>
-      <c r="S195" s="23">
+      <c r="S195" s="22">
         <v>6</v>
       </c>
       <c r="T195" s="22">
@@ -24855,7 +24871,9 @@
       <c r="AA195" s="22">
         <v>4</v>
       </c>
-      <c r="AB195" s="23"/>
+      <c r="AB195" s="22">
+        <v>6</v>
+      </c>
       <c r="AC195" s="23"/>
       <c r="AD195" s="63"/>
       <c r="AE195" s="22"/>
@@ -24903,12 +24921,12 @@
         <v>4</v>
       </c>
       <c r="R196" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S196" s="23">
-        <v>5</v>
-      </c>
-      <c r="T196" s="23">
+        <v>6</v>
+      </c>
+      <c r="T196" s="22">
         <v>5</v>
       </c>
       <c r="U196" s="22">
@@ -24927,7 +24945,9 @@
       <c r="Z196" s="22">
         <v>4</v>
       </c>
-      <c r="AA196" s="23"/>
+      <c r="AA196" s="22">
+        <v>5</v>
+      </c>
       <c r="AB196" s="23"/>
       <c r="AC196" s="23"/>
       <c r="AD196" s="63"/>
@@ -24976,15 +24996,15 @@
         <v>1</v>
       </c>
       <c r="R197" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S197" s="22">
         <v>0</v>
       </c>
       <c r="T197" s="23">
-        <v>4</v>
-      </c>
-      <c r="U197" s="23">
+        <v>5</v>
+      </c>
+      <c r="U197" s="22">
         <v>4</v>
       </c>
       <c r="V197" s="22">
@@ -25000,7 +25020,9 @@
       <c r="Z197" s="22">
         <v>1</v>
       </c>
-      <c r="AA197" s="23"/>
+      <c r="AA197" s="22">
+        <v>4</v>
+      </c>
       <c r="AB197" s="23"/>
       <c r="AC197" s="23" t="s">
         <v>22</v>
@@ -25054,16 +25076,16 @@
         <v>0</v>
       </c>
       <c r="S198" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T198" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U198" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V198" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W198" s="23"/>
       <c r="X198" s="22">
@@ -25122,9 +25144,9 @@
         <v>0</v>
       </c>
       <c r="R199" s="23">
-        <v>2</v>
-      </c>
-      <c r="S199" s="23">
+        <v>3</v>
+      </c>
+      <c r="S199" s="22">
         <v>2</v>
       </c>
       <c r="T199" s="22">
@@ -25149,7 +25171,9 @@
       <c r="AA199" s="22">
         <v>1</v>
       </c>
-      <c r="AB199" s="23"/>
+      <c r="AB199" s="22">
+        <v>2</v>
+      </c>
       <c r="AC199" s="23"/>
       <c r="AD199" s="63"/>
       <c r="AE199" s="22"/>
@@ -25194,7 +25218,7 @@
       </c>
       <c r="P200" s="22"/>
       <c r="Q200" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R200" s="22">
         <v>0</v>
@@ -25202,14 +25226,14 @@
       <c r="S200" s="22">
         <v>0</v>
       </c>
-      <c r="T200" s="23">
+      <c r="T200" s="22">
         <v>1</v>
       </c>
       <c r="U200" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V200" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W200" s="23"/>
       <c r="X200" s="22">
@@ -25218,7 +25242,9 @@
       <c r="Y200" s="22">
         <v>0</v>
       </c>
-      <c r="Z200" s="23"/>
+      <c r="Z200" s="22">
+        <v>1</v>
+      </c>
       <c r="AA200" s="23"/>
       <c r="AB200" s="23"/>
       <c r="AC200" s="23"/>
@@ -25265,22 +25291,22 @@
       </c>
       <c r="P201" s="22"/>
       <c r="Q201" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R201" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S201" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T201" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U201" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V201" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W201" s="23"/>
       <c r="X201" s="23"/>
@@ -25294,13 +25320,61 @@
       <c r="AF201" s="38"/>
     </row>
     <row r="202" spans="1:32" s="21" customFormat="1">
+      <c r="A202" s="21">
+        <v>7</v>
+      </c>
+      <c r="B202" s="21">
+        <v>2</v>
+      </c>
+      <c r="C202" s="21">
+        <v>6</v>
+      </c>
+      <c r="D202" s="21">
+        <v>1</v>
+      </c>
+      <c r="E202" s="21">
+        <v>4</v>
+      </c>
+      <c r="F202" s="21">
+        <v>5</v>
+      </c>
+      <c r="I202" s="21">
+        <v>1</v>
+      </c>
+      <c r="J202" s="21">
+        <v>2</v>
+      </c>
+      <c r="K202" s="21">
+        <v>4</v>
+      </c>
+      <c r="L202" s="21">
+        <v>5</v>
+      </c>
+      <c r="M202" s="21">
+        <v>6</v>
+      </c>
+      <c r="N202" s="21">
+        <v>7</v>
+      </c>
       <c r="P202" s="22"/>
-      <c r="Q202" s="23"/>
-      <c r="R202" s="23"/>
-      <c r="S202" s="23"/>
-      <c r="T202" s="23"/>
-      <c r="U202" s="23"/>
-      <c r="V202" s="23"/>
+      <c r="Q202" s="23">
+        <v>0</v>
+      </c>
+      <c r="R202" s="23">
+        <v>0</v>
+      </c>
+      <c r="S202" s="23">
+        <v>0</v>
+      </c>
+      <c r="T202" s="23">
+        <v>0</v>
+      </c>
+      <c r="U202" s="23">
+        <v>0</v>
+      </c>
+      <c r="V202" s="23">
+        <v>0</v>
+      </c>
       <c r="W202" s="23"/>
       <c r="X202" s="23"/>
       <c r="Y202" s="23"/>
@@ -25370,6 +25444,7 @@
       <c r="AF205" s="38"/>
     </row>
     <row r="206" spans="1:32" s="21" customFormat="1">
+      <c r="P206" s="22"/>
       <c r="Q206" s="23"/>
       <c r="R206" s="23"/>
       <c r="S206" s="23"/>
@@ -37168,10 +37243,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO255"/>
+  <dimension ref="A1:AO256"/>
   <sheetViews>
     <sheetView topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N211" sqref="N211"/>
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -41364,11 +41439,25 @@
     </row>
     <row r="202" spans="1:18">
       <c r="A202" s="10"/>
-      <c r="B202" s="10"/>
-      <c r="C202" s="10"/>
+      <c r="B202" s="9">
+        <v>1</v>
+      </c>
+      <c r="C202" s="9">
+        <v>1</v>
+      </c>
       <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
+      <c r="E202" s="9">
+        <v>1</v>
+      </c>
+      <c r="F202" s="9">
+        <v>1</v>
+      </c>
+      <c r="G202" s="9">
+        <v>1</v>
+      </c>
+      <c r="H202" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="203" spans="1:18">
       <c r="A203" s="10"/>
@@ -41423,6 +41512,7 @@
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
       <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
       <c r="F209" s="10"/>
     </row>
     <row r="210" spans="1:6">
@@ -41493,7 +41583,7 @@
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
-      <c r="F219" s="18"/>
+      <c r="F219" s="10"/>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="10"/>
@@ -41507,6 +41597,7 @@
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
       <c r="D221" s="10"/>
+      <c r="F221" s="18"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="10"/>
@@ -41606,6 +41697,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="10"/>
+      <c r="B238" s="10"/>
       <c r="C238" s="10"/>
       <c r="D238" s="10"/>
     </row>
@@ -41677,6 +41769,9 @@
     </row>
     <row r="255" spans="1:4">
       <c r="C255" s="10"/>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="C256" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -41687,10 +41782,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U201"/>
+  <dimension ref="A1:U202"/>
   <sheetViews>
     <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="M208" sqref="M208"/>
+      <selection activeCell="J211" sqref="J211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -47470,6 +47565,53 @@
         <v>14</v>
       </c>
     </row>
+    <row r="202" spans="1:19">
+      <c r="A202" s="1">
+        <v>0</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1</v>
+      </c>
+      <c r="C202" s="1">
+        <v>5</v>
+      </c>
+      <c r="F202" s="1">
+        <v>0</v>
+      </c>
+      <c r="G202" s="1">
+        <v>0</v>
+      </c>
+      <c r="H202" s="1">
+        <v>3</v>
+      </c>
+      <c r="I202" s="1">
+        <v>2</v>
+      </c>
+      <c r="J202" s="1">
+        <v>1</v>
+      </c>
+      <c r="K202" s="1">
+        <v>0</v>
+      </c>
+      <c r="N202" s="1">
+        <v>0</v>
+      </c>
+      <c r="O202" s="1">
+        <v>2</v>
+      </c>
+      <c r="P202" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q202" s="1">
+        <v>4</v>
+      </c>
+      <c r="R202" s="1">
+        <v>9</v>
+      </c>
+      <c r="S202" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47479,10 +47621,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN201"/>
+  <dimension ref="A100:AN202"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="K208" sqref="K208"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="L212" sqref="L212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51903,6 +52045,44 @@
         <v>5</v>
       </c>
     </row>
+    <row r="202" spans="1:19">
+      <c r="E202" s="9">
+        <v>1</v>
+      </c>
+      <c r="F202" s="9">
+        <v>1</v>
+      </c>
+      <c r="G202" s="11">
+        <v>2</v>
+      </c>
+      <c r="H202" s="9">
+        <v>1</v>
+      </c>
+      <c r="J202" s="9">
+        <v>1</v>
+      </c>
+      <c r="L202" s="16">
+        <v>4</v>
+      </c>
+      <c r="M202" s="16">
+        <v>5</v>
+      </c>
+      <c r="N202" s="16">
+        <v>6</v>
+      </c>
+      <c r="O202" s="16">
+        <v>6</v>
+      </c>
+      <c r="P202" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q202" s="16">
+        <v>9</v>
+      </c>
+      <c r="S202" s="16">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51915,7 +52095,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -52139,7 +52319,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -52321,10 +52501,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -52395,7 +52575,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -52450,7 +52630,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -52459,7 +52639,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
@@ -52485,7 +52665,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="C13" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="19">
         <v>13</v>
@@ -52497,7 +52677,7 @@
         <v>17</v>
       </c>
       <c r="J13" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="18">
         <v>14</v>
@@ -52509,7 +52689,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="18">
         <v>9</v>
@@ -52526,13 +52706,16 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L14" s="18">
         <v>10</v>
       </c>
       <c r="N14" s="18">
         <v>18</v>
+      </c>
+      <c r="P14" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -52540,13 +52723,13 @@
         <v>51</v>
       </c>
       <c r="G15" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="18">
         <v>18</v>
       </c>
       <c r="L15" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -52557,7 +52740,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" s="18">
         <v>1</v>
@@ -52565,7 +52748,7 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" s="19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N17" s="18">
         <v>10</v>
@@ -52573,7 +52756,7 @@
     </row>
     <row r="18" spans="6:14">
       <c r="N18" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +425,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -438,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,6 +587,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -937,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO112"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG67" sqref="AG67"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF78" sqref="AF78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6565,7 +6574,9 @@
       <c r="O56" s="7">
         <v>2</v>
       </c>
-      <c r="P56" s="7"/>
+      <c r="P56" s="7">
+        <v>0</v>
+      </c>
       <c r="Q56" s="7">
         <v>2</v>
       </c>
@@ -7004,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -7015,7 +7026,7 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B61" s="7">
         <v>19</v>
@@ -7042,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="7">
         <v>3</v>
@@ -7064,7 +7075,7 @@
         <v>4</v>
       </c>
       <c r="R61" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S61" s="14">
         <v>4</v>
@@ -7116,7 +7127,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="7">
         <v>4</v>
@@ -7169,7 +7180,9 @@
       <c r="V62" s="7">
         <v>1</v>
       </c>
-      <c r="W62" s="7"/>
+      <c r="W62" s="7">
+        <v>0</v>
+      </c>
       <c r="X62" s="7">
         <v>8</v>
       </c>
@@ -7248,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U63" s="4">
         <v>0</v>
@@ -7276,7 +7289,7 @@
         <v>2</v>
       </c>
       <c r="AD63" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
@@ -7309,7 +7322,7 @@
         <v>11</v>
       </c>
       <c r="K64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64" s="4">
         <v>1</v>
@@ -7349,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB64" s="14">
         <v>3</v>
@@ -7432,7 +7445,7 @@
         <v>3</v>
       </c>
       <c r="AC65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD65" s="7"/>
       <c r="AE65" s="3"/>
@@ -7467,7 +7480,7 @@
       </c>
       <c r="J66" s="3"/>
       <c r="L66" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66" s="4">
         <v>4</v>
@@ -7531,7 +7544,7 @@
         <v>5</v>
       </c>
       <c r="H67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" s="4">
         <v>0</v>
@@ -7567,19 +7580,21 @@
         <v>9</v>
       </c>
       <c r="Y67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z67" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB67" s="14">
         <v>8</v>
       </c>
       <c r="AD67" s="4"/>
       <c r="AE67" s="3"/>
-      <c r="AF67" s="3"/>
+      <c r="AF67" s="3">
+        <v>0</v>
+      </c>
       <c r="AG67" s="39">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -7608,7 +7623,7 @@
         <v>11</v>
       </c>
       <c r="N68" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O68" s="4">
         <v>0</v>
@@ -7678,7 +7693,7 @@
       </c>
       <c r="T69" s="3"/>
       <c r="U69" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V69" s="4">
         <v>8</v>
@@ -7689,7 +7704,7 @@
       </c>
       <c r="Z69" s="4"/>
       <c r="AB69" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD69" s="4"/>
       <c r="AE69" s="3"/>
@@ -7715,7 +7730,7 @@
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -7725,7 +7740,7 @@
       </c>
       <c r="N70" s="25"/>
       <c r="O70" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4">
@@ -7733,7 +7748,7 @@
       </c>
       <c r="R70" s="4"/>
       <c r="S70" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T70" s="3"/>
       <c r="U70" s="4"/>
@@ -7754,7 +7769,7 @@
     </row>
     <row r="71" spans="1:33">
       <c r="B71" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -7762,7 +7777,9 @@
       <c r="E71" s="4">
         <v>0</v>
       </c>
-      <c r="F71" s="4"/>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
       <c r="G71" s="2">
         <v>2</v>
       </c>
@@ -7829,7 +7846,7 @@
       </c>
       <c r="W72" s="4"/>
       <c r="X72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
@@ -7845,6 +7862,9 @@
         <v>9</v>
       </c>
       <c r="F73" s="4"/>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="L73" s="4"/>
@@ -7879,7 +7899,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F74" s="4"/>
       <c r="H74" s="4"/>
@@ -7921,7 +7941,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="M75" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -7931,7 +7951,7 @@
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W75" s="4"/>
       <c r="Y75" s="4"/>
@@ -8007,7 +8027,9 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
+      <c r="Q78" s="4">
+        <v>0</v>
+      </c>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
       <c r="U78" s="4"/>
@@ -8065,7 +8087,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -8594,8 +8616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M208" sqref="M208"/>
+    <sheetView topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD211" sqref="AD211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -23306,7 +23328,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W176" s="20"/>
       <c r="X176" s="19">
@@ -24393,7 +24415,7 @@
       <c r="T189" s="22">
         <v>10</v>
       </c>
-      <c r="U189" s="23">
+      <c r="U189" s="66">
         <v>13</v>
       </c>
       <c r="V189" s="22">
@@ -24415,7 +24437,9 @@
       <c r="AB189" s="22">
         <v>10</v>
       </c>
-      <c r="AC189" s="23"/>
+      <c r="AC189" s="22">
+        <v>13</v>
+      </c>
       <c r="AD189" s="63"/>
       <c r="AE189" s="22"/>
       <c r="AF189" s="38"/>
@@ -24459,7 +24483,7 @@
       </c>
       <c r="P190" s="22"/>
       <c r="Q190" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R190" s="22">
         <v>1</v>
@@ -24539,7 +24563,7 @@
         <v>2</v>
       </c>
       <c r="R191" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S191" s="19">
         <v>5</v>
@@ -24551,7 +24575,7 @@
         <v>4</v>
       </c>
       <c r="V191" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W191" s="20"/>
       <c r="X191" s="19">
@@ -24619,7 +24643,7 @@
       <c r="S192" s="22">
         <v>2</v>
       </c>
-      <c r="T192" s="23">
+      <c r="T192" s="66">
         <v>10</v>
       </c>
       <c r="U192" s="22">
@@ -24644,7 +24668,9 @@
       <c r="AB192" s="22">
         <v>4</v>
       </c>
-      <c r="AC192" s="23"/>
+      <c r="AC192" s="22">
+        <v>10</v>
+      </c>
       <c r="AD192" s="63"/>
       <c r="AE192" s="22"/>
       <c r="AF192" s="38"/>
@@ -24703,7 +24729,7 @@
         <v>2</v>
       </c>
       <c r="V193" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W193" s="23"/>
       <c r="X193" s="22">
@@ -24764,7 +24790,7 @@
       </c>
       <c r="P194" s="22"/>
       <c r="Q194" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R194" s="22">
         <v>3</v>
@@ -24840,7 +24866,7 @@
         <v>10</v>
       </c>
       <c r="P195" s="22"/>
-      <c r="Q195" s="23">
+      <c r="Q195" s="66">
         <v>7</v>
       </c>
       <c r="R195" s="22">
@@ -24874,7 +24900,9 @@
       <c r="AB195" s="22">
         <v>6</v>
       </c>
-      <c r="AC195" s="23"/>
+      <c r="AC195" s="22">
+        <v>7</v>
+      </c>
       <c r="AD195" s="63"/>
       <c r="AE195" s="22"/>
       <c r="AF195" s="38"/>
@@ -24921,10 +24949,10 @@
         <v>4</v>
       </c>
       <c r="R196" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S196" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T196" s="22">
         <v>5</v>
@@ -24996,13 +25024,13 @@
         <v>1</v>
       </c>
       <c r="R197" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S197" s="22">
         <v>0</v>
       </c>
       <c r="T197" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U197" s="22">
         <v>4</v>
@@ -25076,16 +25104,16 @@
         <v>0</v>
       </c>
       <c r="S198" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T198" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U198" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V198" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W198" s="23"/>
       <c r="X198" s="22">
@@ -25144,7 +25172,7 @@
         <v>0</v>
       </c>
       <c r="R199" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S199" s="22">
         <v>2</v>
@@ -25218,7 +25246,7 @@
       </c>
       <c r="P200" s="22"/>
       <c r="Q200" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R200" s="22">
         <v>0</v>
@@ -25230,10 +25258,10 @@
         <v>1</v>
       </c>
       <c r="U200" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V200" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W200" s="23"/>
       <c r="X200" s="22">
@@ -25291,22 +25319,22 @@
       </c>
       <c r="P201" s="22"/>
       <c r="Q201" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R201" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S201" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T201" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U201" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V201" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W201" s="23"/>
       <c r="X201" s="23"/>
@@ -25357,28 +25385,34 @@
         <v>7</v>
       </c>
       <c r="P202" s="22"/>
-      <c r="Q202" s="23">
+      <c r="Q202" s="66">
         <v>0</v>
       </c>
       <c r="R202" s="23">
-        <v>0</v>
-      </c>
-      <c r="S202" s="23">
-        <v>0</v>
-      </c>
-      <c r="T202" s="23">
+        <v>1</v>
+      </c>
+      <c r="S202" s="66">
+        <v>0</v>
+      </c>
+      <c r="T202" s="66">
         <v>0</v>
       </c>
       <c r="U202" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V202" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W202" s="23"/>
-      <c r="X202" s="23"/>
-      <c r="Y202" s="23"/>
-      <c r="Z202" s="23"/>
+      <c r="X202" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y202" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z202" s="22">
+        <v>0</v>
+      </c>
       <c r="AA202" s="23"/>
       <c r="AB202" s="23"/>
       <c r="AC202" s="23"/>
@@ -25387,13 +25421,61 @@
       <c r="AF202" s="38"/>
     </row>
     <row r="203" spans="1:32" s="21" customFormat="1">
+      <c r="A203" s="21">
+        <v>0</v>
+      </c>
+      <c r="B203" s="21">
+        <v>7</v>
+      </c>
+      <c r="C203" s="21">
+        <v>0</v>
+      </c>
+      <c r="D203" s="21">
+        <v>0</v>
+      </c>
+      <c r="E203" s="21">
+        <v>10</v>
+      </c>
+      <c r="F203" s="21">
+        <v>13</v>
+      </c>
+      <c r="I203" s="21">
+        <v>0</v>
+      </c>
+      <c r="J203" s="21">
+        <v>0</v>
+      </c>
+      <c r="K203" s="21">
+        <v>0</v>
+      </c>
+      <c r="L203" s="21">
+        <v>7</v>
+      </c>
+      <c r="M203" s="21">
+        <v>10</v>
+      </c>
+      <c r="N203" s="21">
+        <v>13</v>
+      </c>
       <c r="P203" s="22"/>
-      <c r="Q203" s="23"/>
-      <c r="R203" s="23"/>
-      <c r="S203" s="23"/>
-      <c r="T203" s="23"/>
-      <c r="U203" s="23"/>
-      <c r="V203" s="23"/>
+      <c r="Q203" s="23">
+        <v>0</v>
+      </c>
+      <c r="R203" s="23">
+        <v>0</v>
+      </c>
+      <c r="S203" s="23">
+        <v>0</v>
+      </c>
+      <c r="T203" s="23">
+        <v>0</v>
+      </c>
+      <c r="U203" s="23">
+        <v>0</v>
+      </c>
+      <c r="V203" s="23">
+        <v>0</v>
+      </c>
       <c r="W203" s="23"/>
       <c r="X203" s="23"/>
       <c r="Y203" s="23"/>
@@ -37246,7 +37328,7 @@
   <dimension ref="A1:AO256"/>
   <sheetViews>
     <sheetView topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+      <selection activeCell="Q211" sqref="Q211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -41460,12 +41542,23 @@
       </c>
     </row>
     <row r="203" spans="1:18">
-      <c r="A203" s="10"/>
+      <c r="A203" s="11">
+        <v>3</v>
+      </c>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
+      <c r="H203" s="9">
+        <v>1</v>
+      </c>
+      <c r="K203" s="9">
+        <v>1</v>
+      </c>
+      <c r="N203" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="204" spans="1:18">
       <c r="A204" s="10"/>
@@ -41753,6 +41846,7 @@
       <c r="C249" s="10"/>
     </row>
     <row r="250" spans="1:4">
+      <c r="A250" s="10"/>
       <c r="C250" s="10"/>
     </row>
     <row r="251" spans="1:4">
@@ -41782,10 +41876,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U202"/>
+  <dimension ref="A1:U203"/>
   <sheetViews>
     <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="J211" sqref="J211"/>
+      <selection activeCell="K210" sqref="K210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -47612,6 +47706,53 @@
         <v>10</v>
       </c>
     </row>
+    <row r="203" spans="1:19">
+      <c r="A203" s="1">
+        <v>3</v>
+      </c>
+      <c r="B203" s="1">
+        <v>2</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1</v>
+      </c>
+      <c r="F203" s="1">
+        <v>2</v>
+      </c>
+      <c r="G203" s="1">
+        <v>0</v>
+      </c>
+      <c r="H203" s="1">
+        <v>1</v>
+      </c>
+      <c r="I203" s="1">
+        <v>2</v>
+      </c>
+      <c r="J203" s="1">
+        <v>1</v>
+      </c>
+      <c r="K203" s="1">
+        <v>0</v>
+      </c>
+      <c r="N203" s="1">
+        <v>1</v>
+      </c>
+      <c r="O203" s="1">
+        <v>1</v>
+      </c>
+      <c r="P203" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q203" s="1">
+        <v>4</v>
+      </c>
+      <c r="R203" s="1">
+        <v>6</v>
+      </c>
+      <c r="S203" s="1">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47621,10 +47762,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN202"/>
+  <dimension ref="A100:AN203"/>
   <sheetViews>
     <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="L212" sqref="L212"/>
+      <selection activeCell="G216" sqref="G216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -52083,6 +52224,41 @@
         <v>6</v>
       </c>
     </row>
+    <row r="203" spans="1:19">
+      <c r="C203" s="9">
+        <v>1</v>
+      </c>
+      <c r="D203" s="9">
+        <v>1</v>
+      </c>
+      <c r="G203" s="11">
+        <v>2</v>
+      </c>
+      <c r="H203" s="11">
+        <v>2</v>
+      </c>
+      <c r="L203" s="16">
+        <v>2</v>
+      </c>
+      <c r="M203" s="16">
+        <v>3</v>
+      </c>
+      <c r="N203" s="16">
+        <v>6</v>
+      </c>
+      <c r="O203" s="16">
+        <v>6</v>
+      </c>
+      <c r="P203" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q203" s="16">
+        <v>7</v>
+      </c>
+      <c r="S203" s="16">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52095,7 +52271,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -52319,7 +52495,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -52501,10 +52677,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -52575,7 +52751,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -52630,7 +52806,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -52639,7 +52815,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
@@ -52665,7 +52841,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="C13" s="19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="19">
         <v>13</v>
@@ -52677,7 +52853,7 @@
         <v>17</v>
       </c>
       <c r="J13" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" s="18">
         <v>14</v>
@@ -52689,7 +52865,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="18">
         <v>9</v>
@@ -52706,7 +52882,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" s="18">
         <v>10</v>
@@ -52715,7 +52891,7 @@
         <v>18</v>
       </c>
       <c r="P14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -52723,13 +52899,13 @@
         <v>51</v>
       </c>
       <c r="G15" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I15" s="18">
         <v>18</v>
       </c>
       <c r="L15" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -52740,7 +52916,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N16" s="18">
         <v>1</v>
@@ -52755,8 +52931,11 @@
       </c>
     </row>
     <row r="18" spans="6:14">
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
       <c r="N18" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -944,7 +944,7 @@
   <dimension ref="A1:AO112"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W82" sqref="W82"/>
+      <selection activeCell="AG76" sqref="AG76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -6673,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="P57" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q57" s="7">
         <v>0</v>
@@ -7014,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B61" s="7">
         <v>19</v>
@@ -7074,7 +7074,7 @@
         <v>4</v>
       </c>
       <c r="R61" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S61" s="14">
         <v>4</v>
@@ -7112,7 +7112,9 @@
       <c r="AD61" s="14">
         <v>1</v>
       </c>
-      <c r="AE61" s="7"/>
+      <c r="AE61" s="7">
+        <v>0</v>
+      </c>
       <c r="AF61" s="7">
         <v>1</v>
       </c>
@@ -7147,7 +7149,7 @@
         <v>5</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K62" s="7">
         <v>0</v>
@@ -7219,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D63" s="7">
         <v>1</v>
@@ -7264,7 +7266,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U63" s="4">
         <v>0</v>
@@ -7327,7 +7329,7 @@
         <v>11</v>
       </c>
       <c r="K64" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L64" s="4">
         <v>1</v>
@@ -7357,7 +7359,7 @@
         <v>4</v>
       </c>
       <c r="W64" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X64" s="4">
         <v>7</v>
@@ -7369,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB64" s="14">
         <v>3</v>
@@ -7377,7 +7379,9 @@
       <c r="AC64" s="3">
         <v>14</v>
       </c>
-      <c r="AD64" s="4"/>
+      <c r="AD64" s="4">
+        <v>1</v>
+      </c>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3">
         <v>4</v>
@@ -7452,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AC65" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD65" s="7"/>
       <c r="AE65" s="3"/>
@@ -7487,7 +7491,7 @@
       </c>
       <c r="J66" s="3"/>
       <c r="L66" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M66" s="4">
         <v>4</v>
@@ -7551,7 +7555,7 @@
         <v>5</v>
       </c>
       <c r="H67" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I67" s="4">
         <v>0</v>
@@ -7630,7 +7634,7 @@
         <v>11</v>
       </c>
       <c r="N68" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O68" s="4">
         <v>0</v>
@@ -7654,10 +7658,10 @@
         <v>6</v>
       </c>
       <c r="Y68" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB68" s="14">
         <v>1</v>
@@ -7665,9 +7669,11 @@
       <c r="AD68" s="4"/>
       <c r="AE68" s="3"/>
       <c r="AF68" s="38">
-        <v>1</v>
-      </c>
-      <c r="AG68" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="AG68" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:33">
       <c r="B69" s="3">
@@ -7694,7 +7700,9 @@
       <c r="M69" s="4">
         <v>1</v>
       </c>
-      <c r="N69" s="4"/>
+      <c r="N69" s="4">
+        <v>0</v>
+      </c>
       <c r="O69" s="4">
         <v>1</v>
       </c>
@@ -7716,7 +7724,9 @@
       <c r="X69" s="4">
         <v>0</v>
       </c>
-      <c r="Z69" s="4"/>
+      <c r="Z69" s="4">
+        <v>0</v>
+      </c>
       <c r="AB69" s="14">
         <v>7</v>
       </c>
@@ -7766,7 +7776,7 @@
       </c>
       <c r="T70" s="3"/>
       <c r="U70" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V70" s="4">
         <v>3</v>
@@ -7777,7 +7787,9 @@
       </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
-      <c r="AB70" s="7"/>
+      <c r="AB70" s="7">
+        <v>1</v>
+      </c>
       <c r="AD70" s="7"/>
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
@@ -7785,7 +7797,7 @@
     </row>
     <row r="71" spans="1:33">
       <c r="B71" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -7794,26 +7806,30 @@
         <v>0</v>
       </c>
       <c r="F71" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G71" s="2">
         <v>2</v>
       </c>
       <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
+      <c r="I71" s="4">
+        <v>1</v>
+      </c>
       <c r="J71" s="3"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4">
         <v>1</v>
       </c>
       <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
+      <c r="O71" s="4">
+        <v>1</v>
+      </c>
       <c r="Q71" s="4">
         <v>0</v>
       </c>
       <c r="R71" s="4"/>
       <c r="S71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" s="3"/>
       <c r="U71" s="4"/>
@@ -7856,7 +7872,9 @@
         <v>1</v>
       </c>
       <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
+      <c r="S72" s="4">
+        <v>0</v>
+      </c>
       <c r="T72" s="3"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4">
@@ -7881,7 +7899,7 @@
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
@@ -7904,7 +7922,7 @@
       </c>
       <c r="W73" s="4"/>
       <c r="X73" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
@@ -7919,7 +7937,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F74" s="4"/>
       <c r="H74" s="4"/>
@@ -7971,7 +7989,7 @@
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W75" s="4"/>
       <c r="Y75" s="4"/>
@@ -7992,7 +8010,9 @@
       <c r="I76" s="4"/>
       <c r="J76" s="3"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
+      <c r="M76" s="4">
+        <v>1</v>
+      </c>
       <c r="N76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4">
@@ -8000,7 +8020,9 @@
       </c>
       <c r="T76" s="3"/>
       <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
+      <c r="V76" s="4">
+        <v>0</v>
+      </c>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
       <c r="AF76" s="3"/>
@@ -8073,7 +8095,7 @@
       <c r="N79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
@@ -8096,7 +8118,9 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
+      <c r="Q80" s="4">
+        <v>0</v>
+      </c>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="W80" s="4"/>
@@ -8109,7 +8133,7 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -8639,7 +8663,7 @@
   <dimension ref="A1:AT956"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S213" sqref="S213"/>
+      <selection activeCell="I212" sqref="I212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -24522,7 +24546,7 @@
       <c r="O190" s="22"/>
       <c r="P190" s="22"/>
       <c r="Q190" s="23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R190" s="22">
         <v>1</v>
@@ -24602,7 +24626,7 @@
       <c r="Q191" s="22">
         <v>2</v>
       </c>
-      <c r="R191" s="20">
+      <c r="R191" s="19">
         <v>14</v>
       </c>
       <c r="S191" s="19">
@@ -24614,7 +24638,7 @@
       <c r="U191" s="19">
         <v>4</v>
       </c>
-      <c r="V191" s="20">
+      <c r="V191" s="19">
         <v>14</v>
       </c>
       <c r="W191" s="20"/>
@@ -24630,8 +24654,12 @@
       <c r="AA191" s="22">
         <v>5</v>
       </c>
-      <c r="AB191" s="20"/>
-      <c r="AC191" s="20"/>
+      <c r="AB191" s="22">
+        <v>14</v>
+      </c>
+      <c r="AC191" s="22">
+        <v>14</v>
+      </c>
       <c r="AD191" s="62"/>
       <c r="AE191" s="22"/>
       <c r="AF191" s="37"/>
@@ -24770,8 +24798,8 @@
       <c r="U193" s="22">
         <v>2</v>
       </c>
-      <c r="V193" s="23">
-        <v>12</v>
+      <c r="V193" s="65">
+        <v>13</v>
       </c>
       <c r="W193" s="23"/>
       <c r="X193" s="22">
@@ -24789,7 +24817,9 @@
       <c r="AB193" s="22">
         <v>5</v>
       </c>
-      <c r="AC193" s="23"/>
+      <c r="AC193" s="22">
+        <v>13</v>
+      </c>
       <c r="AE193" s="18"/>
       <c r="AF193" s="37"/>
     </row>
@@ -24995,11 +25025,11 @@
       <c r="Q196" s="22">
         <v>4</v>
       </c>
-      <c r="R196" s="23">
+      <c r="R196" s="22">
         <v>9</v>
       </c>
       <c r="S196" s="23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T196" s="22">
         <v>5</v>
@@ -25023,7 +25053,9 @@
       <c r="AA196" s="22">
         <v>5</v>
       </c>
-      <c r="AB196" s="23"/>
+      <c r="AB196" s="22">
+        <v>9</v>
+      </c>
       <c r="AC196" s="23"/>
       <c r="AD196" s="62"/>
       <c r="AE196" s="22"/>
@@ -25072,13 +25104,13 @@
         <v>1</v>
       </c>
       <c r="R197" s="23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S197" s="22">
         <v>0</v>
       </c>
-      <c r="T197" s="23">
-        <v>8</v>
+      <c r="T197" s="65">
+        <v>9</v>
       </c>
       <c r="U197" s="22">
         <v>4</v>
@@ -25099,7 +25131,9 @@
       <c r="AA197" s="22">
         <v>4</v>
       </c>
-      <c r="AB197" s="23"/>
+      <c r="AB197" s="22">
+        <v>9</v>
+      </c>
       <c r="AC197" s="23" t="s">
         <v>22</v>
       </c>
@@ -25152,16 +25186,16 @@
       <c r="R198" s="22">
         <v>0</v>
       </c>
-      <c r="S198" s="65">
+      <c r="S198" s="22">
         <v>6</v>
       </c>
       <c r="T198" s="23">
+        <v>9</v>
+      </c>
+      <c r="U198" s="22">
         <v>7</v>
       </c>
-      <c r="U198" s="23">
-        <v>7</v>
-      </c>
-      <c r="V198" s="23">
+      <c r="V198" s="22">
         <v>7</v>
       </c>
       <c r="W198" s="23"/>
@@ -25174,8 +25208,12 @@
       <c r="Z198" s="22">
         <v>6</v>
       </c>
-      <c r="AA198" s="23"/>
-      <c r="AB198" s="23"/>
+      <c r="AA198" s="22">
+        <v>7</v>
+      </c>
+      <c r="AB198" s="22">
+        <v>7</v>
+      </c>
       <c r="AC198" s="23"/>
       <c r="AD198" s="62"/>
       <c r="AE198" s="22"/>
@@ -25224,7 +25262,7 @@
         <v>0</v>
       </c>
       <c r="R199" s="23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S199" s="22">
         <v>2</v>
@@ -25299,7 +25337,7 @@
       <c r="O200" s="22"/>
       <c r="P200" s="22"/>
       <c r="Q200" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R200" s="22">
         <v>0</v>
@@ -25311,10 +25349,10 @@
         <v>1</v>
       </c>
       <c r="U200" s="23">
-        <v>5</v>
-      </c>
-      <c r="V200" s="23">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="V200" s="65">
+        <v>6</v>
       </c>
       <c r="W200" s="23"/>
       <c r="X200" s="22">
@@ -25326,7 +25364,9 @@
       <c r="Z200" s="22">
         <v>1</v>
       </c>
-      <c r="AA200" s="23"/>
+      <c r="AA200" s="22">
+        <v>6</v>
+      </c>
       <c r="AB200" s="23"/>
       <c r="AC200" s="23"/>
       <c r="AD200" s="62"/>
@@ -25373,22 +25413,22 @@
       <c r="O201" s="22"/>
       <c r="P201" s="22"/>
       <c r="Q201" s="23">
-        <v>4</v>
-      </c>
-      <c r="R201" s="65">
+        <v>6</v>
+      </c>
+      <c r="R201" s="22">
         <v>3</v>
       </c>
       <c r="S201" s="23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T201" s="23">
-        <v>4</v>
-      </c>
-      <c r="U201" s="65">
+        <v>6</v>
+      </c>
+      <c r="U201" s="22">
         <v>3</v>
       </c>
       <c r="V201" s="23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W201" s="23"/>
       <c r="X201" s="22">
@@ -25447,7 +25487,7 @@
       <c r="Q202" s="22">
         <v>0</v>
       </c>
-      <c r="R202" s="23">
+      <c r="R202" s="22">
         <v>3</v>
       </c>
       <c r="S202" s="22">
@@ -25456,7 +25496,7 @@
       <c r="T202" s="22">
         <v>0</v>
       </c>
-      <c r="U202" s="65">
+      <c r="U202" s="22">
         <v>2</v>
       </c>
       <c r="V202" s="22">
@@ -25478,7 +25518,9 @@
       <c r="AB202" s="22">
         <v>2</v>
       </c>
-      <c r="AC202" s="23"/>
+      <c r="AC202" s="22">
+        <v>3</v>
+      </c>
       <c r="AD202" s="62"/>
       <c r="AE202" s="22"/>
       <c r="AF202" s="37"/>
@@ -25523,12 +25565,12 @@
       <c r="O203" s="22"/>
       <c r="P203" s="22"/>
       <c r="Q203" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R203" s="23">
-        <v>2</v>
-      </c>
-      <c r="S203" s="65">
+        <v>4</v>
+      </c>
+      <c r="S203" s="22">
         <v>1</v>
       </c>
       <c r="T203" s="22">
@@ -25599,29 +25641,33 @@
       <c r="O204" s="22"/>
       <c r="P204" s="22"/>
       <c r="Q204" s="23">
-        <v>1</v>
-      </c>
-      <c r="R204" s="23">
-        <v>1</v>
-      </c>
-      <c r="S204" s="65">
+        <v>3</v>
+      </c>
+      <c r="R204" s="65">
+        <v>2</v>
+      </c>
+      <c r="S204" s="22">
         <v>0</v>
       </c>
       <c r="T204" s="23">
-        <v>1</v>
-      </c>
-      <c r="U204" s="23">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="U204" s="65">
+        <v>2</v>
       </c>
       <c r="V204" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W204" s="23"/>
       <c r="X204" s="22">
         <v>0</v>
       </c>
-      <c r="Y204" s="23"/>
-      <c r="Z204" s="23"/>
+      <c r="Y204" s="22">
+        <v>2</v>
+      </c>
+      <c r="Z204" s="22">
+        <v>2</v>
+      </c>
       <c r="AA204" s="23"/>
       <c r="AB204" s="23"/>
       <c r="AC204" s="23"/>
@@ -25669,25 +25715,27 @@
       <c r="O205" s="22"/>
       <c r="P205" s="22"/>
       <c r="Q205" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R205" s="23">
-        <v>0</v>
-      </c>
-      <c r="S205" s="23">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S205" s="65">
+        <v>1</v>
       </c>
       <c r="T205" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U205" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V205" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W205" s="23"/>
-      <c r="X205" s="23"/>
+      <c r="X205" s="22">
+        <v>1</v>
+      </c>
       <c r="Y205" s="23"/>
       <c r="Z205" s="23"/>
       <c r="AA205" s="23"/>
@@ -25698,14 +25746,62 @@
       <c r="AF205" s="37"/>
     </row>
     <row r="206" spans="1:32" s="21" customFormat="1">
+      <c r="A206" s="21">
+        <v>3</v>
+      </c>
+      <c r="B206" s="21">
+        <v>14</v>
+      </c>
+      <c r="C206" s="21">
+        <v>9</v>
+      </c>
+      <c r="D206" s="21">
+        <v>7</v>
+      </c>
+      <c r="E206" s="21">
+        <v>14</v>
+      </c>
+      <c r="F206" s="21">
+        <v>7</v>
+      </c>
+      <c r="I206" s="21">
+        <v>3</v>
+      </c>
+      <c r="J206" s="21">
+        <v>7</v>
+      </c>
+      <c r="K206" s="21">
+        <v>7</v>
+      </c>
+      <c r="L206" s="21">
+        <v>9</v>
+      </c>
+      <c r="M206" s="21">
+        <v>14</v>
+      </c>
+      <c r="N206" s="21">
+        <v>14</v>
+      </c>
       <c r="O206" s="22"/>
       <c r="P206" s="22"/>
-      <c r="Q206" s="23"/>
-      <c r="R206" s="23"/>
-      <c r="S206" s="23"/>
-      <c r="T206" s="23"/>
-      <c r="U206" s="23"/>
-      <c r="V206" s="23"/>
+      <c r="Q206" s="23">
+        <v>1</v>
+      </c>
+      <c r="R206" s="23">
+        <v>1</v>
+      </c>
+      <c r="S206" s="23">
+        <v>1</v>
+      </c>
+      <c r="T206" s="23">
+        <v>1</v>
+      </c>
+      <c r="U206" s="23">
+        <v>1</v>
+      </c>
+      <c r="V206" s="23">
+        <v>1</v>
+      </c>
       <c r="W206" s="23"/>
       <c r="X206" s="23"/>
       <c r="Y206" s="23"/>
@@ -25718,14 +25814,62 @@
       <c r="AF206" s="37"/>
     </row>
     <row r="207" spans="1:32" s="21" customFormat="1">
+      <c r="A207" s="21">
+        <v>9</v>
+      </c>
+      <c r="B207" s="21">
+        <v>2</v>
+      </c>
+      <c r="C207" s="21">
+        <v>1</v>
+      </c>
+      <c r="D207" s="21">
+        <v>6</v>
+      </c>
+      <c r="E207" s="21">
+        <v>2</v>
+      </c>
+      <c r="F207" s="21">
+        <v>13</v>
+      </c>
+      <c r="I207" s="21">
+        <v>1</v>
+      </c>
+      <c r="J207" s="21">
+        <v>2</v>
+      </c>
+      <c r="K207" s="21">
+        <v>2</v>
+      </c>
+      <c r="L207" s="21">
+        <v>6</v>
+      </c>
+      <c r="M207" s="21">
+        <v>9</v>
+      </c>
+      <c r="N207" s="21">
+        <v>13</v>
+      </c>
       <c r="O207" s="22"/>
       <c r="P207" s="22"/>
-      <c r="Q207" s="23"/>
-      <c r="R207" s="23"/>
-      <c r="S207" s="23"/>
-      <c r="T207" s="23"/>
-      <c r="U207" s="23"/>
-      <c r="V207" s="23"/>
+      <c r="Q207" s="23">
+        <v>0</v>
+      </c>
+      <c r="R207" s="23">
+        <v>0</v>
+      </c>
+      <c r="S207" s="23">
+        <v>0</v>
+      </c>
+      <c r="T207" s="23">
+        <v>0</v>
+      </c>
+      <c r="U207" s="23">
+        <v>0</v>
+      </c>
+      <c r="V207" s="23">
+        <v>0</v>
+      </c>
       <c r="W207" s="23"/>
       <c r="X207" s="37"/>
       <c r="Y207" s="37"/>
@@ -37503,7 +37647,7 @@
   <dimension ref="A1:AO256"/>
   <sheetViews>
     <sheetView topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I213" sqref="I213"/>
+      <selection activeCell="I212" sqref="I212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -42051,10 +42195,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U205"/>
+  <dimension ref="A1:U207"/>
   <sheetViews>
     <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="H211" sqref="H211"/>
+      <selection activeCell="S213" sqref="S213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -48022,6 +48166,100 @@
         <v>4</v>
       </c>
     </row>
+    <row r="206" spans="1:19">
+      <c r="A206" s="1">
+        <v>0</v>
+      </c>
+      <c r="B206" s="1">
+        <v>2</v>
+      </c>
+      <c r="C206" s="1">
+        <v>4</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0</v>
+      </c>
+      <c r="G206" s="1">
+        <v>3</v>
+      </c>
+      <c r="H206" s="1">
+        <v>0</v>
+      </c>
+      <c r="I206" s="1">
+        <v>0</v>
+      </c>
+      <c r="J206" s="1">
+        <v>1</v>
+      </c>
+      <c r="K206" s="1">
+        <v>2</v>
+      </c>
+      <c r="N206" s="1">
+        <v>0</v>
+      </c>
+      <c r="O206" s="1">
+        <v>1</v>
+      </c>
+      <c r="P206" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q206" s="1">
+        <v>2</v>
+      </c>
+      <c r="R206" s="1">
+        <v>3</v>
+      </c>
+      <c r="S206" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19">
+      <c r="A207" s="1">
+        <v>0</v>
+      </c>
+      <c r="B207" s="1">
+        <v>2</v>
+      </c>
+      <c r="C207" s="1">
+        <v>4</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0</v>
+      </c>
+      <c r="G207" s="1">
+        <v>1</v>
+      </c>
+      <c r="H207" s="1">
+        <v>1</v>
+      </c>
+      <c r="I207" s="1">
+        <v>1</v>
+      </c>
+      <c r="J207" s="1">
+        <v>1</v>
+      </c>
+      <c r="K207" s="1">
+        <v>2</v>
+      </c>
+      <c r="N207" s="1">
+        <v>0</v>
+      </c>
+      <c r="O207" s="1">
+        <v>0</v>
+      </c>
+      <c r="P207" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q207" s="1">
+        <v>4</v>
+      </c>
+      <c r="R207" s="1">
+        <v>5</v>
+      </c>
+      <c r="S207" s="1">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48031,10 +48269,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN205"/>
+  <dimension ref="A100:AN207"/>
   <sheetViews>
     <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="L213" sqref="L213"/>
+      <selection activeCell="K213" sqref="K213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -52574,6 +52812,52 @@
         <v>3</v>
       </c>
     </row>
+    <row r="206" spans="1:19">
+      <c r="L206" s="16">
+        <v>0</v>
+      </c>
+      <c r="M206" s="16">
+        <v>3</v>
+      </c>
+      <c r="N206" s="16">
+        <v>3</v>
+      </c>
+      <c r="O206" s="16">
+        <v>5</v>
+      </c>
+      <c r="P206" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q206" s="16">
+        <v>9</v>
+      </c>
+      <c r="S206" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19">
+      <c r="L207" s="16">
+        <v>1</v>
+      </c>
+      <c r="M207" s="16">
+        <v>2</v>
+      </c>
+      <c r="N207" s="16">
+        <v>4</v>
+      </c>
+      <c r="O207" s="16">
+        <v>6</v>
+      </c>
+      <c r="P207" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q207" s="16">
+        <v>9</v>
+      </c>
+      <c r="S207" s="16">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52586,7 +52870,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -52810,7 +53094,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -52992,10 +53276,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="19">
         <v>14</v>
@@ -53038,6 +53322,9 @@
       </c>
     </row>
     <row r="10" spans="1:16">
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
       <c r="C10" s="19">
         <v>2</v>
       </c>
@@ -53124,7 +53411,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -53148,7 +53435,7 @@
         <v>12</v>
       </c>
       <c r="M12" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="18">
         <v>17</v>
@@ -53162,7 +53449,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="C13" s="19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F13" s="19">
         <v>13</v>
@@ -53170,11 +53457,14 @@
       <c r="G13" s="18">
         <v>4</v>
       </c>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
       <c r="I13" s="18">
         <v>17</v>
       </c>
       <c r="J13" s="18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K13" s="18">
         <v>14</v>
@@ -53186,7 +53476,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P13" s="18">
         <v>9</v>
@@ -53203,7 +53493,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="18">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L14" s="18">
         <v>10</v>
@@ -53212,7 +53502,7 @@
         <v>18</v>
       </c>
       <c r="P14" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -53220,13 +53510,13 @@
         <v>51</v>
       </c>
       <c r="G15" s="18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I15" s="18">
         <v>18</v>
       </c>
       <c r="L15" s="18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N15" s="18">
         <v>2</v>
@@ -53237,7 +53527,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N16" s="18">
         <v>1</v>
@@ -53253,10 +53543,10 @@
     </row>
     <row r="18" spans="6:14">
       <c r="F18" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" s="18">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -382,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,12 +425,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -444,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -584,9 +578,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8663,7 +8654,7 @@
   <dimension ref="A1:AT956"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I212" sqref="I212"/>
+      <selection activeCell="L212" sqref="L212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -24798,7 +24789,7 @@
       <c r="U193" s="22">
         <v>2</v>
       </c>
-      <c r="V193" s="65">
+      <c r="V193" s="22">
         <v>13</v>
       </c>
       <c r="W193" s="23"/>
@@ -25109,7 +25100,7 @@
       <c r="S197" s="22">
         <v>0</v>
       </c>
-      <c r="T197" s="65">
+      <c r="T197" s="22">
         <v>9</v>
       </c>
       <c r="U197" s="22">
@@ -25351,7 +25342,7 @@
       <c r="U200" s="23">
         <v>7</v>
       </c>
-      <c r="V200" s="65">
+      <c r="V200" s="22">
         <v>6</v>
       </c>
       <c r="W200" s="23"/>
@@ -25643,7 +25634,7 @@
       <c r="Q204" s="23">
         <v>3</v>
       </c>
-      <c r="R204" s="65">
+      <c r="R204" s="22">
         <v>2</v>
       </c>
       <c r="S204" s="22">
@@ -25652,7 +25643,7 @@
       <c r="T204" s="23">
         <v>3</v>
       </c>
-      <c r="U204" s="65">
+      <c r="U204" s="22">
         <v>2</v>
       </c>
       <c r="V204" s="23">
@@ -25720,7 +25711,7 @@
       <c r="R205" s="23">
         <v>2</v>
       </c>
-      <c r="S205" s="65">
+      <c r="S205" s="22">
         <v>1</v>
       </c>
       <c r="T205" s="23">
@@ -42198,7 +42189,7 @@
   <dimension ref="A1:U207"/>
   <sheetViews>
     <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="S213" sqref="S213"/>
+      <selection activeCell="N213" sqref="N213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/demos/ng/cp.xlsx
+++ b/demos/ng/cp.xlsx
@@ -8654,7 +8654,7 @@
   <dimension ref="A1:AT956"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L212" sqref="L212"/>
+      <selection activeCell="S212" sqref="S212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
